--- a/INFO D.xlsx
+++ b/INFO D.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Dissonance-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17E4A9A-858C-4ECF-A151-175C2A6DA2DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC7255C-FDA8-47F9-A70C-BEC77B753473}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20445" yWindow="4005" windowWidth="20430" windowHeight="14985" tabRatio="680" firstSheet="6" activeTab="14" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="-28920" yWindow="3000" windowWidth="29040" windowHeight="16440" tabRatio="680" activeTab="9" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3211" uniqueCount="1673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3237" uniqueCount="1693">
   <si>
     <t>Quest</t>
   </si>
@@ -5068,6 +5068,66 @@
   </si>
   <si>
     <t>3 behemoth</t>
+  </si>
+  <si>
+    <t>Dank Storage</t>
+  </si>
+  <si>
+    <t>dankstorage:dank_1</t>
+  </si>
+  <si>
+    <t>4 leather</t>
+  </si>
+  <si>
+    <t>Dank Storage II</t>
+  </si>
+  <si>
+    <t>Dank 2</t>
+  </si>
+  <si>
+    <t>dankstorage:1_to_2</t>
+  </si>
+  <si>
+    <t>226, 123</t>
+  </si>
+  <si>
+    <t>Dank Storage IV</t>
+  </si>
+  <si>
+    <t>226, 96</t>
+  </si>
+  <si>
+    <t>Dank 4</t>
+  </si>
+  <si>
+    <t>dankstorage:3_to_4</t>
+  </si>
+  <si>
+    <t>Dank 6</t>
+  </si>
+  <si>
+    <t>dankstorage:5_to_6</t>
+  </si>
+  <si>
+    <t>Dank Storage VI</t>
+  </si>
+  <si>
+    <t>Pack It Up</t>
+  </si>
+  <si>
+    <t>package, stamp, package controller</t>
+  </si>
+  <si>
+    <t>2 packing tape 2 stamps</t>
+  </si>
+  <si>
+    <t>Lock It Up</t>
+  </si>
+  <si>
+    <t>locker</t>
+  </si>
+  <si>
+    <t>2 package</t>
   </si>
 </sst>
 </file>
@@ -5205,7 +5265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -5237,8 +5297,6 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5354,10 +5412,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Overworld!$H$2:$H$40</c:f>
+              <c:f>Overworld!$H$2:$H$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5452,10 +5510,10 @@
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>300</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>300</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>100</c:v>
@@ -5474,16 +5532,25 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Overworld!$I$2:$I$40</c:f>
+              <c:f>Overworld!$I$2:$I$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5578,10 +5645,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>50</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>100</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>150</c:v>
@@ -5600,6 +5667,15 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5972,6 +6048,15 @@
                 <c:pt idx="26">
                   <c:v>50</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>250</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6061,6 +6146,15 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16649,10 +16743,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="A41" sqref="A41:I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16783,7 +16877,7 @@
       <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="34">
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -16795,10 +16889,10 @@
       <c r="F5" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="33">
         <v>1500</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="34">
         <v>200</v>
       </c>
       <c r="I5" s="3">
@@ -17561,29 +17655,29 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="31" t="s">
         <v>429</v>
       </c>
-      <c r="B32" s="33">
+      <c r="B32" s="31">
         <v>164</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="31">
         <v>5</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="33" t="s">
+      <c r="E32" s="31" t="s">
         <v>430</v>
       </c>
-      <c r="F32" s="33"/>
-      <c r="G32" s="37">
+      <c r="F32" s="31"/>
+      <c r="G32" s="35">
         <v>1500</v>
       </c>
-      <c r="H32" s="33">
+      <c r="H32" s="31">
         <v>200</v>
       </c>
-      <c r="I32" s="34">
+      <c r="I32" s="32">
         <v>0</v>
       </c>
     </row>
@@ -17609,11 +17703,11 @@
       <c r="G33" s="18">
         <v>1500</v>
       </c>
-      <c r="H33" s="8">
-        <v>300</v>
+      <c r="H33" s="14">
+        <v>275</v>
       </c>
       <c r="I33" s="14">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -17638,11 +17732,11 @@
       <c r="G34" s="9">
         <v>2250</v>
       </c>
-      <c r="H34" s="2">
-        <v>300</v>
-      </c>
-      <c r="I34" s="2">
-        <v>100</v>
+      <c r="H34" s="9">
+        <v>275</v>
+      </c>
+      <c r="I34" s="9">
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -17789,32 +17883,119 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="8" t="s">
         <v>1658</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="8">
         <v>223</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="8">
         <v>0</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="8" t="s">
         <v>1659</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="F40" s="8" t="s">
         <v>1660</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G40" s="14">
         <v>500</v>
       </c>
-      <c r="H40" s="16">
+      <c r="H40" s="8">
         <v>0</v>
       </c>
-      <c r="I40" s="16">
+      <c r="I40" s="8">
         <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B41" s="8">
+        <v>226</v>
+      </c>
+      <c r="C41" s="8">
+        <v>114</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>1675</v>
+      </c>
+      <c r="G41" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H41" s="8">
+        <v>300</v>
+      </c>
+      <c r="I41" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B42" s="8">
+        <v>230</v>
+      </c>
+      <c r="C42" s="8">
+        <v>223</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>1689</v>
+      </c>
+      <c r="G42" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H42" s="8">
+        <v>25</v>
+      </c>
+      <c r="I42" s="8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B43" s="16">
+        <v>231</v>
+      </c>
+      <c r="C43" s="16">
+        <v>230</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G43" s="19">
+        <v>1000</v>
+      </c>
+      <c r="H43" s="16">
+        <v>25</v>
+      </c>
+      <c r="I43" s="16">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -17833,10 +18014,10 @@
   <sheetPr>
     <tabColor rgb="FF9966FF"/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18569,31 +18750,129 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B28" s="32">
+      <c r="B28" s="10">
         <v>144</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C28" s="10">
         <v>141</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="32" t="s">
+      <c r="D28" s="6"/>
+      <c r="E28" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="F28" s="31" t="s">
+      <c r="F28" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="G28" s="32">
+      <c r="G28" s="10">
         <v>1000</v>
       </c>
-      <c r="H28" s="31">
+      <c r="H28" s="6">
         <v>50</v>
       </c>
-      <c r="I28" s="31">
+      <c r="I28" s="6">
         <v>50</v>
       </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B29" s="14">
+        <v>227</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>1677</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>1678</v>
+      </c>
+      <c r="G29" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H29" s="8">
+        <v>175</v>
+      </c>
+      <c r="I29" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B30" s="14">
+        <v>228</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>1682</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>1683</v>
+      </c>
+      <c r="G30" s="14">
+        <v>2500</v>
+      </c>
+      <c r="H30" s="8">
+        <v>300</v>
+      </c>
+      <c r="I30" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B31" s="19">
+        <v>229</v>
+      </c>
+      <c r="C31" s="19">
+        <v>228</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G31" s="19">
+        <v>3000</v>
+      </c>
+      <c r="H31" s="16">
+        <v>250</v>
+      </c>
+      <c r="I31" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -27194,7 +27473,7 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -30009,7 +30288,7 @@
       <c r="D7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="38" t="s">
         <v>57</v>
       </c>
       <c r="F7" s="11" t="s">
@@ -30533,7 +30812,7 @@
       <c r="D11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="39" t="s">
         <v>91</v>
       </c>
       <c r="F11" s="12" t="s">
@@ -31803,29 +32082,29 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="36" t="s">
         <v>418</v>
       </c>
-      <c r="B18" s="38">
+      <c r="B18" s="36">
         <v>161</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18" s="36">
         <v>153</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="36" t="s">
         <v>419</v>
       </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="38">
+      <c r="F18" s="37"/>
+      <c r="G18" s="36">
         <v>75000</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="36">
         <v>200</v>
       </c>
-      <c r="I18" s="38">
+      <c r="I18" s="36">
         <v>200</v>
       </c>
     </row>

--- a/INFO D.xlsx
+++ b/INFO D.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Dissonance-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC7255C-FDA8-47F9-A70C-BEC77B753473}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1819EE6D-5A3C-4883-9FB1-6E2C278AB1C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3000" windowWidth="29040" windowHeight="16440" tabRatio="680" activeTab="9" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="-21960" yWindow="4095" windowWidth="20430" windowHeight="12390" tabRatio="680" firstSheet="9" activeTab="12" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3237" uniqueCount="1693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3247" uniqueCount="1698">
   <si>
     <t>Quest</t>
   </si>
@@ -5128,6 +5128,21 @@
   </si>
   <si>
     <t>2 package</t>
+  </si>
+  <si>
+    <t>Angelic Raiment</t>
+  </si>
+  <si>
+    <t>Cow King's Leathers</t>
+  </si>
+  <si>
+    <t>ring, neck, charm, helmet</t>
+  </si>
+  <si>
+    <t>very_high_armor_penetration_flat</t>
+  </si>
+  <si>
+    <t>leather armor</t>
   </si>
 </sst>
 </file>
@@ -18016,7 +18031,7 @@
   </sheetPr>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A29" sqref="A29:I31"/>
     </sheetView>
   </sheetViews>
@@ -19221,7 +19236,7 @@
   </sheetPr>
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B16" sqref="B16:H36"/>
     </sheetView>
   </sheetViews>
@@ -20311,10 +20326,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21743,6 +21758,76 @@
         <v>869</v>
       </c>
       <c r="I40" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>10000</v>
+      </c>
+      <c r="E41" s="18">
+        <v>5</v>
+      </c>
+      <c r="F41" s="18">
+        <v>35</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1695</v>
+      </c>
+      <c r="I41" t="s">
+        <v>808</v>
+      </c>
+      <c r="J41" t="s">
+        <v>803</v>
+      </c>
+      <c r="K41" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>10000</v>
+      </c>
+      <c r="E42" s="18">
+        <v>20</v>
+      </c>
+      <c r="F42" s="18">
+        <v>50</v>
+      </c>
+      <c r="G42">
+        <v>4</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1697</v>
+      </c>
+      <c r="I42" t="s">
+        <v>663</v>
+      </c>
+      <c r="J42" t="s">
+        <v>863</v>
+      </c>
+      <c r="K42" t="s">
         <v>695</v>
       </c>
     </row>
@@ -27473,7 +27558,7 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>

--- a/INFO D.xlsx
+++ b/INFO D.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Dissonance-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1819EE6D-5A3C-4883-9FB1-6E2C278AB1C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F82A72-CFD9-4AF6-9450-339B0B720A43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21960" yWindow="4095" windowWidth="20430" windowHeight="12390" tabRatio="680" firstSheet="9" activeTab="12" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="-23040" yWindow="4290" windowWidth="20430" windowHeight="12390" tabRatio="680" firstSheet="9" activeTab="13" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -16114,6 +16114,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>162424</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3FBD39C-B2FC-4641-A4D8-3F18FE1DF674}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11106150" y="809625"/>
+          <a:ext cx="3572374" cy="2219635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -19236,8 +19285,8 @@
   </sheetPr>
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:H36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20328,8 +20377,8 @@
   </sheetPr>
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView topLeftCell="I18" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21844,8 +21893,8 @@
   </sheetPr>
   <dimension ref="A1:P157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27558,8 +27607,8 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28228,6 +28277,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/INFO D.xlsx
+++ b/INFO D.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Dissonance-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F82A72-CFD9-4AF6-9450-339B0B720A43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D6F7F7-89DF-4677-A766-B2A7052D3401}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23040" yWindow="4290" windowWidth="20430" windowHeight="12390" tabRatio="680" firstSheet="9" activeTab="13" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="-28920" yWindow="3000" windowWidth="29040" windowHeight="16440" tabRatio="680" firstSheet="9" activeTab="14" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -2502,9 +2502,6 @@
     <t>Armor of the Elements</t>
   </si>
   <si>
-    <t>all_ele_spell_dmg_flat</t>
-  </si>
-  <si>
     <t>all_ele_dmg_flat</t>
   </si>
   <si>
@@ -5143,6 +5140,9 @@
   </si>
   <si>
     <t>leather armor</t>
+  </si>
+  <si>
+    <t>elemental_spell_damage_flat</t>
   </si>
 </sst>
 </file>
@@ -17919,7 +17919,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B39" s="8">
         <v>221</v>
@@ -17931,10 +17931,10 @@
         <v>48</v>
       </c>
       <c r="E39" s="8" t="s">
+        <v>1649</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>1650</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>1651</v>
       </c>
       <c r="G39" s="14">
         <v>500</v>
@@ -17948,7 +17948,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B40" s="8">
         <v>223</v>
@@ -17960,10 +17960,10 @@
         <v>7</v>
       </c>
       <c r="E40" s="8" t="s">
+        <v>1658</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>1659</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>1660</v>
       </c>
       <c r="G40" s="14">
         <v>500</v>
@@ -17977,7 +17977,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="B41" s="8">
         <v>226</v>
@@ -17989,10 +17989,10 @@
         <v>7</v>
       </c>
       <c r="E41" s="8" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F41" s="8" t="s">
         <v>1674</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>1675</v>
       </c>
       <c r="G41" s="14">
         <v>2000</v>
@@ -18006,7 +18006,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B42" s="8">
         <v>230</v>
@@ -18018,10 +18018,10 @@
         <v>7</v>
       </c>
       <c r="E42" s="8" t="s">
+        <v>1687</v>
+      </c>
+      <c r="F42" s="8" t="s">
         <v>1688</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>1689</v>
       </c>
       <c r="G42" s="14">
         <v>1000</v>
@@ -18035,7 +18035,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B43" s="16">
         <v>231</v>
@@ -18047,10 +18047,10 @@
         <v>7</v>
       </c>
       <c r="E43" s="16" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F43" s="16" t="s">
         <v>1691</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>1692</v>
       </c>
       <c r="G43" s="19">
         <v>1000</v>
@@ -18126,7 +18126,7 @@
         <v>96</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>197</v>
@@ -18842,22 +18842,22 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B29" s="14">
         <v>227</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E29" s="14" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>1677</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>1678</v>
       </c>
       <c r="G29" s="14">
         <v>2000</v>
@@ -18871,22 +18871,22 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="B30" s="14">
         <v>228</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="14" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>1682</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>1683</v>
       </c>
       <c r="G30" s="14">
         <v>2500</v>
@@ -18900,7 +18900,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B31" s="19">
         <v>229</v>
@@ -18912,10 +18912,10 @@
         <v>7</v>
       </c>
       <c r="E31" s="19" t="s">
+        <v>1683</v>
+      </c>
+      <c r="F31" s="16" t="s">
         <v>1684</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>1685</v>
       </c>
       <c r="G31" s="19">
         <v>3000</v>
@@ -19286,7 +19286,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20377,7 +20377,7 @@
   </sheetPr>
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView topLeftCell="I18" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
@@ -21059,10 +21059,10 @@
         <v>742</v>
       </c>
       <c r="J20" s="18" t="s">
+        <v>1697</v>
+      </c>
+      <c r="K20" s="18" t="s">
         <v>817</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>818</v>
       </c>
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
@@ -21070,7 +21070,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -21100,7 +21100,7 @@
         <v>623</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="L21" s="18"/>
       <c r="M21" s="18"/>
@@ -21108,7 +21108,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -21132,7 +21132,7 @@
         <v>782</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J22" s="18" t="s">
         <v>808</v>
@@ -21144,7 +21144,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -21171,7 +21171,7 @@
         <v>645</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="K23" s="18" t="s">
         <v>724</v>
@@ -21182,7 +21182,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -21203,7 +21203,7 @@
         <v>6</v>
       </c>
       <c r="H24" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I24" t="s">
         <v>623</v>
@@ -21215,12 +21215,12 @@
         <v>799</v>
       </c>
       <c r="L24" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -21241,10 +21241,10 @@
         <v>2</v>
       </c>
       <c r="H25" s="18" t="s">
+        <v>828</v>
+      </c>
+      <c r="I25" s="18" t="s">
         <v>829</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>830</v>
       </c>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
@@ -21254,7 +21254,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -21292,7 +21292,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -21316,7 +21316,7 @@
         <v>778</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="J27" s="18" t="s">
         <v>728</v>
@@ -21330,7 +21330,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -21363,14 +21363,14 @@
         <v>753</v>
       </c>
       <c r="L28" s="18" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="M28" s="18"/>
       <c r="N28" s="18"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -21391,7 +21391,7 @@
         <v>4</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="I29" s="18" t="s">
         <v>732</v>
@@ -21408,7 +21408,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -21429,10 +21429,10 @@
         <v>2</v>
       </c>
       <c r="H30" s="18" t="s">
+        <v>838</v>
+      </c>
+      <c r="I30" s="18" t="s">
         <v>839</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>840</v>
       </c>
       <c r="J30" s="18"/>
       <c r="K30" s="18"/>
@@ -21442,7 +21442,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -21469,7 +21469,7 @@
         <v>690</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>817</v>
+        <v>1697</v>
       </c>
       <c r="K31" s="18"/>
       <c r="L31" s="18"/>
@@ -21478,7 +21478,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -21499,7 +21499,7 @@
         <v>6</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="I32" s="18" t="s">
         <v>658</v>
@@ -21511,16 +21511,16 @@
         <v>690</v>
       </c>
       <c r="L32" s="18" t="s">
+        <v>843</v>
+      </c>
+      <c r="M32" s="18" t="s">
         <v>844</v>
-      </c>
-      <c r="M32" s="18" t="s">
-        <v>845</v>
       </c>
       <c r="N32" s="18"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -21541,19 +21541,19 @@
         <v>6</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="I33" s="18" t="s">
         <v>708</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K33" s="18" t="s">
         <v>690</v>
       </c>
       <c r="L33" s="18" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="M33" s="18" t="s">
         <v>708</v>
@@ -21562,7 +21562,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -21583,28 +21583,28 @@
         <v>6</v>
       </c>
       <c r="H34" s="18" t="s">
+        <v>850</v>
+      </c>
+      <c r="I34" s="18" t="s">
         <v>851</v>
-      </c>
-      <c r="I34" s="18" t="s">
-        <v>852</v>
       </c>
       <c r="J34" s="18" t="s">
         <v>694</v>
       </c>
       <c r="K34" s="18" t="s">
-        <v>817</v>
+        <v>1697</v>
       </c>
       <c r="L34" s="18" t="s">
         <v>658</v>
       </c>
       <c r="M34" s="18" t="s">
-        <v>817</v>
+        <v>1697</v>
       </c>
       <c r="N34" s="18"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -21625,13 +21625,13 @@
         <v>3</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="I35" s="18" t="s">
         <v>813</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K35" s="18"/>
       <c r="L35" s="18"/>
@@ -21640,7 +21640,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -21664,10 +21664,10 @@
         <v>780</v>
       </c>
       <c r="I36" s="18" t="s">
+        <v>856</v>
+      </c>
+      <c r="J36" s="18" t="s">
         <v>857</v>
-      </c>
-      <c r="J36" s="18" t="s">
-        <v>858</v>
       </c>
       <c r="K36" s="18" t="s">
         <v>791</v>
@@ -21678,7 +21678,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -21705,7 +21705,7 @@
         <v>755</v>
       </c>
       <c r="J37" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="K37" t="s">
         <v>793</v>
@@ -21713,7 +21713,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -21737,10 +21737,10 @@
         <v>780</v>
       </c>
       <c r="I38" t="s">
+        <v>861</v>
+      </c>
+      <c r="J38" t="s">
         <v>862</v>
-      </c>
-      <c r="J38" t="s">
-        <v>863</v>
       </c>
       <c r="K38" t="s">
         <v>797</v>
@@ -21748,7 +21748,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -21772,10 +21772,10 @@
         <v>780</v>
       </c>
       <c r="I39" s="18" t="s">
+        <v>864</v>
+      </c>
+      <c r="J39" t="s">
         <v>865</v>
-      </c>
-      <c r="J39" t="s">
-        <v>866</v>
       </c>
       <c r="K39" t="s">
         <v>795</v>
@@ -21783,7 +21783,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -21795,16 +21795,16 @@
         <v>200555</v>
       </c>
       <c r="E40" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F40" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G40">
         <v>2</v>
       </c>
       <c r="H40" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I40" t="s">
         <v>695</v>
@@ -21812,7 +21812,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -21833,7 +21833,7 @@
         <v>4</v>
       </c>
       <c r="H41" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="I41" t="s">
         <v>808</v>
@@ -21842,12 +21842,12 @@
         <v>803</v>
       </c>
       <c r="K41" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -21868,13 +21868,13 @@
         <v>4</v>
       </c>
       <c r="H42" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="I42" t="s">
         <v>663</v>
       </c>
       <c r="J42" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="K42" t="s">
         <v>695</v>
@@ -21893,8 +21893,8 @@
   </sheetPr>
   <dimension ref="A1:P157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="I107" sqref="I107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21907,7 +21907,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -21925,45 +21925,45 @@
         <v>612</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>879</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>880</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>881</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="18" t="s">
         <v>882</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>883</v>
       </c>
       <c r="D2" s="18">
         <v>2</v>
@@ -21975,33 +21975,33 @@
         <v>10000</v>
       </c>
       <c r="G2" t="s">
+        <v>883</v>
+      </c>
+      <c r="I2" t="s">
         <v>884</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>832</v>
+      </c>
+      <c r="K2" t="s">
         <v>885</v>
       </c>
-      <c r="J2" t="s">
-        <v>833</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>886</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>887</v>
-      </c>
-      <c r="P2" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>888</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>889</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>890</v>
       </c>
       <c r="D3" s="18">
         <v>3</v>
@@ -22013,36 +22013,36 @@
         <v>10000</v>
       </c>
       <c r="G3" t="s">
+        <v>890</v>
+      </c>
+      <c r="H3" t="s">
         <v>891</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>892</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>893</v>
-      </c>
-      <c r="J3" t="s">
-        <v>894</v>
       </c>
       <c r="K3" t="s">
         <v>630</v>
       </c>
       <c r="N3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="P3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>895</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>896</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>897</v>
       </c>
       <c r="D4" s="18">
         <v>4</v>
@@ -22054,36 +22054,36 @@
         <v>10000</v>
       </c>
       <c r="G4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="I4" t="s">
         <v>791</v>
       </c>
       <c r="J4" t="s">
+        <v>898</v>
+      </c>
+      <c r="K4" t="s">
+        <v>856</v>
+      </c>
+      <c r="L4" s="18" t="s">
         <v>899</v>
       </c>
-      <c r="K4" t="s">
-        <v>857</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>900</v>
-      </c>
       <c r="N4" t="s">
+        <v>886</v>
+      </c>
+      <c r="P4" t="s">
         <v>887</v>
-      </c>
-      <c r="P4" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>900</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>901</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="C5" s="18" t="s">
         <v>902</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>903</v>
       </c>
       <c r="D5" s="18">
         <v>1</v>
@@ -22095,33 +22095,33 @@
         <v>10000</v>
       </c>
       <c r="G5" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="J5" t="s">
         <v>747</v>
       </c>
       <c r="K5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="N5" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="P5" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>904</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>905</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>906</v>
       </c>
       <c r="D6" s="18">
         <v>2</v>
@@ -22133,36 +22133,36 @@
         <v>10000</v>
       </c>
       <c r="G6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I6" t="s">
         <v>709</v>
       </c>
       <c r="J6" t="s">
+        <v>907</v>
+      </c>
+      <c r="K6" t="s">
         <v>908</v>
       </c>
-      <c r="K6" t="s">
+      <c r="N6" t="s">
         <v>909</v>
       </c>
-      <c r="N6" t="s">
-        <v>910</v>
-      </c>
       <c r="P6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>910</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>911</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>912</v>
       </c>
       <c r="D7" s="18">
         <v>2</v>
@@ -22174,7 +22174,7 @@
         <v>10000</v>
       </c>
       <c r="G7" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I7" t="s">
         <v>809</v>
@@ -22183,24 +22183,24 @@
         <v>720</v>
       </c>
       <c r="K7" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="P7" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>913</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>914</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>915</v>
       </c>
       <c r="D8" s="18">
         <v>4</v>
@@ -22212,39 +22212,39 @@
         <v>10000</v>
       </c>
       <c r="G8" t="s">
+        <v>915</v>
+      </c>
+      <c r="H8" t="s">
         <v>916</v>
       </c>
-      <c r="H8" t="s">
-        <v>917</v>
-      </c>
       <c r="I8" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J8" t="s">
         <v>753</v>
       </c>
       <c r="K8" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="N8" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="P8" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>918</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>919</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="C9" s="18" t="s">
         <v>920</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>921</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -22259,30 +22259,30 @@
         <v>724</v>
       </c>
       <c r="I9" t="s">
+        <v>921</v>
+      </c>
+      <c r="J9" t="s">
         <v>922</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
+        <v>893</v>
+      </c>
+      <c r="N9" t="s">
         <v>923</v>
       </c>
-      <c r="K9" t="s">
-        <v>894</v>
-      </c>
-      <c r="N9" t="s">
-        <v>924</v>
-      </c>
       <c r="P9" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>924</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>925</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>926</v>
       </c>
       <c r="D10" s="18">
         <v>5</v>
@@ -22297,33 +22297,33 @@
         <v>727</v>
       </c>
       <c r="I10" t="s">
+        <v>926</v>
+      </c>
+      <c r="J10" t="s">
         <v>927</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
+        <v>883</v>
+      </c>
+      <c r="L10" t="s">
         <v>928</v>
       </c>
-      <c r="K10" t="s">
-        <v>884</v>
-      </c>
-      <c r="L10" t="s">
-        <v>929</v>
-      </c>
       <c r="N10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="P10" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>929</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>930</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="C11" s="18" t="s">
         <v>931</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>932</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -22341,24 +22341,24 @@
         <v>658</v>
       </c>
       <c r="J11" t="s">
+        <v>932</v>
+      </c>
+      <c r="N11" t="s">
         <v>933</v>
       </c>
-      <c r="N11" t="s">
-        <v>934</v>
-      </c>
       <c r="P11" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>934</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>935</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>936</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -22370,33 +22370,33 @@
         <v>250</v>
       </c>
       <c r="G12" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="I12" t="s">
         <v>694</v>
       </c>
       <c r="J12" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K12" t="s">
         <v>690</v>
       </c>
       <c r="N12" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="P12" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -22408,33 +22408,33 @@
         <v>250</v>
       </c>
       <c r="G13" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="I13" t="s">
         <v>694</v>
       </c>
       <c r="J13" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K13" t="s">
         <v>690</v>
       </c>
       <c r="N13" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="P13" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -22446,33 +22446,33 @@
         <v>250</v>
       </c>
       <c r="G14" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="I14" t="s">
         <v>694</v>
       </c>
       <c r="J14" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K14" t="s">
         <v>690</v>
       </c>
       <c r="N14" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="P14" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -22484,33 +22484,33 @@
         <v>250</v>
       </c>
       <c r="G15" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I15" t="s">
         <v>694</v>
       </c>
       <c r="J15" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K15" t="s">
         <v>690</v>
       </c>
       <c r="N15" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="P15" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -22522,33 +22522,33 @@
         <v>250</v>
       </c>
       <c r="G16" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I16" t="s">
         <v>694</v>
       </c>
       <c r="J16" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K16" t="s">
         <v>690</v>
       </c>
       <c r="N16" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="P16" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -22560,33 +22560,33 @@
         <v>250</v>
       </c>
       <c r="G17" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="I17" t="s">
         <v>694</v>
       </c>
       <c r="J17" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K17" t="s">
         <v>690</v>
       </c>
       <c r="N17" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="P17" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>949</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>950</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="C18" s="18" t="s">
         <v>951</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>952</v>
       </c>
       <c r="D18" s="18">
         <v>1</v>
@@ -22604,24 +22604,24 @@
         <v>690</v>
       </c>
       <c r="J18" t="s">
-        <v>817</v>
+        <v>1697</v>
       </c>
       <c r="N18" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="P18" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B19" s="18" t="s">
+        <v>953</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>954</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>955</v>
       </c>
       <c r="D19" s="18">
         <v>2</v>
@@ -22642,24 +22642,24 @@
         <v>791</v>
       </c>
       <c r="K19" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="N19" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="P19" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B20" s="18" t="s">
+        <v>956</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>957</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>958</v>
       </c>
       <c r="D20" s="18">
         <v>4</v>
@@ -22674,33 +22674,33 @@
         <v>767</v>
       </c>
       <c r="I20" t="s">
+        <v>958</v>
+      </c>
+      <c r="J20" t="s">
         <v>959</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>960</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>961</v>
       </c>
-      <c r="L20" t="s">
+      <c r="N20" t="s">
         <v>962</v>
       </c>
-      <c r="N20" t="s">
-        <v>963</v>
-      </c>
       <c r="P20" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B21" s="18" t="s">
+        <v>963</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>964</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>965</v>
       </c>
       <c r="D21" s="18">
         <v>5</v>
@@ -22715,36 +22715,36 @@
         <v>767</v>
       </c>
       <c r="I21" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="J21" t="s">
         <v>631</v>
       </c>
       <c r="K21" t="s">
+        <v>966</v>
+      </c>
+      <c r="L21" t="s">
         <v>967</v>
-      </c>
-      <c r="L21" t="s">
-        <v>968</v>
       </c>
       <c r="M21" t="s">
         <v>768</v>
       </c>
       <c r="N21" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="P21" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>969</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>970</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="C22" s="18" t="s">
         <v>971</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>972</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -22762,30 +22762,30 @@
         <v>644</v>
       </c>
       <c r="J22" t="s">
-        <v>817</v>
+        <v>1697</v>
       </c>
       <c r="K22" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="N22" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="O22" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="P22" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B23" s="18" t="s">
+        <v>972</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>973</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>974</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -22800,30 +22800,30 @@
         <v>767</v>
       </c>
       <c r="I23" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="J23" t="s">
-        <v>817</v>
+        <v>1697</v>
       </c>
       <c r="K23" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="N23" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="P23" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B24" s="18" t="s">
+        <v>974</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>975</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>976</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -22841,27 +22841,27 @@
         <v>631</v>
       </c>
       <c r="J24" t="s">
-        <v>817</v>
+        <v>1697</v>
       </c>
       <c r="K24" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="N24" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="P24" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>976</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>977</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="C25" s="18" t="s">
         <v>978</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>979</v>
       </c>
       <c r="D25" s="18">
         <v>1</v>
@@ -22876,7 +22876,7 @@
         <v>767</v>
       </c>
       <c r="I25" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="J25" t="s">
         <v>638</v>
@@ -22885,21 +22885,21 @@
         <v>768</v>
       </c>
       <c r="N25" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="P25" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B26" s="18" t="s">
+        <v>979</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>980</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>981</v>
       </c>
       <c r="D26" s="18">
         <v>3</v>
@@ -22917,30 +22917,30 @@
         <v>645</v>
       </c>
       <c r="J26" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="K26" t="s">
         <v>795</v>
       </c>
       <c r="L26" t="s">
+        <v>982</v>
+      </c>
+      <c r="N26" t="s">
         <v>983</v>
       </c>
-      <c r="N26" t="s">
-        <v>984</v>
-      </c>
       <c r="P26" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B27" s="18" t="s">
+        <v>984</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>985</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>986</v>
       </c>
       <c r="D27" s="18">
         <v>4</v>
@@ -22964,21 +22964,21 @@
         <v>742</v>
       </c>
       <c r="N27" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="P27" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>986</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>987</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="C28" s="18" t="s">
         <v>988</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>989</v>
       </c>
       <c r="D28" s="18">
         <v>1</v>
@@ -22990,10 +22990,10 @@
         <v>10000</v>
       </c>
       <c r="G28" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I28" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="J28" t="s">
         <v>724</v>
@@ -23002,24 +23002,24 @@
         <v>735</v>
       </c>
       <c r="L28" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="N28" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="P28" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B29" s="18" t="s">
+        <v>990</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>991</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>992</v>
       </c>
       <c r="D29" s="18">
         <v>4</v>
@@ -23031,36 +23031,36 @@
         <v>10000</v>
       </c>
       <c r="G29" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="I29" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="J29" t="s">
         <v>809</v>
       </c>
       <c r="K29" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="L29" t="s">
         <v>644</v>
       </c>
       <c r="N29" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="P29" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B30" s="18" t="s">
+        <v>993</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>994</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>995</v>
       </c>
       <c r="D30" s="18">
         <v>5</v>
@@ -23072,36 +23072,36 @@
         <v>10000</v>
       </c>
       <c r="G30" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="I30" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="J30" t="s">
+        <v>995</v>
+      </c>
+      <c r="K30" t="s">
         <v>996</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
+        <v>844</v>
+      </c>
+      <c r="N30" t="s">
         <v>997</v>
       </c>
-      <c r="L30" t="s">
-        <v>845</v>
-      </c>
-      <c r="N30" t="s">
-        <v>998</v>
-      </c>
       <c r="P30" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>998</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>999</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="C31" s="18" t="s">
         <v>1000</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>1001</v>
       </c>
       <c r="D31" s="18">
         <v>1</v>
@@ -23128,21 +23128,21 @@
         <v>747</v>
       </c>
       <c r="N31" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="P31" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B32" s="18" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>1002</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>1003</v>
       </c>
       <c r="D32" s="18">
         <v>2</v>
@@ -23163,24 +23163,24 @@
         <v>708</v>
       </c>
       <c r="K32" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="N32" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="P32" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B33" s="18" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C33" s="18" t="s">
         <v>1005</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>1006</v>
       </c>
       <c r="D33" s="18">
         <v>3</v>
@@ -23195,33 +23195,33 @@
         <v>750</v>
       </c>
       <c r="I33" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J33" t="s">
         <v>806</v>
       </c>
       <c r="K33" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="L33" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="N33" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="P33" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B34" s="18" t="s">
         <v>1008</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="C34" s="18" t="s">
         <v>1009</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>1010</v>
       </c>
       <c r="D34" s="18">
         <v>1</v>
@@ -23245,21 +23245,21 @@
         <v>732</v>
       </c>
       <c r="N34" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="P34" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B35" s="18" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C35" s="18" t="s">
         <v>1011</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>1012</v>
       </c>
       <c r="D35" s="18">
         <v>2</v>
@@ -23274,7 +23274,7 @@
         <v>717</v>
       </c>
       <c r="I35" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="J35" t="s">
         <v>694</v>
@@ -23283,21 +23283,21 @@
         <v>686</v>
       </c>
       <c r="N35" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="P35" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B36" s="18" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C36" s="18" t="s">
         <v>1014</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>1015</v>
       </c>
       <c r="D36" s="18">
         <v>5</v>
@@ -23309,36 +23309,36 @@
         <v>50</v>
       </c>
       <c r="G36" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I36" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="J36" t="s">
         <v>724</v>
       </c>
       <c r="K36" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L36" t="s">
         <v>1017</v>
       </c>
-      <c r="L36" t="s">
+      <c r="N36" t="s">
         <v>1018</v>
       </c>
-      <c r="N36" t="s">
-        <v>1019</v>
-      </c>
       <c r="P36" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B37" s="18" t="s">
         <v>1020</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="C37" s="18" t="s">
         <v>1021</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>1022</v>
       </c>
       <c r="D37" s="18">
         <v>1</v>
@@ -23353,27 +23353,27 @@
         <v>717</v>
       </c>
       <c r="I37" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="J37" t="s">
         <v>690</v>
       </c>
       <c r="N37" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="P37" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B38" s="18" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C38" s="18" t="s">
         <v>1024</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>1025</v>
       </c>
       <c r="D38" s="18">
         <v>1</v>
@@ -23391,30 +23391,30 @@
         <v>644</v>
       </c>
       <c r="J38" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="K38" t="s">
+        <v>1025</v>
+      </c>
+      <c r="L38" t="s">
         <v>1026</v>
       </c>
-      <c r="L38" t="s">
-        <v>1027</v>
-      </c>
       <c r="N38" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="P38" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B39" s="18" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C39" s="18" t="s">
         <v>1028</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>1029</v>
       </c>
       <c r="D39" s="18">
         <v>2</v>
@@ -23432,30 +23432,30 @@
         <v>694</v>
       </c>
       <c r="J39" t="s">
+        <v>1029</v>
+      </c>
+      <c r="K39" t="s">
         <v>1030</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
+        <v>826</v>
+      </c>
+      <c r="N39" t="s">
         <v>1031</v>
       </c>
-      <c r="L39" t="s">
-        <v>827</v>
-      </c>
-      <c r="N39" t="s">
-        <v>1032</v>
-      </c>
       <c r="P39" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B40" s="18" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C40" s="18" t="s">
         <v>1033</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>1034</v>
       </c>
       <c r="D40" s="18">
         <v>3</v>
@@ -23467,33 +23467,33 @@
         <v>10000</v>
       </c>
       <c r="G40" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I40" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J40" t="s">
         <v>732</v>
       </c>
       <c r="K40" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="N40" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="P40" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B41" s="18" t="s">
         <v>1036</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="C41" s="18" t="s">
         <v>1037</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>1038</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -23508,27 +23508,27 @@
         <v>708</v>
       </c>
       <c r="I41" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="J41" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="N41" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="P41" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B42" s="18" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C42" s="18" t="s">
         <v>1039</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>1040</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -23552,24 +23552,24 @@
         <v>790</v>
       </c>
       <c r="L42" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="N42" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="P42" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B43" s="18" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C43" s="18" t="s">
         <v>1041</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>1042</v>
       </c>
       <c r="D43">
         <v>3</v>
@@ -23584,39 +23584,39 @@
         <v>728</v>
       </c>
       <c r="H43" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="I43" t="s">
         <v>670</v>
       </c>
       <c r="J43" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="K43" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="L43" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="M43" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="N43" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="P43" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B44" s="18" t="s">
         <v>1045</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="C44" s="18" t="s">
         <v>1046</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>1047</v>
       </c>
       <c r="D44" s="18">
         <v>1</v>
@@ -23631,7 +23631,7 @@
         <v>808</v>
       </c>
       <c r="I44" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J44" t="s">
         <v>708</v>
@@ -23640,21 +23640,21 @@
         <v>717</v>
       </c>
       <c r="N44" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="P44" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B45" s="18" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C45" s="18" t="s">
         <v>1049</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>1050</v>
       </c>
       <c r="D45" s="18">
         <v>2</v>
@@ -23672,21 +23672,21 @@
         <v>695</v>
       </c>
       <c r="N45" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="P45" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B46" s="18" t="s">
         <v>1052</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="C46" s="18" t="s">
         <v>1053</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>1054</v>
       </c>
       <c r="D46" s="18">
         <v>1</v>
@@ -23707,27 +23707,27 @@
         <v>728</v>
       </c>
       <c r="J46" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="K46" t="s">
         <v>724</v>
       </c>
       <c r="N46" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="P46" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B47" s="18" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C47" s="18" t="s">
         <v>1057</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>1058</v>
       </c>
       <c r="D47" s="18">
         <v>2</v>
@@ -23742,30 +23742,30 @@
         <v>724</v>
       </c>
       <c r="I47" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="J47" t="s">
         <v>645</v>
       </c>
       <c r="K47" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="N47" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="P47" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B48" s="18" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C48" s="18" t="s">
         <v>1060</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>1061</v>
       </c>
       <c r="D48" s="18">
         <v>3</v>
@@ -23783,7 +23783,7 @@
         <v>767</v>
       </c>
       <c r="I48" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="J48" t="s">
         <v>724</v>
@@ -23795,21 +23795,21 @@
         <v>768</v>
       </c>
       <c r="N48" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="P48" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B49" s="18" t="s">
         <v>1064</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="C49" s="18" t="s">
         <v>1065</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>1066</v>
       </c>
       <c r="D49" s="18">
         <v>4</v>
@@ -23830,30 +23830,30 @@
         <v>709</v>
       </c>
       <c r="J49" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="K49" t="s">
         <v>795</v>
       </c>
       <c r="L49" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N49" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="P49" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B50" s="18" t="s">
         <v>1067</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="C50" s="18" t="s">
         <v>1068</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>1069</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -23865,10 +23865,10 @@
         <v>50</v>
       </c>
       <c r="G50" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I50" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="J50" t="s">
         <v>695</v>
@@ -23877,21 +23877,21 @@
         <v>644</v>
       </c>
       <c r="N50" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="P50" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B51" s="18" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C51" s="18" t="s">
         <v>1072</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>1073</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -23906,33 +23906,33 @@
         <v>645</v>
       </c>
       <c r="I51" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J51" t="s">
         <v>727</v>
       </c>
       <c r="K51" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="L51" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="N51" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="P51" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B52" s="18" t="s">
         <v>1075</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="C52" s="18" t="s">
         <v>1076</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>1077</v>
       </c>
       <c r="D52" s="18">
         <v>1</v>
@@ -23944,33 +23944,33 @@
         <v>10000</v>
       </c>
       <c r="G52" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="I52" t="s">
         <v>713</v>
       </c>
       <c r="J52" t="s">
+        <v>1078</v>
+      </c>
+      <c r="K52" t="s">
         <v>1079</v>
       </c>
-      <c r="K52" t="s">
-        <v>1080</v>
-      </c>
       <c r="N52" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="P52" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B53" s="18" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C53" s="18" t="s">
         <v>1081</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>1082</v>
       </c>
       <c r="D53" s="18">
         <v>2</v>
@@ -23982,39 +23982,39 @@
         <v>50</v>
       </c>
       <c r="G53" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="I53" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="J53" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K53" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="L53" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="M53" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="N53" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="P53" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B54" s="18" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C54" s="18" t="s">
         <v>1084</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>1085</v>
       </c>
       <c r="D54" s="18">
         <v>4</v>
@@ -24026,22 +24026,22 @@
         <v>50</v>
       </c>
       <c r="G54" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="I54" t="s">
         <v>695</v>
       </c>
       <c r="J54" t="s">
+        <v>1085</v>
+      </c>
+      <c r="K54" t="s">
         <v>1086</v>
       </c>
-      <c r="K54" t="s">
+      <c r="N54" t="s">
         <v>1087</v>
       </c>
-      <c r="N54" t="s">
-        <v>1088</v>
-      </c>
       <c r="P54" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -24049,10 +24049,10 @@
         <v>273</v>
       </c>
       <c r="B55" s="18" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C55" s="18" t="s">
         <v>1089</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>1090</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -24076,10 +24076,10 @@
         <v>676</v>
       </c>
       <c r="N55" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="P55" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -24087,10 +24087,10 @@
         <v>273</v>
       </c>
       <c r="B56" s="18" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C56" s="18" t="s">
         <v>1092</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>1093</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -24105,19 +24105,19 @@
         <v>704</v>
       </c>
       <c r="I56" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="J56" t="s">
         <v>787</v>
       </c>
       <c r="K56" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="N56" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="P56" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -24125,10 +24125,10 @@
         <v>273</v>
       </c>
       <c r="B57" s="18" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C57" s="18" t="s">
         <v>1094</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>1095</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -24143,7 +24143,7 @@
         <v>704</v>
       </c>
       <c r="I57" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="J57" t="s">
         <v>767</v>
@@ -24152,21 +24152,21 @@
         <v>739</v>
       </c>
       <c r="N57" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="P57" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B58" s="18" t="s">
         <v>1096</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="C58" s="18" t="s">
         <v>1097</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>1098</v>
       </c>
       <c r="D58" s="18">
         <v>3</v>
@@ -24178,33 +24178,33 @@
         <v>10000</v>
       </c>
       <c r="G58" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="I58" t="s">
         <v>694</v>
       </c>
       <c r="J58" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="K58" t="s">
         <v>755</v>
       </c>
       <c r="N58" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="P58" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B59" s="18" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C59" s="18" t="s">
         <v>1100</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>1101</v>
       </c>
       <c r="D59" s="18">
         <v>3</v>
@@ -24216,33 +24216,33 @@
         <v>10000</v>
       </c>
       <c r="G59" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="I59" t="s">
         <v>806</v>
       </c>
       <c r="J59" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="K59" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="N59" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="P59" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B60" s="18" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C60" s="18" t="s">
         <v>1103</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>1104</v>
       </c>
       <c r="D60" s="18">
         <v>3</v>
@@ -24254,36 +24254,36 @@
         <v>10000</v>
       </c>
       <c r="G60" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I60" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J60" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K60" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="L60" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="N60" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="P60" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B61" s="18" t="s">
         <v>1105</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="C61" s="18" t="s">
         <v>1106</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>1107</v>
       </c>
       <c r="D61" s="18">
         <v>2</v>
@@ -24295,10 +24295,10 @@
         <v>10000</v>
       </c>
       <c r="G61" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I61" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="J61" t="s">
         <v>767</v>
@@ -24310,24 +24310,24 @@
         <v>713</v>
       </c>
       <c r="M61" t="s">
+        <v>1107</v>
+      </c>
+      <c r="N61" t="s">
         <v>1108</v>
       </c>
-      <c r="N61" t="s">
-        <v>1109</v>
-      </c>
       <c r="P61" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B62" s="18" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C62" s="18" t="s">
         <v>1110</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>1111</v>
       </c>
       <c r="D62" s="18">
         <v>3</v>
@@ -24339,36 +24339,36 @@
         <v>10000</v>
       </c>
       <c r="G62" t="s">
+        <v>1111</v>
+      </c>
+      <c r="I62" t="s">
         <v>1112</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>1113</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>1114</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>1115</v>
       </c>
-      <c r="L62" t="s">
-        <v>1116</v>
-      </c>
       <c r="N62" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="P62" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B63" s="18" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C63" s="18" t="s">
         <v>1117</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>1118</v>
       </c>
       <c r="D63" s="18">
         <v>5</v>
@@ -24380,7 +24380,7 @@
         <v>50</v>
       </c>
       <c r="G63" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I63" t="s">
         <v>803</v>
@@ -24392,27 +24392,27 @@
         <v>797</v>
       </c>
       <c r="L63" t="s">
+        <v>1118</v>
+      </c>
+      <c r="M63" t="s">
+        <v>899</v>
+      </c>
+      <c r="N63" t="s">
         <v>1119</v>
       </c>
-      <c r="M63" t="s">
-        <v>900</v>
-      </c>
-      <c r="N63" t="s">
-        <v>1120</v>
-      </c>
       <c r="P63" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B64" s="18" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C64" s="18" t="s">
         <v>1121</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>1122</v>
       </c>
       <c r="D64" s="18">
         <v>5</v>
@@ -24424,39 +24424,39 @@
         <v>50</v>
       </c>
       <c r="G64" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I64" t="s">
         <v>795</v>
       </c>
       <c r="J64" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="K64" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="L64" t="s">
         <v>699</v>
       </c>
       <c r="M64" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="N64" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="P64" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B65" s="18" t="s">
         <v>1124</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="C65" s="18" t="s">
         <v>1125</v>
-      </c>
-      <c r="C65" s="18" t="s">
-        <v>1126</v>
       </c>
       <c r="D65" s="18">
         <v>2</v>
@@ -24480,21 +24480,21 @@
         <v>736</v>
       </c>
       <c r="N65" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="P65" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B66" s="18" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C66" s="25" t="s">
         <v>1127</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>1128</v>
       </c>
       <c r="D66" s="25">
         <v>4</v>
@@ -24510,31 +24510,31 @@
       </c>
       <c r="H66" s="7"/>
       <c r="I66" s="7" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J66" s="7" t="s">
         <v>811</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
       <c r="N66" s="7" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="O66" s="7"/>
       <c r="P66" s="7" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B67" s="18"/>
       <c r="C67" s="18" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D67" s="18">
         <v>1</v>
@@ -24546,28 +24546,28 @@
         <v>10000</v>
       </c>
       <c r="G67" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="I67" t="s">
         <v>721</v>
       </c>
       <c r="J67" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="K67" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="N67" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B68" s="18"/>
       <c r="C68" s="18" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D68" s="18">
         <v>3</v>
@@ -24579,31 +24579,31 @@
         <v>10000</v>
       </c>
       <c r="G68" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="I68" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="J68" t="s">
         <v>713</v>
       </c>
       <c r="K68" t="s">
+        <v>1130</v>
+      </c>
+      <c r="L68" t="s">
         <v>1131</v>
       </c>
-      <c r="L68" t="s">
-        <v>1132</v>
-      </c>
       <c r="N68" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B69" s="18"/>
       <c r="C69" s="18" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D69" s="18">
         <v>5</v>
@@ -24615,31 +24615,31 @@
         <v>10000</v>
       </c>
       <c r="G69" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H69" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="I69" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J69" t="s">
         <v>1134</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>1135</v>
       </c>
-      <c r="K69" t="s">
+      <c r="N69" t="s">
         <v>1136</v>
-      </c>
-      <c r="N69" t="s">
-        <v>1137</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B70" s="18"/>
       <c r="C70" s="18" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D70" s="18">
         <v>3</v>
@@ -24651,28 +24651,28 @@
         <v>10000</v>
       </c>
       <c r="G70" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="I70" t="s">
         <v>709</v>
       </c>
       <c r="J70" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="K70" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="N70" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B71" s="18"/>
       <c r="C71" s="18" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="D71" s="18">
         <v>3</v>
@@ -24684,7 +24684,7 @@
         <v>10000</v>
       </c>
       <c r="G71" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="I71" t="s">
         <v>709</v>
@@ -24693,19 +24693,19 @@
         <v>753</v>
       </c>
       <c r="K71" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="N71" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B72" s="18"/>
       <c r="C72" s="18" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D72" s="18">
         <v>3</v>
@@ -24717,28 +24717,28 @@
         <v>10000</v>
       </c>
       <c r="G72" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="I72" t="s">
         <v>709</v>
       </c>
       <c r="J72" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="K72" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="N72" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B73" s="18"/>
       <c r="C73" s="18" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D73" s="18">
         <v>3</v>
@@ -24750,7 +24750,7 @@
         <v>10000</v>
       </c>
       <c r="G73" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="I73" t="s">
         <v>709</v>
@@ -24759,19 +24759,19 @@
         <v>809</v>
       </c>
       <c r="K73" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="N73" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B74" s="18"/>
       <c r="C74" s="18" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D74" s="18">
         <v>10</v>
@@ -24783,7 +24783,7 @@
         <v>10000</v>
       </c>
       <c r="G74" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="I74" t="s">
         <v>709</v>
@@ -24792,22 +24792,22 @@
         <v>791</v>
       </c>
       <c r="K74" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="L74" t="s">
         <v>644</v>
       </c>
       <c r="N74" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B75" s="18"/>
       <c r="C75" s="18" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D75" s="18">
         <v>1</v>
@@ -24822,28 +24822,28 @@
         <v>793</v>
       </c>
       <c r="I75" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="J75" t="s">
         <v>724</v>
       </c>
       <c r="K75" t="s">
+        <v>1145</v>
+      </c>
+      <c r="L75" t="s">
         <v>1146</v>
       </c>
-      <c r="L75" t="s">
+      <c r="N75" t="s">
         <v>1147</v>
-      </c>
-      <c r="N75" t="s">
-        <v>1148</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B76" s="18"/>
       <c r="C76" s="18" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D76" s="18">
         <v>2</v>
@@ -24858,25 +24858,25 @@
         <v>797</v>
       </c>
       <c r="I76" t="s">
+        <v>1149</v>
+      </c>
+      <c r="J76" t="s">
         <v>1150</v>
       </c>
-      <c r="J76" t="s">
-        <v>1151</v>
-      </c>
       <c r="K76" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="N76" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B77" s="18"/>
       <c r="C77" s="18" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D77" s="18">
         <v>3</v>
@@ -24894,22 +24894,22 @@
         <v>806</v>
       </c>
       <c r="J77" t="s">
+        <v>1152</v>
+      </c>
+      <c r="K77" t="s">
         <v>1153</v>
       </c>
-      <c r="K77" t="s">
+      <c r="N77" t="s">
         <v>1154</v>
-      </c>
-      <c r="N77" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B78" s="18"/>
       <c r="C78" s="18" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D78" s="18">
         <v>3</v>
@@ -24921,31 +24921,31 @@
         <v>10000</v>
       </c>
       <c r="G78" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H78" t="s">
         <v>1157</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
+        <v>864</v>
+      </c>
+      <c r="J78" t="s">
+        <v>856</v>
+      </c>
+      <c r="N78" t="s">
         <v>1158</v>
       </c>
-      <c r="I78" t="s">
-        <v>865</v>
-      </c>
-      <c r="J78" t="s">
-        <v>857</v>
-      </c>
-      <c r="N78" t="s">
+      <c r="O78" t="s">
         <v>1159</v>
-      </c>
-      <c r="O78" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B79" s="18"/>
       <c r="C79" s="18" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D79" s="18">
         <v>4</v>
@@ -24960,19 +24960,19 @@
         <v>811</v>
       </c>
       <c r="I79" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="N79" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B80" s="18"/>
       <c r="C80" s="18" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D80" s="18">
         <v>4</v>
@@ -24996,19 +24996,19 @@
         <v>727</v>
       </c>
       <c r="K80" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="N80" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B81" s="18"/>
       <c r="C81" s="18" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D81" s="18">
         <v>1</v>
@@ -25029,19 +25029,19 @@
         <v>755</v>
       </c>
       <c r="K81" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="N81" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B82" s="18"/>
       <c r="C82" s="18" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D82" s="18">
         <v>1</v>
@@ -25062,18 +25062,18 @@
         <v>714</v>
       </c>
       <c r="K82" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="N82" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C83" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="D83" s="18">
         <v>2</v>
@@ -25091,24 +25091,24 @@
         <v>724</v>
       </c>
       <c r="I83" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="J83" t="s">
         <v>728</v>
       </c>
       <c r="K83" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="N83" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C84" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D84" s="18">
         <v>2</v>
@@ -25126,21 +25126,21 @@
         <v>714</v>
       </c>
       <c r="J84" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="K84" t="s">
         <v>644</v>
       </c>
       <c r="N84" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C85" t="s">
         <v>1173</v>
-      </c>
-      <c r="C85" t="s">
-        <v>1174</v>
       </c>
       <c r="D85" s="18">
         <v>2</v>
@@ -25155,27 +25155,27 @@
         <v>767</v>
       </c>
       <c r="I85" t="s">
+        <v>1174</v>
+      </c>
+      <c r="J85" t="s">
         <v>1175</v>
       </c>
-      <c r="J85" t="s">
+      <c r="K85" t="s">
         <v>1176</v>
       </c>
-      <c r="K85" t="s">
+      <c r="L85" t="s">
         <v>1177</v>
       </c>
-      <c r="L85" t="s">
+      <c r="N85" t="s">
         <v>1178</v>
-      </c>
-      <c r="N85" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C86" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D86" s="18">
         <v>2</v>
@@ -25190,27 +25190,27 @@
         <v>767</v>
       </c>
       <c r="I86" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="J86" t="s">
+        <v>1175</v>
+      </c>
+      <c r="K86" t="s">
         <v>1176</v>
       </c>
-      <c r="K86" t="s">
+      <c r="L86" t="s">
         <v>1177</v>
       </c>
-      <c r="L86" t="s">
+      <c r="N86" t="s">
         <v>1178</v>
-      </c>
-      <c r="N86" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C87" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D87" s="18">
         <v>2</v>
@@ -25225,27 +25225,27 @@
         <v>767</v>
       </c>
       <c r="I87" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="J87" t="s">
+        <v>1175</v>
+      </c>
+      <c r="K87" t="s">
         <v>1176</v>
       </c>
-      <c r="K87" t="s">
+      <c r="L87" t="s">
         <v>1177</v>
       </c>
-      <c r="L87" t="s">
+      <c r="N87" t="s">
         <v>1178</v>
-      </c>
-      <c r="N87" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C88" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D88" s="18">
         <v>2</v>
@@ -25260,27 +25260,27 @@
         <v>767</v>
       </c>
       <c r="I88" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="J88" t="s">
+        <v>1175</v>
+      </c>
+      <c r="K88" t="s">
         <v>1176</v>
       </c>
-      <c r="K88" t="s">
+      <c r="L88" t="s">
         <v>1177</v>
       </c>
-      <c r="L88" t="s">
+      <c r="N88" t="s">
         <v>1178</v>
-      </c>
-      <c r="N88" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C89" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D89" s="18">
         <v>3</v>
@@ -25295,7 +25295,7 @@
         <v>767</v>
       </c>
       <c r="I89" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="J89" t="s">
         <v>735</v>
@@ -25304,18 +25304,18 @@
         <v>747</v>
       </c>
       <c r="L89" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="N89" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C90" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D90">
         <v>3</v>
@@ -25330,7 +25330,7 @@
         <v>767</v>
       </c>
       <c r="I90" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J90" t="s">
         <v>645</v>
@@ -25339,15 +25339,15 @@
         <v>713</v>
       </c>
       <c r="N90" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C91" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D91" s="18">
         <v>5</v>
@@ -25365,21 +25365,21 @@
         <v>742</v>
       </c>
       <c r="J91" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="K91" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="N91" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C92" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D92">
         <v>2</v>
@@ -25391,27 +25391,27 @@
         <v>50</v>
       </c>
       <c r="G92" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I92" t="s">
         <v>1190</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>1191</v>
       </c>
-      <c r="J92" t="s">
+      <c r="K92" t="s">
+        <v>859</v>
+      </c>
+      <c r="N92" t="s">
         <v>1192</v>
-      </c>
-      <c r="K92" t="s">
-        <v>860</v>
-      </c>
-      <c r="N92" t="s">
-        <v>1193</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C93" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D93">
         <v>2</v>
@@ -25423,27 +25423,27 @@
         <v>50</v>
       </c>
       <c r="G93" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="I93" t="s">
+        <v>1190</v>
+      </c>
+      <c r="J93" t="s">
         <v>1191</v>
       </c>
-      <c r="J93" t="s">
+      <c r="K93" t="s">
+        <v>862</v>
+      </c>
+      <c r="N93" t="s">
         <v>1192</v>
-      </c>
-      <c r="K93" t="s">
-        <v>863</v>
-      </c>
-      <c r="N93" t="s">
-        <v>1193</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C94" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D94">
         <v>2</v>
@@ -25455,27 +25455,27 @@
         <v>50</v>
       </c>
       <c r="G94" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="I94" t="s">
+        <v>1190</v>
+      </c>
+      <c r="J94" t="s">
         <v>1191</v>
       </c>
-      <c r="J94" t="s">
+      <c r="K94" t="s">
+        <v>865</v>
+      </c>
+      <c r="N94" t="s">
         <v>1192</v>
-      </c>
-      <c r="K94" t="s">
-        <v>866</v>
-      </c>
-      <c r="N94" t="s">
-        <v>1193</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C95" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D95">
         <v>2</v>
@@ -25487,27 +25487,27 @@
         <v>50</v>
       </c>
       <c r="G95" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I95" t="s">
+        <v>1190</v>
+      </c>
+      <c r="J95" t="s">
         <v>1191</v>
       </c>
-      <c r="J95" t="s">
+      <c r="K95" t="s">
+        <v>857</v>
+      </c>
+      <c r="N95" t="s">
         <v>1192</v>
-      </c>
-      <c r="K95" t="s">
-        <v>858</v>
-      </c>
-      <c r="N95" t="s">
-        <v>1193</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C96" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D96" s="18">
         <v>2</v>
@@ -25519,27 +25519,27 @@
         <v>10000</v>
       </c>
       <c r="G96" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I96" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="J96" t="s">
         <v>720</v>
       </c>
       <c r="K96" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="N96" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C97" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D97" s="18">
         <v>3</v>
@@ -25551,10 +25551,10 @@
         <v>10000</v>
       </c>
       <c r="G97" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="I97" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J97" t="s">
         <v>700</v>
@@ -25563,15 +25563,15 @@
         <v>721</v>
       </c>
       <c r="N97" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C98" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D98" s="18">
         <v>4</v>
@@ -25586,7 +25586,7 @@
         <v>724</v>
       </c>
       <c r="H98" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I98" t="s">
         <v>645</v>
@@ -25598,18 +25598,18 @@
         <v>663</v>
       </c>
       <c r="L98" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="N98" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C99" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D99" s="18">
         <v>1</v>
@@ -25631,22 +25631,22 @@
         <v>768</v>
       </c>
       <c r="K99" s="18" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="L99" s="18"/>
       <c r="N99" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="O99" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C100" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D100" s="18">
         <v>1</v>
@@ -25658,14 +25658,14 @@
         <v>250</v>
       </c>
       <c r="G100" s="18" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="H100" s="18"/>
       <c r="I100" s="18" t="s">
         <v>742</v>
       </c>
       <c r="J100" s="18" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="K100" s="18" t="s">
         <v>631</v>
@@ -25674,15 +25674,15 @@
         <v>644</v>
       </c>
       <c r="N100" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C101" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D101" s="18">
         <v>2</v>
@@ -25706,18 +25706,18 @@
         <v>758</v>
       </c>
       <c r="L101" t="s">
+        <v>1208</v>
+      </c>
+      <c r="N101" t="s">
         <v>1209</v>
-      </c>
-      <c r="N101" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C102" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D102" s="18">
         <v>2</v>
@@ -25742,21 +25742,21 @@
         <v>728</v>
       </c>
       <c r="L102" s="18" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="M102" t="s">
+        <v>1211</v>
+      </c>
+      <c r="N102" t="s">
         <v>1212</v>
-      </c>
-      <c r="N102" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C103" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D103" s="18">
         <v>2</v>
@@ -25768,29 +25768,29 @@
         <v>250</v>
       </c>
       <c r="G103" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="H103" s="18"/>
       <c r="I103" s="18" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J103" s="18" t="s">
+        <v>1215</v>
+      </c>
+      <c r="K103" s="18" t="s">
         <v>1216</v>
-      </c>
-      <c r="K103" s="18" t="s">
-        <v>1217</v>
       </c>
       <c r="L103" s="18"/>
       <c r="N103" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C104" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D104" s="18">
         <v>3</v>
@@ -25806,21 +25806,21 @@
       </c>
       <c r="H104" s="18"/>
       <c r="I104" s="18" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="J104" s="18"/>
       <c r="K104" s="18"/>
       <c r="L104" s="18"/>
       <c r="N104" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C105" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="D105" s="18">
         <v>3</v>
@@ -25836,27 +25836,27 @@
       </c>
       <c r="H105" s="18"/>
       <c r="I105" s="18" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="J105" s="18" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="K105" s="18" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="L105" s="18" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="N105" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C106" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D106" s="18">
         <v>4</v>
@@ -25872,7 +25872,7 @@
       </c>
       <c r="H106" s="18"/>
       <c r="I106" s="18" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="J106" s="18" t="s">
         <v>731</v>
@@ -25882,15 +25882,15 @@
       </c>
       <c r="L106" s="18"/>
       <c r="N106" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C107" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D107" s="18">
         <v>5</v>
@@ -25911,18 +25911,18 @@
         <v>742</v>
       </c>
       <c r="K107" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="N107" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C108" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D108" s="18">
         <v>5</v>
@@ -25938,25 +25938,25 @@
       </c>
       <c r="H108" s="18"/>
       <c r="I108" s="18" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J108" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="K108" s="18" t="s">
         <v>747</v>
       </c>
       <c r="L108" s="18"/>
       <c r="N108" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C109" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D109" s="18">
         <v>5</v>
@@ -25968,33 +25968,33 @@
         <v>50</v>
       </c>
       <c r="G109" s="18" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H109" s="18" t="s">
         <v>1228</v>
       </c>
-      <c r="H109" s="18" t="s">
+      <c r="I109" s="18" t="s">
         <v>1229</v>
       </c>
-      <c r="I109" s="18" t="s">
+      <c r="J109" s="18" t="s">
         <v>1230</v>
       </c>
-      <c r="J109" s="18" t="s">
-        <v>1231</v>
-      </c>
       <c r="K109" s="18" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L109" s="18" t="s">
         <v>803</v>
       </c>
       <c r="N109" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C110" t="s">
         <v>1233</v>
-      </c>
-      <c r="C110" t="s">
-        <v>1234</v>
       </c>
       <c r="D110" s="18">
         <v>1</v>
@@ -26010,7 +26010,7 @@
       </c>
       <c r="H110" s="18"/>
       <c r="I110" s="18" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J110" s="18" t="s">
         <v>663</v>
@@ -26018,15 +26018,15 @@
       <c r="K110" s="18"/>
       <c r="L110" s="18"/>
       <c r="N110" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C111" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D111" s="18">
         <v>2</v>
@@ -26042,25 +26042,25 @@
       </c>
       <c r="H111" s="18"/>
       <c r="I111" s="18" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="J111" s="18" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="K111" s="18" t="s">
         <v>631</v>
       </c>
       <c r="L111" s="18"/>
       <c r="N111" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C112" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D112" s="18">
         <v>2</v>
@@ -26076,25 +26076,25 @@
       </c>
       <c r="H112" s="18"/>
       <c r="I112" s="18" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="J112" s="18" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="K112" s="18" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="L112" s="18"/>
       <c r="N112" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C113" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D113" s="18">
         <v>3</v>
@@ -26110,25 +26110,25 @@
       </c>
       <c r="H113" s="18"/>
       <c r="I113" s="18" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="J113" s="18" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K113" s="18" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="L113" s="18"/>
       <c r="N113" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C114" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D114" s="18">
         <v>2</v>
@@ -26150,19 +26150,19 @@
         <v>791</v>
       </c>
       <c r="K114" s="18" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="L114" s="18"/>
       <c r="N114" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C115" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D115" s="18">
         <v>2</v>
@@ -26178,25 +26178,25 @@
       </c>
       <c r="H115" s="18"/>
       <c r="I115" s="18" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="J115" s="18" t="s">
         <v>663</v>
       </c>
       <c r="K115" s="18" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="L115" s="18"/>
       <c r="N115" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C116" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D116" s="18">
         <v>2</v>
@@ -26218,19 +26218,19 @@
         <v>631</v>
       </c>
       <c r="K116" s="18" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="L116" s="18"/>
       <c r="N116" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C117" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D117" s="18">
         <v>2</v>
@@ -26246,25 +26246,25 @@
       </c>
       <c r="H117" s="18"/>
       <c r="I117" s="18" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="J117" s="18" t="s">
         <v>728</v>
       </c>
       <c r="K117" s="18" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="L117" s="18"/>
       <c r="N117" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C118" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D118" s="18">
         <v>2</v>
@@ -26280,7 +26280,7 @@
       </c>
       <c r="H118" s="18"/>
       <c r="I118" s="18" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="J118" s="18" t="s">
         <v>736</v>
@@ -26290,15 +26290,15 @@
       </c>
       <c r="L118" s="18"/>
       <c r="N118" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C119" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D119" s="18">
         <v>3</v>
@@ -26324,15 +26324,15 @@
       </c>
       <c r="L119" s="18"/>
       <c r="N119" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C120" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D120" s="18">
         <v>4</v>
@@ -26348,7 +26348,7 @@
       </c>
       <c r="H120" s="18"/>
       <c r="I120" s="18" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J120" s="18" t="s">
         <v>731</v>
@@ -26357,18 +26357,18 @@
         <v>645</v>
       </c>
       <c r="L120" s="18" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="N120" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C121" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D121" s="18">
         <v>4</v>
@@ -26384,25 +26384,25 @@
       </c>
       <c r="H121" s="18"/>
       <c r="I121" s="18" t="s">
+        <v>1252</v>
+      </c>
+      <c r="J121" s="18" t="s">
         <v>1253</v>
-      </c>
-      <c r="J121" s="18" t="s">
-        <v>1254</v>
       </c>
       <c r="K121" s="18" t="s">
         <v>663</v>
       </c>
       <c r="L121" s="18"/>
       <c r="N121" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C122" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D122" s="18">
         <v>2</v>
@@ -26423,22 +26423,22 @@
         <v>750</v>
       </c>
       <c r="J122" s="18" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="K122" s="18" t="s">
         <v>739</v>
       </c>
       <c r="L122" s="18"/>
       <c r="N122" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C123" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D123" s="18">
         <v>3</v>
@@ -26456,25 +26456,25 @@
         <v>767</v>
       </c>
       <c r="I123" s="18" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="J123" s="18" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="K123" s="18" t="s">
         <v>795</v>
       </c>
       <c r="L123" s="18"/>
       <c r="N123" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C124" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D124" s="18">
         <v>4</v>
@@ -26490,27 +26490,27 @@
       </c>
       <c r="H124" s="18"/>
       <c r="I124" s="18" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J124" s="18" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="K124" s="18" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L124" s="18" t="s">
+        <v>843</v>
+      </c>
+      <c r="N124" t="s">
         <v>1260</v>
-      </c>
-      <c r="L124" s="18" t="s">
-        <v>844</v>
-      </c>
-      <c r="N124" t="s">
-        <v>1261</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C125" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="D125" s="18">
         <v>4</v>
@@ -26529,24 +26529,24 @@
         <v>728</v>
       </c>
       <c r="J125" s="18" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="K125" s="18" t="s">
         <v>644</v>
       </c>
       <c r="L125" s="18" t="s">
+        <v>1263</v>
+      </c>
+      <c r="N125" t="s">
         <v>1264</v>
-      </c>
-      <c r="N125" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C126" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D126" s="18">
         <v>1</v>
@@ -26572,15 +26572,15 @@
       </c>
       <c r="L126" s="18"/>
       <c r="N126" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C127" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D127" s="18">
         <v>2</v>
@@ -26596,25 +26596,25 @@
       </c>
       <c r="H127" s="18"/>
       <c r="I127" s="18" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="J127" s="18" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="K127" s="18" t="s">
         <v>747</v>
       </c>
       <c r="L127" s="18"/>
       <c r="N127" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C128" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D128" s="18">
         <v>2</v>
@@ -26633,25 +26633,25 @@
         <v>713</v>
       </c>
       <c r="J128" s="18" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="K128" s="18" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="L128" s="18"/>
       <c r="N128" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="O128" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C129" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D129" s="18">
         <v>2</v>
@@ -26670,22 +26670,22 @@
         <v>713</v>
       </c>
       <c r="J129" s="18" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="K129" s="18" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L129" s="18"/>
       <c r="N129" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C130" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D130" s="18">
         <v>2</v>
@@ -26704,22 +26704,22 @@
         <v>713</v>
       </c>
       <c r="J130" s="18" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="K130" s="18" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="L130" s="18"/>
       <c r="N130" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C131" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D131" s="18">
         <v>2</v>
@@ -26738,22 +26738,22 @@
         <v>713</v>
       </c>
       <c r="J131" s="18" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="K131" s="18" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="L131" s="18"/>
       <c r="N131" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C132" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D132" s="18">
         <v>2</v>
@@ -26775,19 +26775,19 @@
         <v>768</v>
       </c>
       <c r="K132" s="18" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="L132" s="18"/>
       <c r="N132" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C133" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D133" s="18">
         <v>3</v>
@@ -26806,22 +26806,22 @@
         <v>731</v>
       </c>
       <c r="J133" s="18" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K133" s="18" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="L133" s="18"/>
       <c r="N133" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C134" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D134" s="18">
         <v>4</v>
@@ -26837,25 +26837,25 @@
       </c>
       <c r="H134" s="18"/>
       <c r="I134" s="18" t="s">
+        <v>1279</v>
+      </c>
+      <c r="J134" s="18" t="s">
         <v>1280</v>
       </c>
-      <c r="J134" s="18" t="s">
+      <c r="K134" s="18" t="s">
         <v>1281</v>
-      </c>
-      <c r="K134" s="18" t="s">
-        <v>1282</v>
       </c>
       <c r="L134" s="18"/>
       <c r="N134" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C135" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D135" s="18">
         <v>5</v>
@@ -26867,21 +26867,21 @@
         <v>10000</v>
       </c>
       <c r="G135" s="18" t="s">
+        <v>1283</v>
+      </c>
+      <c r="H135" s="18" t="s">
         <v>1284</v>
       </c>
-      <c r="H135" s="18" t="s">
+      <c r="I135" s="18" t="s">
+        <v>981</v>
+      </c>
+      <c r="J135" s="18" t="s">
         <v>1285</v>
-      </c>
-      <c r="I135" s="18" t="s">
-        <v>982</v>
-      </c>
-      <c r="J135" s="18" t="s">
-        <v>1286</v>
       </c>
       <c r="K135" s="18"/>
       <c r="L135" s="18"/>
       <c r="N135" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
@@ -26889,7 +26889,7 @@
         <v>273</v>
       </c>
       <c r="C136" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D136">
         <v>2</v>
@@ -26907,13 +26907,13 @@
         <v>690</v>
       </c>
       <c r="J136" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="K136" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="N136" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
@@ -26921,7 +26921,7 @@
         <v>273</v>
       </c>
       <c r="C137" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D137" s="18">
         <v>3</v>
@@ -26937,7 +26937,7 @@
       </c>
       <c r="H137" s="18"/>
       <c r="I137" s="18" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J137" s="18" t="s">
         <v>767</v>
@@ -26945,7 +26945,7 @@
       <c r="K137" s="18"/>
       <c r="L137" s="18"/>
       <c r="N137" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
@@ -26953,7 +26953,7 @@
         <v>273</v>
       </c>
       <c r="C138" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="D138">
         <v>3</v>
@@ -26968,7 +26968,7 @@
         <v>704</v>
       </c>
       <c r="H138" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="I138" t="s">
         <v>797</v>
@@ -26977,7 +26977,7 @@
         <v>631</v>
       </c>
       <c r="N138" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
@@ -26985,7 +26985,7 @@
         <v>273</v>
       </c>
       <c r="C139" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D139">
         <v>3</v>
@@ -27000,16 +27000,16 @@
         <v>704</v>
       </c>
       <c r="H139" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="I139" t="s">
         <v>795</v>
       </c>
       <c r="J139" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="N139" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
@@ -27017,7 +27017,7 @@
         <v>273</v>
       </c>
       <c r="C140" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D140">
         <v>3</v>
@@ -27032,7 +27032,7 @@
         <v>704</v>
       </c>
       <c r="H140" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="I140" t="s">
         <v>793</v>
@@ -27041,7 +27041,7 @@
         <v>663</v>
       </c>
       <c r="N140" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
@@ -27049,7 +27049,7 @@
         <v>273</v>
       </c>
       <c r="C141" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D141">
         <v>3</v>
@@ -27064,7 +27064,7 @@
         <v>704</v>
       </c>
       <c r="H141" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="I141" t="s">
         <v>791</v>
@@ -27073,15 +27073,15 @@
         <v>644</v>
       </c>
       <c r="N141" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C142" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D142">
         <v>2</v>
@@ -27093,30 +27093,30 @@
         <v>10000</v>
       </c>
       <c r="G142" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="I142" t="s">
         <v>700</v>
       </c>
       <c r="J142" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="K142" t="s">
+        <v>1296</v>
+      </c>
+      <c r="L142" t="s">
         <v>1297</v>
       </c>
-      <c r="L142" t="s">
-        <v>1298</v>
-      </c>
       <c r="N142" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C143" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D143">
         <v>2</v>
@@ -27128,30 +27128,30 @@
         <v>10000</v>
       </c>
       <c r="G143" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="I143" t="s">
         <v>755</v>
       </c>
       <c r="J143" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="K143" t="s">
         <v>739</v>
       </c>
       <c r="L143" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="N143" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C144" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D144">
         <v>2</v>
@@ -27163,30 +27163,30 @@
         <v>10000</v>
       </c>
       <c r="G144" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="I144" t="s">
         <v>700</v>
       </c>
       <c r="J144" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="K144" t="s">
         <v>713</v>
       </c>
       <c r="L144" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="N144" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C145" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D145">
         <v>2</v>
@@ -27198,30 +27198,30 @@
         <v>10000</v>
       </c>
       <c r="G145" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I145" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="J145" t="s">
         <v>699</v>
       </c>
       <c r="K145" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L145" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="N145" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C146" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D146">
         <v>3</v>
@@ -27233,7 +27233,7 @@
         <v>10000</v>
       </c>
       <c r="G146" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I146" t="s">
         <v>676</v>
@@ -27242,18 +27242,18 @@
         <v>790</v>
       </c>
       <c r="K146" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="N146" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C147" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D147">
         <v>4</v>
@@ -27265,27 +27265,27 @@
         <v>50</v>
       </c>
       <c r="G147" t="s">
+        <v>891</v>
+      </c>
+      <c r="I147" t="s">
+        <v>847</v>
+      </c>
+      <c r="J147" t="s">
         <v>892</v>
       </c>
-      <c r="I147" t="s">
-        <v>848</v>
-      </c>
-      <c r="J147" t="s">
-        <v>893</v>
-      </c>
       <c r="K147" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="N147" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C148" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D148">
         <v>4</v>
@@ -27297,27 +27297,27 @@
         <v>50</v>
       </c>
       <c r="G148" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="I148" t="s">
         <v>806</v>
       </c>
       <c r="J148" t="s">
+        <v>898</v>
+      </c>
+      <c r="K148" t="s">
         <v>899</v>
       </c>
-      <c r="K148" t="s">
-        <v>900</v>
-      </c>
       <c r="N148" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C149" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="D149">
         <v>4</v>
@@ -27329,27 +27329,27 @@
         <v>50</v>
       </c>
       <c r="G149" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="I149" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="J149" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="K149" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="N149" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C150" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="D150">
         <v>4</v>
@@ -27361,27 +27361,27 @@
         <v>50</v>
       </c>
       <c r="G150" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="I150" t="s">
+        <v>995</v>
+      </c>
+      <c r="J150" t="s">
         <v>996</v>
       </c>
-      <c r="J150" t="s">
-        <v>997</v>
-      </c>
       <c r="K150" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="N150" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C151" s="18" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="D151" s="18">
         <v>1</v>
@@ -27393,27 +27393,27 @@
         <v>10000</v>
       </c>
       <c r="G151" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I151" t="s">
         <v>713</v>
       </c>
       <c r="J151" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="K151" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="N151" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C152" s="18" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="D152" s="18">
         <v>1</v>
@@ -27425,7 +27425,7 @@
         <v>10000</v>
       </c>
       <c r="G152" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="I152" t="s">
         <v>676</v>
@@ -27434,15 +27434,15 @@
         <v>790</v>
       </c>
       <c r="N152" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C153" s="18" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="D153" s="18">
         <v>3</v>
@@ -27454,24 +27454,24 @@
         <v>10000</v>
       </c>
       <c r="G153" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I153" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="J153" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="N153" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C154" s="18" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D154" s="18">
         <v>4</v>
@@ -27483,27 +27483,27 @@
         <v>50</v>
       </c>
       <c r="G154" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="I154" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="J154" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="K154" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="N154" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C155" s="18" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="D155" s="18">
         <v>4</v>
@@ -27515,27 +27515,27 @@
         <v>50</v>
       </c>
       <c r="G155" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="I155" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="J155" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="K155" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="N155" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C156" s="18" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D156" s="18">
         <v>4</v>
@@ -27547,27 +27547,27 @@
         <v>50</v>
       </c>
       <c r="G156" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I156" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="J156" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="K156" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="N156" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C157" s="18" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D157" s="18">
         <v>4</v>
@@ -27579,19 +27579,19 @@
         <v>50</v>
       </c>
       <c r="G157" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="I157" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="J157" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="K157" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="N157" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
   </sheetData>
@@ -27607,8 +27607,8 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27618,47 +27618,47 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B1" t="s">
         <v>623</v>
       </c>
       <c r="C1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D1" t="s">
         <v>791</v>
       </c>
       <c r="E1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F1" t="s">
         <v>1320</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1321</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B2" t="s">
         <v>739</v>
       </c>
       <c r="C2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D2" t="s">
         <v>793</v>
       </c>
       <c r="F2" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>817</v>
+        <v>1697</v>
       </c>
       <c r="B3" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C3" t="s">
         <v>767</v>
@@ -27667,12 +27667,12 @@
         <v>797</v>
       </c>
       <c r="F3" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B4" t="s">
         <v>728</v>
@@ -27684,49 +27684,49 @@
         <v>795</v>
       </c>
       <c r="F4" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C5" t="s">
         <v>768</v>
       </c>
       <c r="D5" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B6" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C6" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B7" t="s">
         <v>808</v>
       </c>
       <c r="C7" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -27737,24 +27737,24 @@
         <v>750</v>
       </c>
       <c r="C8" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D8" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B9" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C9" t="s">
         <v>735</v>
       </c>
       <c r="D9" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -27776,13 +27776,13 @@
         <v>704</v>
       </c>
       <c r="B11" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C11" t="s">
         <v>736</v>
       </c>
       <c r="D11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -27790,13 +27790,13 @@
         <v>787</v>
       </c>
       <c r="B12" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C12" t="s">
         <v>714</v>
       </c>
       <c r="D12" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -27804,13 +27804,13 @@
         <v>695</v>
       </c>
       <c r="B13" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C13" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -27821,10 +27821,10 @@
         <v>806</v>
       </c>
       <c r="C14" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D14" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -27832,13 +27832,13 @@
         <v>813</v>
       </c>
       <c r="B15" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C15" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D15" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -27849,10 +27849,10 @@
         <v>727</v>
       </c>
       <c r="C16" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D16" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -27860,27 +27860,27 @@
         <v>814</v>
       </c>
       <c r="B17" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C17" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D17" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B18" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C18" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D18" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -27888,13 +27888,13 @@
         <v>708</v>
       </c>
       <c r="B19" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C19" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D19" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -27902,55 +27902,55 @@
         <v>694</v>
       </c>
       <c r="B20" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C20" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D20" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B21" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C21" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D21" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B22" t="s">
         <v>742</v>
       </c>
       <c r="C22" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D22" t="s">
         <v>1326</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B23" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C23" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="D23" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -27958,27 +27958,27 @@
         <v>700</v>
       </c>
       <c r="B24" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C24" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D24" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B25" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C25" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D25" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -27986,13 +27986,13 @@
         <v>699</v>
       </c>
       <c r="B26" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C26" t="s">
         <v>755</v>
       </c>
       <c r="D26" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -28000,13 +28000,13 @@
         <v>721</v>
       </c>
       <c r="B27" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C27" t="s">
         <v>663</v>
       </c>
       <c r="D27" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -28020,7 +28020,7 @@
         <v>753</v>
       </c>
       <c r="D28" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -28028,13 +28028,13 @@
         <v>709</v>
       </c>
       <c r="B29" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C29" t="s">
         <v>754</v>
       </c>
       <c r="D29" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -28042,13 +28042,13 @@
         <v>717</v>
       </c>
       <c r="B30" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C30" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D30" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -28056,41 +28056,41 @@
         <v>732</v>
       </c>
       <c r="B31" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C31" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D31" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B32" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C32" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D32" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B33" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C33" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D33" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -28098,13 +28098,13 @@
         <v>690</v>
       </c>
       <c r="B34" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C34" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D34" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -28112,13 +28112,13 @@
         <v>758</v>
       </c>
       <c r="B35" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C35" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D35" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -28126,10 +28126,10 @@
         <v>747</v>
       </c>
       <c r="B36" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C36" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D36" t="s">
         <v>686</v>
@@ -28140,55 +28140,55 @@
         <v>630</v>
       </c>
       <c r="B37" t="s">
+        <v>847</v>
+      </c>
+      <c r="C37" t="s">
         <v>848</v>
       </c>
-      <c r="C37" t="s">
-        <v>849</v>
-      </c>
       <c r="D37" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B38" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C38" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D38" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B39" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C39" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D39" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B40" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C40" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D40" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -28196,38 +28196,38 @@
         <v>644</v>
       </c>
       <c r="B41" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C41" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="D41" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B42" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C42" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D42" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B43" t="s">
         <v>676</v>
       </c>
       <c r="C43" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D43" t="s">
         <v>809</v>
@@ -28235,30 +28235,30 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B44" t="s">
         <v>790</v>
       </c>
       <c r="C44" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D44" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C45" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="D45" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -28266,13 +28266,13 @@
         <v>724</v>
       </c>
       <c r="B46" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C46" t="s">
         <v>811</v>
       </c>
       <c r="D46" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
   </sheetData>
@@ -28303,7 +28303,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>609</v>
@@ -28329,10 +28329,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>1336</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>1337</v>
       </c>
       <c r="C2">
         <v>1000</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="G2" t="s">
         <v>724</v>
@@ -28352,10 +28352,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C3">
         <v>1000</v>
@@ -28370,15 +28370,15 @@
         <v>803</v>
       </c>
       <c r="G3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C4">
         <v>1000</v>
@@ -28390,18 +28390,18 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C5">
         <v>1000</v>
@@ -28413,15 +28413,15 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C6">
         <v>1000</v>
@@ -28433,7 +28433,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="G6" t="s">
         <v>644</v>
@@ -28441,10 +28441,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="C7">
         <v>1000</v>
@@ -28456,7 +28456,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="G7" t="s">
         <v>631</v>
@@ -28464,10 +28464,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C8">
         <v>1000</v>
@@ -28479,7 +28479,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="G8" t="s">
         <v>663</v>
@@ -28487,10 +28487,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C9">
         <v>1000</v>
@@ -28505,15 +28505,15 @@
         <v>728</v>
       </c>
       <c r="G9" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C10">
         <v>1000</v>
@@ -28525,12 +28525,12 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11">
@@ -28545,7 +28545,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12">
@@ -28560,28 +28560,28 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B13" s="18"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B14" s="18"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B15" s="18"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>1349</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>1350</v>
       </c>
       <c r="C16">
         <v>1000</v>
@@ -28593,15 +28593,15 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C17">
         <v>1000</v>
@@ -28613,21 +28613,21 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G17" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H17" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C18">
         <v>1000</v>
@@ -28639,21 +28639,21 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G18" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H18" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C19">
         <v>1000</v>
@@ -28665,21 +28665,21 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G19" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H19" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C20">
         <v>1000</v>
@@ -28691,21 +28691,21 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G20" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H20" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C21">
         <v>1000</v>
@@ -28717,18 +28717,18 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="G21" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C22">
         <v>1000</v>
@@ -28740,7 +28740,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G22" t="s">
         <v>670</v>
@@ -28748,10 +28748,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C23">
         <v>1000</v>
@@ -28763,12 +28763,12 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
   </sheetData>
@@ -28792,1422 +28792,1422 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
   </sheetData>
@@ -30774,7 +30774,7 @@
         <v>48</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="F5" t="s">
         <v>65</v>
@@ -30803,7 +30803,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="F6" t="s">
         <v>84</v>
@@ -30832,7 +30832,7 @@
         <v>48</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="F7" t="s">
         <v>85</v>
@@ -30977,7 +30977,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>124</v>
@@ -31007,7 +31007,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>128</v>
@@ -31037,7 +31037,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>124</v>
@@ -31067,7 +31067,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>124</v>
@@ -31097,7 +31097,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>128</v>
@@ -31127,7 +31127,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>124</v>
@@ -31160,7 +31160,7 @@
         <v>13</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>129</v>
@@ -31666,7 +31666,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="B16" s="19">
         <v>222</v>
@@ -31678,10 +31678,10 @@
         <v>7</v>
       </c>
       <c r="E16" s="19" t="s">
+        <v>1655</v>
+      </c>
+      <c r="F16" s="19" t="s">
         <v>1656</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>1657</v>
       </c>
       <c r="G16" s="19">
         <v>20000</v>
@@ -35035,7 +35035,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B35" s="8">
         <v>224</v>
@@ -35047,7 +35047,7 @@
         <v>7</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8">
@@ -35062,7 +35062,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B36" s="16">
         <v>225</v>
@@ -35074,7 +35074,7 @@
         <v>7</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="16">

--- a/INFO D.xlsx
+++ b/INFO D.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Dissonance-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D6F7F7-89DF-4677-A766-B2A7052D3401}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664C9143-831C-47C4-A485-A36FE73B7FE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3000" windowWidth="29040" windowHeight="16440" tabRatio="680" firstSheet="9" activeTab="14" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="17055" yWindow="4785" windowWidth="19755" windowHeight="13305" tabRatio="680" firstSheet="11" activeTab="17" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="Affixes" sheetId="20" r:id="rId15"/>
     <sheet name="Mob Affixes" sheetId="21" r:id="rId16"/>
     <sheet name="Talent Perks" sheetId="22" r:id="rId17"/>
+    <sheet name="MineColonies Research" sheetId="23" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3247" uniqueCount="1698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3539" uniqueCount="1972">
   <si>
     <t>Quest</t>
   </si>
@@ -5143,13 +5144,835 @@
   </si>
   <si>
     <t>elemental_spell_damage_flat</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Quick Draw</t>
+  </si>
+  <si>
+    <t>Power Attack</t>
+  </si>
+  <si>
+    <t>Cleave</t>
+  </si>
+  <si>
+    <t>Mighty Cleave</t>
+  </si>
+  <si>
+    <t>Whirlwind</t>
+  </si>
+  <si>
+    <t>Precise Shot</t>
+  </si>
+  <si>
+    <t>Penetrating Shot</t>
+  </si>
+  <si>
+    <t>Piercing Shot</t>
+  </si>
+  <si>
+    <t>Wounding Shot</t>
+  </si>
+  <si>
+    <t>Deadly Aim</t>
+  </si>
+  <si>
+    <t>Tactic Training</t>
+  </si>
+  <si>
+    <t>Improved Swords</t>
+  </si>
+  <si>
+    <t>Squire Training</t>
+  </si>
+  <si>
+    <t>Knight Training</t>
+  </si>
+  <si>
+    <t>Captain Training</t>
+  </si>
+  <si>
+    <t>Captain of the Guard</t>
+  </si>
+  <si>
+    <t>Improved Bows</t>
+  </si>
+  <si>
+    <t>Tick Shot</t>
+  </si>
+  <si>
+    <t>Multi Shot</t>
+  </si>
+  <si>
+    <t>Rapid Shot</t>
+  </si>
+  <si>
+    <t>Master Bowman</t>
+  </si>
+  <si>
+    <t>Improved Leather</t>
+  </si>
+  <si>
+    <t>Boiled Leather</t>
+  </si>
+  <si>
+    <t>Iron Skin</t>
+  </si>
+  <si>
+    <t>Iron Armour</t>
+  </si>
+  <si>
+    <t>Steel Armour</t>
+  </si>
+  <si>
+    <t>Diamond Skin</t>
+  </si>
+  <si>
+    <t>Regeneration</t>
+  </si>
+  <si>
+    <t>Feint</t>
+  </si>
+  <si>
+    <t>Fear</t>
+  </si>
+  <si>
+    <t>Retreat</t>
+  </si>
+  <si>
+    <t>Full Retreat</t>
+  </si>
+  <si>
+    <t>Avoid</t>
+  </si>
+  <si>
+    <t>Evade</t>
+  </si>
+  <si>
+    <t>Flee</t>
+  </si>
+  <si>
+    <t>Hotfoot</t>
+  </si>
+  <si>
+    <t>Avoidance</t>
+  </si>
+  <si>
+    <t>Parry</t>
+  </si>
+  <si>
+    <t>Repost</t>
+  </si>
+  <si>
+    <t>Duelist</t>
+  </si>
+  <si>
+    <t>Provost</t>
+  </si>
+  <si>
+    <t>Master Swordsman</t>
+  </si>
+  <si>
+    <t>Dodge</t>
+  </si>
+  <si>
+    <t>Improved Dodge</t>
+  </si>
+  <si>
+    <t>Evasion</t>
+  </si>
+  <si>
+    <t>Improved Evasion</t>
+  </si>
+  <si>
+    <t>Agile Archer</t>
+  </si>
+  <si>
+    <t>Combat</t>
+  </si>
+  <si>
+    <t>Stamina</t>
+  </si>
+  <si>
+    <t>Band Aid</t>
+  </si>
+  <si>
+    <t>Healing Cream</t>
+  </si>
+  <si>
+    <t>Bandages</t>
+  </si>
+  <si>
+    <t>Compress</t>
+  </si>
+  <si>
+    <t>Cast</t>
+  </si>
+  <si>
+    <t>Resistance</t>
+  </si>
+  <si>
+    <t>Resilience</t>
+  </si>
+  <si>
+    <t>Vitality</t>
+  </si>
+  <si>
+    <t>Keen</t>
+  </si>
+  <si>
+    <t>Outpost</t>
+  </si>
+  <si>
+    <t>Hamlet</t>
+  </si>
+  <si>
+    <t>Village</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Diligent</t>
+  </si>
+  <si>
+    <t>Studious</t>
+  </si>
+  <si>
+    <t>Scholarly</t>
+  </si>
+  <si>
+    <t>Reflective</t>
+  </si>
+  <si>
+    <t>Academic</t>
+  </si>
+  <si>
+    <t>Agile</t>
+  </si>
+  <si>
+    <t>Nimble</t>
+  </si>
+  <si>
+    <t>Rails</t>
+  </si>
+  <si>
+    <t>Swift</t>
+  </si>
+  <si>
+    <t>Athlete</t>
+  </si>
+  <si>
+    <t>First Aid</t>
+  </si>
+  <si>
+    <t>First Aid II</t>
+  </si>
+  <si>
+    <t>Livesaver</t>
+  </si>
+  <si>
+    <t>Lifesaver II</t>
+  </si>
+  <si>
+    <t>Guardian Angel</t>
+  </si>
+  <si>
+    <t>Guardian Angel II</t>
+  </si>
+  <si>
+    <t>Circus</t>
+  </si>
+  <si>
+    <t>Festival</t>
+  </si>
+  <si>
+    <t>Spectacle</t>
+  </si>
+  <si>
+    <t>Opera</t>
+  </si>
+  <si>
+    <t>Theater</t>
+  </si>
+  <si>
+    <t>Gourmand</t>
+  </si>
+  <si>
+    <t>Gorger</t>
+  </si>
+  <si>
+    <t>Stuffer</t>
+  </si>
+  <si>
+    <t>Epicure</t>
+  </si>
+  <si>
+    <t>Glutton</t>
+  </si>
+  <si>
+    <t>Higher Learning</t>
+  </si>
+  <si>
+    <t>More Books</t>
+  </si>
+  <si>
+    <t>Bookworm</t>
+  </si>
+  <si>
+    <t>Bachelor</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>PhD</t>
+  </si>
+  <si>
+    <t>Nurture</t>
+  </si>
+  <si>
+    <t>Hormones</t>
+  </si>
+  <si>
+    <t>Puberty</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Beanstalk</t>
+  </si>
+  <si>
+    <t>Civilian</t>
+  </si>
+  <si>
+    <t>Biodegradable</t>
+  </si>
+  <si>
+    <t>Let it Grow</t>
+  </si>
+  <si>
+    <t>Bonemeal</t>
+  </si>
+  <si>
+    <t>Dung</t>
+  </si>
+  <si>
+    <t>Compost</t>
+  </si>
+  <si>
+    <t>Fertilizer</t>
+  </si>
+  <si>
+    <t>Flower Power</t>
+  </si>
+  <si>
+    <t>Magic Compost</t>
+  </si>
+  <si>
+    <t>Woodwork</t>
+  </si>
+  <si>
+    <t>Is This Redstone?</t>
+  </si>
+  <si>
+    <t>Redstone Powered</t>
+  </si>
+  <si>
+    <t>Heavy machinery</t>
+  </si>
+  <si>
+    <t>What is this speed?</t>
+  </si>
+  <si>
+    <t>Hot</t>
+  </si>
+  <si>
+    <t>The Flintstones</t>
+  </si>
+  <si>
+    <t>Rocking Roll</t>
+  </si>
+  <si>
+    <t>Stone Cake</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>2 Iron Blcck</t>
+  </si>
+  <si>
+    <t>4 iron block</t>
+  </si>
+  <si>
+    <t>16 iron block</t>
+  </si>
+  <si>
+    <t>8 iron block</t>
+  </si>
+  <si>
+    <t>32 iron block</t>
+  </si>
+  <si>
+    <t>16 fint</t>
+  </si>
+  <si>
+    <t>5 bows</t>
+  </si>
+  <si>
+    <t>18 bows</t>
+  </si>
+  <si>
+    <t>32 flint</t>
+  </si>
+  <si>
+    <t>64 flint</t>
+  </si>
+  <si>
+    <t>128 flint</t>
+  </si>
+  <si>
+    <t>256 flint</t>
+  </si>
+  <si>
+    <t>64 diamond</t>
+  </si>
+  <si>
+    <t>6 iron block</t>
+  </si>
+  <si>
+    <t>4 shield</t>
+  </si>
+  <si>
+    <t>8 shield</t>
+  </si>
+  <si>
+    <t>16 shield</t>
+  </si>
+  <si>
+    <t>27 shield</t>
+  </si>
+  <si>
+    <t>9 bows</t>
+  </si>
+  <si>
+    <t>64 leather</t>
+  </si>
+  <si>
+    <t>16 iron ingot</t>
+  </si>
+  <si>
+    <t>32 iron ingot</t>
+  </si>
+  <si>
+    <t>64 iron ingot</t>
+  </si>
+  <si>
+    <t>1 emerald</t>
+  </si>
+  <si>
+    <t>8 emerald</t>
+  </si>
+  <si>
+    <t>16 emerald</t>
+  </si>
+  <si>
+    <t>64 emerald</t>
+  </si>
+  <si>
+    <t>32 emerald</t>
+  </si>
+  <si>
+    <t>16 diamond</t>
+  </si>
+  <si>
+    <t>3 iron block</t>
+  </si>
+  <si>
+    <t>16 leather</t>
+  </si>
+  <si>
+    <t>32 leather</t>
+  </si>
+  <si>
+    <t>1 carrot</t>
+  </si>
+  <si>
+    <t>1 golden carrot</t>
+  </si>
+  <si>
+    <t>64 arrow 64 redstone</t>
+  </si>
+  <si>
+    <t>16 golden carrot</t>
+  </si>
+  <si>
+    <t>32 golden carrot</t>
+  </si>
+  <si>
+    <t>64 golden carrot</t>
+  </si>
+  <si>
+    <t>1 golden apple</t>
+  </si>
+  <si>
+    <t>8 golden apple</t>
+  </si>
+  <si>
+    <t>16 golden apple</t>
+  </si>
+  <si>
+    <t>32 golden apple</t>
+  </si>
+  <si>
+    <t>64 golden apple</t>
+  </si>
+  <si>
+    <t>indefatigability</t>
+  </si>
+  <si>
+    <t>3 books</t>
+  </si>
+  <si>
+    <t>64 cooked beef</t>
+  </si>
+  <si>
+    <t>128 cooked beef</t>
+  </si>
+  <si>
+    <t>256 cooked beef</t>
+  </si>
+  <si>
+    <t>512 cooked beef</t>
+  </si>
+  <si>
+    <t>6 books</t>
+  </si>
+  <si>
+    <t>12 books</t>
+  </si>
+  <si>
+    <t>24 books</t>
+  </si>
+  <si>
+    <t>48 books</t>
+  </si>
+  <si>
+    <t>128 books</t>
+  </si>
+  <si>
+    <t>64 rails</t>
+  </si>
+  <si>
+    <t>1 rabbt foot</t>
+  </si>
+  <si>
+    <t>10 rabbit foot</t>
+  </si>
+  <si>
+    <t>32 rabbit foot</t>
+  </si>
+  <si>
+    <t>64 rabbit foot</t>
+  </si>
+  <si>
+    <t>8 hay block</t>
+  </si>
+  <si>
+    <t>16 hay block</t>
+  </si>
+  <si>
+    <t>32 hayblock</t>
+  </si>
+  <si>
+    <t>64 hay block</t>
+  </si>
+  <si>
+    <t>128 hay block</t>
+  </si>
+  <si>
+    <t>256 hayblock</t>
+  </si>
+  <si>
+    <t>1 cake</t>
+  </si>
+  <si>
+    <t>9 cake</t>
+  </si>
+  <si>
+    <t>18 cake</t>
+  </si>
+  <si>
+    <t>27 cake</t>
+  </si>
+  <si>
+    <t>16 enchanted golden apple</t>
+  </si>
+  <si>
+    <t>32 cookie</t>
+  </si>
+  <si>
+    <t>64 cookie</t>
+  </si>
+  <si>
+    <t>128 cookie</t>
+  </si>
+  <si>
+    <t>256 cookie</t>
+  </si>
+  <si>
+    <t>512 cookie</t>
+  </si>
+  <si>
+    <t>3 book</t>
+  </si>
+  <si>
+    <t>6 bookshelf</t>
+  </si>
+  <si>
+    <t>12 bookshlef</t>
+  </si>
+  <si>
+    <t>32 book shelf</t>
+  </si>
+  <si>
+    <t>64 bookshelf</t>
+  </si>
+  <si>
+    <t>32 cooked chicken</t>
+  </si>
+  <si>
+    <t>64 cooked chicken</t>
+  </si>
+  <si>
+    <t>128 cooked chicken</t>
+  </si>
+  <si>
+    <t>256 cooked chicken</t>
+  </si>
+  <si>
+    <t>512 cooked chicken</t>
+  </si>
+  <si>
+    <t>4 lava buckets</t>
+  </si>
+  <si>
+    <t>128 redstone</t>
+  </si>
+  <si>
+    <t>256 redstone</t>
+  </si>
+  <si>
+    <t>512 redstone</t>
+  </si>
+  <si>
+    <t>1024 redstone</t>
+  </si>
+  <si>
+    <t>2048 redstone</t>
+  </si>
+  <si>
+    <t>64 stone bricks</t>
+  </si>
+  <si>
+    <t>64 stone</t>
+  </si>
+  <si>
+    <t>reinforced</t>
+  </si>
+  <si>
+    <t>steel bracing</t>
+  </si>
+  <si>
+    <t>diamond coated</t>
+  </si>
+  <si>
+    <t>what ya need?</t>
+  </si>
+  <si>
+    <t>vein meiner</t>
+  </si>
+  <si>
+    <t>good veins</t>
+  </si>
+  <si>
+    <t>amazing veins</t>
+  </si>
+  <si>
+    <t>rich veins</t>
+  </si>
+  <si>
+    <t>32 gold ore</t>
+  </si>
+  <si>
+    <t>64 iron ore</t>
+  </si>
+  <si>
+    <t>32 iron ore</t>
+  </si>
+  <si>
+    <t>64 gold ore</t>
+  </si>
+  <si>
+    <t>motherlode</t>
+  </si>
+  <si>
+    <t>64 redstone</t>
+  </si>
+  <si>
+    <t>128 iron ingot</t>
+  </si>
+  <si>
+    <t>256 iron ingot</t>
+  </si>
+  <si>
+    <t>64 chiseled stone bricks</t>
+  </si>
+  <si>
+    <t>32 diamond</t>
+  </si>
+  <si>
+    <t>128 diamonds</t>
+  </si>
+  <si>
+    <t>Hitting Iron</t>
+  </si>
+  <si>
+    <t>1 anvil</t>
+  </si>
+  <si>
+    <t>Ability</t>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>Seems Automatic</t>
+  </si>
+  <si>
+    <t>512 iron ingot</t>
+  </si>
+  <si>
+    <t>madness</t>
+  </si>
+  <si>
+    <t>1024 iron ingot</t>
+  </si>
+  <si>
+    <t>Stringwork</t>
+  </si>
+  <si>
+    <t>deep pockets</t>
+  </si>
+  <si>
+    <t>loaded</t>
+  </si>
+  <si>
+    <t>heavily loaded</t>
+  </si>
+  <si>
+    <t>Sieving</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>Fullstock</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>RTM</t>
+  </si>
+  <si>
+    <t>memory aid</t>
+  </si>
+  <si>
+    <t>cheat sheet</t>
+  </si>
+  <si>
+    <t>recipe book</t>
+  </si>
+  <si>
+    <t>64 diamond ore</t>
+  </si>
+  <si>
+    <t>16 Iron Ingot</t>
+  </si>
+  <si>
+    <t>64 compost</t>
+  </si>
+  <si>
+    <t>64 bone meal</t>
+  </si>
+  <si>
+    <t>16 compost</t>
+  </si>
+  <si>
+    <t>64 wheat seeds</t>
+  </si>
+  <si>
+    <t>128 wheat seeds</t>
+  </si>
+  <si>
+    <t>256 wheat seeds</t>
+  </si>
+  <si>
+    <t>512 wheat seeds</t>
+  </si>
+  <si>
+    <t>2048 wheat seeds</t>
+  </si>
+  <si>
+    <t>16 string</t>
+  </si>
+  <si>
+    <t>64 string</t>
+  </si>
+  <si>
+    <t>16 mincolonies rack</t>
+  </si>
+  <si>
+    <t>32 minecoloniesrack</t>
+  </si>
+  <si>
+    <t>64 mineoclonies rack</t>
+  </si>
+  <si>
+    <t>32 paper</t>
+  </si>
+  <si>
+    <t>64 paper</t>
+  </si>
+  <si>
+    <t>128 paper</t>
+  </si>
+  <si>
+    <t>256 paper</t>
+  </si>
+  <si>
+    <t>256 emerald</t>
+  </si>
+  <si>
+    <t>128 emeralds</t>
+  </si>
+  <si>
+    <t>64 oak planks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5184,8 +6007,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5258,8 +6098,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -5276,11 +6122,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -5321,6 +6244,20 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -27607,7 +28544,7 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -30215,6 +31152,1594 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287C81DE-6A1F-4F01-9CBE-E07DD115A294}">
+  <dimension ref="A1:M67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="47" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" style="47" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" style="47" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="50"/>
+      <c r="B1" s="44" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>1951</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>1699</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>1700</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>1818</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>1701</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>1820</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>1702</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>1819</v>
+      </c>
+      <c r="L1" s="44" t="s">
+        <v>1703</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="51"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="42"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="51"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="45" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1822</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>1705</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>1706</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="J3" s="45" t="s">
+        <v>1707</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>1827</v>
+      </c>
+      <c r="L3" s="45" t="s">
+        <v>1708</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="51"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="42"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="45" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="45" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>1711</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>1831</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>1712</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>1832</v>
+      </c>
+      <c r="J5" s="45" t="s">
+        <v>1713</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="L5" s="45" t="s">
+        <v>1714</v>
+      </c>
+      <c r="M5" s="42" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="42"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="51"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="45" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>1716</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>1823</v>
+      </c>
+      <c r="H7" s="45" t="s">
+        <v>1717</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>1835</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>1718</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="L7" s="45" t="s">
+        <v>1719</v>
+      </c>
+      <c r="M7" s="42"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="51"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="42"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="51" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="45" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>1836</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>1722</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>1837</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>1723</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>1838</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>1724</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>1839</v>
+      </c>
+      <c r="L9" s="45" t="s">
+        <v>1725</v>
+      </c>
+      <c r="M9" s="42" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="45"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="42"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="51"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="45" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>1840</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>1727</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>1841</v>
+      </c>
+      <c r="H11" s="45" t="s">
+        <v>1728</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>1842</v>
+      </c>
+      <c r="J11" s="45" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="L11" s="45" t="s">
+        <v>1730</v>
+      </c>
+      <c r="M11" s="42" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="51"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="42"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="51"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="45" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>1841</v>
+      </c>
+      <c r="H13" s="45" t="s">
+        <v>1732</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>1842</v>
+      </c>
+      <c r="J13" s="45" t="s">
+        <v>1733</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="L13" s="45" t="s">
+        <v>1734</v>
+      </c>
+      <c r="M13" s="42" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="51"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="42"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="51"/>
+      <c r="B15" s="45" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>1837</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>1737</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>1838</v>
+      </c>
+      <c r="H15" s="45" t="s">
+        <v>1738</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>1839</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>1739</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>1845</v>
+      </c>
+      <c r="L15" s="45" t="s">
+        <v>1740</v>
+      </c>
+      <c r="M15" s="42" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="51"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="42"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="53"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="46" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>1847</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>1742</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>1848</v>
+      </c>
+      <c r="H17" s="46" t="s">
+        <v>1743</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>1836</v>
+      </c>
+      <c r="J17" s="46" t="s">
+        <v>1744</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>1845</v>
+      </c>
+      <c r="L17" s="46" t="s">
+        <v>1745</v>
+      </c>
+      <c r="M17" s="43" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="50"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="41"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="51"/>
+      <c r="B20" s="45" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>1850</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>1851</v>
+      </c>
+      <c r="H20" s="45" t="s">
+        <v>1750</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>1852</v>
+      </c>
+      <c r="J20" s="45" t="s">
+        <v>1751</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>1853</v>
+      </c>
+      <c r="L20" s="45" t="s">
+        <v>1752</v>
+      </c>
+      <c r="M20" s="42" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="51"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="42"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="51"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="45" t="s">
+        <v>1753</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>1855</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>1754</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="H22" s="45" t="s">
+        <v>1755</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>1857</v>
+      </c>
+      <c r="J22" s="45" t="s">
+        <v>725</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>1858</v>
+      </c>
+      <c r="L22" s="45" t="s">
+        <v>1860</v>
+      </c>
+      <c r="M22" s="42" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="42"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="51"/>
+      <c r="B24" s="45" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>1862</v>
+      </c>
+      <c r="F24" s="45" t="s">
+        <v>1758</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>1863</v>
+      </c>
+      <c r="H24" s="45" t="s">
+        <v>1759</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>1864</v>
+      </c>
+      <c r="J24" s="45" t="s">
+        <v>1760</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>1865</v>
+      </c>
+      <c r="L24" s="45"/>
+      <c r="M24" s="42"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="51"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="42"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="51"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="45" t="s">
+        <v>1761</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>1866</v>
+      </c>
+      <c r="F26" s="45" t="s">
+        <v>1762</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="H26" s="45" t="s">
+        <v>1763</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>1868</v>
+      </c>
+      <c r="J26" s="45" t="s">
+        <v>1764</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>1869</v>
+      </c>
+      <c r="L26" s="45" t="s">
+        <v>1765</v>
+      </c>
+      <c r="M26" s="42" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="45"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="42"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="51" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B28" s="45"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="45" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>1871</v>
+      </c>
+      <c r="F28" s="45" t="s">
+        <v>1767</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>1872</v>
+      </c>
+      <c r="H28" s="45" t="s">
+        <v>1766</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>1873</v>
+      </c>
+      <c r="J28" s="45" t="s">
+        <v>1769</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>1874</v>
+      </c>
+      <c r="L28" s="45" t="s">
+        <v>1770</v>
+      </c>
+      <c r="M28" s="42" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="51"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="42"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="51"/>
+      <c r="B30" s="45" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D30" s="45" t="s">
+        <v>1772</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>1877</v>
+      </c>
+      <c r="F30" s="45" t="s">
+        <v>1773</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>1878</v>
+      </c>
+      <c r="H30" s="45" t="s">
+        <v>1774</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>1879</v>
+      </c>
+      <c r="J30" s="45" t="s">
+        <v>1775</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>1880</v>
+      </c>
+      <c r="L30" s="45" t="s">
+        <v>1776</v>
+      </c>
+      <c r="M30" s="42" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="51"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="42"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="51"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="45" t="s">
+        <v>1777</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>1882</v>
+      </c>
+      <c r="F32" s="45" t="s">
+        <v>1778</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>1883</v>
+      </c>
+      <c r="H32" s="45" t="s">
+        <v>1779</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>1884</v>
+      </c>
+      <c r="J32" s="45" t="s">
+        <v>1780</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>1885</v>
+      </c>
+      <c r="L32" s="45" t="s">
+        <v>1781</v>
+      </c>
+      <c r="M32" s="42" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="51"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="42"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="51"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="45" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>1887</v>
+      </c>
+      <c r="F34" s="45" t="s">
+        <v>1783</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>1888</v>
+      </c>
+      <c r="H34" s="45" t="s">
+        <v>1784</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>1889</v>
+      </c>
+      <c r="J34" s="45" t="s">
+        <v>1785</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>1890</v>
+      </c>
+      <c r="L34" s="45" t="s">
+        <v>1786</v>
+      </c>
+      <c r="M34" s="42" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="51"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="42"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="51"/>
+      <c r="B36" s="45" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D36" s="45" t="s">
+        <v>1788</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>1866</v>
+      </c>
+      <c r="F36" s="45" t="s">
+        <v>1789</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="H36" s="45" t="s">
+        <v>1790</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>1894</v>
+      </c>
+      <c r="J36" s="45" t="s">
+        <v>1791</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>1895</v>
+      </c>
+      <c r="L36" s="45" t="s">
+        <v>1792</v>
+      </c>
+      <c r="M36" s="42" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="51"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="42"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="51"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="45" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>1897</v>
+      </c>
+      <c r="F38" s="45" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>1898</v>
+      </c>
+      <c r="H38" s="45" t="s">
+        <v>1795</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>1899</v>
+      </c>
+      <c r="J38" s="45" t="s">
+        <v>1796</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>1900</v>
+      </c>
+      <c r="L38" s="45" t="s">
+        <v>1797</v>
+      </c>
+      <c r="M38" s="42" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="53"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="43"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="50"/>
+      <c r="B41" s="44" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D41" s="44" t="s">
+        <v>1805</v>
+      </c>
+      <c r="E41" s="40" t="s">
+        <v>1952</v>
+      </c>
+      <c r="F41" s="48"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="41"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="51"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="42"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="51"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="45" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>1954</v>
+      </c>
+      <c r="F43" s="45"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="42"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="51"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="45"/>
+      <c r="M44" s="42"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="51"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="45" t="s">
+        <v>1801</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>1955</v>
+      </c>
+      <c r="F45" s="45" t="s">
+        <v>1802</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>1956</v>
+      </c>
+      <c r="H45" s="45" t="s">
+        <v>1803</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>1957</v>
+      </c>
+      <c r="J45" s="45" t="s">
+        <v>1804</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>1958</v>
+      </c>
+      <c r="L45" s="45" t="s">
+        <v>1806</v>
+      </c>
+      <c r="M45" s="42" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="51"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="45"/>
+      <c r="M46" s="42"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="51"/>
+      <c r="B47" s="45" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>1971</v>
+      </c>
+      <c r="D47" s="45" t="s">
+        <v>1938</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>1960</v>
+      </c>
+      <c r="F47" s="45"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="45"/>
+      <c r="M47" s="42"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="51"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="45"/>
+      <c r="M48" s="42"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="51"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="45" t="s">
+        <v>1942</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>1961</v>
+      </c>
+      <c r="F49" s="45" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>1962</v>
+      </c>
+      <c r="H49" s="45" t="s">
+        <v>1945</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>1963</v>
+      </c>
+      <c r="J49" s="45" t="s">
+        <v>1944</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>1964</v>
+      </c>
+      <c r="L49" s="45"/>
+      <c r="M49" s="42"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="51"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="42"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="51"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="45" t="s">
+        <v>1947</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>1965</v>
+      </c>
+      <c r="F51" s="45" t="s">
+        <v>1948</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>1966</v>
+      </c>
+      <c r="H51" s="45" t="s">
+        <v>1949</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>1967</v>
+      </c>
+      <c r="J51" s="45" t="s">
+        <v>1946</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>1968</v>
+      </c>
+      <c r="L51" s="49"/>
+      <c r="M51" s="42"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="51" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B52" s="45"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="45"/>
+      <c r="M52" s="42"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="51"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="45" t="s">
+        <v>1939</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>1969</v>
+      </c>
+      <c r="J53" s="45" t="s">
+        <v>1940</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>1843</v>
+      </c>
+      <c r="L53" s="45" t="s">
+        <v>1941</v>
+      </c>
+      <c r="M53" s="42" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="51"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="45"/>
+      <c r="M54" s="42"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="51"/>
+      <c r="B55" s="45" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>1902</v>
+      </c>
+      <c r="D55" s="45" t="s">
+        <v>1808</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F55" s="45" t="s">
+        <v>1809</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>1904</v>
+      </c>
+      <c r="H55" s="45" t="s">
+        <v>1810</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J55" s="45" t="s">
+        <v>1811</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>1906</v>
+      </c>
+      <c r="L55" s="45" t="s">
+        <v>1343</v>
+      </c>
+      <c r="M55" s="42" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="51"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="45"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="45"/>
+      <c r="M56" s="42"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="51"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="45" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>1908</v>
+      </c>
+      <c r="F57" s="45" t="s">
+        <v>1814</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>1909</v>
+      </c>
+      <c r="H57" s="45"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="45"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="45"/>
+      <c r="M57" s="42"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="51"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="45"/>
+      <c r="M58" s="42"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="51"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="45"/>
+      <c r="M59" s="42"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="51"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="45"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="45"/>
+      <c r="M60" s="42"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="51"/>
+      <c r="B61" s="45" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>1930</v>
+      </c>
+      <c r="D61" s="45" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>1926</v>
+      </c>
+      <c r="F61" s="45"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="45" t="s">
+        <v>1910</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>1927</v>
+      </c>
+      <c r="J61" s="45" t="s">
+        <v>1911</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>1829</v>
+      </c>
+      <c r="L61" s="45" t="s">
+        <v>1912</v>
+      </c>
+      <c r="M61" s="42" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="51"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="45"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="45"/>
+      <c r="M62" s="42"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="51"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="45" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>1839</v>
+      </c>
+      <c r="F63" s="45" t="s">
+        <v>1932</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>1924</v>
+      </c>
+      <c r="H63" s="45" t="s">
+        <v>1933</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>1925</v>
+      </c>
+      <c r="J63" s="45" t="s">
+        <v>1934</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="L63" s="45" t="s">
+        <v>1936</v>
+      </c>
+      <c r="M63" s="42" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="51"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="45"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="45"/>
+      <c r="M64" s="42"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="51"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="45" t="s">
+        <v>1914</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>1920</v>
+      </c>
+      <c r="F65" s="45" t="s">
+        <v>1915</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>1919</v>
+      </c>
+      <c r="H65" s="45" t="s">
+        <v>1917</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>1918</v>
+      </c>
+      <c r="J65" s="45" t="s">
+        <v>1916</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>1921</v>
+      </c>
+      <c r="L65" s="45" t="s">
+        <v>1922</v>
+      </c>
+      <c r="M65" s="42" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="51"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="45"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="45"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="45"/>
+      <c r="M66" s="42"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="53"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="46" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F67" s="46"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="46"/>
+      <c r="M67" s="43"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A65324-C9DA-4EDD-9405-FE619AD58426}">
   <sheetPr>

--- a/INFO D.xlsx
+++ b/INFO D.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Dissonance-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747152B6-A642-49CD-BF6F-064FE9F2E78E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219183FF-5010-45C7-BA8F-BAF1018D1FB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="680" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="680" activeTab="9" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3641" uniqueCount="2032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3645" uniqueCount="2036">
   <si>
     <t>Quest</t>
   </si>
@@ -6147,6 +6147,18 @@
   </si>
   <si>
     <t>atum dirty scepter</t>
+  </si>
+  <si>
+    <t>Setting Up Shop</t>
+  </si>
+  <si>
+    <t>Initializing Trade</t>
+  </si>
+  <si>
+    <t>Bringing It Together</t>
+  </si>
+  <si>
+    <t>On Display</t>
   </si>
 </sst>
 </file>
@@ -18961,7 +18973,7 @@
   </sheetPr>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -20348,10 +20360,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21411,6 +21423,26 @@
       </c>
       <c r="I36" s="18">
         <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>2035</v>
       </c>
     </row>
   </sheetData>

--- a/INFO D.xlsx
+++ b/INFO D.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Dissonance-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219183FF-5010-45C7-BA8F-BAF1018D1FB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530979BD-3DAE-4CAF-953C-A8733EAD3630}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="680" activeTab="9" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="38280" yWindow="2715" windowWidth="29040" windowHeight="16440" tabRatio="680" firstSheet="13" activeTab="17" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,9 @@
     <sheet name="Uniques" sheetId="19" r:id="rId15"/>
     <sheet name="Affixes" sheetId="20" r:id="rId16"/>
     <sheet name="Mob Affixes" sheetId="21" r:id="rId17"/>
-    <sheet name="Talent Perks" sheetId="22" r:id="rId18"/>
-    <sheet name="MineColonies Research" sheetId="23" r:id="rId19"/>
+    <sheet name="Skill Tree Perks" sheetId="25" r:id="rId18"/>
+    <sheet name="Talent Perks" sheetId="22" r:id="rId19"/>
+    <sheet name="MineColonies Research" sheetId="23" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3645" uniqueCount="2036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3777" uniqueCount="2128">
   <si>
     <t>Quest</t>
   </si>
@@ -6159,13 +6160,289 @@
   </si>
   <si>
     <t>On Display</t>
+  </si>
+  <si>
+    <t>int_wis</t>
+  </si>
+  <si>
+    <t>sta</t>
+  </si>
+  <si>
+    <t>vit</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>dex</t>
+  </si>
+  <si>
+    <t>wis</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>staff_ele_dmg_percent</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>ms_percent</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>ms_regen_percent</t>
+  </si>
+  <si>
+    <t>Modifier</t>
+  </si>
+  <si>
+    <t>Spell</t>
+  </si>
+  <si>
+    <t>Elemental</t>
+  </si>
+  <si>
+    <t>Magic Shield</t>
+  </si>
+  <si>
+    <t>Mana</t>
+  </si>
+  <si>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Warrior</t>
+  </si>
+  <si>
+    <t>Guardian</t>
+  </si>
+  <si>
+    <t>Mage</t>
+  </si>
+  <si>
+    <t>Crit</t>
+  </si>
+  <si>
+    <t>water_spell_to_attack_dmg</t>
+  </si>
+  <si>
+    <t>fire_spell_to_attack_dmg</t>
+  </si>
+  <si>
+    <t>thunder_spell_to_attack_dmg</t>
+  </si>
+  <si>
+    <t>nature_spell_to_attack_dmg</t>
+  </si>
+  <si>
+    <t>Traits</t>
+  </si>
+  <si>
+    <t>water_spell_dmg</t>
+  </si>
+  <si>
+    <t>water_attack_dmg</t>
+  </si>
+  <si>
+    <t>water_all_dmg</t>
+  </si>
+  <si>
+    <t>fire_spell_dmg</t>
+  </si>
+  <si>
+    <t>fire_attack_dmg</t>
+  </si>
+  <si>
+    <t>fire_all_dmg</t>
+  </si>
+  <si>
+    <t>thunder_spell_dmg</t>
+  </si>
+  <si>
+    <t>thunder_attack_dmg</t>
+  </si>
+  <si>
+    <t>thunder_all_dmg</t>
+  </si>
+  <si>
+    <t>nature_spell_dmg</t>
+  </si>
+  <si>
+    <t>nature_attack_dmg</t>
+  </si>
+  <si>
+    <t>nature_all_dmg</t>
+  </si>
+  <si>
+    <t>staff_dmg_percent</t>
+  </si>
+  <si>
+    <t>hp_percent</t>
+  </si>
+  <si>
+    <t>hp_regen_percent</t>
+  </si>
+  <si>
+    <t>hammer_dmg_percent</t>
+  </si>
+  <si>
+    <t>hammer_ele_dmg_percent</t>
+  </si>
+  <si>
+    <t>hp_hp_regen</t>
+  </si>
+  <si>
+    <t>elemental_res</t>
+  </si>
+  <si>
+    <t>block_percent</t>
+  </si>
+  <si>
+    <t>fire_res</t>
+  </si>
+  <si>
+    <t>water_res</t>
+  </si>
+  <si>
+    <t>thunder_res</t>
+  </si>
+  <si>
+    <t>nature_res</t>
+  </si>
+  <si>
+    <t>str_crit_dmg</t>
+  </si>
+  <si>
+    <t>phys_dmg</t>
+  </si>
+  <si>
+    <t>axe_ele_dmg_percent</t>
+  </si>
+  <si>
+    <t>phys_dmg_crit_dmg</t>
+  </si>
+  <si>
+    <t>sword_dmg_percent</t>
+  </si>
+  <si>
+    <t>sword_ele_dmg_percent</t>
+  </si>
+  <si>
+    <t>crit_dmg</t>
+  </si>
+  <si>
+    <t>crit_hit</t>
+  </si>
+  <si>
+    <t>phys_dmg_crit_hit</t>
+  </si>
+  <si>
+    <t>ene_ene_regen</t>
+  </si>
+  <si>
+    <t>energy_percent</t>
+  </si>
+  <si>
+    <t>crit_hit_crit_dmg</t>
+  </si>
+  <si>
+    <t>crossbow_dmg_percent</t>
+  </si>
+  <si>
+    <t>crossbow_ele_dmg_percent</t>
+  </si>
+  <si>
+    <t>bow_dmg_percent</t>
+  </si>
+  <si>
+    <t>bow_ele_dmg_percent</t>
+  </si>
+  <si>
+    <t>dodge_ene_regen</t>
+  </si>
+  <si>
+    <t>sta_dex</t>
+  </si>
+  <si>
+    <t>fire_pene</t>
+  </si>
+  <si>
+    <t>water_pene</t>
+  </si>
+  <si>
+    <t>nature_pene</t>
+  </si>
+  <si>
+    <t>thunder_pene</t>
+  </si>
+  <si>
+    <t>mana_mana_regen</t>
+  </si>
+  <si>
+    <t>Core Stats</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>axe_dmg_percent</t>
+  </si>
+  <si>
+    <t>Elemental Penetration</t>
+  </si>
+  <si>
+    <t>Infusion</t>
+  </si>
+  <si>
+    <t>Bow/Crossbow</t>
+  </si>
+  <si>
+    <t>Elemental Weapons</t>
+  </si>
+  <si>
+    <t>Elemental Resists</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>spell_dmg</t>
+  </si>
+  <si>
+    <t>dodge_ene</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6217,8 +6494,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6300,6 +6584,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6402,7 +6692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -6463,6 +6753,8 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -20362,7 +20654,7 @@
   </sheetPr>
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
@@ -32157,6 +32449,494 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA31FB8F-C345-4F52-BAA2-B60B3DF3BE69}">
+  <dimension ref="A1:N32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9:J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>2054</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>2051</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>2049</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2098</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2047</v>
+      </c>
+      <c r="G2" s="61" t="s">
+        <v>1362</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2094</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2099</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2045</v>
+      </c>
+      <c r="G3" s="61" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2120</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2050</v>
+      </c>
+      <c r="N3" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C4" t="s">
+        <v>628</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2106</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2103</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2043</v>
+      </c>
+      <c r="G4" s="61" t="s">
+        <v>1419</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2055</v>
+      </c>
+      <c r="L4" t="s">
+        <v>2051</v>
+      </c>
+      <c r="N4" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2114</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2107</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2073</v>
+      </c>
+      <c r="G5" s="61" t="s">
+        <v>1487</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2052</v>
+      </c>
+      <c r="L5" t="s">
+        <v>2052</v>
+      </c>
+      <c r="N5" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>730</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2104</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2072</v>
+      </c>
+      <c r="G6" s="61" t="s">
+        <v>1528</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2053</v>
+      </c>
+      <c r="L6" t="s">
+        <v>2053</v>
+      </c>
+      <c r="N6" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C7" t="s">
+        <v>712</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2105</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2110</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2088</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2083</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2071</v>
+      </c>
+      <c r="G8" s="61" t="s">
+        <v>1559</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>2060</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2084</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2064</v>
+      </c>
+      <c r="G9" s="61" t="s">
+        <v>1376</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2122</v>
+      </c>
+      <c r="N9" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2081</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2080</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G10" s="61" t="s">
+        <v>1372</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2123</v>
+      </c>
+      <c r="N10" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2044</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2079</v>
+      </c>
+      <c r="G11" s="61" t="s">
+        <v>1488</v>
+      </c>
+      <c r="J11" t="s">
+        <v>2055</v>
+      </c>
+      <c r="N11" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>2046</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2096</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2078</v>
+      </c>
+      <c r="G12" s="61" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J12" t="s">
+        <v>2053</v>
+      </c>
+      <c r="N12" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>2048</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2097</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2112</v>
+      </c>
+      <c r="G13" s="61" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>2091</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2077</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1441</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2066</v>
+      </c>
+      <c r="J15" t="s">
+        <v>2054</v>
+      </c>
+      <c r="L15" t="s">
+        <v>2054</v>
+      </c>
+      <c r="N15" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>2089</v>
+      </c>
+      <c r="E16" t="s">
+        <v>752</v>
+      </c>
+      <c r="J16" t="s">
+        <v>2125</v>
+      </c>
+      <c r="L16" t="s">
+        <v>2056</v>
+      </c>
+      <c r="N16" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>2093</v>
+      </c>
+      <c r="J17" t="s">
+        <v>2057</v>
+      </c>
+      <c r="L17" t="s">
+        <v>2055</v>
+      </c>
+      <c r="N17" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>2095</v>
+      </c>
+      <c r="J18" t="s">
+        <v>2124</v>
+      </c>
+      <c r="L18" t="s">
+        <v>2057</v>
+      </c>
+      <c r="N18" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="23" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="24" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="25" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="26" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="27" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="28" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="29" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="30" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="31" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="32" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:E32">
+    <sortCondition ref="E2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A88292-3556-47A6-A3B8-67EBA70876A0}">
   <sheetPr>
     <tabColor theme="1"/>
@@ -33594,7 +34374,446 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A65324-C9DA-4EDD-9405-FE619AD58426}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="9" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="17">
+        <f>( 1.5 *11000)/2</f>
+        <v>8250</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="17">
+        <f>( 1.5 *16000)/2</f>
+        <v>12000</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="17">
+        <f>( 1.5 *30000)/2</f>
+        <v>22500</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="I4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="17">
+        <f>( 1.5 *28000)/2</f>
+        <v>21000</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="17">
+        <f>( 1.5 *37500)/2</f>
+        <v>28125</v>
+      </c>
+      <c r="H6">
+        <v>150</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="11">
+        <v>15</v>
+      </c>
+      <c r="C7" s="11">
+        <v>14</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="G7" s="23">
+        <f>( 1.5 *45000)/2</f>
+        <v>33750</v>
+      </c>
+      <c r="H7" s="11">
+        <v>200</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="17">
+        <f>( 1.5 *35000)/2</f>
+        <v>26250</v>
+      </c>
+      <c r="H8" s="2">
+        <v>50</v>
+      </c>
+      <c r="I8" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="2">
+        <v>46</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G9" s="17">
+        <f>( 1.5 *37500)/2</f>
+        <v>28125</v>
+      </c>
+      <c r="H9" s="2">
+        <v>100</v>
+      </c>
+      <c r="I9" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B10" s="8">
+        <v>111</v>
+      </c>
+      <c r="C10" s="13">
+        <v>13</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G10" s="9">
+        <v>30000</v>
+      </c>
+      <c r="H10" s="13">
+        <v>100</v>
+      </c>
+      <c r="I10" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="B11" s="8">
+        <v>184</v>
+      </c>
+      <c r="C11" s="8">
+        <v>14</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="G11" s="2">
+        <v>30000</v>
+      </c>
+      <c r="H11" s="8">
+        <v>150</v>
+      </c>
+      <c r="I11" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="B12" s="8">
+        <v>185</v>
+      </c>
+      <c r="C12" s="8">
+        <v>184</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G12" s="2">
+        <v>30500</v>
+      </c>
+      <c r="H12" s="8">
+        <v>150</v>
+      </c>
+      <c r="I12" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="B13" s="15">
+        <v>186</v>
+      </c>
+      <c r="C13" s="15">
+        <v>184</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="G13" s="18">
+        <v>25000</v>
+      </c>
+      <c r="H13" s="15">
+        <v>200</v>
+      </c>
+      <c r="I13" s="15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B14" s="8">
+        <v>236</v>
+      </c>
+      <c r="C14" s="8">
+        <v>14</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1981</v>
+      </c>
+      <c r="G14" s="13">
+        <v>25000</v>
+      </c>
+      <c r="H14" s="8">
+        <v>150</v>
+      </c>
+      <c r="I14" s="8">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>296</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287C81DE-6A1F-4F01-9CBE-E07DD115A294}">
   <dimension ref="A1:M67"/>
   <sheetViews>
@@ -35182,445 +36401,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A65324-C9DA-4EDD-9405-FE619AD58426}">
-  <sheetPr>
-    <tabColor theme="7" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:K17"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="9" width="20.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>511</v>
-      </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="17">
-        <f>( 1.5 *11000)/2</f>
-        <v>8250</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>512</v>
-      </c>
-      <c r="F3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="17">
-        <f>( 1.5 *16000)/2</f>
-        <v>12000</v>
-      </c>
-      <c r="H3">
-        <v>50</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="17">
-        <f>( 1.5 *30000)/2</f>
-        <v>22500</v>
-      </c>
-      <c r="H4">
-        <v>50</v>
-      </c>
-      <c r="I4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>513</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="17">
-        <f>( 1.5 *28000)/2</f>
-        <v>21000</v>
-      </c>
-      <c r="H5">
-        <v>100</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="17">
-        <f>( 1.5 *37500)/2</f>
-        <v>28125</v>
-      </c>
-      <c r="H6">
-        <v>150</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="11">
-        <v>15</v>
-      </c>
-      <c r="C7" s="11">
-        <v>14</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="G7" s="23">
-        <f>( 1.5 *45000)/2</f>
-        <v>33750</v>
-      </c>
-      <c r="H7" s="11">
-        <v>200</v>
-      </c>
-      <c r="I7" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="2">
-        <v>45</v>
-      </c>
-      <c r="C8" s="2">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8" s="17">
-        <f>( 1.5 *35000)/2</f>
-        <v>26250</v>
-      </c>
-      <c r="H8" s="2">
-        <v>50</v>
-      </c>
-      <c r="I8" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="2">
-        <v>46</v>
-      </c>
-      <c r="C9" s="2">
-        <v>45</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G9" s="17">
-        <f>( 1.5 *37500)/2</f>
-        <v>28125</v>
-      </c>
-      <c r="H9" s="2">
-        <v>100</v>
-      </c>
-      <c r="I9" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="B10" s="8">
-        <v>111</v>
-      </c>
-      <c r="C10" s="13">
-        <v>13</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="G10" s="9">
-        <v>30000</v>
-      </c>
-      <c r="H10" s="13">
-        <v>100</v>
-      </c>
-      <c r="I10" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="B11" s="8">
-        <v>184</v>
-      </c>
-      <c r="C11" s="8">
-        <v>14</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>497</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="G11" s="2">
-        <v>30000</v>
-      </c>
-      <c r="H11" s="8">
-        <v>150</v>
-      </c>
-      <c r="I11" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="B12" s="8">
-        <v>185</v>
-      </c>
-      <c r="C12" s="8">
-        <v>184</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>514</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="G12" s="2">
-        <v>30500</v>
-      </c>
-      <c r="H12" s="8">
-        <v>150</v>
-      </c>
-      <c r="I12" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>501</v>
-      </c>
-      <c r="B13" s="15">
-        <v>186</v>
-      </c>
-      <c r="C13" s="15">
-        <v>184</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>504</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>500</v>
-      </c>
-      <c r="G13" s="18">
-        <v>25000</v>
-      </c>
-      <c r="H13" s="15">
-        <v>200</v>
-      </c>
-      <c r="I13" s="15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>1980</v>
-      </c>
-      <c r="B14" s="8">
-        <v>236</v>
-      </c>
-      <c r="C14" s="8">
-        <v>14</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1981</v>
-      </c>
-      <c r="G14" s="13">
-        <v>25000</v>
-      </c>
-      <c r="H14" s="8">
-        <v>150</v>
-      </c>
-      <c r="I14" s="8">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K17" t="s">
-        <v>296</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B10869D-BB98-446E-A391-D8AB9A1D34DF}">
   <sheetPr>

--- a/INFO D.xlsx
+++ b/INFO D.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Dissonance-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530979BD-3DAE-4CAF-953C-A8733EAD3630}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41035A20-05CE-4507-92A8-0D46E02196F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2715" windowWidth="29040" windowHeight="16440" tabRatio="680" firstSheet="13" activeTab="17" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="16860" yWindow="2880" windowWidth="18720" windowHeight="15885" tabRatio="680" firstSheet="13" activeTab="14" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3777" uniqueCount="2128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3784" uniqueCount="2132">
   <si>
     <t>Quest</t>
   </si>
@@ -6436,6 +6436,18 @@
   </si>
   <si>
     <t>dodge_ene</t>
+  </si>
+  <si>
+    <t>ctecu:nose_ring</t>
+  </si>
+  <si>
+    <t>nose_ring</t>
+  </si>
+  <si>
+    <t>low_energy_regen_flat</t>
+  </si>
+  <si>
+    <t>low_all_attributes_flat</t>
   </si>
 </sst>
 </file>
@@ -25562,10 +25574,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:P157"/>
+  <dimension ref="A1:P158"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="I107" sqref="I107"/>
+    <sheetView tabSelected="1" topLeftCell="C129" workbookViewId="0">
+      <selection activeCell="H150" sqref="H150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31263,6 +31275,38 @@
       </c>
       <c r="N157" t="s">
         <v>1106</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B158" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C158" s="17" t="s">
+        <v>2129</v>
+      </c>
+      <c r="D158" s="17">
+        <v>3</v>
+      </c>
+      <c r="E158" s="17">
+        <v>3</v>
+      </c>
+      <c r="F158" s="17">
+        <v>250</v>
+      </c>
+      <c r="G158" t="s">
+        <v>2130</v>
+      </c>
+      <c r="H158" t="s">
+        <v>1076</v>
+      </c>
+      <c r="I158" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J158" t="s">
+        <v>693</v>
       </c>
     </row>
   </sheetData>
@@ -32452,7 +32496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA31FB8F-C345-4F52-BAA2-B60B3DF3BE69}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9:J12"/>
     </sheetView>
   </sheetViews>

--- a/INFO D.xlsx
+++ b/INFO D.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Dissonance-Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin Vuu\Documents\GitHub\Craft-to-Exile-Dissonance-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF82195A-7A69-4C6B-954B-77E39D1813D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443FBD0A-C61A-4B14-B883-81348F274C04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="2295" windowWidth="28800" windowHeight="15885" tabRatio="680" firstSheet="10" activeTab="13" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="680" firstSheet="1" activeTab="13" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3843" uniqueCount="2154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3865" uniqueCount="2166">
   <si>
     <t>Quest</t>
   </si>
@@ -6514,6 +6514,42 @@
   </si>
   <si>
     <t>high_magic_shield_flat</t>
+  </si>
+  <si>
+    <t>Ano, Cen</t>
+  </si>
+  <si>
+    <t>Holy</t>
+  </si>
+  <si>
+    <t>increase_healing</t>
+  </si>
+  <si>
+    <t>Goh, Ano, Ita</t>
+  </si>
+  <si>
+    <t>low_health_percent</t>
+  </si>
+  <si>
+    <t>Heart</t>
+  </si>
+  <si>
+    <t>Paladin</t>
+  </si>
+  <si>
+    <t>Rah, Goh, Mos, Ano</t>
+  </si>
+  <si>
+    <t>Healer's Robes</t>
+  </si>
+  <si>
+    <t>Angel's Garbs</t>
+  </si>
+  <si>
+    <t>mana_precent</t>
+  </si>
+  <si>
+    <t>low_increase_healing_flat</t>
   </si>
 </sst>
 </file>
@@ -23032,10 +23068,10 @@
   <sheetPr>
     <tabColor theme="2" tint="-9.9978637043366805E-2"/>
   </sheetPr>
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24102,7 +24138,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>758</v>
       </c>
@@ -24134,7 +24170,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>760</v>
       </c>
@@ -24166,7 +24202,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>762</v>
       </c>
@@ -24195,7 +24231,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2134</v>
       </c>
@@ -24227,7 +24263,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>2140</v>
       </c>
@@ -24259,7 +24295,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2143</v>
       </c>
@@ -24288,7 +24324,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2144</v>
       </c>
@@ -24317,62 +24353,156 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>2145</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>0</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
         <v>1</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
         <v>6666</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
         <v>3</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="2" t="s">
         <v>2149</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="2" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>2146</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>0</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
         <v>1</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <v>6666</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <v>3</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="2" t="s">
         <v>2150</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="2" t="s">
         <v>732</v>
+      </c>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B42" s="8">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>6666</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>2154</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>2156</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B43" s="8">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>6666</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43" t="s">
+        <v>2157</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>2158</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>2165</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J43" s="8"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B44" s="8">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>75</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44" t="s">
+        <v>2161</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>1075</v>
       </c>
     </row>
   </sheetData>
@@ -24385,10 +24515,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25856,39 +25986,111 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="2" t="s">
         <v>1690</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>0</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
         <v>1</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <v>10000</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="9">
         <v>20</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="9">
         <v>50</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="2">
         <v>4</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="2" t="s">
         <v>1693</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K42" s="2" t="s">
         <v>692</v>
       </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B43" s="8">
+        <v>0</v>
+      </c>
+      <c r="C43" s="8">
+        <v>1</v>
+      </c>
+      <c r="D43" s="8">
+        <v>10000</v>
+      </c>
+      <c r="E43" s="13">
+        <v>0</v>
+      </c>
+      <c r="F43" s="13">
+        <v>20</v>
+      </c>
+      <c r="G43" s="8">
+        <v>2</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B44" s="8">
+        <v>0</v>
+      </c>
+      <c r="C44" s="8">
+        <v>1</v>
+      </c>
+      <c r="D44" s="8">
+        <v>10000</v>
+      </c>
+      <c r="E44" s="13">
+        <v>15</v>
+      </c>
+      <c r="F44" s="13">
+        <v>50</v>
+      </c>
+      <c r="G44" s="8">
+        <v>3</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>2164</v>
+      </c>
+      <c r="J44" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25904,7 +26106,7 @@
   <dimension ref="A1:P158"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32328,7 +32530,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:H36"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/INFO D.xlsx
+++ b/INFO D.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin Vuu\Documents\GitHub\Craft-to-Exile-Dissonance-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149D528F-4476-4215-A99A-92FDCA260380}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29E44AA-1CED-4B33-B128-E434056C4DEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="680" firstSheet="3" activeTab="14" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="680" firstSheet="3" activeTab="14" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3901" uniqueCount="2192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3910" uniqueCount="2197">
   <si>
     <t>Quest</t>
   </si>
@@ -6631,6 +6631,21 @@
   </si>
   <si>
     <t>high_block_strength_percent</t>
+  </si>
+  <si>
+    <t>ctecu:vessel_of_charisma</t>
+  </si>
+  <si>
+    <t>vessel_of_charisma</t>
+  </si>
+  <si>
+    <t>crippled_health_percent</t>
+  </si>
+  <si>
+    <t>crippled_magic_shield_percent</t>
+  </si>
+  <si>
+    <t>very_high_spell_damage_flat</t>
   </si>
 </sst>
 </file>
@@ -26184,10 +26199,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:P160"/>
+  <dimension ref="A1:P161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="I143" sqref="I143"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32050,6 +32065,44 @@
       <c r="O160" s="2"/>
       <c r="P160" s="2" t="s">
         <v>884</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A161" s="8" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B161" t="s">
+        <v>2192</v>
+      </c>
+      <c r="C161" s="13" t="s">
+        <v>2193</v>
+      </c>
+      <c r="D161" s="13">
+        <v>4</v>
+      </c>
+      <c r="E161" s="13">
+        <v>3</v>
+      </c>
+      <c r="F161" s="13">
+        <v>250</v>
+      </c>
+      <c r="G161" s="8" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I161" t="s">
+        <v>2194</v>
+      </c>
+      <c r="J161" t="s">
+        <v>2195</v>
+      </c>
+      <c r="K161" t="s">
+        <v>800</v>
+      </c>
+      <c r="L161" t="s">
+        <v>2196</v>
+      </c>
+      <c r="M161" t="s">
+        <v>2184</v>
       </c>
     </row>
   </sheetData>

--- a/INFO D.xlsx
+++ b/INFO D.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin Vuu\Documents\GitHub\Craft-to-Exile-Dissonance-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29E44AA-1CED-4B33-B128-E434056C4DEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAE7D5E-7CB9-43CD-A01A-75F5C7130E55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="680" firstSheet="3" activeTab="14" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="680" firstSheet="3" activeTab="13" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -24613,8 +24613,8 @@
   </sheetPr>
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="17">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -25245,7 +25245,7 @@
         <v>30</v>
       </c>
       <c r="F19" s="17">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G19" s="17">
         <v>4</v>
@@ -25359,7 +25359,7 @@
         <v>40</v>
       </c>
       <c r="F22" s="17">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G22" s="17">
         <v>3</v>
@@ -25395,7 +25395,7 @@
         <v>40</v>
       </c>
       <c r="F23" s="17">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G23" s="17">
         <v>4</v>
@@ -25433,7 +25433,7 @@
         <v>45</v>
       </c>
       <c r="F24" s="17">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G24">
         <v>6</v>
@@ -25471,7 +25471,7 @@
         <v>45</v>
       </c>
       <c r="F25" s="17">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G25" s="17">
         <v>2</v>
@@ -25505,7 +25505,7 @@
         <v>50</v>
       </c>
       <c r="F26" s="17">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G26" s="17">
         <v>4</v>
@@ -25543,7 +25543,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="17">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G27" s="17">
         <v>3</v>
@@ -25581,7 +25581,7 @@
         <v>50</v>
       </c>
       <c r="F28" s="17">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G28" s="17">
         <v>5</v>
@@ -25621,7 +25621,7 @@
         <v>50</v>
       </c>
       <c r="F29" s="17">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G29" s="17">
         <v>4</v>
@@ -25659,7 +25659,7 @@
         <v>50</v>
       </c>
       <c r="F30" s="17">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G30" s="17">
         <v>2</v>
@@ -25693,7 +25693,7 @@
         <v>70</v>
       </c>
       <c r="F31" s="17">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G31" s="17">
         <v>3</v>
@@ -25729,7 +25729,7 @@
         <v>70</v>
       </c>
       <c r="F32" s="17">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G32" s="17">
         <v>6</v>
@@ -25771,7 +25771,7 @@
         <v>70</v>
       </c>
       <c r="F33" s="17">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G33" s="17">
         <v>6</v>
@@ -25813,7 +25813,7 @@
         <v>70</v>
       </c>
       <c r="F34" s="17">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G34" s="17">
         <v>6</v>
@@ -25855,7 +25855,7 @@
         <v>85</v>
       </c>
       <c r="F35" s="17">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G35" s="17">
         <v>3</v>
@@ -25891,7 +25891,7 @@
         <v>90</v>
       </c>
       <c r="F36" s="17">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G36" s="17">
         <v>4</v>
@@ -25929,7 +25929,7 @@
         <v>90</v>
       </c>
       <c r="F37" s="17">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -25964,7 +25964,7 @@
         <v>90</v>
       </c>
       <c r="F38" s="17">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -25999,7 +25999,7 @@
         <v>90</v>
       </c>
       <c r="F39" s="17">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G39" s="17">
         <v>4</v>
@@ -26201,7 +26201,7 @@
   </sheetPr>
   <dimension ref="A1:P161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+    <sheetView topLeftCell="A128" workbookViewId="0">
       <selection activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>

--- a/INFO D.xlsx
+++ b/INFO D.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin Vuu\Documents\GitHub\Craft-to-Exile-Dissonance-Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Dissonance-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAE7D5E-7CB9-43CD-A01A-75F5C7130E55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061FFEFB-7C83-4EE4-9091-4FA6FE127312}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="680" firstSheet="3" activeTab="13" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="4140" yWindow="2925" windowWidth="28800" windowHeight="15885" tabRatio="680" firstSheet="3" activeTab="14" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3910" uniqueCount="2197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3907" uniqueCount="2197">
   <si>
     <t>Quest</t>
   </si>
@@ -6627,9 +6627,6 @@
     <t>low_bonus_all_drops_flat</t>
   </si>
   <si>
-    <t>high_mana_percent</t>
-  </si>
-  <si>
     <t>high_block_strength_percent</t>
   </si>
   <si>
@@ -6646,6 +6643,9 @@
   </si>
   <si>
     <t>very_high_spell_damage_flat</t>
+  </si>
+  <si>
+    <t>plus_all_skill_lvls_flat</t>
   </si>
 </sst>
 </file>
@@ -24613,8 +24613,8 @@
   </sheetPr>
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25834,7 +25834,7 @@
         <v>656</v>
       </c>
       <c r="M34" s="17" t="s">
-        <v>1684</v>
+        <v>2196</v>
       </c>
       <c r="N34" s="17"/>
     </row>
@@ -26201,8 +26201,8 @@
   </sheetPr>
   <dimension ref="A1:P161"/>
   <sheetViews>
-    <sheetView topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="E138" sqref="E138"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28217,8 +28217,8 @@
       <c r="K54" t="s">
         <v>739</v>
       </c>
-      <c r="L54" t="s">
-        <v>808</v>
+      <c r="L54" s="17" t="s">
+        <v>2196</v>
       </c>
       <c r="N54" t="s">
         <v>941</v>
@@ -28745,6 +28745,9 @@
       </c>
       <c r="K68" t="s">
         <v>684</v>
+      </c>
+      <c r="L68" s="17" t="s">
+        <v>2196</v>
       </c>
       <c r="N68" t="s">
         <v>902</v>
@@ -30421,28 +30424,16 @@
         <v>50</v>
       </c>
       <c r="G114" t="s">
-        <v>2190</v>
+        <v>739</v>
       </c>
       <c r="H114" t="s">
         <v>733</v>
       </c>
-      <c r="I114" t="s">
-        <v>903</v>
-      </c>
-      <c r="J114" t="s">
-        <v>928</v>
-      </c>
-      <c r="K114" t="s">
-        <v>841</v>
-      </c>
-      <c r="L114" t="s">
-        <v>840</v>
-      </c>
-      <c r="M114" t="s">
-        <v>845</v>
-      </c>
-      <c r="N114" t="s">
-        <v>823</v>
+      <c r="I114" s="17" t="s">
+        <v>2196</v>
+      </c>
+      <c r="J114" s="17" t="s">
+        <v>808</v>
       </c>
       <c r="P114" t="s">
         <v>884</v>
@@ -31975,7 +31966,7 @@
         <v>1022</v>
       </c>
       <c r="J158" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="K158" t="s">
         <v>950</v>
@@ -32010,7 +32001,7 @@
         <v>691</v>
       </c>
       <c r="J159" t="s">
-        <v>808</v>
+        <v>2196</v>
       </c>
       <c r="K159" t="s">
         <v>732</v>
@@ -32072,10 +32063,10 @@
         <v>1039</v>
       </c>
       <c r="B161" t="s">
+        <v>2191</v>
+      </c>
+      <c r="C161" s="13" t="s">
         <v>2192</v>
-      </c>
-      <c r="C161" s="13" t="s">
-        <v>2193</v>
       </c>
       <c r="D161" s="13">
         <v>4</v>
@@ -32090,16 +32081,16 @@
         <v>1057</v>
       </c>
       <c r="I161" t="s">
+        <v>2193</v>
+      </c>
+      <c r="J161" t="s">
         <v>2194</v>
-      </c>
-      <c r="J161" t="s">
-        <v>2195</v>
       </c>
       <c r="K161" t="s">
         <v>800</v>
       </c>
       <c r="L161" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="M161" t="s">
         <v>2184</v>

--- a/INFO D.xlsx
+++ b/INFO D.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Dissonance-Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin Vuu\Documents\GitHub\Craft-to-Exile-Dissonance-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061FFEFB-7C83-4EE4-9091-4FA6FE127312}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B786EB-6E97-4176-88D3-4BA6760AF41B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="2925" windowWidth="28800" windowHeight="15885" tabRatio="680" firstSheet="3" activeTab="14" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="680" firstSheet="3" activeTab="14" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -26201,8 +26201,8 @@
   </sheetPr>
   <dimension ref="A1:P161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="I127" sqref="I127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/INFO D.xlsx
+++ b/INFO D.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin Vuu\Documents\GitHub\Craft-to-Exile-Dissonance-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B786EB-6E97-4176-88D3-4BA6760AF41B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6DE07E-2E7C-449F-A10F-AFAA114AA7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="680" firstSheet="3" activeTab="14" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="680" firstSheet="3" activeTab="13" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3907" uniqueCount="2197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="2209">
   <si>
     <t>Quest</t>
   </si>
@@ -6519,9 +6519,6 @@
     <t>Angel's Garbs</t>
   </si>
   <si>
-    <t>mana_precent</t>
-  </si>
-  <si>
     <t>low_increase_healing_flat</t>
   </si>
   <si>
@@ -6646,6 +6643,45 @@
   </si>
   <si>
     <t>plus_all_skill_lvls_flat</t>
+  </si>
+  <si>
+    <t>Delirium</t>
+  </si>
+  <si>
+    <t>Wor, Ita, Ber</t>
+  </si>
+  <si>
+    <t>low_bonus_normal_item_drops_flat</t>
+  </si>
+  <si>
+    <t>low_vitality_flat</t>
+  </si>
+  <si>
+    <t>all_dot_dmg_flat</t>
+  </si>
+  <si>
+    <t>Last Wish</t>
+  </si>
+  <si>
+    <t>Xah,  Ano, Mos, Oni, Dos</t>
+  </si>
+  <si>
+    <t>dotsteal_flat</t>
+  </si>
+  <si>
+    <t>Trang-Oul's Avatar</t>
+  </si>
+  <si>
+    <t>Tancred's Battlegear</t>
+  </si>
+  <si>
+    <t>all armor + neck</t>
+  </si>
+  <si>
+    <t>high_all_dot_dmg_flat</t>
+  </si>
+  <si>
+    <t>major_all_dot_dmg_flat</t>
   </si>
 </sst>
 </file>
@@ -23164,10 +23200,10 @@
   <sheetPr>
     <tabColor theme="2" tint="-9.9978637043366805E-2"/>
   </sheetPr>
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:L41"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24562,7 +24598,7 @@
         <v>2148</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="I43" s="8" t="s">
         <v>2121</v>
@@ -24599,6 +24635,70 @@
       </c>
       <c r="J44" s="8" t="s">
         <v>1066</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B45" s="8">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>6666</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45" t="s">
+        <v>2197</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>2200</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>2199</v>
+      </c>
+      <c r="J45" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B46" s="8">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>6666</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46" t="s">
+        <v>2202</v>
+      </c>
+      <c r="G46" t="s">
+        <v>829</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>2200</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>2203</v>
+      </c>
+      <c r="J46" t="s">
+        <v>2123</v>
       </c>
     </row>
   </sheetData>
@@ -24611,10 +24711,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25834,7 +25934,7 @@
         <v>656</v>
       </c>
       <c r="M34" s="17" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="N34" s="17"/>
     </row>
@@ -26173,20 +26273,87 @@
         <v>777</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>2154</v>
+        <v>1070</v>
       </c>
       <c r="J44" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
+      <c r="A45" s="8" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B45" s="8">
+        <v>0</v>
+      </c>
+      <c r="C45" s="8">
+        <v>4</v>
+      </c>
+      <c r="D45" s="8">
+        <v>50</v>
+      </c>
+      <c r="E45" s="13">
+        <v>70</v>
+      </c>
+      <c r="F45" s="13">
+        <v>100</v>
+      </c>
+      <c r="G45" s="8">
+        <v>6</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="J45" t="s">
+        <v>2200</v>
+      </c>
+      <c r="K45" t="s">
+        <v>1333</v>
+      </c>
+      <c r="L45" t="s">
+        <v>1018</v>
+      </c>
+      <c r="M45" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" s="8">
+        <v>1</v>
+      </c>
+      <c r="D46" s="8">
+        <v>10000</v>
+      </c>
+      <c r="E46" s="13">
+        <v>15</v>
+      </c>
+      <c r="F46" s="13">
+        <v>50</v>
+      </c>
+      <c r="G46" s="8">
+        <v>4</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>2206</v>
+      </c>
+      <c r="I46" t="s">
+        <v>2188</v>
+      </c>
+      <c r="J46" t="s">
+        <v>2207</v>
+      </c>
+      <c r="K46" t="s">
+        <v>688</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26201,7 +26368,7 @@
   </sheetPr>
   <dimension ref="A1:P161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+    <sheetView topLeftCell="A121" workbookViewId="0">
       <selection activeCell="I127" sqref="I127"/>
     </sheetView>
   </sheetViews>
@@ -26336,7 +26503,7 @@
         <v>628</v>
       </c>
       <c r="L3" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="N3" t="s">
         <v>891</v>
@@ -26365,7 +26532,7 @@
         <v>10000</v>
       </c>
       <c r="G4" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="I4" t="s">
         <v>788</v>
@@ -26380,7 +26547,7 @@
         <v>896</v>
       </c>
       <c r="M4" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="N4" t="s">
         <v>883</v>
@@ -26440,7 +26607,7 @@
         <v>10000</v>
       </c>
       <c r="G6" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="I6" t="s">
         <v>906</v>
@@ -26476,10 +26643,10 @@
         <v>10000</v>
       </c>
       <c r="G7" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="H7" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="I7" t="s">
         <v>1121</v>
@@ -26499,10 +26666,10 @@
         <v>897</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="D8" s="17">
         <v>1</v>
@@ -26537,10 +26704,10 @@
         <v>897</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="D9" s="17">
         <v>2</v>
@@ -26578,10 +26745,10 @@
         <v>897</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="D10" s="17">
         <v>2</v>
@@ -26593,7 +26760,7 @@
         <v>10000</v>
       </c>
       <c r="G10" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="I10" t="s">
         <v>806</v>
@@ -26616,10 +26783,10 @@
         <v>897</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="D11" s="17">
         <v>4</v>
@@ -26631,7 +26798,7 @@
         <v>10000</v>
       </c>
       <c r="G11" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="H11" t="s">
         <v>905</v>
@@ -26709,7 +26876,7 @@
         <v>10000</v>
       </c>
       <c r="G13" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="I13" t="s">
         <v>706</v>
@@ -26745,7 +26912,7 @@
         <v>10000</v>
       </c>
       <c r="G14" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="I14" t="s">
         <v>911</v>
@@ -26781,19 +26948,19 @@
         <v>10000</v>
       </c>
       <c r="G15" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="I15" t="s">
         <v>706</v>
       </c>
       <c r="J15" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="K15" t="s">
         <v>1022</v>
       </c>
       <c r="L15" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="N15" t="s">
         <v>902</v>
@@ -26840,10 +27007,10 @@
         <v>897</v>
       </c>
       <c r="B17" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>2156</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>2157</v>
       </c>
       <c r="D17" s="17">
         <v>4</v>
@@ -26855,10 +27022,10 @@
         <v>250</v>
       </c>
       <c r="G17" t="s">
+        <v>2157</v>
+      </c>
+      <c r="I17" t="s">
         <v>2158</v>
-      </c>
-      <c r="I17" t="s">
-        <v>2159</v>
       </c>
       <c r="J17" t="s">
         <v>949</v>
@@ -26870,10 +27037,10 @@
         <v>800</v>
       </c>
       <c r="M17" t="s">
+        <v>2159</v>
+      </c>
+      <c r="N17" t="s">
         <v>2160</v>
-      </c>
-      <c r="N17" t="s">
-        <v>2161</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -26881,10 +27048,10 @@
         <v>897</v>
       </c>
       <c r="B18" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="D18" s="17">
         <v>2</v>
@@ -26908,7 +27075,7 @@
         <v>747</v>
       </c>
       <c r="L18" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="N18" t="s">
         <v>898</v>
@@ -27125,7 +27292,7 @@
         <v>853</v>
       </c>
       <c r="K24" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="N24" t="s">
         <v>1145</v>
@@ -27223,7 +27390,7 @@
         <v>656</v>
       </c>
       <c r="J27" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="N27" t="s">
         <v>922</v>
@@ -28174,7 +28341,7 @@
         <v>970</v>
       </c>
       <c r="K53" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="L53" t="s">
         <v>971</v>
@@ -28218,7 +28385,7 @@
         <v>739</v>
       </c>
       <c r="L54" s="17" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="N54" t="s">
         <v>941</v>
@@ -28367,7 +28534,7 @@
         <v>250</v>
       </c>
       <c r="G58" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="I58" t="s">
         <v>826</v>
@@ -28405,7 +28572,7 @@
         <v>10000</v>
       </c>
       <c r="G59" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="I59" t="s">
         <v>1177</v>
@@ -28437,13 +28604,13 @@
         <v>50</v>
       </c>
       <c r="G60" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="I60" t="s">
         <v>691</v>
       </c>
       <c r="J60" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="K60" t="s">
         <v>862</v>
@@ -28469,10 +28636,10 @@
         <v>50</v>
       </c>
       <c r="G61" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="H61" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="I61" t="s">
         <v>788</v>
@@ -28747,7 +28914,7 @@
         <v>684</v>
       </c>
       <c r="L68" s="17" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="N68" t="s">
         <v>902</v>
@@ -28858,7 +29025,7 @@
         <v>714</v>
       </c>
       <c r="I71" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="J71" t="s">
         <v>688</v>
@@ -29174,7 +29341,7 @@
         <v>692</v>
       </c>
       <c r="I79" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="N79" t="s">
         <v>1038</v>
@@ -30169,7 +30336,7 @@
         <v>925</v>
       </c>
       <c r="J107" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="K107" t="s">
         <v>642</v>
@@ -30430,7 +30597,7 @@
         <v>733</v>
       </c>
       <c r="I114" s="17" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="J114" s="17" t="s">
         <v>808</v>
@@ -30462,7 +30629,7 @@
         <v>921</v>
       </c>
       <c r="I115" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="J115" t="s">
         <v>1073</v>
@@ -31432,7 +31599,7 @@
         <v>10000</v>
       </c>
       <c r="G143" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="I143" t="s">
         <v>674</v>
@@ -31765,7 +31932,7 @@
         <v>10000</v>
       </c>
       <c r="G152" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="I152" t="s">
         <v>710</v>
@@ -31777,7 +31944,7 @@
         <v>1283</v>
       </c>
       <c r="L152" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="N152" t="s">
         <v>1298</v>
@@ -31800,7 +31967,7 @@
         <v>10000</v>
       </c>
       <c r="G153" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="I153" t="s">
         <v>674</v>
@@ -31861,7 +32028,7 @@
         <v>250</v>
       </c>
       <c r="G155" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="I155" t="s">
         <v>1022</v>
@@ -31893,7 +32060,7 @@
         <v>250</v>
       </c>
       <c r="G156" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="I156" t="s">
         <v>1022</v>
@@ -31928,7 +32095,7 @@
         <v>250</v>
       </c>
       <c r="G157" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="I157" t="s">
         <v>1022</v>
@@ -31960,13 +32127,13 @@
         <v>250</v>
       </c>
       <c r="G158" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="I158" t="s">
         <v>1022</v>
       </c>
       <c r="J158" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="K158" t="s">
         <v>950</v>
@@ -32001,7 +32168,7 @@
         <v>691</v>
       </c>
       <c r="J159" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="K159" t="s">
         <v>732</v>
@@ -32063,10 +32230,10 @@
         <v>1039</v>
       </c>
       <c r="B161" t="s">
+        <v>2190</v>
+      </c>
+      <c r="C161" s="13" t="s">
         <v>2191</v>
-      </c>
-      <c r="C161" s="13" t="s">
-        <v>2192</v>
       </c>
       <c r="D161" s="13">
         <v>4</v>
@@ -32081,19 +32248,19 @@
         <v>1057</v>
       </c>
       <c r="I161" t="s">
+        <v>2192</v>
+      </c>
+      <c r="J161" t="s">
         <v>2193</v>
-      </c>
-      <c r="J161" t="s">
-        <v>2194</v>
       </c>
       <c r="K161" t="s">
         <v>800</v>
       </c>
       <c r="L161" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="M161" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
     </row>
   </sheetData>
@@ -32115,7 +32282,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/INFO D.xlsx
+++ b/INFO D.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin Vuu\Documents\GitHub\Craft-to-Exile-Dissonance-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6DE07E-2E7C-449F-A10F-AFAA114AA7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5E10C8-7250-4A4F-AB69-D040BC7B5B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="680" firstSheet="3" activeTab="13" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
@@ -23202,8 +23202,8 @@
   </sheetPr>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24713,8 +24713,8 @@
   </sheetPr>
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26368,8 +26368,8 @@
   </sheetPr>
   <dimension ref="A1:P161"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="I127" sqref="I127"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26434,14 +26434,12 @@
       <c r="A2" t="s">
         <v>877</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>878</v>
-      </c>
+      <c r="B2" s="17"/>
       <c r="C2" s="17" t="s">
-        <v>879</v>
+        <v>1116</v>
       </c>
       <c r="D2" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -26450,36 +26448,33 @@
         <v>10000</v>
       </c>
       <c r="G2" t="s">
-        <v>880</v>
+        <v>894</v>
       </c>
       <c r="I2" t="s">
-        <v>881</v>
+        <v>718</v>
       </c>
       <c r="J2" t="s">
-        <v>829</v>
+        <v>901</v>
       </c>
       <c r="K2" t="s">
-        <v>882</v>
+        <v>1345</v>
       </c>
       <c r="N2" t="s">
-        <v>883</v>
-      </c>
-      <c r="P2" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>877</v>
+        <v>897</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>885</v>
+        <v>2164</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>886</v>
+        <v>2168</v>
       </c>
       <c r="D3" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -26488,25 +26483,19 @@
         <v>10000</v>
       </c>
       <c r="G3" t="s">
-        <v>887</v>
-      </c>
-      <c r="H3" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="I3" t="s">
-        <v>844</v>
+        <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>890</v>
+        <v>744</v>
       </c>
       <c r="K3" t="s">
-        <v>628</v>
-      </c>
-      <c r="L3" t="s">
-        <v>2176</v>
+        <v>845</v>
       </c>
       <c r="N3" t="s">
-        <v>891</v>
+        <v>898</v>
       </c>
       <c r="P3" t="s">
         <v>884</v>
@@ -26514,16 +26503,14 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>877</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>892</v>
-      </c>
+        <v>897</v>
+      </c>
+      <c r="B4" s="17"/>
       <c r="C4" s="17" t="s">
-        <v>893</v>
+        <v>1125</v>
       </c>
       <c r="D4" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -26532,37 +26519,31 @@
         <v>10000</v>
       </c>
       <c r="G4" t="s">
-        <v>2174</v>
+        <v>894</v>
       </c>
       <c r="I4" t="s">
-        <v>788</v>
+        <v>706</v>
       </c>
       <c r="J4" t="s">
-        <v>803</v>
+        <v>1126</v>
       </c>
       <c r="K4" t="s">
-        <v>853</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="M4" t="s">
-        <v>2175</v>
+        <v>696</v>
+      </c>
+      <c r="L4" t="s">
+        <v>674</v>
       </c>
       <c r="N4" t="s">
-        <v>883</v>
-      </c>
-      <c r="P4" t="s">
-        <v>884</v>
+        <v>902</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>877</v>
+        <v>897</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17" t="s">
-        <v>1116</v>
+        <v>1127</v>
       </c>
       <c r="D5" s="17">
         <v>1</v>
@@ -26574,31 +26555,36 @@
         <v>10000</v>
       </c>
       <c r="G5" t="s">
-        <v>894</v>
+        <v>2178</v>
       </c>
       <c r="I5" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="J5" t="s">
-        <v>901</v>
+        <v>750</v>
       </c>
       <c r="K5" t="s">
-        <v>1345</v>
+        <v>696</v>
+      </c>
+      <c r="L5" t="s">
+        <v>796</v>
       </c>
       <c r="N5" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>877</v>
-      </c>
-      <c r="B6" s="17"/>
+        <v>907</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>908</v>
+      </c>
       <c r="C6" s="17" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D6" s="17">
-        <v>3</v>
+        <v>909</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -26607,34 +26593,34 @@
         <v>10000</v>
       </c>
       <c r="G6" t="s">
-        <v>2172</v>
+        <v>724</v>
       </c>
       <c r="I6" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="J6" t="s">
-        <v>710</v>
+        <v>911</v>
       </c>
       <c r="K6" t="s">
-        <v>1118</v>
-      </c>
-      <c r="L6" t="s">
-        <v>1119</v>
+        <v>890</v>
       </c>
       <c r="N6" t="s">
-        <v>891</v>
+        <v>912</v>
+      </c>
+      <c r="P6" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>877</v>
+        <v>907</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17" t="s">
-        <v>1120</v>
+        <v>1131</v>
       </c>
       <c r="D7" s="17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -26643,33 +26629,31 @@
         <v>10000</v>
       </c>
       <c r="G7" t="s">
-        <v>2174</v>
-      </c>
-      <c r="H7" t="s">
-        <v>2177</v>
+        <v>790</v>
       </c>
       <c r="I7" t="s">
-        <v>1121</v>
+        <v>1046</v>
       </c>
       <c r="J7" t="s">
-        <v>1122</v>
+        <v>721</v>
       </c>
       <c r="K7" t="s">
-        <v>1123</v>
+        <v>1132</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1133</v>
       </c>
       <c r="N7" t="s">
-        <v>1124</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>897</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>2164</v>
-      </c>
+        <v>918</v>
+      </c>
+      <c r="B8" s="17"/>
       <c r="C8" s="17" t="s">
-        <v>2168</v>
+        <v>1151</v>
       </c>
       <c r="D8" s="17">
         <v>1</v>
@@ -26681,36 +26665,31 @@
         <v>10000</v>
       </c>
       <c r="G8" t="s">
-        <v>880</v>
+        <v>790</v>
       </c>
       <c r="I8" t="s">
-        <v>800</v>
+        <v>721</v>
       </c>
       <c r="J8" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="K8" t="s">
-        <v>845</v>
+        <v>1046</v>
       </c>
       <c r="N8" t="s">
-        <v>898</v>
-      </c>
-      <c r="P8" t="s">
-        <v>884</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>897</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>2166</v>
-      </c>
+        <v>918</v>
+      </c>
+      <c r="B9" s="17"/>
       <c r="C9" s="17" t="s">
-        <v>2169</v>
+        <v>1153</v>
       </c>
       <c r="D9" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -26719,60 +26698,51 @@
         <v>10000</v>
       </c>
       <c r="G9" t="s">
-        <v>887</v>
-      </c>
-      <c r="H9" t="s">
-        <v>894</v>
+        <v>794</v>
       </c>
       <c r="I9" t="s">
-        <v>706</v>
+        <v>629</v>
       </c>
       <c r="J9" t="s">
-        <v>900</v>
+        <v>711</v>
       </c>
       <c r="K9" t="s">
-        <v>901</v>
+        <v>858</v>
       </c>
       <c r="N9" t="s">
-        <v>902</v>
-      </c>
-      <c r="P9" t="s">
-        <v>884</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>897</v>
+        <v>938</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>2165</v>
+        <v>939</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>2170</v>
+        <v>940</v>
       </c>
       <c r="D10" s="17">
-        <v>2</v>
-      </c>
-      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="17">
         <v>1</v>
       </c>
       <c r="F10">
         <v>10000</v>
       </c>
       <c r="G10" t="s">
-        <v>2173</v>
+        <v>764</v>
       </c>
       <c r="I10" t="s">
-        <v>806</v>
+        <v>688</v>
       </c>
       <c r="J10" t="s">
-        <v>717</v>
-      </c>
-      <c r="K10" t="s">
-        <v>903</v>
+        <v>1684</v>
       </c>
       <c r="N10" t="s">
-        <v>902</v>
+        <v>941</v>
       </c>
       <c r="P10" t="s">
         <v>884</v>
@@ -26780,43 +26750,37 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>897</v>
+        <v>965</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>2167</v>
+        <v>966</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>2171</v>
+        <v>967</v>
       </c>
       <c r="D11" s="17">
-        <v>4</v>
-      </c>
-      <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11">
+      <c r="E11" s="17">
+        <v>1</v>
+      </c>
+      <c r="F11" s="17">
         <v>10000</v>
       </c>
       <c r="G11" t="s">
-        <v>2172</v>
-      </c>
-      <c r="H11" t="s">
-        <v>905</v>
+        <v>764</v>
       </c>
       <c r="I11" t="s">
-        <v>831</v>
+        <v>911</v>
       </c>
       <c r="J11" t="s">
-        <v>750</v>
+        <v>636</v>
       </c>
       <c r="K11" t="s">
-        <v>906</v>
-      </c>
-      <c r="L11" s="17" t="s">
-        <v>896</v>
+        <v>765</v>
       </c>
       <c r="N11" t="s">
-        <v>902</v>
+        <v>941</v>
       </c>
       <c r="P11" t="s">
         <v>884</v>
@@ -26824,11 +26788,13 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>897</v>
-      </c>
-      <c r="B12" s="17"/>
+        <v>975</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>976</v>
+      </c>
       <c r="C12" s="17" t="s">
-        <v>1125</v>
+        <v>977</v>
       </c>
       <c r="D12" s="17">
         <v>1</v>
@@ -26840,33 +26806,35 @@
         <v>10000</v>
       </c>
       <c r="G12" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
       <c r="I12" t="s">
-        <v>706</v>
+        <v>829</v>
       </c>
       <c r="J12" t="s">
-        <v>1126</v>
+        <v>721</v>
       </c>
       <c r="K12" t="s">
-        <v>696</v>
+        <v>732</v>
       </c>
       <c r="L12" t="s">
-        <v>674</v>
+        <v>823</v>
       </c>
       <c r="N12" t="s">
-        <v>902</v>
+        <v>978</v>
+      </c>
+      <c r="P12" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>897</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D13" s="17">
+        <v>975</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
@@ -26876,34 +26844,33 @@
         <v>10000</v>
       </c>
       <c r="G13" t="s">
-        <v>2178</v>
+        <v>2172</v>
       </c>
       <c r="I13" t="s">
-        <v>706</v>
+        <v>1177</v>
       </c>
       <c r="J13" t="s">
-        <v>750</v>
+        <v>1136</v>
       </c>
       <c r="K13" t="s">
-        <v>696</v>
-      </c>
-      <c r="L13" t="s">
-        <v>796</v>
+        <v>859</v>
       </c>
       <c r="N13" t="s">
-        <v>902</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>897</v>
-      </c>
-      <c r="B14" s="17"/>
+        <v>996</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>997</v>
+      </c>
       <c r="C14" s="17" t="s">
-        <v>1128</v>
+        <v>998</v>
       </c>
       <c r="D14" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -26912,70 +26879,71 @@
         <v>10000</v>
       </c>
       <c r="G14" t="s">
-        <v>2172</v>
+        <v>747</v>
       </c>
       <c r="I14" t="s">
-        <v>911</v>
+        <v>706</v>
       </c>
       <c r="J14" t="s">
-        <v>831</v>
+        <v>705</v>
       </c>
       <c r="K14" t="s">
-        <v>906</v>
-      </c>
-      <c r="L14" t="s">
-        <v>2121</v>
+        <v>729</v>
       </c>
       <c r="N14" t="s">
         <v>902</v>
       </c>
+      <c r="P14" t="s">
+        <v>884</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>897</v>
-      </c>
-      <c r="B15" s="17"/>
+        <v>1008</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>1009</v>
+      </c>
       <c r="C15" s="17" t="s">
-        <v>1129</v>
+        <v>1010</v>
       </c>
       <c r="D15" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>10000</v>
+        <v>250</v>
       </c>
       <c r="G15" t="s">
-        <v>2179</v>
+        <v>714</v>
       </c>
       <c r="I15" t="s">
-        <v>706</v>
+        <v>2187</v>
       </c>
       <c r="J15" t="s">
-        <v>2181</v>
-      </c>
-      <c r="K15" t="s">
-        <v>1022</v>
-      </c>
-      <c r="L15" t="s">
-        <v>2180</v>
+        <v>688</v>
       </c>
       <c r="N15" t="s">
         <v>902</v>
       </c>
+      <c r="P15" t="s">
+        <v>884</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>897</v>
-      </c>
-      <c r="B16" s="17"/>
+        <v>1008</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>1011</v>
+      </c>
       <c r="C16" s="17" t="s">
-        <v>1130</v>
+        <v>1012</v>
       </c>
       <c r="D16" s="17">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -26984,360 +26952,368 @@
         <v>10000</v>
       </c>
       <c r="G16" t="s">
-        <v>894</v>
+        <v>714</v>
       </c>
       <c r="I16" t="s">
-        <v>706</v>
+        <v>642</v>
       </c>
       <c r="J16" t="s">
-        <v>788</v>
+        <v>890</v>
       </c>
       <c r="K16" t="s">
-        <v>1126</v>
+        <v>1013</v>
       </c>
       <c r="L16" t="s">
-        <v>642</v>
+        <v>1014</v>
       </c>
       <c r="N16" t="s">
         <v>902</v>
       </c>
+      <c r="P16" t="s">
+        <v>884</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>897</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2155</v>
+        <v>1023</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>1024</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>2156</v>
-      </c>
-      <c r="D17" s="17">
-        <v>4</v>
+        <v>1025</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
       </c>
       <c r="E17" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17" s="17">
-        <v>250</v>
+        <v>10000</v>
       </c>
       <c r="G17" t="s">
-        <v>2157</v>
+        <v>705</v>
       </c>
       <c r="I17" t="s">
-        <v>2158</v>
+        <v>890</v>
       </c>
       <c r="J17" t="s">
-        <v>949</v>
-      </c>
-      <c r="K17" t="s">
-        <v>1067</v>
-      </c>
-      <c r="L17" t="s">
-        <v>800</v>
-      </c>
-      <c r="M17" t="s">
-        <v>2159</v>
+        <v>1006</v>
       </c>
       <c r="N17" t="s">
-        <v>2160</v>
+        <v>902</v>
+      </c>
+      <c r="P17" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>897</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2161</v>
+        <v>1032</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>1033</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>2163</v>
+        <v>1034</v>
       </c>
       <c r="D18" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="17">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="G18" t="s">
-        <v>880</v>
+        <v>805</v>
       </c>
       <c r="I18" t="s">
-        <v>696</v>
+        <v>881</v>
       </c>
       <c r="J18" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="K18" t="s">
-        <v>747</v>
-      </c>
-      <c r="L18" t="s">
-        <v>2162</v>
+        <v>714</v>
       </c>
       <c r="N18" t="s">
-        <v>898</v>
+        <v>1035</v>
+      </c>
+      <c r="P18" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>907</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>908</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>909</v>
-      </c>
-      <c r="D19">
+        <v>1032</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D19" s="17">
         <v>1</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>10000</v>
-      </c>
-      <c r="G19" t="s">
-        <v>724</v>
-      </c>
-      <c r="I19" t="s">
-        <v>910</v>
-      </c>
-      <c r="J19" t="s">
-        <v>911</v>
-      </c>
-      <c r="K19" t="s">
-        <v>890</v>
-      </c>
+      <c r="E19" s="17">
+        <v>3</v>
+      </c>
+      <c r="F19" s="17">
+        <v>250</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>764</v>
+      </c>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17" t="s">
+        <v>684</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>765</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>836</v>
+      </c>
+      <c r="L19" s="17"/>
       <c r="N19" t="s">
-        <v>912</v>
-      </c>
-      <c r="P19" t="s">
+        <v>1189</v>
+      </c>
+      <c r="O19" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>907</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>913</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>914</v>
+        <v>1032</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1190</v>
       </c>
       <c r="D20" s="17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E20" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" s="17">
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
-        <v>724</v>
-      </c>
-      <c r="I20" t="s">
-        <v>915</v>
-      </c>
-      <c r="J20" t="s">
-        <v>916</v>
-      </c>
-      <c r="K20" t="s">
-        <v>800</v>
-      </c>
-      <c r="L20" t="s">
-        <v>917</v>
+        <v>250</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>1191</v>
+      </c>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>1192</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>629</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>642</v>
       </c>
       <c r="N20" t="s">
-        <v>912</v>
-      </c>
-      <c r="P20" t="s">
-        <v>884</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>907</v>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17" t="s">
-        <v>1131</v>
+        <v>1219</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1220</v>
       </c>
       <c r="D21" s="17">
         <v>1</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="17">
         <v>1</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="17">
         <v>10000</v>
       </c>
-      <c r="G21" t="s">
-        <v>790</v>
-      </c>
-      <c r="I21" t="s">
-        <v>1046</v>
-      </c>
-      <c r="J21" t="s">
-        <v>721</v>
-      </c>
-      <c r="K21" t="s">
-        <v>1132</v>
-      </c>
-      <c r="L21" t="s">
-        <v>1133</v>
-      </c>
+      <c r="G21" s="17" t="s">
+        <v>724</v>
+      </c>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17" t="s">
+        <v>949</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>661</v>
+      </c>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
       <c r="N21" t="s">
-        <v>1134</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>907</v>
-      </c>
-      <c r="B22" s="17"/>
+        <v>1039</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>1040</v>
+      </c>
       <c r="C22" s="17" t="s">
-        <v>1135</v>
+        <v>1041</v>
       </c>
       <c r="D22" s="17">
-        <v>2</v>
-      </c>
-      <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22">
+      <c r="E22" s="17">
+        <v>1</v>
+      </c>
+      <c r="F22" s="17">
         <v>10000</v>
       </c>
       <c r="G22" t="s">
-        <v>794</v>
+        <v>721</v>
+      </c>
+      <c r="H22" t="s">
+        <v>643</v>
       </c>
       <c r="I22" t="s">
-        <v>1136</v>
+        <v>725</v>
       </c>
       <c r="J22" t="s">
-        <v>1137</v>
+        <v>1042</v>
       </c>
       <c r="K22" t="s">
-        <v>910</v>
+        <v>721</v>
       </c>
       <c r="N22" t="s">
-        <v>891</v>
+        <v>1043</v>
+      </c>
+      <c r="P22" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>907</v>
-      </c>
-      <c r="B23" s="17"/>
+        <v>1054</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>1055</v>
+      </c>
       <c r="C23" s="17" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D23" s="17">
-        <v>3</v>
-      </c>
-      <c r="E23">
+        <v>1056</v>
+      </c>
+      <c r="D23">
         <v>1</v>
       </c>
-      <c r="F23">
-        <v>10000</v>
+      <c r="E23" s="17">
+        <v>4</v>
+      </c>
+      <c r="F23" s="17">
+        <v>50</v>
       </c>
       <c r="G23" t="s">
-        <v>788</v>
+        <v>1057</v>
       </c>
       <c r="I23" t="s">
-        <v>803</v>
+        <v>925</v>
       </c>
       <c r="J23" t="s">
-        <v>1139</v>
+        <v>2188</v>
       </c>
       <c r="K23" t="s">
-        <v>1140</v>
+        <v>642</v>
       </c>
       <c r="N23" t="s">
-        <v>1141</v>
+        <v>1058</v>
+      </c>
+      <c r="P23" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>907</v>
-      </c>
-      <c r="B24" s="17"/>
+        <v>1062</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>1063</v>
+      </c>
       <c r="C24" s="17" t="s">
-        <v>1142</v>
+        <v>1064</v>
       </c>
       <c r="D24" s="17">
-        <v>3</v>
-      </c>
-      <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24">
+      <c r="E24" s="17">
+        <v>1</v>
+      </c>
+      <c r="F24" s="17">
         <v>10000</v>
       </c>
       <c r="G24" t="s">
-        <v>1143</v>
-      </c>
-      <c r="H24" t="s">
-        <v>1144</v>
+        <v>1065</v>
       </c>
       <c r="I24" t="s">
-        <v>861</v>
+        <v>710</v>
       </c>
       <c r="J24" t="s">
-        <v>853</v>
+        <v>1066</v>
       </c>
       <c r="K24" t="s">
-        <v>2182</v>
+        <v>1067</v>
       </c>
       <c r="N24" t="s">
-        <v>1145</v>
-      </c>
-      <c r="O24" t="s">
-        <v>1146</v>
+        <v>1038</v>
+      </c>
+      <c r="P24" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>907</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17" t="s">
-        <v>1147</v>
+        <v>1062</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1252</v>
       </c>
       <c r="D25" s="17">
+        <v>1</v>
+      </c>
+      <c r="E25" s="17">
         <v>4</v>
       </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>2500</v>
-      </c>
-      <c r="G25" t="s">
-        <v>808</v>
-      </c>
-      <c r="I25" t="s">
-        <v>921</v>
-      </c>
+      <c r="F25" s="17">
+        <v>50</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17" t="s">
+        <v>747</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>661</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="L25" s="17"/>
       <c r="N25" t="s">
-        <v>1148</v>
+        <v>902</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>907</v>
-      </c>
-      <c r="B26" s="17"/>
+        <v>272</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>1076</v>
+      </c>
       <c r="C26" s="17" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D26" s="17">
-        <v>4</v>
+        <v>1077</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -27346,54 +27322,57 @@
         <v>10000</v>
       </c>
       <c r="G26" t="s">
-        <v>790</v>
-      </c>
-      <c r="H26" t="s">
-        <v>794</v>
+        <v>701</v>
       </c>
       <c r="I26" t="s">
-        <v>739</v>
+        <v>721</v>
       </c>
       <c r="J26" t="s">
-        <v>724</v>
+        <v>629</v>
       </c>
       <c r="K26" t="s">
-        <v>992</v>
+        <v>674</v>
       </c>
       <c r="N26" t="s">
-        <v>1150</v>
+        <v>1078</v>
+      </c>
+      <c r="P26" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>918</v>
+        <v>272</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>919</v>
+        <v>1079</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>920</v>
+        <v>1080</v>
       </c>
       <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="E27" s="17">
-        <v>3</v>
-      </c>
-      <c r="F27" s="17">
-        <v>250</v>
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>10000</v>
       </c>
       <c r="G27" t="s">
-        <v>656</v>
+        <v>701</v>
       </c>
       <c r="I27" t="s">
-        <v>656</v>
+        <v>1005</v>
       </c>
       <c r="J27" t="s">
-        <v>2183</v>
+        <v>784</v>
+      </c>
+      <c r="K27" t="s">
+        <v>823</v>
       </c>
       <c r="N27" t="s">
-        <v>922</v>
+        <v>1078</v>
       </c>
       <c r="P27" t="s">
         <v>884</v>
@@ -27401,37 +27380,37 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>918</v>
+        <v>272</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>923</v>
+        <v>1081</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>924</v>
+        <v>1082</v>
       </c>
       <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="E28" s="17">
-        <v>3</v>
-      </c>
-      <c r="F28" s="17">
-        <v>250</v>
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>10000</v>
       </c>
       <c r="G28" t="s">
-        <v>903</v>
+        <v>701</v>
       </c>
       <c r="I28" t="s">
-        <v>691</v>
+        <v>890</v>
       </c>
       <c r="J28" t="s">
-        <v>925</v>
+        <v>764</v>
       </c>
       <c r="K28" t="s">
-        <v>688</v>
+        <v>736</v>
       </c>
       <c r="N28" t="s">
-        <v>926</v>
+        <v>1078</v>
       </c>
       <c r="P28" t="s">
         <v>884</v>
@@ -27439,113 +27418,104 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>918</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>923</v>
+        <v>1092</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>927</v>
-      </c>
-      <c r="D29">
-        <v>4</v>
+        <v>1297</v>
+      </c>
+      <c r="D29" s="17">
+        <v>1</v>
       </c>
       <c r="E29" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29" s="17">
-        <v>250</v>
+        <v>10000</v>
       </c>
       <c r="G29" t="s">
-        <v>928</v>
+        <v>2177</v>
       </c>
       <c r="I29" t="s">
-        <v>691</v>
+        <v>710</v>
       </c>
       <c r="J29" t="s">
-        <v>925</v>
+        <v>1195</v>
       </c>
       <c r="K29" t="s">
-        <v>688</v>
+        <v>1283</v>
+      </c>
+      <c r="L29" t="s">
+        <v>2176</v>
       </c>
       <c r="N29" t="s">
-        <v>929</v>
-      </c>
-      <c r="P29" t="s">
-        <v>884</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>918</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>923</v>
+        <v>1092</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>930</v>
-      </c>
-      <c r="D30">
-        <v>4</v>
+        <v>1299</v>
+      </c>
+      <c r="D30" s="17">
+        <v>1</v>
       </c>
       <c r="E30" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30" s="17">
-        <v>250</v>
+        <v>10000</v>
       </c>
       <c r="G30" t="s">
-        <v>841</v>
+        <v>2184</v>
       </c>
       <c r="I30" t="s">
-        <v>691</v>
+        <v>674</v>
       </c>
       <c r="J30" t="s">
-        <v>925</v>
+        <v>787</v>
       </c>
       <c r="K30" t="s">
-        <v>688</v>
+        <v>643</v>
       </c>
       <c r="N30" t="s">
-        <v>931</v>
-      </c>
-      <c r="P30" t="s">
-        <v>884</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>918</v>
+        <v>877</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>923</v>
+        <v>878</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>932</v>
-      </c>
-      <c r="D31">
-        <v>4</v>
-      </c>
-      <c r="E31" s="17">
-        <v>3</v>
-      </c>
-      <c r="F31" s="17">
-        <v>250</v>
+        <v>879</v>
+      </c>
+      <c r="D31" s="17">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>10000</v>
       </c>
       <c r="G31" t="s">
-        <v>840</v>
+        <v>880</v>
       </c>
       <c r="I31" t="s">
-        <v>691</v>
+        <v>881</v>
       </c>
       <c r="J31" t="s">
-        <v>925</v>
+        <v>829</v>
       </c>
       <c r="K31" t="s">
-        <v>688</v>
+        <v>882</v>
       </c>
       <c r="N31" t="s">
-        <v>933</v>
+        <v>883</v>
       </c>
       <c r="P31" t="s">
         <v>884</v>
@@ -27553,37 +27523,40 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>918</v>
+        <v>897</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>923</v>
+        <v>2166</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>934</v>
-      </c>
-      <c r="D32">
-        <v>4</v>
-      </c>
-      <c r="E32" s="17">
-        <v>3</v>
-      </c>
-      <c r="F32" s="17">
-        <v>250</v>
+        <v>2169</v>
+      </c>
+      <c r="D32" s="17">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>10000</v>
       </c>
       <c r="G32" t="s">
-        <v>845</v>
+        <v>887</v>
+      </c>
+      <c r="H32" t="s">
+        <v>894</v>
       </c>
       <c r="I32" t="s">
-        <v>691</v>
+        <v>706</v>
       </c>
       <c r="J32" t="s">
-        <v>925</v>
+        <v>900</v>
       </c>
       <c r="K32" t="s">
-        <v>688</v>
+        <v>901</v>
       </c>
       <c r="N32" t="s">
-        <v>935</v>
+        <v>902</v>
       </c>
       <c r="P32" t="s">
         <v>884</v>
@@ -27591,37 +27564,37 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>918</v>
+        <v>897</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>923</v>
+        <v>2165</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>936</v>
-      </c>
-      <c r="D33">
-        <v>4</v>
-      </c>
-      <c r="E33" s="17">
-        <v>3</v>
-      </c>
-      <c r="F33" s="17">
-        <v>250</v>
+        <v>2170</v>
+      </c>
+      <c r="D33" s="17">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>10000</v>
       </c>
       <c r="G33" t="s">
-        <v>823</v>
+        <v>2173</v>
       </c>
       <c r="I33" t="s">
-        <v>691</v>
+        <v>806</v>
       </c>
       <c r="J33" t="s">
-        <v>925</v>
+        <v>717</v>
       </c>
       <c r="K33" t="s">
-        <v>688</v>
+        <v>903</v>
       </c>
       <c r="N33" t="s">
-        <v>937</v>
+        <v>902</v>
       </c>
       <c r="P33" t="s">
         <v>884</v>
@@ -27629,14 +27602,14 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>918</v>
+        <v>897</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="17" t="s">
-        <v>1151</v>
+        <v>1129</v>
       </c>
       <c r="D34" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -27645,60 +27618,69 @@
         <v>10000</v>
       </c>
       <c r="G34" t="s">
-        <v>790</v>
+        <v>2179</v>
       </c>
       <c r="I34" t="s">
-        <v>721</v>
+        <v>706</v>
       </c>
       <c r="J34" t="s">
-        <v>752</v>
+        <v>2181</v>
       </c>
       <c r="K34" t="s">
-        <v>1046</v>
+        <v>1022</v>
+      </c>
+      <c r="L34" t="s">
+        <v>2180</v>
       </c>
       <c r="N34" t="s">
-        <v>1152</v>
+        <v>902</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>918</v>
-      </c>
-      <c r="B35" s="17"/>
+        <v>897</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2161</v>
+      </c>
       <c r="C35" s="17" t="s">
-        <v>1153</v>
+        <v>2163</v>
       </c>
       <c r="D35" s="17">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>10000</v>
+        <v>2</v>
+      </c>
+      <c r="E35" s="17">
+        <v>2</v>
+      </c>
+      <c r="F35" s="17">
+        <v>2500</v>
       </c>
       <c r="G35" t="s">
-        <v>794</v>
+        <v>880</v>
       </c>
       <c r="I35" t="s">
-        <v>629</v>
+        <v>696</v>
       </c>
       <c r="J35" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
       <c r="K35" t="s">
-        <v>858</v>
+        <v>747</v>
+      </c>
+      <c r="L35" t="s">
+        <v>2162</v>
       </c>
       <c r="N35" t="s">
-        <v>1154</v>
+        <v>898</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>918</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1155</v>
+        <v>907</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17" t="s">
+        <v>1135</v>
       </c>
       <c r="D36" s="17">
         <v>2</v>
@@ -27710,22 +27692,19 @@
         <v>10000</v>
       </c>
       <c r="G36" t="s">
-        <v>764</v>
-      </c>
-      <c r="H36" t="s">
-        <v>721</v>
+        <v>794</v>
       </c>
       <c r="I36" t="s">
-        <v>1156</v>
+        <v>1136</v>
       </c>
       <c r="J36" t="s">
-        <v>725</v>
+        <v>1137</v>
       </c>
       <c r="K36" t="s">
-        <v>861</v>
+        <v>910</v>
       </c>
       <c r="N36" t="s">
-        <v>1154</v>
+        <v>891</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -27733,7 +27712,7 @@
         <v>918</v>
       </c>
       <c r="C37" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D37" s="17">
         <v>2</v>
@@ -27745,27 +27724,30 @@
         <v>10000</v>
       </c>
       <c r="G37" t="s">
-        <v>788</v>
+        <v>764</v>
+      </c>
+      <c r="H37" t="s">
+        <v>721</v>
       </c>
       <c r="I37" t="s">
-        <v>711</v>
+        <v>1156</v>
       </c>
       <c r="J37" t="s">
-        <v>1158</v>
+        <v>725</v>
       </c>
       <c r="K37" t="s">
-        <v>642</v>
+        <v>861</v>
       </c>
       <c r="N37" t="s">
-        <v>978</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1159</v>
+        <v>918</v>
       </c>
       <c r="C38" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="D38" s="17">
         <v>2</v>
@@ -27774,25 +27756,22 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="G38" t="s">
-        <v>764</v>
+        <v>788</v>
       </c>
       <c r="I38" t="s">
-        <v>1161</v>
+        <v>711</v>
       </c>
       <c r="J38" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="K38" t="s">
-        <v>1163</v>
-      </c>
-      <c r="L38" t="s">
-        <v>1164</v>
+        <v>642</v>
       </c>
       <c r="N38" t="s">
-        <v>1165</v>
+        <v>978</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -27800,7 +27779,7 @@
         <v>1159</v>
       </c>
       <c r="C39" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="D39" s="17">
         <v>2</v>
@@ -27815,7 +27794,7 @@
         <v>764</v>
       </c>
       <c r="I39" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="J39" t="s">
         <v>1162</v>
@@ -27835,12 +27814,12 @@
         <v>1159</v>
       </c>
       <c r="C40" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="D40" s="17">
         <v>2</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40">
         <v>1</v>
       </c>
       <c r="F40">
@@ -27850,7 +27829,7 @@
         <v>764</v>
       </c>
       <c r="I40" t="s">
-        <v>1014</v>
+        <v>1167</v>
       </c>
       <c r="J40" t="s">
         <v>1162</v>
@@ -27870,7 +27849,7 @@
         <v>1159</v>
       </c>
       <c r="C41" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="D41" s="17">
         <v>2</v>
@@ -27885,7 +27864,7 @@
         <v>764</v>
       </c>
       <c r="I41" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="J41" t="s">
         <v>1162</v>
@@ -27902,37 +27881,37 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>938</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>939</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>940</v>
+        <v>1159</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1169</v>
       </c>
       <c r="D42" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" s="17">
         <v>1</v>
       </c>
       <c r="F42">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="G42" t="s">
         <v>764</v>
       </c>
       <c r="I42" t="s">
-        <v>688</v>
+        <v>1013</v>
       </c>
       <c r="J42" t="s">
-        <v>1684</v>
+        <v>1162</v>
+      </c>
+      <c r="K42" t="s">
+        <v>1163</v>
+      </c>
+      <c r="L42" t="s">
+        <v>1164</v>
       </c>
       <c r="N42" t="s">
-        <v>941</v>
-      </c>
-      <c r="P42" t="s">
-        <v>884</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -27975,40 +27954,40 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>938</v>
+        <v>958</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>945</v>
+        <v>959</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>946</v>
-      </c>
-      <c r="D44" s="17">
-        <v>4</v>
-      </c>
-      <c r="E44" s="17">
-        <v>3</v>
-      </c>
-      <c r="F44" s="17">
-        <v>250</v>
+        <v>960</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>10000</v>
       </c>
       <c r="G44" t="s">
         <v>764</v>
       </c>
       <c r="I44" t="s">
-        <v>947</v>
+        <v>642</v>
       </c>
       <c r="J44" t="s">
-        <v>948</v>
+        <v>1684</v>
       </c>
       <c r="K44" t="s">
-        <v>1240</v>
-      </c>
-      <c r="L44" t="s">
-        <v>950</v>
+        <v>853</v>
       </c>
       <c r="N44" t="s">
-        <v>951</v>
+        <v>941</v>
+      </c>
+      <c r="O44" t="s">
+        <v>884</v>
       </c>
       <c r="P44" t="s">
         <v>884</v>
@@ -28016,43 +27995,37 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>938</v>
+        <v>958</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>952</v>
+        <v>961</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>953</v>
-      </c>
-      <c r="D45" s="17">
-        <v>5</v>
-      </c>
-      <c r="E45" s="17">
-        <v>4</v>
+        <v>962</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="G45" t="s">
-        <v>2143</v>
+        <v>764</v>
       </c>
       <c r="I45" t="s">
-        <v>954</v>
+        <v>890</v>
       </c>
       <c r="J45" t="s">
-        <v>629</v>
+        <v>1684</v>
       </c>
       <c r="K45" t="s">
-        <v>955</v>
-      </c>
-      <c r="L45" t="s">
-        <v>956</v>
-      </c>
-      <c r="M45" t="s">
-        <v>765</v>
+        <v>861</v>
       </c>
       <c r="N45" t="s">
-        <v>957</v>
+        <v>941</v>
       </c>
       <c r="P45" t="s">
         <v>884</v>
@@ -28060,15 +28033,18 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>938</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D46" s="17">
-        <v>3</v>
-      </c>
-      <c r="E46" s="17">
+        <v>958</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>963</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>964</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
         <v>1</v>
       </c>
       <c r="F46">
@@ -28078,111 +28054,99 @@
         <v>764</v>
       </c>
       <c r="I46" t="s">
-        <v>1171</v>
+        <v>629</v>
       </c>
       <c r="J46" t="s">
-        <v>732</v>
+        <v>1684</v>
       </c>
       <c r="K46" t="s">
-        <v>744</v>
-      </c>
-      <c r="L46" t="s">
-        <v>1172</v>
+        <v>858</v>
       </c>
       <c r="N46" t="s">
         <v>941</v>
       </c>
+      <c r="P46" t="s">
+        <v>884</v>
+      </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>958</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>959</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>960</v>
+        <v>975</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1182</v>
       </c>
       <c r="D47">
         <v>2</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F47">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="G47" t="s">
-        <v>764</v>
+        <v>2177</v>
       </c>
       <c r="I47" t="s">
-        <v>642</v>
+        <v>691</v>
       </c>
       <c r="J47" t="s">
-        <v>1684</v>
+        <v>2185</v>
       </c>
       <c r="K47" t="s">
-        <v>853</v>
+        <v>862</v>
       </c>
       <c r="N47" t="s">
-        <v>941</v>
-      </c>
-      <c r="O47" t="s">
-        <v>884</v>
-      </c>
-      <c r="P47" t="s">
-        <v>884</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>958</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>961</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>962</v>
+        <v>975</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1183</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F48">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="G48" t="s">
-        <v>764</v>
+        <v>2174</v>
+      </c>
+      <c r="H48" t="s">
+        <v>2186</v>
       </c>
       <c r="I48" t="s">
-        <v>890</v>
+        <v>788</v>
       </c>
       <c r="J48" t="s">
-        <v>1684</v>
+        <v>1178</v>
       </c>
       <c r="K48" t="s">
-        <v>861</v>
+        <v>854</v>
+      </c>
+      <c r="L48" t="s">
+        <v>896</v>
       </c>
       <c r="N48" t="s">
-        <v>941</v>
-      </c>
-      <c r="P48" t="s">
-        <v>884</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>958</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>963</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>964</v>
-      </c>
-      <c r="D49">
+        <v>975</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D49" s="17">
         <v>2</v>
       </c>
       <c r="E49">
@@ -28192,100 +28156,112 @@
         <v>10000</v>
       </c>
       <c r="G49" t="s">
-        <v>764</v>
+        <v>887</v>
       </c>
       <c r="I49" t="s">
-        <v>629</v>
+        <v>882</v>
       </c>
       <c r="J49" t="s">
-        <v>1684</v>
+        <v>717</v>
       </c>
       <c r="K49" t="s">
-        <v>858</v>
+        <v>901</v>
       </c>
       <c r="N49" t="s">
-        <v>941</v>
-      </c>
-      <c r="P49" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>958</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D50">
-        <v>3</v>
+        <v>987</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>988</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>989</v>
+      </c>
+      <c r="D50" s="17">
+        <v>2</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="G50" t="s">
-        <v>764</v>
+        <v>714</v>
       </c>
       <c r="I50" t="s">
-        <v>836</v>
+        <v>656</v>
       </c>
       <c r="J50" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K50" t="s">
-        <v>710</v>
+        <v>733</v>
+      </c>
+      <c r="L50" t="s">
+        <v>744</v>
       </c>
       <c r="N50" t="s">
-        <v>941</v>
+        <v>902</v>
+      </c>
+      <c r="P50" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>958</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1174</v>
+        <v>987</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>990</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>991</v>
       </c>
       <c r="D51" s="17">
-        <v>5</v>
-      </c>
-      <c r="E51" s="17">
+        <v>2</v>
+      </c>
+      <c r="E51">
         <v>1</v>
       </c>
       <c r="F51">
         <v>10000</v>
       </c>
       <c r="G51" t="s">
-        <v>764</v>
+        <v>714</v>
       </c>
       <c r="I51" t="s">
-        <v>739</v>
+        <v>805</v>
       </c>
       <c r="J51" t="s">
-        <v>1018</v>
+        <v>705</v>
       </c>
       <c r="K51" t="s">
-        <v>1172</v>
+        <v>992</v>
       </c>
       <c r="N51" t="s">
-        <v>941</v>
+        <v>902</v>
+      </c>
+      <c r="P51" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>965</v>
+        <v>996</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>966</v>
+        <v>999</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>967</v>
+        <v>1000</v>
       </c>
       <c r="D52" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52" s="17">
         <v>1</v>
@@ -28294,19 +28270,22 @@
         <v>10000</v>
       </c>
       <c r="G52" t="s">
-        <v>764</v>
+        <v>714</v>
       </c>
       <c r="I52" t="s">
-        <v>911</v>
+        <v>808</v>
       </c>
       <c r="J52" t="s">
-        <v>636</v>
+        <v>691</v>
       </c>
       <c r="K52" t="s">
-        <v>765</v>
+        <v>684</v>
+      </c>
+      <c r="L52" s="17" t="s">
+        <v>2195</v>
       </c>
       <c r="N52" t="s">
-        <v>941</v>
+        <v>902</v>
       </c>
       <c r="P52" t="s">
         <v>884</v>
@@ -28314,40 +28293,40 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>965</v>
+        <v>1008</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>968</v>
+        <v>1015</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>969</v>
+        <v>1016</v>
       </c>
       <c r="D53" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="G53" t="s">
-        <v>764</v>
+        <v>747</v>
       </c>
       <c r="I53" t="s">
-        <v>643</v>
+        <v>691</v>
       </c>
       <c r="J53" t="s">
-        <v>970</v>
+        <v>1017</v>
       </c>
       <c r="K53" t="s">
-        <v>2180</v>
+        <v>1018</v>
       </c>
       <c r="L53" t="s">
-        <v>971</v>
+        <v>823</v>
       </c>
       <c r="N53" t="s">
-        <v>972</v>
+        <v>1019</v>
       </c>
       <c r="P53" t="s">
         <v>884</v>
@@ -28355,40 +28334,40 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>965</v>
+        <v>1023</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>973</v>
+        <v>1026</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>974</v>
-      </c>
-      <c r="D54" s="17">
-        <v>4</v>
+        <v>1027</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
       </c>
       <c r="E54" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F54" s="17">
-        <v>250</v>
+        <v>2500</v>
       </c>
       <c r="G54" t="s">
-        <v>764</v>
+        <v>714</v>
       </c>
       <c r="I54" t="s">
-        <v>643</v>
+        <v>744</v>
       </c>
       <c r="J54" t="s">
-        <v>691</v>
+        <v>674</v>
       </c>
       <c r="K54" t="s">
-        <v>739</v>
-      </c>
-      <c r="L54" s="17" t="s">
-        <v>2195</v>
+        <v>787</v>
+      </c>
+      <c r="L54" t="s">
+        <v>910</v>
       </c>
       <c r="N54" t="s">
-        <v>941</v>
+        <v>902</v>
       </c>
       <c r="P54" t="s">
         <v>884</v>
@@ -28396,40 +28375,31 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>975</v>
+        <v>1032</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>976</v>
+        <v>1036</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>977</v>
+        <v>1037</v>
       </c>
       <c r="D55" s="17">
+        <v>2</v>
+      </c>
+      <c r="E55" s="17">
+        <v>4</v>
+      </c>
+      <c r="F55" s="17">
         <v>1</v>
       </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55">
-        <v>10000</v>
-      </c>
       <c r="G55" t="s">
-        <v>880</v>
+        <v>692</v>
       </c>
       <c r="I55" t="s">
-        <v>829</v>
-      </c>
-      <c r="J55" t="s">
-        <v>721</v>
-      </c>
-      <c r="K55" t="s">
-        <v>732</v>
-      </c>
-      <c r="L55" t="s">
-        <v>823</v>
+        <v>2188</v>
       </c>
       <c r="N55" t="s">
-        <v>978</v>
+        <v>1038</v>
       </c>
       <c r="P55" t="s">
         <v>884</v>
@@ -28437,16 +28407,13 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>975</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>979</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>980</v>
+        <v>1032</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1194</v>
       </c>
       <c r="D56" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -28455,428 +28422,412 @@
         <v>10000</v>
       </c>
       <c r="G56" t="s">
-        <v>888</v>
+        <v>790</v>
       </c>
       <c r="I56" t="s">
-        <v>910</v>
+        <v>721</v>
       </c>
       <c r="J56" t="s">
-        <v>806</v>
+        <v>732</v>
       </c>
       <c r="K56" t="s">
-        <v>861</v>
+        <v>755</v>
       </c>
       <c r="L56" t="s">
-        <v>642</v>
+        <v>1195</v>
       </c>
       <c r="N56" t="s">
-        <v>978</v>
-      </c>
-      <c r="P56" t="s">
-        <v>884</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>975</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>982</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>983</v>
+        <v>1032</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1197</v>
       </c>
       <c r="D57" s="17">
-        <v>5</v>
-      </c>
-      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="E57" s="17">
         <v>1</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="17">
         <v>10000</v>
       </c>
-      <c r="G57" t="s">
-        <v>904</v>
-      </c>
-      <c r="I57" t="s">
-        <v>859</v>
-      </c>
-      <c r="J57" t="s">
-        <v>984</v>
-      </c>
-      <c r="K57" t="s">
-        <v>985</v>
-      </c>
-      <c r="L57" t="s">
-        <v>841</v>
+      <c r="G57" s="17" t="s">
+        <v>792</v>
+      </c>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17" t="s">
+        <v>621</v>
+      </c>
+      <c r="J57" s="17" t="s">
+        <v>636</v>
+      </c>
+      <c r="K57" s="17" t="s">
+        <v>725</v>
+      </c>
+      <c r="L57" s="17" t="s">
+        <v>1017</v>
+      </c>
+      <c r="M57" t="s">
+        <v>1198</v>
       </c>
       <c r="N57" t="s">
-        <v>986</v>
-      </c>
-      <c r="P57" t="s">
-        <v>884</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>975</v>
+        <v>1032</v>
       </c>
       <c r="C58" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D58">
+        <v>1200</v>
+      </c>
+      <c r="D58" s="17">
+        <v>2</v>
+      </c>
+      <c r="E58" s="17">
         <v>3</v>
       </c>
-      <c r="E58">
-        <v>3</v>
-      </c>
-      <c r="F58">
+      <c r="F58" s="17">
         <v>250</v>
       </c>
-      <c r="G58" t="s">
-        <v>2184</v>
-      </c>
-      <c r="I58" t="s">
-        <v>826</v>
-      </c>
-      <c r="J58" t="s">
-        <v>1254</v>
-      </c>
-      <c r="K58" t="s">
-        <v>1239</v>
-      </c>
-      <c r="L58" t="s">
-        <v>721</v>
-      </c>
-      <c r="M58" t="s">
-        <v>856</v>
-      </c>
+      <c r="G58" s="17" t="s">
+        <v>1201</v>
+      </c>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17" t="s">
+        <v>816</v>
+      </c>
+      <c r="J58" s="17" t="s">
+        <v>1202</v>
+      </c>
+      <c r="K58" s="17" t="s">
+        <v>1203</v>
+      </c>
+      <c r="L58" s="17"/>
       <c r="N58" t="s">
-        <v>1179</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>975</v>
+        <v>1219</v>
       </c>
       <c r="C59" t="s">
-        <v>1180</v>
-      </c>
-      <c r="D59">
+        <v>1221</v>
+      </c>
+      <c r="D59" s="17">
+        <v>2</v>
+      </c>
+      <c r="E59" s="17">
         <v>1</v>
       </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59">
+      <c r="F59" s="17">
         <v>10000</v>
       </c>
-      <c r="G59" t="s">
-        <v>2172</v>
-      </c>
-      <c r="I59" t="s">
-        <v>1177</v>
-      </c>
-      <c r="J59" t="s">
-        <v>1136</v>
-      </c>
-      <c r="K59" t="s">
-        <v>859</v>
-      </c>
+      <c r="G59" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17" t="s">
+        <v>1222</v>
+      </c>
+      <c r="J59" s="17" t="s">
+        <v>901</v>
+      </c>
+      <c r="K59" s="17" t="s">
+        <v>629</v>
+      </c>
+      <c r="L59" s="17"/>
       <c r="N59" t="s">
-        <v>1179</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>975</v>
+        <v>1219</v>
       </c>
       <c r="C60" t="s">
-        <v>1182</v>
-      </c>
-      <c r="D60">
+        <v>1223</v>
+      </c>
+      <c r="D60" s="17">
         <v>2</v>
       </c>
-      <c r="E60">
-        <v>4</v>
-      </c>
-      <c r="F60">
-        <v>50</v>
-      </c>
-      <c r="G60" t="s">
-        <v>2177</v>
-      </c>
-      <c r="I60" t="s">
-        <v>691</v>
-      </c>
-      <c r="J60" t="s">
-        <v>2185</v>
-      </c>
-      <c r="K60" t="s">
-        <v>862</v>
-      </c>
+      <c r="E60" s="17">
+        <v>1</v>
+      </c>
+      <c r="F60" s="17">
+        <v>10000</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17" t="s">
+        <v>1224</v>
+      </c>
+      <c r="J60" s="17" t="s">
+        <v>1126</v>
+      </c>
+      <c r="K60" s="17" t="s">
+        <v>901</v>
+      </c>
+      <c r="L60" s="17"/>
       <c r="N60" t="s">
-        <v>1179</v>
+        <v>891</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>975</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D61">
+        <v>1039</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D61" s="17">
         <v>2</v>
       </c>
-      <c r="E61">
-        <v>4</v>
-      </c>
-      <c r="F61">
-        <v>50</v>
+      <c r="E61" s="17">
+        <v>1</v>
+      </c>
+      <c r="F61" s="17">
+        <v>10000</v>
       </c>
       <c r="G61" t="s">
-        <v>2174</v>
-      </c>
-      <c r="H61" t="s">
-        <v>2186</v>
+        <v>721</v>
       </c>
       <c r="I61" t="s">
-        <v>788</v>
+        <v>954</v>
       </c>
       <c r="J61" t="s">
-        <v>1178</v>
+        <v>643</v>
       </c>
       <c r="K61" t="s">
-        <v>854</v>
-      </c>
-      <c r="L61" t="s">
-        <v>896</v>
+        <v>1046</v>
       </c>
       <c r="N61" t="s">
-        <v>1179</v>
+        <v>912</v>
+      </c>
+      <c r="P61" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>975</v>
+        <v>1039</v>
       </c>
       <c r="C62" t="s">
-        <v>1184</v>
+        <v>1227</v>
       </c>
       <c r="D62" s="17">
         <v>2</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="17">
         <v>1</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="17">
         <v>10000</v>
       </c>
-      <c r="G62" t="s">
-        <v>887</v>
-      </c>
-      <c r="I62" t="s">
-        <v>882</v>
-      </c>
-      <c r="J62" t="s">
-        <v>717</v>
-      </c>
-      <c r="K62" t="s">
-        <v>901</v>
-      </c>
+      <c r="G62" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17" t="s">
+        <v>642</v>
+      </c>
+      <c r="J62" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="K62" s="17" t="s">
+        <v>1228</v>
+      </c>
+      <c r="L62" s="17"/>
       <c r="N62" t="s">
-        <v>883</v>
+        <v>951</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>975</v>
+        <v>1039</v>
       </c>
       <c r="C63" t="s">
-        <v>1185</v>
+        <v>1229</v>
       </c>
       <c r="D63" s="17">
-        <v>3</v>
-      </c>
-      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="E63" s="17">
         <v>1</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="17">
         <v>10000</v>
       </c>
-      <c r="G63" t="s">
-        <v>904</v>
-      </c>
-      <c r="I63" t="s">
-        <v>831</v>
-      </c>
-      <c r="J63" t="s">
-        <v>697</v>
-      </c>
-      <c r="K63" t="s">
-        <v>718</v>
-      </c>
+      <c r="G63" s="17" t="s">
+        <v>724</v>
+      </c>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17" t="s">
+        <v>1230</v>
+      </c>
+      <c r="J63" s="17" t="s">
+        <v>661</v>
+      </c>
+      <c r="K63" s="17" t="s">
+        <v>818</v>
+      </c>
+      <c r="L63" s="17"/>
       <c r="N63" t="s">
-        <v>1186</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>987</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>988</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>989</v>
+        <v>1039</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1231</v>
       </c>
       <c r="D64" s="17">
         <v>2</v>
       </c>
-      <c r="E64">
-        <v>2</v>
-      </c>
-      <c r="F64">
-        <v>2500</v>
-      </c>
-      <c r="G64" t="s">
-        <v>714</v>
-      </c>
-      <c r="I64" t="s">
-        <v>656</v>
-      </c>
-      <c r="J64" t="s">
-        <v>642</v>
-      </c>
-      <c r="K64" t="s">
-        <v>733</v>
-      </c>
-      <c r="L64" t="s">
-        <v>744</v>
-      </c>
+      <c r="E64" s="17">
+        <v>1</v>
+      </c>
+      <c r="F64" s="17">
+        <v>10000</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17" t="s">
+        <v>725</v>
+      </c>
+      <c r="J64" s="17" t="s">
+        <v>629</v>
+      </c>
+      <c r="K64" s="17" t="s">
+        <v>1167</v>
+      </c>
+      <c r="L64" s="17"/>
       <c r="N64" t="s">
-        <v>902</v>
-      </c>
-      <c r="P64" t="s">
-        <v>884</v>
+        <v>951</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>987</v>
-      </c>
-      <c r="B65" s="17" t="s">
-        <v>990</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>991</v>
+        <v>1039</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1232</v>
       </c>
       <c r="D65" s="17">
         <v>2</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="17">
         <v>1</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="17">
         <v>10000</v>
       </c>
-      <c r="G65" t="s">
-        <v>714</v>
-      </c>
-      <c r="I65" t="s">
-        <v>805</v>
-      </c>
-      <c r="J65" t="s">
-        <v>705</v>
-      </c>
-      <c r="K65" t="s">
-        <v>992</v>
-      </c>
+      <c r="G65" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17" t="s">
+        <v>1233</v>
+      </c>
+      <c r="J65" s="17" t="s">
+        <v>725</v>
+      </c>
+      <c r="K65" s="17" t="s">
+        <v>818</v>
+      </c>
+      <c r="L65" s="17"/>
       <c r="N65" t="s">
-        <v>902</v>
-      </c>
-      <c r="P65" t="s">
-        <v>884</v>
+        <v>951</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>987</v>
-      </c>
-      <c r="B66" s="17" t="s">
-        <v>993</v>
-      </c>
-      <c r="C66" s="24" t="s">
-        <v>994</v>
+        <v>1051</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>1234</v>
       </c>
       <c r="D66" s="24">
-        <v>3</v>
-      </c>
-      <c r="E66" s="7">
+        <v>2</v>
+      </c>
+      <c r="E66" s="24">
         <v>1</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66" s="24">
         <v>10000</v>
       </c>
-      <c r="G66" s="7" t="s">
-        <v>747</v>
-      </c>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7" t="s">
-        <v>881</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>803</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>853</v>
-      </c>
-      <c r="L66" s="7" t="s">
-        <v>928</v>
-      </c>
+      <c r="G66" s="24" t="s">
+        <v>792</v>
+      </c>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24" t="s">
+        <v>890</v>
+      </c>
+      <c r="J66" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="K66" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="L66" s="24"/>
       <c r="M66" s="7"/>
       <c r="N66" s="7" t="s">
-        <v>995</v>
+        <v>941</v>
       </c>
       <c r="O66" s="7"/>
-      <c r="P66" s="7" t="s">
-        <v>884</v>
-      </c>
+      <c r="P66" s="7"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>996</v>
+        <v>1054</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>997</v>
+        <v>1059</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>998</v>
-      </c>
-      <c r="D67" s="17">
+        <v>1060</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67" s="17">
         <v>1</v>
       </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67">
+      <c r="F67" s="17">
         <v>10000</v>
       </c>
       <c r="G67" t="s">
-        <v>747</v>
+        <v>643</v>
       </c>
       <c r="I67" t="s">
-        <v>706</v>
+        <v>881</v>
       </c>
       <c r="J67" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="K67" t="s">
-        <v>729</v>
+        <v>949</v>
+      </c>
+      <c r="L67" t="s">
+        <v>890</v>
       </c>
       <c r="N67" t="s">
-        <v>902</v>
+        <v>1061</v>
       </c>
       <c r="P67" t="s">
         <v>884</v>
@@ -28884,13 +28835,10 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>996</v>
-      </c>
-      <c r="B68" s="17" t="s">
-        <v>999</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>1000</v>
+        <v>1054</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1241</v>
       </c>
       <c r="D68" s="17">
         <v>2</v>
@@ -28901,40 +28849,38 @@
       <c r="F68" s="17">
         <v>10000</v>
       </c>
-      <c r="G68" t="s">
-        <v>714</v>
-      </c>
-      <c r="I68" t="s">
-        <v>808</v>
-      </c>
-      <c r="J68" t="s">
-        <v>691</v>
-      </c>
-      <c r="K68" t="s">
-        <v>684</v>
-      </c>
-      <c r="L68" s="17" t="s">
-        <v>2195</v>
-      </c>
+      <c r="G68" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="H68" s="17" t="s">
+        <v>764</v>
+      </c>
+      <c r="I68" s="17" t="s">
+        <v>747</v>
+      </c>
+      <c r="J68" s="17" t="s">
+        <v>1139</v>
+      </c>
+      <c r="K68" s="17" t="s">
+        <v>736</v>
+      </c>
+      <c r="L68" s="17"/>
       <c r="N68" t="s">
         <v>902</v>
       </c>
-      <c r="P68" t="s">
-        <v>884</v>
-      </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>996</v>
+        <v>1062</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>1002</v>
+        <v>1068</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>1003</v>
+        <v>1069</v>
       </c>
       <c r="D69" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E69" s="17">
         <v>4</v>
@@ -28943,22 +28889,16 @@
         <v>50</v>
       </c>
       <c r="G69" t="s">
-        <v>900</v>
-      </c>
-      <c r="I69" t="s">
-        <v>1004</v>
-      </c>
-      <c r="J69" t="s">
-        <v>721</v>
-      </c>
-      <c r="K69" t="s">
-        <v>1005</v>
-      </c>
-      <c r="L69" t="s">
-        <v>1006</v>
-      </c>
-      <c r="N69" t="s">
-        <v>1007</v>
+        <v>739</v>
+      </c>
+      <c r="H69" t="s">
+        <v>733</v>
+      </c>
+      <c r="I69" s="17" t="s">
+        <v>2195</v>
+      </c>
+      <c r="J69" s="17" t="s">
+        <v>808</v>
       </c>
       <c r="P69" t="s">
         <v>884</v>
@@ -28966,680 +28906,661 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>996</v>
+        <v>1062</v>
       </c>
       <c r="C70" t="s">
-        <v>1187</v>
+        <v>1253</v>
       </c>
       <c r="D70" s="17">
-        <v>4</v>
-      </c>
-      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="E70" s="17">
         <v>1</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="17">
         <v>10000</v>
       </c>
-      <c r="G70" t="s">
-        <v>721</v>
-      </c>
-      <c r="H70" t="s">
-        <v>900</v>
-      </c>
-      <c r="I70" t="s">
-        <v>643</v>
-      </c>
-      <c r="J70" t="s">
-        <v>705</v>
-      </c>
-      <c r="K70" t="s">
-        <v>661</v>
-      </c>
-      <c r="L70" t="s">
-        <v>845</v>
-      </c>
+      <c r="G70" s="17" t="s">
+        <v>808</v>
+      </c>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17" t="s">
+        <v>1254</v>
+      </c>
+      <c r="J70" s="17" t="s">
+        <v>901</v>
+      </c>
+      <c r="K70" s="17" t="s">
+        <v>744</v>
+      </c>
+      <c r="L70" s="17"/>
       <c r="N70" t="s">
-        <v>902</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>1010</v>
+        <v>1062</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1256</v>
       </c>
       <c r="D71" s="17">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>3</v>
-      </c>
-      <c r="F71">
-        <v>250</v>
-      </c>
-      <c r="G71" t="s">
-        <v>714</v>
-      </c>
-      <c r="I71" t="s">
-        <v>2187</v>
-      </c>
-      <c r="J71" t="s">
-        <v>688</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E71" s="17">
+        <v>4</v>
+      </c>
+      <c r="F71" s="17">
+        <v>50</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>794</v>
+      </c>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="J71" s="17" t="s">
+        <v>948</v>
+      </c>
+      <c r="K71" s="17" t="s">
+        <v>1257</v>
+      </c>
+      <c r="L71" s="17"/>
       <c r="N71" t="s">
-        <v>902</v>
-      </c>
-      <c r="P71" t="s">
+        <v>951</v>
+      </c>
+      <c r="O71" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>1012</v>
+        <v>1062</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1258</v>
       </c>
       <c r="D72" s="17">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72">
-        <v>10000</v>
-      </c>
-      <c r="G72" t="s">
-        <v>714</v>
-      </c>
-      <c r="I72" t="s">
-        <v>642</v>
-      </c>
-      <c r="J72" t="s">
-        <v>890</v>
-      </c>
-      <c r="K72" t="s">
-        <v>1013</v>
-      </c>
-      <c r="L72" t="s">
-        <v>1014</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E72" s="17">
+        <v>4</v>
+      </c>
+      <c r="F72" s="17">
+        <v>50</v>
+      </c>
+      <c r="G72" s="17" t="s">
+        <v>792</v>
+      </c>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="J72" s="17" t="s">
+        <v>948</v>
+      </c>
+      <c r="K72" s="17" t="s">
+        <v>1233</v>
+      </c>
+      <c r="L72" s="17"/>
       <c r="N72" t="s">
-        <v>902</v>
-      </c>
-      <c r="P72" t="s">
-        <v>884</v>
+        <v>951</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>1016</v>
+        <v>1062</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1259</v>
       </c>
       <c r="D73" s="17">
         <v>2</v>
       </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73">
-        <v>10000</v>
-      </c>
-      <c r="G73" t="s">
-        <v>747</v>
-      </c>
-      <c r="I73" t="s">
-        <v>691</v>
-      </c>
-      <c r="J73" t="s">
-        <v>1017</v>
-      </c>
-      <c r="K73" t="s">
-        <v>1018</v>
-      </c>
-      <c r="L73" t="s">
-        <v>823</v>
-      </c>
+      <c r="E73" s="17">
+        <v>4</v>
+      </c>
+      <c r="F73" s="17">
+        <v>50</v>
+      </c>
+      <c r="G73" s="17" t="s">
+        <v>790</v>
+      </c>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="J73" s="17" t="s">
+        <v>948</v>
+      </c>
+      <c r="K73" s="17" t="s">
+        <v>1260</v>
+      </c>
+      <c r="L73" s="17"/>
       <c r="N73" t="s">
-        <v>1019</v>
-      </c>
-      <c r="P73" t="s">
-        <v>884</v>
+        <v>951</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B74" s="17" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>1021</v>
+        <v>1062</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1261</v>
       </c>
       <c r="D74" s="17">
-        <v>3</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>10000</v>
-      </c>
-      <c r="G74" t="s">
-        <v>900</v>
-      </c>
-      <c r="I74" t="s">
-        <v>949</v>
-      </c>
-      <c r="J74" t="s">
-        <v>729</v>
-      </c>
-      <c r="K74" t="s">
-        <v>1022</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E74" s="17">
+        <v>4</v>
+      </c>
+      <c r="F74" s="17">
+        <v>50</v>
+      </c>
+      <c r="G74" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="J74" s="17" t="s">
+        <v>948</v>
+      </c>
+      <c r="K74" s="17" t="s">
+        <v>1158</v>
+      </c>
+      <c r="L74" s="17"/>
       <c r="N74" t="s">
-        <v>902</v>
-      </c>
-      <c r="P74" t="s">
-        <v>884</v>
+        <v>951</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B75" s="17" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
+        <v>1062</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D75" s="17">
+        <v>2</v>
       </c>
       <c r="E75" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G75" t="s">
-        <v>705</v>
-      </c>
-      <c r="I75" t="s">
-        <v>890</v>
-      </c>
-      <c r="J75" t="s">
-        <v>1006</v>
-      </c>
+        <v>2500</v>
+      </c>
+      <c r="G75" s="17" t="s">
+        <v>764</v>
+      </c>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17" t="s">
+        <v>636</v>
+      </c>
+      <c r="J75" s="17" t="s">
+        <v>765</v>
+      </c>
+      <c r="K75" s="17" t="s">
+        <v>948</v>
+      </c>
+      <c r="L75" s="17"/>
       <c r="N75" t="s">
-        <v>902</v>
-      </c>
-      <c r="P75" t="s">
-        <v>884</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>1027</v>
+        <v>272</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1273</v>
       </c>
       <c r="D76">
         <v>2</v>
       </c>
-      <c r="E76" s="17">
-        <v>2</v>
-      </c>
-      <c r="F76" s="17">
-        <v>2500</v>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>10000</v>
       </c>
       <c r="G76" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="I76" t="s">
-        <v>744</v>
+        <v>688</v>
       </c>
       <c r="J76" t="s">
-        <v>674</v>
+        <v>820</v>
       </c>
       <c r="K76" t="s">
-        <v>787</v>
-      </c>
-      <c r="L76" t="s">
-        <v>910</v>
+        <v>881</v>
       </c>
       <c r="N76" t="s">
-        <v>902</v>
-      </c>
-      <c r="P76" t="s">
-        <v>884</v>
+        <v>912</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>1029</v>
+        <v>1083</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1282</v>
       </c>
       <c r="D77">
-        <v>3</v>
-      </c>
-      <c r="E77" s="17">
         <v>2</v>
       </c>
-      <c r="F77" s="17">
-        <v>2500</v>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>10000</v>
       </c>
       <c r="G77" t="s">
-        <v>725</v>
-      </c>
-      <c r="H77" t="s">
-        <v>1030</v>
+        <v>894</v>
       </c>
       <c r="I77" t="s">
-        <v>668</v>
+        <v>697</v>
       </c>
       <c r="J77" t="s">
-        <v>984</v>
+        <v>853</v>
       </c>
       <c r="K77" t="s">
-        <v>1031</v>
+        <v>1283</v>
       </c>
       <c r="L77" t="s">
-        <v>910</v>
-      </c>
-      <c r="M77" t="s">
-        <v>841</v>
+        <v>1284</v>
       </c>
       <c r="N77" t="s">
-        <v>995</v>
-      </c>
-      <c r="P77" t="s">
-        <v>884</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B78" s="17" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D78" s="17">
+        <v>1083</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
         <v>1</v>
       </c>
-      <c r="E78" s="17">
-        <v>1</v>
-      </c>
-      <c r="F78" s="17">
+      <c r="F78">
         <v>10000</v>
       </c>
       <c r="G78" t="s">
-        <v>805</v>
+        <v>905</v>
       </c>
       <c r="I78" t="s">
-        <v>881</v>
+        <v>752</v>
       </c>
       <c r="J78" t="s">
-        <v>705</v>
+        <v>1283</v>
       </c>
       <c r="K78" t="s">
-        <v>714</v>
+        <v>736</v>
+      </c>
+      <c r="L78" t="s">
+        <v>1286</v>
       </c>
       <c r="N78" t="s">
-        <v>1035</v>
-      </c>
-      <c r="P78" t="s">
-        <v>884</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B79" s="17" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D79" s="17">
+        <v>1083</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D79">
         <v>2</v>
       </c>
-      <c r="E79" s="17">
-        <v>4</v>
-      </c>
-      <c r="F79" s="17">
+      <c r="E79">
         <v>1</v>
       </c>
+      <c r="F79">
+        <v>10000</v>
+      </c>
       <c r="G79" t="s">
-        <v>692</v>
+        <v>904</v>
       </c>
       <c r="I79" t="s">
-        <v>2188</v>
+        <v>697</v>
+      </c>
+      <c r="J79" t="s">
+        <v>1257</v>
+      </c>
+      <c r="K79" t="s">
+        <v>710</v>
+      </c>
+      <c r="L79" t="s">
+        <v>1288</v>
       </c>
       <c r="N79" t="s">
-        <v>1038</v>
-      </c>
-      <c r="P79" t="s">
-        <v>884</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1032</v>
+        <v>1083</v>
       </c>
       <c r="C80" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D80" s="17">
+        <v>1289</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80">
         <v>1</v>
       </c>
-      <c r="E80" s="17">
-        <v>3</v>
-      </c>
-      <c r="F80" s="17">
-        <v>250</v>
-      </c>
-      <c r="G80" s="17" t="s">
-        <v>764</v>
-      </c>
-      <c r="H80" s="17"/>
-      <c r="I80" s="17" t="s">
-        <v>684</v>
-      </c>
-      <c r="J80" s="17" t="s">
-        <v>765</v>
-      </c>
-      <c r="K80" s="17" t="s">
-        <v>836</v>
-      </c>
-      <c r="L80" s="17"/>
+      <c r="F80">
+        <v>10000</v>
+      </c>
+      <c r="G80" t="s">
+        <v>888</v>
+      </c>
+      <c r="I80" t="s">
+        <v>826</v>
+      </c>
+      <c r="J80" t="s">
+        <v>696</v>
+      </c>
+      <c r="K80" t="s">
+        <v>1233</v>
+      </c>
+      <c r="L80" t="s">
+        <v>1290</v>
+      </c>
       <c r="N80" t="s">
-        <v>1189</v>
-      </c>
-      <c r="O80" t="s">
-        <v>884</v>
+        <v>951</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C81" t="s">
-        <v>1190</v>
+        <v>1092</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>1094</v>
       </c>
       <c r="D81" s="17">
+        <v>2</v>
+      </c>
+      <c r="E81" s="17">
         <v>1</v>
       </c>
-      <c r="E81" s="17">
-        <v>3</v>
-      </c>
       <c r="F81" s="17">
-        <v>250</v>
-      </c>
-      <c r="G81" s="17" t="s">
-        <v>1191</v>
-      </c>
-      <c r="H81" s="17"/>
-      <c r="I81" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="J81" s="17" t="s">
-        <v>1192</v>
-      </c>
-      <c r="K81" s="17" t="s">
-        <v>629</v>
-      </c>
-      <c r="L81" s="17" t="s">
-        <v>642</v>
+        <v>10000</v>
+      </c>
+      <c r="G81" t="s">
+        <v>887</v>
+      </c>
+      <c r="I81" t="s">
+        <v>1022</v>
+      </c>
+      <c r="J81" t="s">
+        <v>764</v>
+      </c>
+      <c r="K81" t="s">
+        <v>636</v>
+      </c>
+      <c r="L81" t="s">
+        <v>710</v>
+      </c>
+      <c r="M81" t="s">
+        <v>1095</v>
       </c>
       <c r="N81" t="s">
-        <v>1193</v>
+        <v>1096</v>
+      </c>
+      <c r="P81" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C82" t="s">
-        <v>1194</v>
+        <v>1092</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>1303</v>
       </c>
       <c r="D82" s="17">
         <v>2</v>
       </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-      <c r="F82">
-        <v>10000</v>
+      <c r="E82" s="17">
+        <v>3</v>
+      </c>
+      <c r="F82" s="17">
+        <v>250</v>
       </c>
       <c r="G82" t="s">
-        <v>790</v>
+        <v>2177</v>
       </c>
       <c r="I82" t="s">
-        <v>721</v>
+        <v>1022</v>
       </c>
       <c r="J82" t="s">
-        <v>732</v>
+        <v>808</v>
       </c>
       <c r="K82" t="s">
-        <v>755</v>
+        <v>889</v>
       </c>
       <c r="L82" t="s">
-        <v>1195</v>
+        <v>796</v>
       </c>
       <c r="N82" t="s">
-        <v>1196</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C83" t="s">
-        <v>1197</v>
+        <v>1092</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>1305</v>
       </c>
       <c r="D83" s="17">
         <v>2</v>
       </c>
       <c r="E83" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F83" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G83" s="17" t="s">
-        <v>792</v>
-      </c>
-      <c r="H83" s="17"/>
-      <c r="I83" s="17" t="s">
-        <v>621</v>
-      </c>
-      <c r="J83" s="17" t="s">
-        <v>636</v>
-      </c>
-      <c r="K83" s="17" t="s">
-        <v>725</v>
-      </c>
-      <c r="L83" s="17" t="s">
-        <v>1017</v>
-      </c>
-      <c r="M83" t="s">
-        <v>1198</v>
+        <v>250</v>
+      </c>
+      <c r="G83" t="s">
+        <v>2184</v>
+      </c>
+      <c r="I83" t="s">
+        <v>1022</v>
+      </c>
+      <c r="J83" t="s">
+        <v>2189</v>
+      </c>
+      <c r="K83" t="s">
+        <v>950</v>
       </c>
       <c r="N83" t="s">
-        <v>1199</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C84" t="s">
-        <v>1200</v>
+        <v>1111</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>1113</v>
       </c>
       <c r="D84" s="17">
         <v>2</v>
       </c>
       <c r="E84" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F84" s="17">
-        <v>250</v>
-      </c>
-      <c r="G84" s="17" t="s">
-        <v>1201</v>
-      </c>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17" t="s">
-        <v>816</v>
-      </c>
-      <c r="J84" s="17" t="s">
-        <v>1202</v>
-      </c>
-      <c r="K84" s="17" t="s">
-        <v>1203</v>
-      </c>
-      <c r="L84" s="17"/>
+        <v>10000</v>
+      </c>
+      <c r="G84" t="s">
+        <v>764</v>
+      </c>
+      <c r="I84" t="s">
+        <v>691</v>
+      </c>
+      <c r="J84" t="s">
+        <v>2195</v>
+      </c>
+      <c r="K84" t="s">
+        <v>732</v>
+      </c>
+      <c r="L84" t="s">
+        <v>733</v>
+      </c>
       <c r="N84" t="s">
-        <v>1204</v>
+        <v>1038</v>
+      </c>
+      <c r="P84" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C85" t="s">
-        <v>1205</v>
+        <v>877</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>885</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>886</v>
       </c>
       <c r="D85" s="17">
         <v>3</v>
       </c>
-      <c r="E85" s="17">
+      <c r="E85">
         <v>1</v>
       </c>
-      <c r="F85" s="17">
+      <c r="F85">
         <v>10000</v>
       </c>
-      <c r="G85" s="17" t="s">
-        <v>808</v>
-      </c>
-      <c r="H85" s="17"/>
-      <c r="I85" s="17" t="s">
-        <v>925</v>
-      </c>
-      <c r="J85" s="17"/>
-      <c r="K85" s="17"/>
-      <c r="L85" s="17"/>
+      <c r="G85" t="s">
+        <v>887</v>
+      </c>
+      <c r="H85" t="s">
+        <v>888</v>
+      </c>
+      <c r="I85" t="s">
+        <v>844</v>
+      </c>
+      <c r="J85" t="s">
+        <v>890</v>
+      </c>
+      <c r="K85" t="s">
+        <v>628</v>
+      </c>
+      <c r="L85" t="s">
+        <v>2176</v>
+      </c>
       <c r="N85" t="s">
-        <v>1206</v>
+        <v>891</v>
+      </c>
+      <c r="P85" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C86" t="s">
-        <v>1207</v>
+        <v>877</v>
+      </c>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17" t="s">
+        <v>1117</v>
       </c>
       <c r="D86" s="17">
         <v>3</v>
       </c>
-      <c r="E86" s="17">
+      <c r="E86">
         <v>1</v>
       </c>
-      <c r="F86" s="17">
+      <c r="F86">
         <v>10000</v>
       </c>
-      <c r="G86" s="17" t="s">
-        <v>788</v>
-      </c>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17" t="s">
-        <v>1126</v>
-      </c>
-      <c r="J86" s="17" t="s">
-        <v>992</v>
-      </c>
-      <c r="K86" s="17" t="s">
-        <v>890</v>
-      </c>
-      <c r="L86" s="17" t="s">
-        <v>1208</v>
+      <c r="G86" t="s">
+        <v>2172</v>
+      </c>
+      <c r="I86" t="s">
+        <v>906</v>
+      </c>
+      <c r="J86" t="s">
+        <v>710</v>
+      </c>
+      <c r="K86" t="s">
+        <v>1118</v>
+      </c>
+      <c r="L86" t="s">
+        <v>1119</v>
       </c>
       <c r="N86" t="s">
-        <v>951</v>
+        <v>891</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C87" t="s">
-        <v>1209</v>
+        <v>897</v>
+      </c>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17" t="s">
+        <v>1128</v>
       </c>
       <c r="D87" s="17">
-        <v>4</v>
-      </c>
-      <c r="E87" s="17">
+        <v>3</v>
+      </c>
+      <c r="E87">
         <v>1</v>
       </c>
-      <c r="F87" s="17">
+      <c r="F87">
         <v>10000</v>
       </c>
-      <c r="G87" s="17" t="s">
-        <v>721</v>
-      </c>
-      <c r="H87" s="17"/>
-      <c r="I87" s="17" t="s">
-        <v>1156</v>
-      </c>
-      <c r="J87" s="17" t="s">
-        <v>728</v>
-      </c>
-      <c r="K87" s="17" t="s">
-        <v>736</v>
-      </c>
-      <c r="L87" s="17"/>
+      <c r="G87" t="s">
+        <v>2172</v>
+      </c>
+      <c r="I87" t="s">
+        <v>911</v>
+      </c>
+      <c r="J87" t="s">
+        <v>831</v>
+      </c>
+      <c r="K87" t="s">
+        <v>906</v>
+      </c>
+      <c r="L87" t="s">
+        <v>2121</v>
+      </c>
       <c r="N87" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C88" t="s">
-        <v>1210</v>
+        <v>907</v>
+      </c>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17" t="s">
+        <v>1138</v>
       </c>
       <c r="D88" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -29648,345 +29569,350 @@
         <v>10000</v>
       </c>
       <c r="G88" t="s">
-        <v>764</v>
+        <v>788</v>
       </c>
       <c r="I88" t="s">
-        <v>684</v>
+        <v>803</v>
       </c>
       <c r="J88" t="s">
-        <v>739</v>
+        <v>1139</v>
       </c>
       <c r="K88" t="s">
-        <v>921</v>
+        <v>1140</v>
       </c>
       <c r="N88" t="s">
-        <v>941</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C89" t="s">
-        <v>1211</v>
+        <v>907</v>
+      </c>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17" t="s">
+        <v>1142</v>
       </c>
       <c r="D89" s="17">
-        <v>5</v>
-      </c>
-      <c r="E89" s="17">
+        <v>3</v>
+      </c>
+      <c r="E89">
         <v>1</v>
       </c>
-      <c r="F89" s="17">
+      <c r="F89">
         <v>10000</v>
       </c>
-      <c r="G89" s="17" t="s">
-        <v>794</v>
-      </c>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17" t="s">
-        <v>831</v>
-      </c>
-      <c r="J89" s="17" t="s">
-        <v>1201</v>
-      </c>
-      <c r="K89" s="17" t="s">
-        <v>744</v>
-      </c>
-      <c r="L89" s="17"/>
+      <c r="G89" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H89" t="s">
+        <v>1144</v>
+      </c>
+      <c r="I89" t="s">
+        <v>861</v>
+      </c>
+      <c r="J89" t="s">
+        <v>853</v>
+      </c>
+      <c r="K89" t="s">
+        <v>2182</v>
+      </c>
       <c r="N89" t="s">
-        <v>1212</v>
+        <v>1145</v>
+      </c>
+      <c r="O89" t="s">
+        <v>1146</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C90" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D90" s="17">
-        <v>5</v>
+        <v>918</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>919</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>920</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
       </c>
       <c r="E90" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F90" s="17">
-        <v>50</v>
-      </c>
-      <c r="G90" s="17" t="s">
-        <v>1214</v>
-      </c>
-      <c r="H90" s="17" t="s">
-        <v>1215</v>
-      </c>
-      <c r="I90" s="17" t="s">
-        <v>1216</v>
-      </c>
-      <c r="J90" s="17" t="s">
-        <v>1217</v>
-      </c>
-      <c r="K90" s="17" t="s">
-        <v>917</v>
-      </c>
-      <c r="L90" s="17" t="s">
-        <v>800</v>
+        <v>250</v>
+      </c>
+      <c r="G90" t="s">
+        <v>656</v>
+      </c>
+      <c r="I90" t="s">
+        <v>656</v>
+      </c>
+      <c r="J90" t="s">
+        <v>2183</v>
       </c>
       <c r="N90" t="s">
-        <v>1218</v>
+        <v>922</v>
+      </c>
+      <c r="P90" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1219</v>
+        <v>938</v>
       </c>
       <c r="C91" t="s">
-        <v>1220</v>
+        <v>1170</v>
       </c>
       <c r="D91" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E91" s="17">
         <v>1</v>
       </c>
-      <c r="F91" s="17">
+      <c r="F91">
         <v>10000</v>
       </c>
-      <c r="G91" s="17" t="s">
-        <v>724</v>
-      </c>
-      <c r="H91" s="17"/>
-      <c r="I91" s="17" t="s">
-        <v>949</v>
-      </c>
-      <c r="J91" s="17" t="s">
-        <v>661</v>
-      </c>
-      <c r="K91" s="17"/>
-      <c r="L91" s="17"/>
+      <c r="G91" t="s">
+        <v>764</v>
+      </c>
+      <c r="I91" t="s">
+        <v>1171</v>
+      </c>
+      <c r="J91" t="s">
+        <v>732</v>
+      </c>
+      <c r="K91" t="s">
+        <v>744</v>
+      </c>
+      <c r="L91" t="s">
+        <v>1172</v>
+      </c>
       <c r="N91" t="s">
-        <v>1078</v>
+        <v>941</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1219</v>
+        <v>958</v>
       </c>
       <c r="C92" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D92" s="17">
-        <v>2</v>
-      </c>
-      <c r="E92" s="17">
+        <v>1173</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
+      </c>
+      <c r="E92">
         <v>1</v>
       </c>
-      <c r="F92" s="17">
+      <c r="F92">
         <v>10000</v>
       </c>
-      <c r="G92" s="17" t="s">
-        <v>721</v>
-      </c>
-      <c r="H92" s="17"/>
-      <c r="I92" s="17" t="s">
-        <v>1222</v>
-      </c>
-      <c r="J92" s="17" t="s">
-        <v>901</v>
-      </c>
-      <c r="K92" s="17" t="s">
-        <v>629</v>
-      </c>
-      <c r="L92" s="17"/>
+      <c r="G92" t="s">
+        <v>764</v>
+      </c>
+      <c r="I92" t="s">
+        <v>836</v>
+      </c>
+      <c r="J92" t="s">
+        <v>643</v>
+      </c>
+      <c r="K92" t="s">
+        <v>710</v>
+      </c>
       <c r="N92" t="s">
-        <v>1134</v>
+        <v>941</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C93" t="s">
-        <v>1223</v>
+        <v>965</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>968</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>969</v>
       </c>
       <c r="D93" s="17">
+        <v>3</v>
+      </c>
+      <c r="E93">
         <v>2</v>
       </c>
-      <c r="E93" s="17">
-        <v>1</v>
-      </c>
-      <c r="F93" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G93" s="17" t="s">
-        <v>721</v>
-      </c>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17" t="s">
-        <v>1224</v>
-      </c>
-      <c r="J93" s="17" t="s">
-        <v>1126</v>
-      </c>
-      <c r="K93" s="17" t="s">
-        <v>901</v>
-      </c>
-      <c r="L93" s="17"/>
+      <c r="F93">
+        <v>2500</v>
+      </c>
+      <c r="G93" t="s">
+        <v>764</v>
+      </c>
+      <c r="I93" t="s">
+        <v>643</v>
+      </c>
+      <c r="J93" t="s">
+        <v>970</v>
+      </c>
+      <c r="K93" t="s">
+        <v>2180</v>
+      </c>
+      <c r="L93" t="s">
+        <v>971</v>
+      </c>
       <c r="N93" t="s">
-        <v>891</v>
+        <v>972</v>
+      </c>
+      <c r="P93" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1219</v>
+        <v>975</v>
       </c>
       <c r="C94" t="s">
-        <v>1225</v>
-      </c>
-      <c r="D94" s="17">
+        <v>1175</v>
+      </c>
+      <c r="D94">
         <v>3</v>
       </c>
-      <c r="E94" s="17">
-        <v>1</v>
-      </c>
-      <c r="F94" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G94" s="17" t="s">
+      <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <v>250</v>
+      </c>
+      <c r="G94" t="s">
+        <v>2184</v>
+      </c>
+      <c r="I94" t="s">
+        <v>826</v>
+      </c>
+      <c r="J94" t="s">
+        <v>1254</v>
+      </c>
+      <c r="K94" t="s">
+        <v>1239</v>
+      </c>
+      <c r="L94" t="s">
         <v>721</v>
       </c>
-      <c r="H94" s="17"/>
-      <c r="I94" s="17" t="s">
-        <v>1226</v>
-      </c>
-      <c r="J94" s="17" t="s">
-        <v>844</v>
-      </c>
-      <c r="K94" s="17" t="s">
-        <v>890</v>
-      </c>
-      <c r="L94" s="17"/>
+      <c r="M94" t="s">
+        <v>856</v>
+      </c>
       <c r="N94" t="s">
-        <v>1038</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B95" s="17" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>1041</v>
+        <v>975</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1185</v>
       </c>
       <c r="D95" s="17">
+        <v>3</v>
+      </c>
+      <c r="E95">
         <v>1</v>
       </c>
-      <c r="E95" s="17">
+      <c r="F95">
+        <v>10000</v>
+      </c>
+      <c r="G95" t="s">
+        <v>904</v>
+      </c>
+      <c r="I95" t="s">
+        <v>831</v>
+      </c>
+      <c r="J95" t="s">
+        <v>697</v>
+      </c>
+      <c r="K95" t="s">
+        <v>718</v>
+      </c>
+      <c r="N95" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>993</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>994</v>
+      </c>
+      <c r="D96" s="9">
+        <v>3</v>
+      </c>
+      <c r="E96" s="2">
         <v>1</v>
       </c>
-      <c r="F95" s="17">
+      <c r="F96" s="2">
         <v>10000</v>
       </c>
-      <c r="G95" t="s">
-        <v>721</v>
-      </c>
-      <c r="H95" t="s">
-        <v>643</v>
-      </c>
-      <c r="I95" t="s">
-        <v>725</v>
-      </c>
-      <c r="J95" t="s">
-        <v>1042</v>
-      </c>
-      <c r="K95" t="s">
-        <v>721</v>
-      </c>
-      <c r="N95" t="s">
-        <v>1043</v>
-      </c>
-      <c r="P95" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B96" s="17" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C96" s="17" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D96" s="17">
-        <v>2</v>
-      </c>
-      <c r="E96" s="17">
-        <v>1</v>
-      </c>
-      <c r="F96" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G96" t="s">
-        <v>721</v>
-      </c>
-      <c r="I96" t="s">
-        <v>954</v>
-      </c>
-      <c r="J96" t="s">
-        <v>643</v>
-      </c>
-      <c r="K96" t="s">
-        <v>1046</v>
-      </c>
-      <c r="N96" t="s">
-        <v>912</v>
-      </c>
-      <c r="P96" t="s">
+      <c r="G96" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1039</v>
+        <v>1008</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>1047</v>
+        <v>1020</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>1048</v>
+        <v>1021</v>
       </c>
       <c r="D97" s="17">
         <v>3</v>
       </c>
-      <c r="E97" s="17">
-        <v>3</v>
-      </c>
-      <c r="F97" s="17">
-        <v>250</v>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>10000</v>
       </c>
       <c r="G97" t="s">
-        <v>721</v>
-      </c>
-      <c r="H97" t="s">
-        <v>764</v>
+        <v>900</v>
       </c>
       <c r="I97" t="s">
-        <v>1049</v>
+        <v>949</v>
       </c>
       <c r="J97" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="K97" t="s">
-        <v>688</v>
-      </c>
-      <c r="L97" t="s">
-        <v>765</v>
+        <v>1022</v>
       </c>
       <c r="N97" t="s">
-        <v>1050</v>
+        <v>902</v>
       </c>
       <c r="P97" t="s">
         <v>884</v>
@@ -29994,47 +29920,60 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C98" t="s">
-        <v>1227</v>
-      </c>
-      <c r="D98" s="17">
+        <v>1023</v>
+      </c>
+      <c r="B98" s="17" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D98">
+        <v>3</v>
+      </c>
+      <c r="E98" s="17">
         <v>2</v>
       </c>
-      <c r="E98" s="17">
-        <v>1</v>
-      </c>
       <c r="F98" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G98" s="17" t="s">
-        <v>721</v>
-      </c>
-      <c r="H98" s="17"/>
-      <c r="I98" s="17" t="s">
-        <v>642</v>
-      </c>
-      <c r="J98" s="17" t="s">
-        <v>788</v>
-      </c>
-      <c r="K98" s="17" t="s">
-        <v>1228</v>
-      </c>
-      <c r="L98" s="17"/>
+        <v>2500</v>
+      </c>
+      <c r="G98" t="s">
+        <v>725</v>
+      </c>
+      <c r="H98" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I98" t="s">
+        <v>668</v>
+      </c>
+      <c r="J98" t="s">
+        <v>984</v>
+      </c>
+      <c r="K98" t="s">
+        <v>1031</v>
+      </c>
+      <c r="L98" t="s">
+        <v>910</v>
+      </c>
+      <c r="M98" t="s">
+        <v>841</v>
+      </c>
       <c r="N98" t="s">
-        <v>951</v>
+        <v>995</v>
+      </c>
+      <c r="P98" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="C99" t="s">
-        <v>1229</v>
+        <v>1205</v>
       </c>
       <c r="D99" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E99" s="17">
         <v>1</v>
@@ -30043,32 +29982,28 @@
         <v>10000</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>724</v>
+        <v>808</v>
       </c>
       <c r="H99" s="17"/>
       <c r="I99" s="17" t="s">
-        <v>1230</v>
-      </c>
-      <c r="J99" s="17" t="s">
-        <v>661</v>
-      </c>
-      <c r="K99" s="17" t="s">
-        <v>818</v>
-      </c>
+        <v>925</v>
+      </c>
+      <c r="J99" s="17"/>
+      <c r="K99" s="17"/>
       <c r="L99" s="17"/>
       <c r="N99" t="s">
-        <v>1196</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="C100" t="s">
-        <v>1231</v>
+        <v>1207</v>
       </c>
       <c r="D100" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E100" s="17">
         <v>1</v>
@@ -30077,32 +30012,34 @@
         <v>10000</v>
       </c>
       <c r="G100" s="17" t="s">
-        <v>721</v>
+        <v>788</v>
       </c>
       <c r="H100" s="17"/>
       <c r="I100" s="17" t="s">
-        <v>725</v>
+        <v>1126</v>
       </c>
       <c r="J100" s="17" t="s">
-        <v>629</v>
+        <v>992</v>
       </c>
       <c r="K100" s="17" t="s">
-        <v>1167</v>
-      </c>
-      <c r="L100" s="17"/>
+        <v>890</v>
+      </c>
+      <c r="L100" s="17" t="s">
+        <v>1208</v>
+      </c>
       <c r="N100" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1039</v>
+        <v>1219</v>
       </c>
       <c r="C101" t="s">
-        <v>1232</v>
+        <v>1225</v>
       </c>
       <c r="D101" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E101" s="17">
         <v>1</v>
@@ -30115,31 +30052,31 @@
       </c>
       <c r="H101" s="17"/>
       <c r="I101" s="17" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="J101" s="17" t="s">
-        <v>725</v>
+        <v>844</v>
       </c>
       <c r="K101" s="17" t="s">
-        <v>818</v>
+        <v>890</v>
       </c>
       <c r="L101" s="17"/>
       <c r="N101" t="s">
-        <v>951</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1051</v>
+        <v>1039</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="D102" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E102" s="17">
         <v>3</v>
@@ -30154,16 +30091,16 @@
         <v>764</v>
       </c>
       <c r="I102" t="s">
-        <v>706</v>
+        <v>1049</v>
       </c>
       <c r="J102" t="s">
-        <v>890</v>
+        <v>721</v>
       </c>
       <c r="K102" t="s">
-        <v>792</v>
+        <v>688</v>
       </c>
       <c r="L102" t="s">
-        <v>903</v>
+        <v>765</v>
       </c>
       <c r="N102" t="s">
         <v>1050</v>
@@ -30177,10 +30114,10 @@
         <v>1051</v>
       </c>
       <c r="C103" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="D103" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E103" s="17">
         <v>1</v>
@@ -30189,29 +30126,29 @@
         <v>10000</v>
       </c>
       <c r="G103" s="17" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="H103" s="17"/>
       <c r="I103" s="17" t="s">
-        <v>890</v>
+        <v>725</v>
       </c>
       <c r="J103" s="17" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="K103" s="17" t="s">
-        <v>744</v>
+        <v>642</v>
       </c>
       <c r="L103" s="17"/>
       <c r="N103" t="s">
-        <v>941</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="C104" t="s">
-        <v>1235</v>
+        <v>1242</v>
       </c>
       <c r="D104" s="17">
         <v>3</v>
@@ -30223,32 +30160,34 @@
         <v>10000</v>
       </c>
       <c r="G104" s="17" t="s">
-        <v>788</v>
-      </c>
-      <c r="H104" s="17"/>
+        <v>721</v>
+      </c>
+      <c r="H104" s="17" t="s">
+        <v>764</v>
+      </c>
       <c r="I104" s="17" t="s">
-        <v>725</v>
+        <v>1243</v>
       </c>
       <c r="J104" s="17" t="s">
-        <v>728</v>
+        <v>1017</v>
       </c>
       <c r="K104" s="17" t="s">
-        <v>642</v>
+        <v>792</v>
       </c>
       <c r="L104" s="17"/>
       <c r="N104" t="s">
-        <v>1236</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1051</v>
+        <v>1062</v>
       </c>
       <c r="C105" t="s">
-        <v>1237</v>
+        <v>1263</v>
       </c>
       <c r="D105" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E105" s="17">
         <v>1</v>
@@ -30257,255 +30196,227 @@
         <v>10000</v>
       </c>
       <c r="G105" s="17" t="s">
-        <v>794</v>
+        <v>808</v>
       </c>
       <c r="H105" s="17"/>
       <c r="I105" s="17" t="s">
-        <v>831</v>
+        <v>728</v>
       </c>
       <c r="J105" s="17" t="s">
-        <v>728</v>
+        <v>1264</v>
       </c>
       <c r="K105" s="17" t="s">
-        <v>643</v>
-      </c>
-      <c r="L105" s="17" t="s">
-        <v>841</v>
-      </c>
+        <v>1140</v>
+      </c>
+      <c r="L105" s="17"/>
       <c r="N105" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C106" t="s">
-        <v>1238</v>
+        <v>1062</v>
+      </c>
+      <c r="B106" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>2118</v>
       </c>
       <c r="D106" s="17">
+        <v>3</v>
+      </c>
+      <c r="E106" s="17">
         <v>4</v>
       </c>
-      <c r="E106" s="17">
-        <v>1</v>
-      </c>
       <c r="F106" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G106" s="17" t="s">
-        <v>790</v>
-      </c>
-      <c r="H106" s="17"/>
-      <c r="I106" s="17" t="s">
-        <v>1239</v>
-      </c>
-      <c r="J106" s="17" t="s">
-        <v>1240</v>
-      </c>
-      <c r="K106" s="17" t="s">
-        <v>661</v>
-      </c>
-      <c r="L106" s="17"/>
-      <c r="N106" t="s">
-        <v>1196</v>
+        <v>50</v>
+      </c>
+      <c r="G106" t="s">
+        <v>2119</v>
+      </c>
+      <c r="H106" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I106" t="s">
+        <v>2120</v>
+      </c>
+      <c r="J106" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B107" s="17" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C107" s="17" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D107">
+        <v>272</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D107" s="17">
+        <v>3</v>
+      </c>
+      <c r="E107" s="17">
         <v>1</v>
       </c>
-      <c r="E107" s="17">
-        <v>4</v>
-      </c>
       <c r="F107" s="17">
-        <v>50</v>
-      </c>
-      <c r="G107" t="s">
-        <v>1057</v>
-      </c>
-      <c r="I107" t="s">
-        <v>925</v>
-      </c>
-      <c r="J107" t="s">
-        <v>2188</v>
-      </c>
-      <c r="K107" t="s">
-        <v>642</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="G107" s="17" t="s">
+        <v>701</v>
+      </c>
+      <c r="H107" s="17"/>
+      <c r="I107" s="17" t="s">
+        <v>836</v>
+      </c>
+      <c r="J107" s="17" t="s">
+        <v>764</v>
+      </c>
+      <c r="K107" s="17"/>
+      <c r="L107" s="17"/>
       <c r="N107" t="s">
-        <v>1058</v>
-      </c>
-      <c r="P107" t="s">
-        <v>884</v>
+        <v>941</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B108" s="17" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C108" s="17" t="s">
-        <v>1060</v>
+        <v>272</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1275</v>
       </c>
       <c r="D108">
-        <v>2</v>
-      </c>
-      <c r="E108" s="17">
-        <v>1</v>
-      </c>
-      <c r="F108" s="17">
-        <v>10000</v>
+        <v>3</v>
+      </c>
+      <c r="E108">
+        <v>3</v>
+      </c>
+      <c r="F108">
+        <v>250</v>
       </c>
       <c r="G108" t="s">
-        <v>643</v>
+        <v>701</v>
+      </c>
+      <c r="H108" t="s">
+        <v>1276</v>
       </c>
       <c r="I108" t="s">
-        <v>881</v>
+        <v>794</v>
       </c>
       <c r="J108" t="s">
-        <v>724</v>
-      </c>
-      <c r="K108" t="s">
-        <v>949</v>
-      </c>
-      <c r="L108" t="s">
-        <v>890</v>
+        <v>629</v>
       </c>
       <c r="N108" t="s">
-        <v>1061</v>
-      </c>
-      <c r="P108" t="s">
-        <v>884</v>
+        <v>941</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>1054</v>
+        <v>272</v>
       </c>
       <c r="C109" t="s">
-        <v>1241</v>
-      </c>
-      <c r="D109" s="17">
-        <v>2</v>
-      </c>
-      <c r="E109" s="17">
-        <v>1</v>
-      </c>
-      <c r="F109" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G109" s="17" t="s">
-        <v>721</v>
-      </c>
-      <c r="H109" s="17" t="s">
-        <v>764</v>
-      </c>
-      <c r="I109" s="17" t="s">
-        <v>747</v>
-      </c>
-      <c r="J109" s="17" t="s">
-        <v>1139</v>
-      </c>
-      <c r="K109" s="17" t="s">
-        <v>736</v>
-      </c>
-      <c r="L109" s="17"/>
+        <v>1277</v>
+      </c>
+      <c r="D109">
+        <v>3</v>
+      </c>
+      <c r="E109">
+        <v>3</v>
+      </c>
+      <c r="F109">
+        <v>250</v>
+      </c>
+      <c r="G109" t="s">
+        <v>701</v>
+      </c>
+      <c r="H109" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I109" t="s">
+        <v>792</v>
+      </c>
+      <c r="J109" t="s">
+        <v>890</v>
+      </c>
       <c r="N109" t="s">
-        <v>902</v>
+        <v>941</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>1054</v>
+        <v>272</v>
       </c>
       <c r="C110" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D110" s="17">
+        <v>1279</v>
+      </c>
+      <c r="D110">
         <v>3</v>
       </c>
-      <c r="E110" s="17">
-        <v>1</v>
-      </c>
-      <c r="F110" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G110" s="17" t="s">
-        <v>721</v>
-      </c>
-      <c r="H110" s="17" t="s">
-        <v>764</v>
-      </c>
-      <c r="I110" s="17" t="s">
-        <v>1243</v>
-      </c>
-      <c r="J110" s="17" t="s">
-        <v>1017</v>
-      </c>
-      <c r="K110" s="17" t="s">
-        <v>792</v>
-      </c>
-      <c r="L110" s="17"/>
+      <c r="E110">
+        <v>3</v>
+      </c>
+      <c r="F110">
+        <v>250</v>
+      </c>
+      <c r="G110" t="s">
+        <v>701</v>
+      </c>
+      <c r="H110" t="s">
+        <v>1280</v>
+      </c>
+      <c r="I110" t="s">
+        <v>790</v>
+      </c>
+      <c r="J110" t="s">
+        <v>661</v>
+      </c>
       <c r="N110" t="s">
-        <v>1244</v>
+        <v>941</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1054</v>
+        <v>272</v>
       </c>
       <c r="C111" t="s">
-        <v>1245</v>
-      </c>
-      <c r="D111" s="17">
-        <v>4</v>
-      </c>
-      <c r="E111" s="17">
-        <v>1</v>
-      </c>
-      <c r="F111" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G111" s="17" t="s">
-        <v>721</v>
-      </c>
-      <c r="H111" s="17"/>
-      <c r="I111" s="17" t="s">
-        <v>881</v>
-      </c>
-      <c r="J111" s="17" t="s">
-        <v>1046</v>
-      </c>
-      <c r="K111" s="17" t="s">
-        <v>1246</v>
-      </c>
-      <c r="L111" s="17" t="s">
-        <v>840</v>
+        <v>1281</v>
+      </c>
+      <c r="D111">
+        <v>3</v>
+      </c>
+      <c r="E111">
+        <v>3</v>
+      </c>
+      <c r="F111">
+        <v>250</v>
+      </c>
+      <c r="G111" t="s">
+        <v>701</v>
+      </c>
+      <c r="H111" t="s">
+        <v>944</v>
+      </c>
+      <c r="I111" t="s">
+        <v>788</v>
+      </c>
+      <c r="J111" t="s">
+        <v>642</v>
       </c>
       <c r="N111" t="s">
-        <v>1247</v>
+        <v>941</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C112" t="s">
-        <v>1248</v>
+        <v>1083</v>
+      </c>
+      <c r="B112" s="17" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C112" s="17" t="s">
+        <v>1085</v>
       </c>
       <c r="D112" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E112" s="17">
         <v>1</v>
@@ -30513,38 +30424,37 @@
       <c r="F112" s="17">
         <v>10000</v>
       </c>
-      <c r="G112" s="17" t="s">
-        <v>788</v>
-      </c>
-      <c r="H112" s="17"/>
-      <c r="I112" s="17" t="s">
-        <v>725</v>
-      </c>
-      <c r="J112" s="17" t="s">
-        <v>1249</v>
-      </c>
-      <c r="K112" s="17" t="s">
-        <v>642</v>
-      </c>
-      <c r="L112" s="17" t="s">
-        <v>1250</v>
+      <c r="G112" t="s">
+        <v>905</v>
+      </c>
+      <c r="I112" t="s">
+        <v>691</v>
+      </c>
+      <c r="J112" t="s">
+        <v>1086</v>
+      </c>
+      <c r="K112" t="s">
+        <v>752</v>
       </c>
       <c r="N112" t="s">
-        <v>1251</v>
+        <v>951</v>
+      </c>
+      <c r="P112" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>1062</v>
+        <v>1083</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>1063</v>
+        <v>1087</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>1064</v>
+        <v>1088</v>
       </c>
       <c r="D113" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E113" s="17">
         <v>1</v>
@@ -30553,19 +30463,19 @@
         <v>10000</v>
       </c>
       <c r="G113" t="s">
-        <v>1065</v>
+        <v>894</v>
       </c>
       <c r="I113" t="s">
-        <v>710</v>
+        <v>803</v>
       </c>
       <c r="J113" t="s">
-        <v>1066</v>
+        <v>1089</v>
       </c>
       <c r="K113" t="s">
-        <v>1067</v>
+        <v>853</v>
       </c>
       <c r="N113" t="s">
-        <v>1038</v>
+        <v>951</v>
       </c>
       <c r="P113" t="s">
         <v>884</v>
@@ -30573,34 +30483,40 @@
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1062</v>
+        <v>1083</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>1068</v>
+        <v>1090</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>1069</v>
+        <v>1091</v>
       </c>
       <c r="D114" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E114" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F114" s="17">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="G114" t="s">
-        <v>739</v>
-      </c>
-      <c r="H114" t="s">
-        <v>733</v>
-      </c>
-      <c r="I114" s="17" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J114" s="17" t="s">
-        <v>808</v>
+        <v>888</v>
+      </c>
+      <c r="I114" t="s">
+        <v>948</v>
+      </c>
+      <c r="J114" t="s">
+        <v>844</v>
+      </c>
+      <c r="K114" t="s">
+        <v>903</v>
+      </c>
+      <c r="L114" t="s">
+        <v>971</v>
+      </c>
+      <c r="N114" t="s">
+        <v>951</v>
       </c>
       <c r="P114" t="s">
         <v>884</v>
@@ -30608,85 +30524,86 @@
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B115" s="17" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C115" s="17" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D115" s="17">
-        <v>5</v>
-      </c>
-      <c r="E115" s="17">
-        <v>4</v>
-      </c>
-      <c r="F115" s="17">
+        <v>1083</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D115">
+        <v>3</v>
+      </c>
+      <c r="E115">
         <v>1</v>
       </c>
+      <c r="F115">
+        <v>10000</v>
+      </c>
       <c r="G115" t="s">
-        <v>921</v>
+        <v>2157</v>
       </c>
       <c r="I115" t="s">
-        <v>2188</v>
+        <v>674</v>
       </c>
       <c r="J115" t="s">
-        <v>1073</v>
+        <v>787</v>
       </c>
       <c r="K115" t="s">
-        <v>1074</v>
+        <v>1283</v>
       </c>
       <c r="N115" t="s">
-        <v>1075</v>
-      </c>
-      <c r="P115" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C116" t="s">
-        <v>1252</v>
+        <v>1092</v>
+      </c>
+      <c r="B116" s="17" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C116" s="17" t="s">
+        <v>1098</v>
       </c>
       <c r="D116" s="17">
+        <v>3</v>
+      </c>
+      <c r="E116" s="17">
         <v>1</v>
       </c>
-      <c r="E116" s="17">
-        <v>4</v>
-      </c>
       <c r="F116" s="17">
-        <v>50</v>
-      </c>
-      <c r="G116" s="17" t="s">
-        <v>721</v>
-      </c>
-      <c r="H116" s="17"/>
-      <c r="I116" s="17" t="s">
-        <v>747</v>
-      </c>
-      <c r="J116" s="17" t="s">
-        <v>661</v>
-      </c>
-      <c r="K116" s="17" t="s">
-        <v>705</v>
-      </c>
-      <c r="L116" s="17"/>
+        <v>10000</v>
+      </c>
+      <c r="G116" t="s">
+        <v>1099</v>
+      </c>
+      <c r="I116" t="s">
+        <v>1100</v>
+      </c>
+      <c r="J116" t="s">
+        <v>1101</v>
+      </c>
+      <c r="K116" t="s">
+        <v>1102</v>
+      </c>
+      <c r="L116" t="s">
+        <v>1103</v>
+      </c>
       <c r="N116" t="s">
-        <v>902</v>
+        <v>1096</v>
+      </c>
+      <c r="P116" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C117" t="s">
-        <v>1253</v>
+        <v>1092</v>
+      </c>
+      <c r="C117" s="17" t="s">
+        <v>1300</v>
       </c>
       <c r="D117" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E117" s="17">
         <v>1</v>
@@ -30694,364 +30611,384 @@
       <c r="F117" s="17">
         <v>10000</v>
       </c>
-      <c r="G117" s="17" t="s">
-        <v>808</v>
-      </c>
-      <c r="H117" s="17"/>
-      <c r="I117" s="17" t="s">
+      <c r="G117" t="s">
+        <v>880</v>
+      </c>
+      <c r="I117" t="s">
         <v>1254</v>
       </c>
-      <c r="J117" s="17" t="s">
-        <v>901</v>
-      </c>
-      <c r="K117" s="17" t="s">
-        <v>744</v>
-      </c>
-      <c r="L117" s="17"/>
+      <c r="J117" t="s">
+        <v>1301</v>
+      </c>
       <c r="N117" t="s">
-        <v>1255</v>
+        <v>883</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C118" t="s">
-        <v>1256</v>
+        <v>1092</v>
+      </c>
+      <c r="C118" s="17" t="s">
+        <v>1302</v>
       </c>
       <c r="D118" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E118" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F118" s="17">
-        <v>50</v>
-      </c>
-      <c r="G118" s="17" t="s">
-        <v>794</v>
-      </c>
-      <c r="H118" s="17"/>
-      <c r="I118" s="17" t="s">
-        <v>710</v>
-      </c>
-      <c r="J118" s="17" t="s">
-        <v>948</v>
-      </c>
-      <c r="K118" s="17" t="s">
-        <v>1257</v>
-      </c>
-      <c r="L118" s="17"/>
+        <v>250</v>
+      </c>
+      <c r="G118" t="s">
+        <v>2172</v>
+      </c>
+      <c r="I118" t="s">
+        <v>1022</v>
+      </c>
+      <c r="J118" t="s">
+        <v>901</v>
+      </c>
+      <c r="K118" t="s">
+        <v>985</v>
+      </c>
       <c r="N118" t="s">
-        <v>951</v>
-      </c>
-      <c r="O118" t="s">
-        <v>884</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C119" t="s">
-        <v>1258</v>
+        <v>1092</v>
+      </c>
+      <c r="C119" s="17" t="s">
+        <v>1304</v>
       </c>
       <c r="D119" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E119" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F119" s="17">
-        <v>50</v>
-      </c>
-      <c r="G119" s="17" t="s">
-        <v>792</v>
-      </c>
-      <c r="H119" s="17"/>
-      <c r="I119" s="17" t="s">
-        <v>710</v>
-      </c>
-      <c r="J119" s="17" t="s">
-        <v>948</v>
-      </c>
-      <c r="K119" s="17" t="s">
-        <v>1233</v>
-      </c>
-      <c r="L119" s="17"/>
+        <v>250</v>
+      </c>
+      <c r="G119" t="s">
+        <v>2174</v>
+      </c>
+      <c r="I119" t="s">
+        <v>1022</v>
+      </c>
+      <c r="J119" t="s">
+        <v>674</v>
+      </c>
+      <c r="K119" t="s">
+        <v>895</v>
+      </c>
       <c r="N119" t="s">
-        <v>951</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C120" t="s">
-        <v>1259</v>
+        <v>877</v>
+      </c>
+      <c r="B120" s="17" t="s">
+        <v>892</v>
+      </c>
+      <c r="C120" s="17" t="s">
+        <v>893</v>
       </c>
       <c r="D120" s="17">
-        <v>2</v>
-      </c>
-      <c r="E120" s="17">
         <v>4</v>
       </c>
-      <c r="F120" s="17">
-        <v>50</v>
-      </c>
-      <c r="G120" s="17" t="s">
-        <v>790</v>
-      </c>
-      <c r="H120" s="17"/>
-      <c r="I120" s="17" t="s">
-        <v>710</v>
-      </c>
-      <c r="J120" s="17" t="s">
-        <v>948</v>
-      </c>
-      <c r="K120" s="17" t="s">
-        <v>1260</v>
-      </c>
-      <c r="L120" s="17"/>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>10000</v>
+      </c>
+      <c r="G120" t="s">
+        <v>2174</v>
+      </c>
+      <c r="I120" t="s">
+        <v>788</v>
+      </c>
+      <c r="J120" t="s">
+        <v>803</v>
+      </c>
+      <c r="K120" t="s">
+        <v>853</v>
+      </c>
+      <c r="L120" s="17" t="s">
+        <v>896</v>
+      </c>
+      <c r="M120" t="s">
+        <v>2175</v>
+      </c>
       <c r="N120" t="s">
-        <v>951</v>
+        <v>883</v>
+      </c>
+      <c r="P120" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C121" t="s">
-        <v>1261</v>
+        <v>897</v>
+      </c>
+      <c r="B121" s="17" t="s">
+        <v>2167</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>2171</v>
       </c>
       <c r="D121" s="17">
-        <v>2</v>
-      </c>
-      <c r="E121" s="17">
         <v>4</v>
       </c>
-      <c r="F121" s="17">
-        <v>50</v>
-      </c>
-      <c r="G121" s="17" t="s">
-        <v>788</v>
-      </c>
-      <c r="H121" s="17"/>
-      <c r="I121" s="17" t="s">
-        <v>710</v>
-      </c>
-      <c r="J121" s="17" t="s">
-        <v>948</v>
-      </c>
-      <c r="K121" s="17" t="s">
-        <v>1158</v>
-      </c>
-      <c r="L121" s="17"/>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>10000</v>
+      </c>
+      <c r="G121" t="s">
+        <v>2172</v>
+      </c>
+      <c r="H121" t="s">
+        <v>905</v>
+      </c>
+      <c r="I121" t="s">
+        <v>831</v>
+      </c>
+      <c r="J121" t="s">
+        <v>750</v>
+      </c>
+      <c r="K121" t="s">
+        <v>906</v>
+      </c>
+      <c r="L121" s="17" t="s">
+        <v>896</v>
+      </c>
       <c r="N121" t="s">
-        <v>951</v>
+        <v>902</v>
+      </c>
+      <c r="P121" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C122" t="s">
-        <v>1262</v>
+        <v>897</v>
+      </c>
+      <c r="B122" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>2156</v>
       </c>
       <c r="D122" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E122" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F122" s="17">
-        <v>2500</v>
-      </c>
-      <c r="G122" s="17" t="s">
-        <v>764</v>
-      </c>
-      <c r="H122" s="17"/>
-      <c r="I122" s="17" t="s">
-        <v>636</v>
-      </c>
-      <c r="J122" s="17" t="s">
-        <v>765</v>
-      </c>
-      <c r="K122" s="17" t="s">
-        <v>948</v>
-      </c>
-      <c r="L122" s="17"/>
+        <v>250</v>
+      </c>
+      <c r="G122" t="s">
+        <v>2157</v>
+      </c>
+      <c r="I122" t="s">
+        <v>2158</v>
+      </c>
+      <c r="J122" t="s">
+        <v>949</v>
+      </c>
+      <c r="K122" t="s">
+        <v>1067</v>
+      </c>
+      <c r="L122" t="s">
+        <v>800</v>
+      </c>
+      <c r="M122" t="s">
+        <v>2159</v>
+      </c>
       <c r="N122" t="s">
-        <v>1038</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C123" t="s">
-        <v>1263</v>
+        <v>907</v>
+      </c>
+      <c r="B123" s="17"/>
+      <c r="C123" s="17" t="s">
+        <v>1147</v>
       </c>
       <c r="D123" s="17">
-        <v>3</v>
-      </c>
-      <c r="E123" s="17">
-        <v>1</v>
-      </c>
-      <c r="F123" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G123" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="F123">
+        <v>2500</v>
+      </c>
+      <c r="G123" t="s">
         <v>808</v>
       </c>
-      <c r="H123" s="17"/>
-      <c r="I123" s="17" t="s">
-        <v>728</v>
-      </c>
-      <c r="J123" s="17" t="s">
-        <v>1264</v>
-      </c>
-      <c r="K123" s="17" t="s">
-        <v>1140</v>
-      </c>
-      <c r="L123" s="17"/>
+      <c r="I123" t="s">
+        <v>921</v>
+      </c>
       <c r="N123" t="s">
-        <v>912</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C124" t="s">
-        <v>1265</v>
+        <v>907</v>
+      </c>
+      <c r="B124" s="17"/>
+      <c r="C124" s="17" t="s">
+        <v>1149</v>
       </c>
       <c r="D124" s="17">
         <v>4</v>
       </c>
-      <c r="E124" s="17">
-        <v>4</v>
-      </c>
-      <c r="F124" s="17">
-        <v>50</v>
-      </c>
-      <c r="G124" s="17" t="s">
-        <v>755</v>
-      </c>
-      <c r="H124" s="17"/>
-      <c r="I124" s="17" t="s">
-        <v>1266</v>
-      </c>
-      <c r="J124" s="17" t="s">
-        <v>1267</v>
-      </c>
-      <c r="K124" s="17" t="s">
-        <v>1268</v>
-      </c>
-      <c r="L124" s="17"/>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>10000</v>
+      </c>
+      <c r="G124" t="s">
+        <v>790</v>
+      </c>
+      <c r="H124" t="s">
+        <v>794</v>
+      </c>
+      <c r="I124" t="s">
+        <v>739</v>
+      </c>
+      <c r="J124" t="s">
+        <v>724</v>
+      </c>
+      <c r="K124" t="s">
+        <v>992</v>
+      </c>
       <c r="N124" t="s">
-        <v>978</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C125" t="s">
-        <v>1269</v>
-      </c>
-      <c r="D125" s="17">
-        <v>5</v>
+        <v>918</v>
+      </c>
+      <c r="B125" s="17" t="s">
+        <v>923</v>
+      </c>
+      <c r="C125" s="17" t="s">
+        <v>924</v>
+      </c>
+      <c r="D125">
+        <v>4</v>
       </c>
       <c r="E125" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F125" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G125" s="17" t="s">
-        <v>1270</v>
-      </c>
-      <c r="H125" s="17" t="s">
-        <v>1271</v>
-      </c>
-      <c r="I125" s="17" t="s">
-        <v>970</v>
-      </c>
-      <c r="J125" s="17" t="s">
-        <v>1272</v>
-      </c>
-      <c r="K125" s="17"/>
-      <c r="L125" s="17"/>
+        <v>250</v>
+      </c>
+      <c r="G125" t="s">
+        <v>903</v>
+      </c>
+      <c r="I125" t="s">
+        <v>691</v>
+      </c>
+      <c r="J125" t="s">
+        <v>925</v>
+      </c>
+      <c r="K125" t="s">
+        <v>688</v>
+      </c>
       <c r="N125" t="s">
-        <v>1124</v>
+        <v>926</v>
+      </c>
+      <c r="P125" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B126" t="s">
-        <v>2117</v>
+        <v>918</v>
+      </c>
+      <c r="B126" s="17" t="s">
+        <v>923</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>2118</v>
-      </c>
-      <c r="D126" s="17">
+        <v>927</v>
+      </c>
+      <c r="D126">
+        <v>4</v>
+      </c>
+      <c r="E126" s="17">
         <v>3</v>
       </c>
-      <c r="E126" s="17">
-        <v>4</v>
-      </c>
       <c r="F126" s="17">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G126" t="s">
-        <v>2119</v>
-      </c>
-      <c r="H126" t="s">
-        <v>1066</v>
+        <v>928</v>
       </c>
       <c r="I126" t="s">
-        <v>2120</v>
+        <v>691</v>
       </c>
       <c r="J126" t="s">
-        <v>692</v>
+        <v>925</v>
+      </c>
+      <c r="K126" t="s">
+        <v>688</v>
+      </c>
+      <c r="N126" t="s">
+        <v>929</v>
+      </c>
+      <c r="P126" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>272</v>
+        <v>918</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>1076</v>
+        <v>923</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>1077</v>
+        <v>930</v>
       </c>
       <c r="D127">
-        <v>1</v>
-      </c>
-      <c r="E127">
-        <v>1</v>
-      </c>
-      <c r="F127">
-        <v>10000</v>
+        <v>4</v>
+      </c>
+      <c r="E127" s="17">
+        <v>3</v>
+      </c>
+      <c r="F127" s="17">
+        <v>250</v>
       </c>
       <c r="G127" t="s">
-        <v>701</v>
+        <v>841</v>
       </c>
       <c r="I127" t="s">
-        <v>721</v>
+        <v>691</v>
       </c>
       <c r="J127" t="s">
-        <v>629</v>
+        <v>925</v>
       </c>
       <c r="K127" t="s">
-        <v>674</v>
+        <v>688</v>
       </c>
       <c r="N127" t="s">
-        <v>1078</v>
+        <v>931</v>
       </c>
       <c r="P127" t="s">
         <v>884</v>
@@ -31059,37 +30996,37 @@
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>272</v>
+        <v>918</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>1079</v>
+        <v>923</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>1080</v>
+        <v>932</v>
       </c>
       <c r="D128">
-        <v>1</v>
-      </c>
-      <c r="E128">
-        <v>1</v>
-      </c>
-      <c r="F128">
-        <v>10000</v>
+        <v>4</v>
+      </c>
+      <c r="E128" s="17">
+        <v>3</v>
+      </c>
+      <c r="F128" s="17">
+        <v>250</v>
       </c>
       <c r="G128" t="s">
-        <v>701</v>
+        <v>840</v>
       </c>
       <c r="I128" t="s">
-        <v>1005</v>
+        <v>691</v>
       </c>
       <c r="J128" t="s">
-        <v>784</v>
+        <v>925</v>
       </c>
       <c r="K128" t="s">
-        <v>823</v>
+        <v>688</v>
       </c>
       <c r="N128" t="s">
-        <v>1078</v>
+        <v>933</v>
       </c>
       <c r="P128" t="s">
         <v>884</v>
@@ -31097,37 +31034,37 @@
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>272</v>
+        <v>918</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>1081</v>
+        <v>923</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>1082</v>
+        <v>934</v>
       </c>
       <c r="D129">
-        <v>1</v>
-      </c>
-      <c r="E129">
-        <v>1</v>
-      </c>
-      <c r="F129">
-        <v>10000</v>
+        <v>4</v>
+      </c>
+      <c r="E129" s="17">
+        <v>3</v>
+      </c>
+      <c r="F129" s="17">
+        <v>250</v>
       </c>
       <c r="G129" t="s">
-        <v>701</v>
+        <v>845</v>
       </c>
       <c r="I129" t="s">
-        <v>890</v>
+        <v>691</v>
       </c>
       <c r="J129" t="s">
-        <v>764</v>
+        <v>925</v>
       </c>
       <c r="K129" t="s">
-        <v>736</v>
+        <v>688</v>
       </c>
       <c r="N129" t="s">
-        <v>1078</v>
+        <v>935</v>
       </c>
       <c r="P129" t="s">
         <v>884</v>
@@ -31135,229 +31072,276 @@
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>272</v>
-      </c>
-      <c r="C130" t="s">
-        <v>1273</v>
+        <v>918</v>
+      </c>
+      <c r="B130" s="17" t="s">
+        <v>923</v>
+      </c>
+      <c r="C130" s="17" t="s">
+        <v>936</v>
       </c>
       <c r="D130">
-        <v>2</v>
-      </c>
-      <c r="E130">
-        <v>1</v>
-      </c>
-      <c r="F130">
-        <v>10000</v>
+        <v>4</v>
+      </c>
+      <c r="E130" s="17">
+        <v>3</v>
+      </c>
+      <c r="F130" s="17">
+        <v>250</v>
       </c>
       <c r="G130" t="s">
-        <v>701</v>
+        <v>823</v>
       </c>
       <c r="I130" t="s">
+        <v>691</v>
+      </c>
+      <c r="J130" t="s">
+        <v>925</v>
+      </c>
+      <c r="K130" t="s">
         <v>688</v>
       </c>
-      <c r="J130" t="s">
-        <v>820</v>
-      </c>
-      <c r="K130" t="s">
-        <v>881</v>
-      </c>
       <c r="N130" t="s">
-        <v>912</v>
+        <v>937</v>
+      </c>
+      <c r="P130" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>272</v>
-      </c>
-      <c r="C131" t="s">
-        <v>1274</v>
+        <v>938</v>
+      </c>
+      <c r="B131" s="17" t="s">
+        <v>945</v>
+      </c>
+      <c r="C131" s="17" t="s">
+        <v>946</v>
       </c>
       <c r="D131" s="17">
+        <v>4</v>
+      </c>
+      <c r="E131" s="17">
         <v>3</v>
       </c>
-      <c r="E131" s="17">
-        <v>1</v>
-      </c>
       <c r="F131" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G131" s="17" t="s">
-        <v>701</v>
-      </c>
-      <c r="H131" s="17"/>
-      <c r="I131" s="17" t="s">
-        <v>836</v>
-      </c>
-      <c r="J131" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="G131" t="s">
         <v>764</v>
       </c>
-      <c r="K131" s="17"/>
-      <c r="L131" s="17"/>
+      <c r="I131" t="s">
+        <v>947</v>
+      </c>
+      <c r="J131" t="s">
+        <v>948</v>
+      </c>
+      <c r="K131" t="s">
+        <v>1240</v>
+      </c>
+      <c r="L131" t="s">
+        <v>950</v>
+      </c>
       <c r="N131" t="s">
-        <v>941</v>
+        <v>951</v>
+      </c>
+      <c r="P131" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>272</v>
-      </c>
-      <c r="C132" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D132">
+        <v>965</v>
+      </c>
+      <c r="B132" s="17" t="s">
+        <v>973</v>
+      </c>
+      <c r="C132" s="17" t="s">
+        <v>974</v>
+      </c>
+      <c r="D132" s="17">
+        <v>4</v>
+      </c>
+      <c r="E132" s="17">
         <v>3</v>
       </c>
-      <c r="E132">
-        <v>3</v>
-      </c>
-      <c r="F132">
+      <c r="F132" s="17">
         <v>250</v>
       </c>
       <c r="G132" t="s">
-        <v>701</v>
-      </c>
-      <c r="H132" t="s">
-        <v>1276</v>
+        <v>764</v>
       </c>
       <c r="I132" t="s">
-        <v>794</v>
+        <v>643</v>
       </c>
       <c r="J132" t="s">
-        <v>629</v>
+        <v>691</v>
+      </c>
+      <c r="K132" t="s">
+        <v>739</v>
+      </c>
+      <c r="L132" s="17" t="s">
+        <v>2195</v>
       </c>
       <c r="N132" t="s">
         <v>941</v>
       </c>
+      <c r="P132" t="s">
+        <v>884</v>
+      </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>272</v>
-      </c>
-      <c r="C133" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D133">
-        <v>3</v>
+        <v>975</v>
+      </c>
+      <c r="B133" s="17" t="s">
+        <v>979</v>
+      </c>
+      <c r="C133" s="17" t="s">
+        <v>980</v>
+      </c>
+      <c r="D133" s="17">
+        <v>4</v>
       </c>
       <c r="E133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F133">
-        <v>250</v>
+        <v>10000</v>
       </c>
       <c r="G133" t="s">
-        <v>701</v>
-      </c>
-      <c r="H133" t="s">
-        <v>1278</v>
+        <v>888</v>
       </c>
       <c r="I133" t="s">
-        <v>792</v>
+        <v>910</v>
       </c>
       <c r="J133" t="s">
-        <v>890</v>
+        <v>806</v>
+      </c>
+      <c r="K133" t="s">
+        <v>861</v>
+      </c>
+      <c r="L133" t="s">
+        <v>642</v>
       </c>
       <c r="N133" t="s">
-        <v>941</v>
+        <v>978</v>
+      </c>
+      <c r="P133" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>272</v>
+        <v>996</v>
       </c>
       <c r="C134" t="s">
-        <v>1279</v>
-      </c>
-      <c r="D134">
-        <v>3</v>
+        <v>1187</v>
+      </c>
+      <c r="D134" s="17">
+        <v>4</v>
       </c>
       <c r="E134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F134">
-        <v>250</v>
+        <v>10000</v>
       </c>
       <c r="G134" t="s">
-        <v>701</v>
+        <v>721</v>
       </c>
       <c r="H134" t="s">
-        <v>1280</v>
+        <v>900</v>
       </c>
       <c r="I134" t="s">
-        <v>790</v>
+        <v>643</v>
       </c>
       <c r="J134" t="s">
+        <v>705</v>
+      </c>
+      <c r="K134" t="s">
         <v>661</v>
       </c>
+      <c r="L134" t="s">
+        <v>845</v>
+      </c>
       <c r="N134" t="s">
-        <v>941</v>
+        <v>902</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>272</v>
+        <v>1032</v>
       </c>
       <c r="C135" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D135">
-        <v>3</v>
-      </c>
-      <c r="E135">
-        <v>3</v>
-      </c>
-      <c r="F135">
-        <v>250</v>
-      </c>
-      <c r="G135" t="s">
-        <v>701</v>
-      </c>
-      <c r="H135" t="s">
-        <v>944</v>
-      </c>
-      <c r="I135" t="s">
-        <v>788</v>
-      </c>
-      <c r="J135" t="s">
-        <v>642</v>
-      </c>
+        <v>1209</v>
+      </c>
+      <c r="D135" s="17">
+        <v>4</v>
+      </c>
+      <c r="E135" s="17">
+        <v>1</v>
+      </c>
+      <c r="F135" s="17">
+        <v>10000</v>
+      </c>
+      <c r="G135" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="H135" s="17"/>
+      <c r="I135" s="17" t="s">
+        <v>1156</v>
+      </c>
+      <c r="J135" s="17" t="s">
+        <v>728</v>
+      </c>
+      <c r="K135" s="17" t="s">
+        <v>736</v>
+      </c>
+      <c r="L135" s="17"/>
       <c r="N135" t="s">
-        <v>941</v>
+        <v>912</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>1083</v>
+        <v>1051</v>
       </c>
       <c r="B136" s="17" t="s">
-        <v>1084</v>
+        <v>1052</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>1085</v>
+        <v>1053</v>
       </c>
       <c r="D136" s="17">
+        <v>4</v>
+      </c>
+      <c r="E136" s="17">
         <v>3</v>
       </c>
-      <c r="E136" s="17">
-        <v>1</v>
-      </c>
       <c r="F136" s="17">
-        <v>10000</v>
+        <v>250</v>
       </c>
       <c r="G136" t="s">
-        <v>905</v>
+        <v>721</v>
+      </c>
+      <c r="H136" t="s">
+        <v>764</v>
       </c>
       <c r="I136" t="s">
-        <v>691</v>
+        <v>706</v>
       </c>
       <c r="J136" t="s">
-        <v>1086</v>
+        <v>890</v>
       </c>
       <c r="K136" t="s">
-        <v>752</v>
+        <v>792</v>
+      </c>
+      <c r="L136" t="s">
+        <v>903</v>
       </c>
       <c r="N136" t="s">
-        <v>951</v>
+        <v>1050</v>
       </c>
       <c r="P136" t="s">
         <v>884</v>
@@ -31365,16 +31349,13 @@
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B137" s="17" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C137" s="17" t="s">
-        <v>1088</v>
+        <v>1051</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1237</v>
       </c>
       <c r="D137" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E137" s="17">
         <v>1</v>
@@ -31382,37 +31363,35 @@
       <c r="F137" s="17">
         <v>10000</v>
       </c>
-      <c r="G137" t="s">
-        <v>894</v>
-      </c>
-      <c r="I137" t="s">
-        <v>803</v>
-      </c>
-      <c r="J137" t="s">
-        <v>1089</v>
-      </c>
-      <c r="K137" t="s">
-        <v>853</v>
+      <c r="G137" s="17" t="s">
+        <v>794</v>
+      </c>
+      <c r="H137" s="17"/>
+      <c r="I137" s="17" t="s">
+        <v>831</v>
+      </c>
+      <c r="J137" s="17" t="s">
+        <v>728</v>
+      </c>
+      <c r="K137" s="17" t="s">
+        <v>643</v>
+      </c>
+      <c r="L137" s="17" t="s">
+        <v>841</v>
       </c>
       <c r="N137" t="s">
-        <v>951</v>
-      </c>
-      <c r="P137" t="s">
-        <v>884</v>
+        <v>912</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B138" s="17" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C138" s="17" t="s">
-        <v>1091</v>
+        <v>1051</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1238</v>
       </c>
       <c r="D138" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E138" s="17">
         <v>1</v>
@@ -31420,131 +31399,128 @@
       <c r="F138" s="17">
         <v>10000</v>
       </c>
-      <c r="G138" t="s">
-        <v>888</v>
-      </c>
-      <c r="I138" t="s">
-        <v>948</v>
-      </c>
-      <c r="J138" t="s">
-        <v>844</v>
-      </c>
-      <c r="K138" t="s">
-        <v>903</v>
-      </c>
-      <c r="L138" t="s">
-        <v>971</v>
-      </c>
+      <c r="G138" s="17" t="s">
+        <v>790</v>
+      </c>
+      <c r="H138" s="17"/>
+      <c r="I138" s="17" t="s">
+        <v>1239</v>
+      </c>
+      <c r="J138" s="17" t="s">
+        <v>1240</v>
+      </c>
+      <c r="K138" s="17" t="s">
+        <v>661</v>
+      </c>
+      <c r="L138" s="17"/>
       <c r="N138" t="s">
-        <v>951</v>
-      </c>
-      <c r="P138" t="s">
-        <v>884</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>1083</v>
+        <v>1054</v>
       </c>
       <c r="C139" t="s">
-        <v>1282</v>
-      </c>
-      <c r="D139">
-        <v>2</v>
-      </c>
-      <c r="E139">
+        <v>1245</v>
+      </c>
+      <c r="D139" s="17">
+        <v>4</v>
+      </c>
+      <c r="E139" s="17">
         <v>1</v>
       </c>
-      <c r="F139">
+      <c r="F139" s="17">
         <v>10000</v>
       </c>
-      <c r="G139" t="s">
-        <v>894</v>
-      </c>
-      <c r="I139" t="s">
-        <v>697</v>
-      </c>
-      <c r="J139" t="s">
-        <v>853</v>
-      </c>
-      <c r="K139" t="s">
-        <v>1283</v>
-      </c>
-      <c r="L139" t="s">
-        <v>1284</v>
+      <c r="G139" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="H139" s="17"/>
+      <c r="I139" s="17" t="s">
+        <v>881</v>
+      </c>
+      <c r="J139" s="17" t="s">
+        <v>1046</v>
+      </c>
+      <c r="K139" s="17" t="s">
+        <v>1246</v>
+      </c>
+      <c r="L139" s="17" t="s">
+        <v>840</v>
       </c>
       <c r="N139" t="s">
-        <v>1179</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>1083</v>
+        <v>1054</v>
       </c>
       <c r="C140" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D140">
-        <v>2</v>
-      </c>
-      <c r="E140">
+        <v>1248</v>
+      </c>
+      <c r="D140" s="17">
+        <v>4</v>
+      </c>
+      <c r="E140" s="17">
         <v>1</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="17">
         <v>10000</v>
       </c>
-      <c r="G140" t="s">
-        <v>905</v>
-      </c>
-      <c r="I140" t="s">
-        <v>752</v>
-      </c>
-      <c r="J140" t="s">
-        <v>1283</v>
-      </c>
-      <c r="K140" t="s">
-        <v>736</v>
-      </c>
-      <c r="L140" t="s">
-        <v>1286</v>
+      <c r="G140" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="H140" s="17"/>
+      <c r="I140" s="17" t="s">
+        <v>725</v>
+      </c>
+      <c r="J140" s="17" t="s">
+        <v>1249</v>
+      </c>
+      <c r="K140" s="17" t="s">
+        <v>642</v>
+      </c>
+      <c r="L140" s="17" t="s">
+        <v>1250</v>
       </c>
       <c r="N140" t="s">
-        <v>1236</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>1083</v>
+        <v>1062</v>
       </c>
       <c r="C141" t="s">
-        <v>1287</v>
-      </c>
-      <c r="D141">
-        <v>2</v>
-      </c>
-      <c r="E141">
-        <v>1</v>
-      </c>
-      <c r="F141">
-        <v>10000</v>
-      </c>
-      <c r="G141" t="s">
-        <v>904</v>
-      </c>
-      <c r="I141" t="s">
-        <v>697</v>
-      </c>
-      <c r="J141" t="s">
-        <v>1257</v>
-      </c>
-      <c r="K141" t="s">
-        <v>710</v>
-      </c>
-      <c r="L141" t="s">
-        <v>1288</v>
-      </c>
+        <v>1265</v>
+      </c>
+      <c r="D141" s="17">
+        <v>4</v>
+      </c>
+      <c r="E141" s="17">
+        <v>4</v>
+      </c>
+      <c r="F141" s="17">
+        <v>50</v>
+      </c>
+      <c r="G141" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="H141" s="17"/>
+      <c r="I141" s="17" t="s">
+        <v>1266</v>
+      </c>
+      <c r="J141" s="17" t="s">
+        <v>1267</v>
+      </c>
+      <c r="K141" s="17" t="s">
+        <v>1268</v>
+      </c>
+      <c r="L141" s="17"/>
       <c r="N141" t="s">
-        <v>1244</v>
+        <v>978</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
@@ -31552,34 +31528,31 @@
         <v>1083</v>
       </c>
       <c r="C142" t="s">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F142">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="G142" t="s">
         <v>888</v>
       </c>
       <c r="I142" t="s">
-        <v>826</v>
+        <v>844</v>
       </c>
       <c r="J142" t="s">
-        <v>696</v>
+        <v>889</v>
       </c>
       <c r="K142" t="s">
-        <v>1233</v>
-      </c>
-      <c r="L142" t="s">
-        <v>1290</v>
+        <v>896</v>
       </c>
       <c r="N142" t="s">
-        <v>951</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
@@ -31587,31 +31560,31 @@
         <v>1083</v>
       </c>
       <c r="C143" t="s">
-        <v>1291</v>
+        <v>1294</v>
       </c>
       <c r="D143">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F143">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="G143" t="s">
-        <v>2157</v>
+        <v>894</v>
       </c>
       <c r="I143" t="s">
-        <v>674</v>
+        <v>803</v>
       </c>
       <c r="J143" t="s">
-        <v>787</v>
+        <v>895</v>
       </c>
       <c r="K143" t="s">
-        <v>1283</v>
+        <v>896</v>
       </c>
       <c r="N143" t="s">
-        <v>883</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
@@ -31619,7 +31592,7 @@
         <v>1083</v>
       </c>
       <c r="C144" t="s">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="D144">
         <v>4</v>
@@ -31631,13 +31604,13 @@
         <v>50</v>
       </c>
       <c r="G144" t="s">
-        <v>888</v>
+        <v>905</v>
       </c>
       <c r="I144" t="s">
-        <v>844</v>
+        <v>1086</v>
       </c>
       <c r="J144" t="s">
-        <v>889</v>
+        <v>950</v>
       </c>
       <c r="K144" t="s">
         <v>896</v>
@@ -31651,7 +31624,7 @@
         <v>1083</v>
       </c>
       <c r="C145" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="D145">
         <v>4</v>
@@ -31663,13 +31636,13 @@
         <v>50</v>
       </c>
       <c r="G145" t="s">
-        <v>894</v>
+        <v>904</v>
       </c>
       <c r="I145" t="s">
-        <v>803</v>
+        <v>984</v>
       </c>
       <c r="J145" t="s">
-        <v>895</v>
+        <v>985</v>
       </c>
       <c r="K145" t="s">
         <v>896</v>
@@ -31679,149 +31652,157 @@
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C146" t="s">
-        <v>1295</v>
-      </c>
-      <c r="D146">
+      <c r="A146" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B146" s="17" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D146" s="9">
         <v>4</v>
       </c>
-      <c r="E146">
+      <c r="E146" s="9">
+        <v>3</v>
+      </c>
+      <c r="F146" s="9">
+        <v>250</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="K146" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="L146" s="2"/>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="O146" s="2"/>
+      <c r="P146" s="2" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A147" s="8" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B147" t="s">
+        <v>2190</v>
+      </c>
+      <c r="C147" s="13" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D147" s="13">
         <v>4</v>
       </c>
-      <c r="F146">
-        <v>50</v>
-      </c>
-      <c r="G146" t="s">
-        <v>905</v>
-      </c>
-      <c r="I146" t="s">
-        <v>1086</v>
-      </c>
-      <c r="J146" t="s">
-        <v>950</v>
-      </c>
-      <c r="K146" t="s">
-        <v>896</v>
-      </c>
-      <c r="N146" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C147" t="s">
-        <v>1296</v>
-      </c>
-      <c r="D147">
-        <v>4</v>
-      </c>
-      <c r="E147">
-        <v>4</v>
-      </c>
-      <c r="F147">
-        <v>50</v>
-      </c>
-      <c r="G147" t="s">
-        <v>904</v>
+      <c r="E147" s="13">
+        <v>3</v>
+      </c>
+      <c r="F147" s="13">
+        <v>250</v>
+      </c>
+      <c r="G147" s="8" t="s">
+        <v>1057</v>
       </c>
       <c r="I147" t="s">
-        <v>984</v>
+        <v>2192</v>
       </c>
       <c r="J147" t="s">
-        <v>985</v>
+        <v>2193</v>
       </c>
       <c r="K147" t="s">
-        <v>896</v>
-      </c>
-      <c r="N147" t="s">
-        <v>1293</v>
+        <v>800</v>
+      </c>
+      <c r="L147" t="s">
+        <v>2194</v>
+      </c>
+      <c r="M147" t="s">
+        <v>2183</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B148" s="17" t="s">
-        <v>1093</v>
-      </c>
+        <v>877</v>
+      </c>
+      <c r="B148" s="17"/>
       <c r="C148" s="17" t="s">
-        <v>1094</v>
+        <v>1120</v>
       </c>
       <c r="D148" s="17">
-        <v>2</v>
-      </c>
-      <c r="E148" s="17">
+        <v>5</v>
+      </c>
+      <c r="E148">
         <v>1</v>
       </c>
-      <c r="F148" s="17">
+      <c r="F148">
         <v>10000</v>
       </c>
       <c r="G148" t="s">
-        <v>887</v>
+        <v>2174</v>
+      </c>
+      <c r="H148" t="s">
+        <v>2177</v>
       </c>
       <c r="I148" t="s">
-        <v>1022</v>
+        <v>1121</v>
       </c>
       <c r="J148" t="s">
-        <v>764</v>
+        <v>1122</v>
       </c>
       <c r="K148" t="s">
-        <v>636</v>
-      </c>
-      <c r="L148" t="s">
-        <v>710</v>
-      </c>
-      <c r="M148" t="s">
-        <v>1095</v>
+        <v>1123</v>
       </c>
       <c r="N148" t="s">
-        <v>1096</v>
-      </c>
-      <c r="P148" t="s">
-        <v>884</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>1092</v>
+        <v>907</v>
       </c>
       <c r="B149" s="17" t="s">
-        <v>1097</v>
+        <v>913</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>1098</v>
+        <v>914</v>
       </c>
       <c r="D149" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E149" s="17">
+        <v>4</v>
+      </c>
+      <c r="F149" s="17">
         <v>1</v>
       </c>
-      <c r="F149" s="17">
-        <v>10000</v>
-      </c>
       <c r="G149" t="s">
-        <v>1099</v>
+        <v>724</v>
       </c>
       <c r="I149" t="s">
-        <v>1100</v>
+        <v>915</v>
       </c>
       <c r="J149" t="s">
-        <v>1101</v>
+        <v>916</v>
       </c>
       <c r="K149" t="s">
-        <v>1102</v>
+        <v>800</v>
       </c>
       <c r="L149" t="s">
-        <v>1103</v>
+        <v>917</v>
       </c>
       <c r="N149" t="s">
-        <v>1096</v>
+        <v>912</v>
       </c>
       <c r="P149" t="s">
         <v>884</v>
@@ -31829,13 +31810,13 @@
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>1092</v>
+        <v>938</v>
       </c>
       <c r="B150" s="17" t="s">
-        <v>1104</v>
+        <v>952</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>1105</v>
+        <v>953</v>
       </c>
       <c r="D150" s="17">
         <v>5</v>
@@ -31843,29 +31824,29 @@
       <c r="E150" s="17">
         <v>4</v>
       </c>
-      <c r="F150" s="17">
+      <c r="F150">
         <v>50</v>
       </c>
       <c r="G150" t="s">
-        <v>880</v>
+        <v>2143</v>
       </c>
       <c r="I150" t="s">
-        <v>800</v>
+        <v>954</v>
       </c>
       <c r="J150" t="s">
-        <v>724</v>
+        <v>629</v>
       </c>
       <c r="K150" t="s">
-        <v>794</v>
+        <v>955</v>
       </c>
       <c r="L150" t="s">
-        <v>1106</v>
+        <v>956</v>
       </c>
       <c r="M150" t="s">
-        <v>896</v>
+        <v>765</v>
       </c>
       <c r="N150" t="s">
-        <v>1107</v>
+        <v>957</v>
       </c>
       <c r="P150" t="s">
         <v>884</v>
@@ -31873,400 +31854,422 @@
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B151" s="17" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C151" s="17" t="s">
-        <v>1109</v>
+        <v>958</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1174</v>
       </c>
       <c r="D151" s="17">
         <v>5</v>
       </c>
       <c r="E151" s="17">
-        <v>4</v>
-      </c>
-      <c r="F151" s="17">
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>10000</v>
       </c>
       <c r="G151" t="s">
-        <v>888</v>
+        <v>764</v>
       </c>
       <c r="I151" t="s">
-        <v>792</v>
+        <v>739</v>
       </c>
       <c r="J151" t="s">
-        <v>889</v>
+        <v>1018</v>
       </c>
       <c r="K151" t="s">
-        <v>862</v>
-      </c>
-      <c r="L151" t="s">
-        <v>696</v>
-      </c>
-      <c r="M151" t="s">
-        <v>896</v>
+        <v>1172</v>
       </c>
       <c r="N151" t="s">
-        <v>1110</v>
-      </c>
-      <c r="P151" t="s">
-        <v>884</v>
+        <v>941</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>1092</v>
+        <v>975</v>
+      </c>
+      <c r="B152" s="17" t="s">
+        <v>982</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>1297</v>
+        <v>983</v>
       </c>
       <c r="D152" s="17">
+        <v>5</v>
+      </c>
+      <c r="E152">
         <v>1</v>
       </c>
-      <c r="E152" s="17">
-        <v>1</v>
-      </c>
-      <c r="F152" s="17">
+      <c r="F152">
         <v>10000</v>
       </c>
       <c r="G152" t="s">
-        <v>2177</v>
+        <v>904</v>
       </c>
       <c r="I152" t="s">
-        <v>710</v>
+        <v>859</v>
       </c>
       <c r="J152" t="s">
-        <v>1195</v>
+        <v>984</v>
       </c>
       <c r="K152" t="s">
-        <v>1283</v>
+        <v>985</v>
       </c>
       <c r="L152" t="s">
-        <v>2176</v>
+        <v>841</v>
       </c>
       <c r="N152" t="s">
-        <v>1298</v>
+        <v>986</v>
+      </c>
+      <c r="P152" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>1092</v>
+        <v>996</v>
+      </c>
+      <c r="B153" s="17" t="s">
+        <v>1002</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>1299</v>
+        <v>1003</v>
       </c>
       <c r="D153" s="17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E153" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F153" s="17">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="G153" t="s">
-        <v>2184</v>
+        <v>900</v>
       </c>
       <c r="I153" t="s">
-        <v>674</v>
+        <v>1004</v>
       </c>
       <c r="J153" t="s">
-        <v>787</v>
+        <v>721</v>
       </c>
       <c r="K153" t="s">
-        <v>643</v>
+        <v>1005</v>
+      </c>
+      <c r="L153" t="s">
+        <v>1006</v>
       </c>
       <c r="N153" t="s">
-        <v>1196</v>
+        <v>1007</v>
+      </c>
+      <c r="P153" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C154" s="17" t="s">
-        <v>1300</v>
+        <v>1032</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1210</v>
       </c>
       <c r="D154" s="17">
-        <v>3</v>
-      </c>
-      <c r="E154" s="17">
+        <v>5</v>
+      </c>
+      <c r="E154">
         <v>1</v>
       </c>
-      <c r="F154" s="17">
+      <c r="F154">
         <v>10000</v>
       </c>
       <c r="G154" t="s">
-        <v>880</v>
+        <v>764</v>
       </c>
       <c r="I154" t="s">
-        <v>1254</v>
+        <v>684</v>
       </c>
       <c r="J154" t="s">
-        <v>1301</v>
+        <v>739</v>
+      </c>
+      <c r="K154" t="s">
+        <v>921</v>
       </c>
       <c r="N154" t="s">
-        <v>883</v>
+        <v>941</v>
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C155" s="17" t="s">
-        <v>1302</v>
+        <v>1032</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1211</v>
       </c>
       <c r="D155" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E155" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F155" s="17">
-        <v>250</v>
-      </c>
-      <c r="G155" t="s">
-        <v>2172</v>
-      </c>
-      <c r="I155" t="s">
-        <v>1022</v>
-      </c>
-      <c r="J155" t="s">
-        <v>901</v>
-      </c>
-      <c r="K155" t="s">
-        <v>985</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="G155" s="17" t="s">
+        <v>794</v>
+      </c>
+      <c r="H155" s="17"/>
+      <c r="I155" s="17" t="s">
+        <v>831</v>
+      </c>
+      <c r="J155" s="17" t="s">
+        <v>1201</v>
+      </c>
+      <c r="K155" s="17" t="s">
+        <v>744</v>
+      </c>
+      <c r="L155" s="17"/>
       <c r="N155" t="s">
-        <v>1096</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C156" s="17" t="s">
-        <v>1303</v>
+        <v>1032</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1213</v>
       </c>
       <c r="D156" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E156" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F156" s="17">
-        <v>250</v>
-      </c>
-      <c r="G156" t="s">
-        <v>2177</v>
-      </c>
-      <c r="I156" t="s">
-        <v>1022</v>
-      </c>
-      <c r="J156" t="s">
-        <v>808</v>
-      </c>
-      <c r="K156" t="s">
-        <v>889</v>
-      </c>
-      <c r="L156" t="s">
-        <v>796</v>
+        <v>50</v>
+      </c>
+      <c r="G156" s="17" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H156" s="17" t="s">
+        <v>1215</v>
+      </c>
+      <c r="I156" s="17" t="s">
+        <v>1216</v>
+      </c>
+      <c r="J156" s="17" t="s">
+        <v>1217</v>
+      </c>
+      <c r="K156" s="17" t="s">
+        <v>917</v>
+      </c>
+      <c r="L156" s="17" t="s">
+        <v>800</v>
       </c>
       <c r="N156" t="s">
-        <v>1096</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>1092</v>
+        <v>1062</v>
+      </c>
+      <c r="B157" s="17" t="s">
+        <v>1071</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>1304</v>
+        <v>1072</v>
       </c>
       <c r="D157" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E157" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F157" s="17">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="G157" t="s">
-        <v>2174</v>
+        <v>921</v>
       </c>
       <c r="I157" t="s">
-        <v>1022</v>
+        <v>2188</v>
       </c>
       <c r="J157" t="s">
-        <v>674</v>
+        <v>1073</v>
       </c>
       <c r="K157" t="s">
-        <v>895</v>
+        <v>1074</v>
       </c>
       <c r="N157" t="s">
-        <v>1096</v>
+        <v>1075</v>
+      </c>
+      <c r="P157" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C158" s="17" t="s">
-        <v>1305</v>
+        <v>1062</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1269</v>
       </c>
       <c r="D158" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E158" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F158" s="17">
-        <v>250</v>
-      </c>
-      <c r="G158" t="s">
-        <v>2184</v>
-      </c>
-      <c r="I158" t="s">
-        <v>1022</v>
-      </c>
-      <c r="J158" t="s">
-        <v>2189</v>
-      </c>
-      <c r="K158" t="s">
-        <v>950</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="G158" s="17" t="s">
+        <v>1270</v>
+      </c>
+      <c r="H158" s="17" t="s">
+        <v>1271</v>
+      </c>
+      <c r="I158" s="17" t="s">
+        <v>970</v>
+      </c>
+      <c r="J158" s="17" t="s">
+        <v>1272</v>
+      </c>
+      <c r="K158" s="17"/>
+      <c r="L158" s="17"/>
       <c r="N158" t="s">
-        <v>1096</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>1111</v>
+        <v>1092</v>
       </c>
       <c r="B159" s="17" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>1113</v>
+        <v>1105</v>
       </c>
       <c r="D159" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E159" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F159" s="17">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="G159" t="s">
-        <v>764</v>
+        <v>880</v>
       </c>
       <c r="I159" t="s">
-        <v>691</v>
+        <v>800</v>
       </c>
       <c r="J159" t="s">
-        <v>2195</v>
+        <v>724</v>
       </c>
       <c r="K159" t="s">
-        <v>732</v>
+        <v>794</v>
       </c>
       <c r="L159" t="s">
-        <v>733</v>
+        <v>1106</v>
+      </c>
+      <c r="M159" t="s">
+        <v>896</v>
       </c>
       <c r="N159" t="s">
-        <v>1038</v>
+        <v>1107</v>
       </c>
       <c r="P159" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
-        <v>1111</v>
+      <c r="A160" t="s">
+        <v>1092</v>
       </c>
       <c r="B160" s="17" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C160" s="9" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D160" s="9">
+        <v>1108</v>
+      </c>
+      <c r="C160" s="17" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D160" s="17">
+        <v>5</v>
+      </c>
+      <c r="E160" s="17">
         <v>4</v>
       </c>
-      <c r="E160" s="9">
-        <v>3</v>
-      </c>
-      <c r="F160" s="9">
-        <v>250</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="H160" s="2"/>
-      <c r="I160" s="2" t="s">
-        <v>949</v>
-      </c>
-      <c r="J160" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="K160" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="L160" s="2"/>
-      <c r="M160" s="2"/>
-      <c r="N160" s="2" t="s">
-        <v>1038</v>
-      </c>
-      <c r="O160" s="2"/>
-      <c r="P160" s="2" t="s">
+      <c r="F160" s="17">
+        <v>50</v>
+      </c>
+      <c r="G160" t="s">
+        <v>888</v>
+      </c>
+      <c r="I160" t="s">
+        <v>792</v>
+      </c>
+      <c r="J160" t="s">
+        <v>889</v>
+      </c>
+      <c r="K160" t="s">
+        <v>862</v>
+      </c>
+      <c r="L160" t="s">
+        <v>696</v>
+      </c>
+      <c r="M160" t="s">
+        <v>896</v>
+      </c>
+      <c r="N160" t="s">
+        <v>1110</v>
+      </c>
+      <c r="P160" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B161" t="s">
-        <v>2190</v>
-      </c>
-      <c r="C161" s="13" t="s">
-        <v>2191</v>
-      </c>
-      <c r="D161" s="13">
-        <v>4</v>
-      </c>
-      <c r="E161" s="13">
-        <v>3</v>
-      </c>
-      <c r="F161" s="13">
-        <v>250</v>
-      </c>
-      <c r="G161" s="8" t="s">
-        <v>1057</v>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>897</v>
+      </c>
+      <c r="B161" s="17"/>
+      <c r="C161" s="17" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D161" s="17">
+        <v>10</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>10000</v>
+      </c>
+      <c r="G161" t="s">
+        <v>894</v>
       </c>
       <c r="I161" t="s">
-        <v>2192</v>
+        <v>706</v>
       </c>
       <c r="J161" t="s">
-        <v>2193</v>
+        <v>788</v>
       </c>
       <c r="K161" t="s">
-        <v>800</v>
+        <v>1126</v>
       </c>
       <c r="L161" t="s">
-        <v>2194</v>
-      </c>
-      <c r="M161" t="s">
-        <v>2183</v>
+        <v>642</v>
+      </c>
+      <c r="N161" t="s">
+        <v>902</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:P1" xr:uid="{C182BAC9-BEF5-449C-9FCB-142EFD583D9B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P160">
-      <sortCondition ref="A1"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P161">
+      <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/INFO D.xlsx
+++ b/INFO D.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin Vuu\Documents\GitHub\Craft-to-Exile-Dissonance-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5E10C8-7250-4A4F-AB69-D040BC7B5B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CA05CD-0C1A-47BC-9182-F185EDD216B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="680" firstSheet="3" activeTab="13" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="680" firstSheet="4" activeTab="13" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,7 @@
     <sheet name="MineColonies Research" sheetId="23" r:id="rId20"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">Sets!$A$1:$N$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Uniques!$A$1:$P$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="2209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3954" uniqueCount="2221">
   <si>
     <t>Quest</t>
   </si>
@@ -6682,13 +6683,49 @@
   </si>
   <si>
     <t>major_all_dot_dmg_flat</t>
+  </si>
+  <si>
+    <t>plate + shield</t>
+  </si>
+  <si>
+    <t>very_high_block_strength_flat</t>
+  </si>
+  <si>
+    <t>Orphan's Call</t>
+  </si>
+  <si>
+    <t>Naj's Ancient Vestige</t>
+  </si>
+  <si>
+    <t>mana_battery_trait_flat</t>
+  </si>
+  <si>
+    <t>The Disciple</t>
+  </si>
+  <si>
+    <t>Hsarus' Defense</t>
+  </si>
+  <si>
+    <t>high_block_strength_flat</t>
+  </si>
+  <si>
+    <t>major_armor_percent</t>
+  </si>
+  <si>
+    <t>Death's Disguise</t>
+  </si>
+  <si>
+    <t>much_less_mana_percent</t>
+  </si>
+  <si>
+    <t>high_physical_thorns_reflect_flat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6743,6 +6780,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6938,7 +6982,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -7001,6 +7045,7 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -23202,7 +23247,7 @@
   </sheetPr>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G18" sqref="G18:I18"/>
     </sheetView>
   </sheetViews>
@@ -24711,10 +24756,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24852,40 +24897,39 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>778</v>
-      </c>
-      <c r="B5" s="17">
+      <c r="A5" s="8" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B5" s="8">
         <v>0</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="8">
         <v>1</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="8">
         <v>10000</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="13">
         <v>0</v>
       </c>
-      <c r="F5" s="17">
-        <v>25</v>
-      </c>
-      <c r="G5" s="17">
-        <v>3</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>779</v>
-      </c>
-      <c r="I5" t="s">
-        <v>697</v>
-      </c>
-      <c r="J5" t="s">
-        <v>705</v>
-      </c>
+      <c r="F5" s="13">
+        <v>20</v>
+      </c>
+      <c r="G5" s="8">
+        <v>2</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B6" s="17">
         <v>0</v>
@@ -24900,21 +24944,24 @@
         <v>0</v>
       </c>
       <c r="F6" s="17">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G6" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="I6" t="s">
-        <v>621</v>
+        <v>697</v>
+      </c>
+      <c r="J6" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>726</v>
+        <v>780</v>
       </c>
       <c r="B7" s="17">
         <v>0</v>
@@ -24929,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="17">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G7" s="17">
         <v>2</v>
@@ -24938,105 +24985,105 @@
         <v>781</v>
       </c>
       <c r="I7" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>782</v>
-      </c>
-      <c r="B8">
+      <c r="A8" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="B8" s="17">
         <v>0</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="17">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="17">
         <v>10000</v>
       </c>
       <c r="E8" s="17">
         <v>0</v>
       </c>
       <c r="F8" s="17">
-        <v>100</v>
-      </c>
-      <c r="G8">
+        <v>35</v>
+      </c>
+      <c r="G8" s="17">
         <v>2</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="17" t="s">
+        <v>781</v>
+      </c>
+      <c r="I8" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>782</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="62">
+        <v>2</v>
+      </c>
+      <c r="D9" s="62">
+        <v>2500</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0</v>
+      </c>
+      <c r="F9" s="62">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
         <v>783</v>
       </c>
-      <c r="I8" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>785</v>
-      </c>
-      <c r="B9" s="17">
+      <c r="I9" s="62" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B10">
         <v>0</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D10">
         <v>10000</v>
       </c>
-      <c r="E9" s="17">
-        <v>10</v>
-      </c>
-      <c r="F9" s="17">
-        <v>30</v>
-      </c>
-      <c r="G9" s="17">
-        <v>3</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>786</v>
-      </c>
-      <c r="I9" t="s">
-        <v>787</v>
-      </c>
-      <c r="J9" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>789</v>
-      </c>
-      <c r="B10" s="17">
-        <v>0</v>
-      </c>
-      <c r="C10" s="17">
-        <v>1</v>
-      </c>
-      <c r="D10" s="17">
-        <v>10000</v>
-      </c>
       <c r="E10" s="17">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F10" s="17">
-        <v>30</v>
-      </c>
-      <c r="G10" s="17">
-        <v>3</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>786</v>
+        <v>35</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1681</v>
       </c>
       <c r="I10" t="s">
-        <v>621</v>
+        <v>805</v>
       </c>
       <c r="J10" t="s">
-        <v>790</v>
+        <v>800</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1682</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="B11" s="17">
         <v>0</v>
@@ -25059,28 +25106,24 @@
       <c r="H11" s="17" t="s">
         <v>786</v>
       </c>
-      <c r="I11" s="17" t="s">
-        <v>711</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>792</v>
-      </c>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
+      <c r="I11" t="s">
+        <v>787</v>
+      </c>
+      <c r="J11" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>793</v>
-      </c>
-      <c r="B12">
+      <c r="A12" s="17" t="s">
+        <v>789</v>
+      </c>
+      <c r="B12" s="17">
         <v>0</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="17">
         <v>1</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="17">
         <v>10000</v>
       </c>
       <c r="E12" s="17">
@@ -25095,52 +25138,52 @@
       <c r="H12" s="17" t="s">
         <v>786</v>
       </c>
-      <c r="I12" s="17" t="s">
-        <v>717</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>794</v>
-      </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
+      <c r="I12" t="s">
+        <v>621</v>
+      </c>
+      <c r="J12" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>795</v>
-      </c>
-      <c r="B13">
+      <c r="A13" s="17" t="s">
+        <v>791</v>
+      </c>
+      <c r="B13" s="17">
         <v>0</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="17">
         <v>1</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="17">
         <v>10000</v>
       </c>
       <c r="E13" s="17">
         <v>10</v>
       </c>
       <c r="F13" s="17">
-        <v>40</v>
-      </c>
-      <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="G13" s="17">
         <v>3</v>
       </c>
-      <c r="H13" t="s">
-        <v>777</v>
-      </c>
-      <c r="I13" t="s">
-        <v>721</v>
-      </c>
-      <c r="J13" t="s">
-        <v>796</v>
-      </c>
+      <c r="H13" s="17" t="s">
+        <v>786</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>711</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>792</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -25155,30 +25198,28 @@
         <v>10</v>
       </c>
       <c r="F14" s="17">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G14" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>787</v>
+        <v>717</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>643</v>
-      </c>
-      <c r="K14" s="17" t="s">
-        <v>642</v>
-      </c>
+        <v>794</v>
+      </c>
+      <c r="K14" s="17"/>
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -25190,71 +25231,67 @@
         <v>10000</v>
       </c>
       <c r="E15" s="17">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F15" s="17">
-        <v>50</v>
-      </c>
-      <c r="G15" s="17">
-        <v>4</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>775</v>
-      </c>
-      <c r="I15" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>777</v>
+      </c>
+      <c r="I15" t="s">
         <v>721</v>
       </c>
-      <c r="J15" s="17" t="s">
-        <v>661</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>800</v>
-      </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
+      <c r="J15" t="s">
+        <v>796</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>10000</v>
+      <c r="C16" s="62">
+        <v>2</v>
+      </c>
+      <c r="D16" s="62">
+        <v>2500</v>
       </c>
       <c r="E16" s="17">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F16" s="17">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G16" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>802</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>803</v>
+        <v>798</v>
+      </c>
+      <c r="I16" s="62" t="s">
+        <v>674</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>629</v>
+        <v>643</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>691</v>
-      </c>
-      <c r="L16" s="17"/>
+        <v>642</v>
+      </c>
+      <c r="L16" s="62" t="s">
+        <v>2195</v>
+      </c>
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -25275,16 +25312,16 @@
         <v>4</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>705</v>
+        <v>721</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>805</v>
+        <v>661</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
@@ -25292,7 +25329,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -25304,7 +25341,7 @@
         <v>10000</v>
       </c>
       <c r="E18" s="17">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F18" s="17">
         <v>50</v>
@@ -25313,284 +25350,278 @@
         <v>4</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>786</v>
+        <v>802</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>732</v>
+        <v>803</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>764</v>
+        <v>629</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>808</v>
+        <v>691</v>
       </c>
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
       <c r="N18" s="17"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>809</v>
-      </c>
-      <c r="B19" s="17">
+      <c r="A19" t="s">
+        <v>804</v>
+      </c>
+      <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19" s="17">
-        <v>2</v>
-      </c>
-      <c r="D19" s="17">
-        <v>2500</v>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>10000</v>
       </c>
       <c r="E19" s="17">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F19" s="17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G19" s="17">
         <v>4</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>810</v>
+        <v>705</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>813</v>
-      </c>
-      <c r="B20">
+      <c r="A20" s="8" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B20" s="8">
         <v>0</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="8">
         <v>1</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="8">
         <v>10000</v>
       </c>
-      <c r="E20" s="17">
-        <v>35</v>
-      </c>
-      <c r="F20" s="17">
-        <v>70</v>
-      </c>
-      <c r="G20" s="17">
-        <v>4</v>
-      </c>
-      <c r="H20" s="17" t="s">
+      <c r="E20" s="13">
+        <v>15</v>
+      </c>
+      <c r="F20" s="13">
+        <v>50</v>
+      </c>
+      <c r="G20" s="8">
+        <v>3</v>
+      </c>
+      <c r="H20" s="8" t="s">
         <v>777</v>
       </c>
-      <c r="I20" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>1684</v>
-      </c>
-      <c r="K20" s="17" t="s">
-        <v>814</v>
-      </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
+      <c r="I20" s="8" t="s">
+        <v>1070</v>
+      </c>
+      <c r="J20" t="s">
+        <v>796</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>815</v>
+      <c r="A21" s="8" t="s">
+        <v>2205</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="8">
         <v>1</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="8">
         <v>10000</v>
       </c>
-      <c r="E21" s="17">
-        <v>35</v>
-      </c>
-      <c r="F21" s="17">
-        <v>70</v>
-      </c>
-      <c r="G21" s="17">
+      <c r="E21" s="13">
+        <v>15</v>
+      </c>
+      <c r="F21" s="13">
+        <v>50</v>
+      </c>
+      <c r="G21" s="8">
         <v>4</v>
       </c>
-      <c r="H21" s="17" t="s">
-        <v>777</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>810</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>621</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>816</v>
-      </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
+      <c r="H21" s="8" t="s">
+        <v>2206</v>
+      </c>
+      <c r="I21" t="s">
+        <v>2188</v>
+      </c>
+      <c r="J21" t="s">
+        <v>2207</v>
+      </c>
+      <c r="K21" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>817</v>
-      </c>
-      <c r="B22">
+      <c r="A22" s="2" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B22" s="2">
         <v>0</v>
       </c>
-      <c r="C22" s="17">
-        <v>2</v>
-      </c>
-      <c r="D22" s="17">
-        <v>2500</v>
-      </c>
-      <c r="E22" s="17">
-        <v>40</v>
-      </c>
-      <c r="F22" s="17">
-        <v>100</v>
-      </c>
-      <c r="G22" s="17">
-        <v>3</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>779</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>818</v>
-      </c>
-      <c r="J22" s="17" t="s">
-        <v>805</v>
-      </c>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E22" s="9">
+        <v>20</v>
+      </c>
+      <c r="F22" s="9">
+        <v>50</v>
+      </c>
+      <c r="G22" s="2">
+        <v>4</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>1683</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>819</v>
+        <v>807</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-      <c r="C23" s="17">
-        <v>3</v>
-      </c>
-      <c r="D23" s="17">
-        <v>250</v>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>10000</v>
       </c>
       <c r="E23" s="17">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F23" s="17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G23" s="17">
         <v>4</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>643</v>
+        <v>732</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>820</v>
+        <v>764</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>721</v>
+        <v>808</v>
       </c>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>821</v>
-      </c>
-      <c r="B24">
+      <c r="A24" s="17" t="s">
+        <v>809</v>
+      </c>
+      <c r="B24" s="17">
         <v>0</v>
       </c>
-      <c r="C24">
-        <v>4</v>
-      </c>
-      <c r="D24">
-        <v>50</v>
+      <c r="C24" s="17">
+        <v>2</v>
+      </c>
+      <c r="D24" s="17">
+        <v>2500</v>
       </c>
       <c r="E24" s="17">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F24" s="17">
         <v>100</v>
       </c>
-      <c r="G24">
-        <v>6</v>
-      </c>
-      <c r="H24" t="s">
-        <v>822</v>
-      </c>
-      <c r="I24" t="s">
-        <v>621</v>
-      </c>
-      <c r="J24" t="s">
-        <v>691</v>
-      </c>
-      <c r="K24" t="s">
-        <v>796</v>
-      </c>
-      <c r="L24" t="s">
-        <v>823</v>
-      </c>
+      <c r="G24" s="17">
+        <v>4</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>777</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>810</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>811</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>812</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>10000</v>
+      </c>
+      <c r="E25" s="17">
+        <v>35</v>
+      </c>
+      <c r="F25" s="17">
+        <v>70</v>
+      </c>
+      <c r="G25" s="17">
         <v>4</v>
       </c>
-      <c r="D25" s="17">
-        <v>50</v>
-      </c>
-      <c r="E25" s="17">
-        <v>45</v>
-      </c>
-      <c r="F25" s="17">
-        <v>100</v>
-      </c>
-      <c r="G25" s="17">
-        <v>2</v>
-      </c>
       <c r="H25" s="17" t="s">
-        <v>825</v>
+        <v>777</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>826</v>
-      </c>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
+        <v>739</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>1684</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>814</v>
+      </c>
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
       <c r="N25" s="17"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -25602,25 +25633,25 @@
         <v>10000</v>
       </c>
       <c r="E26" s="17">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F26" s="17">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G26" s="17">
         <v>4</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>732</v>
+        <v>810</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>765</v>
+        <v>621</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>764</v>
+        <v>816</v>
       </c>
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
@@ -25628,19 +25659,19 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="17">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="E27" s="17">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F27" s="17">
         <v>100</v>
@@ -25649,114 +25680,110 @@
         <v>3</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>725</v>
-      </c>
-      <c r="K27" s="17" t="s">
-        <v>721</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="K27" s="17"/>
       <c r="L27" s="17"/>
       <c r="M27" s="17"/>
       <c r="N27" s="17"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
-      <c r="C28" s="17">
-        <v>3</v>
-      </c>
-      <c r="D28" s="17">
-        <v>250</v>
+      <c r="C28" s="62">
+        <v>2</v>
+      </c>
+      <c r="D28" s="62">
+        <v>2500</v>
       </c>
       <c r="E28" s="17">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F28" s="17">
         <v>100</v>
       </c>
       <c r="G28" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>661</v>
+        <v>643</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>629</v>
+        <v>820</v>
       </c>
       <c r="K28" s="17" t="s">
-        <v>750</v>
-      </c>
-      <c r="L28" s="17" t="s">
-        <v>831</v>
-      </c>
+        <v>721</v>
+      </c>
+      <c r="L28" s="17"/>
       <c r="M28" s="17"/>
       <c r="N28" s="17"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
-      <c r="C29" s="17">
-        <v>1</v>
-      </c>
-      <c r="D29" s="17">
-        <v>10000</v>
+      <c r="C29" s="62">
+        <v>3</v>
+      </c>
+      <c r="D29" s="62">
+        <v>250</v>
       </c>
       <c r="E29" s="17">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F29" s="17">
         <v>100</v>
       </c>
-      <c r="G29" s="17">
-        <v>4</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>833</v>
-      </c>
-      <c r="I29" s="17" t="s">
-        <v>729</v>
-      </c>
-      <c r="J29" s="17" t="s">
-        <v>747</v>
-      </c>
-      <c r="K29" s="17" t="s">
-        <v>705</v>
-      </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
+      <c r="G29">
+        <v>6</v>
+      </c>
+      <c r="H29" t="s">
+        <v>822</v>
+      </c>
+      <c r="I29" t="s">
+        <v>621</v>
+      </c>
+      <c r="J29" t="s">
+        <v>691</v>
+      </c>
+      <c r="K29" t="s">
+        <v>796</v>
+      </c>
+      <c r="L29" t="s">
+        <v>823</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
-      <c r="C30" s="17">
-        <v>1</v>
-      </c>
-      <c r="D30" s="17">
-        <v>200555</v>
+      <c r="C30" s="62">
+        <v>3</v>
+      </c>
+      <c r="D30" s="62">
+        <v>250</v>
       </c>
       <c r="E30" s="17">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F30" s="17">
         <v>100</v>
@@ -25765,10 +25792,10 @@
         <v>2</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
@@ -25778,169 +25805,161 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
-      <c r="C31" s="17">
-        <v>4</v>
-      </c>
-      <c r="D31" s="17">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>10000</v>
+      </c>
+      <c r="E31" s="17">
         <v>50</v>
-      </c>
-      <c r="E31" s="17">
-        <v>70</v>
       </c>
       <c r="F31" s="17">
         <v>100</v>
       </c>
       <c r="G31" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>786</v>
+        <v>773</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>688</v>
+        <v>732</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>1684</v>
-      </c>
-      <c r="K31" s="17"/>
+        <v>765</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>764</v>
+      </c>
       <c r="L31" s="17"/>
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D32" s="17">
+        <v>10000</v>
+      </c>
+      <c r="E32" s="17">
         <v>50</v>
-      </c>
-      <c r="E32" s="17">
-        <v>70</v>
       </c>
       <c r="F32" s="17">
         <v>100</v>
       </c>
       <c r="G32" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>839</v>
+        <v>775</v>
       </c>
       <c r="I32" s="17" t="s">
-        <v>656</v>
+        <v>829</v>
       </c>
       <c r="J32" s="17" t="s">
-        <v>800</v>
+        <v>725</v>
       </c>
       <c r="K32" s="17" t="s">
-        <v>688</v>
-      </c>
-      <c r="L32" s="17" t="s">
-        <v>840</v>
-      </c>
-      <c r="M32" s="17" t="s">
-        <v>841</v>
-      </c>
+        <v>721</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
       <c r="N32" s="17"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
-      <c r="C33" s="17">
-        <v>4</v>
-      </c>
-      <c r="D33" s="17">
+      <c r="C33" s="62">
+        <v>2</v>
+      </c>
+      <c r="D33" s="62">
+        <v>2500</v>
+      </c>
+      <c r="E33" s="17">
         <v>50</v>
-      </c>
-      <c r="E33" s="17">
-        <v>70</v>
       </c>
       <c r="F33" s="17">
         <v>100</v>
       </c>
       <c r="G33" s="17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>843</v>
+        <v>786</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>705</v>
+        <v>661</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>844</v>
+        <v>629</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>688</v>
+        <v>750</v>
       </c>
       <c r="L33" s="17" t="s">
-        <v>845</v>
-      </c>
-      <c r="M33" s="17" t="s">
-        <v>705</v>
-      </c>
+        <v>831</v>
+      </c>
+      <c r="M33" s="17"/>
       <c r="N33" s="17"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>846</v>
+        <v>832</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D34" s="17">
+        <v>10000</v>
+      </c>
+      <c r="E34" s="17">
         <v>50</v>
-      </c>
-      <c r="E34" s="17">
-        <v>70</v>
       </c>
       <c r="F34" s="17">
         <v>100</v>
       </c>
       <c r="G34" s="17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>848</v>
+        <v>729</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>691</v>
+        <v>747</v>
       </c>
       <c r="K34" s="17" t="s">
-        <v>1684</v>
-      </c>
-      <c r="L34" s="17" t="s">
-        <v>656</v>
-      </c>
-      <c r="M34" s="17" t="s">
-        <v>2195</v>
-      </c>
+        <v>705</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
       <c r="N34" s="17"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>849</v>
+        <v>834</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -25952,23 +25971,21 @@
         <v>10000</v>
       </c>
       <c r="E35" s="17">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="F35" s="17">
         <v>100</v>
       </c>
       <c r="G35" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>850</v>
+        <v>835</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>810</v>
-      </c>
-      <c r="J35" s="17" t="s">
-        <v>851</v>
-      </c>
+        <v>836</v>
+      </c>
+      <c r="J35" s="17"/>
       <c r="K35" s="17"/>
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>
@@ -25976,386 +25993,589 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>852</v>
+        <v>837</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
-      <c r="C36">
-        <v>4</v>
-      </c>
-      <c r="D36">
-        <v>50</v>
+      <c r="C36" s="62">
+        <v>3</v>
+      </c>
+      <c r="D36" s="62">
+        <v>250</v>
       </c>
       <c r="E36" s="17">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F36" s="17">
         <v>100</v>
       </c>
       <c r="G36" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>853</v>
+        <v>688</v>
       </c>
       <c r="J36" s="17" t="s">
-        <v>854</v>
-      </c>
-      <c r="K36" s="17" t="s">
-        <v>788</v>
-      </c>
+        <v>1684</v>
+      </c>
+      <c r="K36" s="17"/>
       <c r="L36" s="17"/>
       <c r="M36" s="17"/>
       <c r="N36" s="17"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>855</v>
+        <v>838</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-      <c r="C37">
-        <v>4</v>
-      </c>
-      <c r="D37">
-        <v>50</v>
+      <c r="C37" s="62">
+        <v>3</v>
+      </c>
+      <c r="D37" s="62">
+        <v>250</v>
       </c>
       <c r="E37" s="17">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F37" s="17">
         <v>100</v>
       </c>
-      <c r="G37">
-        <v>4</v>
-      </c>
-      <c r="H37" t="s">
-        <v>777</v>
-      </c>
-      <c r="I37" t="s">
-        <v>752</v>
-      </c>
-      <c r="J37" t="s">
-        <v>856</v>
-      </c>
-      <c r="K37" t="s">
-        <v>790</v>
-      </c>
+      <c r="G37" s="17">
+        <v>6</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>839</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>656</v>
+      </c>
+      <c r="J37" s="17" t="s">
+        <v>800</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>688</v>
+      </c>
+      <c r="L37" s="17" t="s">
+        <v>840</v>
+      </c>
+      <c r="M37" s="17" t="s">
+        <v>841</v>
+      </c>
+      <c r="N37" s="17"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>857</v>
+        <v>842</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
-      <c r="C38">
-        <v>4</v>
-      </c>
-      <c r="D38">
-        <v>50</v>
+      <c r="C38" s="62">
+        <v>3</v>
+      </c>
+      <c r="D38" s="62">
+        <v>250</v>
       </c>
       <c r="E38" s="17">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F38" s="17">
         <v>100</v>
       </c>
-      <c r="G38">
-        <v>4</v>
-      </c>
-      <c r="H38" t="s">
-        <v>777</v>
-      </c>
-      <c r="I38" t="s">
-        <v>858</v>
-      </c>
-      <c r="J38" t="s">
-        <v>859</v>
-      </c>
-      <c r="K38" t="s">
-        <v>794</v>
-      </c>
+      <c r="G38" s="17">
+        <v>6</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>843</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="J38" s="17" t="s">
+        <v>844</v>
+      </c>
+      <c r="K38" s="17" t="s">
+        <v>688</v>
+      </c>
+      <c r="L38" s="17" t="s">
+        <v>845</v>
+      </c>
+      <c r="M38" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="N38" s="17"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
-      <c r="C39" s="17">
-        <v>4</v>
-      </c>
-      <c r="D39" s="17">
-        <v>50</v>
+      <c r="C39" s="62">
+        <v>3</v>
+      </c>
+      <c r="D39" s="62">
+        <v>250</v>
       </c>
       <c r="E39" s="17">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F39" s="17">
         <v>100</v>
       </c>
       <c r="G39" s="17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>777</v>
+        <v>847</v>
       </c>
       <c r="I39" s="17" t="s">
-        <v>861</v>
-      </c>
-      <c r="J39" t="s">
-        <v>862</v>
-      </c>
-      <c r="K39" t="s">
-        <v>792</v>
-      </c>
+        <v>848</v>
+      </c>
+      <c r="J39" s="17" t="s">
+        <v>691</v>
+      </c>
+      <c r="K39" s="17" t="s">
+        <v>1684</v>
+      </c>
+      <c r="L39" s="17" t="s">
+        <v>656</v>
+      </c>
+      <c r="M39" s="17" t="s">
+        <v>2195</v>
+      </c>
+      <c r="N39" s="17"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>863</v>
-      </c>
-      <c r="B40">
+      <c r="A40" s="8" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B40" s="8">
         <v>0</v>
       </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>200555</v>
-      </c>
-      <c r="E40" t="s">
-        <v>864</v>
-      </c>
-      <c r="F40" t="s">
-        <v>864</v>
-      </c>
-      <c r="G40">
-        <v>2</v>
-      </c>
-      <c r="H40" t="s">
-        <v>865</v>
-      </c>
-      <c r="I40" t="s">
-        <v>692</v>
+      <c r="C40" s="62">
+        <v>3</v>
+      </c>
+      <c r="D40" s="62">
+        <v>250</v>
+      </c>
+      <c r="E40" s="13">
+        <v>70</v>
+      </c>
+      <c r="F40" s="13">
+        <v>100</v>
+      </c>
+      <c r="G40" s="8">
+        <v>6</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="J40" t="s">
+        <v>2200</v>
+      </c>
+      <c r="K40" t="s">
+        <v>1333</v>
+      </c>
+      <c r="L40" t="s">
+        <v>1018</v>
+      </c>
+      <c r="M40" t="s">
+        <v>2208</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1679</v>
+        <v>849</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="62">
+        <v>2</v>
+      </c>
+      <c r="D41" s="62">
+        <v>2500</v>
+      </c>
+      <c r="E41" s="17">
+        <v>85</v>
+      </c>
+      <c r="F41" s="17">
+        <v>100</v>
+      </c>
+      <c r="G41" s="17">
+        <v>3</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>850</v>
+      </c>
+      <c r="I41" s="17" t="s">
+        <v>810</v>
+      </c>
+      <c r="J41" s="17" t="s">
+        <v>851</v>
+      </c>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>852</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>50</v>
+      </c>
+      <c r="E42" s="17">
+        <v>90</v>
+      </c>
+      <c r="F42" s="17">
+        <v>100</v>
+      </c>
+      <c r="G42" s="17">
+        <v>4</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>777</v>
+      </c>
+      <c r="I42" s="17" t="s">
+        <v>853</v>
+      </c>
+      <c r="J42" s="17" t="s">
+        <v>854</v>
+      </c>
+      <c r="K42" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>855</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>50</v>
+      </c>
+      <c r="E43" s="17">
+        <v>90</v>
+      </c>
+      <c r="F43" s="17">
+        <v>100</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+      <c r="H43" t="s">
+        <v>777</v>
+      </c>
+      <c r="I43" t="s">
+        <v>752</v>
+      </c>
+      <c r="J43" t="s">
+        <v>856</v>
+      </c>
+      <c r="K43" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>857</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>50</v>
+      </c>
+      <c r="E44" s="17">
+        <v>90</v>
+      </c>
+      <c r="F44" s="17">
+        <v>100</v>
+      </c>
+      <c r="G44">
+        <v>4</v>
+      </c>
+      <c r="H44" t="s">
+        <v>777</v>
+      </c>
+      <c r="I44" t="s">
+        <v>858</v>
+      </c>
+      <c r="J44" t="s">
+        <v>859</v>
+      </c>
+      <c r="K44" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>860</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" s="17">
+        <v>4</v>
+      </c>
+      <c r="D45" s="17">
+        <v>50</v>
+      </c>
+      <c r="E45" s="17">
+        <v>90</v>
+      </c>
+      <c r="F45" s="17">
+        <v>100</v>
+      </c>
+      <c r="G45" s="17">
+        <v>4</v>
+      </c>
+      <c r="H45" s="17" t="s">
+        <v>777</v>
+      </c>
+      <c r="I45" s="17" t="s">
+        <v>861</v>
+      </c>
+      <c r="J45" t="s">
+        <v>862</v>
+      </c>
+      <c r="K45" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="B46" s="7">
+        <v>0</v>
+      </c>
+      <c r="C46" s="7">
         <v>1</v>
       </c>
-      <c r="D41">
+      <c r="D46" s="7">
         <v>10000</v>
       </c>
-      <c r="E41" s="17">
-        <v>5</v>
-      </c>
-      <c r="F41" s="17">
+      <c r="E46" s="7" t="s">
+        <v>864</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>864</v>
+      </c>
+      <c r="G46" s="7">
+        <v>2</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>2500</v>
+      </c>
+      <c r="E47" s="17">
+        <v>50</v>
+      </c>
+      <c r="F47" s="17">
+        <v>100</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="H47" s="17" t="s">
+        <v>2209</v>
+      </c>
+      <c r="I47" t="s">
+        <v>2210</v>
+      </c>
+      <c r="J47" t="s">
+        <v>2220</v>
+      </c>
+      <c r="K47" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>50</v>
+      </c>
+      <c r="E48" s="17">
+        <v>70</v>
+      </c>
+      <c r="F48" s="17">
+        <v>100</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48" t="s">
+        <v>777</v>
+      </c>
+      <c r="I48" s="17" t="s">
+        <v>2195</v>
+      </c>
+      <c r="J48" t="s">
+        <v>2219</v>
+      </c>
+      <c r="K48" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>2500</v>
+      </c>
+      <c r="E49" s="17">
+        <v>15</v>
+      </c>
+      <c r="F49" s="17">
+        <v>70</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>786</v>
+      </c>
+      <c r="I49" t="s">
+        <v>688</v>
+      </c>
+      <c r="J49" s="17" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>10000</v>
+      </c>
+      <c r="E50" s="17">
         <v>35</v>
       </c>
-      <c r="G41">
-        <v>4</v>
-      </c>
-      <c r="H41" t="s">
-        <v>1681</v>
-      </c>
-      <c r="I41" t="s">
-        <v>805</v>
-      </c>
-      <c r="J41" t="s">
-        <v>800</v>
-      </c>
-      <c r="K41" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>1680</v>
-      </c>
-      <c r="B42" s="2">
+      <c r="F50" s="17">
+        <v>70</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50" s="17" t="s">
+        <v>2209</v>
+      </c>
+      <c r="I50" t="s">
+        <v>2216</v>
+      </c>
+      <c r="J50" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B51">
         <v>0</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C51">
         <v>1</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D51">
         <v>10000</v>
       </c>
-      <c r="E42" s="9">
-        <v>20</v>
-      </c>
-      <c r="F42" s="9">
-        <v>50</v>
-      </c>
-      <c r="G42" s="2">
-        <v>4</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>1683</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>2152</v>
-      </c>
-      <c r="B43" s="8">
-        <v>0</v>
-      </c>
-      <c r="C43" s="8">
-        <v>1</v>
-      </c>
-      <c r="D43" s="8">
-        <v>10000</v>
-      </c>
-      <c r="E43" s="13">
-        <v>0</v>
-      </c>
-      <c r="F43" s="13">
-        <v>20</v>
-      </c>
-      <c r="G43" s="8">
-        <v>2</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>777</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>796</v>
-      </c>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>2153</v>
-      </c>
-      <c r="B44" s="8">
-        <v>0</v>
-      </c>
-      <c r="C44" s="8">
-        <v>1</v>
-      </c>
-      <c r="D44" s="8">
-        <v>10000</v>
-      </c>
-      <c r="E44" s="13">
-        <v>15</v>
-      </c>
-      <c r="F44" s="13">
-        <v>50</v>
-      </c>
-      <c r="G44" s="8">
+      <c r="E51" s="17">
+        <v>10</v>
+      </c>
+      <c r="F51" s="17">
+        <v>40</v>
+      </c>
+      <c r="G51">
         <v>3</v>
       </c>
-      <c r="H44" s="8" t="s">
-        <v>777</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>1070</v>
-      </c>
-      <c r="J44" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>2204</v>
-      </c>
-      <c r="B45" s="8">
-        <v>0</v>
-      </c>
-      <c r="C45" s="8">
-        <v>4</v>
-      </c>
-      <c r="D45" s="8">
-        <v>50</v>
-      </c>
-      <c r="E45" s="13">
-        <v>70</v>
-      </c>
-      <c r="F45" s="13">
-        <v>100</v>
-      </c>
-      <c r="G45" s="8">
-        <v>6</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>833</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>752</v>
-      </c>
-      <c r="J45" t="s">
-        <v>2200</v>
-      </c>
-      <c r="K45" t="s">
-        <v>1333</v>
-      </c>
-      <c r="L45" t="s">
-        <v>1018</v>
-      </c>
-      <c r="M45" t="s">
-        <v>2208</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>2205</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46" s="8">
-        <v>1</v>
-      </c>
-      <c r="D46" s="8">
-        <v>10000</v>
-      </c>
-      <c r="E46" s="13">
-        <v>15</v>
-      </c>
-      <c r="F46" s="13">
-        <v>50</v>
-      </c>
-      <c r="G46" s="8">
-        <v>4</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>2206</v>
-      </c>
-      <c r="I46" t="s">
-        <v>2188</v>
-      </c>
-      <c r="J46" t="s">
-        <v>2207</v>
-      </c>
-      <c r="K46" t="s">
-        <v>688</v>
+      <c r="H51" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="I51" t="s">
+        <v>747</v>
+      </c>
+      <c r="J51" t="s">
+        <v>1005</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N1" xr:uid="{53C31A42-FE05-418B-83B3-86861291C9F6}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:N46">
+      <sortCondition ref="E1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -26368,8 +26588,8 @@
   </sheetPr>
   <dimension ref="A1:P161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="I102" sqref="I102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32285,7 +32505,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/INFO D.xlsx
+++ b/INFO D.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin Vuu\Documents\GitHub\Craft-to-Exile-Dissonance-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CA05CD-0C1A-47BC-9182-F185EDD216B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA7679A-192A-4051-A9C4-861ADB9B0C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="680" firstSheet="4" activeTab="13" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="680" firstSheet="4" activeTab="14" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3954" uniqueCount="2221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3954" uniqueCount="2222">
   <si>
     <t>Quest</t>
   </si>
@@ -6719,6 +6719,9 @@
   </si>
   <si>
     <t>high_physical_thorns_reflect_flat</t>
+  </si>
+  <si>
+    <t>crippled_lifesteal_flat</t>
   </si>
 </sst>
 </file>
@@ -24758,8 +24761,8 @@
   </sheetPr>
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25107,7 +25110,7 @@
         <v>786</v>
       </c>
       <c r="I11" t="s">
-        <v>787</v>
+        <v>2176</v>
       </c>
       <c r="J11" t="s">
         <v>788</v>
@@ -25207,7 +25210,7 @@
         <v>786</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>717</v>
+        <v>696</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>794</v>
@@ -26588,8 +26591,8 @@
   </sheetPr>
   <dimension ref="A1:P161"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="I102" sqref="I102"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="I160" sqref="I160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30870,7 +30873,7 @@
         <v>901</v>
       </c>
       <c r="K118" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="N118" t="s">
         <v>1096</v>
@@ -30902,7 +30905,7 @@
         <v>674</v>
       </c>
       <c r="K119" t="s">
-        <v>895</v>
+        <v>803</v>
       </c>
       <c r="N119" t="s">
         <v>1096</v>
@@ -31360,7 +31363,7 @@
         <v>1240</v>
       </c>
       <c r="L131" t="s">
-        <v>950</v>
+        <v>1086</v>
       </c>
       <c r="N131" t="s">
         <v>951</v>
@@ -31978,7 +31981,7 @@
         <v>1121</v>
       </c>
       <c r="J148" t="s">
-        <v>1122</v>
+        <v>2221</v>
       </c>
       <c r="K148" t="s">
         <v>1123</v>
@@ -32505,7 +32508,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/INFO D.xlsx
+++ b/INFO D.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin Vuu\Documents\GitHub\Craft-to-Exile-Dissonance-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA7679A-192A-4051-A9C4-861ADB9B0C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2D6B14-5C6D-466A-BA61-66A82BFE385B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="680" firstSheet="4" activeTab="14" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="32700" yWindow="3900" windowWidth="21600" windowHeight="11835" tabRatio="680" firstSheet="6" activeTab="13" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3954" uniqueCount="2222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3968" uniqueCount="2232">
   <si>
     <t>Quest</t>
   </si>
@@ -6682,9 +6682,6 @@
     <t>high_all_dot_dmg_flat</t>
   </si>
   <si>
-    <t>major_all_dot_dmg_flat</t>
-  </si>
-  <si>
     <t>plate + shield</t>
   </si>
   <si>
@@ -6722,13 +6719,46 @@
   </si>
   <si>
     <t>crippled_lifesteal_flat</t>
+  </si>
+  <si>
+    <t>axewind0</t>
+  </si>
+  <si>
+    <t>low_armor_penetration_flat</t>
+  </si>
+  <si>
+    <t>plus_whirlwind_spell_lvl_flat</t>
+  </si>
+  <si>
+    <t>very_high_cdr_flat</t>
+  </si>
+  <si>
+    <t>much_less_health_percent</t>
+  </si>
+  <si>
+    <t>much_less_dodge_percent</t>
+  </si>
+  <si>
+    <t>double_less_critical_damage_percent</t>
+  </si>
+  <si>
+    <t>0.75 str, 0.5 sta</t>
+  </si>
+  <si>
+    <t>major_summon_damage_flat</t>
+  </si>
+  <si>
+    <t>Infernal Tools</t>
+  </si>
+  <si>
+    <t>summon_dmg_flat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6783,13 +6813,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6985,7 +7008,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -7048,7 +7071,6 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -23250,7 +23272,7 @@
   </sheetPr>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G18" sqref="G18:I18"/>
     </sheetView>
   </sheetViews>
@@ -24759,10 +24781,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K52" sqref="A52:K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24796,19 +24818,19 @@
       <c r="H1" s="28" t="s">
         <v>769</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="28" t="s">
         <v>613</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="28" t="s">
         <v>614</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="28" t="s">
         <v>615</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="28" t="s">
         <v>770</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="28" t="s">
         <v>771</v>
       </c>
     </row>
@@ -24837,9 +24859,13 @@
       <c r="H2" s="17" t="s">
         <v>773</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="17" t="s">
         <v>765</v>
       </c>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
@@ -24866,9 +24892,13 @@
       <c r="H3" s="17" t="s">
         <v>775</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="17" t="s">
         <v>674</v>
       </c>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
@@ -24895,21 +24925,25 @@
       <c r="H4" s="17" t="s">
         <v>777</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="17" t="s">
         <v>621</v>
       </c>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="13" t="s">
         <v>2152</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="13">
         <v>0</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="13">
         <v>1</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="13">
         <v>10000</v>
       </c>
       <c r="E5" s="13">
@@ -24918,17 +24952,19 @@
       <c r="F5" s="13">
         <v>20</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="13">
         <v>2</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="13" t="s">
         <v>777</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="13" t="s">
         <v>796</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
@@ -24955,12 +24991,15 @@
       <c r="H6" s="17" t="s">
         <v>779</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="17" t="s">
         <v>697</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="17" t="s">
         <v>705</v>
       </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
@@ -24987,9 +25026,13 @@
       <c r="H7" s="17" t="s">
         <v>781</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="17" t="s">
         <v>621</v>
       </c>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
@@ -25016,50 +25059,58 @@
       <c r="H8" s="17" t="s">
         <v>781</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="17" t="s">
         <v>628</v>
       </c>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="17" t="s">
         <v>782</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="17">
         <v>0</v>
       </c>
-      <c r="C9" s="62">
+      <c r="C9" s="17">
         <v>2</v>
       </c>
-      <c r="D9" s="62">
+      <c r="D9" s="17">
         <v>2500</v>
       </c>
       <c r="E9" s="17">
         <v>0</v>
       </c>
-      <c r="F9" s="62">
+      <c r="F9" s="17">
         <v>50</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="17">
         <v>2</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="17" t="s">
         <v>783</v>
       </c>
-      <c r="I9" s="62" t="s">
+      <c r="I9" s="17" t="s">
         <v>701</v>
       </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="17" t="s">
         <v>1679</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="17">
         <v>0</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="17">
         <v>1</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="17">
         <v>10000</v>
       </c>
       <c r="E10" s="17">
@@ -25068,21 +25119,23 @@
       <c r="F10" s="17">
         <v>35</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="17">
         <v>4</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="17" t="s">
         <v>1681</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="17" t="s">
         <v>805</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="17" t="s">
         <v>800</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="17" t="s">
         <v>1682</v>
       </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
@@ -25109,12 +25162,15 @@
       <c r="H11" s="17" t="s">
         <v>786</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="17" t="s">
         <v>2176</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="17" t="s">
         <v>788</v>
       </c>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
@@ -25141,12 +25197,15 @@
       <c r="H12" s="17" t="s">
         <v>786</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="17" t="s">
         <v>621</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="17" t="s">
         <v>790</v>
       </c>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
@@ -25185,16 +25244,16 @@
       <c r="N13" s="17"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="17" t="s">
         <v>793</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="17">
         <v>0</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="17">
         <v>1</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="17">
         <v>10000</v>
       </c>
       <c r="E14" s="17">
@@ -25221,16 +25280,16 @@
       <c r="N14" s="17"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="17" t="s">
         <v>795</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="17">
         <v>0</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="17">
         <v>1</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="17">
         <v>10000</v>
       </c>
       <c r="E15" s="17">
@@ -25239,30 +25298,33 @@
       <c r="F15" s="17">
         <v>40</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="17">
         <v>3</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="17" t="s">
         <v>777</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="17" t="s">
         <v>721</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="17" t="s">
         <v>796</v>
       </c>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="17" t="s">
         <v>797</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="17">
         <v>0</v>
       </c>
-      <c r="C16" s="62">
+      <c r="C16" s="17">
         <v>2</v>
       </c>
-      <c r="D16" s="62">
+      <c r="D16" s="17">
         <v>2500</v>
       </c>
       <c r="E16" s="17">
@@ -25277,7 +25339,7 @@
       <c r="H16" s="17" t="s">
         <v>798</v>
       </c>
-      <c r="I16" s="62" t="s">
+      <c r="I16" s="17" t="s">
         <v>674</v>
       </c>
       <c r="J16" s="17" t="s">
@@ -25286,23 +25348,23 @@
       <c r="K16" s="17" t="s">
         <v>642</v>
       </c>
-      <c r="L16" s="62" t="s">
+      <c r="L16" s="17" t="s">
         <v>2195</v>
       </c>
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="17" t="s">
         <v>799</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="17">
         <v>0</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="17">
         <v>1</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="17">
         <v>10000</v>
       </c>
       <c r="E17" s="17">
@@ -25331,16 +25393,16 @@
       <c r="N17" s="17"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="17" t="s">
         <v>801</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="17">
         <v>0</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="17">
         <v>1</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="17">
         <v>10000</v>
       </c>
       <c r="E18" s="17">
@@ -25369,16 +25431,16 @@
       <c r="N18" s="17"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="17" t="s">
         <v>804</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="17">
         <v>0</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="17">
         <v>1</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="17">
         <v>10000</v>
       </c>
       <c r="E19" s="17">
@@ -25407,16 +25469,16 @@
       <c r="N19" s="17"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="13" t="s">
         <v>2153</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="13">
         <v>0</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="13">
         <v>1</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="13">
         <v>10000</v>
       </c>
       <c r="E20" s="13">
@@ -25425,30 +25487,33 @@
       <c r="F20" s="13">
         <v>50</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="13">
         <v>3</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="13" t="s">
         <v>777</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="13" t="s">
         <v>1070</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="17" t="s">
         <v>796</v>
       </c>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="13" t="s">
         <v>2205</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="17">
         <v>0</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="13">
         <v>1</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="13">
         <v>10000</v>
       </c>
       <c r="E21" s="13">
@@ -25457,33 +25522,35 @@
       <c r="F21" s="13">
         <v>50</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="13">
         <v>4</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="13" t="s">
         <v>2206</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="17" t="s">
         <v>2188</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="17" t="s">
         <v>2207</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="17" t="s">
         <v>688</v>
       </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="9" t="s">
         <v>1680</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="9">
         <v>0</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="9">
         <v>1</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="9">
         <v>10000</v>
       </c>
       <c r="E22" s="9">
@@ -25492,33 +25559,35 @@
       <c r="F22" s="9">
         <v>50</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="9">
         <v>4</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="9" t="s">
         <v>1683</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="9" t="s">
         <v>661</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" s="9" t="s">
         <v>859</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="9" t="s">
         <v>692</v>
       </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="17" t="s">
         <v>807</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="17">
         <v>0</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="17">
         <v>1</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="17">
         <v>10000</v>
       </c>
       <c r="E23" s="17">
@@ -25585,16 +25654,16 @@
       <c r="N24" s="17"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="17" t="s">
         <v>813</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="17">
         <v>0</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="17">
         <v>1</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="17">
         <v>10000</v>
       </c>
       <c r="E25" s="17">
@@ -25623,16 +25692,16 @@
       <c r="N25" s="17"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="17" t="s">
         <v>815</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="17">
         <v>0</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="17">
         <v>1</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="17">
         <v>10000</v>
       </c>
       <c r="E26" s="17">
@@ -25661,10 +25730,10 @@
       <c r="N26" s="17"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="17" t="s">
         <v>817</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="17">
         <v>0</v>
       </c>
       <c r="C27" s="17">
@@ -25697,16 +25766,16 @@
       <c r="N27" s="17"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="17" t="s">
         <v>819</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="17">
         <v>0</v>
       </c>
-      <c r="C28" s="62">
+      <c r="C28" s="17">
         <v>2</v>
       </c>
-      <c r="D28" s="62">
+      <c r="D28" s="17">
         <v>2500</v>
       </c>
       <c r="E28" s="17">
@@ -25735,16 +25804,16 @@
       <c r="N28" s="17"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="17" t="s">
         <v>821</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="17">
         <v>0</v>
       </c>
-      <c r="C29" s="62">
+      <c r="C29" s="17">
         <v>3</v>
       </c>
-      <c r="D29" s="62">
+      <c r="D29" s="17">
         <v>250</v>
       </c>
       <c r="E29" s="17">
@@ -25753,36 +25822,37 @@
       <c r="F29" s="17">
         <v>100</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="17">
         <v>6</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="17" t="s">
         <v>822</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="17" t="s">
         <v>621</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="17" t="s">
         <v>691</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="17" t="s">
         <v>796</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="17" t="s">
         <v>823</v>
       </c>
+      <c r="M29" s="17"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="17" t="s">
         <v>824</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="17">
         <v>0</v>
       </c>
-      <c r="C30" s="62">
+      <c r="C30" s="17">
         <v>3</v>
       </c>
-      <c r="D30" s="62">
+      <c r="D30" s="17">
         <v>250</v>
       </c>
       <c r="E30" s="17">
@@ -25807,16 +25877,16 @@
       <c r="N30" s="17"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="17" t="s">
         <v>827</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="17">
         <v>0</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="17">
         <v>1</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="17">
         <v>10000</v>
       </c>
       <c r="E31" s="17">
@@ -25845,10 +25915,10 @@
       <c r="N31" s="17"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="17" t="s">
         <v>828</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="17">
         <v>0</v>
       </c>
       <c r="C32" s="17">
@@ -25883,16 +25953,16 @@
       <c r="N32" s="17"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="17" t="s">
         <v>830</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="17">
         <v>0</v>
       </c>
-      <c r="C33" s="62">
+      <c r="C33" s="17">
         <v>2</v>
       </c>
-      <c r="D33" s="62">
+      <c r="D33" s="17">
         <v>2500</v>
       </c>
       <c r="E33" s="17">
@@ -25923,10 +25993,10 @@
       <c r="N33" s="17"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="17" t="s">
         <v>832</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="17">
         <v>0</v>
       </c>
       <c r="C34" s="17">
@@ -25961,10 +26031,10 @@
       <c r="N34" s="17"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="17" t="s">
         <v>834</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="17">
         <v>0</v>
       </c>
       <c r="C35" s="17">
@@ -25995,16 +26065,16 @@
       <c r="N35" s="17"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="17" t="s">
         <v>837</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="17">
         <v>0</v>
       </c>
-      <c r="C36" s="62">
+      <c r="C36" s="17">
         <v>3</v>
       </c>
-      <c r="D36" s="62">
+      <c r="D36" s="17">
         <v>250</v>
       </c>
       <c r="E36" s="17">
@@ -26031,16 +26101,16 @@
       <c r="N36" s="17"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="17" t="s">
         <v>838</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="17">
         <v>0</v>
       </c>
-      <c r="C37" s="62">
+      <c r="C37" s="17">
         <v>3</v>
       </c>
-      <c r="D37" s="62">
+      <c r="D37" s="17">
         <v>250</v>
       </c>
       <c r="E37" s="17">
@@ -26073,16 +26143,16 @@
       <c r="N37" s="17"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="17" t="s">
         <v>842</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="17">
         <v>0</v>
       </c>
-      <c r="C38" s="62">
+      <c r="C38" s="17">
         <v>3</v>
       </c>
-      <c r="D38" s="62">
+      <c r="D38" s="17">
         <v>250</v>
       </c>
       <c r="E38" s="17">
@@ -26115,16 +26185,16 @@
       <c r="N38" s="17"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="17" t="s">
         <v>846</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="17">
         <v>0</v>
       </c>
-      <c r="C39" s="62">
+      <c r="C39" s="17">
         <v>3</v>
       </c>
-      <c r="D39" s="62">
+      <c r="D39" s="17">
         <v>250</v>
       </c>
       <c r="E39" s="17">
@@ -26157,16 +26227,16 @@
       <c r="N39" s="17"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="13" t="s">
         <v>2204</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="13">
         <v>0</v>
       </c>
-      <c r="C40" s="62">
+      <c r="C40" s="17">
         <v>3</v>
       </c>
-      <c r="D40" s="62">
+      <c r="D40" s="17">
         <v>250</v>
       </c>
       <c r="E40" s="13">
@@ -26175,39 +26245,39 @@
       <c r="F40" s="13">
         <v>100</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="13">
         <v>6</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="H40" s="13" t="s">
         <v>833</v>
       </c>
-      <c r="I40" s="8" t="s">
+      <c r="I40" s="13" t="s">
         <v>752</v>
       </c>
-      <c r="J40" t="s">
-        <v>2200</v>
-      </c>
-      <c r="K40" t="s">
+      <c r="J40" s="17" t="s">
+        <v>2207</v>
+      </c>
+      <c r="K40" s="17" t="s">
         <v>1333</v>
       </c>
-      <c r="L40" t="s">
-        <v>1018</v>
-      </c>
-      <c r="M40" t="s">
-        <v>2208</v>
+      <c r="L40" s="17" t="s">
+        <v>1230</v>
+      </c>
+      <c r="M40" s="17" t="s">
+        <v>2229</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="17" t="s">
         <v>849</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="17">
         <v>0</v>
       </c>
-      <c r="C41" s="62">
+      <c r="C41" s="17">
         <v>2</v>
       </c>
-      <c r="D41" s="62">
+      <c r="D41" s="17">
         <v>2500</v>
       </c>
       <c r="E41" s="17">
@@ -26234,16 +26304,16 @@
       <c r="N41" s="17"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="17" t="s">
         <v>852</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="17">
         <v>0</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="17">
         <v>4</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="17">
         <v>50</v>
       </c>
       <c r="E42" s="17">
@@ -26272,16 +26342,16 @@
       <c r="N42" s="17"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="17" t="s">
         <v>855</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="17">
         <v>0</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="17">
         <v>4</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="17">
         <v>50</v>
       </c>
       <c r="E43" s="17">
@@ -26290,33 +26360,35 @@
       <c r="F43" s="17">
         <v>100</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="17">
         <v>4</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="17" t="s">
         <v>777</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="17" t="s">
         <v>752</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43" s="17" t="s">
         <v>856</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K43" s="17" t="s">
         <v>790</v>
       </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="17" t="s">
         <v>857</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="17">
         <v>0</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="17">
         <v>4</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="17">
         <v>50</v>
       </c>
       <c r="E44" s="17">
@@ -26325,27 +26397,29 @@
       <c r="F44" s="17">
         <v>100</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="17">
         <v>4</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="17" t="s">
         <v>777</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="17" t="s">
         <v>858</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" s="17" t="s">
         <v>859</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" s="17" t="s">
         <v>794</v>
       </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="17" t="s">
         <v>860</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="17">
         <v>0</v>
       </c>
       <c r="C45" s="17">
@@ -26369,55 +26443,59 @@
       <c r="I45" s="17" t="s">
         <v>861</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" s="17" t="s">
         <v>862</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45" s="17" t="s">
         <v>792</v>
       </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="24" t="s">
         <v>863</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="24">
         <v>0</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="24">
         <v>1</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="24">
         <v>10000</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="24" t="s">
         <v>864</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="24" t="s">
         <v>864</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="24">
         <v>2</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="24" t="s">
         <v>865</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="I46" s="24" t="s">
         <v>692</v>
       </c>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>2211</v>
-      </c>
-      <c r="B47">
+      <c r="A47" s="17" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B47" s="17">
         <v>0</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="17">
         <v>2</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="17">
         <v>2500</v>
       </c>
       <c r="E47" s="17">
@@ -26426,33 +26504,35 @@
       <c r="F47" s="17">
         <v>100</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="17">
         <v>4</v>
       </c>
       <c r="H47" s="17" t="s">
+        <v>2208</v>
+      </c>
+      <c r="I47" s="17" t="s">
         <v>2209</v>
       </c>
-      <c r="I47" t="s">
-        <v>2210</v>
-      </c>
-      <c r="J47" t="s">
-        <v>2220</v>
-      </c>
-      <c r="K47" t="s">
+      <c r="J47" s="17" t="s">
+        <v>2219</v>
+      </c>
+      <c r="K47" s="17" t="s">
         <v>949</v>
       </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>2212</v>
-      </c>
-      <c r="B48">
+      <c r="A48" s="17" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B48" s="17">
         <v>0</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="17">
         <v>4</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="17">
         <v>50</v>
       </c>
       <c r="E48" s="17">
@@ -26461,33 +26541,35 @@
       <c r="F48" s="17">
         <v>100</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="17">
         <v>3</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="17" t="s">
         <v>777</v>
       </c>
       <c r="I48" s="17" t="s">
         <v>2195</v>
       </c>
-      <c r="J48" t="s">
-        <v>2219</v>
-      </c>
-      <c r="K48" t="s">
+      <c r="J48" s="17" t="s">
+        <v>2218</v>
+      </c>
+      <c r="K48" s="17" t="s">
+        <v>2212</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
         <v>2213</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>2214</v>
-      </c>
-      <c r="B49">
+      <c r="B49" s="17">
         <v>0</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="17">
         <v>2</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="17">
         <v>2500</v>
       </c>
       <c r="E49" s="17">
@@ -26496,30 +26578,33 @@
       <c r="F49" s="17">
         <v>70</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="17">
         <v>3</v>
       </c>
       <c r="H49" s="17" t="s">
         <v>786</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="17" t="s">
         <v>688</v>
       </c>
       <c r="J49" s="17" t="s">
         <v>2195</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>2215</v>
-      </c>
-      <c r="B50">
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B50" s="17">
         <v>0</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="17">
         <v>1</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="17">
         <v>10000</v>
       </c>
       <c r="E50" s="17">
@@ -26528,30 +26613,33 @@
       <c r="F50" s="17">
         <v>70</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="17">
         <v>3</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>2209</v>
-      </c>
-      <c r="I50" t="s">
+        <v>2208</v>
+      </c>
+      <c r="I50" s="17" t="s">
+        <v>2215</v>
+      </c>
+      <c r="J50" s="17" t="s">
         <v>2216</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
         <v>2217</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>2218</v>
-      </c>
-      <c r="B51">
+      <c r="B51" s="17">
         <v>0</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="17">
         <v>1</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="17">
         <v>10000</v>
       </c>
       <c r="E51" s="17">
@@ -26560,18 +26648,54 @@
       <c r="F51" s="17">
         <v>40</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="17">
         <v>3</v>
       </c>
       <c r="H51" s="17" t="s">
         <v>779</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="17" t="s">
         <v>747</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51" s="17" t="s">
         <v>1005</v>
       </c>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B52" s="17">
+        <v>0</v>
+      </c>
+      <c r="C52" s="17">
+        <v>1</v>
+      </c>
+      <c r="D52" s="17">
+        <v>10000</v>
+      </c>
+      <c r="E52" s="17">
+        <v>0</v>
+      </c>
+      <c r="F52" s="17">
+        <v>35</v>
+      </c>
+      <c r="G52" s="17">
+        <v>3</v>
+      </c>
+      <c r="H52" s="17" t="s">
+        <v>777</v>
+      </c>
+      <c r="I52" s="17" t="s">
+        <v>2200</v>
+      </c>
+      <c r="J52" s="17" t="s">
+        <v>2231</v>
+      </c>
+      <c r="K52" s="17"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N1" xr:uid="{53C31A42-FE05-418B-83B3-86861291C9F6}">
@@ -26589,10 +26713,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:P161"/>
+  <dimension ref="A1:P162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="I160" sqref="I160"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31981,7 +32105,7 @@
         <v>1121</v>
       </c>
       <c r="J148" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="K148" t="s">
         <v>1123</v>
@@ -32453,7 +32577,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>897</v>
       </c>
@@ -32487,6 +32611,47 @@
       </c>
       <c r="N161" t="s">
         <v>902</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>877</v>
+      </c>
+      <c r="C162" s="17" t="s">
+        <v>2221</v>
+      </c>
+      <c r="D162" s="17">
+        <v>3</v>
+      </c>
+      <c r="E162" s="17">
+        <v>1</v>
+      </c>
+      <c r="F162" s="17">
+        <v>10000</v>
+      </c>
+      <c r="G162" t="s">
+        <v>880</v>
+      </c>
+      <c r="I162" t="s">
+        <v>2223</v>
+      </c>
+      <c r="J162" t="s">
+        <v>2222</v>
+      </c>
+      <c r="K162" t="s">
+        <v>2224</v>
+      </c>
+      <c r="L162" t="s">
+        <v>2225</v>
+      </c>
+      <c r="M162" t="s">
+        <v>2226</v>
+      </c>
+      <c r="N162" t="s">
+        <v>2227</v>
+      </c>
+      <c r="O162" t="s">
+        <v>2228</v>
       </c>
     </row>
   </sheetData>

--- a/INFO D.xlsx
+++ b/INFO D.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin Vuu\Documents\GitHub\Craft-to-Exile-Dissonance-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2D6B14-5C6D-466A-BA61-66A82BFE385B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7100CE3F-78B7-4A9C-AE9B-BB0DA4E56676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32700" yWindow="3900" windowWidth="21600" windowHeight="11835" tabRatio="680" firstSheet="6" activeTab="13" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="680" firstSheet="6" activeTab="16" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,16 @@
     <sheet name="Sets" sheetId="18" r:id="rId14"/>
     <sheet name="Uniques" sheetId="19" r:id="rId15"/>
     <sheet name="Affixes" sheetId="20" r:id="rId16"/>
-    <sheet name="Mob Affixes" sheetId="21" r:id="rId17"/>
-    <sheet name="Skill Tree Perks" sheetId="25" r:id="rId18"/>
-    <sheet name="Talent Perks" sheetId="22" r:id="rId19"/>
-    <sheet name="MineColonies Research" sheetId="23" r:id="rId20"/>
+    <sheet name="Affixes (cont.)" sheetId="27" r:id="rId17"/>
+    <sheet name="Sheet4" sheetId="29" r:id="rId18"/>
+    <sheet name="Mob Affixes" sheetId="21" r:id="rId19"/>
+    <sheet name="Skill Tree Perks" sheetId="25" r:id="rId20"/>
+    <sheet name="Talent Perks" sheetId="22" r:id="rId21"/>
+    <sheet name="MineColonies Research" sheetId="23" r:id="rId22"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Affixes (cont.)'!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Affixes (cont.)'!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">Sets!$A$1:$N$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Uniques!$A$1:$P$1</definedName>
   </definedNames>
@@ -56,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3968" uniqueCount="2232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4693" uniqueCount="2551">
   <si>
     <t>Quest</t>
   </si>
@@ -6752,13 +6756,970 @@
   </si>
   <si>
     <t>summon_dmg_flat</t>
+  </si>
+  <si>
+    <t>Min Level</t>
+  </si>
+  <si>
+    <t>Max Level</t>
+  </si>
+  <si>
+    <t>Slots</t>
+  </si>
+  <si>
+    <t>brave_heart</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>low_health_regen_percent</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>colossal</t>
+  </si>
+  <si>
+    <t>less_energy_regen_percent</t>
+  </si>
+  <si>
+    <t>very_high_physical_damage_percent</t>
+  </si>
+  <si>
+    <t>weapons</t>
+  </si>
+  <si>
+    <t>acc</t>
+  </si>
+  <si>
+    <t>cursed_undead</t>
+  </si>
+  <si>
+    <t>decisive</t>
+  </si>
+  <si>
+    <t>deep_mind</t>
+  </si>
+  <si>
+    <t>low_mana_regen_percent</t>
+  </si>
+  <si>
+    <t>defenders</t>
+  </si>
+  <si>
+    <t>shield</t>
+  </si>
+  <si>
+    <t>doomed</t>
+  </si>
+  <si>
+    <t>less_faster_cast_rate_flat</t>
+  </si>
+  <si>
+    <t>enduring_field</t>
+  </si>
+  <si>
+    <t>energetic</t>
+  </si>
+  <si>
+    <t>eternal_field</t>
+  </si>
+  <si>
+    <t>evasive</t>
+  </si>
+  <si>
+    <t>armor</t>
+  </si>
+  <si>
+    <t>armor, -shield</t>
+  </si>
+  <si>
+    <t>fire_enchanted</t>
+  </si>
+  <si>
+    <t>tiny_attack_fire_damage_flat</t>
+  </si>
+  <si>
+    <t>fire_heretic</t>
+  </si>
+  <si>
+    <t>very_low_all_dot_dmg_flat</t>
+  </si>
+  <si>
+    <t>acc, staff</t>
+  </si>
+  <si>
+    <t>fire_imbued</t>
+  </si>
+  <si>
+    <t>attack_fire_damage_percent</t>
+  </si>
+  <si>
+    <t>fire_shield</t>
+  </si>
+  <si>
+    <t>flaming</t>
+  </si>
+  <si>
+    <t>forceful</t>
+  </si>
+  <si>
+    <t>tiny_physical_damage_flat</t>
+  </si>
+  <si>
+    <t>forgotten</t>
+  </si>
+  <si>
+    <t>very_low_health_percent</t>
+  </si>
+  <si>
+    <t>mana_cost_red_flat</t>
+  </si>
+  <si>
+    <t>frosty</t>
+  </si>
+  <si>
+    <t>gatekeepers</t>
+  </si>
+  <si>
+    <t>generation_curse</t>
+  </si>
+  <si>
+    <t>high_luck_flat</t>
+  </si>
+  <si>
+    <t>hard_hitting</t>
+  </si>
+  <si>
+    <t>hardened</t>
+  </si>
+  <si>
+    <t>amor, -torch</t>
+  </si>
+  <si>
+    <t>heavenly_skin</t>
+  </si>
+  <si>
+    <t>heavenly_strikes</t>
+  </si>
+  <si>
+    <t>heros</t>
+  </si>
+  <si>
+    <t>inner_spirit</t>
+  </si>
+  <si>
+    <t>low_energy_regen_percent</t>
+  </si>
+  <si>
+    <t>life_stealing</t>
+  </si>
+  <si>
+    <t>low_lifesteal_flat</t>
+  </si>
+  <si>
+    <t>looters</t>
+  </si>
+  <si>
+    <t>bracelet</t>
+  </si>
+  <si>
+    <t>magic_siphon</t>
+  </si>
+  <si>
+    <t>magical</t>
+  </si>
+  <si>
+    <t>nature_enchanted</t>
+  </si>
+  <si>
+    <t>tiny_attack_nature_damage_flat</t>
+  </si>
+  <si>
+    <t>nature_heretic</t>
+  </si>
+  <si>
+    <t>nature_imbued</t>
+  </si>
+  <si>
+    <t>attack_nature_damage_percent</t>
+  </si>
+  <si>
+    <t>nature_shield</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>reeking</t>
+  </si>
+  <si>
+    <t>tiny_dodge_flat</t>
+  </si>
+  <si>
+    <t>tiny_armor_flat</t>
+  </si>
+  <si>
+    <t>tiny_magic_shield_flat</t>
+  </si>
+  <si>
+    <t>sacrificial</t>
+  </si>
+  <si>
+    <t>luck_flat</t>
+  </si>
+  <si>
+    <t>charm</t>
+  </si>
+  <si>
+    <t>shabby</t>
+  </si>
+  <si>
+    <t>less_armor_flat</t>
+  </si>
+  <si>
+    <t>smelly</t>
+  </si>
+  <si>
+    <t>less_health_regen_percent</t>
+  </si>
+  <si>
+    <t>tenacious</t>
+  </si>
+  <si>
+    <t>thirst_of_acid</t>
+  </si>
+  <si>
+    <t>very_low_spellsteal_flat</t>
+  </si>
+  <si>
+    <t>thirst_of_flame</t>
+  </si>
+  <si>
+    <t>thirst_of_frost</t>
+  </si>
+  <si>
+    <t>thirst_of_lightning</t>
+  </si>
+  <si>
+    <t>thorny</t>
+  </si>
+  <si>
+    <t>thunder_enchanted</t>
+  </si>
+  <si>
+    <t>tiny_attack_thunder_damage_flat</t>
+  </si>
+  <si>
+    <t>thunder_heretic</t>
+  </si>
+  <si>
+    <t>thunder_imbued</t>
+  </si>
+  <si>
+    <t>attack_thunder_damage_percent</t>
+  </si>
+  <si>
+    <t>thunder_shield</t>
+  </si>
+  <si>
+    <t>thundering</t>
+  </si>
+  <si>
+    <t>touch_of_magic</t>
+  </si>
+  <si>
+    <t>tough</t>
+  </si>
+  <si>
+    <t>armor, -orb</t>
+  </si>
+  <si>
+    <t>treasure_seeker</t>
+  </si>
+  <si>
+    <t>unending_field</t>
+  </si>
+  <si>
+    <t>water_enchanted</t>
+  </si>
+  <si>
+    <t>tiny_attack_water_damage_flat</t>
+  </si>
+  <si>
+    <t>water_heretic</t>
+  </si>
+  <si>
+    <t>water_imbued</t>
+  </si>
+  <si>
+    <t>attack_water_damage_percent</t>
+  </si>
+  <si>
+    <t>water_shield</t>
+  </si>
+  <si>
+    <t>wise</t>
+  </si>
+  <si>
+    <t>arcanists</t>
+  </si>
+  <si>
+    <t>very_low_spell_damage_flat</t>
+  </si>
+  <si>
+    <t>archaeologists</t>
+  </si>
+  <si>
+    <t>bonus_fire_reflect_prefix</t>
+  </si>
+  <si>
+    <t>bonus_water_reflect_prefix</t>
+  </si>
+  <si>
+    <t>bonus_nature_reflect_prefix</t>
+  </si>
+  <si>
+    <t>bonus_thunder_reflect_prefix</t>
+  </si>
+  <si>
+    <t>shared weapon</t>
+  </si>
+  <si>
+    <t>melee weapon</t>
+  </si>
+  <si>
+    <t>ranged weapon</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>shared armor</t>
+  </si>
+  <si>
+    <t>shared acc</t>
+  </si>
+  <si>
+    <t>neck</t>
+  </si>
+  <si>
+    <t>torch</t>
+  </si>
+  <si>
+    <t>orb</t>
+  </si>
+  <si>
+    <t>Rarity 1</t>
+  </si>
+  <si>
+    <t>Rarity 2</t>
+  </si>
+  <si>
+    <t>Rarity 3</t>
+  </si>
+  <si>
+    <t>Rarity 4</t>
+  </si>
+  <si>
+    <t>necromancers</t>
+  </si>
+  <si>
+    <t>dazzling</t>
+  </si>
+  <si>
+    <t>summon_damage_flat</t>
+  </si>
+  <si>
+    <t>of_rock_skin</t>
+  </si>
+  <si>
+    <t>suffix</t>
+  </si>
+  <si>
+    <t>of_staff_flurry</t>
+  </si>
+  <si>
+    <t>low_armor_percent</t>
+  </si>
+  <si>
+    <t>low_health_ flat</t>
+  </si>
+  <si>
+    <t>(25) tiny_armor_flat + tiny_health_flat</t>
+  </si>
+  <si>
+    <t>low_physical_thorns_reflect_flat</t>
+  </si>
+  <si>
+    <t>low_physical_damage_percent</t>
+  </si>
+  <si>
+    <t>low_strength_flat</t>
+  </si>
+  <si>
+    <t>low_dodge_percent</t>
+  </si>
+  <si>
+    <t>(25) tiny_dodge_flat + tiny_health_flat</t>
+  </si>
+  <si>
+    <t>low_dexterity_flat</t>
+  </si>
+  <si>
+    <t>low_stamina_flat</t>
+  </si>
+  <si>
+    <t>tiny_armor_flat + tiny_energy_regen_percent</t>
+  </si>
+  <si>
+    <t>tiny_dodge_flat + tiny_energy_regen_percent</t>
+  </si>
+  <si>
+    <t>low_water_resist_flat</t>
+  </si>
+  <si>
+    <t>low_fire_resist_flat</t>
+  </si>
+  <si>
+    <t>low_thunder_resist_flat</t>
+  </si>
+  <si>
+    <t>low_nature_resist_flat</t>
+  </si>
+  <si>
+    <t>very_low_energy_regen_flat</t>
+  </si>
+  <si>
+    <t>low_magic_shield_flat</t>
+  </si>
+  <si>
+    <t>low_mana_flat</t>
+  </si>
+  <si>
+    <t>low_magic_shield_percent</t>
+  </si>
+  <si>
+    <t>tiny_magic_shield_flat + tiny_energy_regen_percent</t>
+  </si>
+  <si>
+    <t>(25) tiny_magic_shield_flat + tiny_health_flat</t>
+  </si>
+  <si>
+    <t>low_intelligence_flat</t>
+  </si>
+  <si>
+    <t>low_wisdom_flat</t>
+  </si>
+  <si>
+    <t>(helm) low_summon_damage_flat</t>
+  </si>
+  <si>
+    <t>(25) tiny_luck_flat</t>
+  </si>
+  <si>
+    <t>(25) (pants) very_low_lifesteal_flat</t>
+  </si>
+  <si>
+    <t>(1-50) (pants) low_life_on_hit_flat</t>
+  </si>
+  <si>
+    <t>(1-50) (pants) low_mana_on_hit_flat</t>
+  </si>
+  <si>
+    <t>(1-50) low_life_on_hit_flat</t>
+  </si>
+  <si>
+    <t>(1-50) low_mana_on_hit_flat</t>
+  </si>
+  <si>
+    <t>low_attack_elemental_damage_percent</t>
+  </si>
+  <si>
+    <t>very_low_crit_hit_flat</t>
+  </si>
+  <si>
+    <t>low_crit_damage_flat</t>
+  </si>
+  <si>
+    <t>low_crit_hit_flat</t>
+  </si>
+  <si>
+    <t>(25) low_all_dot_dmg_flat</t>
+  </si>
+  <si>
+    <t>tiny_all_dot_dmg_flat + tiny_physical_damage_percent</t>
+  </si>
+  <si>
+    <t>tiny_physical_damage_percent + tiny_energy_regen_percent</t>
+  </si>
+  <si>
+    <t>tiny_dexterity_flat + tiny_stamina_flat</t>
+  </si>
+  <si>
+    <t>tiny_strength_flat +  tiny_vitality_flat</t>
+  </si>
+  <si>
+    <t>tiny_intelligence_flat + tiny_intelligence_flat</t>
+  </si>
+  <si>
+    <t>very_low_nature_resist_flat</t>
+  </si>
+  <si>
+    <t>very_low_thunder_resist_flat</t>
+  </si>
+  <si>
+    <t>very_low_fire_resist_flat</t>
+  </si>
+  <si>
+    <t>very_low_water_resist_flat</t>
+  </si>
+  <si>
+    <t>very_low_strength_flat</t>
+  </si>
+  <si>
+    <t>very_low_dexterity_flat</t>
+  </si>
+  <si>
+    <t>very_low_intelligence_flat</t>
+  </si>
+  <si>
+    <t>tiny_bow_damage_flat + tiny_crossbow_damage_flat</t>
+  </si>
+  <si>
+    <t>(25) tiny_spell-damage_flat + tiny_mana_flat</t>
+  </si>
+  <si>
+    <t>low_spell_fire_damage_flat</t>
+  </si>
+  <si>
+    <t>low_spell_water_damage_flat</t>
+  </si>
+  <si>
+    <t>low_spell_thunder_damage_flat</t>
+  </si>
+  <si>
+    <t>low_spell_nature_damage_flat</t>
+  </si>
+  <si>
+    <t>tiny_all_dot_dmg_flat + tiny_spell_nature_damage_flat</t>
+  </si>
+  <si>
+    <t>(25) tiny_crit_hit_flat + tiny_crit_damage_flat</t>
+  </si>
+  <si>
+    <t>low_faster_cast_rate_flat</t>
+  </si>
+  <si>
+    <t>(25) very_low_cdr_flat</t>
+  </si>
+  <si>
+    <t>tiny_spell_water_damage_flat</t>
+  </si>
+  <si>
+    <t>tiny_spell_fire_damage_flat</t>
+  </si>
+  <si>
+    <t>tiny_spell_nature_damage_flat</t>
+  </si>
+  <si>
+    <t>tiny_spell_thunder_damage_flat</t>
+  </si>
+  <si>
+    <t>low_attack_fire_damage_percent</t>
+  </si>
+  <si>
+    <t>very_low_attack_fire_damage_percent</t>
+  </si>
+  <si>
+    <t>very_low_attack_thunder_damage_percent</t>
+  </si>
+  <si>
+    <t>very_low_attack_nature_damage_percent</t>
+  </si>
+  <si>
+    <t>very_low_attack_water_damage_percent</t>
+  </si>
+  <si>
+    <t>tiny_attack_elemental_damage_percent</t>
+  </si>
+  <si>
+    <t>very_low_magic_shield_flat</t>
+  </si>
+  <si>
+    <t>very_low_armor_flat</t>
+  </si>
+  <si>
+    <t>very_low_dodge_flat</t>
+  </si>
+  <si>
+    <t>very_low_mana_flat</t>
+  </si>
+  <si>
+    <t>very_low_health_flat</t>
+  </si>
+  <si>
+    <t>tiny_faster_cast_rate_flat</t>
+  </si>
+  <si>
+    <t>very_low_vitality_flat</t>
+  </si>
+  <si>
+    <t>very_low_stamina_flat</t>
+  </si>
+  <si>
+    <t>very_low_wisdom_flat</t>
+  </si>
+  <si>
+    <t>very_low_energy_flat</t>
+  </si>
+  <si>
+    <t>low_energy_flat</t>
+  </si>
+  <si>
+    <t>(10) very_low_spell_fire_damage_flat</t>
+  </si>
+  <si>
+    <t>(10) very_low_spell_water_damage_flat</t>
+  </si>
+  <si>
+    <t>(10) very_low_spell_thunder_damage_flat</t>
+  </si>
+  <si>
+    <t>(10) very_low_spell_nature_damage_flat</t>
+  </si>
+  <si>
+    <t>(10) tiny_mana_regen_flat + tiny_energy_regen_flat</t>
+  </si>
+  <si>
+    <t>(25) tiny_cdr_flat</t>
+  </si>
+  <si>
+    <t>(25) very_low_fire_resist_flat + very_low_water_resist_flat</t>
+  </si>
+  <si>
+    <t>(25) very_low_fire_resist_flat + very_low_thunder_resist_flat</t>
+  </si>
+  <si>
+    <t>(25) very_low_fire_resist_flat + very_low_nature_resist_flat</t>
+  </si>
+  <si>
+    <t>(25) very_low_water_resist_flat + very_low_thunder_resist_flat</t>
+  </si>
+  <si>
+    <t>(25) very_low_water_resist_flat + very_low_nature_resist_flat</t>
+  </si>
+  <si>
+    <t>(25) very_low_nature_resist_flat + very_low_thunder_resist_flat</t>
+  </si>
+  <si>
+    <t>tiny_spell_damage_flat</t>
+  </si>
+  <si>
+    <t>crit_hit_flat</t>
+  </si>
+  <si>
+    <t>very_low_crit_damage_flat</t>
+  </si>
+  <si>
+    <t>very_low_physical_thorns_reflect_flat</t>
+  </si>
+  <si>
+    <t>(!torch/orb) low_physical_thorns_reflect_flat</t>
+  </si>
+  <si>
+    <t>very_low_physical_damage_percent</t>
+  </si>
+  <si>
+    <t>(10) very_low_block_strength_flat</t>
+  </si>
+  <si>
+    <t>(10) tiny_elemental_resist_flat</t>
+  </si>
+  <si>
+    <t>very_low_faster_cast_rate_flat</t>
+  </si>
+  <si>
+    <t>very_low_mana_regen_percent</t>
+  </si>
+  <si>
+    <t>very_low_magic_shield_percent</t>
+  </si>
+  <si>
+    <t>very_low_armor_percent</t>
+  </si>
+  <si>
+    <t>very_low_dodge_percent</t>
+  </si>
+  <si>
+    <t>tiny_dodge_percent</t>
+  </si>
+  <si>
+    <t>very_low_lifesteal_flat</t>
+  </si>
+  <si>
+    <t>(25) very_low_attack_elemental_percent</t>
+  </si>
+  <si>
+    <t>tiny_spell_fire_damage_flat + tiny_spell_water_damage</t>
+  </si>
+  <si>
+    <t>tiny_spell_fire_damage_flat + tiny_spell_thunder_damage</t>
+  </si>
+  <si>
+    <t>tiny_spell_fire_damage_flat + tiny_spell_nature_damage</t>
+  </si>
+  <si>
+    <t>tiny_spell_thunder_damage_flat + tiny_spell_water_damage</t>
+  </si>
+  <si>
+    <t>tiny_spell_thunder_damage_flat + tiny_spell_nature_damage</t>
+  </si>
+  <si>
+    <t>tiny_spell_water_damage_flat + tiny_spell_nature_damage</t>
+  </si>
+  <si>
+    <t>very_low_fire_penetration_flat</t>
+  </si>
+  <si>
+    <t>very_low_water_penetration_flat</t>
+  </si>
+  <si>
+    <t>very_low_thunder_penetration_flat</t>
+  </si>
+  <si>
+    <t>very_low_nature_penetration_flat</t>
+  </si>
+  <si>
+    <t>tiny_energy_regen_percent + tiny_armor_penetration_flat</t>
+  </si>
+  <si>
+    <t>tiny_physical_damage_percent + tiny_armor_penetration_flat</t>
+  </si>
+  <si>
+    <t>(75) very_low_cdr_flat</t>
+  </si>
+  <si>
+    <t>health_ flat</t>
+  </si>
+  <si>
+    <t>(!torch/orb) physical_thorns_reflect_flat</t>
+  </si>
+  <si>
+    <t>attack_elemental_damage_percent</t>
+  </si>
+  <si>
+    <t>vitality_flat</t>
+  </si>
+  <si>
+    <t>crit_damage_flat</t>
+  </si>
+  <si>
+    <t>faster_cast_rate_flat</t>
+  </si>
+  <si>
+    <t>(75) all_dot_dmg_flat</t>
+  </si>
+  <si>
+    <t>(helm) summon_damage_flat</t>
+  </si>
+  <si>
+    <t>low_attack_water_damage_percent</t>
+  </si>
+  <si>
+    <t>(60) low_block_strength_flat</t>
+  </si>
+  <si>
+    <t>low_attack_thunder_damage_percent</t>
+  </si>
+  <si>
+    <t>low_attack_nature_damage_percent</t>
+  </si>
+  <si>
+    <t>low_fire_penetration_flat</t>
+  </si>
+  <si>
+    <t>low_water_penetration_flat</t>
+  </si>
+  <si>
+    <t>low_thunder_penetration_flat</t>
+  </si>
+  <si>
+    <t>low_nature_penetration_flat</t>
+  </si>
+  <si>
+    <t>(75) low_fire_resist_flat + low_water_resist_flat</t>
+  </si>
+  <si>
+    <t>(75) low_cdr_flat</t>
+  </si>
+  <si>
+    <t>(75) low_fire_resist_flat + low_thunder_resist_flat</t>
+  </si>
+  <si>
+    <t>(75) low_fire_resist_flat + low_nature_resist_flat</t>
+  </si>
+  <si>
+    <t>(75) low_attack_elemental_percent</t>
+  </si>
+  <si>
+    <t>(75) low_water_resist_flat + low_thunder_resist_flat</t>
+  </si>
+  <si>
+    <t>(60) low_spell_fire_damage_flat</t>
+  </si>
+  <si>
+    <t>(75) low_water_resist_flat + low_nature_resist_flat</t>
+  </si>
+  <si>
+    <t>(60) low_spell_water_damage_flat</t>
+  </si>
+  <si>
+    <t>(75) low_nature_resist_flat + low_thunder_resist_flat</t>
+  </si>
+  <si>
+    <t>(60) low_spell_thunder_damage_flat</t>
+  </si>
+  <si>
+    <t>(60) low_spell_nature_damage_flat</t>
+  </si>
+  <si>
+    <t>(75) (pants) low_lifesteal_flat</t>
+  </si>
+  <si>
+    <t>very_low_physical_damage_flat</t>
+  </si>
+  <si>
+    <t>(75) very_low_armor_flat + very_low_health_flat</t>
+  </si>
+  <si>
+    <t>(75) very_low_dodge_flat + very_low_health_flat</t>
+  </si>
+  <si>
+    <t>very_low_armor_flat + very_low_energy_regen_percent</t>
+  </si>
+  <si>
+    <t>very_low_dodge_flat + very_low_energy_regen_percent</t>
+  </si>
+  <si>
+    <t>(75) very_low_magic_shield_flat + very_low_health_flat</t>
+  </si>
+  <si>
+    <t>very_low_magic_shield_flat + very_low_energy_regen_percent</t>
+  </si>
+  <si>
+    <t>very_low_physical_damage_percent + very_low_energy_regen_percent</t>
+  </si>
+  <si>
+    <t>very_low_attack_elemental_damage_percent</t>
+  </si>
+  <si>
+    <t>very_low_strength_flat +  very_low_vitality_flat</t>
+  </si>
+  <si>
+    <t>very_low_dexterity_flat + very_low_stamina_flat</t>
+  </si>
+  <si>
+    <t>very_low_intelligence_flat + very_low_intelligence_flat</t>
+  </si>
+  <si>
+    <t>very_low_all_dot_dmg_flat + very_low_physical_damage_percent</t>
+  </si>
+  <si>
+    <t>very_low_bow_damage_flat + very_low_crossbow_damage_flat</t>
+  </si>
+  <si>
+    <t>(75) very_low_spell-damage_flat + very_low_mana_flat</t>
+  </si>
+  <si>
+    <t>(75) very_low_luck_flat</t>
+  </si>
+  <si>
+    <t>(60) very_low_elemental_resist_flat</t>
+  </si>
+  <si>
+    <t>very_low_all_dot_dmg_flat + very_low_spell_nature_damage_flat</t>
+  </si>
+  <si>
+    <t>(75) very_low_crit_hit_flat + very_low_crit_damage_flat</t>
+  </si>
+  <si>
+    <t>very_low_physical_damage_percent + very_low_armor_penetration_flat</t>
+  </si>
+  <si>
+    <t>very_low_energy_regen_percent + very_low_armor_penetration_flat</t>
+  </si>
+  <si>
+    <t>very_low_spell_fire_damage_flat + very_low_spell_water_damage</t>
+  </si>
+  <si>
+    <t>very_low_spell_fire_damage_flat + very_low_spell_thunder_damage</t>
+  </si>
+  <si>
+    <t>very_low_spell_fire_damage_flat + very_low_spell_nature_damage</t>
+  </si>
+  <si>
+    <t>very_low_spell_thunder_damage_flat + very_low_spell_water_damage</t>
+  </si>
+  <si>
+    <t>very_low_spell_thunder_damage_flat + very_low_spell_nature_damage</t>
+  </si>
+  <si>
+    <t>very_low_spell_water_damage_flat + very_low_spell_nature_damage</t>
+  </si>
+  <si>
+    <t>(60) very_low_mana_regen_flat + very_low_energy_regen_flat</t>
+  </si>
+  <si>
+    <t>(10) tiny_increase_healing_flat + tiny_spell_damage_flat</t>
+  </si>
+  <si>
+    <t>(60) very_low_increase_healing_flat + very_low_spell_damage_flat</t>
+  </si>
+  <si>
+    <t>tiny_fire_penetration_flat + tiny_water_penetration</t>
+  </si>
+  <si>
+    <t>tiny_fire_penetration_flat + tiny_nature_penetration</t>
+  </si>
+  <si>
+    <t>tiny_water_penetration_flat + tiny_nature_penetration</t>
+  </si>
+  <si>
+    <t>tiny_fire_penetration_flat + tiny_thunder_penetration</t>
+  </si>
+  <si>
+    <t>tiny_thunder_penetration_flat + tiny_water_penetration</t>
+  </si>
+  <si>
+    <t>tiny_thunder_penetration_flat + tiny_nature_penetration</t>
+  </si>
+  <si>
+    <t>very_low_fire_penetration_flat + very_low_water_penetration</t>
+  </si>
+  <si>
+    <t>very_low_fire_penetration_flat + very_low_thunder_penetration</t>
+  </si>
+  <si>
+    <t>very_low_fire_penetration_flat + very_low_nature_penetration</t>
+  </si>
+  <si>
+    <t>very_low_thunder_penetration_flat + very_low_water_penetration</t>
+  </si>
+  <si>
+    <t>very_low_thunder_penetration_flat + very_low_nature_penetration</t>
+  </si>
+  <si>
+    <t>very_low_water_penetration_flat + very_low_nature_penetration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6813,6 +7774,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -7008,7 +7976,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -7071,6 +8039,8 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18896,8 +19866,8 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>162424</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3029449</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>171760</xdr:rowOff>
     </xdr:to>
@@ -24783,7 +25753,7 @@
   </sheetPr>
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K52" sqref="A52:K52"/>
     </sheetView>
   </sheetViews>
@@ -32672,13 +33642,22 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -33342,11 +34321,3258 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C298E998-80AA-4778-8EB2-DFAC04D29482}">
+  <dimension ref="A1:AC72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I22" workbookViewId="0">
+      <selection activeCell="T50" sqref="T50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="27" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>607</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>609</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>610</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>2232</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>2233</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>613</v>
+      </c>
+      <c r="H1" s="60" t="s">
+        <v>614</v>
+      </c>
+      <c r="I1" s="60" t="s">
+        <v>615</v>
+      </c>
+      <c r="J1" s="60" t="s">
+        <v>2234</v>
+      </c>
+      <c r="L1" s="60" t="s">
+        <v>2341</v>
+      </c>
+      <c r="M1" s="60" t="s">
+        <v>2342</v>
+      </c>
+      <c r="N1" s="60" t="s">
+        <v>2343</v>
+      </c>
+      <c r="O1" s="60" t="s">
+        <v>2344</v>
+      </c>
+      <c r="P1" s="60" t="s">
+        <v>2345</v>
+      </c>
+      <c r="Q1" s="60" t="s">
+        <v>775</v>
+      </c>
+      <c r="R1" s="60" t="s">
+        <v>779</v>
+      </c>
+      <c r="S1" s="60" t="s">
+        <v>773</v>
+      </c>
+      <c r="T1" s="60" t="s">
+        <v>2346</v>
+      </c>
+      <c r="U1" s="60" t="s">
+        <v>2347</v>
+      </c>
+      <c r="V1" s="60" t="s">
+        <v>2287</v>
+      </c>
+      <c r="W1" s="60" t="s">
+        <v>825</v>
+      </c>
+      <c r="X1" s="60" t="s">
+        <v>2303</v>
+      </c>
+      <c r="Y1" s="60" t="s">
+        <v>2249</v>
+      </c>
+      <c r="Z1" s="60" t="s">
+        <v>2348</v>
+      </c>
+      <c r="AA1" s="60" t="s">
+        <v>2349</v>
+      </c>
+      <c r="AC1" s="62" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2334</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>250</v>
+      </c>
+      <c r="E2">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2335</v>
+      </c>
+      <c r="H2" t="s">
+        <v>911</v>
+      </c>
+      <c r="I2" t="s">
+        <v>733</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2262</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2350</v>
+      </c>
+      <c r="L2" s="62" t="s">
+        <v>2268</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2405</v>
+      </c>
+      <c r="N2" t="s">
+        <v>2406</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2407</v>
+      </c>
+      <c r="P2" s="62" t="s">
+        <v>2361</v>
+      </c>
+      <c r="Q2" s="62" t="s">
+        <v>1057</v>
+      </c>
+      <c r="R2" s="62" t="s">
+        <v>1030</v>
+      </c>
+      <c r="S2" s="62" t="s">
+        <v>2377</v>
+      </c>
+      <c r="T2" s="62" t="s">
+        <v>2426</v>
+      </c>
+      <c r="U2" s="62" t="s">
+        <v>2451</v>
+      </c>
+      <c r="Y2" s="62" t="s">
+        <v>2456</v>
+      </c>
+      <c r="Z2" s="62" t="s">
+        <v>2430</v>
+      </c>
+      <c r="AA2" s="62" t="s">
+        <v>2428</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2500</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3" t="s">
+        <v>921</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2287</v>
+      </c>
+      <c r="K3">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="62" t="s">
+        <v>2364</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2222</v>
+      </c>
+      <c r="N3" s="62" t="s">
+        <v>2438</v>
+      </c>
+      <c r="O3" s="62" t="s">
+        <v>2378</v>
+      </c>
+      <c r="P3" s="62" t="s">
+        <v>2455</v>
+      </c>
+      <c r="Q3" s="62" t="s">
+        <v>2360</v>
+      </c>
+      <c r="R3" s="62" t="s">
+        <v>2366</v>
+      </c>
+      <c r="S3" s="62" t="s">
+        <v>2378</v>
+      </c>
+      <c r="T3" s="62" t="s">
+        <v>2423</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>2457</v>
+      </c>
+      <c r="Z3" s="62" t="s">
+        <v>2463</v>
+      </c>
+      <c r="AA3" s="62" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4" t="s">
+        <v>944</v>
+      </c>
+      <c r="H4" t="s">
+        <v>642</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2249</v>
+      </c>
+      <c r="L4" s="62" t="s">
+        <v>2285</v>
+      </c>
+      <c r="N4" t="s">
+        <v>2222</v>
+      </c>
+      <c r="O4" s="62" t="s">
+        <v>1001</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>1065</v>
+      </c>
+      <c r="Q4" s="62" t="s">
+        <v>2362</v>
+      </c>
+      <c r="R4" s="62" t="s">
+        <v>2367</v>
+      </c>
+      <c r="S4" s="62" t="s">
+        <v>2379</v>
+      </c>
+      <c r="T4" s="62" t="s">
+        <v>2424</v>
+      </c>
+      <c r="Y4" s="62" t="s">
+        <v>2429</v>
+      </c>
+      <c r="Z4" s="62" t="s">
+        <v>2367</v>
+      </c>
+      <c r="AA4" s="62" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H5" t="s">
+        <v>661</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2249</v>
+      </c>
+      <c r="L5" s="62" t="s">
+        <v>2390</v>
+      </c>
+      <c r="O5" s="62" t="s">
+        <v>2410</v>
+      </c>
+      <c r="P5" t="s">
+        <v>2372</v>
+      </c>
+      <c r="Q5" s="62" t="s">
+        <v>2370</v>
+      </c>
+      <c r="R5" s="62" t="s">
+        <v>2371</v>
+      </c>
+      <c r="S5" s="62" t="s">
+        <v>2381</v>
+      </c>
+      <c r="T5" s="62" t="s">
+        <v>2425</v>
+      </c>
+      <c r="Y5" s="62" t="s">
+        <v>2462</v>
+      </c>
+      <c r="Z5" s="62" t="s">
+        <v>2371</v>
+      </c>
+      <c r="AA5" s="62" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2340</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H6" t="s">
+        <v>629</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2249</v>
+      </c>
+      <c r="L6" s="62" t="s">
+        <v>2391</v>
+      </c>
+      <c r="O6" s="62" t="s">
+        <v>2411</v>
+      </c>
+      <c r="P6" t="s">
+        <v>2373</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>2365</v>
+      </c>
+      <c r="R6" s="17" t="s">
+        <v>2368</v>
+      </c>
+      <c r="S6" s="62" t="s">
+        <v>2380</v>
+      </c>
+      <c r="T6" s="17" t="s">
+        <v>2389</v>
+      </c>
+      <c r="Y6" s="62" t="s">
+        <v>2362</v>
+      </c>
+      <c r="Z6" s="17" t="s">
+        <v>2406</v>
+      </c>
+      <c r="AA6" s="62" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1278</v>
+      </c>
+      <c r="H7" t="s">
+        <v>890</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2249</v>
+      </c>
+      <c r="L7" s="62" t="s">
+        <v>2397</v>
+      </c>
+      <c r="O7" s="62" t="s">
+        <v>2412</v>
+      </c>
+      <c r="P7" t="s">
+        <v>2374</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>2199</v>
+      </c>
+      <c r="R7" s="17" t="s">
+        <v>2369</v>
+      </c>
+      <c r="S7" s="17" t="s">
+        <v>2382</v>
+      </c>
+      <c r="T7" s="17" t="s">
+        <v>2390</v>
+      </c>
+      <c r="Y7" s="62" t="s">
+        <v>2370</v>
+      </c>
+      <c r="Z7" s="17" t="s">
+        <v>2435</v>
+      </c>
+      <c r="AA7" s="17" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>721</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2237</v>
+      </c>
+      <c r="J8" t="s">
+        <v>2243</v>
+      </c>
+      <c r="L8" t="s">
+        <v>2119</v>
+      </c>
+      <c r="O8" s="62" t="s">
+        <v>2413</v>
+      </c>
+      <c r="P8" t="s">
+        <v>2375</v>
+      </c>
+      <c r="S8" s="17" t="s">
+        <v>2383</v>
+      </c>
+      <c r="T8" s="62" t="s">
+        <v>2427</v>
+      </c>
+      <c r="Y8" s="17" t="s">
+        <v>2405</v>
+      </c>
+      <c r="Z8" s="17" t="s">
+        <v>2392</v>
+      </c>
+      <c r="AA8" s="17" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>250</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>882</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2242</v>
+      </c>
+      <c r="L9" t="s">
+        <v>2394</v>
+      </c>
+      <c r="O9" t="s">
+        <v>2247</v>
+      </c>
+      <c r="P9" t="s">
+        <v>2376</v>
+      </c>
+      <c r="T9" s="62" t="s">
+        <v>2428</v>
+      </c>
+      <c r="Y9" s="17" t="s">
+        <v>2434</v>
+      </c>
+      <c r="Z9" s="17" t="s">
+        <v>2453</v>
+      </c>
+      <c r="AA9" s="62" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>250</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2240</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2241</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2242</v>
+      </c>
+      <c r="L10" t="s">
+        <v>2393</v>
+      </c>
+      <c r="O10" t="s">
+        <v>2416</v>
+      </c>
+      <c r="P10" s="62" t="s">
+        <v>2438</v>
+      </c>
+      <c r="T10" s="62" t="s">
+        <v>2429</v>
+      </c>
+      <c r="AA10" s="62" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>250</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1195</v>
+      </c>
+      <c r="J11" t="s">
+        <v>2243</v>
+      </c>
+      <c r="L11" t="s">
+        <v>2389</v>
+      </c>
+      <c r="O11" s="17" t="s">
+        <v>2419</v>
+      </c>
+      <c r="T11" s="62" t="s">
+        <v>2430</v>
+      </c>
+      <c r="AA11" s="62" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>10000</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12" t="s">
+        <v>829</v>
+      </c>
+      <c r="J12" t="s">
+        <v>2242</v>
+      </c>
+      <c r="L12" t="s">
+        <v>2399</v>
+      </c>
+      <c r="O12" s="17" t="s">
+        <v>2418</v>
+      </c>
+      <c r="T12" s="62" t="s">
+        <v>2432</v>
+      </c>
+      <c r="AA12" s="62" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13" t="s">
+        <v>732</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2247</v>
+      </c>
+      <c r="J13" t="s">
+        <v>2243</v>
+      </c>
+      <c r="L13" t="s">
+        <v>2398</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>2421</v>
+      </c>
+      <c r="T13" s="62" t="s">
+        <v>2431</v>
+      </c>
+      <c r="AA13" s="62" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>10000</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14" t="s">
+        <v>784</v>
+      </c>
+      <c r="J14" t="s">
+        <v>2249</v>
+      </c>
+      <c r="L14" t="s">
+        <v>2400</v>
+      </c>
+      <c r="O14" s="17" t="s">
+        <v>2420</v>
+      </c>
+      <c r="T14" s="17" t="s">
+        <v>2405</v>
+      </c>
+      <c r="AA14" s="62" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>250</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2251</v>
+      </c>
+      <c r="H15" t="s">
+        <v>696</v>
+      </c>
+      <c r="I15" t="s">
+        <v>697</v>
+      </c>
+      <c r="J15" t="s">
+        <v>2243</v>
+      </c>
+      <c r="O15" s="63" t="s">
+        <v>2154</v>
+      </c>
+      <c r="T15" s="17" t="s">
+        <v>2434</v>
+      </c>
+      <c r="AA15" s="63" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>250</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="G16" t="s">
+        <v>764</v>
+      </c>
+      <c r="J16" t="s">
+        <v>2249</v>
+      </c>
+      <c r="T16" s="17" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>10000</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17" t="s">
+        <v>628</v>
+      </c>
+      <c r="J17" t="s">
+        <v>2243</v>
+      </c>
+      <c r="T17" s="17" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>10000</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18" t="s">
+        <v>765</v>
+      </c>
+      <c r="H18" t="s">
+        <v>636</v>
+      </c>
+      <c r="J18" t="s">
+        <v>825</v>
+      </c>
+      <c r="T18" s="17" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2255</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>10000</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19" t="s">
+        <v>714</v>
+      </c>
+      <c r="J19" t="s">
+        <v>2257</v>
+      </c>
+      <c r="T19" s="17" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>2500</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>100</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2259</v>
+      </c>
+      <c r="J20" t="s">
+        <v>2242</v>
+      </c>
+      <c r="T20" s="17" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>250</v>
+      </c>
+      <c r="E21">
+        <v>50</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2261</v>
+      </c>
+      <c r="H21" t="s">
+        <v>788</v>
+      </c>
+      <c r="J21" t="s">
+        <v>2262</v>
+      </c>
+      <c r="T21" s="17" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>10000</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="G22" t="s">
+        <v>2264</v>
+      </c>
+      <c r="J22" t="s">
+        <v>2262</v>
+      </c>
+      <c r="T22" s="17" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>250</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
+      </c>
+      <c r="G23" t="s">
+        <v>642</v>
+      </c>
+      <c r="H23" t="s">
+        <v>621</v>
+      </c>
+      <c r="I23" t="s">
+        <v>643</v>
+      </c>
+      <c r="J23" t="s">
+        <v>2256</v>
+      </c>
+      <c r="T23" s="62" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>10000</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>100</v>
+      </c>
+      <c r="G24" t="s">
+        <v>788</v>
+      </c>
+      <c r="J24" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2267</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>10000</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2268</v>
+      </c>
+      <c r="J25" t="s">
+        <v>2242</v>
+      </c>
+      <c r="K25" t="s">
+        <v>2351</v>
+      </c>
+      <c r="L25" t="s">
+        <v>2395</v>
+      </c>
+      <c r="M25" t="s">
+        <v>2396</v>
+      </c>
+      <c r="N25" t="s">
+        <v>2408</v>
+      </c>
+      <c r="O25" s="62" t="s">
+        <v>2409</v>
+      </c>
+      <c r="P25" t="s">
+        <v>2445</v>
+      </c>
+      <c r="T25" s="62" t="s">
+        <v>2385</v>
+      </c>
+      <c r="U25" s="62" t="s">
+        <v>2360</v>
+      </c>
+      <c r="V25" s="17" t="s">
+        <v>2426</v>
+      </c>
+      <c r="X25" s="62" t="s">
+        <v>2454</v>
+      </c>
+      <c r="Y25" s="17" t="s">
+        <v>2458</v>
+      </c>
+      <c r="Z25" s="17" t="s">
+        <v>2464</v>
+      </c>
+      <c r="AA25" s="17" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2269</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>250</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
+      </c>
+      <c r="G26" t="s">
+        <v>2270</v>
+      </c>
+      <c r="H26" t="s">
+        <v>2271</v>
+      </c>
+      <c r="J26" t="s">
+        <v>2243</v>
+      </c>
+      <c r="K26">
+        <v>2500</v>
+      </c>
+      <c r="L26" t="s">
+        <v>2404</v>
+      </c>
+      <c r="M26" t="s">
+        <v>2414</v>
+      </c>
+      <c r="N26" s="62" t="s">
+        <v>2415</v>
+      </c>
+      <c r="O26" t="s">
+        <v>2417</v>
+      </c>
+      <c r="P26" t="s">
+        <v>2446</v>
+      </c>
+      <c r="T26" s="17" t="s">
+        <v>2433</v>
+      </c>
+      <c r="U26" s="62" t="s">
+        <v>2366</v>
+      </c>
+      <c r="V26" s="17" t="s">
+        <v>2423</v>
+      </c>
+      <c r="X26" t="s">
+        <v>2237</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>2465</v>
+      </c>
+      <c r="Z26" s="17" t="s">
+        <v>2458</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>10000</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>100</v>
+      </c>
+      <c r="G27" t="s">
+        <v>792</v>
+      </c>
+      <c r="J27" t="s">
+        <v>2256</v>
+      </c>
+      <c r="L27" t="s">
+        <v>2403</v>
+      </c>
+      <c r="M27" t="s">
+        <v>2478</v>
+      </c>
+      <c r="N27" t="s">
+        <v>2477</v>
+      </c>
+      <c r="O27" s="62" t="s">
+        <v>2467</v>
+      </c>
+      <c r="P27" t="s">
+        <v>2447</v>
+      </c>
+      <c r="T27" s="17" t="s">
+        <v>2444</v>
+      </c>
+      <c r="U27" s="62" t="s">
+        <v>2379</v>
+      </c>
+      <c r="V27" s="17" t="s">
+        <v>2424</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>2466</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>2466</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>50</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>100</v>
+      </c>
+      <c r="G28" t="s">
+        <v>725</v>
+      </c>
+      <c r="H28" t="s">
+        <v>621</v>
+      </c>
+      <c r="J28" t="s">
+        <v>2249</v>
+      </c>
+      <c r="L28" t="s">
+        <v>2402</v>
+      </c>
+      <c r="O28" s="62" t="s">
+        <v>2468</v>
+      </c>
+      <c r="P28" t="s">
+        <v>2448</v>
+      </c>
+      <c r="T28" t="s">
+        <v>2439</v>
+      </c>
+      <c r="U28" s="17" t="s">
+        <v>2392</v>
+      </c>
+      <c r="V28" s="17" t="s">
+        <v>2425</v>
+      </c>
+      <c r="Y28" s="62" t="s">
+        <v>2437</v>
+      </c>
+      <c r="Z28" s="62" t="s">
+        <v>2437</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>250</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>100</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H29" t="s">
+        <v>2275</v>
+      </c>
+      <c r="J29" t="s">
+        <v>2243</v>
+      </c>
+      <c r="L29" t="s">
+        <v>2401</v>
+      </c>
+      <c r="O29" s="62" t="s">
+        <v>2469</v>
+      </c>
+      <c r="P29" t="s">
+        <v>2449</v>
+      </c>
+      <c r="T29" t="s">
+        <v>2440</v>
+      </c>
+      <c r="U29" s="17" t="s">
+        <v>2453</v>
+      </c>
+      <c r="W29" s="17"/>
+      <c r="AA29" s="17" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>10000</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>100</v>
+      </c>
+      <c r="G30" t="s">
+        <v>697</v>
+      </c>
+      <c r="J30" t="s">
+        <v>2242</v>
+      </c>
+      <c r="L30" s="62" t="s">
+        <v>2385</v>
+      </c>
+      <c r="O30" s="62" t="s">
+        <v>2470</v>
+      </c>
+      <c r="P30" t="s">
+        <v>2450</v>
+      </c>
+      <c r="T30" t="s">
+        <v>2441</v>
+      </c>
+      <c r="W30" s="17"/>
+      <c r="AA30" s="17" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>10000</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>100</v>
+      </c>
+      <c r="G31" t="s">
+        <v>668</v>
+      </c>
+      <c r="J31" t="s">
+        <v>2278</v>
+      </c>
+      <c r="O31" s="62" t="s">
+        <v>2471</v>
+      </c>
+      <c r="P31" s="62" t="s">
+        <v>2384</v>
+      </c>
+      <c r="T31" t="s">
+        <v>2442</v>
+      </c>
+      <c r="AA31" s="17" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>250</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>100</v>
+      </c>
+      <c r="G32" t="s">
+        <v>668</v>
+      </c>
+      <c r="H32" t="s">
+        <v>621</v>
+      </c>
+      <c r="J32" t="s">
+        <v>2256</v>
+      </c>
+      <c r="O32" s="62" t="s">
+        <v>2472</v>
+      </c>
+      <c r="P32" t="s">
+        <v>2385</v>
+      </c>
+      <c r="T32" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AA32" s="17" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>250</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>100</v>
+      </c>
+      <c r="G33" t="s">
+        <v>696</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1254</v>
+      </c>
+      <c r="J33" t="s">
+        <v>2242</v>
+      </c>
+      <c r="P33" s="62" t="s">
+        <v>2385</v>
+      </c>
+      <c r="T33" s="17" t="s">
+        <v>2385</v>
+      </c>
+      <c r="AA33" s="17" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>250</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>100</v>
+      </c>
+      <c r="G34" t="s">
+        <v>784</v>
+      </c>
+      <c r="H34" t="s">
+        <v>621</v>
+      </c>
+      <c r="J34" t="s">
+        <v>2249</v>
+      </c>
+      <c r="P34" s="62" t="s">
+        <v>2387</v>
+      </c>
+      <c r="AA34" s="17" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>50</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>100</v>
+      </c>
+      <c r="G35" t="s">
+        <v>755</v>
+      </c>
+      <c r="H35" t="s">
+        <v>2283</v>
+      </c>
+      <c r="J35" t="s">
+        <v>2243</v>
+      </c>
+      <c r="P35" s="62" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2284</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>10000</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>100</v>
+      </c>
+      <c r="G36" t="s">
+        <v>2285</v>
+      </c>
+      <c r="J36" t="s">
+        <v>2242</v>
+      </c>
+      <c r="P36" s="62" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>50</v>
+      </c>
+      <c r="E37">
+        <v>50</v>
+      </c>
+      <c r="F37">
+        <v>100</v>
+      </c>
+      <c r="G37" t="s">
+        <v>692</v>
+      </c>
+      <c r="J37" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>50</v>
+      </c>
+      <c r="E38">
+        <v>25</v>
+      </c>
+      <c r="F38">
+        <v>100</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J38" t="s">
+        <v>2242</v>
+      </c>
+      <c r="K38" t="s">
+        <v>2352</v>
+      </c>
+      <c r="L38" s="62" t="s">
+        <v>2509</v>
+      </c>
+      <c r="M38" t="s">
+        <v>2365</v>
+      </c>
+      <c r="N38" t="s">
+        <v>2368</v>
+      </c>
+      <c r="O38" t="s">
+        <v>2382</v>
+      </c>
+      <c r="P38" s="62" t="s">
+        <v>2480</v>
+      </c>
+      <c r="Q38" s="62" t="s">
+        <v>643</v>
+      </c>
+      <c r="R38" s="62" t="s">
+        <v>714</v>
+      </c>
+      <c r="S38" s="62" t="s">
+        <v>764</v>
+      </c>
+      <c r="T38" s="62" t="s">
+        <v>2488</v>
+      </c>
+      <c r="U38" s="62" t="s">
+        <v>2335</v>
+      </c>
+      <c r="Y38" s="62" t="s">
+        <v>2364</v>
+      </c>
+      <c r="Z38" s="62" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AA38" s="62" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>2500</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>100</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H39" t="s">
+        <v>911</v>
+      </c>
+      <c r="J39" t="s">
+        <v>2262</v>
+      </c>
+      <c r="K39">
+        <v>250</v>
+      </c>
+      <c r="L39" s="62" t="s">
+        <v>829</v>
+      </c>
+      <c r="M39" t="s">
+        <v>882</v>
+      </c>
+      <c r="N39" s="62" t="s">
+        <v>755</v>
+      </c>
+      <c r="O39" s="62" t="s">
+        <v>732</v>
+      </c>
+      <c r="P39" s="62" t="s">
+        <v>2481</v>
+      </c>
+      <c r="Q39" s="62" t="s">
+        <v>668</v>
+      </c>
+      <c r="R39" s="62" t="s">
+        <v>729</v>
+      </c>
+      <c r="S39" s="62" t="s">
+        <v>732</v>
+      </c>
+      <c r="T39" s="62" t="s">
+        <v>2422</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>2489</v>
+      </c>
+      <c r="Z39" s="62" t="s">
+        <v>2366</v>
+      </c>
+      <c r="AA39" s="62" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2290</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>2500</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>100</v>
+      </c>
+      <c r="G40" t="s">
+        <v>2291</v>
+      </c>
+      <c r="J40" t="s">
+        <v>2242</v>
+      </c>
+      <c r="L40" s="62" t="s">
+        <v>674</v>
+      </c>
+      <c r="N40" t="s">
+        <v>882</v>
+      </c>
+      <c r="O40" s="62" t="s">
+        <v>808</v>
+      </c>
+      <c r="P40" s="17" t="s">
+        <v>736</v>
+      </c>
+      <c r="Q40" s="62" t="s">
+        <v>2510</v>
+      </c>
+      <c r="R40" s="62" t="s">
+        <v>2511</v>
+      </c>
+      <c r="S40" s="62" t="s">
+        <v>636</v>
+      </c>
+      <c r="T40" s="62" t="s">
+        <v>2490</v>
+      </c>
+      <c r="Y40" s="62" t="s">
+        <v>1057</v>
+      </c>
+      <c r="Z40" s="62" t="s">
+        <v>2511</v>
+      </c>
+      <c r="AA40" s="62" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>250</v>
+      </c>
+      <c r="E41">
+        <v>50</v>
+      </c>
+      <c r="F41">
+        <v>100</v>
+      </c>
+      <c r="G41" t="s">
+        <v>2148</v>
+      </c>
+      <c r="H41" t="s">
+        <v>790</v>
+      </c>
+      <c r="J41" t="s">
+        <v>2262</v>
+      </c>
+      <c r="L41" s="62" t="s">
+        <v>2482</v>
+      </c>
+      <c r="O41" s="62" t="s">
+        <v>788</v>
+      </c>
+      <c r="P41" t="s">
+        <v>890</v>
+      </c>
+      <c r="Q41" s="62" t="s">
+        <v>2512</v>
+      </c>
+      <c r="R41" s="62" t="s">
+        <v>2513</v>
+      </c>
+      <c r="S41" s="62" t="s">
+        <v>2514</v>
+      </c>
+      <c r="T41" s="62" t="s">
+        <v>2491</v>
+      </c>
+      <c r="Y41" s="62" t="s">
+        <v>2360</v>
+      </c>
+      <c r="Z41" s="62" t="s">
+        <v>2513</v>
+      </c>
+      <c r="AA41" s="62" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>2293</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>10000</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>100</v>
+      </c>
+      <c r="G42" t="s">
+        <v>2294</v>
+      </c>
+      <c r="J42" t="s">
+        <v>2262</v>
+      </c>
+      <c r="L42" s="62" t="s">
+        <v>2516</v>
+      </c>
+      <c r="O42" s="62" t="s">
+        <v>792</v>
+      </c>
+      <c r="P42" t="s">
+        <v>642</v>
+      </c>
+      <c r="Q42" s="17" t="s">
+        <v>910</v>
+      </c>
+      <c r="R42" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="S42" s="62" t="s">
+        <v>2515</v>
+      </c>
+      <c r="T42" s="17"/>
+      <c r="Y42" s="62" t="s">
+        <v>2510</v>
+      </c>
+      <c r="Z42" s="17" t="s">
+        <v>2368</v>
+      </c>
+      <c r="AA42" s="62" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>2295</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>250</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>100</v>
+      </c>
+      <c r="G43" t="s">
+        <v>661</v>
+      </c>
+      <c r="H43" t="s">
+        <v>621</v>
+      </c>
+      <c r="I43" t="s">
+        <v>643</v>
+      </c>
+      <c r="J43" t="s">
+        <v>2256</v>
+      </c>
+      <c r="L43" t="s">
+        <v>744</v>
+      </c>
+      <c r="O43" s="62" t="s">
+        <v>794</v>
+      </c>
+      <c r="P43" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q43" s="17" t="s">
+        <v>2483</v>
+      </c>
+      <c r="R43" s="17" t="s">
+        <v>818</v>
+      </c>
+      <c r="S43" s="17" t="s">
+        <v>911</v>
+      </c>
+      <c r="T43" s="62" t="s">
+        <v>2517</v>
+      </c>
+      <c r="Y43" s="62" t="s">
+        <v>2512</v>
+      </c>
+      <c r="Z43" s="17" t="s">
+        <v>2369</v>
+      </c>
+      <c r="AA43" s="17" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>250</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>100</v>
+      </c>
+      <c r="G44" t="s">
+        <v>2119</v>
+      </c>
+      <c r="J44" t="s">
+        <v>2243</v>
+      </c>
+      <c r="L44" t="s">
+        <v>2452</v>
+      </c>
+      <c r="O44" s="62" t="s">
+        <v>790</v>
+      </c>
+      <c r="P44" t="s">
+        <v>661</v>
+      </c>
+      <c r="S44" s="17" t="s">
+        <v>851</v>
+      </c>
+      <c r="T44" s="62" t="s">
+        <v>2377</v>
+      </c>
+      <c r="Y44" s="17" t="s">
+        <v>2365</v>
+      </c>
+      <c r="Z44" s="17" t="s">
+        <v>2394</v>
+      </c>
+      <c r="AA44" s="17" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>2297</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>2500</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>100</v>
+      </c>
+      <c r="G45" t="s">
+        <v>2298</v>
+      </c>
+      <c r="H45" t="s">
+        <v>2299</v>
+      </c>
+      <c r="I45" t="s">
+        <v>2300</v>
+      </c>
+      <c r="J45" t="s">
+        <v>2256</v>
+      </c>
+      <c r="L45" t="s">
+        <v>2484</v>
+      </c>
+      <c r="O45" t="s">
+        <v>711</v>
+      </c>
+      <c r="P45" t="s">
+        <v>2119</v>
+      </c>
+      <c r="T45" s="62" t="s">
+        <v>1057</v>
+      </c>
+      <c r="Y45" s="17" t="s">
+        <v>2199</v>
+      </c>
+      <c r="Z45" s="17" t="s">
+        <v>2393</v>
+      </c>
+      <c r="AA45" s="62" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>250</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>100</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H46" t="s">
+        <v>2302</v>
+      </c>
+      <c r="J46" t="s">
+        <v>2303</v>
+      </c>
+      <c r="L46" t="s">
+        <v>2518</v>
+      </c>
+      <c r="O46" t="s">
+        <v>2485</v>
+      </c>
+      <c r="P46" s="62" t="s">
+        <v>755</v>
+      </c>
+      <c r="T46" s="62" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AA46" s="62" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>2500</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>100</v>
+      </c>
+      <c r="G47" t="s">
+        <v>2305</v>
+      </c>
+      <c r="H47" t="s">
+        <v>732</v>
+      </c>
+      <c r="J47" t="s">
+        <v>2256</v>
+      </c>
+      <c r="L47" t="s">
+        <v>2519</v>
+      </c>
+      <c r="O47" s="17" t="s">
+        <v>1144</v>
+      </c>
+      <c r="T47" s="62" t="s">
+        <v>1067</v>
+      </c>
+      <c r="AA47" s="62" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>2306</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>2500</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>100</v>
+      </c>
+      <c r="G48" t="s">
+        <v>2307</v>
+      </c>
+      <c r="H48" t="s">
+        <v>729</v>
+      </c>
+      <c r="J48" t="s">
+        <v>2256</v>
+      </c>
+      <c r="L48" t="s">
+        <v>2520</v>
+      </c>
+      <c r="O48" s="17" t="s">
+        <v>1143</v>
+      </c>
+      <c r="T48" s="62" t="s">
+        <v>2378</v>
+      </c>
+      <c r="AA48" s="62" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>10000</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>100</v>
+      </c>
+      <c r="G49" t="s">
+        <v>818</v>
+      </c>
+      <c r="J49" t="s">
+        <v>2256</v>
+      </c>
+      <c r="O49" s="17" t="s">
+        <v>1318</v>
+      </c>
+      <c r="T49" s="17" t="s">
+        <v>2365</v>
+      </c>
+      <c r="AA49" s="62" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>2309</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>2500</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>100</v>
+      </c>
+      <c r="G50" t="s">
+        <v>2310</v>
+      </c>
+      <c r="H50" t="s">
+        <v>790</v>
+      </c>
+      <c r="J50" t="s">
+        <v>2243</v>
+      </c>
+      <c r="O50" s="17" t="s">
+        <v>1317</v>
+      </c>
+      <c r="T50" s="17" t="s">
+        <v>2199</v>
+      </c>
+      <c r="AA50" s="62" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>2311</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>2500</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>100</v>
+      </c>
+      <c r="G51" t="s">
+        <v>2310</v>
+      </c>
+      <c r="H51" t="s">
+        <v>788</v>
+      </c>
+      <c r="J51" t="s">
+        <v>2243</v>
+      </c>
+      <c r="O51" s="63" t="s">
+        <v>796</v>
+      </c>
+      <c r="T51" s="17" t="s">
+        <v>2369</v>
+      </c>
+      <c r="AA51" s="63" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>2500</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>100</v>
+      </c>
+      <c r="G52" t="s">
+        <v>2310</v>
+      </c>
+      <c r="H52" t="s">
+        <v>792</v>
+      </c>
+      <c r="J52" t="s">
+        <v>2243</v>
+      </c>
+      <c r="T52" s="17" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>2313</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>2500</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>100</v>
+      </c>
+      <c r="G53" t="s">
+        <v>2310</v>
+      </c>
+      <c r="H53" t="s">
+        <v>794</v>
+      </c>
+      <c r="J53" t="s">
+        <v>2243</v>
+      </c>
+      <c r="T53" s="17" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>2314</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>10000</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>100</v>
+      </c>
+      <c r="G54" t="s">
+        <v>790</v>
+      </c>
+      <c r="J54" t="s">
+        <v>2256</v>
+      </c>
+      <c r="T54" s="17" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>2315</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>2500</v>
+      </c>
+      <c r="E55">
+        <v>10</v>
+      </c>
+      <c r="F55">
+        <v>100</v>
+      </c>
+      <c r="G55" t="s">
+        <v>2316</v>
+      </c>
+      <c r="J55" t="s">
+        <v>2242</v>
+      </c>
+      <c r="T55" s="17" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>2317</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>250</v>
+      </c>
+      <c r="E56">
+        <v>50</v>
+      </c>
+      <c r="F56">
+        <v>100</v>
+      </c>
+      <c r="G56" t="s">
+        <v>697</v>
+      </c>
+      <c r="H56" t="s">
+        <v>794</v>
+      </c>
+      <c r="J56" t="s">
+        <v>2262</v>
+      </c>
+      <c r="T56" s="17" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>10000</v>
+      </c>
+      <c r="E57">
+        <v>10</v>
+      </c>
+      <c r="F57">
+        <v>100</v>
+      </c>
+      <c r="G57" t="s">
+        <v>2319</v>
+      </c>
+      <c r="J57" t="s">
+        <v>2262</v>
+      </c>
+      <c r="T57" s="17" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>2320</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>250</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>100</v>
+      </c>
+      <c r="G58" t="s">
+        <v>629</v>
+      </c>
+      <c r="H58" t="s">
+        <v>621</v>
+      </c>
+      <c r="I58" t="s">
+        <v>643</v>
+      </c>
+      <c r="J58" t="s">
+        <v>2256</v>
+      </c>
+      <c r="T58" s="62" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>10000</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>100</v>
+      </c>
+      <c r="G59" t="s">
+        <v>794</v>
+      </c>
+      <c r="J59" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>10000</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>100</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J60" t="s">
+        <v>2262</v>
+      </c>
+      <c r="K60" t="s">
+        <v>2353</v>
+      </c>
+      <c r="L60" t="s">
+        <v>2486</v>
+      </c>
+      <c r="M60" t="s">
+        <v>2521</v>
+      </c>
+      <c r="N60" t="s">
+        <v>2522</v>
+      </c>
+      <c r="O60" s="62" t="s">
+        <v>2523</v>
+      </c>
+      <c r="P60" t="s">
+        <v>2496</v>
+      </c>
+      <c r="T60" s="62" t="s">
+        <v>2524</v>
+      </c>
+      <c r="U60" s="62" t="s">
+        <v>668</v>
+      </c>
+      <c r="V60" s="17" t="s">
+        <v>2488</v>
+      </c>
+      <c r="X60" s="62" t="s">
+        <v>2363</v>
+      </c>
+      <c r="Y60" s="17" t="s">
+        <v>2525</v>
+      </c>
+      <c r="Z60" s="17" t="s">
+        <v>2463</v>
+      </c>
+      <c r="AA60" s="17" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>10000</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>100</v>
+      </c>
+      <c r="G61" t="s">
+        <v>829</v>
+      </c>
+      <c r="J61" t="s">
+        <v>2324</v>
+      </c>
+      <c r="K61">
+        <v>50</v>
+      </c>
+      <c r="L61" t="s">
+        <v>2372</v>
+      </c>
+      <c r="M61" t="s">
+        <v>2526</v>
+      </c>
+      <c r="N61" s="62" t="s">
+        <v>2527</v>
+      </c>
+      <c r="O61" t="s">
+        <v>2497</v>
+      </c>
+      <c r="P61" t="s">
+        <v>2498</v>
+      </c>
+      <c r="T61" s="17" t="s">
+        <v>2459</v>
+      </c>
+      <c r="U61" s="62" t="s">
+        <v>729</v>
+      </c>
+      <c r="V61" s="17" t="s">
+        <v>2422</v>
+      </c>
+      <c r="X61" t="s">
+        <v>1132</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>2285</v>
+      </c>
+      <c r="Z61" s="17" t="s">
+        <v>2525</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>2500</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>100</v>
+      </c>
+      <c r="G62" t="s">
+        <v>812</v>
+      </c>
+      <c r="J62" t="s">
+        <v>2287</v>
+      </c>
+      <c r="L62" t="s">
+        <v>2373</v>
+      </c>
+      <c r="M62" t="s">
+        <v>2528</v>
+      </c>
+      <c r="N62" t="s">
+        <v>2529</v>
+      </c>
+      <c r="O62" s="62" t="s">
+        <v>2530</v>
+      </c>
+      <c r="P62" t="s">
+        <v>2499</v>
+      </c>
+      <c r="T62" s="17" t="s">
+        <v>2479</v>
+      </c>
+      <c r="U62" s="62" t="s">
+        <v>636</v>
+      </c>
+      <c r="V62" s="17" t="s">
+        <v>2490</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>2500</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>2500</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>250</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>100</v>
+      </c>
+      <c r="G63" t="s">
+        <v>765</v>
+      </c>
+      <c r="J63" t="s">
+        <v>825</v>
+      </c>
+      <c r="L63" t="s">
+        <v>2374</v>
+      </c>
+      <c r="O63" s="62" t="s">
+        <v>2531</v>
+      </c>
+      <c r="P63" t="s">
+        <v>2501</v>
+      </c>
+      <c r="T63" t="s">
+        <v>2502</v>
+      </c>
+      <c r="U63" s="17" t="s">
+        <v>2394</v>
+      </c>
+      <c r="V63" s="17" t="s">
+        <v>2491</v>
+      </c>
+      <c r="Y63" s="62" t="s">
+        <v>2438</v>
+      </c>
+      <c r="Z63" s="62" t="s">
+        <v>2438</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>2500</v>
+      </c>
+      <c r="E64">
+        <v>10</v>
+      </c>
+      <c r="F64">
+        <v>100</v>
+      </c>
+      <c r="G64" t="s">
+        <v>2328</v>
+      </c>
+      <c r="J64" t="s">
+        <v>2242</v>
+      </c>
+      <c r="L64" t="s">
+        <v>2375</v>
+      </c>
+      <c r="O64" s="62" t="s">
+        <v>2532</v>
+      </c>
+      <c r="P64" t="s">
+        <v>2503</v>
+      </c>
+      <c r="T64" t="s">
+        <v>2504</v>
+      </c>
+      <c r="U64" s="17" t="s">
+        <v>2393</v>
+      </c>
+      <c r="W64" s="17"/>
+      <c r="AA64" s="17" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>2329</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>250</v>
+      </c>
+      <c r="E65">
+        <v>50</v>
+      </c>
+      <c r="F65">
+        <v>100</v>
+      </c>
+      <c r="G65" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H65" t="s">
+        <v>792</v>
+      </c>
+      <c r="J65" t="s">
+        <v>2262</v>
+      </c>
+      <c r="L65" s="62" t="s">
+        <v>2524</v>
+      </c>
+      <c r="O65" s="62" t="s">
+        <v>2533</v>
+      </c>
+      <c r="P65" t="s">
+        <v>2505</v>
+      </c>
+      <c r="T65" t="s">
+        <v>2506</v>
+      </c>
+      <c r="W65" s="17"/>
+      <c r="AA65" s="17" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>10000</v>
+      </c>
+      <c r="E66">
+        <v>10</v>
+      </c>
+      <c r="F66">
+        <v>100</v>
+      </c>
+      <c r="G66" t="s">
+        <v>2331</v>
+      </c>
+      <c r="J66" t="s">
+        <v>2262</v>
+      </c>
+      <c r="O66" s="62" t="s">
+        <v>2534</v>
+      </c>
+      <c r="P66" s="62" t="s">
+        <v>2487</v>
+      </c>
+      <c r="T66" t="s">
+        <v>2507</v>
+      </c>
+      <c r="AA66" s="17" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>250</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>100</v>
+      </c>
+      <c r="G67" t="s">
+        <v>890</v>
+      </c>
+      <c r="H67" t="s">
+        <v>621</v>
+      </c>
+      <c r="I67" t="s">
+        <v>643</v>
+      </c>
+      <c r="J67" t="s">
+        <v>2256</v>
+      </c>
+      <c r="O67" s="62" t="s">
+        <v>2535</v>
+      </c>
+      <c r="P67" t="s">
+        <v>2524</v>
+      </c>
+      <c r="T67" t="s">
+        <v>2536</v>
+      </c>
+      <c r="AA67" s="17" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>10000</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>100</v>
+      </c>
+      <c r="G68" t="s">
+        <v>851</v>
+      </c>
+      <c r="J68" t="s">
+        <v>2243</v>
+      </c>
+      <c r="P68" s="62" t="s">
+        <v>2524</v>
+      </c>
+      <c r="T68" s="17" t="s">
+        <v>2524</v>
+      </c>
+      <c r="AA68" s="17" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>2500</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>100</v>
+      </c>
+      <c r="G69" t="s">
+        <v>2356</v>
+      </c>
+      <c r="J69" t="s">
+        <v>2344</v>
+      </c>
+      <c r="P69" s="62" t="s">
+        <v>2508</v>
+      </c>
+      <c r="AA69" s="17" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>2500</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>100</v>
+      </c>
+      <c r="G70" t="s">
+        <v>808</v>
+      </c>
+      <c r="J70" t="s">
+        <v>2349</v>
+      </c>
+      <c r="P70" s="62"/>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2358</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>10000</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>100</v>
+      </c>
+      <c r="G71" t="s">
+        <v>668</v>
+      </c>
+      <c r="J71" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2358</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>50</v>
+      </c>
+      <c r="E72">
+        <v>50</v>
+      </c>
+      <c r="F72">
+        <v>100</v>
+      </c>
+      <c r="G72" t="s">
+        <v>1172</v>
+      </c>
+      <c r="H72" t="s">
+        <v>818</v>
+      </c>
+      <c r="J72" t="s">
+        <v>2287</v>
+      </c>
+      <c r="P72" s="62"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J1" xr:uid="{C298E998-80AA-4778-8EB2-DFAC04D29482}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71129A55-F871-4C77-8C2C-B71F4F0702B8}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1227AB-3ED5-4EC8-B33E-3E97795012B2}">
   <dimension ref="A1:H24"/>
   <sheetViews>
@@ -33842,7 +38068,446 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A65324-C9DA-4EDD-9405-FE619AD58426}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="9" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="17">
+        <f>( 1.5 *11000)/2</f>
+        <v>8250</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="17">
+        <f>( 1.5 *16000)/2</f>
+        <v>12000</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="17">
+        <f>( 1.5 *30000)/2</f>
+        <v>22500</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="I4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="17">
+        <f>( 1.5 *28000)/2</f>
+        <v>21000</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="17">
+        <f>( 1.5 *37500)/2</f>
+        <v>28125</v>
+      </c>
+      <c r="H6">
+        <v>150</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="11">
+        <v>15</v>
+      </c>
+      <c r="C7" s="11">
+        <v>14</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="G7" s="23">
+        <f>( 1.5 *45000)/2</f>
+        <v>33750</v>
+      </c>
+      <c r="H7" s="11">
+        <v>200</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="17">
+        <f>( 1.5 *35000)/2</f>
+        <v>26250</v>
+      </c>
+      <c r="H8" s="2">
+        <v>50</v>
+      </c>
+      <c r="I8" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="2">
+        <v>46</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G9" s="17">
+        <f>( 1.5 *37500)/2</f>
+        <v>28125</v>
+      </c>
+      <c r="H9" s="2">
+        <v>100</v>
+      </c>
+      <c r="I9" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B10" s="8">
+        <v>111</v>
+      </c>
+      <c r="C10" s="13">
+        <v>13</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G10" s="9">
+        <v>30000</v>
+      </c>
+      <c r="H10" s="13">
+        <v>100</v>
+      </c>
+      <c r="I10" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="B11" s="8">
+        <v>184</v>
+      </c>
+      <c r="C11" s="8">
+        <v>14</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="G11" s="2">
+        <v>30000</v>
+      </c>
+      <c r="H11" s="8">
+        <v>150</v>
+      </c>
+      <c r="I11" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="B12" s="8">
+        <v>185</v>
+      </c>
+      <c r="C12" s="8">
+        <v>184</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G12" s="2">
+        <v>30500</v>
+      </c>
+      <c r="H12" s="8">
+        <v>150</v>
+      </c>
+      <c r="I12" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="B13" s="15">
+        <v>186</v>
+      </c>
+      <c r="C13" s="15">
+        <v>184</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="G13" s="18">
+        <v>25000</v>
+      </c>
+      <c r="H13" s="15">
+        <v>200</v>
+      </c>
+      <c r="I13" s="15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B14" s="8">
+        <v>236</v>
+      </c>
+      <c r="C14" s="8">
+        <v>14</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G14" s="13">
+        <v>25000</v>
+      </c>
+      <c r="H14" s="8">
+        <v>150</v>
+      </c>
+      <c r="I14" s="8">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>296</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA31FB8F-C345-4F52-BAA2-B60B3DF3BE69}">
   <dimension ref="A1:N32"/>
   <sheetViews>
@@ -34330,7 +38995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A88292-3556-47A6-A3B8-67EBA70876A0}">
   <sheetPr>
     <tabColor theme="1"/>
@@ -35768,446 +40433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A65324-C9DA-4EDD-9405-FE619AD58426}">
-  <sheetPr>
-    <tabColor theme="7" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:K17"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="9" width="20.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>511</v>
-      </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="17">
-        <f>( 1.5 *11000)/2</f>
-        <v>8250</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>512</v>
-      </c>
-      <c r="F3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="17">
-        <f>( 1.5 *16000)/2</f>
-        <v>12000</v>
-      </c>
-      <c r="H3">
-        <v>50</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="17">
-        <f>( 1.5 *30000)/2</f>
-        <v>22500</v>
-      </c>
-      <c r="H4">
-        <v>50</v>
-      </c>
-      <c r="I4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>513</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="17">
-        <f>( 1.5 *28000)/2</f>
-        <v>21000</v>
-      </c>
-      <c r="H5">
-        <v>100</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="17">
-        <f>( 1.5 *37500)/2</f>
-        <v>28125</v>
-      </c>
-      <c r="H6">
-        <v>150</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="11">
-        <v>15</v>
-      </c>
-      <c r="C7" s="11">
-        <v>14</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="G7" s="23">
-        <f>( 1.5 *45000)/2</f>
-        <v>33750</v>
-      </c>
-      <c r="H7" s="11">
-        <v>200</v>
-      </c>
-      <c r="I7" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="2">
-        <v>45</v>
-      </c>
-      <c r="C8" s="2">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8" s="17">
-        <f>( 1.5 *35000)/2</f>
-        <v>26250</v>
-      </c>
-      <c r="H8" s="2">
-        <v>50</v>
-      </c>
-      <c r="I8" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="2">
-        <v>46</v>
-      </c>
-      <c r="C9" s="2">
-        <v>45</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G9" s="17">
-        <f>( 1.5 *37500)/2</f>
-        <v>28125</v>
-      </c>
-      <c r="H9" s="2">
-        <v>100</v>
-      </c>
-      <c r="I9" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="B10" s="8">
-        <v>111</v>
-      </c>
-      <c r="C10" s="13">
-        <v>13</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="G10" s="9">
-        <v>30000</v>
-      </c>
-      <c r="H10" s="13">
-        <v>100</v>
-      </c>
-      <c r="I10" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="B11" s="8">
-        <v>184</v>
-      </c>
-      <c r="C11" s="8">
-        <v>14</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>497</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="G11" s="2">
-        <v>30000</v>
-      </c>
-      <c r="H11" s="8">
-        <v>150</v>
-      </c>
-      <c r="I11" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="B12" s="8">
-        <v>185</v>
-      </c>
-      <c r="C12" s="8">
-        <v>184</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>514</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="G12" s="2">
-        <v>30500</v>
-      </c>
-      <c r="H12" s="8">
-        <v>150</v>
-      </c>
-      <c r="I12" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>501</v>
-      </c>
-      <c r="B13" s="15">
-        <v>186</v>
-      </c>
-      <c r="C13" s="15">
-        <v>184</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>504</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>500</v>
-      </c>
-      <c r="G13" s="18">
-        <v>25000</v>
-      </c>
-      <c r="H13" s="15">
-        <v>200</v>
-      </c>
-      <c r="I13" s="15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>1969</v>
-      </c>
-      <c r="B14" s="8">
-        <v>236</v>
-      </c>
-      <c r="C14" s="8">
-        <v>14</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1970</v>
-      </c>
-      <c r="G14" s="13">
-        <v>25000</v>
-      </c>
-      <c r="H14" s="8">
-        <v>150</v>
-      </c>
-      <c r="I14" s="8">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K17" t="s">
-        <v>296</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287C81DE-6A1F-4F01-9CBE-E07DD115A294}">
   <dimension ref="A1:M67"/>
   <sheetViews>

--- a/INFO D.xlsx
+++ b/INFO D.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin Vuu\Documents\GitHub\Craft-to-Exile-Dissonance-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D96165F-010A-4262-9D96-7F1F8EF9C4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DFC7E2-0C8D-476E-8A07-151E2A968FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="680" firstSheet="6" activeTab="14" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="680" firstSheet="3" activeTab="14" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4745" uniqueCount="2589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4745" uniqueCount="2595">
   <si>
     <t>Quest</t>
   </si>
@@ -7827,6 +7827,24 @@
   </si>
   <si>
     <t>very_high_increased_duration_flat</t>
+  </si>
+  <si>
+    <t>very_low_attack_thunder_damage_flat</t>
+  </si>
+  <si>
+    <t>low_all_dot_dmg_flat</t>
+  </si>
+  <si>
+    <t>ignore_dodge_flat</t>
+  </si>
+  <si>
+    <t>high_all_thunder_damage_flat</t>
+  </si>
+  <si>
+    <t>double_less_elemental_resist_flat</t>
+  </si>
+  <si>
+    <t>double_less_energy_regen_percent</t>
   </si>
 </sst>
 </file>
@@ -24384,8 +24402,8 @@
   </sheetPr>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:I18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25375,14 +25393,14 @@
       <c r="F30" t="s">
         <v>749</v>
       </c>
-      <c r="G30" t="s">
-        <v>856</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="G30" s="17" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>2293</v>
+      </c>
+      <c r="I30" t="s">
         <v>750</v>
-      </c>
-      <c r="I30" t="s">
-        <v>751</v>
       </c>
       <c r="J30" t="s">
         <v>752</v>
@@ -25895,8 +25913,8 @@
   </sheetPr>
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26681,7 +26699,7 @@
         <v>661</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>859</v>
+        <v>2589</v>
       </c>
       <c r="K22" s="9" t="s">
         <v>692</v>
@@ -27444,7 +27462,7 @@
         <v>853</v>
       </c>
       <c r="J42" s="17" t="s">
-        <v>854</v>
+        <v>2263</v>
       </c>
       <c r="K42" s="17" t="s">
         <v>788</v>
@@ -27482,7 +27500,7 @@
         <v>752</v>
       </c>
       <c r="J43" s="17" t="s">
-        <v>856</v>
+        <v>2293</v>
       </c>
       <c r="K43" s="17" t="s">
         <v>790</v>
@@ -27519,7 +27537,7 @@
         <v>858</v>
       </c>
       <c r="J44" s="17" t="s">
-        <v>859</v>
+        <v>2318</v>
       </c>
       <c r="K44" s="17" t="s">
         <v>794</v>
@@ -27556,7 +27574,7 @@
         <v>861</v>
       </c>
       <c r="J45" s="17" t="s">
-        <v>862</v>
+        <v>2330</v>
       </c>
       <c r="K45" s="17" t="s">
         <v>792</v>
@@ -27827,8 +27845,8 @@
   </sheetPr>
   <dimension ref="A1:P164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C127" workbookViewId="0">
-      <selection activeCell="K140" sqref="K140"/>
+    <sheetView tabSelected="1" topLeftCell="C142" workbookViewId="0">
+      <selection activeCell="H151" sqref="H151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27944,15 +27962,18 @@
       <c r="G3" t="s">
         <v>880</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H3" s="17"/>
+      <c r="I3" s="17" t="s">
         <v>800</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="17" t="s">
         <v>744</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="17" t="s">
         <v>845</v>
       </c>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
       <c r="N3" t="s">
         <v>898</v>
       </c>
@@ -27980,18 +28001,20 @@
       <c r="G4" t="s">
         <v>894</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H4" s="17"/>
+      <c r="I4" s="17" t="s">
         <v>706</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="17" t="s">
         <v>1125</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="17" t="s">
         <v>696</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="17" t="s">
         <v>674</v>
       </c>
+      <c r="M4" s="17"/>
       <c r="N4" t="s">
         <v>902</v>
       </c>
@@ -28016,18 +28039,20 @@
       <c r="G5" t="s">
         <v>2177</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H5" s="17"/>
+      <c r="I5" s="17" t="s">
         <v>706</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="17" t="s">
         <v>750</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="17" t="s">
         <v>696</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="17" t="s">
         <v>796</v>
       </c>
+      <c r="M5" s="17"/>
       <c r="N5" t="s">
         <v>902</v>
       </c>
@@ -28054,15 +28079,18 @@
       <c r="G6" t="s">
         <v>724</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H6" s="17"/>
+      <c r="I6" s="17" t="s">
         <v>910</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="17" t="s">
         <v>911</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="17" t="s">
         <v>890</v>
       </c>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
       <c r="N6" t="s">
         <v>912</v>
       </c>
@@ -28090,18 +28118,20 @@
       <c r="G7" t="s">
         <v>790</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H7" s="17"/>
+      <c r="I7" s="17" t="s">
         <v>1046</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="17" t="s">
         <v>721</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="17" t="s">
         <v>1131</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="17" t="s">
         <v>1132</v>
       </c>
+      <c r="M7" s="17"/>
       <c r="N7" t="s">
         <v>1133</v>
       </c>
@@ -28126,15 +28156,18 @@
       <c r="G8" t="s">
         <v>790</v>
       </c>
-      <c r="I8" t="s">
+      <c r="H8" s="17"/>
+      <c r="I8" s="17" t="s">
         <v>721</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="17" t="s">
         <v>752</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="17" t="s">
         <v>1046</v>
       </c>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
       <c r="N8" t="s">
         <v>1151</v>
       </c>
@@ -28159,15 +28192,18 @@
       <c r="G9" t="s">
         <v>794</v>
       </c>
-      <c r="I9" t="s">
+      <c r="H9" s="17"/>
+      <c r="I9" s="17" t="s">
         <v>629</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="17" t="s">
         <v>711</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="17" t="s">
         <v>858</v>
       </c>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
       <c r="N9" t="s">
         <v>1153</v>
       </c>
@@ -28194,12 +28230,16 @@
       <c r="G10" t="s">
         <v>764</v>
       </c>
-      <c r="I10" t="s">
+      <c r="H10" s="17"/>
+      <c r="I10" s="17" t="s">
         <v>688</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="17" t="s">
         <v>1683</v>
       </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
       <c r="N10" t="s">
         <v>941</v>
       </c>
@@ -28229,15 +28269,18 @@
       <c r="G11" t="s">
         <v>764</v>
       </c>
-      <c r="I11" t="s">
+      <c r="H11" s="17"/>
+      <c r="I11" s="17" t="s">
         <v>911</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="17" t="s">
         <v>636</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="17" t="s">
         <v>765</v>
       </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
       <c r="N11" t="s">
         <v>941</v>
       </c>
@@ -28267,18 +28310,20 @@
       <c r="G12" t="s">
         <v>880</v>
       </c>
-      <c r="I12" t="s">
+      <c r="H12" s="17"/>
+      <c r="I12" s="17" t="s">
         <v>829</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="17" t="s">
         <v>721</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="17" t="s">
         <v>732</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="17" t="s">
         <v>823</v>
       </c>
+      <c r="M12" s="17"/>
       <c r="N12" t="s">
         <v>978</v>
       </c>
@@ -28305,15 +28350,18 @@
       <c r="G13" t="s">
         <v>2171</v>
       </c>
-      <c r="I13" t="s">
+      <c r="H13" s="17"/>
+      <c r="I13" s="17" t="s">
         <v>1176</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="17" t="s">
         <v>1135</v>
       </c>
-      <c r="K13" t="s">
-        <v>859</v>
-      </c>
+      <c r="K13" s="17" t="s">
+        <v>744</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
       <c r="N13" t="s">
         <v>1178</v>
       </c>
@@ -28340,15 +28388,18 @@
       <c r="G14" t="s">
         <v>747</v>
       </c>
-      <c r="I14" t="s">
+      <c r="H14" s="17"/>
+      <c r="I14" s="17" t="s">
         <v>706</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="17" t="s">
         <v>705</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="17" t="s">
         <v>729</v>
       </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
       <c r="N14" t="s">
         <v>902</v>
       </c>
@@ -28378,12 +28429,16 @@
       <c r="G15" t="s">
         <v>714</v>
       </c>
-      <c r="I15" t="s">
+      <c r="H15" s="17"/>
+      <c r="I15" s="17" t="s">
         <v>2186</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="17" t="s">
         <v>688</v>
       </c>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
       <c r="N15" t="s">
         <v>902</v>
       </c>
@@ -28413,18 +28468,20 @@
       <c r="G16" t="s">
         <v>714</v>
       </c>
-      <c r="I16" t="s">
+      <c r="H16" s="17"/>
+      <c r="I16" s="17" t="s">
         <v>642</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="17" t="s">
         <v>890</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="17" t="s">
         <v>1013</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="17" t="s">
         <v>1014</v>
       </c>
+      <c r="M16" s="17"/>
       <c r="N16" t="s">
         <v>902</v>
       </c>
@@ -28454,12 +28511,16 @@
       <c r="G17" t="s">
         <v>705</v>
       </c>
-      <c r="I17" t="s">
+      <c r="H17" s="17"/>
+      <c r="I17" s="17" t="s">
         <v>890</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="17" t="s">
         <v>1006</v>
       </c>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
       <c r="N17" t="s">
         <v>902</v>
       </c>
@@ -28489,15 +28550,18 @@
       <c r="G18" t="s">
         <v>805</v>
       </c>
-      <c r="I18" t="s">
+      <c r="H18" s="17"/>
+      <c r="I18" s="17" t="s">
         <v>881</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="17" t="s">
         <v>705</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="17" t="s">
         <v>714</v>
       </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
       <c r="N18" t="s">
         <v>1035</v>
       </c>
@@ -28535,6 +28599,7 @@
         <v>836</v>
       </c>
       <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
       <c r="N19" t="s">
         <v>1188</v>
       </c>
@@ -28574,6 +28639,7 @@
       <c r="L20" s="17" t="s">
         <v>642</v>
       </c>
+      <c r="M20" s="17"/>
       <c r="N20" t="s">
         <v>1192</v>
       </c>
@@ -28606,6 +28672,7 @@
       </c>
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
       <c r="N21" t="s">
         <v>1078</v>
       </c>
@@ -28632,18 +28699,20 @@
       <c r="G22" t="s">
         <v>721</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="17" t="s">
         <v>643</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="17" t="s">
         <v>725</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="17" t="s">
         <v>1042</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="17" t="s">
         <v>721</v>
       </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
       <c r="N22" t="s">
         <v>1043</v>
       </c>
@@ -28673,15 +28742,18 @@
       <c r="G23" t="s">
         <v>1057</v>
       </c>
-      <c r="I23" t="s">
+      <c r="H23" s="17"/>
+      <c r="I23" s="17" t="s">
         <v>925</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="17" t="s">
         <v>2187</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="17" t="s">
         <v>642</v>
       </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
       <c r="N23" t="s">
         <v>1058</v>
       </c>
@@ -28711,15 +28783,18 @@
       <c r="G24" t="s">
         <v>1065</v>
       </c>
-      <c r="I24" t="s">
+      <c r="H24" s="17"/>
+      <c r="I24" s="17" t="s">
         <v>710</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="17" t="s">
         <v>1066</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="17" t="s">
         <v>1067</v>
       </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
       <c r="N24" t="s">
         <v>1038</v>
       </c>
@@ -28757,6 +28832,7 @@
         <v>705</v>
       </c>
       <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
       <c r="N25" t="s">
         <v>902</v>
       </c>
@@ -28783,15 +28859,18 @@
       <c r="G26" t="s">
         <v>701</v>
       </c>
-      <c r="I26" t="s">
+      <c r="H26" s="17"/>
+      <c r="I26" s="17" t="s">
         <v>721</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="17" t="s">
         <v>629</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="17" t="s">
         <v>674</v>
       </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
       <c r="N26" t="s">
         <v>1078</v>
       </c>
@@ -28821,15 +28900,18 @@
       <c r="G27" t="s">
         <v>701</v>
       </c>
-      <c r="I27" t="s">
+      <c r="H27" s="17"/>
+      <c r="I27" s="17" t="s">
         <v>1005</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="17" t="s">
         <v>784</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="17" t="s">
         <v>823</v>
       </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
       <c r="N27" t="s">
         <v>1078</v>
       </c>
@@ -28859,15 +28941,18 @@
       <c r="G28" t="s">
         <v>701</v>
       </c>
-      <c r="I28" t="s">
+      <c r="H28" s="17"/>
+      <c r="I28" s="17" t="s">
         <v>890</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="17" t="s">
         <v>764</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="17" t="s">
         <v>736</v>
       </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
       <c r="N28" t="s">
         <v>1078</v>
       </c>
@@ -28894,18 +28979,20 @@
       <c r="G29" t="s">
         <v>2176</v>
       </c>
-      <c r="I29" t="s">
+      <c r="H29" s="17"/>
+      <c r="I29" s="17" t="s">
         <v>710</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="17" t="s">
         <v>1194</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="17" t="s">
         <v>1282</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="17" t="s">
         <v>2175</v>
       </c>
+      <c r="M29" s="17"/>
       <c r="N29" t="s">
         <v>1297</v>
       </c>
@@ -28929,15 +29016,18 @@
       <c r="G30" t="s">
         <v>2183</v>
       </c>
-      <c r="I30" t="s">
+      <c r="H30" s="17"/>
+      <c r="I30" s="17" t="s">
         <v>674</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="17" t="s">
         <v>787</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="17" t="s">
         <v>643</v>
       </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
       <c r="N30" t="s">
         <v>1195</v>
       </c>
@@ -28964,15 +29054,18 @@
       <c r="G31" t="s">
         <v>880</v>
       </c>
-      <c r="I31" t="s">
+      <c r="H31" s="17"/>
+      <c r="I31" s="17" t="s">
         <v>881</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="17" t="s">
         <v>829</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="17" t="s">
         <v>882</v>
       </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
       <c r="N31" t="s">
         <v>883</v>
       </c>
@@ -29002,18 +29095,20 @@
       <c r="G32" t="s">
         <v>887</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="17" t="s">
         <v>894</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="17" t="s">
         <v>706</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="17" t="s">
         <v>900</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="17" t="s">
         <v>901</v>
       </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
       <c r="N32" t="s">
         <v>902</v>
       </c>
@@ -29043,15 +29138,18 @@
       <c r="G33" t="s">
         <v>2172</v>
       </c>
-      <c r="I33" t="s">
+      <c r="H33" s="17"/>
+      <c r="I33" s="17" t="s">
         <v>806</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="17" t="s">
         <v>717</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="17" t="s">
         <v>903</v>
       </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
       <c r="N33" t="s">
         <v>902</v>
       </c>
@@ -29079,18 +29177,20 @@
       <c r="G34" t="s">
         <v>2178</v>
       </c>
-      <c r="I34" t="s">
+      <c r="H34" s="17"/>
+      <c r="I34" s="17" t="s">
         <v>706</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="17" t="s">
         <v>2180</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="17" t="s">
         <v>1022</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" s="17" t="s">
         <v>2179</v>
       </c>
+      <c r="M34" s="17"/>
       <c r="N34" t="s">
         <v>902</v>
       </c>
@@ -29117,18 +29217,20 @@
       <c r="G35" t="s">
         <v>880</v>
       </c>
-      <c r="I35" t="s">
+      <c r="H35" s="17"/>
+      <c r="I35" s="17" t="s">
         <v>696</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="17" t="s">
         <v>697</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="17" t="s">
         <v>747</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L35" s="17" t="s">
         <v>2161</v>
       </c>
+      <c r="M35" s="17"/>
       <c r="N35" t="s">
         <v>898</v>
       </c>
@@ -29153,15 +29255,18 @@
       <c r="G36" t="s">
         <v>794</v>
       </c>
-      <c r="I36" t="s">
+      <c r="H36" s="17"/>
+      <c r="I36" s="17" t="s">
         <v>1135</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" s="17" t="s">
         <v>1136</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" s="17" t="s">
         <v>910</v>
       </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
       <c r="N36" t="s">
         <v>891</v>
       </c>
@@ -29185,18 +29290,20 @@
       <c r="G37" t="s">
         <v>764</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="17" t="s">
         <v>721</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="17" t="s">
         <v>1155</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="17" t="s">
         <v>725</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="17" t="s">
         <v>861</v>
       </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
       <c r="N37" t="s">
         <v>1153</v>
       </c>
@@ -29220,15 +29327,18 @@
       <c r="G38" t="s">
         <v>788</v>
       </c>
-      <c r="I38" t="s">
+      <c r="H38" s="17"/>
+      <c r="I38" s="17" t="s">
         <v>711</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" s="17" t="s">
         <v>1157</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38" s="17" t="s">
         <v>642</v>
       </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
       <c r="N38" t="s">
         <v>978</v>
       </c>
@@ -29252,18 +29362,20 @@
       <c r="G39" t="s">
         <v>764</v>
       </c>
-      <c r="I39" t="s">
+      <c r="H39" s="17"/>
+      <c r="I39" s="17" t="s">
         <v>1160</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" s="17" t="s">
         <v>1161</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39" s="17" t="s">
         <v>1162</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L39" s="17" t="s">
         <v>1163</v>
       </c>
+      <c r="M39" s="17"/>
       <c r="N39" t="s">
         <v>1164</v>
       </c>
@@ -29287,18 +29399,20 @@
       <c r="G40" t="s">
         <v>764</v>
       </c>
-      <c r="I40" t="s">
+      <c r="H40" s="17"/>
+      <c r="I40" s="17" t="s">
         <v>1166</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" s="17" t="s">
         <v>1161</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K40" s="17" t="s">
         <v>1162</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L40" s="17" t="s">
         <v>1163</v>
       </c>
+      <c r="M40" s="17"/>
       <c r="N40" t="s">
         <v>1164</v>
       </c>
@@ -29322,18 +29436,20 @@
       <c r="G41" t="s">
         <v>764</v>
       </c>
-      <c r="I41" t="s">
+      <c r="H41" s="17"/>
+      <c r="I41" s="17" t="s">
         <v>1014</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" s="17" t="s">
         <v>1161</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="17" t="s">
         <v>1162</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L41" s="17" t="s">
         <v>1163</v>
       </c>
+      <c r="M41" s="17"/>
       <c r="N41" t="s">
         <v>1164</v>
       </c>
@@ -29357,18 +29473,20 @@
       <c r="G42" t="s">
         <v>764</v>
       </c>
-      <c r="I42" t="s">
+      <c r="H42" s="17"/>
+      <c r="I42" s="17" t="s">
         <v>1013</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42" s="17" t="s">
         <v>1161</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K42" s="17" t="s">
         <v>1162</v>
       </c>
-      <c r="L42" t="s">
+      <c r="L42" s="17" t="s">
         <v>1163</v>
       </c>
+      <c r="M42" s="17"/>
       <c r="N42" t="s">
         <v>1164</v>
       </c>
@@ -29395,15 +29513,18 @@
       <c r="G43" t="s">
         <v>2142</v>
       </c>
-      <c r="I43" t="s">
+      <c r="H43" s="17"/>
+      <c r="I43" s="17" t="s">
         <v>642</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43" s="17" t="s">
         <v>788</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K43" s="17" t="s">
         <v>944</v>
       </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
       <c r="N43" t="s">
         <v>941</v>
       </c>
@@ -29433,15 +29554,18 @@
       <c r="G44" t="s">
         <v>764</v>
       </c>
-      <c r="I44" t="s">
+      <c r="H44" s="17"/>
+      <c r="I44" s="17" t="s">
         <v>642</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" s="17" t="s">
         <v>1683</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" s="17" t="s">
         <v>853</v>
       </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
       <c r="N44" t="s">
         <v>941</v>
       </c>
@@ -29474,15 +29598,18 @@
       <c r="G45" t="s">
         <v>764</v>
       </c>
-      <c r="I45" t="s">
+      <c r="H45" s="17"/>
+      <c r="I45" s="17" t="s">
         <v>890</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" s="17" t="s">
         <v>1683</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45" s="17" t="s">
         <v>861</v>
       </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
       <c r="N45" t="s">
         <v>941</v>
       </c>
@@ -29512,15 +29639,18 @@
       <c r="G46" t="s">
         <v>764</v>
       </c>
-      <c r="I46" t="s">
+      <c r="H46" s="17"/>
+      <c r="I46" s="17" t="s">
         <v>629</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46" s="17" t="s">
         <v>1683</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K46" s="17" t="s">
         <v>858</v>
       </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
       <c r="N46" t="s">
         <v>941</v>
       </c>
@@ -29547,15 +29677,18 @@
       <c r="G47" t="s">
         <v>2176</v>
       </c>
-      <c r="I47" t="s">
+      <c r="H47" s="17"/>
+      <c r="I47" s="17" t="s">
         <v>691</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47" s="17" t="s">
         <v>2184</v>
       </c>
-      <c r="K47" t="s">
-        <v>862</v>
-      </c>
+      <c r="K47" s="17" t="s">
+        <v>1014</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
       <c r="N47" t="s">
         <v>1178</v>
       </c>
@@ -29579,21 +29712,22 @@
       <c r="G48" t="s">
         <v>2173</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="17" t="s">
         <v>2185</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="17" t="s">
         <v>788</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" s="17" t="s">
         <v>1177</v>
       </c>
-      <c r="K48" t="s">
-        <v>854</v>
-      </c>
-      <c r="L48" t="s">
+      <c r="K48" s="17" t="s">
+        <v>2590</v>
+      </c>
+      <c r="L48" s="17" t="s">
         <v>896</v>
       </c>
+      <c r="M48" s="17"/>
       <c r="N48" t="s">
         <v>1178</v>
       </c>
@@ -29617,15 +29751,18 @@
       <c r="G49" t="s">
         <v>887</v>
       </c>
-      <c r="I49" t="s">
+      <c r="H49" s="17"/>
+      <c r="I49" s="17" t="s">
         <v>882</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" s="17" t="s">
         <v>717</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K49" s="17" t="s">
         <v>901</v>
       </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
       <c r="N49" t="s">
         <v>883</v>
       </c>
@@ -29652,18 +29789,20 @@
       <c r="G50" t="s">
         <v>714</v>
       </c>
-      <c r="I50" t="s">
+      <c r="H50" s="17"/>
+      <c r="I50" s="17" t="s">
         <v>656</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" s="17" t="s">
         <v>642</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K50" s="17" t="s">
         <v>733</v>
       </c>
-      <c r="L50" t="s">
+      <c r="L50" s="17" t="s">
         <v>744</v>
       </c>
+      <c r="M50" s="17"/>
       <c r="N50" t="s">
         <v>902</v>
       </c>
@@ -29693,15 +29832,18 @@
       <c r="G51" t="s">
         <v>714</v>
       </c>
-      <c r="I51" t="s">
+      <c r="H51" s="17"/>
+      <c r="I51" s="17" t="s">
         <v>805</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51" s="17" t="s">
         <v>705</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K51" s="17" t="s">
         <v>992</v>
       </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
       <c r="N51" t="s">
         <v>902</v>
       </c>
@@ -29731,18 +29873,20 @@
       <c r="G52" t="s">
         <v>714</v>
       </c>
-      <c r="I52" t="s">
+      <c r="H52" s="17"/>
+      <c r="I52" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J52" s="17" t="s">
         <v>691</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" s="17" t="s">
         <v>684</v>
       </c>
       <c r="L52" s="17" t="s">
         <v>2194</v>
       </c>
+      <c r="M52" s="17"/>
       <c r="N52" t="s">
         <v>902</v>
       </c>
@@ -29772,18 +29916,20 @@
       <c r="G53" t="s">
         <v>747</v>
       </c>
-      <c r="I53" t="s">
+      <c r="H53" s="17"/>
+      <c r="I53" s="17" t="s">
         <v>691</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J53" s="17" t="s">
         <v>1017</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K53" s="17" t="s">
         <v>1018</v>
       </c>
-      <c r="L53" t="s">
+      <c r="L53" s="17" t="s">
         <v>823</v>
       </c>
+      <c r="M53" s="17"/>
       <c r="N53" t="s">
         <v>1019</v>
       </c>
@@ -29813,18 +29959,20 @@
       <c r="G54" t="s">
         <v>714</v>
       </c>
-      <c r="I54" t="s">
+      <c r="H54" s="17"/>
+      <c r="I54" s="17" t="s">
         <v>744</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J54" s="17" t="s">
         <v>674</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K54" s="17" t="s">
         <v>787</v>
       </c>
-      <c r="L54" t="s">
+      <c r="L54" s="17" t="s">
         <v>910</v>
       </c>
+      <c r="M54" s="17"/>
       <c r="N54" t="s">
         <v>902</v>
       </c>
@@ -29854,9 +30002,14 @@
       <c r="G55" t="s">
         <v>692</v>
       </c>
-      <c r="I55" t="s">
+      <c r="H55" s="17"/>
+      <c r="I55" s="17" t="s">
         <v>2187</v>
       </c>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
       <c r="N55" t="s">
         <v>1038</v>
       </c>
@@ -29883,18 +30036,20 @@
       <c r="G56" t="s">
         <v>790</v>
       </c>
-      <c r="I56" t="s">
+      <c r="H56" s="17"/>
+      <c r="I56" s="17" t="s">
         <v>721</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J56" s="17" t="s">
         <v>732</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K56" s="17" t="s">
         <v>755</v>
       </c>
-      <c r="L56" t="s">
+      <c r="L56" s="17" t="s">
         <v>1194</v>
       </c>
+      <c r="M56" s="17"/>
       <c r="N56" t="s">
         <v>1195</v>
       </c>
@@ -29931,7 +30086,7 @@
       <c r="L57" s="17" t="s">
         <v>1017</v>
       </c>
-      <c r="M57" t="s">
+      <c r="M57" s="17" t="s">
         <v>1197</v>
       </c>
       <c r="N57" t="s">
@@ -29968,6 +30123,7 @@
         <v>1202</v>
       </c>
       <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
       <c r="N58" t="s">
         <v>1203</v>
       </c>
@@ -30002,6 +30158,7 @@
         <v>629</v>
       </c>
       <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
       <c r="N59" t="s">
         <v>1133</v>
       </c>
@@ -30036,6 +30193,7 @@
         <v>901</v>
       </c>
       <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
       <c r="N60" t="s">
         <v>891</v>
       </c>
@@ -30062,15 +30220,18 @@
       <c r="G61" t="s">
         <v>721</v>
       </c>
-      <c r="I61" t="s">
+      <c r="H61" s="17"/>
+      <c r="I61" s="17" t="s">
         <v>954</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J61" s="17" t="s">
         <v>643</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K61" s="17" t="s">
         <v>1046</v>
       </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
       <c r="N61" t="s">
         <v>912</v>
       </c>
@@ -30108,6 +30269,7 @@
         <v>1227</v>
       </c>
       <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
       <c r="N62" t="s">
         <v>951</v>
       </c>
@@ -30142,6 +30304,7 @@
         <v>818</v>
       </c>
       <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
       <c r="N63" t="s">
         <v>1195</v>
       </c>
@@ -30176,6 +30339,7 @@
         <v>1166</v>
       </c>
       <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
       <c r="N64" t="s">
         <v>951</v>
       </c>
@@ -30210,6 +30374,7 @@
         <v>818</v>
       </c>
       <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
       <c r="N65" t="s">
         <v>951</v>
       </c>
@@ -30244,7 +30409,7 @@
         <v>744</v>
       </c>
       <c r="L66" s="24"/>
-      <c r="M66" s="7"/>
+      <c r="M66" s="24"/>
       <c r="N66" s="7" t="s">
         <v>941</v>
       </c>
@@ -30273,18 +30438,20 @@
       <c r="G67" t="s">
         <v>643</v>
       </c>
-      <c r="I67" t="s">
+      <c r="H67" s="17"/>
+      <c r="I67" s="17" t="s">
         <v>881</v>
       </c>
-      <c r="J67" t="s">
+      <c r="J67" s="17" t="s">
         <v>724</v>
       </c>
-      <c r="K67" t="s">
+      <c r="K67" s="17" t="s">
         <v>949</v>
       </c>
-      <c r="L67" t="s">
+      <c r="L67" s="17" t="s">
         <v>890</v>
       </c>
+      <c r="M67" s="17"/>
       <c r="N67" t="s">
         <v>1061</v>
       </c>
@@ -30324,6 +30491,7 @@
         <v>736</v>
       </c>
       <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
       <c r="N68" t="s">
         <v>902</v>
       </c>
@@ -30350,7 +30518,7 @@
       <c r="G69" t="s">
         <v>739</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="17" t="s">
         <v>733</v>
       </c>
       <c r="I69" s="17" t="s">
@@ -30359,6 +30527,9 @@
       <c r="J69" s="17" t="s">
         <v>808</v>
       </c>
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
       <c r="P69" t="s">
         <v>884</v>
       </c>
@@ -30393,6 +30564,7 @@
         <v>744</v>
       </c>
       <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
       <c r="N70" t="s">
         <v>1254</v>
       </c>
@@ -30427,6 +30599,7 @@
         <v>1256</v>
       </c>
       <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
       <c r="N71" t="s">
         <v>951</v>
       </c>
@@ -30464,6 +30637,7 @@
         <v>1232</v>
       </c>
       <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
       <c r="N72" t="s">
         <v>951</v>
       </c>
@@ -30498,6 +30672,7 @@
         <v>1259</v>
       </c>
       <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
       <c r="N73" t="s">
         <v>951</v>
       </c>
@@ -30532,6 +30707,7 @@
         <v>1157</v>
       </c>
       <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
       <c r="N74" t="s">
         <v>951</v>
       </c>
@@ -30566,6 +30742,7 @@
         <v>948</v>
       </c>
       <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
       <c r="N75" t="s">
         <v>1038</v>
       </c>
@@ -30589,15 +30766,18 @@
       <c r="G76" t="s">
         <v>701</v>
       </c>
-      <c r="I76" t="s">
+      <c r="H76" s="17"/>
+      <c r="I76" s="17" t="s">
         <v>688</v>
       </c>
-      <c r="J76" t="s">
+      <c r="J76" s="17" t="s">
         <v>820</v>
       </c>
-      <c r="K76" t="s">
+      <c r="K76" s="17" t="s">
         <v>881</v>
       </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
       <c r="N76" t="s">
         <v>912</v>
       </c>
@@ -30621,18 +30801,20 @@
       <c r="G77" t="s">
         <v>894</v>
       </c>
-      <c r="I77" t="s">
+      <c r="H77" s="17"/>
+      <c r="I77" s="17" t="s">
         <v>697</v>
       </c>
-      <c r="J77" t="s">
+      <c r="J77" s="17" t="s">
         <v>853</v>
       </c>
-      <c r="K77" t="s">
+      <c r="K77" s="17" t="s">
         <v>1282</v>
       </c>
-      <c r="L77" t="s">
+      <c r="L77" s="17" t="s">
         <v>1283</v>
       </c>
+      <c r="M77" s="17"/>
       <c r="N77" t="s">
         <v>1178</v>
       </c>
@@ -30656,18 +30838,20 @@
       <c r="G78" t="s">
         <v>905</v>
       </c>
-      <c r="I78" t="s">
+      <c r="H78" s="17"/>
+      <c r="I78" s="17" t="s">
         <v>752</v>
       </c>
-      <c r="J78" t="s">
+      <c r="J78" s="17" t="s">
         <v>1282</v>
       </c>
-      <c r="K78" t="s">
+      <c r="K78" s="17" t="s">
         <v>736</v>
       </c>
-      <c r="L78" t="s">
+      <c r="L78" s="17" t="s">
         <v>1285</v>
       </c>
+      <c r="M78" s="17"/>
       <c r="N78" t="s">
         <v>1235</v>
       </c>
@@ -30691,18 +30875,20 @@
       <c r="G79" t="s">
         <v>904</v>
       </c>
-      <c r="I79" t="s">
+      <c r="H79" s="17"/>
+      <c r="I79" s="17" t="s">
         <v>697</v>
       </c>
-      <c r="J79" t="s">
+      <c r="J79" s="17" t="s">
         <v>1256</v>
       </c>
-      <c r="K79" t="s">
+      <c r="K79" s="17" t="s">
         <v>710</v>
       </c>
-      <c r="L79" t="s">
+      <c r="L79" s="17" t="s">
         <v>1287</v>
       </c>
+      <c r="M79" s="17"/>
       <c r="N79" t="s">
         <v>1243</v>
       </c>
@@ -30726,18 +30912,20 @@
       <c r="G80" t="s">
         <v>888</v>
       </c>
-      <c r="I80" t="s">
+      <c r="H80" s="17"/>
+      <c r="I80" s="17" t="s">
         <v>826</v>
       </c>
-      <c r="J80" t="s">
+      <c r="J80" s="17" t="s">
         <v>696</v>
       </c>
-      <c r="K80" t="s">
+      <c r="K80" s="17" t="s">
         <v>1232</v>
       </c>
-      <c r="L80" t="s">
+      <c r="L80" s="17" t="s">
         <v>1289</v>
       </c>
+      <c r="M80" s="17"/>
       <c r="N80" t="s">
         <v>951</v>
       </c>
@@ -30764,19 +30952,20 @@
       <c r="G81" t="s">
         <v>887</v>
       </c>
-      <c r="I81" t="s">
+      <c r="H81" s="17"/>
+      <c r="I81" s="17" t="s">
         <v>1022</v>
       </c>
-      <c r="J81" t="s">
+      <c r="J81" s="17" t="s">
         <v>764</v>
       </c>
-      <c r="K81" t="s">
+      <c r="K81" s="17" t="s">
         <v>636</v>
       </c>
-      <c r="L81" t="s">
+      <c r="L81" s="17" t="s">
         <v>710</v>
       </c>
-      <c r="M81" t="s">
+      <c r="M81" s="17" t="s">
         <v>1095</v>
       </c>
       <c r="N81" t="s">
@@ -30805,18 +30994,20 @@
       <c r="G82" t="s">
         <v>2176</v>
       </c>
-      <c r="I82" t="s">
+      <c r="H82" s="17"/>
+      <c r="I82" s="17" t="s">
         <v>1022</v>
       </c>
-      <c r="J82" t="s">
+      <c r="J82" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="K82" t="s">
+      <c r="K82" s="17" t="s">
         <v>889</v>
       </c>
-      <c r="L82" t="s">
+      <c r="L82" s="17" t="s">
         <v>796</v>
       </c>
+      <c r="M82" s="17"/>
       <c r="N82" t="s">
         <v>1096</v>
       </c>
@@ -30840,15 +31031,18 @@
       <c r="G83" t="s">
         <v>2183</v>
       </c>
-      <c r="I83" t="s">
+      <c r="H83" s="17"/>
+      <c r="I83" s="17" t="s">
         <v>1022</v>
       </c>
-      <c r="J83" t="s">
+      <c r="J83" s="17" t="s">
         <v>2188</v>
       </c>
-      <c r="K83" t="s">
+      <c r="K83" s="17" t="s">
         <v>950</v>
       </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
       <c r="N83" t="s">
         <v>1096</v>
       </c>
@@ -30875,18 +31069,20 @@
       <c r="G84" t="s">
         <v>764</v>
       </c>
-      <c r="I84" t="s">
+      <c r="H84" s="17"/>
+      <c r="I84" s="17" t="s">
         <v>691</v>
       </c>
-      <c r="J84" t="s">
+      <c r="J84" s="17" t="s">
         <v>2194</v>
       </c>
-      <c r="K84" t="s">
+      <c r="K84" s="17" t="s">
         <v>732</v>
       </c>
-      <c r="L84" t="s">
+      <c r="L84" s="17" t="s">
         <v>733</v>
       </c>
+      <c r="M84" s="17"/>
       <c r="N84" t="s">
         <v>1038</v>
       </c>
@@ -30916,21 +31112,22 @@
       <c r="G85" t="s">
         <v>887</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H85" s="17" t="s">
         <v>888</v>
       </c>
-      <c r="I85" t="s">
+      <c r="I85" s="17" t="s">
         <v>844</v>
       </c>
-      <c r="J85" t="s">
+      <c r="J85" s="17" t="s">
         <v>890</v>
       </c>
-      <c r="K85" t="s">
+      <c r="K85" s="17" t="s">
         <v>628</v>
       </c>
-      <c r="L85" t="s">
+      <c r="L85" s="17" t="s">
         <v>2175</v>
       </c>
+      <c r="M85" s="17"/>
       <c r="N85" t="s">
         <v>891</v>
       </c>
@@ -30958,18 +31155,20 @@
       <c r="G86" t="s">
         <v>2171</v>
       </c>
-      <c r="I86" t="s">
+      <c r="H86" s="17"/>
+      <c r="I86" s="17" t="s">
         <v>906</v>
       </c>
-      <c r="J86" t="s">
+      <c r="J86" s="17" t="s">
         <v>710</v>
       </c>
-      <c r="K86" t="s">
+      <c r="K86" s="17" t="s">
         <v>1117</v>
       </c>
-      <c r="L86" t="s">
+      <c r="L86" s="17" t="s">
         <v>1118</v>
       </c>
+      <c r="M86" s="17"/>
       <c r="N86" t="s">
         <v>891</v>
       </c>
@@ -30994,18 +31193,20 @@
       <c r="G87" t="s">
         <v>2171</v>
       </c>
-      <c r="I87" t="s">
+      <c r="H87" s="17"/>
+      <c r="I87" s="17" t="s">
         <v>911</v>
       </c>
-      <c r="J87" t="s">
+      <c r="J87" s="17" t="s">
         <v>831</v>
       </c>
-      <c r="K87" t="s">
+      <c r="K87" s="17" t="s">
         <v>906</v>
       </c>
-      <c r="L87" t="s">
+      <c r="L87" s="17" t="s">
         <v>2120</v>
       </c>
+      <c r="M87" s="17"/>
       <c r="N87" t="s">
         <v>902</v>
       </c>
@@ -31030,15 +31231,18 @@
       <c r="G88" t="s">
         <v>788</v>
       </c>
-      <c r="I88" t="s">
+      <c r="H88" s="17"/>
+      <c r="I88" s="17" t="s">
         <v>803</v>
       </c>
-      <c r="J88" t="s">
+      <c r="J88" s="17" t="s">
         <v>1138</v>
       </c>
-      <c r="K88" t="s">
+      <c r="K88" s="17" t="s">
         <v>1139</v>
       </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
       <c r="N88" t="s">
         <v>1140</v>
       </c>
@@ -31063,18 +31267,20 @@
       <c r="G89" t="s">
         <v>1142</v>
       </c>
-      <c r="H89" t="s">
+      <c r="H89" s="17" t="s">
         <v>1143</v>
       </c>
-      <c r="I89" t="s">
+      <c r="I89" s="17" t="s">
         <v>861</v>
       </c>
-      <c r="J89" t="s">
+      <c r="J89" s="17" t="s">
         <v>853</v>
       </c>
-      <c r="K89" t="s">
+      <c r="K89" s="17" t="s">
         <v>2181</v>
       </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
       <c r="N89" t="s">
         <v>1144</v>
       </c>
@@ -31104,12 +31310,16 @@
       <c r="G90" t="s">
         <v>656</v>
       </c>
-      <c r="I90" t="s">
+      <c r="H90" s="17"/>
+      <c r="I90" s="17" t="s">
         <v>656</v>
       </c>
-      <c r="J90" t="s">
+      <c r="J90" s="17" t="s">
         <v>2182</v>
       </c>
+      <c r="K90" s="17"/>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
       <c r="N90" t="s">
         <v>922</v>
       </c>
@@ -31136,18 +31346,20 @@
       <c r="G91" t="s">
         <v>764</v>
       </c>
-      <c r="I91" t="s">
+      <c r="H91" s="17"/>
+      <c r="I91" s="17" t="s">
         <v>1170</v>
       </c>
-      <c r="J91" t="s">
+      <c r="J91" s="17" t="s">
         <v>732</v>
       </c>
-      <c r="K91" t="s">
+      <c r="K91" s="17" t="s">
         <v>744</v>
       </c>
-      <c r="L91" t="s">
+      <c r="L91" s="17" t="s">
         <v>1171</v>
       </c>
+      <c r="M91" s="17"/>
       <c r="N91" t="s">
         <v>941</v>
       </c>
@@ -31171,15 +31383,18 @@
       <c r="G92" t="s">
         <v>764</v>
       </c>
-      <c r="I92" t="s">
+      <c r="H92" s="17"/>
+      <c r="I92" s="17" t="s">
         <v>836</v>
       </c>
-      <c r="J92" t="s">
+      <c r="J92" s="17" t="s">
         <v>643</v>
       </c>
-      <c r="K92" t="s">
+      <c r="K92" s="17" t="s">
         <v>710</v>
       </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
       <c r="N92" t="s">
         <v>941</v>
       </c>
@@ -31206,18 +31421,20 @@
       <c r="G93" t="s">
         <v>764</v>
       </c>
-      <c r="I93" t="s">
+      <c r="H93" s="17"/>
+      <c r="I93" s="17" t="s">
         <v>643</v>
       </c>
-      <c r="J93" t="s">
+      <c r="J93" s="17" t="s">
         <v>970</v>
       </c>
-      <c r="K93" t="s">
+      <c r="K93" s="17" t="s">
         <v>2179</v>
       </c>
-      <c r="L93" t="s">
+      <c r="L93" s="17" t="s">
         <v>971</v>
       </c>
+      <c r="M93" s="17"/>
       <c r="N93" t="s">
         <v>972</v>
       </c>
@@ -31244,20 +31461,21 @@
       <c r="G94" t="s">
         <v>2183</v>
       </c>
-      <c r="I94" t="s">
+      <c r="H94" s="17"/>
+      <c r="I94" s="17" t="s">
         <v>826</v>
       </c>
-      <c r="J94" t="s">
+      <c r="J94" s="17" t="s">
         <v>1253</v>
       </c>
-      <c r="K94" t="s">
+      <c r="K94" s="17" t="s">
         <v>1238</v>
       </c>
-      <c r="L94" t="s">
+      <c r="L94" s="17" t="s">
         <v>721</v>
       </c>
-      <c r="M94" t="s">
-        <v>856</v>
+      <c r="M94" s="17" t="s">
+        <v>2591</v>
       </c>
       <c r="N94" t="s">
         <v>1178</v>
@@ -31282,15 +31500,18 @@
       <c r="G95" t="s">
         <v>904</v>
       </c>
-      <c r="I95" t="s">
+      <c r="H95" s="17"/>
+      <c r="I95" s="17" t="s">
         <v>831</v>
       </c>
-      <c r="J95" t="s">
+      <c r="J95" s="17" t="s">
         <v>697</v>
       </c>
-      <c r="K95" t="s">
+      <c r="K95" s="17" t="s">
         <v>718</v>
       </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
       <c r="N95" t="s">
         <v>1185</v>
       </c>
@@ -31317,20 +31538,20 @@
       <c r="G96" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2" t="s">
+      <c r="H96" s="9"/>
+      <c r="I96" s="9" t="s">
         <v>881</v>
       </c>
-      <c r="J96" s="2" t="s">
+      <c r="J96" s="9" t="s">
         <v>803</v>
       </c>
-      <c r="K96" s="2" t="s">
+      <c r="K96" s="9" t="s">
         <v>853</v>
       </c>
-      <c r="L96" s="2" t="s">
+      <c r="L96" s="9" t="s">
         <v>928</v>
       </c>
-      <c r="M96" s="2"/>
+      <c r="M96" s="9"/>
       <c r="N96" s="2" t="s">
         <v>995</v>
       </c>
@@ -31361,15 +31582,18 @@
       <c r="G97" t="s">
         <v>900</v>
       </c>
-      <c r="I97" t="s">
+      <c r="H97" s="17"/>
+      <c r="I97" s="17" t="s">
         <v>949</v>
       </c>
-      <c r="J97" t="s">
+      <c r="J97" s="17" t="s">
         <v>729</v>
       </c>
-      <c r="K97" t="s">
+      <c r="K97" s="17" t="s">
         <v>1022</v>
       </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
       <c r="N97" t="s">
         <v>902</v>
       </c>
@@ -31399,22 +31623,22 @@
       <c r="G98" t="s">
         <v>725</v>
       </c>
-      <c r="H98" t="s">
+      <c r="H98" s="17" t="s">
         <v>1030</v>
       </c>
-      <c r="I98" t="s">
+      <c r="I98" s="17" t="s">
         <v>668</v>
       </c>
-      <c r="J98" t="s">
+      <c r="J98" s="17" t="s">
         <v>984</v>
       </c>
-      <c r="K98" t="s">
+      <c r="K98" s="17" t="s">
         <v>1031</v>
       </c>
-      <c r="L98" t="s">
+      <c r="L98" s="17" t="s">
         <v>910</v>
       </c>
-      <c r="M98" t="s">
+      <c r="M98" s="17" t="s">
         <v>841</v>
       </c>
       <c r="N98" t="s">
@@ -31450,6 +31674,7 @@
       <c r="J99" s="17"/>
       <c r="K99" s="17"/>
       <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
       <c r="N99" t="s">
         <v>1205</v>
       </c>
@@ -31486,6 +31711,7 @@
       <c r="L100" s="17" t="s">
         <v>1207</v>
       </c>
+      <c r="M100" s="17"/>
       <c r="N100" t="s">
         <v>951</v>
       </c>
@@ -31520,6 +31746,7 @@
         <v>890</v>
       </c>
       <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
       <c r="N101" t="s">
         <v>1038</v>
       </c>
@@ -31546,21 +31773,22 @@
       <c r="G102" t="s">
         <v>721</v>
       </c>
-      <c r="H102" t="s">
+      <c r="H102" s="17" t="s">
         <v>764</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I102" s="17" t="s">
         <v>1049</v>
       </c>
-      <c r="J102" t="s">
+      <c r="J102" s="17" t="s">
         <v>721</v>
       </c>
-      <c r="K102" t="s">
+      <c r="K102" s="17" t="s">
         <v>688</v>
       </c>
-      <c r="L102" t="s">
+      <c r="L102" s="17" t="s">
         <v>765</v>
       </c>
+      <c r="M102" s="17"/>
       <c r="N102" t="s">
         <v>1050</v>
       </c>
@@ -31598,6 +31826,7 @@
         <v>642</v>
       </c>
       <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
       <c r="N103" t="s">
         <v>1235</v>
       </c>
@@ -31634,6 +31863,7 @@
         <v>792</v>
       </c>
       <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
       <c r="N104" t="s">
         <v>1243</v>
       </c>
@@ -31668,6 +31898,7 @@
         <v>1139</v>
       </c>
       <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
       <c r="N105" t="s">
         <v>912</v>
       </c>
@@ -31694,15 +31925,18 @@
       <c r="G106" t="s">
         <v>2118</v>
       </c>
-      <c r="H106" t="s">
+      <c r="H106" s="17" t="s">
         <v>1066</v>
       </c>
-      <c r="I106" t="s">
+      <c r="I106" s="17" t="s">
         <v>2119</v>
       </c>
-      <c r="J106" t="s">
+      <c r="J106" s="17" t="s">
         <v>692</v>
       </c>
+      <c r="K106" s="17"/>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
@@ -31732,6 +31966,7 @@
       </c>
       <c r="K107" s="17"/>
       <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
       <c r="N107" t="s">
         <v>941</v>
       </c>
@@ -31755,15 +31990,18 @@
       <c r="G108" t="s">
         <v>701</v>
       </c>
-      <c r="H108" t="s">
+      <c r="H108" s="17" t="s">
         <v>1275</v>
       </c>
-      <c r="I108" t="s">
+      <c r="I108" s="17" t="s">
         <v>794</v>
       </c>
-      <c r="J108" t="s">
+      <c r="J108" s="17" t="s">
         <v>629</v>
       </c>
+      <c r="K108" s="17"/>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
       <c r="N108" t="s">
         <v>941</v>
       </c>
@@ -31787,15 +32025,18 @@
       <c r="G109" t="s">
         <v>701</v>
       </c>
-      <c r="H109" t="s">
+      <c r="H109" s="17" t="s">
         <v>1277</v>
       </c>
-      <c r="I109" t="s">
+      <c r="I109" s="17" t="s">
         <v>792</v>
       </c>
-      <c r="J109" t="s">
+      <c r="J109" s="17" t="s">
         <v>890</v>
       </c>
+      <c r="K109" s="17"/>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
       <c r="N109" t="s">
         <v>941</v>
       </c>
@@ -31819,15 +32060,18 @@
       <c r="G110" t="s">
         <v>701</v>
       </c>
-      <c r="H110" t="s">
+      <c r="H110" s="17" t="s">
         <v>1279</v>
       </c>
-      <c r="I110" t="s">
+      <c r="I110" s="17" t="s">
         <v>790</v>
       </c>
-      <c r="J110" t="s">
+      <c r="J110" s="17" t="s">
         <v>661</v>
       </c>
+      <c r="K110" s="17"/>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
       <c r="N110" t="s">
         <v>941</v>
       </c>
@@ -31851,15 +32095,18 @@
       <c r="G111" t="s">
         <v>701</v>
       </c>
-      <c r="H111" t="s">
+      <c r="H111" s="17" t="s">
         <v>944</v>
       </c>
-      <c r="I111" t="s">
+      <c r="I111" s="17" t="s">
         <v>788</v>
       </c>
-      <c r="J111" t="s">
+      <c r="J111" s="17" t="s">
         <v>642</v>
       </c>
+      <c r="K111" s="17"/>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
       <c r="N111" t="s">
         <v>941</v>
       </c>
@@ -31886,15 +32133,18 @@
       <c r="G112" t="s">
         <v>905</v>
       </c>
-      <c r="I112" t="s">
+      <c r="H112" s="17"/>
+      <c r="I112" s="17" t="s">
         <v>691</v>
       </c>
-      <c r="J112" t="s">
+      <c r="J112" s="17" t="s">
         <v>1086</v>
       </c>
-      <c r="K112" t="s">
+      <c r="K112" s="17" t="s">
         <v>752</v>
       </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
       <c r="N112" t="s">
         <v>951</v>
       </c>
@@ -31924,15 +32174,18 @@
       <c r="G113" t="s">
         <v>894</v>
       </c>
-      <c r="I113" t="s">
+      <c r="H113" s="17"/>
+      <c r="I113" s="17" t="s">
         <v>803</v>
       </c>
-      <c r="J113" t="s">
+      <c r="J113" s="17" t="s">
         <v>1089</v>
       </c>
-      <c r="K113" t="s">
+      <c r="K113" s="17" t="s">
         <v>853</v>
       </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
       <c r="N113" t="s">
         <v>951</v>
       </c>
@@ -31962,18 +32215,20 @@
       <c r="G114" t="s">
         <v>888</v>
       </c>
-      <c r="I114" t="s">
+      <c r="H114" s="17"/>
+      <c r="I114" s="17" t="s">
         <v>948</v>
       </c>
-      <c r="J114" t="s">
+      <c r="J114" s="17" t="s">
         <v>844</v>
       </c>
-      <c r="K114" t="s">
+      <c r="K114" s="17" t="s">
         <v>903</v>
       </c>
-      <c r="L114" t="s">
+      <c r="L114" s="17" t="s">
         <v>971</v>
       </c>
+      <c r="M114" s="17"/>
       <c r="N114" t="s">
         <v>951</v>
       </c>
@@ -32000,15 +32255,18 @@
       <c r="G115" t="s">
         <v>2156</v>
       </c>
-      <c r="I115" t="s">
+      <c r="H115" s="17"/>
+      <c r="I115" s="17" t="s">
         <v>674</v>
       </c>
-      <c r="J115" t="s">
+      <c r="J115" s="17" t="s">
         <v>787</v>
       </c>
-      <c r="K115" t="s">
+      <c r="K115" s="17" t="s">
         <v>1282</v>
       </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
       <c r="N115" t="s">
         <v>883</v>
       </c>
@@ -32035,18 +32293,20 @@
       <c r="G116" t="s">
         <v>1099</v>
       </c>
-      <c r="I116" t="s">
+      <c r="H116" s="17"/>
+      <c r="I116" s="17" t="s">
         <v>1100</v>
       </c>
-      <c r="J116" t="s">
+      <c r="J116" s="17" t="s">
         <v>1101</v>
       </c>
-      <c r="K116" t="s">
+      <c r="K116" s="17" t="s">
         <v>1102</v>
       </c>
-      <c r="L116" t="s">
+      <c r="L116" s="17" t="s">
         <v>1103</v>
       </c>
+      <c r="M116" s="17"/>
       <c r="N116" t="s">
         <v>1096</v>
       </c>
@@ -32073,12 +32333,16 @@
       <c r="G117" t="s">
         <v>880</v>
       </c>
-      <c r="I117" t="s">
+      <c r="H117" s="17"/>
+      <c r="I117" s="17" t="s">
         <v>1253</v>
       </c>
-      <c r="J117" t="s">
+      <c r="J117" s="17" t="s">
         <v>1300</v>
       </c>
+      <c r="K117" s="17"/>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
       <c r="N117" t="s">
         <v>883</v>
       </c>
@@ -32102,15 +32366,18 @@
       <c r="G118" t="s">
         <v>2171</v>
       </c>
-      <c r="I118" t="s">
+      <c r="H118" s="17"/>
+      <c r="I118" s="17" t="s">
         <v>1022</v>
       </c>
-      <c r="J118" t="s">
+      <c r="J118" s="17" t="s">
         <v>901</v>
       </c>
-      <c r="K118" t="s">
+      <c r="K118" s="17" t="s">
         <v>984</v>
       </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
       <c r="N118" t="s">
         <v>1096</v>
       </c>
@@ -32134,15 +32401,18 @@
       <c r="G119" t="s">
         <v>2173</v>
       </c>
-      <c r="I119" t="s">
+      <c r="H119" s="17"/>
+      <c r="I119" s="17" t="s">
         <v>1022</v>
       </c>
-      <c r="J119" t="s">
+      <c r="J119" s="17" t="s">
         <v>674</v>
       </c>
-      <c r="K119" t="s">
+      <c r="K119" s="17" t="s">
         <v>803</v>
       </c>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
       <c r="N119" t="s">
         <v>1096</v>
       </c>
@@ -32169,19 +32439,20 @@
       <c r="G120" t="s">
         <v>2173</v>
       </c>
-      <c r="I120" t="s">
+      <c r="H120" s="17"/>
+      <c r="I120" s="17" t="s">
         <v>788</v>
       </c>
-      <c r="J120" t="s">
+      <c r="J120" s="17" t="s">
         <v>803</v>
       </c>
-      <c r="K120" t="s">
+      <c r="K120" s="17" t="s">
         <v>853</v>
       </c>
       <c r="L120" s="17" t="s">
         <v>896</v>
       </c>
-      <c r="M120" t="s">
+      <c r="M120" s="17" t="s">
         <v>2174</v>
       </c>
       <c r="N120" t="s">
@@ -32213,21 +32484,22 @@
       <c r="G121" t="s">
         <v>2171</v>
       </c>
-      <c r="H121" t="s">
+      <c r="H121" s="17" t="s">
         <v>905</v>
       </c>
-      <c r="I121" t="s">
+      <c r="I121" s="17" t="s">
         <v>831</v>
       </c>
-      <c r="J121" t="s">
+      <c r="J121" s="17" t="s">
         <v>750</v>
       </c>
-      <c r="K121" t="s">
+      <c r="K121" s="17" t="s">
         <v>906</v>
       </c>
       <c r="L121" s="17" t="s">
         <v>896</v>
       </c>
+      <c r="M121" s="17"/>
       <c r="N121" t="s">
         <v>902</v>
       </c>
@@ -32257,19 +32529,20 @@
       <c r="G122" t="s">
         <v>2156</v>
       </c>
-      <c r="I122" t="s">
+      <c r="H122" s="17"/>
+      <c r="I122" s="17" t="s">
         <v>2157</v>
       </c>
-      <c r="J122" t="s">
+      <c r="J122" s="17" t="s">
         <v>949</v>
       </c>
-      <c r="K122" t="s">
+      <c r="K122" s="17" t="s">
         <v>1067</v>
       </c>
-      <c r="L122" t="s">
+      <c r="L122" s="17" t="s">
         <v>800</v>
       </c>
-      <c r="M122" t="s">
+      <c r="M122" s="17" t="s">
         <v>2158</v>
       </c>
       <c r="N122" t="s">
@@ -32296,9 +32569,14 @@
       <c r="G123" t="s">
         <v>808</v>
       </c>
-      <c r="I123" t="s">
+      <c r="H123" s="17"/>
+      <c r="I123" s="17" t="s">
         <v>921</v>
       </c>
+      <c r="J123" s="17"/>
+      <c r="K123" s="17"/>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
       <c r="N123" t="s">
         <v>1147</v>
       </c>
@@ -32323,18 +32601,20 @@
       <c r="G124" t="s">
         <v>790</v>
       </c>
-      <c r="H124" t="s">
+      <c r="H124" s="17" t="s">
         <v>794</v>
       </c>
-      <c r="I124" t="s">
+      <c r="I124" s="17" t="s">
         <v>739</v>
       </c>
-      <c r="J124" t="s">
+      <c r="J124" s="17" t="s">
         <v>724</v>
       </c>
-      <c r="K124" t="s">
+      <c r="K124" s="17" t="s">
         <v>992</v>
       </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
       <c r="N124" t="s">
         <v>1149</v>
       </c>
@@ -32361,15 +32641,18 @@
       <c r="G125" t="s">
         <v>903</v>
       </c>
-      <c r="I125" t="s">
+      <c r="H125" s="17"/>
+      <c r="I125" s="17" t="s">
         <v>691</v>
       </c>
-      <c r="J125" t="s">
+      <c r="J125" s="17" t="s">
         <v>925</v>
       </c>
-      <c r="K125" t="s">
+      <c r="K125" s="17" t="s">
         <v>688</v>
       </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
       <c r="N125" t="s">
         <v>926</v>
       </c>
@@ -32399,15 +32682,18 @@
       <c r="G126" t="s">
         <v>928</v>
       </c>
-      <c r="I126" t="s">
+      <c r="H126" s="17"/>
+      <c r="I126" s="17" t="s">
         <v>691</v>
       </c>
-      <c r="J126" t="s">
+      <c r="J126" s="17" t="s">
         <v>925</v>
       </c>
-      <c r="K126" t="s">
+      <c r="K126" s="17" t="s">
         <v>688</v>
       </c>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
       <c r="N126" t="s">
         <v>929</v>
       </c>
@@ -32437,15 +32723,18 @@
       <c r="G127" t="s">
         <v>841</v>
       </c>
-      <c r="I127" t="s">
+      <c r="H127" s="17"/>
+      <c r="I127" s="17" t="s">
         <v>691</v>
       </c>
-      <c r="J127" t="s">
+      <c r="J127" s="17" t="s">
         <v>925</v>
       </c>
-      <c r="K127" t="s">
+      <c r="K127" s="17" t="s">
         <v>688</v>
       </c>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
       <c r="N127" t="s">
         <v>931</v>
       </c>
@@ -32475,15 +32764,18 @@
       <c r="G128" t="s">
         <v>840</v>
       </c>
-      <c r="I128" t="s">
+      <c r="H128" s="17"/>
+      <c r="I128" s="17" t="s">
         <v>691</v>
       </c>
-      <c r="J128" t="s">
+      <c r="J128" s="17" t="s">
         <v>925</v>
       </c>
-      <c r="K128" t="s">
+      <c r="K128" s="17" t="s">
         <v>688</v>
       </c>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
       <c r="N128" t="s">
         <v>933</v>
       </c>
@@ -32513,15 +32805,18 @@
       <c r="G129" t="s">
         <v>845</v>
       </c>
-      <c r="I129" t="s">
+      <c r="H129" s="17"/>
+      <c r="I129" s="17" t="s">
         <v>691</v>
       </c>
-      <c r="J129" t="s">
+      <c r="J129" s="17" t="s">
         <v>925</v>
       </c>
-      <c r="K129" t="s">
+      <c r="K129" s="17" t="s">
         <v>688</v>
       </c>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
       <c r="N129" t="s">
         <v>935</v>
       </c>
@@ -32551,15 +32846,18 @@
       <c r="G130" t="s">
         <v>823</v>
       </c>
-      <c r="I130" t="s">
+      <c r="H130" s="17"/>
+      <c r="I130" s="17" t="s">
         <v>691</v>
       </c>
-      <c r="J130" t="s">
+      <c r="J130" s="17" t="s">
         <v>925</v>
       </c>
-      <c r="K130" t="s">
+      <c r="K130" s="17" t="s">
         <v>688</v>
       </c>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
       <c r="N130" t="s">
         <v>937</v>
       </c>
@@ -32589,18 +32887,20 @@
       <c r="G131" t="s">
         <v>764</v>
       </c>
-      <c r="I131" t="s">
+      <c r="H131" s="17"/>
+      <c r="I131" s="17" t="s">
         <v>947</v>
       </c>
-      <c r="J131" t="s">
+      <c r="J131" s="17" t="s">
         <v>948</v>
       </c>
-      <c r="K131" t="s">
+      <c r="K131" s="17" t="s">
         <v>1239</v>
       </c>
-      <c r="L131" t="s">
+      <c r="L131" s="17" t="s">
         <v>1086</v>
       </c>
+      <c r="M131" s="17"/>
       <c r="N131" t="s">
         <v>951</v>
       </c>
@@ -32630,18 +32930,20 @@
       <c r="G132" t="s">
         <v>764</v>
       </c>
-      <c r="I132" t="s">
+      <c r="H132" s="17"/>
+      <c r="I132" s="17" t="s">
         <v>643</v>
       </c>
-      <c r="J132" t="s">
+      <c r="J132" s="17" t="s">
         <v>691</v>
       </c>
-      <c r="K132" t="s">
+      <c r="K132" s="17" t="s">
         <v>739</v>
       </c>
       <c r="L132" s="17" t="s">
         <v>2194</v>
       </c>
+      <c r="M132" s="17"/>
       <c r="N132" t="s">
         <v>941</v>
       </c>
@@ -32671,18 +32973,20 @@
       <c r="G133" t="s">
         <v>888</v>
       </c>
-      <c r="I133" t="s">
+      <c r="H133" s="17"/>
+      <c r="I133" s="17" t="s">
         <v>910</v>
       </c>
-      <c r="J133" t="s">
+      <c r="J133" s="17" t="s">
         <v>806</v>
       </c>
-      <c r="K133" t="s">
+      <c r="K133" s="17" t="s">
         <v>861</v>
       </c>
-      <c r="L133" t="s">
+      <c r="L133" s="17" t="s">
         <v>642</v>
       </c>
+      <c r="M133" s="17"/>
       <c r="N133" t="s">
         <v>978</v>
       </c>
@@ -32709,21 +33013,22 @@
       <c r="G134" t="s">
         <v>721</v>
       </c>
-      <c r="H134" t="s">
+      <c r="H134" s="17" t="s">
         <v>900</v>
       </c>
-      <c r="I134" t="s">
+      <c r="I134" s="17" t="s">
         <v>643</v>
       </c>
-      <c r="J134" t="s">
+      <c r="J134" s="17" t="s">
         <v>705</v>
       </c>
-      <c r="K134" t="s">
+      <c r="K134" s="17" t="s">
         <v>661</v>
       </c>
-      <c r="L134" t="s">
+      <c r="L134" s="17" t="s">
         <v>845</v>
       </c>
+      <c r="M134" s="17"/>
       <c r="N134" t="s">
         <v>902</v>
       </c>
@@ -32758,6 +33063,7 @@
         <v>736</v>
       </c>
       <c r="L135" s="17"/>
+      <c r="M135" s="17"/>
       <c r="N135" t="s">
         <v>912</v>
       </c>
@@ -32784,21 +33090,22 @@
       <c r="G136" t="s">
         <v>721</v>
       </c>
-      <c r="H136" t="s">
+      <c r="H136" s="17" t="s">
         <v>764</v>
       </c>
-      <c r="I136" t="s">
+      <c r="I136" s="17" t="s">
         <v>706</v>
       </c>
-      <c r="J136" t="s">
+      <c r="J136" s="17" t="s">
         <v>890</v>
       </c>
-      <c r="K136" t="s">
+      <c r="K136" s="17" t="s">
         <v>792</v>
       </c>
-      <c r="L136" t="s">
+      <c r="L136" s="17" t="s">
         <v>903</v>
       </c>
+      <c r="M136" s="17"/>
       <c r="N136" t="s">
         <v>1050</v>
       </c>
@@ -32838,6 +33145,7 @@
       <c r="L137" s="17" t="s">
         <v>841</v>
       </c>
+      <c r="M137" s="17"/>
       <c r="N137" t="s">
         <v>912</v>
       </c>
@@ -32872,6 +33180,7 @@
         <v>661</v>
       </c>
       <c r="L138" s="17"/>
+      <c r="M138" s="17"/>
       <c r="N138" t="s">
         <v>1195</v>
       </c>
@@ -32908,6 +33217,7 @@
       <c r="L139" s="17" t="s">
         <v>840</v>
       </c>
+      <c r="M139" s="17"/>
       <c r="N139" t="s">
         <v>1246</v>
       </c>
@@ -32944,6 +33254,7 @@
       <c r="L140" s="17" t="s">
         <v>1249</v>
       </c>
+      <c r="M140" s="17"/>
       <c r="N140" t="s">
         <v>1250</v>
       </c>
@@ -32978,6 +33289,7 @@
         <v>1267</v>
       </c>
       <c r="L141" s="17"/>
+      <c r="M141" s="17"/>
       <c r="N141" t="s">
         <v>978</v>
       </c>
@@ -33001,15 +33313,18 @@
       <c r="G142" t="s">
         <v>888</v>
       </c>
-      <c r="I142" t="s">
+      <c r="H142" s="17"/>
+      <c r="I142" s="17" t="s">
         <v>844</v>
       </c>
-      <c r="J142" t="s">
+      <c r="J142" s="17" t="s">
         <v>889</v>
       </c>
-      <c r="K142" t="s">
+      <c r="K142" s="17" t="s">
         <v>896</v>
       </c>
+      <c r="L142" s="17"/>
+      <c r="M142" s="17"/>
       <c r="N142" t="s">
         <v>1292</v>
       </c>
@@ -33033,15 +33348,18 @@
       <c r="G143" t="s">
         <v>894</v>
       </c>
-      <c r="I143" t="s">
+      <c r="H143" s="17"/>
+      <c r="I143" s="17" t="s">
         <v>803</v>
       </c>
-      <c r="J143" t="s">
+      <c r="J143" s="17" t="s">
         <v>895</v>
       </c>
-      <c r="K143" t="s">
+      <c r="K143" s="17" t="s">
         <v>896</v>
       </c>
+      <c r="L143" s="17"/>
+      <c r="M143" s="17"/>
       <c r="N143" t="s">
         <v>1292</v>
       </c>
@@ -33065,15 +33383,18 @@
       <c r="G144" t="s">
         <v>905</v>
       </c>
-      <c r="I144" t="s">
+      <c r="H144" s="17"/>
+      <c r="I144" s="17" t="s">
         <v>1086</v>
       </c>
-      <c r="J144" t="s">
+      <c r="J144" s="17" t="s">
         <v>950</v>
       </c>
-      <c r="K144" t="s">
+      <c r="K144" s="17" t="s">
         <v>896</v>
       </c>
+      <c r="L144" s="17"/>
+      <c r="M144" s="17"/>
       <c r="N144" t="s">
         <v>1292</v>
       </c>
@@ -33097,15 +33418,18 @@
       <c r="G145" t="s">
         <v>904</v>
       </c>
-      <c r="I145" t="s">
+      <c r="H145" s="17"/>
+      <c r="I145" s="17" t="s">
         <v>984</v>
       </c>
-      <c r="J145" t="s">
+      <c r="J145" s="17" t="s">
         <v>985</v>
       </c>
-      <c r="K145" t="s">
+      <c r="K145" s="17" t="s">
         <v>896</v>
       </c>
+      <c r="L145" s="17"/>
+      <c r="M145" s="17"/>
       <c r="N145" t="s">
         <v>1292</v>
       </c>
@@ -33132,18 +33456,18 @@
       <c r="G146" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="H146" s="2"/>
-      <c r="I146" s="2" t="s">
+      <c r="H146" s="9"/>
+      <c r="I146" s="9" t="s">
         <v>949</v>
       </c>
-      <c r="J146" s="2" t="s">
+      <c r="J146" s="9" t="s">
         <v>808</v>
       </c>
-      <c r="K146" s="2" t="s">
+      <c r="K146" s="9" t="s">
         <v>717</v>
       </c>
-      <c r="L146" s="2"/>
-      <c r="M146" s="2"/>
+      <c r="L146" s="9"/>
+      <c r="M146" s="9"/>
       <c r="N146" s="2" t="s">
         <v>1038</v>
       </c>
@@ -33174,19 +33498,20 @@
       <c r="G147" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="I147" t="s">
+      <c r="H147" s="17"/>
+      <c r="I147" s="17" t="s">
         <v>2191</v>
       </c>
-      <c r="J147" t="s">
+      <c r="J147" s="17" t="s">
         <v>2192</v>
       </c>
-      <c r="K147" t="s">
+      <c r="K147" s="17" t="s">
         <v>800</v>
       </c>
-      <c r="L147" t="s">
+      <c r="L147" s="17" t="s">
         <v>2193</v>
       </c>
-      <c r="M147" t="s">
+      <c r="M147" s="17" t="s">
         <v>2182</v>
       </c>
     </row>
@@ -33210,18 +33535,20 @@
       <c r="G148" t="s">
         <v>2173</v>
       </c>
-      <c r="H148" t="s">
+      <c r="H148" s="17" t="s">
         <v>2176</v>
       </c>
-      <c r="I148" t="s">
+      <c r="I148" s="17" t="s">
         <v>1120</v>
       </c>
-      <c r="J148" t="s">
+      <c r="J148" s="17" t="s">
         <v>2219</v>
       </c>
-      <c r="K148" t="s">
+      <c r="K148" s="17" t="s">
         <v>1122</v>
       </c>
+      <c r="L148" s="17"/>
+      <c r="M148" s="17"/>
       <c r="N148" t="s">
         <v>1123</v>
       </c>
@@ -33248,18 +33575,20 @@
       <c r="G149" t="s">
         <v>724</v>
       </c>
-      <c r="I149" t="s">
+      <c r="H149" s="17"/>
+      <c r="I149" s="17" t="s">
         <v>915</v>
       </c>
-      <c r="J149" t="s">
+      <c r="J149" s="17" t="s">
         <v>916</v>
       </c>
-      <c r="K149" t="s">
+      <c r="K149" s="17" t="s">
         <v>800</v>
       </c>
-      <c r="L149" t="s">
+      <c r="L149" s="17" t="s">
         <v>917</v>
       </c>
+      <c r="M149" s="17"/>
       <c r="N149" t="s">
         <v>912</v>
       </c>
@@ -33289,19 +33618,20 @@
       <c r="G150" t="s">
         <v>2142</v>
       </c>
-      <c r="I150" t="s">
+      <c r="H150" s="17"/>
+      <c r="I150" s="17" t="s">
         <v>954</v>
       </c>
-      <c r="J150" t="s">
+      <c r="J150" s="17" t="s">
         <v>629</v>
       </c>
-      <c r="K150" t="s">
+      <c r="K150" s="17" t="s">
         <v>955</v>
       </c>
-      <c r="L150" t="s">
+      <c r="L150" s="17" t="s">
         <v>956</v>
       </c>
-      <c r="M150" t="s">
+      <c r="M150" s="17" t="s">
         <v>765</v>
       </c>
       <c r="N150" t="s">
@@ -33330,15 +33660,18 @@
       <c r="G151" t="s">
         <v>764</v>
       </c>
-      <c r="I151" t="s">
+      <c r="H151" s="17"/>
+      <c r="I151" s="17" t="s">
         <v>739</v>
       </c>
-      <c r="J151" t="s">
+      <c r="J151" s="17" t="s">
         <v>1018</v>
       </c>
-      <c r="K151" t="s">
+      <c r="K151" s="17" t="s">
         <v>1171</v>
       </c>
+      <c r="L151" s="17"/>
+      <c r="M151" s="17"/>
       <c r="N151" t="s">
         <v>941</v>
       </c>
@@ -33365,18 +33698,20 @@
       <c r="G152" t="s">
         <v>904</v>
       </c>
-      <c r="I152" t="s">
+      <c r="H152" s="17"/>
+      <c r="I152" s="17" t="s">
         <v>859</v>
       </c>
-      <c r="J152" t="s">
-        <v>984</v>
-      </c>
-      <c r="K152" t="s">
-        <v>985</v>
-      </c>
-      <c r="L152" t="s">
+      <c r="J152" s="17" t="s">
+        <v>2592</v>
+      </c>
+      <c r="K152" s="17" t="s">
+        <v>2593</v>
+      </c>
+      <c r="L152" s="17" t="s">
         <v>841</v>
       </c>
+      <c r="M152" s="17"/>
       <c r="N152" t="s">
         <v>986</v>
       </c>
@@ -33406,18 +33741,20 @@
       <c r="G153" t="s">
         <v>900</v>
       </c>
-      <c r="I153" t="s">
+      <c r="H153" s="17"/>
+      <c r="I153" s="17" t="s">
         <v>1004</v>
       </c>
-      <c r="J153" t="s">
+      <c r="J153" s="17" t="s">
         <v>721</v>
       </c>
-      <c r="K153" t="s">
+      <c r="K153" s="17" t="s">
         <v>1005</v>
       </c>
-      <c r="L153" t="s">
+      <c r="L153" s="17" t="s">
         <v>1006</v>
       </c>
+      <c r="M153" s="17"/>
       <c r="N153" t="s">
         <v>1007</v>
       </c>
@@ -33444,15 +33781,18 @@
       <c r="G154" t="s">
         <v>764</v>
       </c>
-      <c r="I154" t="s">
+      <c r="H154" s="17"/>
+      <c r="I154" s="17" t="s">
         <v>684</v>
       </c>
-      <c r="J154" t="s">
+      <c r="J154" s="17" t="s">
         <v>739</v>
       </c>
-      <c r="K154" t="s">
+      <c r="K154" s="17" t="s">
         <v>921</v>
       </c>
+      <c r="L154" s="17"/>
+      <c r="M154" s="17"/>
       <c r="N154" t="s">
         <v>941</v>
       </c>
@@ -33487,6 +33827,7 @@
         <v>744</v>
       </c>
       <c r="L155" s="17"/>
+      <c r="M155" s="17"/>
       <c r="N155" t="s">
         <v>1211</v>
       </c>
@@ -33525,6 +33866,7 @@
       <c r="L156" s="17" t="s">
         <v>800</v>
       </c>
+      <c r="M156" s="17"/>
       <c r="N156" t="s">
         <v>1217</v>
       </c>
@@ -33551,15 +33893,18 @@
       <c r="G157" t="s">
         <v>921</v>
       </c>
-      <c r="I157" t="s">
+      <c r="H157" s="17"/>
+      <c r="I157" s="17" t="s">
         <v>2187</v>
       </c>
-      <c r="J157" t="s">
+      <c r="J157" s="17" t="s">
         <v>1073</v>
       </c>
-      <c r="K157" t="s">
+      <c r="K157" s="17" t="s">
         <v>1074</v>
       </c>
+      <c r="L157" s="17"/>
+      <c r="M157" s="17"/>
       <c r="N157" t="s">
         <v>1075</v>
       </c>
@@ -33597,6 +33942,7 @@
       </c>
       <c r="K158" s="17"/>
       <c r="L158" s="17"/>
+      <c r="M158" s="17"/>
       <c r="N158" t="s">
         <v>1123</v>
       </c>
@@ -33623,19 +33969,20 @@
       <c r="G159" t="s">
         <v>880</v>
       </c>
-      <c r="I159" t="s">
+      <c r="H159" s="17"/>
+      <c r="I159" s="17" t="s">
         <v>800</v>
       </c>
-      <c r="J159" t="s">
+      <c r="J159" s="17" t="s">
         <v>724</v>
       </c>
-      <c r="K159" t="s">
+      <c r="K159" s="17" t="s">
         <v>794</v>
       </c>
-      <c r="L159" t="s">
-        <v>1106</v>
-      </c>
-      <c r="M159" t="s">
+      <c r="L159" s="17" t="s">
+        <v>2318</v>
+      </c>
+      <c r="M159" s="17" t="s">
         <v>896</v>
       </c>
       <c r="N159" t="s">
@@ -33667,19 +34014,20 @@
       <c r="G160" t="s">
         <v>888</v>
       </c>
-      <c r="I160" t="s">
+      <c r="H160" s="17"/>
+      <c r="I160" s="17" t="s">
         <v>792</v>
       </c>
-      <c r="J160" t="s">
-        <v>889</v>
-      </c>
-      <c r="K160" t="s">
-        <v>862</v>
-      </c>
-      <c r="L160" t="s">
+      <c r="J160" s="17" t="s">
+        <v>1014</v>
+      </c>
+      <c r="K160" s="17" t="s">
+        <v>2594</v>
+      </c>
+      <c r="L160" s="17" t="s">
         <v>696</v>
       </c>
-      <c r="M160" t="s">
+      <c r="M160" s="17" t="s">
         <v>896</v>
       </c>
       <c r="N160" t="s">
@@ -33709,18 +34057,20 @@
       <c r="G161" t="s">
         <v>894</v>
       </c>
-      <c r="I161" t="s">
+      <c r="H161" s="17"/>
+      <c r="I161" s="17" t="s">
         <v>706</v>
       </c>
-      <c r="J161" t="s">
+      <c r="J161" s="17" t="s">
         <v>788</v>
       </c>
-      <c r="K161" t="s">
+      <c r="K161" s="17" t="s">
         <v>1125</v>
       </c>
-      <c r="L161" t="s">
+      <c r="L161" s="17" t="s">
         <v>642</v>
       </c>
+      <c r="M161" s="17"/>
       <c r="N161" t="s">
         <v>902</v>
       </c>
@@ -33744,19 +34094,20 @@
       <c r="G162" t="s">
         <v>880</v>
       </c>
-      <c r="I162" t="s">
+      <c r="H162" s="17"/>
+      <c r="I162" s="17" t="s">
         <v>2222</v>
       </c>
-      <c r="J162" t="s">
+      <c r="J162" s="17" t="s">
         <v>2221</v>
       </c>
-      <c r="K162" t="s">
+      <c r="K162" s="17" t="s">
         <v>2223</v>
       </c>
-      <c r="L162" t="s">
+      <c r="L162" s="17" t="s">
         <v>2224</v>
       </c>
-      <c r="M162" t="s">
+      <c r="M162" s="17" t="s">
         <v>2225</v>
       </c>
       <c r="N162" t="s">
@@ -33869,8 +34220,8 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34558,7 +34909,7 @@
   <dimension ref="A1:AF75"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/INFO D.xlsx
+++ b/INFO D.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin Vuu\Documents\GitHub\Craft-to-Exile-Dissonance-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DFC7E2-0C8D-476E-8A07-151E2A968FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3869860-ADE9-4419-B99B-2BC1B8A8AD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="680" firstSheet="3" activeTab="14" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="680" firstSheet="2" activeTab="13" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4745" uniqueCount="2595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4745" uniqueCount="2594">
   <si>
     <t>Quest</t>
   </si>
@@ -7833,9 +7833,6 @@
   </si>
   <si>
     <t>low_all_dot_dmg_flat</t>
-  </si>
-  <si>
-    <t>ignore_dodge_flat</t>
   </si>
   <si>
     <t>high_all_thunder_damage_flat</t>
@@ -25913,8 +25910,8 @@
   </sheetPr>
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27845,8 +27842,8 @@
   </sheetPr>
   <dimension ref="A1:P164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C142" workbookViewId="0">
-      <selection activeCell="H151" sqref="H151"/>
+    <sheetView topLeftCell="C74" workbookViewId="0">
+      <selection activeCell="M95" sqref="M95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31475,7 +31472,7 @@
         <v>721</v>
       </c>
       <c r="M94" s="17" t="s">
-        <v>2591</v>
+        <v>2579</v>
       </c>
       <c r="N94" t="s">
         <v>1178</v>
@@ -33703,10 +33700,10 @@
         <v>859</v>
       </c>
       <c r="J152" s="17" t="s">
+        <v>2591</v>
+      </c>
+      <c r="K152" s="17" t="s">
         <v>2592</v>
-      </c>
-      <c r="K152" s="17" t="s">
-        <v>2593</v>
       </c>
       <c r="L152" s="17" t="s">
         <v>841</v>
@@ -34022,7 +34019,7 @@
         <v>1014</v>
       </c>
       <c r="K160" s="17" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="L160" s="17" t="s">
         <v>696</v>

--- a/INFO D.xlsx
+++ b/INFO D.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin Vuu\Documents\GitHub\Craft-to-Exile-Dissonance-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3869860-ADE9-4419-B99B-2BC1B8A8AD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58141C83-80C2-47F7-B691-8F814C65DA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="680" firstSheet="2" activeTab="13" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="680" firstSheet="6" activeTab="12" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Affixes (cont.)'!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Affixes (cont.)'!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Runewords!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">Sets!$A$1:$N$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Uniques!$A$1:$P$1</definedName>
   </definedNames>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4745" uniqueCount="2594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4746" uniqueCount="2595">
   <si>
     <t>Quest</t>
   </si>
@@ -7842,6 +7843,9 @@
   </si>
   <si>
     <t>double_less_energy_regen_percent</t>
+  </si>
+  <si>
+    <t>increased_proj_speed_flat</t>
   </si>
 </sst>
 </file>
@@ -24399,8 +24403,8 @@
   </sheetPr>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30:H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25899,6 +25903,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I1" xr:uid="{E564E8BD-338E-42A2-A8A3-692B74DF415E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -25910,8 +25915,8 @@
   </sheetPr>
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27842,8 +27847,8 @@
   </sheetPr>
   <dimension ref="A1:P164"/>
   <sheetViews>
-    <sheetView topLeftCell="C74" workbookViewId="0">
-      <selection activeCell="M95" sqref="M95"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28557,7 +28562,9 @@
       <c r="K18" s="17" t="s">
         <v>714</v>
       </c>
-      <c r="L18" s="17"/>
+      <c r="L18" s="17" t="s">
+        <v>2594</v>
+      </c>
       <c r="M18" s="17"/>
       <c r="N18" t="s">
         <v>1035</v>
@@ -29808,43 +29815,44 @@
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="2" t="s">
         <v>987</v>
       </c>
       <c r="B51" s="17" t="s">
         <v>990</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="9" t="s">
         <v>991</v>
       </c>
-      <c r="D51" s="17">
+      <c r="D51" s="9">
         <v>2</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="2">
         <v>1</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="2">
         <v>10000</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17" t="s">
+      <c r="H51" s="9"/>
+      <c r="I51" s="9" t="s">
         <v>805</v>
       </c>
-      <c r="J51" s="17" t="s">
+      <c r="J51" s="9" t="s">
         <v>705</v>
       </c>
-      <c r="K51" s="17" t="s">
+      <c r="K51" s="9" t="s">
         <v>992</v>
       </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" t="s">
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="P51" t="s">
+      <c r="O51" s="2"/>
+      <c r="P51" s="2" t="s">
         <v>884</v>
       </c>
     </row>
@@ -30127,37 +30135,43 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1220</v>
+        <v>1032</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>2581</v>
       </c>
       <c r="D59" s="17">
         <v>2</v>
       </c>
       <c r="E59" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G59" s="17" t="s">
-        <v>721</v>
-      </c>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17" t="s">
-        <v>1221</v>
-      </c>
-      <c r="J59" s="17" t="s">
-        <v>901</v>
-      </c>
-      <c r="K59" s="17" t="s">
-        <v>629</v>
-      </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
+        <v>2500</v>
+      </c>
+      <c r="G59" t="s">
+        <v>765</v>
+      </c>
+      <c r="I59" t="s">
+        <v>2582</v>
+      </c>
+      <c r="J59" t="s">
+        <v>2588</v>
+      </c>
+      <c r="K59" t="s">
+        <v>661</v>
+      </c>
+      <c r="L59" t="s">
+        <v>1067</v>
+      </c>
       <c r="N59" t="s">
-        <v>1133</v>
+        <v>2583</v>
+      </c>
+      <c r="P59" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
@@ -30165,7 +30179,7 @@
         <v>1218</v>
       </c>
       <c r="C60" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="D60" s="17">
         <v>2</v>
@@ -30181,29 +30195,26 @@
       </c>
       <c r="H60" s="17"/>
       <c r="I60" s="17" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="J60" s="17" t="s">
-        <v>1125</v>
+        <v>901</v>
       </c>
       <c r="K60" s="17" t="s">
-        <v>901</v>
+        <v>629</v>
       </c>
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>
       <c r="N60" t="s">
-        <v>891</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>1045</v>
+        <v>1218</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1222</v>
       </c>
       <c r="D61" s="17">
         <v>2</v>
@@ -30214,34 +30225,34 @@
       <c r="F61" s="17">
         <v>10000</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="17" t="s">
         <v>721</v>
       </c>
       <c r="H61" s="17"/>
       <c r="I61" s="17" t="s">
-        <v>954</v>
+        <v>1223</v>
       </c>
       <c r="J61" s="17" t="s">
-        <v>643</v>
+        <v>1125</v>
       </c>
       <c r="K61" s="17" t="s">
-        <v>1046</v>
+        <v>901</v>
       </c>
       <c r="L61" s="17"/>
       <c r="M61" s="17"/>
       <c r="N61" t="s">
-        <v>912</v>
-      </c>
-      <c r="P61" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1039</v>
       </c>
-      <c r="C62" t="s">
-        <v>1226</v>
+      <c r="B62" s="17" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>1045</v>
       </c>
       <c r="D62" s="17">
         <v>2</v>
@@ -30252,23 +30263,26 @@
       <c r="F62" s="17">
         <v>10000</v>
       </c>
-      <c r="G62" s="17" t="s">
+      <c r="G62" t="s">
         <v>721</v>
       </c>
       <c r="H62" s="17"/>
       <c r="I62" s="17" t="s">
-        <v>642</v>
+        <v>954</v>
       </c>
       <c r="J62" s="17" t="s">
-        <v>788</v>
+        <v>643</v>
       </c>
       <c r="K62" s="17" t="s">
-        <v>1227</v>
+        <v>1046</v>
       </c>
       <c r="L62" s="17"/>
       <c r="M62" s="17"/>
       <c r="N62" t="s">
-        <v>951</v>
+        <v>912</v>
+      </c>
+      <c r="P62" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
@@ -30276,7 +30290,7 @@
         <v>1039</v>
       </c>
       <c r="C63" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="D63" s="17">
         <v>2</v>
@@ -30288,22 +30302,22 @@
         <v>10000</v>
       </c>
       <c r="G63" s="17" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="H63" s="17"/>
       <c r="I63" s="17" t="s">
-        <v>1229</v>
+        <v>642</v>
       </c>
       <c r="J63" s="17" t="s">
-        <v>661</v>
+        <v>788</v>
       </c>
       <c r="K63" s="17" t="s">
-        <v>818</v>
+        <v>1227</v>
       </c>
       <c r="L63" s="17"/>
       <c r="M63" s="17"/>
       <c r="N63" t="s">
-        <v>1195</v>
+        <v>951</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
@@ -30311,7 +30325,7 @@
         <v>1039</v>
       </c>
       <c r="C64" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="D64" s="17">
         <v>2</v>
@@ -30323,22 +30337,22 @@
         <v>10000</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="H64" s="17"/>
       <c r="I64" s="17" t="s">
-        <v>725</v>
+        <v>1229</v>
       </c>
       <c r="J64" s="17" t="s">
-        <v>629</v>
+        <v>661</v>
       </c>
       <c r="K64" s="17" t="s">
-        <v>1166</v>
+        <v>818</v>
       </c>
       <c r="L64" s="17"/>
       <c r="M64" s="17"/>
       <c r="N64" t="s">
-        <v>951</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -30346,7 +30360,7 @@
         <v>1039</v>
       </c>
       <c r="C65" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D65" s="17">
         <v>2</v>
@@ -30362,13 +30376,13 @@
       </c>
       <c r="H65" s="17"/>
       <c r="I65" s="17" t="s">
-        <v>1232</v>
+        <v>725</v>
       </c>
       <c r="J65" s="17" t="s">
-        <v>725</v>
+        <v>629</v>
       </c>
       <c r="K65" s="17" t="s">
-        <v>818</v>
+        <v>1166</v>
       </c>
       <c r="L65" s="17"/>
       <c r="M65" s="17"/>
@@ -30378,10 +30392,10 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>1051</v>
+        <v>1039</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D66" s="24">
         <v>2</v>
@@ -30393,77 +30407,74 @@
         <v>10000</v>
       </c>
       <c r="G66" s="24" t="s">
-        <v>792</v>
+        <v>721</v>
       </c>
       <c r="H66" s="24"/>
       <c r="I66" s="24" t="s">
-        <v>890</v>
+        <v>1232</v>
       </c>
       <c r="J66" s="24" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="K66" s="24" t="s">
-        <v>744</v>
+        <v>818</v>
       </c>
       <c r="L66" s="24"/>
       <c r="M66" s="24"/>
       <c r="N66" s="7" t="s">
-        <v>941</v>
+        <v>951</v>
       </c>
       <c r="O66" s="7"/>
       <c r="P66" s="7"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D67">
+      <c r="A67" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D67" s="9">
         <v>2</v>
       </c>
-      <c r="E67" s="17">
+      <c r="E67" s="9">
         <v>1</v>
       </c>
-      <c r="F67" s="17">
+      <c r="F67" s="9">
         <v>10000</v>
       </c>
-      <c r="G67" t="s">
-        <v>643</v>
-      </c>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17" t="s">
-        <v>881</v>
-      </c>
-      <c r="J67" s="17" t="s">
-        <v>724</v>
-      </c>
-      <c r="K67" s="17" t="s">
-        <v>949</v>
-      </c>
-      <c r="L67" s="17" t="s">
+      <c r="G67" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9" t="s">
         <v>890</v>
       </c>
-      <c r="M67" s="17"/>
-      <c r="N67" t="s">
-        <v>1061</v>
-      </c>
-      <c r="P67" t="s">
-        <v>884</v>
-      </c>
+      <c r="J67" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1054</v>
       </c>
-      <c r="C68" t="s">
-        <v>1240</v>
-      </c>
-      <c r="D68" s="17">
+      <c r="B68" s="17" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D68">
         <v>2</v>
       </c>
       <c r="E68" s="17">
@@ -30472,98 +30483,103 @@
       <c r="F68" s="17">
         <v>10000</v>
       </c>
-      <c r="G68" s="17" t="s">
-        <v>721</v>
-      </c>
-      <c r="H68" s="17" t="s">
-        <v>764</v>
-      </c>
+      <c r="G68" t="s">
+        <v>643</v>
+      </c>
+      <c r="H68" s="17"/>
       <c r="I68" s="17" t="s">
-        <v>747</v>
+        <v>881</v>
       </c>
       <c r="J68" s="17" t="s">
-        <v>1138</v>
+        <v>724</v>
       </c>
       <c r="K68" s="17" t="s">
-        <v>736</v>
-      </c>
-      <c r="L68" s="17"/>
+        <v>949</v>
+      </c>
+      <c r="L68" s="17" t="s">
+        <v>890</v>
+      </c>
       <c r="M68" s="17"/>
       <c r="N68" t="s">
-        <v>902</v>
+        <v>1061</v>
+      </c>
+      <c r="P68" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>1069</v>
+        <v>1054</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1240</v>
       </c>
       <c r="D69" s="17">
         <v>2</v>
       </c>
       <c r="E69" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F69" s="17">
-        <v>50</v>
-      </c>
-      <c r="G69" t="s">
-        <v>739</v>
+        <v>10000</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>721</v>
       </c>
       <c r="H69" s="17" t="s">
-        <v>733</v>
+        <v>764</v>
       </c>
       <c r="I69" s="17" t="s">
-        <v>2194</v>
+        <v>747</v>
       </c>
       <c r="J69" s="17" t="s">
-        <v>808</v>
-      </c>
-      <c r="K69" s="17"/>
+        <v>1138</v>
+      </c>
+      <c r="K69" s="17" t="s">
+        <v>736</v>
+      </c>
       <c r="L69" s="17"/>
       <c r="M69" s="17"/>
-      <c r="P69" t="s">
-        <v>884</v>
+      <c r="N69" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1062</v>
       </c>
-      <c r="C70" t="s">
-        <v>1252</v>
+      <c r="B70" s="17" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>1069</v>
       </c>
       <c r="D70" s="17">
         <v>2</v>
       </c>
       <c r="E70" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F70" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G70" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G70" t="s">
+        <v>739</v>
+      </c>
+      <c r="H70" s="17" t="s">
+        <v>733</v>
+      </c>
+      <c r="I70" s="17" t="s">
+        <v>2194</v>
+      </c>
+      <c r="J70" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17" t="s">
-        <v>1253</v>
-      </c>
-      <c r="J70" s="17" t="s">
-        <v>901</v>
-      </c>
-      <c r="K70" s="17" t="s">
-        <v>744</v>
-      </c>
+      <c r="K70" s="17"/>
       <c r="L70" s="17"/>
       <c r="M70" s="17"/>
-      <c r="N70" t="s">
-        <v>1254</v>
+      <c r="P70" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
@@ -30571,37 +30587,34 @@
         <v>1062</v>
       </c>
       <c r="C71" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="D71" s="17">
         <v>2</v>
       </c>
       <c r="E71" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F71" s="17">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>794</v>
+        <v>808</v>
       </c>
       <c r="H71" s="17"/>
       <c r="I71" s="17" t="s">
-        <v>710</v>
+        <v>1253</v>
       </c>
       <c r="J71" s="17" t="s">
-        <v>948</v>
+        <v>901</v>
       </c>
       <c r="K71" s="17" t="s">
-        <v>1256</v>
+        <v>744</v>
       </c>
       <c r="L71" s="17"/>
       <c r="M71" s="17"/>
       <c r="N71" t="s">
-        <v>951</v>
-      </c>
-      <c r="O71" t="s">
-        <v>884</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
@@ -30609,7 +30622,7 @@
         <v>1062</v>
       </c>
       <c r="C72" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="D72" s="17">
         <v>2</v>
@@ -30621,7 +30634,7 @@
         <v>50</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="H72" s="17"/>
       <c r="I72" s="17" t="s">
@@ -30631,20 +30644,23 @@
         <v>948</v>
       </c>
       <c r="K72" s="17" t="s">
-        <v>1232</v>
+        <v>1256</v>
       </c>
       <c r="L72" s="17"/>
       <c r="M72" s="17"/>
       <c r="N72" t="s">
         <v>951</v>
       </c>
+      <c r="O72" t="s">
+        <v>884</v>
+      </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1062</v>
       </c>
       <c r="C73" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D73" s="17">
         <v>2</v>
@@ -30656,7 +30672,7 @@
         <v>50</v>
       </c>
       <c r="G73" s="17" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="H73" s="17"/>
       <c r="I73" s="17" t="s">
@@ -30666,7 +30682,7 @@
         <v>948</v>
       </c>
       <c r="K73" s="17" t="s">
-        <v>1259</v>
+        <v>1232</v>
       </c>
       <c r="L73" s="17"/>
       <c r="M73" s="17"/>
@@ -30679,7 +30695,7 @@
         <v>1062</v>
       </c>
       <c r="C74" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="D74" s="17">
         <v>2</v>
@@ -30691,7 +30707,7 @@
         <v>50</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="H74" s="17"/>
       <c r="I74" s="17" t="s">
@@ -30701,7 +30717,7 @@
         <v>948</v>
       </c>
       <c r="K74" s="17" t="s">
-        <v>1157</v>
+        <v>1259</v>
       </c>
       <c r="L74" s="17"/>
       <c r="M74" s="17"/>
@@ -30714,77 +30730,77 @@
         <v>1062</v>
       </c>
       <c r="C75" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D75" s="17">
         <v>2</v>
       </c>
       <c r="E75" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F75" s="17">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>764</v>
+        <v>788</v>
       </c>
       <c r="H75" s="17"/>
       <c r="I75" s="17" t="s">
-        <v>636</v>
+        <v>710</v>
       </c>
       <c r="J75" s="17" t="s">
-        <v>765</v>
+        <v>948</v>
       </c>
       <c r="K75" s="17" t="s">
-        <v>948</v>
+        <v>1157</v>
       </c>
       <c r="L75" s="17"/>
       <c r="M75" s="17"/>
       <c r="N75" t="s">
-        <v>1038</v>
+        <v>951</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>272</v>
+        <v>1062</v>
       </c>
       <c r="C76" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D76">
+        <v>1261</v>
+      </c>
+      <c r="D76" s="17">
         <v>2</v>
       </c>
-      <c r="E76">
-        <v>1</v>
-      </c>
-      <c r="F76">
-        <v>10000</v>
-      </c>
-      <c r="G76" t="s">
-        <v>701</v>
+      <c r="E76" s="17">
+        <v>2</v>
+      </c>
+      <c r="F76" s="17">
+        <v>2500</v>
+      </c>
+      <c r="G76" s="17" t="s">
+        <v>764</v>
       </c>
       <c r="H76" s="17"/>
       <c r="I76" s="17" t="s">
-        <v>688</v>
+        <v>636</v>
       </c>
       <c r="J76" s="17" t="s">
-        <v>820</v>
+        <v>765</v>
       </c>
       <c r="K76" s="17" t="s">
-        <v>881</v>
+        <v>948</v>
       </c>
       <c r="L76" s="17"/>
       <c r="M76" s="17"/>
       <c r="N76" t="s">
-        <v>912</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1083</v>
+        <v>272</v>
       </c>
       <c r="C77" t="s">
-        <v>1281</v>
+        <v>1272</v>
       </c>
       <c r="D77">
         <v>2</v>
@@ -30796,24 +30812,22 @@
         <v>10000</v>
       </c>
       <c r="G77" t="s">
-        <v>894</v>
+        <v>701</v>
       </c>
       <c r="H77" s="17"/>
       <c r="I77" s="17" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="J77" s="17" t="s">
-        <v>853</v>
+        <v>820</v>
       </c>
       <c r="K77" s="17" t="s">
-        <v>1282</v>
-      </c>
-      <c r="L77" s="17" t="s">
-        <v>1283</v>
-      </c>
+        <v>881</v>
+      </c>
+      <c r="L77" s="17"/>
       <c r="M77" s="17"/>
       <c r="N77" t="s">
-        <v>1178</v>
+        <v>912</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
@@ -30821,7 +30835,7 @@
         <v>1083</v>
       </c>
       <c r="C78" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="D78">
         <v>2</v>
@@ -30833,24 +30847,24 @@
         <v>10000</v>
       </c>
       <c r="G78" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="H78" s="17"/>
       <c r="I78" s="17" t="s">
-        <v>752</v>
+        <v>697</v>
       </c>
       <c r="J78" s="17" t="s">
+        <v>853</v>
+      </c>
+      <c r="K78" s="17" t="s">
         <v>1282</v>
       </c>
-      <c r="K78" s="17" t="s">
-        <v>736</v>
-      </c>
       <c r="L78" s="17" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="M78" s="17"/>
       <c r="N78" t="s">
-        <v>1235</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
@@ -30858,7 +30872,7 @@
         <v>1083</v>
       </c>
       <c r="C79" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="D79">
         <v>2</v>
@@ -30870,24 +30884,24 @@
         <v>10000</v>
       </c>
       <c r="G79" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H79" s="17"/>
       <c r="I79" s="17" t="s">
-        <v>697</v>
+        <v>752</v>
       </c>
       <c r="J79" s="17" t="s">
-        <v>1256</v>
+        <v>1282</v>
       </c>
       <c r="K79" s="17" t="s">
-        <v>710</v>
+        <v>736</v>
       </c>
       <c r="L79" s="17" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="M79" s="17"/>
       <c r="N79" t="s">
-        <v>1243</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
@@ -30895,7 +30909,7 @@
         <v>1083</v>
       </c>
       <c r="C80" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="D80">
         <v>2</v>
@@ -30907,106 +30921,106 @@
         <v>10000</v>
       </c>
       <c r="G80" t="s">
-        <v>888</v>
+        <v>904</v>
       </c>
       <c r="H80" s="17"/>
       <c r="I80" s="17" t="s">
-        <v>826</v>
+        <v>697</v>
       </c>
       <c r="J80" s="17" t="s">
-        <v>696</v>
+        <v>1256</v>
       </c>
       <c r="K80" s="17" t="s">
-        <v>1232</v>
+        <v>710</v>
       </c>
       <c r="L80" s="17" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" t="s">
-        <v>951</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B81" s="17" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D81" s="17">
+        <v>1083</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D81">
         <v>2</v>
       </c>
-      <c r="E81" s="17">
+      <c r="E81">
         <v>1</v>
       </c>
-      <c r="F81" s="17">
+      <c r="F81">
         <v>10000</v>
       </c>
       <c r="G81" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H81" s="17"/>
       <c r="I81" s="17" t="s">
-        <v>1022</v>
+        <v>826</v>
       </c>
       <c r="J81" s="17" t="s">
-        <v>764</v>
+        <v>696</v>
       </c>
       <c r="K81" s="17" t="s">
-        <v>636</v>
+        <v>1232</v>
       </c>
       <c r="L81" s="17" t="s">
-        <v>710</v>
-      </c>
-      <c r="M81" s="17" t="s">
-        <v>1095</v>
-      </c>
+        <v>1289</v>
+      </c>
+      <c r="M81" s="17"/>
       <c r="N81" t="s">
-        <v>1096</v>
-      </c>
-      <c r="P81" t="s">
-        <v>884</v>
+        <v>951</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1092</v>
       </c>
+      <c r="B82" s="17" t="s">
+        <v>1093</v>
+      </c>
       <c r="C82" s="17" t="s">
-        <v>1302</v>
+        <v>1094</v>
       </c>
       <c r="D82" s="17">
         <v>2</v>
       </c>
       <c r="E82" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F82" s="17">
-        <v>250</v>
+        <v>10000</v>
       </c>
       <c r="G82" t="s">
-        <v>2176</v>
+        <v>887</v>
       </c>
       <c r="H82" s="17"/>
       <c r="I82" s="17" t="s">
         <v>1022</v>
       </c>
       <c r="J82" s="17" t="s">
-        <v>808</v>
+        <v>764</v>
       </c>
       <c r="K82" s="17" t="s">
-        <v>889</v>
+        <v>636</v>
       </c>
       <c r="L82" s="17" t="s">
-        <v>796</v>
-      </c>
-      <c r="M82" s="17"/>
+        <v>710</v>
+      </c>
+      <c r="M82" s="17" t="s">
+        <v>1095</v>
+      </c>
       <c r="N82" t="s">
         <v>1096</v>
+      </c>
+      <c r="P82" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
@@ -31014,7 +31028,7 @@
         <v>1092</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="D83" s="17">
         <v>2</v>
@@ -31026,19 +31040,21 @@
         <v>250</v>
       </c>
       <c r="G83" t="s">
-        <v>2183</v>
+        <v>2176</v>
       </c>
       <c r="H83" s="17"/>
       <c r="I83" s="17" t="s">
         <v>1022</v>
       </c>
       <c r="J83" s="17" t="s">
-        <v>2188</v>
+        <v>808</v>
       </c>
       <c r="K83" s="17" t="s">
-        <v>950</v>
-      </c>
-      <c r="L83" s="17"/>
+        <v>889</v>
+      </c>
+      <c r="L83" s="17" t="s">
+        <v>796</v>
+      </c>
       <c r="M83" s="17"/>
       <c r="N83" t="s">
         <v>1096</v>
@@ -31046,87 +31062,77 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B84" s="17" t="s">
-        <v>1111</v>
+        <v>1092</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>1112</v>
+        <v>1304</v>
       </c>
       <c r="D84" s="17">
         <v>2</v>
       </c>
       <c r="E84" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F84" s="17">
-        <v>10000</v>
+        <v>250</v>
       </c>
       <c r="G84" t="s">
-        <v>764</v>
+        <v>2183</v>
       </c>
       <c r="H84" s="17"/>
       <c r="I84" s="17" t="s">
-        <v>691</v>
+        <v>1022</v>
       </c>
       <c r="J84" s="17" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
       <c r="K84" s="17" t="s">
-        <v>732</v>
-      </c>
-      <c r="L84" s="17" t="s">
-        <v>733</v>
-      </c>
+        <v>950</v>
+      </c>
+      <c r="L84" s="17"/>
       <c r="M84" s="17"/>
       <c r="N84" t="s">
-        <v>1038</v>
-      </c>
-      <c r="P84" t="s">
-        <v>884</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>877</v>
+        <v>1110</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>885</v>
+        <v>1111</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>886</v>
+        <v>1112</v>
       </c>
       <c r="D85" s="17">
-        <v>3</v>
-      </c>
-      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="E85" s="17">
         <v>1</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="17">
         <v>10000</v>
       </c>
       <c r="G85" t="s">
-        <v>887</v>
-      </c>
-      <c r="H85" s="17" t="s">
-        <v>888</v>
-      </c>
+        <v>764</v>
+      </c>
+      <c r="H85" s="17"/>
       <c r="I85" s="17" t="s">
-        <v>844</v>
+        <v>691</v>
       </c>
       <c r="J85" s="17" t="s">
-        <v>890</v>
+        <v>2194</v>
       </c>
       <c r="K85" s="17" t="s">
-        <v>628</v>
+        <v>732</v>
       </c>
       <c r="L85" s="17" t="s">
-        <v>2175</v>
+        <v>733</v>
       </c>
       <c r="M85" s="17"/>
       <c r="N85" t="s">
-        <v>891</v>
+        <v>1038</v>
       </c>
       <c r="P85" t="s">
         <v>884</v>
@@ -31136,9 +31142,11 @@
       <c r="A86" t="s">
         <v>877</v>
       </c>
-      <c r="B86" s="17"/>
+      <c r="B86" s="17" t="s">
+        <v>885</v>
+      </c>
       <c r="C86" s="17" t="s">
-        <v>1116</v>
+        <v>886</v>
       </c>
       <c r="D86" s="17">
         <v>3</v>
@@ -31150,33 +31158,38 @@
         <v>10000</v>
       </c>
       <c r="G86" t="s">
-        <v>2171</v>
-      </c>
-      <c r="H86" s="17"/>
+        <v>887</v>
+      </c>
+      <c r="H86" s="17" t="s">
+        <v>888</v>
+      </c>
       <c r="I86" s="17" t="s">
-        <v>906</v>
+        <v>844</v>
       </c>
       <c r="J86" s="17" t="s">
-        <v>710</v>
+        <v>890</v>
       </c>
       <c r="K86" s="17" t="s">
-        <v>1117</v>
+        <v>628</v>
       </c>
       <c r="L86" s="17" t="s">
-        <v>1118</v>
+        <v>2175</v>
       </c>
       <c r="M86" s="17"/>
       <c r="N86" t="s">
         <v>891</v>
       </c>
+      <c r="P86" t="s">
+        <v>884</v>
+      </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>897</v>
+        <v>877</v>
       </c>
       <c r="B87" s="17"/>
       <c r="C87" s="17" t="s">
-        <v>1127</v>
+        <v>1116</v>
       </c>
       <c r="D87" s="17">
         <v>3</v>
@@ -31192,65 +31205,71 @@
       </c>
       <c r="H87" s="17"/>
       <c r="I87" s="17" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="J87" s="17" t="s">
-        <v>831</v>
+        <v>710</v>
       </c>
       <c r="K87" s="17" t="s">
-        <v>906</v>
+        <v>1117</v>
       </c>
       <c r="L87" s="17" t="s">
-        <v>2120</v>
+        <v>1118</v>
       </c>
       <c r="M87" s="17"/>
       <c r="N87" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>907</v>
-      </c>
-      <c r="B88" s="17"/>
+        <v>877</v>
+      </c>
       <c r="C88" s="17" t="s">
-        <v>1137</v>
+        <v>2220</v>
       </c>
       <c r="D88" s="17">
         <v>3</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="17">
         <v>1</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="17">
         <v>10000</v>
       </c>
       <c r="G88" t="s">
-        <v>788</v>
+        <v>880</v>
       </c>
       <c r="H88" s="17"/>
       <c r="I88" s="17" t="s">
-        <v>803</v>
+        <v>2222</v>
       </c>
       <c r="J88" s="17" t="s">
-        <v>1138</v>
+        <v>2221</v>
       </c>
       <c r="K88" s="17" t="s">
-        <v>1139</v>
-      </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
+        <v>2223</v>
+      </c>
+      <c r="L88" s="17" t="s">
+        <v>2224</v>
+      </c>
+      <c r="M88" s="17" t="s">
+        <v>2225</v>
+      </c>
       <c r="N88" t="s">
-        <v>1140</v>
+        <v>2226</v>
+      </c>
+      <c r="O88" t="s">
+        <v>2227</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="B89" s="17"/>
       <c r="C89" s="17" t="s">
-        <v>1141</v>
+        <v>1127</v>
       </c>
       <c r="D89" s="17">
         <v>3</v>
@@ -31262,310 +31281,302 @@
         <v>10000</v>
       </c>
       <c r="G89" t="s">
-        <v>1142</v>
-      </c>
-      <c r="H89" s="17" t="s">
-        <v>1143</v>
-      </c>
+        <v>2171</v>
+      </c>
+      <c r="H89" s="17"/>
       <c r="I89" s="17" t="s">
-        <v>861</v>
+        <v>911</v>
       </c>
       <c r="J89" s="17" t="s">
-        <v>853</v>
+        <v>831</v>
       </c>
       <c r="K89" s="17" t="s">
-        <v>2181</v>
-      </c>
-      <c r="L89" s="17"/>
+        <v>906</v>
+      </c>
+      <c r="L89" s="17" t="s">
+        <v>2120</v>
+      </c>
       <c r="M89" s="17"/>
       <c r="N89" t="s">
-        <v>1144</v>
-      </c>
-      <c r="O89" t="s">
-        <v>1145</v>
+        <v>902</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>918</v>
-      </c>
-      <c r="B90" s="17" t="s">
-        <v>919</v>
-      </c>
+        <v>907</v>
+      </c>
+      <c r="B90" s="17"/>
       <c r="C90" s="17" t="s">
-        <v>920</v>
-      </c>
-      <c r="D90">
+        <v>1137</v>
+      </c>
+      <c r="D90" s="17">
         <v>3</v>
       </c>
-      <c r="E90" s="17">
-        <v>3</v>
-      </c>
-      <c r="F90" s="17">
-        <v>250</v>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>10000</v>
       </c>
       <c r="G90" t="s">
-        <v>656</v>
+        <v>788</v>
       </c>
       <c r="H90" s="17"/>
       <c r="I90" s="17" t="s">
-        <v>656</v>
+        <v>803</v>
       </c>
       <c r="J90" s="17" t="s">
-        <v>2182</v>
-      </c>
-      <c r="K90" s="17"/>
+        <v>1138</v>
+      </c>
+      <c r="K90" s="17" t="s">
+        <v>1139</v>
+      </c>
       <c r="L90" s="17"/>
       <c r="M90" s="17"/>
       <c r="N90" t="s">
-        <v>922</v>
-      </c>
-      <c r="P90" t="s">
-        <v>884</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>938</v>
-      </c>
-      <c r="C91" t="s">
-        <v>1169</v>
+        <v>907</v>
+      </c>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17" t="s">
+        <v>1141</v>
       </c>
       <c r="D91" s="17">
         <v>3</v>
       </c>
-      <c r="E91" s="17">
+      <c r="E91">
         <v>1</v>
       </c>
       <c r="F91">
         <v>10000</v>
       </c>
       <c r="G91" t="s">
-        <v>764</v>
-      </c>
-      <c r="H91" s="17"/>
+        <v>1142</v>
+      </c>
+      <c r="H91" s="17" t="s">
+        <v>1143</v>
+      </c>
       <c r="I91" s="17" t="s">
-        <v>1170</v>
+        <v>861</v>
       </c>
       <c r="J91" s="17" t="s">
-        <v>732</v>
+        <v>853</v>
       </c>
       <c r="K91" s="17" t="s">
-        <v>744</v>
-      </c>
-      <c r="L91" s="17" t="s">
-        <v>1171</v>
-      </c>
+        <v>2181</v>
+      </c>
+      <c r="L91" s="17"/>
       <c r="M91" s="17"/>
       <c r="N91" t="s">
-        <v>941</v>
+        <v>1144</v>
+      </c>
+      <c r="O91" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>958</v>
-      </c>
-      <c r="C92" t="s">
-        <v>1172</v>
+        <v>918</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>919</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>920</v>
       </c>
       <c r="D92">
         <v>3</v>
       </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
-      <c r="F92">
-        <v>10000</v>
+      <c r="E92" s="17">
+        <v>3</v>
+      </c>
+      <c r="F92" s="17">
+        <v>250</v>
       </c>
       <c r="G92" t="s">
-        <v>764</v>
+        <v>656</v>
       </c>
       <c r="H92" s="17"/>
       <c r="I92" s="17" t="s">
-        <v>836</v>
+        <v>656</v>
       </c>
       <c r="J92" s="17" t="s">
-        <v>643</v>
-      </c>
-      <c r="K92" s="17" t="s">
-        <v>710</v>
-      </c>
+        <v>2182</v>
+      </c>
+      <c r="K92" s="17"/>
       <c r="L92" s="17"/>
       <c r="M92" s="17"/>
       <c r="N92" t="s">
-        <v>941</v>
+        <v>922</v>
+      </c>
+      <c r="P92" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>965</v>
-      </c>
-      <c r="B93" s="17" t="s">
-        <v>968</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>969</v>
+        <v>938</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1169</v>
       </c>
       <c r="D93" s="17">
         <v>3</v>
       </c>
-      <c r="E93">
-        <v>2</v>
+      <c r="E93" s="17">
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="G93" t="s">
         <v>764</v>
       </c>
       <c r="H93" s="17"/>
       <c r="I93" s="17" t="s">
-        <v>643</v>
+        <v>1170</v>
       </c>
       <c r="J93" s="17" t="s">
-        <v>970</v>
+        <v>732</v>
       </c>
       <c r="K93" s="17" t="s">
-        <v>2179</v>
+        <v>744</v>
       </c>
       <c r="L93" s="17" t="s">
-        <v>971</v>
+        <v>1171</v>
       </c>
       <c r="M93" s="17"/>
       <c r="N93" t="s">
-        <v>972</v>
-      </c>
-      <c r="P93" t="s">
-        <v>884</v>
+        <v>941</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>975</v>
+        <v>958</v>
       </c>
       <c r="C94" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="D94">
         <v>3</v>
       </c>
       <c r="E94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>250</v>
+        <v>10000</v>
       </c>
       <c r="G94" t="s">
-        <v>2183</v>
+        <v>764</v>
       </c>
       <c r="H94" s="17"/>
       <c r="I94" s="17" t="s">
-        <v>826</v>
+        <v>836</v>
       </c>
       <c r="J94" s="17" t="s">
-        <v>1253</v>
+        <v>643</v>
       </c>
       <c r="K94" s="17" t="s">
-        <v>1238</v>
-      </c>
-      <c r="L94" s="17" t="s">
-        <v>721</v>
-      </c>
-      <c r="M94" s="17" t="s">
-        <v>2579</v>
-      </c>
+        <v>710</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
       <c r="N94" t="s">
-        <v>1178</v>
+        <v>941</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>975</v>
-      </c>
-      <c r="C95" t="s">
-        <v>1184</v>
+        <v>965</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>968</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>969</v>
       </c>
       <c r="D95" s="17">
         <v>3</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F95">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="G95" t="s">
-        <v>904</v>
+        <v>764</v>
       </c>
       <c r="H95" s="17"/>
       <c r="I95" s="17" t="s">
-        <v>831</v>
+        <v>643</v>
       </c>
       <c r="J95" s="17" t="s">
-        <v>697</v>
+        <v>970</v>
       </c>
       <c r="K95" s="17" t="s">
-        <v>718</v>
-      </c>
-      <c r="L95" s="17"/>
+        <v>2179</v>
+      </c>
+      <c r="L95" s="17" t="s">
+        <v>971</v>
+      </c>
       <c r="M95" s="17"/>
       <c r="N95" t="s">
-        <v>1185</v>
+        <v>972</v>
+      </c>
+      <c r="P95" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>987</v>
-      </c>
-      <c r="B96" s="17" t="s">
-        <v>993</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>994</v>
-      </c>
-      <c r="D96" s="9">
+      <c r="A96" t="s">
+        <v>975</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D96">
         <v>3</v>
       </c>
-      <c r="E96" s="2">
-        <v>1</v>
-      </c>
-      <c r="F96" s="2">
-        <v>10000</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="H96" s="9"/>
-      <c r="I96" s="9" t="s">
-        <v>881</v>
-      </c>
-      <c r="J96" s="9" t="s">
-        <v>803</v>
-      </c>
-      <c r="K96" s="9" t="s">
-        <v>853</v>
-      </c>
-      <c r="L96" s="9" t="s">
-        <v>928</v>
-      </c>
-      <c r="M96" s="9"/>
-      <c r="N96" s="2" t="s">
-        <v>995</v>
-      </c>
-      <c r="O96" s="2"/>
-      <c r="P96" s="2" t="s">
-        <v>884</v>
+      <c r="E96">
+        <v>3</v>
+      </c>
+      <c r="F96">
+        <v>250</v>
+      </c>
+      <c r="G96" t="s">
+        <v>2183</v>
+      </c>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17" t="s">
+        <v>826</v>
+      </c>
+      <c r="J96" s="17" t="s">
+        <v>1253</v>
+      </c>
+      <c r="K96" s="17" t="s">
+        <v>1238</v>
+      </c>
+      <c r="L96" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="M96" s="17" t="s">
+        <v>2579</v>
+      </c>
+      <c r="N96" t="s">
+        <v>1178</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B97" s="17" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>1021</v>
+        <v>975</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1184</v>
       </c>
       <c r="D97" s="17">
         <v>3</v>
@@ -31577,148 +31588,162 @@
         <v>10000</v>
       </c>
       <c r="G97" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="H97" s="17"/>
       <c r="I97" s="17" t="s">
-        <v>949</v>
+        <v>831</v>
       </c>
       <c r="J97" s="17" t="s">
-        <v>729</v>
+        <v>697</v>
       </c>
       <c r="K97" s="17" t="s">
-        <v>1022</v>
+        <v>718</v>
       </c>
       <c r="L97" s="17"/>
       <c r="M97" s="17"/>
       <c r="N97" t="s">
-        <v>902</v>
-      </c>
-      <c r="P97" t="s">
-        <v>884</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>1023</v>
+      <c r="A98" s="2" t="s">
+        <v>987</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C98" s="17" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D98">
+        <v>993</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>994</v>
+      </c>
+      <c r="D98" s="9">
         <v>3</v>
       </c>
-      <c r="E98" s="17">
-        <v>2</v>
-      </c>
-      <c r="F98" s="17">
-        <v>2500</v>
-      </c>
-      <c r="G98" t="s">
-        <v>725</v>
-      </c>
-      <c r="H98" s="17" t="s">
-        <v>1030</v>
-      </c>
-      <c r="I98" s="17" t="s">
-        <v>668</v>
-      </c>
-      <c r="J98" s="17" t="s">
-        <v>984</v>
-      </c>
-      <c r="K98" s="17" t="s">
-        <v>1031</v>
-      </c>
-      <c r="L98" s="17" t="s">
-        <v>910</v>
-      </c>
-      <c r="M98" s="17" t="s">
-        <v>841</v>
-      </c>
-      <c r="N98" t="s">
+      <c r="E98" s="2">
+        <v>1</v>
+      </c>
+      <c r="F98" s="2">
+        <v>10000</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9" t="s">
+        <v>881</v>
+      </c>
+      <c r="J98" s="9" t="s">
+        <v>803</v>
+      </c>
+      <c r="K98" s="9" t="s">
+        <v>853</v>
+      </c>
+      <c r="L98" s="9" t="s">
+        <v>928</v>
+      </c>
+      <c r="M98" s="9"/>
+      <c r="N98" s="2" t="s">
         <v>995</v>
       </c>
-      <c r="P98" t="s">
+      <c r="O98" s="2"/>
+      <c r="P98" s="2" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C99" t="s">
-        <v>1204</v>
+        <v>1008</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>1021</v>
       </c>
       <c r="D99" s="17">
         <v>3</v>
       </c>
-      <c r="E99" s="17">
+      <c r="E99">
         <v>1</v>
       </c>
-      <c r="F99" s="17">
+      <c r="F99">
         <v>10000</v>
       </c>
-      <c r="G99" s="17" t="s">
-        <v>808</v>
+      <c r="G99" t="s">
+        <v>900</v>
       </c>
       <c r="H99" s="17"/>
       <c r="I99" s="17" t="s">
-        <v>925</v>
-      </c>
-      <c r="J99" s="17"/>
-      <c r="K99" s="17"/>
+        <v>949</v>
+      </c>
+      <c r="J99" s="17" t="s">
+        <v>729</v>
+      </c>
+      <c r="K99" s="17" t="s">
+        <v>1022</v>
+      </c>
       <c r="L99" s="17"/>
       <c r="M99" s="17"/>
       <c r="N99" t="s">
-        <v>1205</v>
+        <v>902</v>
+      </c>
+      <c r="P99" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C100" t="s">
-        <v>1206</v>
-      </c>
-      <c r="D100" s="17">
+        <v>1023</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D100">
         <v>3</v>
       </c>
       <c r="E100" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F100" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G100" s="17" t="s">
-        <v>788</v>
-      </c>
-      <c r="H100" s="17"/>
+        <v>2500</v>
+      </c>
+      <c r="G100" t="s">
+        <v>725</v>
+      </c>
+      <c r="H100" s="17" t="s">
+        <v>1030</v>
+      </c>
       <c r="I100" s="17" t="s">
-        <v>1125</v>
+        <v>668</v>
       </c>
       <c r="J100" s="17" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="K100" s="17" t="s">
-        <v>890</v>
+        <v>1031</v>
       </c>
       <c r="L100" s="17" t="s">
-        <v>1207</v>
-      </c>
-      <c r="M100" s="17"/>
+        <v>910</v>
+      </c>
+      <c r="M100" s="17" t="s">
+        <v>841</v>
+      </c>
       <c r="N100" t="s">
-        <v>951</v>
+        <v>995</v>
+      </c>
+      <c r="P100" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1218</v>
+        <v>1032</v>
       </c>
       <c r="C101" t="s">
-        <v>1224</v>
+        <v>1204</v>
       </c>
       <c r="D101" s="17">
         <v>3</v>
@@ -31730,75 +31755,63 @@
         <v>10000</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>721</v>
+        <v>808</v>
       </c>
       <c r="H101" s="17"/>
       <c r="I101" s="17" t="s">
-        <v>1225</v>
-      </c>
-      <c r="J101" s="17" t="s">
-        <v>844</v>
-      </c>
-      <c r="K101" s="17" t="s">
-        <v>890</v>
-      </c>
+        <v>925</v>
+      </c>
+      <c r="J101" s="17"/>
+      <c r="K101" s="17"/>
       <c r="L101" s="17"/>
       <c r="M101" s="17"/>
       <c r="N101" t="s">
-        <v>1038</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B102" s="17" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C102" s="17" t="s">
-        <v>1048</v>
+        <v>1032</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1206</v>
       </c>
       <c r="D102" s="17">
         <v>3</v>
       </c>
       <c r="E102" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F102" s="17">
-        <v>250</v>
-      </c>
-      <c r="G102" t="s">
-        <v>721</v>
-      </c>
-      <c r="H102" s="17" t="s">
-        <v>764</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="G102" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="H102" s="17"/>
       <c r="I102" s="17" t="s">
-        <v>1049</v>
+        <v>1125</v>
       </c>
       <c r="J102" s="17" t="s">
-        <v>721</v>
+        <v>992</v>
       </c>
       <c r="K102" s="17" t="s">
-        <v>688</v>
+        <v>890</v>
       </c>
       <c r="L102" s="17" t="s">
-        <v>765</v>
+        <v>1207</v>
       </c>
       <c r="M102" s="17"/>
       <c r="N102" t="s">
-        <v>1050</v>
-      </c>
-      <c r="P102" t="s">
-        <v>884</v>
+        <v>951</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1051</v>
+        <v>1218</v>
       </c>
       <c r="C103" t="s">
-        <v>1234</v>
+        <v>1224</v>
       </c>
       <c r="D103" s="17">
         <v>3</v>
@@ -31810,67 +31823,75 @@
         <v>10000</v>
       </c>
       <c r="G103" s="17" t="s">
-        <v>788</v>
+        <v>721</v>
       </c>
       <c r="H103" s="17"/>
       <c r="I103" s="17" t="s">
-        <v>725</v>
+        <v>1225</v>
       </c>
       <c r="J103" s="17" t="s">
-        <v>728</v>
+        <v>844</v>
       </c>
       <c r="K103" s="17" t="s">
-        <v>642</v>
+        <v>890</v>
       </c>
       <c r="L103" s="17"/>
       <c r="M103" s="17"/>
       <c r="N103" t="s">
-        <v>1235</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C104" t="s">
-        <v>1241</v>
+        <v>1039</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>1048</v>
       </c>
       <c r="D104" s="17">
         <v>3</v>
       </c>
       <c r="E104" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F104" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G104" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="G104" t="s">
         <v>721</v>
       </c>
       <c r="H104" s="17" t="s">
         <v>764</v>
       </c>
       <c r="I104" s="17" t="s">
-        <v>1242</v>
+        <v>1049</v>
       </c>
       <c r="J104" s="17" t="s">
-        <v>1017</v>
+        <v>721</v>
       </c>
       <c r="K104" s="17" t="s">
-        <v>792</v>
-      </c>
-      <c r="L104" s="17"/>
+        <v>688</v>
+      </c>
+      <c r="L104" s="17" t="s">
+        <v>765</v>
+      </c>
       <c r="M104" s="17"/>
       <c r="N104" t="s">
-        <v>1243</v>
+        <v>1050</v>
+      </c>
+      <c r="P104" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1062</v>
+        <v>1051</v>
       </c>
       <c r="C105" t="s">
-        <v>1262</v>
+        <v>1234</v>
       </c>
       <c r="D105" s="17">
         <v>3</v>
@@ -31882,65 +31903,67 @@
         <v>10000</v>
       </c>
       <c r="G105" s="17" t="s">
-        <v>808</v>
+        <v>788</v>
       </c>
       <c r="H105" s="17"/>
       <c r="I105" s="17" t="s">
+        <v>725</v>
+      </c>
+      <c r="J105" s="17" t="s">
         <v>728</v>
       </c>
-      <c r="J105" s="17" t="s">
-        <v>1263</v>
-      </c>
       <c r="K105" s="17" t="s">
-        <v>1139</v>
+        <v>642</v>
       </c>
       <c r="L105" s="17"/>
       <c r="M105" s="17"/>
       <c r="N105" t="s">
-        <v>912</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B106" t="s">
-        <v>2116</v>
-      </c>
-      <c r="C106" s="17" t="s">
-        <v>2117</v>
+        <v>1054</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1241</v>
       </c>
       <c r="D106" s="17">
         <v>3</v>
       </c>
       <c r="E106" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F106" s="17">
-        <v>50</v>
-      </c>
-      <c r="G106" t="s">
-        <v>2118</v>
+        <v>10000</v>
+      </c>
+      <c r="G106" s="17" t="s">
+        <v>721</v>
       </c>
       <c r="H106" s="17" t="s">
-        <v>1066</v>
+        <v>764</v>
       </c>
       <c r="I106" s="17" t="s">
-        <v>2119</v>
+        <v>1242</v>
       </c>
       <c r="J106" s="17" t="s">
-        <v>692</v>
-      </c>
-      <c r="K106" s="17"/>
+        <v>1017</v>
+      </c>
+      <c r="K106" s="17" t="s">
+        <v>792</v>
+      </c>
       <c r="L106" s="17"/>
       <c r="M106" s="17"/>
+      <c r="N106" t="s">
+        <v>1243</v>
+      </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>272</v>
+        <v>1062</v>
       </c>
       <c r="C107" t="s">
-        <v>1273</v>
+        <v>1262</v>
       </c>
       <c r="D107" s="17">
         <v>3</v>
@@ -31952,84 +31975,84 @@
         <v>10000</v>
       </c>
       <c r="G107" s="17" t="s">
-        <v>701</v>
+        <v>808</v>
       </c>
       <c r="H107" s="17"/>
       <c r="I107" s="17" t="s">
-        <v>836</v>
+        <v>728</v>
       </c>
       <c r="J107" s="17" t="s">
-        <v>764</v>
-      </c>
-      <c r="K107" s="17"/>
+        <v>1263</v>
+      </c>
+      <c r="K107" s="17" t="s">
+        <v>1139</v>
+      </c>
       <c r="L107" s="17"/>
       <c r="M107" s="17"/>
       <c r="N107" t="s">
-        <v>941</v>
+        <v>912</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>272</v>
-      </c>
-      <c r="C108" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D108">
+        <v>1062</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D108" s="17">
         <v>3</v>
       </c>
-      <c r="E108">
-        <v>3</v>
-      </c>
-      <c r="F108">
-        <v>250</v>
+      <c r="E108" s="17">
+        <v>4</v>
+      </c>
+      <c r="F108" s="17">
+        <v>50</v>
       </c>
       <c r="G108" t="s">
-        <v>701</v>
+        <v>2118</v>
       </c>
       <c r="H108" s="17" t="s">
-        <v>1275</v>
+        <v>1066</v>
       </c>
       <c r="I108" s="17" t="s">
-        <v>794</v>
+        <v>2119</v>
       </c>
       <c r="J108" s="17" t="s">
-        <v>629</v>
+        <v>692</v>
       </c>
       <c r="K108" s="17"/>
       <c r="L108" s="17"/>
       <c r="M108" s="17"/>
-      <c r="N108" t="s">
-        <v>941</v>
-      </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>272</v>
       </c>
       <c r="C109" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D109">
+        <v>1273</v>
+      </c>
+      <c r="D109" s="17">
         <v>3</v>
       </c>
-      <c r="E109">
-        <v>3</v>
-      </c>
-      <c r="F109">
-        <v>250</v>
-      </c>
-      <c r="G109" t="s">
+      <c r="E109" s="17">
+        <v>1</v>
+      </c>
+      <c r="F109" s="17">
+        <v>10000</v>
+      </c>
+      <c r="G109" s="17" t="s">
         <v>701</v>
       </c>
-      <c r="H109" s="17" t="s">
-        <v>1277</v>
-      </c>
+      <c r="H109" s="17"/>
       <c r="I109" s="17" t="s">
-        <v>792</v>
+        <v>836</v>
       </c>
       <c r="J109" s="17" t="s">
-        <v>890</v>
+        <v>764</v>
       </c>
       <c r="K109" s="17"/>
       <c r="L109" s="17"/>
@@ -32043,7 +32066,7 @@
         <v>272</v>
       </c>
       <c r="C110" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="D110">
         <v>3</v>
@@ -32058,13 +32081,13 @@
         <v>701</v>
       </c>
       <c r="H110" s="17" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="I110" s="17" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="J110" s="17" t="s">
-        <v>661</v>
+        <v>629</v>
       </c>
       <c r="K110" s="17"/>
       <c r="L110" s="17"/>
@@ -32078,7 +32101,7 @@
         <v>272</v>
       </c>
       <c r="C111" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="D111">
         <v>3</v>
@@ -32093,13 +32116,13 @@
         <v>701</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>944</v>
+        <v>1277</v>
       </c>
       <c r="I111" s="17" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="J111" s="17" t="s">
-        <v>642</v>
+        <v>890</v>
       </c>
       <c r="K111" s="17"/>
       <c r="L111" s="17"/>
@@ -32110,84 +32133,72 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B112" s="17" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C112" s="17" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D112" s="17">
+        <v>272</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D112">
         <v>3</v>
       </c>
-      <c r="E112" s="17">
-        <v>1</v>
-      </c>
-      <c r="F112" s="17">
-        <v>10000</v>
+      <c r="E112">
+        <v>3</v>
+      </c>
+      <c r="F112">
+        <v>250</v>
       </c>
       <c r="G112" t="s">
-        <v>905</v>
-      </c>
-      <c r="H112" s="17"/>
+        <v>701</v>
+      </c>
+      <c r="H112" s="17" t="s">
+        <v>1279</v>
+      </c>
       <c r="I112" s="17" t="s">
-        <v>691</v>
+        <v>790</v>
       </c>
       <c r="J112" s="17" t="s">
-        <v>1086</v>
-      </c>
-      <c r="K112" s="17" t="s">
-        <v>752</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="K112" s="17"/>
       <c r="L112" s="17"/>
       <c r="M112" s="17"/>
       <c r="N112" t="s">
-        <v>951</v>
-      </c>
-      <c r="P112" t="s">
-        <v>884</v>
+        <v>941</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B113" s="17" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C113" s="17" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D113" s="17">
+        <v>272</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D113">
         <v>3</v>
       </c>
-      <c r="E113" s="17">
-        <v>1</v>
-      </c>
-      <c r="F113" s="17">
-        <v>10000</v>
+      <c r="E113">
+        <v>3</v>
+      </c>
+      <c r="F113">
+        <v>250</v>
       </c>
       <c r="G113" t="s">
-        <v>894</v>
-      </c>
-      <c r="H113" s="17"/>
+        <v>701</v>
+      </c>
+      <c r="H113" s="17" t="s">
+        <v>944</v>
+      </c>
       <c r="I113" s="17" t="s">
-        <v>803</v>
+        <v>788</v>
       </c>
       <c r="J113" s="17" t="s">
-        <v>1089</v>
-      </c>
-      <c r="K113" s="17" t="s">
-        <v>853</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="K113" s="17"/>
       <c r="L113" s="17"/>
       <c r="M113" s="17"/>
       <c r="N113" t="s">
-        <v>951</v>
-      </c>
-      <c r="P113" t="s">
-        <v>884</v>
+        <v>941</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
@@ -32195,10 +32206,10 @@
         <v>1083</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="D114" s="17">
         <v>3</v>
@@ -32210,21 +32221,19 @@
         <v>10000</v>
       </c>
       <c r="G114" t="s">
-        <v>888</v>
+        <v>905</v>
       </c>
       <c r="H114" s="17"/>
       <c r="I114" s="17" t="s">
-        <v>948</v>
+        <v>691</v>
       </c>
       <c r="J114" s="17" t="s">
-        <v>844</v>
+        <v>1086</v>
       </c>
       <c r="K114" s="17" t="s">
-        <v>903</v>
-      </c>
-      <c r="L114" s="17" t="s">
-        <v>971</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="L114" s="17"/>
       <c r="M114" s="17"/>
       <c r="N114" t="s">
         <v>951</v>
@@ -32237,46 +32246,52 @@
       <c r="A115" t="s">
         <v>1083</v>
       </c>
-      <c r="C115" t="s">
-        <v>1290</v>
-      </c>
-      <c r="D115">
+      <c r="B115" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D115" s="17">
         <v>3</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="17">
         <v>1</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="17">
         <v>10000</v>
       </c>
       <c r="G115" t="s">
-        <v>2156</v>
+        <v>894</v>
       </c>
       <c r="H115" s="17"/>
       <c r="I115" s="17" t="s">
-        <v>674</v>
+        <v>803</v>
       </c>
       <c r="J115" s="17" t="s">
-        <v>787</v>
+        <v>1089</v>
       </c>
       <c r="K115" s="17" t="s">
-        <v>1282</v>
+        <v>853</v>
       </c>
       <c r="L115" s="17"/>
       <c r="M115" s="17"/>
       <c r="N115" t="s">
-        <v>883</v>
+        <v>951</v>
+      </c>
+      <c r="P115" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1092</v>
+        <v>1083</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>1098</v>
+        <v>1091</v>
       </c>
       <c r="D116" s="17">
         <v>3</v>
@@ -32288,24 +32303,24 @@
         <v>10000</v>
       </c>
       <c r="G116" t="s">
-        <v>1099</v>
+        <v>888</v>
       </c>
       <c r="H116" s="17"/>
       <c r="I116" s="17" t="s">
-        <v>1100</v>
+        <v>948</v>
       </c>
       <c r="J116" s="17" t="s">
-        <v>1101</v>
+        <v>844</v>
       </c>
       <c r="K116" s="17" t="s">
-        <v>1102</v>
+        <v>903</v>
       </c>
       <c r="L116" s="17" t="s">
-        <v>1103</v>
+        <v>971</v>
       </c>
       <c r="M116" s="17"/>
       <c r="N116" t="s">
-        <v>1096</v>
+        <v>951</v>
       </c>
       <c r="P116" t="s">
         <v>884</v>
@@ -32313,31 +32328,33 @@
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C117" s="17" t="s">
-        <v>1299</v>
-      </c>
-      <c r="D117" s="17">
+        <v>1083</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D117">
         <v>3</v>
       </c>
-      <c r="E117" s="17">
+      <c r="E117">
         <v>1</v>
       </c>
-      <c r="F117" s="17">
+      <c r="F117">
         <v>10000</v>
       </c>
       <c r="G117" t="s">
-        <v>880</v>
+        <v>2156</v>
       </c>
       <c r="H117" s="17"/>
       <c r="I117" s="17" t="s">
-        <v>1253</v>
+        <v>674</v>
       </c>
       <c r="J117" s="17" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K117" s="17"/>
+        <v>787</v>
+      </c>
+      <c r="K117" s="17" t="s">
+        <v>1282</v>
+      </c>
       <c r="L117" s="17"/>
       <c r="M117" s="17"/>
       <c r="N117" t="s">
@@ -32348,174 +32365,160 @@
       <c r="A118" t="s">
         <v>1092</v>
       </c>
+      <c r="B118" s="17" t="s">
+        <v>1097</v>
+      </c>
       <c r="C118" s="17" t="s">
-        <v>1301</v>
+        <v>1098</v>
       </c>
       <c r="D118" s="17">
         <v>3</v>
       </c>
       <c r="E118" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F118" s="17">
-        <v>250</v>
+        <v>10000</v>
       </c>
       <c r="G118" t="s">
-        <v>2171</v>
+        <v>1099</v>
       </c>
       <c r="H118" s="17"/>
       <c r="I118" s="17" t="s">
-        <v>1022</v>
+        <v>1100</v>
       </c>
       <c r="J118" s="17" t="s">
-        <v>901</v>
+        <v>1101</v>
       </c>
       <c r="K118" s="17" t="s">
-        <v>984</v>
-      </c>
-      <c r="L118" s="17"/>
+        <v>1102</v>
+      </c>
+      <c r="L118" s="17" t="s">
+        <v>1103</v>
+      </c>
       <c r="M118" s="17"/>
       <c r="N118" t="s">
         <v>1096</v>
       </c>
+      <c r="P118" t="s">
+        <v>884</v>
+      </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>1092</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="D119" s="17">
         <v>3</v>
       </c>
       <c r="E119" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F119" s="17">
-        <v>250</v>
+        <v>10000</v>
       </c>
       <c r="G119" t="s">
-        <v>2173</v>
+        <v>880</v>
       </c>
       <c r="H119" s="17"/>
       <c r="I119" s="17" t="s">
-        <v>1022</v>
+        <v>1253</v>
       </c>
       <c r="J119" s="17" t="s">
-        <v>674</v>
-      </c>
-      <c r="K119" s="17" t="s">
-        <v>803</v>
-      </c>
+        <v>1300</v>
+      </c>
+      <c r="K119" s="17"/>
       <c r="L119" s="17"/>
       <c r="M119" s="17"/>
       <c r="N119" t="s">
-        <v>1096</v>
+        <v>883</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>877</v>
-      </c>
-      <c r="B120" s="17" t="s">
-        <v>892</v>
+        <v>1092</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>893</v>
+        <v>1301</v>
       </c>
       <c r="D120" s="17">
-        <v>4</v>
-      </c>
-      <c r="E120">
-        <v>1</v>
-      </c>
-      <c r="F120">
-        <v>10000</v>
+        <v>3</v>
+      </c>
+      <c r="E120" s="17">
+        <v>3</v>
+      </c>
+      <c r="F120" s="17">
+        <v>250</v>
       </c>
       <c r="G120" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="H120" s="17"/>
       <c r="I120" s="17" t="s">
-        <v>788</v>
+        <v>1022</v>
       </c>
       <c r="J120" s="17" t="s">
-        <v>803</v>
+        <v>901</v>
       </c>
       <c r="K120" s="17" t="s">
-        <v>853</v>
-      </c>
-      <c r="L120" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="M120" s="17" t="s">
-        <v>2174</v>
-      </c>
+        <v>984</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
       <c r="N120" t="s">
-        <v>883</v>
-      </c>
-      <c r="P120" t="s">
-        <v>884</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>897</v>
-      </c>
-      <c r="B121" s="17" t="s">
-        <v>2166</v>
+        <v>1092</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>2170</v>
+        <v>1303</v>
       </c>
       <c r="D121" s="17">
-        <v>4</v>
-      </c>
-      <c r="E121">
-        <v>1</v>
-      </c>
-      <c r="F121">
-        <v>10000</v>
+        <v>3</v>
+      </c>
+      <c r="E121" s="17">
+        <v>3</v>
+      </c>
+      <c r="F121" s="17">
+        <v>250</v>
       </c>
       <c r="G121" t="s">
-        <v>2171</v>
-      </c>
-      <c r="H121" s="17" t="s">
-        <v>905</v>
-      </c>
+        <v>2173</v>
+      </c>
+      <c r="H121" s="17"/>
       <c r="I121" s="17" t="s">
-        <v>831</v>
+        <v>1022</v>
       </c>
       <c r="J121" s="17" t="s">
-        <v>750</v>
+        <v>674</v>
       </c>
       <c r="K121" s="17" t="s">
-        <v>906</v>
-      </c>
-      <c r="L121" s="17" t="s">
-        <v>896</v>
-      </c>
+        <v>803</v>
+      </c>
+      <c r="L121" s="17"/>
       <c r="M121" s="17"/>
       <c r="N121" t="s">
-        <v>902</v>
-      </c>
-      <c r="P121" t="s">
-        <v>884</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>897</v>
-      </c>
-      <c r="B122" t="s">
-        <v>2154</v>
+        <v>1092</v>
+      </c>
+      <c r="B122" s="17" t="s">
+        <v>2584</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>2155</v>
+        <v>2585</v>
       </c>
       <c r="D122" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E122" s="17">
         <v>3</v>
@@ -32524,67 +32527,84 @@
         <v>250</v>
       </c>
       <c r="G122" t="s">
-        <v>2156</v>
-      </c>
-      <c r="H122" s="17"/>
-      <c r="I122" s="17" t="s">
-        <v>2157</v>
-      </c>
-      <c r="J122" s="17" t="s">
-        <v>949</v>
-      </c>
-      <c r="K122" s="17" t="s">
-        <v>1067</v>
-      </c>
-      <c r="L122" s="17" t="s">
-        <v>800</v>
-      </c>
-      <c r="M122" s="17" t="s">
-        <v>2158</v>
+        <v>887</v>
+      </c>
+      <c r="H122" t="s">
+        <v>904</v>
+      </c>
+      <c r="I122" t="s">
+        <v>1166</v>
+      </c>
+      <c r="J122" t="s">
+        <v>2355</v>
+      </c>
+      <c r="K122" t="s">
+        <v>2586</v>
+      </c>
+      <c r="L122" t="s">
+        <v>2318</v>
       </c>
       <c r="N122" t="s">
-        <v>2159</v>
+        <v>2587</v>
+      </c>
+      <c r="P122" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>907</v>
-      </c>
-      <c r="B123" s="17"/>
+        <v>877</v>
+      </c>
+      <c r="B123" s="17" t="s">
+        <v>892</v>
+      </c>
       <c r="C123" s="17" t="s">
-        <v>1146</v>
+        <v>893</v>
       </c>
       <c r="D123" s="17">
         <v>4</v>
       </c>
       <c r="E123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F123">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="G123" t="s">
-        <v>808</v>
+        <v>2173</v>
       </c>
       <c r="H123" s="17"/>
       <c r="I123" s="17" t="s">
-        <v>921</v>
-      </c>
-      <c r="J123" s="17"/>
-      <c r="K123" s="17"/>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
+        <v>788</v>
+      </c>
+      <c r="J123" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="K123" s="17" t="s">
+        <v>853</v>
+      </c>
+      <c r="L123" s="17" t="s">
+        <v>896</v>
+      </c>
+      <c r="M123" s="17" t="s">
+        <v>2174</v>
+      </c>
       <c r="N123" t="s">
-        <v>1147</v>
+        <v>883</v>
+      </c>
+      <c r="P123" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>907</v>
-      </c>
-      <c r="B124" s="17"/>
+        <v>897</v>
+      </c>
+      <c r="B124" s="17" t="s">
+        <v>2166</v>
+      </c>
       <c r="C124" s="17" t="s">
-        <v>1148</v>
+        <v>2170</v>
       </c>
       <c r="D124" s="17">
         <v>4</v>
@@ -32596,37 +32616,42 @@
         <v>10000</v>
       </c>
       <c r="G124" t="s">
-        <v>790</v>
+        <v>2171</v>
       </c>
       <c r="H124" s="17" t="s">
-        <v>794</v>
+        <v>905</v>
       </c>
       <c r="I124" s="17" t="s">
-        <v>739</v>
+        <v>831</v>
       </c>
       <c r="J124" s="17" t="s">
-        <v>724</v>
+        <v>750</v>
       </c>
       <c r="K124" s="17" t="s">
-        <v>992</v>
-      </c>
-      <c r="L124" s="17"/>
+        <v>906</v>
+      </c>
+      <c r="L124" s="17" t="s">
+        <v>896</v>
+      </c>
       <c r="M124" s="17"/>
       <c r="N124" t="s">
-        <v>1149</v>
+        <v>902</v>
+      </c>
+      <c r="P124" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>918</v>
-      </c>
-      <c r="B125" s="17" t="s">
-        <v>923</v>
+        <v>897</v>
+      </c>
+      <c r="B125" t="s">
+        <v>2154</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>924</v>
-      </c>
-      <c r="D125">
+        <v>2155</v>
+      </c>
+      <c r="D125" s="17">
         <v>4</v>
       </c>
       <c r="E125" s="17">
@@ -32636,107 +32661,96 @@
         <v>250</v>
       </c>
       <c r="G125" t="s">
-        <v>903</v>
+        <v>2156</v>
       </c>
       <c r="H125" s="17"/>
       <c r="I125" s="17" t="s">
-        <v>691</v>
+        <v>2157</v>
       </c>
       <c r="J125" s="17" t="s">
-        <v>925</v>
+        <v>949</v>
       </c>
       <c r="K125" s="17" t="s">
-        <v>688</v>
-      </c>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
+        <v>1067</v>
+      </c>
+      <c r="L125" s="17" t="s">
+        <v>800</v>
+      </c>
+      <c r="M125" s="17" t="s">
+        <v>2158</v>
+      </c>
       <c r="N125" t="s">
-        <v>926</v>
-      </c>
-      <c r="P125" t="s">
-        <v>884</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>918</v>
-      </c>
-      <c r="B126" s="17" t="s">
-        <v>923</v>
-      </c>
+        <v>907</v>
+      </c>
+      <c r="B126" s="17"/>
       <c r="C126" s="17" t="s">
-        <v>927</v>
-      </c>
-      <c r="D126">
+        <v>1146</v>
+      </c>
+      <c r="D126" s="17">
         <v>4</v>
       </c>
-      <c r="E126" s="17">
-        <v>3</v>
-      </c>
-      <c r="F126" s="17">
-        <v>250</v>
+      <c r="E126">
+        <v>2</v>
+      </c>
+      <c r="F126">
+        <v>2500</v>
       </c>
       <c r="G126" t="s">
-        <v>928</v>
+        <v>808</v>
       </c>
       <c r="H126" s="17"/>
       <c r="I126" s="17" t="s">
-        <v>691</v>
-      </c>
-      <c r="J126" s="17" t="s">
-        <v>925</v>
-      </c>
-      <c r="K126" s="17" t="s">
-        <v>688</v>
-      </c>
+        <v>921</v>
+      </c>
+      <c r="J126" s="17"/>
+      <c r="K126" s="17"/>
       <c r="L126" s="17"/>
       <c r="M126" s="17"/>
       <c r="N126" t="s">
-        <v>929</v>
-      </c>
-      <c r="P126" t="s">
-        <v>884</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>918</v>
-      </c>
-      <c r="B127" s="17" t="s">
-        <v>923</v>
-      </c>
+        <v>907</v>
+      </c>
+      <c r="B127" s="17"/>
       <c r="C127" s="17" t="s">
-        <v>930</v>
-      </c>
-      <c r="D127">
+        <v>1148</v>
+      </c>
+      <c r="D127" s="17">
         <v>4</v>
       </c>
-      <c r="E127" s="17">
-        <v>3</v>
-      </c>
-      <c r="F127" s="17">
-        <v>250</v>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>10000</v>
       </c>
       <c r="G127" t="s">
-        <v>841</v>
-      </c>
-      <c r="H127" s="17"/>
+        <v>790</v>
+      </c>
+      <c r="H127" s="17" t="s">
+        <v>794</v>
+      </c>
       <c r="I127" s="17" t="s">
-        <v>691</v>
+        <v>739</v>
       </c>
       <c r="J127" s="17" t="s">
-        <v>925</v>
+        <v>724</v>
       </c>
       <c r="K127" s="17" t="s">
-        <v>688</v>
+        <v>992</v>
       </c>
       <c r="L127" s="17"/>
       <c r="M127" s="17"/>
       <c r="N127" t="s">
-        <v>931</v>
-      </c>
-      <c r="P127" t="s">
-        <v>884</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
@@ -32747,7 +32761,7 @@
         <v>923</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="D128">
         <v>4</v>
@@ -32759,7 +32773,7 @@
         <v>250</v>
       </c>
       <c r="G128" t="s">
-        <v>840</v>
+        <v>903</v>
       </c>
       <c r="H128" s="17"/>
       <c r="I128" s="17" t="s">
@@ -32774,7 +32788,7 @@
       <c r="L128" s="17"/>
       <c r="M128" s="17"/>
       <c r="N128" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="P128" t="s">
         <v>884</v>
@@ -32788,7 +32802,7 @@
         <v>923</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="D129">
         <v>4</v>
@@ -32800,7 +32814,7 @@
         <v>250</v>
       </c>
       <c r="G129" t="s">
-        <v>845</v>
+        <v>928</v>
       </c>
       <c r="H129" s="17"/>
       <c r="I129" s="17" t="s">
@@ -32815,7 +32829,7 @@
       <c r="L129" s="17"/>
       <c r="M129" s="17"/>
       <c r="N129" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="P129" t="s">
         <v>884</v>
@@ -32829,7 +32843,7 @@
         <v>923</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="D130">
         <v>4</v>
@@ -32841,7 +32855,7 @@
         <v>250</v>
       </c>
       <c r="G130" t="s">
-        <v>823</v>
+        <v>841</v>
       </c>
       <c r="H130" s="17"/>
       <c r="I130" s="17" t="s">
@@ -32856,7 +32870,7 @@
       <c r="L130" s="17"/>
       <c r="M130" s="17"/>
       <c r="N130" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="P130" t="s">
         <v>884</v>
@@ -32864,15 +32878,15 @@
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>938</v>
+        <v>918</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>945</v>
+        <v>923</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>946</v>
-      </c>
-      <c r="D131" s="17">
+        <v>932</v>
+      </c>
+      <c r="D131">
         <v>4</v>
       </c>
       <c r="E131" s="17">
@@ -32882,24 +32896,22 @@
         <v>250</v>
       </c>
       <c r="G131" t="s">
-        <v>764</v>
+        <v>840</v>
       </c>
       <c r="H131" s="17"/>
       <c r="I131" s="17" t="s">
-        <v>947</v>
+        <v>691</v>
       </c>
       <c r="J131" s="17" t="s">
-        <v>948</v>
+        <v>925</v>
       </c>
       <c r="K131" s="17" t="s">
-        <v>1239</v>
-      </c>
-      <c r="L131" s="17" t="s">
-        <v>1086</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="L131" s="17"/>
       <c r="M131" s="17"/>
       <c r="N131" t="s">
-        <v>951</v>
+        <v>933</v>
       </c>
       <c r="P131" t="s">
         <v>884</v>
@@ -32907,15 +32919,15 @@
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>965</v>
+        <v>918</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>973</v>
+        <v>923</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>974</v>
-      </c>
-      <c r="D132" s="17">
+        <v>934</v>
+      </c>
+      <c r="D132">
         <v>4</v>
       </c>
       <c r="E132" s="17">
@@ -32925,24 +32937,22 @@
         <v>250</v>
       </c>
       <c r="G132" t="s">
-        <v>764</v>
+        <v>845</v>
       </c>
       <c r="H132" s="17"/>
       <c r="I132" s="17" t="s">
-        <v>643</v>
+        <v>691</v>
       </c>
       <c r="J132" s="17" t="s">
-        <v>691</v>
+        <v>925</v>
       </c>
       <c r="K132" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="L132" s="17" t="s">
-        <v>2194</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="L132" s="17"/>
       <c r="M132" s="17"/>
       <c r="N132" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="P132" t="s">
         <v>884</v>
@@ -32950,42 +32960,40 @@
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>975</v>
+        <v>918</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>979</v>
+        <v>923</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>980</v>
-      </c>
-      <c r="D133" s="17">
+        <v>936</v>
+      </c>
+      <c r="D133">
         <v>4</v>
       </c>
-      <c r="E133">
-        <v>1</v>
-      </c>
-      <c r="F133">
-        <v>10000</v>
+      <c r="E133" s="17">
+        <v>3</v>
+      </c>
+      <c r="F133" s="17">
+        <v>250</v>
       </c>
       <c r="G133" t="s">
-        <v>888</v>
+        <v>823</v>
       </c>
       <c r="H133" s="17"/>
       <c r="I133" s="17" t="s">
-        <v>910</v>
+        <v>691</v>
       </c>
       <c r="J133" s="17" t="s">
-        <v>806</v>
+        <v>925</v>
       </c>
       <c r="K133" s="17" t="s">
-        <v>861</v>
-      </c>
-      <c r="L133" s="17" t="s">
-        <v>642</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="L133" s="17"/>
       <c r="M133" s="17"/>
       <c r="N133" t="s">
-        <v>978</v>
+        <v>937</v>
       </c>
       <c r="P133" t="s">
         <v>884</v>
@@ -32993,118 +33001,128 @@
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>996</v>
-      </c>
-      <c r="C134" t="s">
-        <v>1186</v>
+        <v>938</v>
+      </c>
+      <c r="B134" s="17" t="s">
+        <v>945</v>
+      </c>
+      <c r="C134" s="17" t="s">
+        <v>946</v>
       </c>
       <c r="D134" s="17">
         <v>4</v>
       </c>
-      <c r="E134">
-        <v>1</v>
-      </c>
-      <c r="F134">
-        <v>10000</v>
+      <c r="E134" s="17">
+        <v>3</v>
+      </c>
+      <c r="F134" s="17">
+        <v>250</v>
       </c>
       <c r="G134" t="s">
-        <v>721</v>
-      </c>
-      <c r="H134" s="17" t="s">
-        <v>900</v>
-      </c>
+        <v>764</v>
+      </c>
+      <c r="H134" s="17"/>
       <c r="I134" s="17" t="s">
-        <v>643</v>
+        <v>947</v>
       </c>
       <c r="J134" s="17" t="s">
-        <v>705</v>
+        <v>948</v>
       </c>
       <c r="K134" s="17" t="s">
-        <v>661</v>
+        <v>1239</v>
       </c>
       <c r="L134" s="17" t="s">
-        <v>845</v>
+        <v>1086</v>
       </c>
       <c r="M134" s="17"/>
       <c r="N134" t="s">
-        <v>902</v>
+        <v>951</v>
+      </c>
+      <c r="P134" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C135" t="s">
-        <v>1208</v>
+        <v>965</v>
+      </c>
+      <c r="B135" s="17" t="s">
+        <v>973</v>
+      </c>
+      <c r="C135" s="17" t="s">
+        <v>974</v>
       </c>
       <c r="D135" s="17">
         <v>4</v>
       </c>
       <c r="E135" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F135" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G135" s="17" t="s">
-        <v>721</v>
+        <v>250</v>
+      </c>
+      <c r="G135" t="s">
+        <v>764</v>
       </c>
       <c r="H135" s="17"/>
       <c r="I135" s="17" t="s">
-        <v>1155</v>
+        <v>643</v>
       </c>
       <c r="J135" s="17" t="s">
-        <v>728</v>
+        <v>691</v>
       </c>
       <c r="K135" s="17" t="s">
-        <v>736</v>
-      </c>
-      <c r="L135" s="17"/>
+        <v>739</v>
+      </c>
+      <c r="L135" s="17" t="s">
+        <v>2194</v>
+      </c>
       <c r="M135" s="17"/>
       <c r="N135" t="s">
-        <v>912</v>
+        <v>941</v>
+      </c>
+      <c r="P135" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>1051</v>
+        <v>975</v>
       </c>
       <c r="B136" s="17" t="s">
-        <v>1052</v>
+        <v>979</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>1053</v>
+        <v>980</v>
       </c>
       <c r="D136" s="17">
         <v>4</v>
       </c>
-      <c r="E136" s="17">
-        <v>3</v>
-      </c>
-      <c r="F136" s="17">
-        <v>250</v>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>10000</v>
       </c>
       <c r="G136" t="s">
-        <v>721</v>
-      </c>
-      <c r="H136" s="17" t="s">
-        <v>764</v>
-      </c>
+        <v>888</v>
+      </c>
+      <c r="H136" s="17"/>
       <c r="I136" s="17" t="s">
-        <v>706</v>
+        <v>910</v>
       </c>
       <c r="J136" s="17" t="s">
-        <v>890</v>
+        <v>806</v>
       </c>
       <c r="K136" s="17" t="s">
-        <v>792</v>
+        <v>861</v>
       </c>
       <c r="L136" s="17" t="s">
-        <v>903</v>
+        <v>642</v>
       </c>
       <c r="M136" s="17"/>
       <c r="N136" t="s">
-        <v>1050</v>
+        <v>978</v>
       </c>
       <c r="P136" t="s">
         <v>884</v>
@@ -33112,47 +33130,49 @@
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>1051</v>
+        <v>996</v>
       </c>
       <c r="C137" t="s">
-        <v>1236</v>
+        <v>1186</v>
       </c>
       <c r="D137" s="17">
         <v>4</v>
       </c>
-      <c r="E137" s="17">
+      <c r="E137">
         <v>1</v>
       </c>
-      <c r="F137" s="17">
+      <c r="F137">
         <v>10000</v>
       </c>
-      <c r="G137" s="17" t="s">
-        <v>794</v>
-      </c>
-      <c r="H137" s="17"/>
+      <c r="G137" t="s">
+        <v>721</v>
+      </c>
+      <c r="H137" s="17" t="s">
+        <v>900</v>
+      </c>
       <c r="I137" s="17" t="s">
-        <v>831</v>
+        <v>643</v>
       </c>
       <c r="J137" s="17" t="s">
-        <v>728</v>
+        <v>705</v>
       </c>
       <c r="K137" s="17" t="s">
-        <v>643</v>
+        <v>661</v>
       </c>
       <c r="L137" s="17" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="M137" s="17"/>
       <c r="N137" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1051</v>
+        <v>1032</v>
       </c>
       <c r="C138" t="s">
-        <v>1237</v>
+        <v>1208</v>
       </c>
       <c r="D138" s="17">
         <v>4</v>
@@ -33164,553 +33184,547 @@
         <v>10000</v>
       </c>
       <c r="G138" s="17" t="s">
-        <v>790</v>
+        <v>721</v>
       </c>
       <c r="H138" s="17"/>
       <c r="I138" s="17" t="s">
-        <v>1238</v>
+        <v>1155</v>
       </c>
       <c r="J138" s="17" t="s">
-        <v>1239</v>
+        <v>728</v>
       </c>
       <c r="K138" s="17" t="s">
-        <v>661</v>
+        <v>736</v>
       </c>
       <c r="L138" s="17"/>
       <c r="M138" s="17"/>
       <c r="N138" t="s">
-        <v>1195</v>
+        <v>912</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C139" t="s">
-        <v>1244</v>
-      </c>
-      <c r="D139" s="17">
+      <c r="A139" s="8" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B139" t="s">
+        <v>2189</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>2190</v>
+      </c>
+      <c r="D139" s="13">
         <v>4</v>
       </c>
-      <c r="E139" s="17">
-        <v>1</v>
-      </c>
-      <c r="F139" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G139" s="17" t="s">
-        <v>721</v>
+      <c r="E139" s="13">
+        <v>3</v>
+      </c>
+      <c r="F139" s="13">
+        <v>250</v>
+      </c>
+      <c r="G139" s="8" t="s">
+        <v>1057</v>
       </c>
       <c r="H139" s="17"/>
       <c r="I139" s="17" t="s">
-        <v>881</v>
+        <v>2191</v>
       </c>
       <c r="J139" s="17" t="s">
-        <v>1046</v>
+        <v>2192</v>
       </c>
       <c r="K139" s="17" t="s">
-        <v>1245</v>
+        <v>800</v>
       </c>
       <c r="L139" s="17" t="s">
-        <v>840</v>
-      </c>
-      <c r="M139" s="17"/>
-      <c r="N139" t="s">
-        <v>1246</v>
+        <v>2193</v>
+      </c>
+      <c r="M139" s="17" t="s">
+        <v>2182</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C140" t="s">
-        <v>1247</v>
+        <v>1051</v>
+      </c>
+      <c r="B140" s="17" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C140" s="17" t="s">
+        <v>1053</v>
       </c>
       <c r="D140" s="17">
         <v>4</v>
       </c>
       <c r="E140" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F140" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G140" s="17" t="s">
-        <v>788</v>
-      </c>
-      <c r="H140" s="17"/>
+        <v>250</v>
+      </c>
+      <c r="G140" t="s">
+        <v>721</v>
+      </c>
+      <c r="H140" s="17" t="s">
+        <v>764</v>
+      </c>
       <c r="I140" s="17" t="s">
-        <v>725</v>
+        <v>706</v>
       </c>
       <c r="J140" s="17" t="s">
-        <v>1248</v>
+        <v>890</v>
       </c>
       <c r="K140" s="17" t="s">
-        <v>642</v>
+        <v>792</v>
       </c>
       <c r="L140" s="17" t="s">
-        <v>1249</v>
+        <v>903</v>
       </c>
       <c r="M140" s="17"/>
       <c r="N140" t="s">
-        <v>1250</v>
+        <v>1050</v>
+      </c>
+      <c r="P140" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>1062</v>
+        <v>1051</v>
       </c>
       <c r="C141" t="s">
-        <v>1264</v>
+        <v>1236</v>
       </c>
       <c r="D141" s="17">
         <v>4</v>
       </c>
       <c r="E141" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F141" s="17">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="G141" s="17" t="s">
-        <v>755</v>
+        <v>794</v>
       </c>
       <c r="H141" s="17"/>
       <c r="I141" s="17" t="s">
-        <v>1265</v>
+        <v>831</v>
       </c>
       <c r="J141" s="17" t="s">
-        <v>1266</v>
+        <v>728</v>
       </c>
       <c r="K141" s="17" t="s">
-        <v>1267</v>
-      </c>
-      <c r="L141" s="17"/>
+        <v>643</v>
+      </c>
+      <c r="L141" s="17" t="s">
+        <v>841</v>
+      </c>
       <c r="M141" s="17"/>
       <c r="N141" t="s">
-        <v>978</v>
+        <v>912</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>1083</v>
+        <v>1051</v>
       </c>
       <c r="C142" t="s">
-        <v>1291</v>
-      </c>
-      <c r="D142">
+        <v>1237</v>
+      </c>
+      <c r="D142" s="17">
         <v>4</v>
       </c>
-      <c r="E142">
-        <v>4</v>
-      </c>
-      <c r="F142">
-        <v>50</v>
-      </c>
-      <c r="G142" t="s">
-        <v>888</v>
+      <c r="E142" s="17">
+        <v>1</v>
+      </c>
+      <c r="F142" s="17">
+        <v>10000</v>
+      </c>
+      <c r="G142" s="17" t="s">
+        <v>790</v>
       </c>
       <c r="H142" s="17"/>
       <c r="I142" s="17" t="s">
-        <v>844</v>
+        <v>1238</v>
       </c>
       <c r="J142" s="17" t="s">
-        <v>889</v>
+        <v>1239</v>
       </c>
       <c r="K142" s="17" t="s">
-        <v>896</v>
+        <v>661</v>
       </c>
       <c r="L142" s="17"/>
       <c r="M142" s="17"/>
       <c r="N142" t="s">
-        <v>1292</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>1083</v>
+        <v>1054</v>
       </c>
       <c r="C143" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D143">
+        <v>1244</v>
+      </c>
+      <c r="D143" s="17">
         <v>4</v>
       </c>
-      <c r="E143">
-        <v>4</v>
-      </c>
-      <c r="F143">
-        <v>50</v>
-      </c>
-      <c r="G143" t="s">
-        <v>894</v>
+      <c r="E143" s="17">
+        <v>1</v>
+      </c>
+      <c r="F143" s="17">
+        <v>10000</v>
+      </c>
+      <c r="G143" s="17" t="s">
+        <v>721</v>
       </c>
       <c r="H143" s="17"/>
       <c r="I143" s="17" t="s">
-        <v>803</v>
+        <v>881</v>
       </c>
       <c r="J143" s="17" t="s">
-        <v>895</v>
+        <v>1046</v>
       </c>
       <c r="K143" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="L143" s="17"/>
+        <v>1245</v>
+      </c>
+      <c r="L143" s="17" t="s">
+        <v>840</v>
+      </c>
       <c r="M143" s="17"/>
       <c r="N143" t="s">
-        <v>1292</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>1083</v>
+        <v>1054</v>
       </c>
       <c r="C144" t="s">
-        <v>1294</v>
-      </c>
-      <c r="D144">
+        <v>1247</v>
+      </c>
+      <c r="D144" s="17">
         <v>4</v>
       </c>
-      <c r="E144">
-        <v>4</v>
-      </c>
-      <c r="F144">
-        <v>50</v>
-      </c>
-      <c r="G144" t="s">
-        <v>905</v>
+      <c r="E144" s="17">
+        <v>1</v>
+      </c>
+      <c r="F144" s="17">
+        <v>10000</v>
+      </c>
+      <c r="G144" s="17" t="s">
+        <v>788</v>
       </c>
       <c r="H144" s="17"/>
       <c r="I144" s="17" t="s">
-        <v>1086</v>
+        <v>725</v>
       </c>
       <c r="J144" s="17" t="s">
-        <v>950</v>
+        <v>1248</v>
       </c>
       <c r="K144" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="L144" s="17"/>
+        <v>642</v>
+      </c>
+      <c r="L144" s="17" t="s">
+        <v>1249</v>
+      </c>
       <c r="M144" s="17"/>
       <c r="N144" t="s">
-        <v>1292</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>1083</v>
+        <v>1062</v>
       </c>
       <c r="C145" t="s">
-        <v>1295</v>
-      </c>
-      <c r="D145">
+        <v>1264</v>
+      </c>
+      <c r="D145" s="17">
         <v>4</v>
       </c>
-      <c r="E145">
+      <c r="E145" s="17">
         <v>4</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="17">
         <v>50</v>
       </c>
-      <c r="G145" t="s">
-        <v>904</v>
+      <c r="G145" s="17" t="s">
+        <v>755</v>
       </c>
       <c r="H145" s="17"/>
       <c r="I145" s="17" t="s">
-        <v>984</v>
+        <v>1265</v>
       </c>
       <c r="J145" s="17" t="s">
-        <v>985</v>
+        <v>1266</v>
       </c>
       <c r="K145" s="17" t="s">
-        <v>896</v>
+        <v>1267</v>
       </c>
       <c r="L145" s="17"/>
       <c r="M145" s="17"/>
       <c r="N145" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D146">
+        <v>4</v>
+      </c>
+      <c r="E146">
+        <v>4</v>
+      </c>
+      <c r="F146">
+        <v>50</v>
+      </c>
+      <c r="G146" t="s">
+        <v>888</v>
+      </c>
+      <c r="H146" s="17"/>
+      <c r="I146" s="17" t="s">
+        <v>844</v>
+      </c>
+      <c r="J146" s="17" t="s">
+        <v>889</v>
+      </c>
+      <c r="K146" s="17" t="s">
+        <v>896</v>
+      </c>
+      <c r="L146" s="17"/>
+      <c r="M146" s="17"/>
+      <c r="N146" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B146" s="17" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C146" s="9" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D146" s="9">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D147">
         <v>4</v>
       </c>
-      <c r="E146" s="9">
-        <v>3</v>
-      </c>
-      <c r="F146" s="9">
-        <v>250</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="H146" s="9"/>
-      <c r="I146" s="9" t="s">
-        <v>949</v>
-      </c>
-      <c r="J146" s="9" t="s">
-        <v>808</v>
-      </c>
-      <c r="K146" s="9" t="s">
-        <v>717</v>
-      </c>
-      <c r="L146" s="9"/>
-      <c r="M146" s="9"/>
-      <c r="N146" s="2" t="s">
-        <v>1038</v>
-      </c>
-      <c r="O146" s="2"/>
-      <c r="P146" s="2" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A147" s="8" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B147" t="s">
-        <v>2189</v>
-      </c>
-      <c r="C147" s="13" t="s">
-        <v>2190</v>
-      </c>
-      <c r="D147" s="13">
+      <c r="E147">
         <v>4</v>
       </c>
-      <c r="E147" s="13">
-        <v>3</v>
-      </c>
-      <c r="F147" s="13">
-        <v>250</v>
-      </c>
-      <c r="G147" s="8" t="s">
-        <v>1057</v>
+      <c r="F147">
+        <v>50</v>
+      </c>
+      <c r="G147" t="s">
+        <v>894</v>
       </c>
       <c r="H147" s="17"/>
       <c r="I147" s="17" t="s">
-        <v>2191</v>
+        <v>803</v>
       </c>
       <c r="J147" s="17" t="s">
-        <v>2192</v>
+        <v>895</v>
       </c>
       <c r="K147" s="17" t="s">
-        <v>800</v>
-      </c>
-      <c r="L147" s="17" t="s">
-        <v>2193</v>
-      </c>
-      <c r="M147" s="17" t="s">
-        <v>2182</v>
+        <v>896</v>
+      </c>
+      <c r="L147" s="17"/>
+      <c r="M147" s="17"/>
+      <c r="N147" t="s">
+        <v>1292</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>877</v>
-      </c>
-      <c r="B148" s="17"/>
-      <c r="C148" s="17" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D148" s="17">
-        <v>5</v>
+        <v>1083</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D148">
+        <v>4</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F148">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="G148" t="s">
-        <v>2173</v>
-      </c>
-      <c r="H148" s="17" t="s">
-        <v>2176</v>
-      </c>
+        <v>905</v>
+      </c>
+      <c r="H148" s="17"/>
       <c r="I148" s="17" t="s">
-        <v>1120</v>
+        <v>1086</v>
       </c>
       <c r="J148" s="17" t="s">
-        <v>2219</v>
+        <v>950</v>
       </c>
       <c r="K148" s="17" t="s">
-        <v>1122</v>
+        <v>896</v>
       </c>
       <c r="L148" s="17"/>
       <c r="M148" s="17"/>
       <c r="N148" t="s">
-        <v>1123</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>907</v>
-      </c>
-      <c r="B149" s="17" t="s">
-        <v>913</v>
-      </c>
-      <c r="C149" s="17" t="s">
-        <v>914</v>
-      </c>
-      <c r="D149" s="17">
-        <v>5</v>
-      </c>
-      <c r="E149" s="17">
+        <v>1083</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D149">
         <v>4</v>
       </c>
-      <c r="F149" s="17">
-        <v>1</v>
+      <c r="E149">
+        <v>4</v>
+      </c>
+      <c r="F149">
+        <v>50</v>
       </c>
       <c r="G149" t="s">
-        <v>724</v>
+        <v>904</v>
       </c>
       <c r="H149" s="17"/>
       <c r="I149" s="17" t="s">
-        <v>915</v>
+        <v>984</v>
       </c>
       <c r="J149" s="17" t="s">
-        <v>916</v>
+        <v>985</v>
       </c>
       <c r="K149" s="17" t="s">
-        <v>800</v>
-      </c>
-      <c r="L149" s="17" t="s">
-        <v>917</v>
-      </c>
+        <v>896</v>
+      </c>
+      <c r="L149" s="17"/>
       <c r="M149" s="17"/>
       <c r="N149" t="s">
-        <v>912</v>
-      </c>
-      <c r="P149" t="s">
-        <v>884</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>938</v>
+      <c r="A150" s="2" t="s">
+        <v>1110</v>
       </c>
       <c r="B150" s="17" t="s">
-        <v>952</v>
-      </c>
-      <c r="C150" s="17" t="s">
-        <v>953</v>
-      </c>
-      <c r="D150" s="17">
-        <v>5</v>
-      </c>
-      <c r="E150" s="17">
+        <v>1113</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D150" s="9">
         <v>4</v>
       </c>
-      <c r="F150">
-        <v>50</v>
-      </c>
-      <c r="G150" t="s">
-        <v>2142</v>
-      </c>
-      <c r="H150" s="17"/>
-      <c r="I150" s="17" t="s">
-        <v>954</v>
-      </c>
-      <c r="J150" s="17" t="s">
-        <v>629</v>
-      </c>
-      <c r="K150" s="17" t="s">
-        <v>955</v>
-      </c>
-      <c r="L150" s="17" t="s">
-        <v>956</v>
-      </c>
-      <c r="M150" s="17" t="s">
-        <v>765</v>
-      </c>
-      <c r="N150" t="s">
-        <v>957</v>
-      </c>
-      <c r="P150" t="s">
+      <c r="E150" s="9">
+        <v>3</v>
+      </c>
+      <c r="F150" s="9">
+        <v>250</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="H150" s="9"/>
+      <c r="I150" s="9" t="s">
+        <v>949</v>
+      </c>
+      <c r="J150" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="K150" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="L150" s="9"/>
+      <c r="M150" s="9"/>
+      <c r="N150" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="O150" s="2"/>
+      <c r="P150" s="2" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>958</v>
-      </c>
-      <c r="C151" t="s">
-        <v>1173</v>
+        <v>877</v>
+      </c>
+      <c r="B151" s="17"/>
+      <c r="C151" s="17" t="s">
+        <v>1119</v>
       </c>
       <c r="D151" s="17">
         <v>5</v>
       </c>
-      <c r="E151" s="17">
+      <c r="E151">
         <v>1</v>
       </c>
       <c r="F151">
         <v>10000</v>
       </c>
       <c r="G151" t="s">
-        <v>764</v>
-      </c>
-      <c r="H151" s="17"/>
+        <v>2173</v>
+      </c>
+      <c r="H151" s="17" t="s">
+        <v>2176</v>
+      </c>
       <c r="I151" s="17" t="s">
-        <v>739</v>
+        <v>1120</v>
       </c>
       <c r="J151" s="17" t="s">
-        <v>1018</v>
+        <v>2219</v>
       </c>
       <c r="K151" s="17" t="s">
-        <v>1171</v>
+        <v>1122</v>
       </c>
       <c r="L151" s="17"/>
       <c r="M151" s="17"/>
       <c r="N151" t="s">
-        <v>941</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>975</v>
+        <v>907</v>
       </c>
       <c r="B152" s="17" t="s">
-        <v>982</v>
+        <v>913</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>983</v>
+        <v>914</v>
       </c>
       <c r="D152" s="17">
         <v>5</v>
       </c>
-      <c r="E152">
+      <c r="E152" s="17">
+        <v>4</v>
+      </c>
+      <c r="F152" s="17">
         <v>1</v>
       </c>
-      <c r="F152">
-        <v>10000</v>
-      </c>
       <c r="G152" t="s">
-        <v>904</v>
+        <v>724</v>
       </c>
       <c r="H152" s="17"/>
       <c r="I152" s="17" t="s">
-        <v>859</v>
+        <v>915</v>
       </c>
       <c r="J152" s="17" t="s">
-        <v>2591</v>
+        <v>916</v>
       </c>
       <c r="K152" s="17" t="s">
-        <v>2592</v>
+        <v>800</v>
       </c>
       <c r="L152" s="17" t="s">
-        <v>841</v>
+        <v>917</v>
       </c>
       <c r="M152" s="17"/>
       <c r="N152" t="s">
-        <v>986</v>
+        <v>912</v>
       </c>
       <c r="P152" t="s">
         <v>884</v>
@@ -33718,13 +33732,13 @@
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>996</v>
+        <v>938</v>
       </c>
       <c r="B153" s="17" t="s">
-        <v>1002</v>
+        <v>952</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>1003</v>
+        <v>953</v>
       </c>
       <c r="D153" s="17">
         <v>5</v>
@@ -33732,28 +33746,30 @@
       <c r="E153" s="17">
         <v>4</v>
       </c>
-      <c r="F153" s="17">
+      <c r="F153">
         <v>50</v>
       </c>
       <c r="G153" t="s">
-        <v>900</v>
+        <v>2142</v>
       </c>
       <c r="H153" s="17"/>
       <c r="I153" s="17" t="s">
-        <v>1004</v>
+        <v>954</v>
       </c>
       <c r="J153" s="17" t="s">
-        <v>721</v>
+        <v>629</v>
       </c>
       <c r="K153" s="17" t="s">
-        <v>1005</v>
+        <v>955</v>
       </c>
       <c r="L153" s="17" t="s">
-        <v>1006</v>
-      </c>
-      <c r="M153" s="17"/>
+        <v>956</v>
+      </c>
+      <c r="M153" s="17" t="s">
+        <v>765</v>
+      </c>
       <c r="N153" t="s">
-        <v>1007</v>
+        <v>957</v>
       </c>
       <c r="P153" t="s">
         <v>884</v>
@@ -33761,15 +33777,15 @@
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>1032</v>
+        <v>958</v>
       </c>
       <c r="C154" t="s">
-        <v>1209</v>
+        <v>1173</v>
       </c>
       <c r="D154" s="17">
         <v>5</v>
       </c>
-      <c r="E154">
+      <c r="E154" s="17">
         <v>1</v>
       </c>
       <c r="F154">
@@ -33780,13 +33796,13 @@
       </c>
       <c r="H154" s="17"/>
       <c r="I154" s="17" t="s">
-        <v>684</v>
+        <v>739</v>
       </c>
       <c r="J154" s="17" t="s">
-        <v>739</v>
+        <v>1018</v>
       </c>
       <c r="K154" s="17" t="s">
-        <v>921</v>
+        <v>1171</v>
       </c>
       <c r="L154" s="17"/>
       <c r="M154" s="17"/>
@@ -33796,45 +33812,56 @@
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C155" t="s">
-        <v>1210</v>
+        <v>975</v>
+      </c>
+      <c r="B155" s="17" t="s">
+        <v>982</v>
+      </c>
+      <c r="C155" s="17" t="s">
+        <v>983</v>
       </c>
       <c r="D155" s="17">
         <v>5</v>
       </c>
-      <c r="E155" s="17">
+      <c r="E155">
         <v>1</v>
       </c>
-      <c r="F155" s="17">
+      <c r="F155">
         <v>10000</v>
       </c>
-      <c r="G155" s="17" t="s">
-        <v>794</v>
+      <c r="G155" t="s">
+        <v>904</v>
       </c>
       <c r="H155" s="17"/>
       <c r="I155" s="17" t="s">
-        <v>831</v>
+        <v>859</v>
       </c>
       <c r="J155" s="17" t="s">
-        <v>1200</v>
+        <v>2591</v>
       </c>
       <c r="K155" s="17" t="s">
-        <v>744</v>
-      </c>
-      <c r="L155" s="17"/>
+        <v>2592</v>
+      </c>
+      <c r="L155" s="17" t="s">
+        <v>841</v>
+      </c>
       <c r="M155" s="17"/>
       <c r="N155" t="s">
-        <v>1211</v>
+        <v>986</v>
+      </c>
+      <c r="P155" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C156" t="s">
-        <v>1212</v>
+        <v>996</v>
+      </c>
+      <c r="B156" s="17" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C156" s="17" t="s">
+        <v>1003</v>
       </c>
       <c r="D156" s="17">
         <v>5</v>
@@ -33845,76 +33872,71 @@
       <c r="F156" s="17">
         <v>50</v>
       </c>
-      <c r="G156" s="17" t="s">
-        <v>1213</v>
-      </c>
-      <c r="H156" s="17" t="s">
-        <v>1214</v>
-      </c>
+      <c r="G156" t="s">
+        <v>900</v>
+      </c>
+      <c r="H156" s="17"/>
       <c r="I156" s="17" t="s">
-        <v>1215</v>
+        <v>1004</v>
       </c>
       <c r="J156" s="17" t="s">
-        <v>1216</v>
+        <v>721</v>
       </c>
       <c r="K156" s="17" t="s">
-        <v>917</v>
+        <v>1005</v>
       </c>
       <c r="L156" s="17" t="s">
-        <v>800</v>
+        <v>1006</v>
       </c>
       <c r="M156" s="17"/>
       <c r="N156" t="s">
-        <v>1217</v>
+        <v>1007</v>
+      </c>
+      <c r="P156" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B157" s="17" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C157" s="17" t="s">
-        <v>1072</v>
+        <v>1032</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1209</v>
       </c>
       <c r="D157" s="17">
         <v>5</v>
       </c>
-      <c r="E157" s="17">
-        <v>4</v>
-      </c>
-      <c r="F157" s="17">
+      <c r="E157">
         <v>1</v>
       </c>
+      <c r="F157">
+        <v>10000</v>
+      </c>
       <c r="G157" t="s">
-        <v>921</v>
+        <v>764</v>
       </c>
       <c r="H157" s="17"/>
       <c r="I157" s="17" t="s">
-        <v>2187</v>
+        <v>684</v>
       </c>
       <c r="J157" s="17" t="s">
-        <v>1073</v>
+        <v>739</v>
       </c>
       <c r="K157" s="17" t="s">
-        <v>1074</v>
+        <v>921</v>
       </c>
       <c r="L157" s="17"/>
       <c r="M157" s="17"/>
       <c r="N157" t="s">
-        <v>1075</v>
-      </c>
-      <c r="P157" t="s">
-        <v>884</v>
+        <v>941</v>
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>1062</v>
+        <v>1032</v>
       </c>
       <c r="C158" t="s">
-        <v>1268</v>
+        <v>1210</v>
       </c>
       <c r="D158" s="17">
         <v>5</v>
@@ -33926,33 +33948,30 @@
         <v>10000</v>
       </c>
       <c r="G158" s="17" t="s">
-        <v>1269</v>
-      </c>
-      <c r="H158" s="17" t="s">
-        <v>1270</v>
-      </c>
+        <v>794</v>
+      </c>
+      <c r="H158" s="17"/>
       <c r="I158" s="17" t="s">
-        <v>970</v>
+        <v>831</v>
       </c>
       <c r="J158" s="17" t="s">
-        <v>1271</v>
-      </c>
-      <c r="K158" s="17"/>
+        <v>1200</v>
+      </c>
+      <c r="K158" s="17" t="s">
+        <v>744</v>
+      </c>
       <c r="L158" s="17"/>
       <c r="M158" s="17"/>
       <c r="N158" t="s">
-        <v>1123</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B159" s="17" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C159" s="17" t="s">
-        <v>1105</v>
+        <v>1032</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1212</v>
       </c>
       <c r="D159" s="17">
         <v>5</v>
@@ -33963,41 +33982,38 @@
       <c r="F159" s="17">
         <v>50</v>
       </c>
-      <c r="G159" t="s">
-        <v>880</v>
-      </c>
-      <c r="H159" s="17"/>
+      <c r="G159" s="17" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H159" s="17" t="s">
+        <v>1214</v>
+      </c>
       <c r="I159" s="17" t="s">
+        <v>1215</v>
+      </c>
+      <c r="J159" s="17" t="s">
+        <v>1216</v>
+      </c>
+      <c r="K159" s="17" t="s">
+        <v>917</v>
+      </c>
+      <c r="L159" s="17" t="s">
         <v>800</v>
       </c>
-      <c r="J159" s="17" t="s">
-        <v>724</v>
-      </c>
-      <c r="K159" s="17" t="s">
-        <v>794</v>
-      </c>
-      <c r="L159" s="17" t="s">
-        <v>2318</v>
-      </c>
-      <c r="M159" s="17" t="s">
-        <v>896</v>
-      </c>
+      <c r="M159" s="17"/>
       <c r="N159" t="s">
-        <v>1107</v>
-      </c>
-      <c r="P159" t="s">
-        <v>884</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>1092</v>
+        <v>1062</v>
       </c>
       <c r="B160" s="17" t="s">
-        <v>1108</v>
+        <v>1071</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>1109</v>
+        <v>1072</v>
       </c>
       <c r="D160" s="17">
         <v>5</v>
@@ -34006,29 +34022,25 @@
         <v>4</v>
       </c>
       <c r="F160" s="17">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G160" t="s">
-        <v>888</v>
+        <v>921</v>
       </c>
       <c r="H160" s="17"/>
       <c r="I160" s="17" t="s">
-        <v>792</v>
+        <v>2187</v>
       </c>
       <c r="J160" s="17" t="s">
-        <v>1014</v>
+        <v>1073</v>
       </c>
       <c r="K160" s="17" t="s">
-        <v>2593</v>
-      </c>
-      <c r="L160" s="17" t="s">
-        <v>696</v>
-      </c>
-      <c r="M160" s="17" t="s">
-        <v>896</v>
-      </c>
+        <v>1074</v>
+      </c>
+      <c r="L160" s="17"/>
+      <c r="M160" s="17"/>
       <c r="N160" t="s">
-        <v>1019</v>
+        <v>1075</v>
       </c>
       <c r="P160" t="s">
         <v>884</v>
@@ -34036,120 +34048,124 @@
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>897</v>
-      </c>
-      <c r="B161" s="17"/>
-      <c r="C161" s="17" t="s">
-        <v>1129</v>
+        <v>1062</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1268</v>
       </c>
       <c r="D161" s="17">
-        <v>10</v>
-      </c>
-      <c r="E161">
+        <v>5</v>
+      </c>
+      <c r="E161" s="17">
         <v>1</v>
       </c>
-      <c r="F161">
+      <c r="F161" s="17">
         <v>10000</v>
       </c>
-      <c r="G161" t="s">
-        <v>894</v>
-      </c>
-      <c r="H161" s="17"/>
+      <c r="G161" s="17" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H161" s="17" t="s">
+        <v>1270</v>
+      </c>
       <c r="I161" s="17" t="s">
-        <v>706</v>
+        <v>970</v>
       </c>
       <c r="J161" s="17" t="s">
-        <v>788</v>
-      </c>
-      <c r="K161" s="17" t="s">
-        <v>1125</v>
-      </c>
-      <c r="L161" s="17" t="s">
-        <v>642</v>
-      </c>
+        <v>1271</v>
+      </c>
+      <c r="K161" s="17"/>
+      <c r="L161" s="17"/>
       <c r="M161" s="17"/>
       <c r="N161" t="s">
-        <v>902</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>877</v>
+        <v>1092</v>
+      </c>
+      <c r="B162" s="17" t="s">
+        <v>1104</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>2220</v>
+        <v>1105</v>
       </c>
       <c r="D162" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E162" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F162" s="17">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="G162" t="s">
         <v>880</v>
       </c>
       <c r="H162" s="17"/>
       <c r="I162" s="17" t="s">
-        <v>2222</v>
+        <v>800</v>
       </c>
       <c r="J162" s="17" t="s">
-        <v>2221</v>
+        <v>724</v>
       </c>
       <c r="K162" s="17" t="s">
-        <v>2223</v>
+        <v>794</v>
       </c>
       <c r="L162" s="17" t="s">
-        <v>2224</v>
+        <v>2318</v>
       </c>
       <c r="M162" s="17" t="s">
-        <v>2225</v>
+        <v>896</v>
       </c>
       <c r="N162" t="s">
-        <v>2226</v>
-      </c>
-      <c r="O162" t="s">
-        <v>2227</v>
+        <v>1107</v>
+      </c>
+      <c r="P162" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B163" t="s">
-        <v>2580</v>
+        <v>1092</v>
+      </c>
+      <c r="B163" s="17" t="s">
+        <v>1108</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>2581</v>
+        <v>1109</v>
       </c>
       <c r="D163" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E163" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F163" s="17">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G163" t="s">
-        <v>765</v>
-      </c>
-      <c r="I163" t="s">
-        <v>2582</v>
-      </c>
-      <c r="J163" t="s">
-        <v>2588</v>
-      </c>
-      <c r="K163" t="s">
-        <v>661</v>
-      </c>
-      <c r="L163" t="s">
-        <v>1067</v>
+        <v>888</v>
+      </c>
+      <c r="H163" s="17"/>
+      <c r="I163" s="17" t="s">
+        <v>792</v>
+      </c>
+      <c r="J163" s="17" t="s">
+        <v>1014</v>
+      </c>
+      <c r="K163" s="17" t="s">
+        <v>2593</v>
+      </c>
+      <c r="L163" s="17" t="s">
+        <v>696</v>
+      </c>
+      <c r="M163" s="17" t="s">
+        <v>896</v>
       </c>
       <c r="N163" t="s">
-        <v>2583</v>
+        <v>1019</v>
       </c>
       <c r="P163" t="s">
         <v>884</v>
@@ -34157,51 +34173,45 @@
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B164" s="17" t="s">
-        <v>2584</v>
-      </c>
+        <v>897</v>
+      </c>
+      <c r="B164" s="17"/>
       <c r="C164" s="17" t="s">
-        <v>2585</v>
+        <v>1129</v>
       </c>
       <c r="D164" s="17">
-        <v>3</v>
-      </c>
-      <c r="E164" s="17">
-        <v>3</v>
-      </c>
-      <c r="F164" s="17">
-        <v>250</v>
+        <v>10</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>10000</v>
       </c>
       <c r="G164" t="s">
-        <v>887</v>
-      </c>
-      <c r="H164" t="s">
-        <v>904</v>
-      </c>
-      <c r="I164" t="s">
-        <v>1166</v>
-      </c>
-      <c r="J164" t="s">
-        <v>2355</v>
-      </c>
-      <c r="K164" t="s">
-        <v>2586</v>
-      </c>
-      <c r="L164" t="s">
-        <v>2318</v>
-      </c>
+        <v>894</v>
+      </c>
+      <c r="H164" s="17"/>
+      <c r="I164" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="J164" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="K164" s="17" t="s">
+        <v>1125</v>
+      </c>
+      <c r="L164" s="17" t="s">
+        <v>642</v>
+      </c>
+      <c r="M164" s="17"/>
       <c r="N164" t="s">
-        <v>2587</v>
-      </c>
-      <c r="P164" t="s">
-        <v>884</v>
+        <v>902</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:P1" xr:uid="{C182BAC9-BEF5-449C-9FCB-142EFD583D9B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P161">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P164">
       <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>

--- a/INFO D.xlsx
+++ b/INFO D.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin Vuu\Documents\GitHub\Craft-to-Exile-Dissonance-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58141C83-80C2-47F7-B691-8F814C65DA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16825E61-B333-4A08-B50A-A2113621B1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="680" firstSheet="6" activeTab="12" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="680" firstSheet="6" activeTab="14" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -24403,8 +24403,8 @@
   </sheetPr>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27847,8 +27847,8 @@
   </sheetPr>
   <dimension ref="A1:P164"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/INFO D.xlsx
+++ b/INFO D.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin Vuu\Documents\GitHub\Craft-to-Exile-Dissonance-Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Dissonance-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16825E61-B333-4A08-B50A-A2113621B1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE1090A-A348-4956-9EE2-618BF4AE6902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="680" firstSheet="6" activeTab="14" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15885" tabRatio="680" firstSheet="6" activeTab="12" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -24403,8 +24403,8 @@
   </sheetPr>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24513,10 +24513,10 @@
         <v>627</v>
       </c>
       <c r="G3" t="s">
-        <v>628</v>
+        <v>1018</v>
       </c>
       <c r="H3" t="s">
-        <v>629</v>
+        <v>728</v>
       </c>
       <c r="J3" t="s">
         <v>630</v>
@@ -27847,8 +27847,8 @@
   </sheetPr>
   <dimension ref="A1:P164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27944,16 +27944,16 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>897</v>
+        <v>877</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>2163</v>
+        <v>878</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>2167</v>
+        <v>879</v>
       </c>
       <c r="D3" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -27966,18 +27966,18 @@
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="17" t="s">
-        <v>800</v>
+        <v>881</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>744</v>
+        <v>829</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>845</v>
+        <v>882</v>
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
       <c r="N3" t="s">
-        <v>898</v>
+        <v>883</v>
       </c>
       <c r="P3" t="s">
         <v>884</v>
@@ -27985,14 +27985,16 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>897</v>
-      </c>
-      <c r="B4" s="17"/>
+        <v>877</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>885</v>
+      </c>
       <c r="C4" s="17" t="s">
-        <v>1124</v>
+        <v>886</v>
       </c>
       <c r="D4" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -28001,36 +28003,41 @@
         <v>10000</v>
       </c>
       <c r="G4" t="s">
-        <v>894</v>
-      </c>
-      <c r="H4" s="17"/>
+        <v>887</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>888</v>
+      </c>
       <c r="I4" s="17" t="s">
-        <v>706</v>
+        <v>844</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>1125</v>
+        <v>890</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>696</v>
+        <v>628</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>674</v>
+        <v>2175</v>
       </c>
       <c r="M4" s="17"/>
       <c r="N4" t="s">
-        <v>902</v>
+        <v>891</v>
+      </c>
+      <c r="P4" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>897</v>
+        <v>877</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17" t="s">
-        <v>1126</v>
+        <v>1116</v>
       </c>
       <c r="D5" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -28039,77 +28046,80 @@
         <v>10000</v>
       </c>
       <c r="G5" t="s">
-        <v>2177</v>
+        <v>2171</v>
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="17" t="s">
-        <v>706</v>
+        <v>906</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>750</v>
+        <v>710</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>696</v>
+        <v>1117</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>796</v>
+        <v>1118</v>
       </c>
       <c r="M5" s="17"/>
       <c r="N5" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>907</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>908</v>
+        <v>877</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>909</v>
-      </c>
-      <c r="D6">
+        <v>2220</v>
+      </c>
+      <c r="D6" s="17">
+        <v>3</v>
+      </c>
+      <c r="E6" s="17">
         <v>1</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
+      <c r="F6" s="17">
         <v>10000</v>
       </c>
       <c r="G6" t="s">
-        <v>724</v>
+        <v>880</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="17" t="s">
-        <v>910</v>
+        <v>2222</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>911</v>
+        <v>2221</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>890</v>
-      </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
+        <v>2223</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>2224</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>2225</v>
+      </c>
       <c r="N6" t="s">
-        <v>912</v>
-      </c>
-      <c r="P6" t="s">
-        <v>884</v>
+        <v>2226</v>
+      </c>
+      <c r="O6" t="s">
+        <v>2227</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>907</v>
-      </c>
-      <c r="B7" s="17"/>
+        <v>877</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>892</v>
+      </c>
       <c r="C7" s="17" t="s">
-        <v>1130</v>
+        <v>893</v>
       </c>
       <c r="D7" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -28118,36 +28128,41 @@
         <v>10000</v>
       </c>
       <c r="G7" t="s">
-        <v>790</v>
+        <v>2173</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="17" t="s">
-        <v>1046</v>
+        <v>788</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>721</v>
+        <v>803</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>1131</v>
+        <v>853</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>1132</v>
-      </c>
-      <c r="M7" s="17"/>
+        <v>896</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>2174</v>
+      </c>
       <c r="N7" t="s">
-        <v>1133</v>
+        <v>883</v>
+      </c>
+      <c r="P7" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>918</v>
+        <v>877</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17" t="s">
-        <v>1150</v>
+        <v>1119</v>
       </c>
       <c r="D8" s="17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -28156,31 +28171,35 @@
         <v>10000</v>
       </c>
       <c r="G8" t="s">
-        <v>790</v>
-      </c>
-      <c r="H8" s="17"/>
+        <v>2173</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>2176</v>
+      </c>
       <c r="I8" s="17" t="s">
-        <v>721</v>
+        <v>1120</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>752</v>
+        <v>2219</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>1046</v>
+        <v>1122</v>
       </c>
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
       <c r="N8" t="s">
-        <v>1151</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>918</v>
-      </c>
-      <c r="B9" s="17"/>
+        <v>897</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>2163</v>
+      </c>
       <c r="C9" s="17" t="s">
-        <v>1152</v>
+        <v>2167</v>
       </c>
       <c r="D9" s="17">
         <v>1</v>
@@ -28192,116 +28211,115 @@
         <v>10000</v>
       </c>
       <c r="G9" t="s">
-        <v>794</v>
+        <v>880</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="17" t="s">
-        <v>629</v>
+        <v>800</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>711</v>
+        <v>744</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
       <c r="N9" t="s">
-        <v>1153</v>
+        <v>898</v>
+      </c>
+      <c r="P9" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>938</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>939</v>
-      </c>
+        <v>897</v>
+      </c>
+      <c r="B10" s="17"/>
       <c r="C10" s="17" t="s">
-        <v>940</v>
+        <v>1124</v>
       </c>
       <c r="D10" s="17">
         <v>1</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
         <v>10000</v>
       </c>
       <c r="G10" t="s">
-        <v>764</v>
+        <v>894</v>
       </c>
       <c r="H10" s="17"/>
       <c r="I10" s="17" t="s">
-        <v>688</v>
+        <v>706</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>1683</v>
-      </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+        <v>1125</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>696</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>674</v>
+      </c>
       <c r="M10" s="17"/>
       <c r="N10" t="s">
-        <v>941</v>
-      </c>
-      <c r="P10" t="s">
-        <v>884</v>
+        <v>902</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>965</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>966</v>
-      </c>
+        <v>897</v>
+      </c>
+      <c r="B11" s="17"/>
       <c r="C11" s="17" t="s">
-        <v>967</v>
+        <v>1126</v>
       </c>
       <c r="D11" s="17">
         <v>1</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11">
         <v>10000</v>
       </c>
       <c r="G11" t="s">
-        <v>764</v>
+        <v>2177</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="17" t="s">
-        <v>911</v>
+        <v>706</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>636</v>
+        <v>750</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>765</v>
-      </c>
-      <c r="L11" s="17"/>
+        <v>696</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>796</v>
+      </c>
       <c r="M11" s="17"/>
       <c r="N11" t="s">
-        <v>941</v>
-      </c>
-      <c r="P11" t="s">
-        <v>884</v>
+        <v>902</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>975</v>
+        <v>897</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>976</v>
+        <v>2165</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>977</v>
+        <v>2168</v>
       </c>
       <c r="D12" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -28310,24 +28328,24 @@
         <v>10000</v>
       </c>
       <c r="G12" t="s">
-        <v>880</v>
-      </c>
-      <c r="H12" s="17"/>
+        <v>887</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>894</v>
+      </c>
       <c r="I12" s="17" t="s">
-        <v>829</v>
+        <v>706</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>721</v>
+        <v>900</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>732</v>
-      </c>
-      <c r="L12" s="17" t="s">
-        <v>823</v>
-      </c>
+        <v>901</v>
+      </c>
+      <c r="L12" s="17"/>
       <c r="M12" s="17"/>
       <c r="N12" t="s">
-        <v>978</v>
+        <v>902</v>
       </c>
       <c r="P12" t="s">
         <v>884</v>
@@ -28335,13 +28353,16 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>975</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1179</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
+        <v>897</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>2169</v>
+      </c>
+      <c r="D13" s="17">
+        <v>2</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -28350,36 +28371,37 @@
         <v>10000</v>
       </c>
       <c r="G13" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="17" t="s">
-        <v>1176</v>
+        <v>806</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>1135</v>
+        <v>717</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>744</v>
+        <v>903</v>
       </c>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
       <c r="N13" t="s">
-        <v>1178</v>
+        <v>902</v>
+      </c>
+      <c r="P13" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>996</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>997</v>
-      </c>
+        <v>897</v>
+      </c>
+      <c r="B14" s="17"/>
       <c r="C14" s="17" t="s">
-        <v>998</v>
+        <v>1128</v>
       </c>
       <c r="D14" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -28388,78 +28410,76 @@
         <v>10000</v>
       </c>
       <c r="G14" t="s">
-        <v>747</v>
+        <v>2178</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17" t="s">
         <v>706</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>705</v>
+        <v>2180</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>729</v>
-      </c>
-      <c r="L14" s="17"/>
+        <v>1022</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>2179</v>
+      </c>
       <c r="M14" s="17"/>
       <c r="N14" t="s">
         <v>902</v>
       </c>
-      <c r="P14" t="s">
-        <v>884</v>
-      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>1009</v>
+        <v>897</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2160</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>1010</v>
+        <v>2162</v>
       </c>
       <c r="D15" s="17">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>250</v>
+        <v>2</v>
+      </c>
+      <c r="E15" s="17">
+        <v>2</v>
+      </c>
+      <c r="F15" s="17">
+        <v>2500</v>
       </c>
       <c r="G15" t="s">
-        <v>714</v>
+        <v>880</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="17" t="s">
-        <v>2186</v>
+        <v>696</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>688</v>
-      </c>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
+        <v>697</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>747</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>2161</v>
+      </c>
       <c r="M15" s="17"/>
       <c r="N15" t="s">
-        <v>902</v>
-      </c>
-      <c r="P15" t="s">
-        <v>884</v>
+        <v>898</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>1011</v>
-      </c>
+        <v>897</v>
+      </c>
+      <c r="B16" s="17"/>
       <c r="C16" s="17" t="s">
-        <v>1012</v>
+        <v>1127</v>
       </c>
       <c r="D16" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -28468,60 +28488,63 @@
         <v>10000</v>
       </c>
       <c r="G16" t="s">
-        <v>714</v>
+        <v>2171</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="17" t="s">
-        <v>642</v>
+        <v>911</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>890</v>
+        <v>831</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>1013</v>
+        <v>906</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>1014</v>
+        <v>2120</v>
       </c>
       <c r="M16" s="17"/>
       <c r="N16" t="s">
         <v>902</v>
       </c>
-      <c r="P16" t="s">
-        <v>884</v>
-      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1023</v>
+        <v>897</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>1024</v>
+        <v>2166</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D17">
+        <v>2170</v>
+      </c>
+      <c r="D17" s="17">
+        <v>4</v>
+      </c>
+      <c r="E17">
         <v>1</v>
       </c>
-      <c r="E17" s="17">
-        <v>1</v>
-      </c>
-      <c r="F17" s="17">
+      <c r="F17">
         <v>10000</v>
       </c>
       <c r="G17" t="s">
-        <v>705</v>
-      </c>
-      <c r="H17" s="17"/>
+        <v>2171</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>905</v>
+      </c>
       <c r="I17" s="17" t="s">
-        <v>890</v>
+        <v>831</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>1006</v>
-      </c>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
+        <v>750</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>906</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>896</v>
+      </c>
       <c r="M17" s="17"/>
       <c r="N17" t="s">
         <v>902</v>
@@ -28532,327 +28555,318 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>1033</v>
+        <v>897</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2154</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>1034</v>
+        <v>2155</v>
       </c>
       <c r="D18" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E18" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18" s="17">
-        <v>10000</v>
+        <v>250</v>
       </c>
       <c r="G18" t="s">
-        <v>805</v>
+        <v>2156</v>
       </c>
       <c r="H18" s="17"/>
       <c r="I18" s="17" t="s">
-        <v>881</v>
+        <v>2157</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>705</v>
+        <v>949</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>714</v>
+        <v>1067</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>2594</v>
-      </c>
-      <c r="M18" s="17"/>
+        <v>800</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>2158</v>
+      </c>
       <c r="N18" t="s">
-        <v>1035</v>
-      </c>
-      <c r="P18" t="s">
-        <v>884</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1187</v>
+        <v>897</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17" t="s">
+        <v>1129</v>
       </c>
       <c r="D19" s="17">
+        <v>10</v>
+      </c>
+      <c r="E19">
         <v>1</v>
       </c>
-      <c r="E19" s="17">
-        <v>3</v>
-      </c>
-      <c r="F19" s="17">
-        <v>250</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>764</v>
+      <c r="F19">
+        <v>10000</v>
+      </c>
+      <c r="G19" t="s">
+        <v>894</v>
       </c>
       <c r="H19" s="17"/>
       <c r="I19" s="17" t="s">
-        <v>684</v>
+        <v>706</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>765</v>
+        <v>788</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>836</v>
-      </c>
-      <c r="L19" s="17"/>
+        <v>1125</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>642</v>
+      </c>
       <c r="M19" s="17"/>
       <c r="N19" t="s">
-        <v>1188</v>
-      </c>
-      <c r="O19" t="s">
-        <v>884</v>
+        <v>902</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1189</v>
-      </c>
-      <c r="D20" s="17">
+        <v>907</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>908</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>909</v>
+      </c>
+      <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" s="17">
-        <v>3</v>
-      </c>
-      <c r="F20" s="17">
-        <v>250</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>1190</v>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>10000</v>
+      </c>
+      <c r="G20" t="s">
+        <v>724</v>
       </c>
       <c r="H20" s="17"/>
       <c r="I20" s="17" t="s">
-        <v>739</v>
+        <v>910</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>1191</v>
+        <v>911</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>629</v>
-      </c>
-      <c r="L20" s="17" t="s">
-        <v>642</v>
-      </c>
+        <v>890</v>
+      </c>
+      <c r="L20" s="17"/>
       <c r="M20" s="17"/>
       <c r="N20" t="s">
-        <v>1192</v>
+        <v>912</v>
+      </c>
+      <c r="P20" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1219</v>
+        <v>907</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17" t="s">
+        <v>1130</v>
       </c>
       <c r="D21" s="17">
         <v>1</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21">
         <v>10000</v>
       </c>
-      <c r="G21" s="17" t="s">
-        <v>724</v>
+      <c r="G21" t="s">
+        <v>790</v>
       </c>
       <c r="H21" s="17"/>
       <c r="I21" s="17" t="s">
-        <v>949</v>
+        <v>1046</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>661</v>
-      </c>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
+        <v>721</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>1131</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>1132</v>
+      </c>
       <c r="M21" s="17"/>
       <c r="N21" t="s">
-        <v>1078</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>1040</v>
-      </c>
+        <v>907</v>
+      </c>
+      <c r="B22" s="17"/>
       <c r="C22" s="17" t="s">
-        <v>1041</v>
+        <v>1134</v>
       </c>
       <c r="D22" s="17">
+        <v>2</v>
+      </c>
+      <c r="E22">
         <v>1</v>
       </c>
-      <c r="E22" s="17">
-        <v>1</v>
-      </c>
-      <c r="F22" s="17">
+      <c r="F22">
         <v>10000</v>
       </c>
       <c r="G22" t="s">
-        <v>721</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>643</v>
-      </c>
+        <v>794</v>
+      </c>
+      <c r="H22" s="17"/>
       <c r="I22" s="17" t="s">
-        <v>725</v>
+        <v>1135</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>1042</v>
+        <v>1136</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>721</v>
+        <v>910</v>
       </c>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
       <c r="N22" t="s">
-        <v>1043</v>
-      </c>
-      <c r="P22" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>1055</v>
-      </c>
+        <v>907</v>
+      </c>
+      <c r="B23" s="17"/>
       <c r="C23" s="17" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D23">
+        <v>1137</v>
+      </c>
+      <c r="D23" s="17">
+        <v>3</v>
+      </c>
+      <c r="E23">
         <v>1</v>
       </c>
-      <c r="E23" s="17">
-        <v>4</v>
-      </c>
-      <c r="F23" s="17">
-        <v>50</v>
+      <c r="F23">
+        <v>10000</v>
       </c>
       <c r="G23" t="s">
-        <v>1057</v>
+        <v>788</v>
       </c>
       <c r="H23" s="17"/>
       <c r="I23" s="17" t="s">
-        <v>925</v>
+        <v>803</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>2187</v>
+        <v>1138</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>642</v>
+        <v>1139</v>
       </c>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
       <c r="N23" t="s">
-        <v>1058</v>
-      </c>
-      <c r="P23" t="s">
-        <v>884</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>1063</v>
-      </c>
+        <v>907</v>
+      </c>
+      <c r="B24" s="17"/>
       <c r="C24" s="17" t="s">
-        <v>1064</v>
+        <v>1141</v>
       </c>
       <c r="D24" s="17">
+        <v>3</v>
+      </c>
+      <c r="E24">
         <v>1</v>
       </c>
-      <c r="E24" s="17">
-        <v>1</v>
-      </c>
-      <c r="F24" s="17">
+      <c r="F24">
         <v>10000</v>
       </c>
       <c r="G24" t="s">
-        <v>1065</v>
-      </c>
-      <c r="H24" s="17"/>
+        <v>1142</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>1143</v>
+      </c>
       <c r="I24" s="17" t="s">
-        <v>710</v>
+        <v>861</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>1066</v>
+        <v>853</v>
       </c>
       <c r="K24" s="17" t="s">
-        <v>1067</v>
+        <v>2181</v>
       </c>
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
       <c r="N24" t="s">
-        <v>1038</v>
-      </c>
-      <c r="P24" t="s">
-        <v>884</v>
+        <v>1144</v>
+      </c>
+      <c r="O24" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1251</v>
+        <v>907</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17" t="s">
+        <v>1146</v>
       </c>
       <c r="D25" s="17">
-        <v>1</v>
-      </c>
-      <c r="E25" s="17">
         <v>4</v>
       </c>
-      <c r="F25" s="17">
-        <v>50</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>721</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>2500</v>
+      </c>
+      <c r="G25" t="s">
+        <v>808</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="17" t="s">
-        <v>747</v>
-      </c>
-      <c r="J25" s="17" t="s">
-        <v>661</v>
-      </c>
-      <c r="K25" s="17" t="s">
-        <v>705</v>
-      </c>
+        <v>921</v>
+      </c>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
       <c r="N25" t="s">
-        <v>902</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>272</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>1076</v>
-      </c>
+        <v>907</v>
+      </c>
+      <c r="B26" s="17"/>
       <c r="C26" s="17" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
+        <v>1148</v>
+      </c>
+      <c r="D26" s="17">
+        <v>4</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -28861,63 +28875,64 @@
         <v>10000</v>
       </c>
       <c r="G26" t="s">
-        <v>701</v>
-      </c>
-      <c r="H26" s="17"/>
+        <v>790</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>794</v>
+      </c>
       <c r="I26" s="17" t="s">
-        <v>721</v>
+        <v>739</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>629</v>
+        <v>724</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>674</v>
+        <v>992</v>
       </c>
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
       <c r="N26" t="s">
-        <v>1078</v>
-      </c>
-      <c r="P26" t="s">
-        <v>884</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>272</v>
+        <v>907</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>1079</v>
+        <v>913</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D27">
+        <v>914</v>
+      </c>
+      <c r="D27" s="17">
+        <v>5</v>
+      </c>
+      <c r="E27" s="17">
+        <v>4</v>
+      </c>
+      <c r="F27" s="17">
         <v>1</v>
       </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>10000</v>
-      </c>
       <c r="G27" t="s">
-        <v>701</v>
+        <v>724</v>
       </c>
       <c r="H27" s="17"/>
       <c r="I27" s="17" t="s">
-        <v>1005</v>
+        <v>915</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>784</v>
+        <v>916</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>823</v>
-      </c>
-      <c r="L27" s="17"/>
+        <v>800</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>917</v>
+      </c>
       <c r="M27" s="17"/>
       <c r="N27" t="s">
-        <v>1078</v>
+        <v>912</v>
       </c>
       <c r="P27" t="s">
         <v>884</v>
@@ -28925,15 +28940,13 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>272</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>1081</v>
-      </c>
+        <v>918</v>
+      </c>
+      <c r="B28" s="17"/>
       <c r="C28" s="17" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D28">
+        <v>1150</v>
+      </c>
+      <c r="D28" s="17">
         <v>1</v>
       </c>
       <c r="E28">
@@ -28943,108 +28956,103 @@
         <v>10000</v>
       </c>
       <c r="G28" t="s">
-        <v>701</v>
+        <v>790</v>
       </c>
       <c r="H28" s="17"/>
       <c r="I28" s="17" t="s">
-        <v>890</v>
+        <v>721</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="K28" s="17" t="s">
-        <v>736</v>
+        <v>1046</v>
       </c>
       <c r="L28" s="17"/>
       <c r="M28" s="17"/>
       <c r="N28" t="s">
-        <v>1078</v>
-      </c>
-      <c r="P28" t="s">
-        <v>884</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1092</v>
-      </c>
+        <v>918</v>
+      </c>
+      <c r="B29" s="17"/>
       <c r="C29" s="17" t="s">
-        <v>1296</v>
+        <v>1152</v>
       </c>
       <c r="D29" s="17">
         <v>1</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29">
         <v>1</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29">
         <v>10000</v>
       </c>
       <c r="G29" t="s">
-        <v>2176</v>
+        <v>794</v>
       </c>
       <c r="H29" s="17"/>
       <c r="I29" s="17" t="s">
-        <v>710</v>
+        <v>629</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>1194</v>
+        <v>711</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>1282</v>
-      </c>
-      <c r="L29" s="17" t="s">
-        <v>2175</v>
-      </c>
+        <v>858</v>
+      </c>
+      <c r="L29" s="17"/>
       <c r="M29" s="17"/>
       <c r="N29" t="s">
-        <v>1297</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>1298</v>
+        <v>918</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1154</v>
       </c>
       <c r="D30" s="17">
+        <v>2</v>
+      </c>
+      <c r="E30">
         <v>1</v>
       </c>
-      <c r="E30" s="17">
-        <v>1</v>
-      </c>
-      <c r="F30" s="17">
+      <c r="F30">
         <v>10000</v>
       </c>
       <c r="G30" t="s">
-        <v>2183</v>
-      </c>
-      <c r="H30" s="17"/>
+        <v>764</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>721</v>
+      </c>
       <c r="I30" s="17" t="s">
-        <v>674</v>
+        <v>1155</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>787</v>
+        <v>725</v>
       </c>
       <c r="K30" s="17" t="s">
-        <v>643</v>
+        <v>861</v>
       </c>
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>
       <c r="N30" t="s">
-        <v>1195</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>877</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>878</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>879</v>
+        <v>918</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1156</v>
       </c>
       <c r="D31" s="17">
         <v>2</v>
@@ -29056,65 +29064,58 @@
         <v>10000</v>
       </c>
       <c r="G31" t="s">
-        <v>880</v>
+        <v>788</v>
       </c>
       <c r="H31" s="17"/>
       <c r="I31" s="17" t="s">
-        <v>881</v>
+        <v>711</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>829</v>
+        <v>1157</v>
       </c>
       <c r="K31" s="17" t="s">
-        <v>882</v>
+        <v>642</v>
       </c>
       <c r="L31" s="17"/>
       <c r="M31" s="17"/>
       <c r="N31" t="s">
-        <v>883</v>
-      </c>
-      <c r="P31" t="s">
-        <v>884</v>
+        <v>978</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>897</v>
+        <v>918</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>2165</v>
+        <v>919</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>2168</v>
-      </c>
-      <c r="D32" s="17">
-        <v>2</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>10000</v>
+        <v>920</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" s="17">
+        <v>3</v>
+      </c>
+      <c r="F32" s="17">
+        <v>250</v>
       </c>
       <c r="G32" t="s">
-        <v>887</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>894</v>
-      </c>
+        <v>656</v>
+      </c>
+      <c r="H32" s="17"/>
       <c r="I32" s="17" t="s">
-        <v>706</v>
+        <v>656</v>
       </c>
       <c r="J32" s="17" t="s">
-        <v>900</v>
-      </c>
-      <c r="K32" s="17" t="s">
-        <v>901</v>
-      </c>
+        <v>2182</v>
+      </c>
+      <c r="K32" s="17"/>
       <c r="L32" s="17"/>
       <c r="M32" s="17"/>
       <c r="N32" t="s">
-        <v>902</v>
+        <v>922</v>
       </c>
       <c r="P32" t="s">
         <v>884</v>
@@ -29122,40 +29123,40 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>897</v>
+        <v>918</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>2164</v>
+        <v>923</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>2169</v>
-      </c>
-      <c r="D33" s="17">
-        <v>2</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>10000</v>
+        <v>924</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33" s="17">
+        <v>3</v>
+      </c>
+      <c r="F33" s="17">
+        <v>250</v>
       </c>
       <c r="G33" t="s">
-        <v>2172</v>
+        <v>903</v>
       </c>
       <c r="H33" s="17"/>
       <c r="I33" s="17" t="s">
-        <v>806</v>
+        <v>691</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>717</v>
+        <v>925</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>903</v>
+        <v>688</v>
       </c>
       <c r="L33" s="17"/>
       <c r="M33" s="17"/>
       <c r="N33" t="s">
-        <v>902</v>
+        <v>926</v>
       </c>
       <c r="P33" t="s">
         <v>884</v>
@@ -29163,188 +29164,207 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>897</v>
-      </c>
-      <c r="B34" s="17"/>
+        <v>918</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>923</v>
+      </c>
       <c r="C34" s="17" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D34" s="17">
-        <v>2</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>10000</v>
+        <v>927</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34" s="17">
+        <v>3</v>
+      </c>
+      <c r="F34" s="17">
+        <v>250</v>
       </c>
       <c r="G34" t="s">
-        <v>2178</v>
+        <v>928</v>
       </c>
       <c r="H34" s="17"/>
       <c r="I34" s="17" t="s">
-        <v>706</v>
+        <v>691</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>2180</v>
+        <v>925</v>
       </c>
       <c r="K34" s="17" t="s">
-        <v>1022</v>
-      </c>
-      <c r="L34" s="17" t="s">
-        <v>2179</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="L34" s="17"/>
       <c r="M34" s="17"/>
       <c r="N34" t="s">
-        <v>902</v>
+        <v>929</v>
+      </c>
+      <c r="P34" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>897</v>
-      </c>
-      <c r="B35" t="s">
-        <v>2160</v>
+        <v>918</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>923</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>2162</v>
-      </c>
-      <c r="D35" s="17">
-        <v>2</v>
+        <v>930</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
       </c>
       <c r="E35" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" s="17">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G35" t="s">
-        <v>880</v>
+        <v>841</v>
       </c>
       <c r="H35" s="17"/>
       <c r="I35" s="17" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>697</v>
+        <v>925</v>
       </c>
       <c r="K35" s="17" t="s">
-        <v>747</v>
-      </c>
-      <c r="L35" s="17" t="s">
-        <v>2161</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="L35" s="17"/>
       <c r="M35" s="17"/>
       <c r="N35" t="s">
-        <v>898</v>
+        <v>931</v>
+      </c>
+      <c r="P35" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>907</v>
-      </c>
-      <c r="B36" s="17"/>
+        <v>918</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>923</v>
+      </c>
       <c r="C36" s="17" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D36" s="17">
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>10000</v>
+        <v>932</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36" s="17">
+        <v>3</v>
+      </c>
+      <c r="F36" s="17">
+        <v>250</v>
       </c>
       <c r="G36" t="s">
-        <v>794</v>
+        <v>840</v>
       </c>
       <c r="H36" s="17"/>
       <c r="I36" s="17" t="s">
-        <v>1135</v>
+        <v>691</v>
       </c>
       <c r="J36" s="17" t="s">
-        <v>1136</v>
+        <v>925</v>
       </c>
       <c r="K36" s="17" t="s">
-        <v>910</v>
+        <v>688</v>
       </c>
       <c r="L36" s="17"/>
       <c r="M36" s="17"/>
       <c r="N36" t="s">
-        <v>891</v>
+        <v>933</v>
+      </c>
+      <c r="P36" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>918</v>
       </c>
-      <c r="C37" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D37" s="17">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>10000</v>
+      <c r="B37" s="17" t="s">
+        <v>923</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>934</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37" s="17">
+        <v>3</v>
+      </c>
+      <c r="F37" s="17">
+        <v>250</v>
       </c>
       <c r="G37" t="s">
-        <v>764</v>
-      </c>
-      <c r="H37" s="17" t="s">
-        <v>721</v>
-      </c>
+        <v>845</v>
+      </c>
+      <c r="H37" s="17"/>
       <c r="I37" s="17" t="s">
-        <v>1155</v>
+        <v>691</v>
       </c>
       <c r="J37" s="17" t="s">
-        <v>725</v>
+        <v>925</v>
       </c>
       <c r="K37" s="17" t="s">
-        <v>861</v>
+        <v>688</v>
       </c>
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>
       <c r="N37" t="s">
-        <v>1153</v>
+        <v>935</v>
+      </c>
+      <c r="P37" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>918</v>
       </c>
-      <c r="C38" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D38" s="17">
-        <v>2</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>10000</v>
+      <c r="B38" s="17" t="s">
+        <v>923</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>936</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38" s="17">
+        <v>3</v>
+      </c>
+      <c r="F38" s="17">
+        <v>250</v>
       </c>
       <c r="G38" t="s">
-        <v>788</v>
+        <v>823</v>
       </c>
       <c r="H38" s="17"/>
       <c r="I38" s="17" t="s">
-        <v>711</v>
+        <v>691</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>1157</v>
+        <v>925</v>
       </c>
       <c r="K38" s="17" t="s">
-        <v>642</v>
+        <v>688</v>
       </c>
       <c r="L38" s="17"/>
       <c r="M38" s="17"/>
       <c r="N38" t="s">
-        <v>978</v>
+        <v>937</v>
+      </c>
+      <c r="P38" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -29500,13 +29520,13 @@
         <v>938</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D43" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" s="17">
         <v>1</v>
@@ -29515,18 +29535,16 @@
         <v>10000</v>
       </c>
       <c r="G43" t="s">
-        <v>2142</v>
+        <v>764</v>
       </c>
       <c r="H43" s="17"/>
       <c r="I43" s="17" t="s">
-        <v>642</v>
+        <v>688</v>
       </c>
       <c r="J43" s="17" t="s">
-        <v>788</v>
-      </c>
-      <c r="K43" s="17" t="s">
-        <v>944</v>
-      </c>
+        <v>1683</v>
+      </c>
+      <c r="K43" s="17"/>
       <c r="L43" s="17"/>
       <c r="M43" s="17"/>
       <c r="N43" t="s">
@@ -29538,62 +29556,56 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>958</v>
+        <v>938</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>959</v>
+        <v>942</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>960</v>
-      </c>
-      <c r="D44">
+        <v>943</v>
+      </c>
+      <c r="D44" s="17">
         <v>2</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="17">
         <v>1</v>
       </c>
       <c r="F44">
         <v>10000</v>
       </c>
       <c r="G44" t="s">
-        <v>764</v>
+        <v>2142</v>
       </c>
       <c r="H44" s="17"/>
       <c r="I44" s="17" t="s">
         <v>642</v>
       </c>
       <c r="J44" s="17" t="s">
-        <v>1683</v>
+        <v>788</v>
       </c>
       <c r="K44" s="17" t="s">
-        <v>853</v>
+        <v>944</v>
       </c>
       <c r="L44" s="17"/>
       <c r="M44" s="17"/>
       <c r="N44" t="s">
         <v>941</v>
       </c>
-      <c r="O44" t="s">
-        <v>884</v>
-      </c>
       <c r="P44" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>958</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>961</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>962</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45">
+        <v>938</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D45" s="17">
+        <v>3</v>
+      </c>
+      <c r="E45" s="17">
         <v>1</v>
       </c>
       <c r="F45">
@@ -29604,59 +29616,60 @@
       </c>
       <c r="H45" s="17"/>
       <c r="I45" s="17" t="s">
-        <v>890</v>
+        <v>1170</v>
       </c>
       <c r="J45" s="17" t="s">
-        <v>1683</v>
+        <v>732</v>
       </c>
       <c r="K45" s="17" t="s">
-        <v>861</v>
-      </c>
-      <c r="L45" s="17"/>
+        <v>744</v>
+      </c>
+      <c r="L45" s="17" t="s">
+        <v>1171</v>
+      </c>
       <c r="M45" s="17"/>
       <c r="N45" t="s">
         <v>941</v>
       </c>
-      <c r="P45" t="s">
-        <v>884</v>
-      </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>958</v>
+        <v>938</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>963</v>
+        <v>945</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>964</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>10000</v>
+        <v>946</v>
+      </c>
+      <c r="D46" s="17">
+        <v>4</v>
+      </c>
+      <c r="E46" s="17">
+        <v>3</v>
+      </c>
+      <c r="F46" s="17">
+        <v>250</v>
       </c>
       <c r="G46" t="s">
         <v>764</v>
       </c>
       <c r="H46" s="17"/>
       <c r="I46" s="17" t="s">
-        <v>629</v>
+        <v>947</v>
       </c>
       <c r="J46" s="17" t="s">
-        <v>1683</v>
+        <v>948</v>
       </c>
       <c r="K46" s="17" t="s">
-        <v>858</v>
-      </c>
-      <c r="L46" s="17"/>
+        <v>1239</v>
+      </c>
+      <c r="L46" s="17" t="s">
+        <v>1086</v>
+      </c>
       <c r="M46" s="17"/>
       <c r="N46" t="s">
-        <v>941</v>
+        <v>951</v>
       </c>
       <c r="P46" t="s">
         <v>884</v>
@@ -29664,86 +29677,104 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>975</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-      <c r="E47">
+        <v>938</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>952</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>953</v>
+      </c>
+      <c r="D47" s="17">
+        <v>5</v>
+      </c>
+      <c r="E47" s="17">
         <v>4</v>
       </c>
       <c r="F47">
         <v>50</v>
       </c>
       <c r="G47" t="s">
-        <v>2176</v>
+        <v>2142</v>
       </c>
       <c r="H47" s="17"/>
       <c r="I47" s="17" t="s">
-        <v>691</v>
+        <v>954</v>
       </c>
       <c r="J47" s="17" t="s">
-        <v>2184</v>
+        <v>629</v>
       </c>
       <c r="K47" s="17" t="s">
-        <v>1014</v>
-      </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
+        <v>955</v>
+      </c>
+      <c r="L47" s="17" t="s">
+        <v>956</v>
+      </c>
+      <c r="M47" s="17" t="s">
+        <v>765</v>
+      </c>
       <c r="N47" t="s">
-        <v>1178</v>
+        <v>957</v>
+      </c>
+      <c r="P47" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>975</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1182</v>
+        <v>958</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>959</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>960</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
       <c r="E48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="G48" t="s">
-        <v>2173</v>
-      </c>
-      <c r="H48" s="17" t="s">
-        <v>2185</v>
-      </c>
+        <v>764</v>
+      </c>
+      <c r="H48" s="17"/>
       <c r="I48" s="17" t="s">
-        <v>788</v>
+        <v>642</v>
       </c>
       <c r="J48" s="17" t="s">
-        <v>1177</v>
+        <v>1683</v>
       </c>
       <c r="K48" s="17" t="s">
-        <v>2590</v>
-      </c>
-      <c r="L48" s="17" t="s">
-        <v>896</v>
-      </c>
+        <v>853</v>
+      </c>
+      <c r="L48" s="17"/>
       <c r="M48" s="17"/>
       <c r="N48" t="s">
-        <v>1178</v>
+        <v>941</v>
+      </c>
+      <c r="O48" t="s">
+        <v>884</v>
+      </c>
+      <c r="P48" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>975</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D49" s="17">
+        <v>958</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>961</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>962</v>
+      </c>
+      <c r="D49">
         <v>2</v>
       </c>
       <c r="E49">
@@ -29753,190 +29784,174 @@
         <v>10000</v>
       </c>
       <c r="G49" t="s">
-        <v>887</v>
+        <v>764</v>
       </c>
       <c r="H49" s="17"/>
       <c r="I49" s="17" t="s">
-        <v>882</v>
+        <v>890</v>
       </c>
       <c r="J49" s="17" t="s">
-        <v>717</v>
+        <v>1683</v>
       </c>
       <c r="K49" s="17" t="s">
-        <v>901</v>
+        <v>861</v>
       </c>
       <c r="L49" s="17"/>
       <c r="M49" s="17"/>
       <c r="N49" t="s">
-        <v>883</v>
+        <v>941</v>
+      </c>
+      <c r="P49" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>987</v>
+        <v>958</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>988</v>
+        <v>963</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>989</v>
-      </c>
-      <c r="D50" s="17">
+        <v>964</v>
+      </c>
+      <c r="D50">
         <v>2</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="G50" t="s">
-        <v>714</v>
+        <v>764</v>
       </c>
       <c r="H50" s="17"/>
       <c r="I50" s="17" t="s">
-        <v>656</v>
+        <v>629</v>
       </c>
       <c r="J50" s="17" t="s">
-        <v>642</v>
+        <v>1683</v>
       </c>
       <c r="K50" s="17" t="s">
-        <v>733</v>
-      </c>
-      <c r="L50" s="17" t="s">
-        <v>744</v>
-      </c>
+        <v>858</v>
+      </c>
+      <c r="L50" s="17"/>
       <c r="M50" s="17"/>
       <c r="N50" t="s">
-        <v>902</v>
+        <v>941</v>
       </c>
       <c r="P50" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>987</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>990</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>991</v>
-      </c>
-      <c r="D51" s="9">
-        <v>2</v>
-      </c>
-      <c r="E51" s="2">
+      <c r="A51" t="s">
+        <v>958</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
         <v>1</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51">
         <v>10000</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9" t="s">
-        <v>805</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>705</v>
-      </c>
-      <c r="K51" s="9" t="s">
-        <v>992</v>
-      </c>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="2" t="s">
-        <v>902</v>
-      </c>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2" t="s">
-        <v>884</v>
+      <c r="G51" t="s">
+        <v>764</v>
+      </c>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17" t="s">
+        <v>836</v>
+      </c>
+      <c r="J51" s="17" t="s">
+        <v>643</v>
+      </c>
+      <c r="K51" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>996</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>999</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>1000</v>
+        <v>958</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1173</v>
       </c>
       <c r="D52" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E52" s="17">
         <v>1</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F52">
         <v>10000</v>
       </c>
       <c r="G52" t="s">
-        <v>714</v>
+        <v>764</v>
       </c>
       <c r="H52" s="17"/>
       <c r="I52" s="17" t="s">
-        <v>808</v>
+        <v>739</v>
       </c>
       <c r="J52" s="17" t="s">
-        <v>691</v>
+        <v>1018</v>
       </c>
       <c r="K52" s="17" t="s">
-        <v>684</v>
-      </c>
-      <c r="L52" s="17" t="s">
-        <v>2194</v>
-      </c>
+        <v>1171</v>
+      </c>
+      <c r="L52" s="17"/>
       <c r="M52" s="17"/>
       <c r="N52" t="s">
-        <v>902</v>
-      </c>
-      <c r="P52" t="s">
-        <v>884</v>
+        <v>941</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1008</v>
+        <v>965</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>1015</v>
+        <v>966</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>1016</v>
+        <v>967</v>
       </c>
       <c r="D53" s="17">
-        <v>2</v>
-      </c>
-      <c r="E53">
         <v>1</v>
       </c>
-      <c r="F53">
+      <c r="E53" s="17">
+        <v>1</v>
+      </c>
+      <c r="F53" s="17">
         <v>10000</v>
       </c>
       <c r="G53" t="s">
-        <v>747</v>
+        <v>764</v>
       </c>
       <c r="H53" s="17"/>
       <c r="I53" s="17" t="s">
-        <v>691</v>
+        <v>911</v>
       </c>
       <c r="J53" s="17" t="s">
-        <v>1017</v>
+        <v>636</v>
       </c>
       <c r="K53" s="17" t="s">
-        <v>1018</v>
-      </c>
-      <c r="L53" s="17" t="s">
-        <v>823</v>
-      </c>
+        <v>765</v>
+      </c>
+      <c r="L53" s="17"/>
       <c r="M53" s="17"/>
       <c r="N53" t="s">
-        <v>1019</v>
+        <v>941</v>
       </c>
       <c r="P53" t="s">
         <v>884</v>
@@ -29944,42 +29959,42 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1023</v>
+        <v>965</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>1026</v>
+        <v>968</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D54">
+        <v>969</v>
+      </c>
+      <c r="D54" s="17">
+        <v>3</v>
+      </c>
+      <c r="E54">
         <v>2</v>
       </c>
-      <c r="E54" s="17">
-        <v>2</v>
-      </c>
-      <c r="F54" s="17">
+      <c r="F54">
         <v>2500</v>
       </c>
       <c r="G54" t="s">
-        <v>714</v>
+        <v>764</v>
       </c>
       <c r="H54" s="17"/>
       <c r="I54" s="17" t="s">
-        <v>744</v>
+        <v>643</v>
       </c>
       <c r="J54" s="17" t="s">
-        <v>674</v>
+        <v>970</v>
       </c>
       <c r="K54" s="17" t="s">
-        <v>787</v>
+        <v>2179</v>
       </c>
       <c r="L54" s="17" t="s">
-        <v>910</v>
+        <v>971</v>
       </c>
       <c r="M54" s="17"/>
       <c r="N54" t="s">
-        <v>902</v>
+        <v>972</v>
       </c>
       <c r="P54" t="s">
         <v>884</v>
@@ -29987,36 +30002,42 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1032</v>
+        <v>965</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>1036</v>
+        <v>973</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>1037</v>
+        <v>974</v>
       </c>
       <c r="D55" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E55" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F55" s="17">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="G55" t="s">
-        <v>692</v>
+        <v>764</v>
       </c>
       <c r="H55" s="17"/>
       <c r="I55" s="17" t="s">
-        <v>2187</v>
-      </c>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
+        <v>643</v>
+      </c>
+      <c r="J55" s="17" t="s">
+        <v>691</v>
+      </c>
+      <c r="K55" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="L55" s="17" t="s">
+        <v>2194</v>
+      </c>
       <c r="M55" s="17"/>
       <c r="N55" t="s">
-        <v>1038</v>
+        <v>941</v>
       </c>
       <c r="P55" t="s">
         <v>884</v>
@@ -30024,13 +30045,16 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C56" t="s">
-        <v>1193</v>
+        <v>975</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>976</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>977</v>
       </c>
       <c r="D56" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -30039,469 +30063,498 @@
         <v>10000</v>
       </c>
       <c r="G56" t="s">
-        <v>790</v>
+        <v>880</v>
       </c>
       <c r="H56" s="17"/>
       <c r="I56" s="17" t="s">
+        <v>829</v>
+      </c>
+      <c r="J56" s="17" t="s">
         <v>721</v>
       </c>
-      <c r="J56" s="17" t="s">
+      <c r="K56" s="17" t="s">
         <v>732</v>
       </c>
-      <c r="K56" s="17" t="s">
-        <v>755</v>
-      </c>
       <c r="L56" s="17" t="s">
-        <v>1194</v>
+        <v>823</v>
       </c>
       <c r="M56" s="17"/>
       <c r="N56" t="s">
-        <v>1195</v>
+        <v>978</v>
+      </c>
+      <c r="P56" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1032</v>
+        <v>975</v>
       </c>
       <c r="C57" t="s">
-        <v>1196</v>
-      </c>
-      <c r="D57" s="17">
-        <v>2</v>
-      </c>
-      <c r="E57" s="17">
+        <v>1179</v>
+      </c>
+      <c r="D57">
         <v>1</v>
       </c>
-      <c r="F57" s="17">
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
         <v>10000</v>
       </c>
-      <c r="G57" s="17" t="s">
-        <v>792</v>
+      <c r="G57" t="s">
+        <v>2171</v>
       </c>
       <c r="H57" s="17"/>
       <c r="I57" s="17" t="s">
-        <v>621</v>
+        <v>1176</v>
       </c>
       <c r="J57" s="17" t="s">
-        <v>636</v>
+        <v>1135</v>
       </c>
       <c r="K57" s="17" t="s">
-        <v>725</v>
-      </c>
-      <c r="L57" s="17" t="s">
-        <v>1017</v>
-      </c>
-      <c r="M57" s="17" t="s">
-        <v>1197</v>
-      </c>
+        <v>744</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
       <c r="N57" t="s">
-        <v>1198</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1032</v>
+        <v>975</v>
       </c>
       <c r="C58" t="s">
-        <v>1199</v>
-      </c>
-      <c r="D58" s="17">
+        <v>1181</v>
+      </c>
+      <c r="D58">
         <v>2</v>
       </c>
-      <c r="E58" s="17">
-        <v>3</v>
-      </c>
-      <c r="F58" s="17">
-        <v>250</v>
-      </c>
-      <c r="G58" s="17" t="s">
-        <v>1200</v>
+      <c r="E58">
+        <v>4</v>
+      </c>
+      <c r="F58">
+        <v>50</v>
+      </c>
+      <c r="G58" t="s">
+        <v>2176</v>
       </c>
       <c r="H58" s="17"/>
       <c r="I58" s="17" t="s">
-        <v>816</v>
+        <v>691</v>
       </c>
       <c r="J58" s="17" t="s">
-        <v>1201</v>
+        <v>2184</v>
       </c>
       <c r="K58" s="17" t="s">
-        <v>1202</v>
+        <v>1014</v>
       </c>
       <c r="L58" s="17"/>
       <c r="M58" s="17"/>
       <c r="N58" t="s">
-        <v>1203</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B59" t="s">
-        <v>2580</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>2581</v>
-      </c>
-      <c r="D59" s="17">
+        <v>975</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D59">
         <v>2</v>
       </c>
-      <c r="E59" s="17">
-        <v>2</v>
-      </c>
-      <c r="F59" s="17">
-        <v>2500</v>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <v>50</v>
       </c>
       <c r="G59" t="s">
-        <v>765</v>
-      </c>
-      <c r="I59" t="s">
-        <v>2582</v>
-      </c>
-      <c r="J59" t="s">
-        <v>2588</v>
-      </c>
-      <c r="K59" t="s">
-        <v>661</v>
-      </c>
-      <c r="L59" t="s">
-        <v>1067</v>
-      </c>
+        <v>2173</v>
+      </c>
+      <c r="H59" s="17" t="s">
+        <v>2185</v>
+      </c>
+      <c r="I59" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="J59" s="17" t="s">
+        <v>1177</v>
+      </c>
+      <c r="K59" s="17" t="s">
+        <v>2590</v>
+      </c>
+      <c r="L59" s="17" t="s">
+        <v>896</v>
+      </c>
+      <c r="M59" s="17"/>
       <c r="N59" t="s">
-        <v>2583</v>
-      </c>
-      <c r="P59" t="s">
-        <v>884</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1218</v>
+        <v>975</v>
       </c>
       <c r="C60" t="s">
-        <v>1220</v>
+        <v>1183</v>
       </c>
       <c r="D60" s="17">
         <v>2</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E60">
         <v>1</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F60">
         <v>10000</v>
       </c>
-      <c r="G60" s="17" t="s">
-        <v>721</v>
+      <c r="G60" t="s">
+        <v>887</v>
       </c>
       <c r="H60" s="17"/>
       <c r="I60" s="17" t="s">
-        <v>1221</v>
+        <v>882</v>
       </c>
       <c r="J60" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="K60" s="17" t="s">
         <v>901</v>
-      </c>
-      <c r="K60" s="17" t="s">
-        <v>629</v>
       </c>
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>
       <c r="N60" t="s">
-        <v>1133</v>
+        <v>883</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1218</v>
+        <v>975</v>
       </c>
       <c r="C61" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D61" s="17">
-        <v>2</v>
-      </c>
-      <c r="E61" s="17">
-        <v>1</v>
-      </c>
-      <c r="F61" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G61" s="17" t="s">
-        <v>721</v>
+        <v>1174</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61">
+        <v>250</v>
+      </c>
+      <c r="G61" t="s">
+        <v>2183</v>
       </c>
       <c r="H61" s="17"/>
       <c r="I61" s="17" t="s">
-        <v>1223</v>
+        <v>826</v>
       </c>
       <c r="J61" s="17" t="s">
-        <v>1125</v>
+        <v>1253</v>
       </c>
       <c r="K61" s="17" t="s">
-        <v>901</v>
-      </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
+        <v>1238</v>
+      </c>
+      <c r="L61" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="M61" s="17" t="s">
+        <v>2579</v>
+      </c>
       <c r="N61" t="s">
-        <v>891</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>1045</v>
+        <v>975</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1184</v>
       </c>
       <c r="D62" s="17">
-        <v>2</v>
-      </c>
-      <c r="E62" s="17">
+        <v>3</v>
+      </c>
+      <c r="E62">
         <v>1</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F62">
         <v>10000</v>
       </c>
       <c r="G62" t="s">
-        <v>721</v>
+        <v>904</v>
       </c>
       <c r="H62" s="17"/>
       <c r="I62" s="17" t="s">
-        <v>954</v>
+        <v>831</v>
       </c>
       <c r="J62" s="17" t="s">
-        <v>643</v>
+        <v>697</v>
       </c>
       <c r="K62" s="17" t="s">
-        <v>1046</v>
+        <v>718</v>
       </c>
       <c r="L62" s="17"/>
       <c r="M62" s="17"/>
       <c r="N62" t="s">
-        <v>912</v>
-      </c>
-      <c r="P62" t="s">
-        <v>884</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C63" t="s">
-        <v>1226</v>
+        <v>975</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>979</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>980</v>
       </c>
       <c r="D63" s="17">
-        <v>2</v>
-      </c>
-      <c r="E63" s="17">
+        <v>4</v>
+      </c>
+      <c r="E63">
         <v>1</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F63">
         <v>10000</v>
       </c>
-      <c r="G63" s="17" t="s">
-        <v>721</v>
+      <c r="G63" t="s">
+        <v>888</v>
       </c>
       <c r="H63" s="17"/>
       <c r="I63" s="17" t="s">
+        <v>910</v>
+      </c>
+      <c r="J63" s="17" t="s">
+        <v>806</v>
+      </c>
+      <c r="K63" s="17" t="s">
+        <v>861</v>
+      </c>
+      <c r="L63" s="17" t="s">
         <v>642</v>
       </c>
-      <c r="J63" s="17" t="s">
-        <v>788</v>
-      </c>
-      <c r="K63" s="17" t="s">
-        <v>1227</v>
-      </c>
-      <c r="L63" s="17"/>
       <c r="M63" s="17"/>
       <c r="N63" t="s">
-        <v>951</v>
+        <v>978</v>
+      </c>
+      <c r="P63" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1228</v>
+        <v>975</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>982</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>983</v>
       </c>
       <c r="D64" s="17">
-        <v>2</v>
-      </c>
-      <c r="E64" s="17">
+        <v>5</v>
+      </c>
+      <c r="E64">
         <v>1</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F64">
         <v>10000</v>
       </c>
-      <c r="G64" s="17" t="s">
-        <v>724</v>
+      <c r="G64" t="s">
+        <v>904</v>
       </c>
       <c r="H64" s="17"/>
       <c r="I64" s="17" t="s">
-        <v>1229</v>
+        <v>859</v>
       </c>
       <c r="J64" s="17" t="s">
-        <v>661</v>
+        <v>2591</v>
       </c>
       <c r="K64" s="17" t="s">
-        <v>818</v>
-      </c>
-      <c r="L64" s="17"/>
+        <v>2592</v>
+      </c>
+      <c r="L64" s="17" t="s">
+        <v>841</v>
+      </c>
       <c r="M64" s="17"/>
       <c r="N64" t="s">
-        <v>1195</v>
+        <v>986</v>
+      </c>
+      <c r="P64" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C65" t="s">
-        <v>1230</v>
+        <v>987</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>988</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>989</v>
       </c>
       <c r="D65" s="17">
         <v>2</v>
       </c>
-      <c r="E65" s="17">
-        <v>1</v>
-      </c>
-      <c r="F65" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G65" s="17" t="s">
-        <v>721</v>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <v>2500</v>
+      </c>
+      <c r="G65" t="s">
+        <v>714</v>
       </c>
       <c r="H65" s="17"/>
       <c r="I65" s="17" t="s">
-        <v>725</v>
+        <v>656</v>
       </c>
       <c r="J65" s="17" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
       <c r="K65" s="17" t="s">
-        <v>1166</v>
-      </c>
-      <c r="L65" s="17"/>
+        <v>733</v>
+      </c>
+      <c r="L65" s="17" t="s">
+        <v>744</v>
+      </c>
       <c r="M65" s="17"/>
       <c r="N65" t="s">
-        <v>951</v>
+        <v>902</v>
+      </c>
+      <c r="P65" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>1231</v>
+        <v>987</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>990</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>991</v>
       </c>
       <c r="D66" s="24">
         <v>2</v>
       </c>
-      <c r="E66" s="24">
+      <c r="E66" s="7">
         <v>1</v>
       </c>
-      <c r="F66" s="24">
+      <c r="F66" s="7">
         <v>10000</v>
       </c>
-      <c r="G66" s="24" t="s">
-        <v>721</v>
+      <c r="G66" s="7" t="s">
+        <v>714</v>
       </c>
       <c r="H66" s="24"/>
       <c r="I66" s="24" t="s">
-        <v>1232</v>
+        <v>805</v>
       </c>
       <c r="J66" s="24" t="s">
-        <v>725</v>
+        <v>705</v>
       </c>
       <c r="K66" s="24" t="s">
-        <v>818</v>
+        <v>992</v>
       </c>
       <c r="L66" s="24"/>
       <c r="M66" s="24"/>
       <c r="N66" s="7" t="s">
-        <v>951</v>
+        <v>902</v>
       </c>
       <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
+      <c r="P66" s="7" t="s">
+        <v>884</v>
+      </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>1233</v>
+        <v>987</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>993</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>994</v>
       </c>
       <c r="D67" s="9">
-        <v>2</v>
-      </c>
-      <c r="E67" s="9">
+        <v>3</v>
+      </c>
+      <c r="E67" s="2">
         <v>1</v>
       </c>
-      <c r="F67" s="9">
+      <c r="F67" s="2">
         <v>10000</v>
       </c>
-      <c r="G67" s="9" t="s">
-        <v>792</v>
+      <c r="G67" s="2" t="s">
+        <v>747</v>
       </c>
       <c r="H67" s="9"/>
       <c r="I67" s="9" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>733</v>
+        <v>803</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>744</v>
-      </c>
-      <c r="L67" s="9"/>
+        <v>853</v>
+      </c>
+      <c r="L67" s="9" t="s">
+        <v>928</v>
+      </c>
       <c r="M67" s="9"/>
       <c r="N67" s="2" t="s">
-        <v>941</v>
+        <v>995</v>
       </c>
       <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
+      <c r="P67" s="2" t="s">
+        <v>884</v>
+      </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1054</v>
+        <v>996</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>1059</v>
+        <v>997</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D68">
-        <v>2</v>
-      </c>
-      <c r="E68" s="17">
+        <v>998</v>
+      </c>
+      <c r="D68" s="17">
         <v>1</v>
       </c>
-      <c r="F68" s="17">
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
         <v>10000</v>
       </c>
       <c r="G68" t="s">
-        <v>643</v>
+        <v>747</v>
       </c>
       <c r="H68" s="17"/>
       <c r="I68" s="17" t="s">
-        <v>881</v>
+        <v>706</v>
       </c>
       <c r="J68" s="17" t="s">
-        <v>724</v>
+        <v>705</v>
       </c>
       <c r="K68" s="17" t="s">
-        <v>949</v>
-      </c>
-      <c r="L68" s="17" t="s">
-        <v>890</v>
-      </c>
+        <v>729</v>
+      </c>
+      <c r="L68" s="17"/>
       <c r="M68" s="17"/>
       <c r="N68" t="s">
-        <v>1061</v>
+        <v>902</v>
       </c>
       <c r="P68" t="s">
         <v>884</v>
@@ -30509,10 +30562,13 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1240</v>
+        <v>996</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>999</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>1000</v>
       </c>
       <c r="D69" s="17">
         <v>2</v>
@@ -30523,501 +30579,557 @@
       <c r="F69" s="17">
         <v>10000</v>
       </c>
-      <c r="G69" s="17" t="s">
-        <v>721</v>
-      </c>
-      <c r="H69" s="17" t="s">
-        <v>764</v>
-      </c>
+      <c r="G69" t="s">
+        <v>714</v>
+      </c>
+      <c r="H69" s="17"/>
       <c r="I69" s="17" t="s">
-        <v>747</v>
+        <v>808</v>
       </c>
       <c r="J69" s="17" t="s">
-        <v>1138</v>
+        <v>691</v>
       </c>
       <c r="K69" s="17" t="s">
-        <v>736</v>
-      </c>
-      <c r="L69" s="17"/>
+        <v>684</v>
+      </c>
+      <c r="L69" s="17" t="s">
+        <v>2194</v>
+      </c>
       <c r="M69" s="17"/>
       <c r="N69" t="s">
         <v>902</v>
       </c>
+      <c r="P69" t="s">
+        <v>884</v>
+      </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>1069</v>
+        <v>996</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1186</v>
       </c>
       <c r="D70" s="17">
-        <v>2</v>
-      </c>
-      <c r="E70" s="17">
         <v>4</v>
       </c>
-      <c r="F70" s="17">
-        <v>50</v>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>10000</v>
       </c>
       <c r="G70" t="s">
-        <v>739</v>
+        <v>721</v>
       </c>
       <c r="H70" s="17" t="s">
-        <v>733</v>
+        <v>900</v>
       </c>
       <c r="I70" s="17" t="s">
-        <v>2194</v>
+        <v>643</v>
       </c>
       <c r="J70" s="17" t="s">
-        <v>808</v>
-      </c>
-      <c r="K70" s="17"/>
-      <c r="L70" s="17"/>
+        <v>705</v>
+      </c>
+      <c r="K70" s="17" t="s">
+        <v>661</v>
+      </c>
+      <c r="L70" s="17" t="s">
+        <v>845</v>
+      </c>
       <c r="M70" s="17"/>
-      <c r="P70" t="s">
-        <v>884</v>
+      <c r="N70" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1252</v>
+        <v>996</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>1003</v>
       </c>
       <c r="D71" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E71" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F71" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G71" s="17" t="s">
-        <v>808</v>
+        <v>50</v>
+      </c>
+      <c r="G71" t="s">
+        <v>900</v>
       </c>
       <c r="H71" s="17"/>
       <c r="I71" s="17" t="s">
-        <v>1253</v>
+        <v>1004</v>
       </c>
       <c r="J71" s="17" t="s">
-        <v>901</v>
+        <v>721</v>
       </c>
       <c r="K71" s="17" t="s">
-        <v>744</v>
-      </c>
-      <c r="L71" s="17"/>
+        <v>1005</v>
+      </c>
+      <c r="L71" s="17" t="s">
+        <v>1006</v>
+      </c>
       <c r="M71" s="17"/>
       <c r="N71" t="s">
-        <v>1254</v>
+        <v>1007</v>
+      </c>
+      <c r="P71" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1255</v>
+        <v>1008</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>1010</v>
       </c>
       <c r="D72" s="17">
-        <v>2</v>
-      </c>
-      <c r="E72" s="17">
-        <v>4</v>
-      </c>
-      <c r="F72" s="17">
-        <v>50</v>
-      </c>
-      <c r="G72" s="17" t="s">
-        <v>794</v>
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72">
+        <v>250</v>
+      </c>
+      <c r="G72" t="s">
+        <v>714</v>
       </c>
       <c r="H72" s="17"/>
       <c r="I72" s="17" t="s">
-        <v>710</v>
+        <v>2186</v>
       </c>
       <c r="J72" s="17" t="s">
-        <v>948</v>
-      </c>
-      <c r="K72" s="17" t="s">
-        <v>1256</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="K72" s="17"/>
       <c r="L72" s="17"/>
       <c r="M72" s="17"/>
       <c r="N72" t="s">
-        <v>951</v>
-      </c>
-      <c r="O72" t="s">
+        <v>902</v>
+      </c>
+      <c r="P72" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C73" t="s">
-        <v>1257</v>
+        <v>1008</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>1012</v>
       </c>
       <c r="D73" s="17">
-        <v>2</v>
-      </c>
-      <c r="E73" s="17">
-        <v>4</v>
-      </c>
-      <c r="F73" s="17">
-        <v>50</v>
-      </c>
-      <c r="G73" s="17" t="s">
-        <v>792</v>
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>10000</v>
+      </c>
+      <c r="G73" t="s">
+        <v>714</v>
       </c>
       <c r="H73" s="17"/>
       <c r="I73" s="17" t="s">
-        <v>710</v>
+        <v>642</v>
       </c>
       <c r="J73" s="17" t="s">
-        <v>948</v>
+        <v>890</v>
       </c>
       <c r="K73" s="17" t="s">
-        <v>1232</v>
-      </c>
-      <c r="L73" s="17"/>
+        <v>1013</v>
+      </c>
+      <c r="L73" s="17" t="s">
+        <v>1014</v>
+      </c>
       <c r="M73" s="17"/>
       <c r="N73" t="s">
-        <v>951</v>
+        <v>902</v>
+      </c>
+      <c r="P73" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C74" t="s">
-        <v>1258</v>
+        <v>1008</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>1016</v>
       </c>
       <c r="D74" s="17">
         <v>2</v>
       </c>
-      <c r="E74" s="17">
-        <v>4</v>
-      </c>
-      <c r="F74" s="17">
-        <v>50</v>
-      </c>
-      <c r="G74" s="17" t="s">
-        <v>790</v>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>10000</v>
+      </c>
+      <c r="G74" t="s">
+        <v>747</v>
       </c>
       <c r="H74" s="17"/>
       <c r="I74" s="17" t="s">
-        <v>710</v>
+        <v>691</v>
       </c>
       <c r="J74" s="17" t="s">
-        <v>948</v>
+        <v>1017</v>
       </c>
       <c r="K74" s="17" t="s">
-        <v>1259</v>
-      </c>
-      <c r="L74" s="17"/>
+        <v>1018</v>
+      </c>
+      <c r="L74" s="17" t="s">
+        <v>823</v>
+      </c>
       <c r="M74" s="17"/>
       <c r="N74" t="s">
-        <v>951</v>
+        <v>1019</v>
+      </c>
+      <c r="P74" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1260</v>
+        <v>1008</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>1021</v>
       </c>
       <c r="D75" s="17">
-        <v>2</v>
-      </c>
-      <c r="E75" s="17">
-        <v>4</v>
-      </c>
-      <c r="F75" s="17">
-        <v>50</v>
-      </c>
-      <c r="G75" s="17" t="s">
-        <v>788</v>
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>10000</v>
+      </c>
+      <c r="G75" t="s">
+        <v>900</v>
       </c>
       <c r="H75" s="17"/>
       <c r="I75" s="17" t="s">
-        <v>710</v>
+        <v>949</v>
       </c>
       <c r="J75" s="17" t="s">
-        <v>948</v>
+        <v>729</v>
       </c>
       <c r="K75" s="17" t="s">
-        <v>1157</v>
+        <v>1022</v>
       </c>
       <c r="L75" s="17"/>
       <c r="M75" s="17"/>
       <c r="N75" t="s">
-        <v>951</v>
+        <v>902</v>
+      </c>
+      <c r="P75" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C76" t="s">
-        <v>1261</v>
-      </c>
-      <c r="D76" s="17">
-        <v>2</v>
+        <v>1023</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
       </c>
       <c r="E76" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76" s="17">
-        <v>2500</v>
-      </c>
-      <c r="G76" s="17" t="s">
-        <v>764</v>
+        <v>10000</v>
+      </c>
+      <c r="G76" t="s">
+        <v>705</v>
       </c>
       <c r="H76" s="17"/>
       <c r="I76" s="17" t="s">
-        <v>636</v>
+        <v>890</v>
       </c>
       <c r="J76" s="17" t="s">
-        <v>765</v>
-      </c>
-      <c r="K76" s="17" t="s">
-        <v>948</v>
-      </c>
+        <v>1006</v>
+      </c>
+      <c r="K76" s="17"/>
       <c r="L76" s="17"/>
       <c r="M76" s="17"/>
       <c r="N76" t="s">
-        <v>1038</v>
+        <v>902</v>
+      </c>
+      <c r="P76" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>272</v>
-      </c>
-      <c r="C77" t="s">
-        <v>1272</v>
+        <v>1023</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>1027</v>
       </c>
       <c r="D77">
         <v>2</v>
       </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-      <c r="F77">
-        <v>10000</v>
+      <c r="E77" s="17">
+        <v>2</v>
+      </c>
+      <c r="F77" s="17">
+        <v>2500</v>
       </c>
       <c r="G77" t="s">
-        <v>701</v>
+        <v>714</v>
       </c>
       <c r="H77" s="17"/>
       <c r="I77" s="17" t="s">
-        <v>688</v>
+        <v>744</v>
       </c>
       <c r="J77" s="17" t="s">
-        <v>820</v>
+        <v>674</v>
       </c>
       <c r="K77" s="17" t="s">
-        <v>881</v>
-      </c>
-      <c r="L77" s="17"/>
+        <v>787</v>
+      </c>
+      <c r="L77" s="17" t="s">
+        <v>910</v>
+      </c>
       <c r="M77" s="17"/>
       <c r="N77" t="s">
-        <v>912</v>
+        <v>902</v>
+      </c>
+      <c r="P77" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C78" t="s">
-        <v>1281</v>
+        <v>1023</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>1029</v>
       </c>
       <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78" s="17">
         <v>2</v>
       </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78">
-        <v>10000</v>
+      <c r="F78" s="17">
+        <v>2500</v>
       </c>
       <c r="G78" t="s">
-        <v>894</v>
-      </c>
-      <c r="H78" s="17"/>
+        <v>725</v>
+      </c>
+      <c r="H78" s="17" t="s">
+        <v>1030</v>
+      </c>
       <c r="I78" s="17" t="s">
-        <v>697</v>
+        <v>668</v>
       </c>
       <c r="J78" s="17" t="s">
-        <v>853</v>
+        <v>984</v>
       </c>
       <c r="K78" s="17" t="s">
-        <v>1282</v>
+        <v>1031</v>
       </c>
       <c r="L78" s="17" t="s">
-        <v>1283</v>
-      </c>
-      <c r="M78" s="17"/>
+        <v>910</v>
+      </c>
+      <c r="M78" s="17" t="s">
+        <v>841</v>
+      </c>
       <c r="N78" t="s">
-        <v>1178</v>
+        <v>995</v>
+      </c>
+      <c r="P78" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C79" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D79">
-        <v>2</v>
-      </c>
-      <c r="E79">
+        <v>1032</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D79" s="17">
         <v>1</v>
       </c>
-      <c r="F79">
+      <c r="E79" s="17">
+        <v>1</v>
+      </c>
+      <c r="F79" s="17">
         <v>10000</v>
       </c>
       <c r="G79" t="s">
-        <v>905</v>
+        <v>805</v>
       </c>
       <c r="H79" s="17"/>
       <c r="I79" s="17" t="s">
-        <v>752</v>
+        <v>881</v>
       </c>
       <c r="J79" s="17" t="s">
-        <v>1282</v>
+        <v>705</v>
       </c>
       <c r="K79" s="17" t="s">
-        <v>736</v>
+        <v>714</v>
       </c>
       <c r="L79" s="17" t="s">
-        <v>1285</v>
+        <v>2594</v>
       </c>
       <c r="M79" s="17"/>
       <c r="N79" t="s">
-        <v>1235</v>
+        <v>1035</v>
+      </c>
+      <c r="P79" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1083</v>
+        <v>1032</v>
       </c>
       <c r="C80" t="s">
-        <v>1286</v>
-      </c>
-      <c r="D80">
-        <v>2</v>
-      </c>
-      <c r="E80">
+        <v>1187</v>
+      </c>
+      <c r="D80" s="17">
         <v>1</v>
       </c>
-      <c r="F80">
-        <v>10000</v>
-      </c>
-      <c r="G80" t="s">
-        <v>904</v>
+      <c r="E80" s="17">
+        <v>3</v>
+      </c>
+      <c r="F80" s="17">
+        <v>250</v>
+      </c>
+      <c r="G80" s="17" t="s">
+        <v>764</v>
       </c>
       <c r="H80" s="17"/>
       <c r="I80" s="17" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="J80" s="17" t="s">
-        <v>1256</v>
+        <v>765</v>
       </c>
       <c r="K80" s="17" t="s">
-        <v>710</v>
-      </c>
-      <c r="L80" s="17" t="s">
-        <v>1287</v>
-      </c>
+        <v>836</v>
+      </c>
+      <c r="L80" s="17"/>
       <c r="M80" s="17"/>
       <c r="N80" t="s">
-        <v>1243</v>
+        <v>1188</v>
+      </c>
+      <c r="O80" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1083</v>
+        <v>1032</v>
       </c>
       <c r="C81" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D81">
-        <v>2</v>
-      </c>
-      <c r="E81">
+        <v>1189</v>
+      </c>
+      <c r="D81" s="17">
         <v>1</v>
       </c>
-      <c r="F81">
-        <v>10000</v>
-      </c>
-      <c r="G81" t="s">
-        <v>888</v>
+      <c r="E81" s="17">
+        <v>3</v>
+      </c>
+      <c r="F81" s="17">
+        <v>250</v>
+      </c>
+      <c r="G81" s="17" t="s">
+        <v>1190</v>
       </c>
       <c r="H81" s="17"/>
       <c r="I81" s="17" t="s">
-        <v>826</v>
+        <v>739</v>
       </c>
       <c r="J81" s="17" t="s">
-        <v>696</v>
+        <v>1191</v>
       </c>
       <c r="K81" s="17" t="s">
-        <v>1232</v>
+        <v>629</v>
       </c>
       <c r="L81" s="17" t="s">
-        <v>1289</v>
+        <v>642</v>
       </c>
       <c r="M81" s="17"/>
       <c r="N81" t="s">
-        <v>951</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1092</v>
+        <v>1032</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>1093</v>
+        <v>1036</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>1094</v>
+        <v>1037</v>
       </c>
       <c r="D82" s="17">
         <v>2</v>
       </c>
       <c r="E82" s="17">
+        <v>4</v>
+      </c>
+      <c r="F82" s="17">
         <v>1</v>
       </c>
-      <c r="F82" s="17">
-        <v>10000</v>
-      </c>
       <c r="G82" t="s">
-        <v>887</v>
+        <v>692</v>
       </c>
       <c r="H82" s="17"/>
       <c r="I82" s="17" t="s">
-        <v>1022</v>
-      </c>
-      <c r="J82" s="17" t="s">
-        <v>764</v>
-      </c>
-      <c r="K82" s="17" t="s">
-        <v>636</v>
-      </c>
-      <c r="L82" s="17" t="s">
-        <v>710</v>
-      </c>
-      <c r="M82" s="17" t="s">
-        <v>1095</v>
-      </c>
+        <v>2187</v>
+      </c>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
       <c r="N82" t="s">
-        <v>1096</v>
+        <v>1038</v>
       </c>
       <c r="P82" t="s">
         <v>884</v>
@@ -31025,159 +31137,151 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>1302</v>
+        <v>1032</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1193</v>
       </c>
       <c r="D83" s="17">
         <v>2</v>
       </c>
-      <c r="E83" s="17">
-        <v>3</v>
-      </c>
-      <c r="F83" s="17">
-        <v>250</v>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>10000</v>
       </c>
       <c r="G83" t="s">
-        <v>2176</v>
+        <v>790</v>
       </c>
       <c r="H83" s="17"/>
       <c r="I83" s="17" t="s">
-        <v>1022</v>
+        <v>721</v>
       </c>
       <c r="J83" s="17" t="s">
-        <v>808</v>
+        <v>732</v>
       </c>
       <c r="K83" s="17" t="s">
-        <v>889</v>
+        <v>755</v>
       </c>
       <c r="L83" s="17" t="s">
-        <v>796</v>
+        <v>1194</v>
       </c>
       <c r="M83" s="17"/>
       <c r="N83" t="s">
-        <v>1096</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>1304</v>
+        <v>1032</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1196</v>
       </c>
       <c r="D84" s="17">
         <v>2</v>
       </c>
       <c r="E84" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F84" s="17">
-        <v>250</v>
-      </c>
-      <c r="G84" t="s">
-        <v>2183</v>
+        <v>10000</v>
+      </c>
+      <c r="G84" s="17" t="s">
+        <v>792</v>
       </c>
       <c r="H84" s="17"/>
       <c r="I84" s="17" t="s">
-        <v>1022</v>
+        <v>621</v>
       </c>
       <c r="J84" s="17" t="s">
-        <v>2188</v>
+        <v>636</v>
       </c>
       <c r="K84" s="17" t="s">
-        <v>950</v>
-      </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
+        <v>725</v>
+      </c>
+      <c r="L84" s="17" t="s">
+        <v>1017</v>
+      </c>
+      <c r="M84" s="17" t="s">
+        <v>1197</v>
+      </c>
       <c r="N84" t="s">
-        <v>1096</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B85" s="17" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>1112</v>
+        <v>1032</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1199</v>
       </c>
       <c r="D85" s="17">
         <v>2</v>
       </c>
       <c r="E85" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F85" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G85" t="s">
-        <v>764</v>
+        <v>250</v>
+      </c>
+      <c r="G85" s="17" t="s">
+        <v>1200</v>
       </c>
       <c r="H85" s="17"/>
       <c r="I85" s="17" t="s">
-        <v>691</v>
+        <v>816</v>
       </c>
       <c r="J85" s="17" t="s">
-        <v>2194</v>
+        <v>1201</v>
       </c>
       <c r="K85" s="17" t="s">
-        <v>732</v>
-      </c>
-      <c r="L85" s="17" t="s">
-        <v>733</v>
-      </c>
+        <v>1202</v>
+      </c>
+      <c r="L85" s="17"/>
       <c r="M85" s="17"/>
       <c r="N85" t="s">
-        <v>1038</v>
-      </c>
-      <c r="P85" t="s">
-        <v>884</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>877</v>
-      </c>
-      <c r="B86" s="17" t="s">
-        <v>885</v>
+        <v>1032</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2580</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>886</v>
+        <v>2581</v>
       </c>
       <c r="D86" s="17">
-        <v>3</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="F86">
-        <v>10000</v>
+        <v>2</v>
+      </c>
+      <c r="E86" s="17">
+        <v>2</v>
+      </c>
+      <c r="F86" s="17">
+        <v>2500</v>
       </c>
       <c r="G86" t="s">
-        <v>887</v>
-      </c>
-      <c r="H86" s="17" t="s">
-        <v>888</v>
-      </c>
-      <c r="I86" s="17" t="s">
-        <v>844</v>
-      </c>
-      <c r="J86" s="17" t="s">
-        <v>890</v>
-      </c>
-      <c r="K86" s="17" t="s">
-        <v>628</v>
-      </c>
-      <c r="L86" s="17" t="s">
-        <v>2175</v>
-      </c>
-      <c r="M86" s="17"/>
+        <v>765</v>
+      </c>
+      <c r="I86" t="s">
+        <v>2582</v>
+      </c>
+      <c r="J86" t="s">
+        <v>2588</v>
+      </c>
+      <c r="K86" t="s">
+        <v>661</v>
+      </c>
+      <c r="L86" t="s">
+        <v>1067</v>
+      </c>
       <c r="N86" t="s">
-        <v>891</v>
+        <v>2583</v>
       </c>
       <c r="P86" t="s">
         <v>884</v>
@@ -31185,48 +31289,41 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>877</v>
-      </c>
-      <c r="B87" s="17"/>
-      <c r="C87" s="17" t="s">
-        <v>1116</v>
+        <v>1032</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1204</v>
       </c>
       <c r="D87" s="17">
         <v>3</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="17">
         <v>1</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="17">
         <v>10000</v>
       </c>
-      <c r="G87" t="s">
-        <v>2171</v>
+      <c r="G87" s="17" t="s">
+        <v>808</v>
       </c>
       <c r="H87" s="17"/>
       <c r="I87" s="17" t="s">
-        <v>906</v>
-      </c>
-      <c r="J87" s="17" t="s">
-        <v>710</v>
-      </c>
-      <c r="K87" s="17" t="s">
-        <v>1117</v>
-      </c>
-      <c r="L87" s="17" t="s">
-        <v>1118</v>
-      </c>
+        <v>925</v>
+      </c>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="17"/>
       <c r="M87" s="17"/>
       <c r="N87" t="s">
-        <v>891</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>877</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>2220</v>
+        <v>1032</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1206</v>
       </c>
       <c r="D88" s="17">
         <v>3</v>
@@ -31237,80 +31334,71 @@
       <c r="F88" s="17">
         <v>10000</v>
       </c>
-      <c r="G88" t="s">
-        <v>880</v>
+      <c r="G88" s="17" t="s">
+        <v>788</v>
       </c>
       <c r="H88" s="17"/>
       <c r="I88" s="17" t="s">
-        <v>2222</v>
+        <v>1125</v>
       </c>
       <c r="J88" s="17" t="s">
-        <v>2221</v>
+        <v>992</v>
       </c>
       <c r="K88" s="17" t="s">
-        <v>2223</v>
+        <v>890</v>
       </c>
       <c r="L88" s="17" t="s">
-        <v>2224</v>
-      </c>
-      <c r="M88" s="17" t="s">
-        <v>2225</v>
-      </c>
+        <v>1207</v>
+      </c>
+      <c r="M88" s="17"/>
       <c r="N88" t="s">
-        <v>2226</v>
-      </c>
-      <c r="O88" t="s">
-        <v>2227</v>
+        <v>951</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>897</v>
-      </c>
-      <c r="B89" s="17"/>
-      <c r="C89" s="17" t="s">
-        <v>1127</v>
+        <v>1032</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1208</v>
       </c>
       <c r="D89" s="17">
-        <v>3</v>
-      </c>
-      <c r="E89">
+        <v>4</v>
+      </c>
+      <c r="E89" s="17">
         <v>1</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="17">
         <v>10000</v>
       </c>
-      <c r="G89" t="s">
-        <v>2171</v>
+      <c r="G89" s="17" t="s">
+        <v>721</v>
       </c>
       <c r="H89" s="17"/>
       <c r="I89" s="17" t="s">
-        <v>911</v>
+        <v>1155</v>
       </c>
       <c r="J89" s="17" t="s">
-        <v>831</v>
+        <v>728</v>
       </c>
       <c r="K89" s="17" t="s">
-        <v>906</v>
-      </c>
-      <c r="L89" s="17" t="s">
-        <v>2120</v>
-      </c>
+        <v>736</v>
+      </c>
+      <c r="L89" s="17"/>
       <c r="M89" s="17"/>
       <c r="N89" t="s">
-        <v>902</v>
+        <v>912</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>907</v>
-      </c>
-      <c r="B90" s="17"/>
-      <c r="C90" s="17" t="s">
-        <v>1137</v>
+        <v>1032</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1209</v>
       </c>
       <c r="D90" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -31319,434 +31407,399 @@
         <v>10000</v>
       </c>
       <c r="G90" t="s">
-        <v>788</v>
+        <v>764</v>
       </c>
       <c r="H90" s="17"/>
       <c r="I90" s="17" t="s">
-        <v>803</v>
+        <v>684</v>
       </c>
       <c r="J90" s="17" t="s">
-        <v>1138</v>
+        <v>739</v>
       </c>
       <c r="K90" s="17" t="s">
-        <v>1139</v>
+        <v>921</v>
       </c>
       <c r="L90" s="17"/>
       <c r="M90" s="17"/>
       <c r="N90" t="s">
-        <v>1140</v>
+        <v>941</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>907</v>
-      </c>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17" t="s">
-        <v>1141</v>
+        <v>1032</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1210</v>
       </c>
       <c r="D91" s="17">
-        <v>3</v>
-      </c>
-      <c r="E91">
+        <v>5</v>
+      </c>
+      <c r="E91" s="17">
         <v>1</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="17">
         <v>10000</v>
       </c>
-      <c r="G91" t="s">
-        <v>1142</v>
-      </c>
-      <c r="H91" s="17" t="s">
-        <v>1143</v>
-      </c>
+      <c r="G91" s="17" t="s">
+        <v>794</v>
+      </c>
+      <c r="H91" s="17"/>
       <c r="I91" s="17" t="s">
-        <v>861</v>
+        <v>831</v>
       </c>
       <c r="J91" s="17" t="s">
-        <v>853</v>
+        <v>1200</v>
       </c>
       <c r="K91" s="17" t="s">
-        <v>2181</v>
+        <v>744</v>
       </c>
       <c r="L91" s="17"/>
       <c r="M91" s="17"/>
       <c r="N91" t="s">
-        <v>1144</v>
-      </c>
-      <c r="O91" t="s">
-        <v>1145</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>918</v>
-      </c>
-      <c r="B92" s="17" t="s">
-        <v>919</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>920</v>
-      </c>
-      <c r="D92">
-        <v>3</v>
+        <v>1032</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D92" s="17">
+        <v>5</v>
       </c>
       <c r="E92" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F92" s="17">
-        <v>250</v>
-      </c>
-      <c r="G92" t="s">
-        <v>656</v>
-      </c>
-      <c r="H92" s="17"/>
+        <v>50</v>
+      </c>
+      <c r="G92" s="17" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H92" s="17" t="s">
+        <v>1214</v>
+      </c>
       <c r="I92" s="17" t="s">
-        <v>656</v>
+        <v>1215</v>
       </c>
       <c r="J92" s="17" t="s">
-        <v>2182</v>
-      </c>
-      <c r="K92" s="17"/>
-      <c r="L92" s="17"/>
+        <v>1216</v>
+      </c>
+      <c r="K92" s="17" t="s">
+        <v>917</v>
+      </c>
+      <c r="L92" s="17" t="s">
+        <v>800</v>
+      </c>
       <c r="M92" s="17"/>
       <c r="N92" t="s">
-        <v>922</v>
-      </c>
-      <c r="P92" t="s">
-        <v>884</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>938</v>
+        <v>1218</v>
       </c>
       <c r="C93" t="s">
-        <v>1169</v>
+        <v>1219</v>
       </c>
       <c r="D93" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E93" s="17">
         <v>1</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="17">
         <v>10000</v>
       </c>
-      <c r="G93" t="s">
-        <v>764</v>
+      <c r="G93" s="17" t="s">
+        <v>724</v>
       </c>
       <c r="H93" s="17"/>
       <c r="I93" s="17" t="s">
-        <v>1170</v>
+        <v>949</v>
       </c>
       <c r="J93" s="17" t="s">
-        <v>732</v>
-      </c>
-      <c r="K93" s="17" t="s">
-        <v>744</v>
-      </c>
-      <c r="L93" s="17" t="s">
-        <v>1171</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="K93" s="17"/>
+      <c r="L93" s="17"/>
       <c r="M93" s="17"/>
       <c r="N93" t="s">
-        <v>941</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>958</v>
+        <v>1218</v>
       </c>
       <c r="C94" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D94">
-        <v>3</v>
-      </c>
-      <c r="E94">
+        <v>1220</v>
+      </c>
+      <c r="D94" s="17">
+        <v>2</v>
+      </c>
+      <c r="E94" s="17">
         <v>1</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="17">
         <v>10000</v>
       </c>
-      <c r="G94" t="s">
-        <v>764</v>
+      <c r="G94" s="17" t="s">
+        <v>721</v>
       </c>
       <c r="H94" s="17"/>
       <c r="I94" s="17" t="s">
-        <v>836</v>
+        <v>1221</v>
       </c>
       <c r="J94" s="17" t="s">
-        <v>643</v>
+        <v>901</v>
       </c>
       <c r="K94" s="17" t="s">
-        <v>710</v>
+        <v>629</v>
       </c>
       <c r="L94" s="17"/>
       <c r="M94" s="17"/>
       <c r="N94" t="s">
-        <v>941</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>965</v>
-      </c>
-      <c r="B95" s="17" t="s">
-        <v>968</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>969</v>
+        <v>1218</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1222</v>
       </c>
       <c r="D95" s="17">
-        <v>3</v>
-      </c>
-      <c r="E95">
         <v>2</v>
       </c>
-      <c r="F95">
-        <v>2500</v>
-      </c>
-      <c r="G95" t="s">
-        <v>764</v>
+      <c r="E95" s="17">
+        <v>1</v>
+      </c>
+      <c r="F95" s="17">
+        <v>10000</v>
+      </c>
+      <c r="G95" s="17" t="s">
+        <v>721</v>
       </c>
       <c r="H95" s="17"/>
       <c r="I95" s="17" t="s">
-        <v>643</v>
+        <v>1223</v>
       </c>
       <c r="J95" s="17" t="s">
-        <v>970</v>
+        <v>1125</v>
       </c>
       <c r="K95" s="17" t="s">
-        <v>2179</v>
-      </c>
-      <c r="L95" s="17" t="s">
-        <v>971</v>
-      </c>
+        <v>901</v>
+      </c>
+      <c r="L95" s="17"/>
       <c r="M95" s="17"/>
       <c r="N95" t="s">
-        <v>972</v>
-      </c>
-      <c r="P95" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>975</v>
+        <v>1218</v>
       </c>
       <c r="C96" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D96">
+        <v>1224</v>
+      </c>
+      <c r="D96" s="17">
         <v>3</v>
       </c>
-      <c r="E96">
-        <v>3</v>
-      </c>
-      <c r="F96">
-        <v>250</v>
-      </c>
-      <c r="G96" t="s">
-        <v>2183</v>
+      <c r="E96" s="17">
+        <v>1</v>
+      </c>
+      <c r="F96" s="17">
+        <v>10000</v>
+      </c>
+      <c r="G96" s="17" t="s">
+        <v>721</v>
       </c>
       <c r="H96" s="17"/>
       <c r="I96" s="17" t="s">
-        <v>826</v>
+        <v>1225</v>
       </c>
       <c r="J96" s="17" t="s">
-        <v>1253</v>
+        <v>844</v>
       </c>
       <c r="K96" s="17" t="s">
-        <v>1238</v>
-      </c>
-      <c r="L96" s="17" t="s">
-        <v>721</v>
-      </c>
-      <c r="M96" s="17" t="s">
-        <v>2579</v>
-      </c>
+        <v>890</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
       <c r="N96" t="s">
-        <v>1178</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>975</v>
-      </c>
-      <c r="C97" t="s">
-        <v>1184</v>
+        <v>1039</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>1041</v>
       </c>
       <c r="D97" s="17">
-        <v>3</v>
-      </c>
-      <c r="E97">
         <v>1</v>
       </c>
-      <c r="F97">
+      <c r="E97" s="17">
+        <v>1</v>
+      </c>
+      <c r="F97" s="17">
         <v>10000</v>
       </c>
       <c r="G97" t="s">
-        <v>904</v>
-      </c>
-      <c r="H97" s="17"/>
+        <v>721</v>
+      </c>
+      <c r="H97" s="17" t="s">
+        <v>643</v>
+      </c>
       <c r="I97" s="17" t="s">
-        <v>831</v>
+        <v>725</v>
       </c>
       <c r="J97" s="17" t="s">
-        <v>697</v>
+        <v>1042</v>
       </c>
       <c r="K97" s="17" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="L97" s="17"/>
       <c r="M97" s="17"/>
       <c r="N97" t="s">
-        <v>1185</v>
+        <v>1043</v>
+      </c>
+      <c r="P97" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>987</v>
+      <c r="A98" t="s">
+        <v>1039</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>993</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>994</v>
-      </c>
-      <c r="D98" s="9">
-        <v>3</v>
-      </c>
-      <c r="E98" s="2">
+        <v>1044</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D98" s="17">
+        <v>2</v>
+      </c>
+      <c r="E98" s="17">
         <v>1</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F98" s="17">
         <v>10000</v>
       </c>
-      <c r="G98" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="H98" s="9"/>
-      <c r="I98" s="9" t="s">
-        <v>881</v>
-      </c>
-      <c r="J98" s="9" t="s">
-        <v>803</v>
-      </c>
-      <c r="K98" s="9" t="s">
-        <v>853</v>
-      </c>
-      <c r="L98" s="9" t="s">
-        <v>928</v>
-      </c>
-      <c r="M98" s="9"/>
-      <c r="N98" s="2" t="s">
-        <v>995</v>
-      </c>
-      <c r="O98" s="2"/>
-      <c r="P98" s="2" t="s">
+      <c r="G98" t="s">
+        <v>721</v>
+      </c>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17" t="s">
+        <v>954</v>
+      </c>
+      <c r="J98" s="17" t="s">
+        <v>643</v>
+      </c>
+      <c r="K98" s="17" t="s">
+        <v>1046</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" t="s">
+        <v>912</v>
+      </c>
+      <c r="P98" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B99" s="17" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C99" s="17" t="s">
-        <v>1021</v>
+        <v>1039</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1226</v>
       </c>
       <c r="D99" s="17">
-        <v>3</v>
-      </c>
-      <c r="E99">
+        <v>2</v>
+      </c>
+      <c r="E99" s="17">
         <v>1</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="17">
         <v>10000</v>
       </c>
-      <c r="G99" t="s">
-        <v>900</v>
+      <c r="G99" s="17" t="s">
+        <v>721</v>
       </c>
       <c r="H99" s="17"/>
       <c r="I99" s="17" t="s">
-        <v>949</v>
+        <v>642</v>
       </c>
       <c r="J99" s="17" t="s">
-        <v>729</v>
+        <v>788</v>
       </c>
       <c r="K99" s="17" t="s">
-        <v>1022</v>
+        <v>1227</v>
       </c>
       <c r="L99" s="17"/>
       <c r="M99" s="17"/>
       <c r="N99" t="s">
-        <v>902</v>
-      </c>
-      <c r="P99" t="s">
-        <v>884</v>
+        <v>951</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B100" s="17" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C100" s="17" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D100">
-        <v>3</v>
+        <v>1039</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D100" s="17">
+        <v>2</v>
       </c>
       <c r="E100" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F100" s="17">
-        <v>2500</v>
-      </c>
-      <c r="G100" t="s">
-        <v>725</v>
-      </c>
-      <c r="H100" s="17" t="s">
-        <v>1030</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="G100" s="17" t="s">
+        <v>724</v>
+      </c>
+      <c r="H100" s="17"/>
       <c r="I100" s="17" t="s">
-        <v>668</v>
+        <v>1229</v>
       </c>
       <c r="J100" s="17" t="s">
-        <v>984</v>
+        <v>661</v>
       </c>
       <c r="K100" s="17" t="s">
-        <v>1031</v>
-      </c>
-      <c r="L100" s="17" t="s">
-        <v>910</v>
-      </c>
-      <c r="M100" s="17" t="s">
-        <v>841</v>
-      </c>
+        <v>818</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
       <c r="N100" t="s">
-        <v>995</v>
-      </c>
-      <c r="P100" t="s">
-        <v>884</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1032</v>
+        <v>1039</v>
       </c>
       <c r="C101" t="s">
-        <v>1204</v>
+        <v>1230</v>
       </c>
       <c r="D101" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E101" s="17">
         <v>1</v>
@@ -31755,178 +31808,188 @@
         <v>10000</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>808</v>
+        <v>721</v>
       </c>
       <c r="H101" s="17"/>
       <c r="I101" s="17" t="s">
-        <v>925</v>
-      </c>
-      <c r="J101" s="17"/>
-      <c r="K101" s="17"/>
+        <v>725</v>
+      </c>
+      <c r="J101" s="17" t="s">
+        <v>629</v>
+      </c>
+      <c r="K101" s="17" t="s">
+        <v>1166</v>
+      </c>
       <c r="L101" s="17"/>
       <c r="M101" s="17"/>
       <c r="N101" t="s">
-        <v>1205</v>
+        <v>951</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C102" t="s">
-        <v>1206</v>
-      </c>
-      <c r="D102" s="17">
-        <v>3</v>
-      </c>
-      <c r="E102" s="17">
+      <c r="A102" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D102" s="9">
+        <v>2</v>
+      </c>
+      <c r="E102" s="9">
         <v>1</v>
       </c>
-      <c r="F102" s="17">
+      <c r="F102" s="9">
         <v>10000</v>
       </c>
-      <c r="G102" s="17" t="s">
-        <v>788</v>
-      </c>
-      <c r="H102" s="17"/>
-      <c r="I102" s="17" t="s">
-        <v>1125</v>
-      </c>
-      <c r="J102" s="17" t="s">
-        <v>992</v>
-      </c>
-      <c r="K102" s="17" t="s">
-        <v>890</v>
-      </c>
-      <c r="L102" s="17" t="s">
-        <v>1207</v>
-      </c>
-      <c r="M102" s="17"/>
-      <c r="N102" t="s">
+      <c r="G102" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J102" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="K102" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="2" t="s">
         <v>951</v>
       </c>
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C103" t="s">
-        <v>1224</v>
+        <v>1039</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>1048</v>
       </c>
       <c r="D103" s="17">
         <v>3</v>
       </c>
       <c r="E103" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F103" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G103" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="G103" t="s">
         <v>721</v>
       </c>
-      <c r="H103" s="17"/>
+      <c r="H103" s="17" t="s">
+        <v>764</v>
+      </c>
       <c r="I103" s="17" t="s">
-        <v>1225</v>
+        <v>1049</v>
       </c>
       <c r="J103" s="17" t="s">
-        <v>844</v>
+        <v>721</v>
       </c>
       <c r="K103" s="17" t="s">
-        <v>890</v>
-      </c>
-      <c r="L103" s="17"/>
+        <v>688</v>
+      </c>
+      <c r="L103" s="17" t="s">
+        <v>765</v>
+      </c>
       <c r="M103" s="17"/>
       <c r="N103" t="s">
-        <v>1038</v>
+        <v>1050</v>
+      </c>
+      <c r="P103" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" s="8" t="s">
         <v>1039</v>
       </c>
-      <c r="B104" s="17" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C104" s="17" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D104" s="17">
+      <c r="B104" t="s">
+        <v>2189</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>2190</v>
+      </c>
+      <c r="D104" s="13">
+        <v>4</v>
+      </c>
+      <c r="E104" s="13">
         <v>3</v>
       </c>
-      <c r="E104" s="17">
-        <v>3</v>
-      </c>
-      <c r="F104" s="17">
+      <c r="F104" s="13">
         <v>250</v>
       </c>
-      <c r="G104" t="s">
-        <v>721</v>
-      </c>
-      <c r="H104" s="17" t="s">
-        <v>764</v>
-      </c>
+      <c r="G104" s="8" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H104" s="17"/>
       <c r="I104" s="17" t="s">
-        <v>1049</v>
+        <v>2191</v>
       </c>
       <c r="J104" s="17" t="s">
-        <v>721</v>
+        <v>2192</v>
       </c>
       <c r="K104" s="17" t="s">
-        <v>688</v>
+        <v>800</v>
       </c>
       <c r="L104" s="17" t="s">
-        <v>765</v>
-      </c>
-      <c r="M104" s="17"/>
-      <c r="N104" t="s">
-        <v>1050</v>
-      </c>
-      <c r="P104" t="s">
-        <v>884</v>
+        <v>2193</v>
+      </c>
+      <c r="M104" s="17" t="s">
+        <v>2182</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="C105" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D105" s="17">
-        <v>3</v>
-      </c>
-      <c r="E105" s="17">
+      <c r="C105" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D105" s="9">
+        <v>2</v>
+      </c>
+      <c r="E105" s="9">
         <v>1</v>
       </c>
-      <c r="F105" s="17">
+      <c r="F105" s="9">
         <v>10000</v>
       </c>
-      <c r="G105" s="17" t="s">
-        <v>788</v>
-      </c>
-      <c r="H105" s="17"/>
-      <c r="I105" s="17" t="s">
-        <v>725</v>
-      </c>
-      <c r="J105" s="17" t="s">
-        <v>728</v>
-      </c>
-      <c r="K105" s="17" t="s">
-        <v>642</v>
-      </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" t="s">
-        <v>1235</v>
-      </c>
+      <c r="G105" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9" t="s">
+        <v>890</v>
+      </c>
+      <c r="J105" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="K105" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="L105" s="9"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C106" t="s">
-        <v>1241</v>
+        <v>1234</v>
       </c>
       <c r="D106" s="17">
         <v>3</v>
@@ -31938,105 +32001,115 @@
         <v>10000</v>
       </c>
       <c r="G106" s="17" t="s">
-        <v>721</v>
-      </c>
-      <c r="H106" s="17" t="s">
-        <v>764</v>
-      </c>
+        <v>788</v>
+      </c>
+      <c r="H106" s="17"/>
       <c r="I106" s="17" t="s">
-        <v>1242</v>
+        <v>725</v>
       </c>
       <c r="J106" s="17" t="s">
-        <v>1017</v>
+        <v>728</v>
       </c>
       <c r="K106" s="17" t="s">
-        <v>792</v>
+        <v>642</v>
       </c>
       <c r="L106" s="17"/>
       <c r="M106" s="17"/>
       <c r="N106" t="s">
-        <v>1243</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C107" t="s">
-        <v>1262</v>
+        <v>1051</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>1053</v>
       </c>
       <c r="D107" s="17">
+        <v>4</v>
+      </c>
+      <c r="E107" s="17">
         <v>3</v>
       </c>
-      <c r="E107" s="17">
-        <v>1</v>
-      </c>
       <c r="F107" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G107" s="17" t="s">
-        <v>808</v>
-      </c>
-      <c r="H107" s="17"/>
+        <v>250</v>
+      </c>
+      <c r="G107" t="s">
+        <v>721</v>
+      </c>
+      <c r="H107" s="17" t="s">
+        <v>764</v>
+      </c>
       <c r="I107" s="17" t="s">
-        <v>728</v>
+        <v>706</v>
       </c>
       <c r="J107" s="17" t="s">
-        <v>1263</v>
+        <v>890</v>
       </c>
       <c r="K107" s="17" t="s">
-        <v>1139</v>
-      </c>
-      <c r="L107" s="17"/>
+        <v>792</v>
+      </c>
+      <c r="L107" s="17" t="s">
+        <v>903</v>
+      </c>
       <c r="M107" s="17"/>
       <c r="N107" t="s">
-        <v>912</v>
+        <v>1050</v>
+      </c>
+      <c r="P107" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B108" t="s">
-        <v>2116</v>
-      </c>
-      <c r="C108" s="17" t="s">
-        <v>2117</v>
+        <v>1051</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1236</v>
       </c>
       <c r="D108" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E108" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F108" s="17">
-        <v>50</v>
-      </c>
-      <c r="G108" t="s">
-        <v>2118</v>
-      </c>
-      <c r="H108" s="17" t="s">
-        <v>1066</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="G108" s="17" t="s">
+        <v>794</v>
+      </c>
+      <c r="H108" s="17"/>
       <c r="I108" s="17" t="s">
-        <v>2119</v>
+        <v>831</v>
       </c>
       <c r="J108" s="17" t="s">
-        <v>692</v>
-      </c>
-      <c r="K108" s="17"/>
-      <c r="L108" s="17"/>
+        <v>728</v>
+      </c>
+      <c r="K108" s="17" t="s">
+        <v>643</v>
+      </c>
+      <c r="L108" s="17" t="s">
+        <v>841</v>
+      </c>
       <c r="M108" s="17"/>
+      <c r="N108" t="s">
+        <v>912</v>
+      </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>272</v>
+        <v>1051</v>
       </c>
       <c r="C109" t="s">
-        <v>1273</v>
+        <v>1237</v>
       </c>
       <c r="D109" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E109" s="17">
         <v>1</v>
@@ -32045,174 +32118,191 @@
         <v>10000</v>
       </c>
       <c r="G109" s="17" t="s">
-        <v>701</v>
+        <v>790</v>
       </c>
       <c r="H109" s="17"/>
       <c r="I109" s="17" t="s">
-        <v>836</v>
+        <v>1238</v>
       </c>
       <c r="J109" s="17" t="s">
-        <v>764</v>
-      </c>
-      <c r="K109" s="17"/>
+        <v>1239</v>
+      </c>
+      <c r="K109" s="17" t="s">
+        <v>661</v>
+      </c>
       <c r="L109" s="17"/>
       <c r="M109" s="17"/>
       <c r="N109" t="s">
-        <v>941</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>272</v>
-      </c>
-      <c r="C110" t="s">
-        <v>1274</v>
+        <v>1054</v>
+      </c>
+      <c r="B110" s="17" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>1056</v>
       </c>
       <c r="D110">
-        <v>3</v>
-      </c>
-      <c r="E110">
-        <v>3</v>
-      </c>
-      <c r="F110">
-        <v>250</v>
+        <v>1</v>
+      </c>
+      <c r="E110" s="17">
+        <v>4</v>
+      </c>
+      <c r="F110" s="17">
+        <v>50</v>
       </c>
       <c r="G110" t="s">
-        <v>701</v>
-      </c>
-      <c r="H110" s="17" t="s">
-        <v>1275</v>
-      </c>
+        <v>1057</v>
+      </c>
+      <c r="H110" s="17"/>
       <c r="I110" s="17" t="s">
-        <v>794</v>
+        <v>925</v>
       </c>
       <c r="J110" s="17" t="s">
-        <v>629</v>
-      </c>
-      <c r="K110" s="17"/>
+        <v>2187</v>
+      </c>
+      <c r="K110" s="17" t="s">
+        <v>642</v>
+      </c>
       <c r="L110" s="17"/>
       <c r="M110" s="17"/>
       <c r="N110" t="s">
-        <v>941</v>
+        <v>1058</v>
+      </c>
+      <c r="P110" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>272</v>
-      </c>
-      <c r="C111" t="s">
-        <v>1276</v>
+        <v>1054</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C111" s="17" t="s">
+        <v>1060</v>
       </c>
       <c r="D111">
-        <v>3</v>
-      </c>
-      <c r="E111">
-        <v>3</v>
-      </c>
-      <c r="F111">
-        <v>250</v>
+        <v>2</v>
+      </c>
+      <c r="E111" s="17">
+        <v>1</v>
+      </c>
+      <c r="F111" s="17">
+        <v>10000</v>
       </c>
       <c r="G111" t="s">
-        <v>701</v>
-      </c>
-      <c r="H111" s="17" t="s">
-        <v>1277</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c r="H111" s="17"/>
       <c r="I111" s="17" t="s">
-        <v>792</v>
+        <v>881</v>
       </c>
       <c r="J111" s="17" t="s">
+        <v>724</v>
+      </c>
+      <c r="K111" s="17" t="s">
+        <v>949</v>
+      </c>
+      <c r="L111" s="17" t="s">
         <v>890</v>
       </c>
-      <c r="K111" s="17"/>
-      <c r="L111" s="17"/>
       <c r="M111" s="17"/>
       <c r="N111" t="s">
-        <v>941</v>
+        <v>1061</v>
+      </c>
+      <c r="P111" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>272</v>
+        <v>1054</v>
       </c>
       <c r="C112" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D112">
-        <v>3</v>
-      </c>
-      <c r="E112">
-        <v>3</v>
-      </c>
-      <c r="F112">
-        <v>250</v>
-      </c>
-      <c r="G112" t="s">
-        <v>701</v>
+        <v>1240</v>
+      </c>
+      <c r="D112" s="17">
+        <v>2</v>
+      </c>
+      <c r="E112" s="17">
+        <v>1</v>
+      </c>
+      <c r="F112" s="17">
+        <v>10000</v>
+      </c>
+      <c r="G112" s="17" t="s">
+        <v>721</v>
       </c>
       <c r="H112" s="17" t="s">
-        <v>1279</v>
+        <v>764</v>
       </c>
       <c r="I112" s="17" t="s">
-        <v>790</v>
+        <v>747</v>
       </c>
       <c r="J112" s="17" t="s">
-        <v>661</v>
-      </c>
-      <c r="K112" s="17"/>
+        <v>1138</v>
+      </c>
+      <c r="K112" s="17" t="s">
+        <v>736</v>
+      </c>
       <c r="L112" s="17"/>
       <c r="M112" s="17"/>
       <c r="N112" t="s">
-        <v>941</v>
+        <v>902</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>272</v>
+        <v>1054</v>
       </c>
       <c r="C113" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D113">
+        <v>1241</v>
+      </c>
+      <c r="D113" s="17">
         <v>3</v>
       </c>
-      <c r="E113">
-        <v>3</v>
-      </c>
-      <c r="F113">
-        <v>250</v>
-      </c>
-      <c r="G113" t="s">
-        <v>701</v>
+      <c r="E113" s="17">
+        <v>1</v>
+      </c>
+      <c r="F113" s="17">
+        <v>10000</v>
+      </c>
+      <c r="G113" s="17" t="s">
+        <v>721</v>
       </c>
       <c r="H113" s="17" t="s">
-        <v>944</v>
+        <v>764</v>
       </c>
       <c r="I113" s="17" t="s">
-        <v>788</v>
+        <v>1242</v>
       </c>
       <c r="J113" s="17" t="s">
-        <v>642</v>
-      </c>
-      <c r="K113" s="17"/>
+        <v>1017</v>
+      </c>
+      <c r="K113" s="17" t="s">
+        <v>792</v>
+      </c>
       <c r="L113" s="17"/>
       <c r="M113" s="17"/>
       <c r="N113" t="s">
-        <v>941</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B114" s="17" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C114" s="17" t="s">
-        <v>1085</v>
+        <v>1054</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1244</v>
       </c>
       <c r="D114" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E114" s="17">
         <v>1</v>
@@ -32220,40 +32310,36 @@
       <c r="F114" s="17">
         <v>10000</v>
       </c>
-      <c r="G114" t="s">
-        <v>905</v>
+      <c r="G114" s="17" t="s">
+        <v>721</v>
       </c>
       <c r="H114" s="17"/>
       <c r="I114" s="17" t="s">
-        <v>691</v>
+        <v>881</v>
       </c>
       <c r="J114" s="17" t="s">
-        <v>1086</v>
+        <v>1046</v>
       </c>
       <c r="K114" s="17" t="s">
-        <v>752</v>
-      </c>
-      <c r="L114" s="17"/>
+        <v>1245</v>
+      </c>
+      <c r="L114" s="17" t="s">
+        <v>840</v>
+      </c>
       <c r="M114" s="17"/>
       <c r="N114" t="s">
-        <v>951</v>
-      </c>
-      <c r="P114" t="s">
-        <v>884</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B115" s="17" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C115" s="17" t="s">
-        <v>1088</v>
+        <v>1054</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1247</v>
       </c>
       <c r="D115" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E115" s="17">
         <v>1</v>
@@ -32261,40 +32347,39 @@
       <c r="F115" s="17">
         <v>10000</v>
       </c>
-      <c r="G115" t="s">
-        <v>894</v>
+      <c r="G115" s="17" t="s">
+        <v>788</v>
       </c>
       <c r="H115" s="17"/>
       <c r="I115" s="17" t="s">
-        <v>803</v>
+        <v>725</v>
       </c>
       <c r="J115" s="17" t="s">
-        <v>1089</v>
+        <v>1248</v>
       </c>
       <c r="K115" s="17" t="s">
-        <v>853</v>
-      </c>
-      <c r="L115" s="17"/>
+        <v>642</v>
+      </c>
+      <c r="L115" s="17" t="s">
+        <v>1249</v>
+      </c>
       <c r="M115" s="17"/>
       <c r="N115" t="s">
-        <v>951</v>
-      </c>
-      <c r="P115" t="s">
-        <v>884</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1083</v>
+        <v>1062</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>1090</v>
+        <v>1063</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>1091</v>
+        <v>1064</v>
       </c>
       <c r="D116" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E116" s="17">
         <v>1</v>
@@ -32303,24 +32388,22 @@
         <v>10000</v>
       </c>
       <c r="G116" t="s">
-        <v>888</v>
+        <v>1065</v>
       </c>
       <c r="H116" s="17"/>
       <c r="I116" s="17" t="s">
-        <v>948</v>
+        <v>710</v>
       </c>
       <c r="J116" s="17" t="s">
-        <v>844</v>
+        <v>1066</v>
       </c>
       <c r="K116" s="17" t="s">
-        <v>903</v>
-      </c>
-      <c r="L116" s="17" t="s">
-        <v>971</v>
-      </c>
+        <v>1067</v>
+      </c>
+      <c r="L116" s="17"/>
       <c r="M116" s="17"/>
       <c r="N116" t="s">
-        <v>951</v>
+        <v>1038</v>
       </c>
       <c r="P116" t="s">
         <v>884</v>
@@ -32328,91 +32411,86 @@
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1083</v>
+        <v>1062</v>
       </c>
       <c r="C117" t="s">
-        <v>1290</v>
-      </c>
-      <c r="D117">
-        <v>3</v>
-      </c>
-      <c r="E117">
+        <v>1251</v>
+      </c>
+      <c r="D117" s="17">
         <v>1</v>
       </c>
-      <c r="F117">
-        <v>10000</v>
-      </c>
-      <c r="G117" t="s">
-        <v>2156</v>
+      <c r="E117" s="17">
+        <v>4</v>
+      </c>
+      <c r="F117" s="17">
+        <v>50</v>
+      </c>
+      <c r="G117" s="17" t="s">
+        <v>721</v>
       </c>
       <c r="H117" s="17"/>
       <c r="I117" s="17" t="s">
-        <v>674</v>
+        <v>747</v>
       </c>
       <c r="J117" s="17" t="s">
-        <v>787</v>
+        <v>661</v>
       </c>
       <c r="K117" s="17" t="s">
-        <v>1282</v>
+        <v>705</v>
       </c>
       <c r="L117" s="17"/>
       <c r="M117" s="17"/>
       <c r="N117" t="s">
-        <v>883</v>
+        <v>902</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1092</v>
+        <v>1062</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>1097</v>
+        <v>1068</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>1098</v>
+        <v>1069</v>
       </c>
       <c r="D118" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E118" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F118" s="17">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="G118" t="s">
-        <v>1099</v>
-      </c>
-      <c r="H118" s="17"/>
+        <v>739</v>
+      </c>
+      <c r="H118" s="17" t="s">
+        <v>733</v>
+      </c>
       <c r="I118" s="17" t="s">
-        <v>1100</v>
+        <v>2194</v>
       </c>
       <c r="J118" s="17" t="s">
-        <v>1101</v>
-      </c>
-      <c r="K118" s="17" t="s">
-        <v>1102</v>
-      </c>
-      <c r="L118" s="17" t="s">
-        <v>1103</v>
-      </c>
+        <v>808</v>
+      </c>
+      <c r="K118" s="17"/>
+      <c r="L118" s="17"/>
       <c r="M118" s="17"/>
-      <c r="N118" t="s">
-        <v>1096</v>
-      </c>
       <c r="P118" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C119" s="17" t="s">
-        <v>1299</v>
+        <v>1062</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1252</v>
       </c>
       <c r="D119" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E119" s="17">
         <v>1</v>
@@ -32420,375 +32498,344 @@
       <c r="F119" s="17">
         <v>10000</v>
       </c>
-      <c r="G119" t="s">
-        <v>880</v>
+      <c r="G119" s="17" t="s">
+        <v>808</v>
       </c>
       <c r="H119" s="17"/>
       <c r="I119" s="17" t="s">
         <v>1253</v>
       </c>
       <c r="J119" s="17" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K119" s="17"/>
+        <v>901</v>
+      </c>
+      <c r="K119" s="17" t="s">
+        <v>744</v>
+      </c>
       <c r="L119" s="17"/>
       <c r="M119" s="17"/>
       <c r="N119" t="s">
-        <v>883</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C120" s="17" t="s">
-        <v>1301</v>
+        <v>1062</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1255</v>
       </c>
       <c r="D120" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E120" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F120" s="17">
-        <v>250</v>
-      </c>
-      <c r="G120" t="s">
-        <v>2171</v>
+        <v>50</v>
+      </c>
+      <c r="G120" s="17" t="s">
+        <v>794</v>
       </c>
       <c r="H120" s="17"/>
       <c r="I120" s="17" t="s">
-        <v>1022</v>
+        <v>710</v>
       </c>
       <c r="J120" s="17" t="s">
-        <v>901</v>
+        <v>948</v>
       </c>
       <c r="K120" s="17" t="s">
-        <v>984</v>
+        <v>1256</v>
       </c>
       <c r="L120" s="17"/>
       <c r="M120" s="17"/>
       <c r="N120" t="s">
-        <v>1096</v>
+        <v>951</v>
+      </c>
+      <c r="O120" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C121" s="17" t="s">
-        <v>1303</v>
+        <v>1062</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1257</v>
       </c>
       <c r="D121" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E121" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F121" s="17">
-        <v>250</v>
-      </c>
-      <c r="G121" t="s">
-        <v>2173</v>
+        <v>50</v>
+      </c>
+      <c r="G121" s="17" t="s">
+        <v>792</v>
       </c>
       <c r="H121" s="17"/>
       <c r="I121" s="17" t="s">
-        <v>1022</v>
+        <v>710</v>
       </c>
       <c r="J121" s="17" t="s">
-        <v>674</v>
+        <v>948</v>
       </c>
       <c r="K121" s="17" t="s">
-        <v>803</v>
+        <v>1232</v>
       </c>
       <c r="L121" s="17"/>
       <c r="M121" s="17"/>
       <c r="N121" t="s">
-        <v>1096</v>
+        <v>951</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B122" s="17" t="s">
-        <v>2584</v>
-      </c>
-      <c r="C122" s="17" t="s">
-        <v>2585</v>
+        <v>1062</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1258</v>
       </c>
       <c r="D122" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E122" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F122" s="17">
-        <v>250</v>
-      </c>
-      <c r="G122" t="s">
-        <v>887</v>
-      </c>
-      <c r="H122" t="s">
-        <v>904</v>
-      </c>
-      <c r="I122" t="s">
-        <v>1166</v>
-      </c>
-      <c r="J122" t="s">
-        <v>2355</v>
-      </c>
-      <c r="K122" t="s">
-        <v>2586</v>
-      </c>
-      <c r="L122" t="s">
-        <v>2318</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G122" s="17" t="s">
+        <v>790</v>
+      </c>
+      <c r="H122" s="17"/>
+      <c r="I122" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="J122" s="17" t="s">
+        <v>948</v>
+      </c>
+      <c r="K122" s="17" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
       <c r="N122" t="s">
-        <v>2587</v>
-      </c>
-      <c r="P122" t="s">
-        <v>884</v>
+        <v>951</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>877</v>
-      </c>
-      <c r="B123" s="17" t="s">
-        <v>892</v>
-      </c>
-      <c r="C123" s="17" t="s">
-        <v>893</v>
+        <v>1062</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1260</v>
       </c>
       <c r="D123" s="17">
+        <v>2</v>
+      </c>
+      <c r="E123" s="17">
         <v>4</v>
       </c>
-      <c r="E123">
-        <v>1</v>
-      </c>
-      <c r="F123">
-        <v>10000</v>
-      </c>
-      <c r="G123" t="s">
-        <v>2173</v>
+      <c r="F123" s="17">
+        <v>50</v>
+      </c>
+      <c r="G123" s="17" t="s">
+        <v>788</v>
       </c>
       <c r="H123" s="17"/>
       <c r="I123" s="17" t="s">
-        <v>788</v>
+        <v>710</v>
       </c>
       <c r="J123" s="17" t="s">
-        <v>803</v>
+        <v>948</v>
       </c>
       <c r="K123" s="17" t="s">
-        <v>853</v>
-      </c>
-      <c r="L123" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="M123" s="17" t="s">
-        <v>2174</v>
-      </c>
+        <v>1157</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
       <c r="N123" t="s">
-        <v>883</v>
-      </c>
-      <c r="P123" t="s">
-        <v>884</v>
+        <v>951</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>897</v>
-      </c>
-      <c r="B124" s="17" t="s">
-        <v>2166</v>
-      </c>
-      <c r="C124" s="17" t="s">
-        <v>2170</v>
+        <v>1062</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1261</v>
       </c>
       <c r="D124" s="17">
-        <v>4</v>
-      </c>
-      <c r="E124">
-        <v>1</v>
-      </c>
-      <c r="F124">
-        <v>10000</v>
-      </c>
-      <c r="G124" t="s">
-        <v>2171</v>
-      </c>
-      <c r="H124" s="17" t="s">
-        <v>905</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E124" s="17">
+        <v>2</v>
+      </c>
+      <c r="F124" s="17">
+        <v>2500</v>
+      </c>
+      <c r="G124" s="17" t="s">
+        <v>764</v>
+      </c>
+      <c r="H124" s="17"/>
       <c r="I124" s="17" t="s">
-        <v>831</v>
+        <v>636</v>
       </c>
       <c r="J124" s="17" t="s">
-        <v>750</v>
+        <v>765</v>
       </c>
       <c r="K124" s="17" t="s">
-        <v>906</v>
-      </c>
-      <c r="L124" s="17" t="s">
-        <v>896</v>
-      </c>
+        <v>948</v>
+      </c>
+      <c r="L124" s="17"/>
       <c r="M124" s="17"/>
       <c r="N124" t="s">
-        <v>902</v>
-      </c>
-      <c r="P124" t="s">
-        <v>884</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>897</v>
-      </c>
-      <c r="B125" t="s">
-        <v>2154</v>
-      </c>
-      <c r="C125" s="17" t="s">
-        <v>2155</v>
+        <v>1062</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1262</v>
       </c>
       <c r="D125" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E125" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F125" s="17">
-        <v>250</v>
-      </c>
-      <c r="G125" t="s">
-        <v>2156</v>
+        <v>10000</v>
+      </c>
+      <c r="G125" s="17" t="s">
+        <v>808</v>
       </c>
       <c r="H125" s="17"/>
       <c r="I125" s="17" t="s">
-        <v>2157</v>
+        <v>728</v>
       </c>
       <c r="J125" s="17" t="s">
-        <v>949</v>
+        <v>1263</v>
       </c>
       <c r="K125" s="17" t="s">
-        <v>1067</v>
-      </c>
-      <c r="L125" s="17" t="s">
-        <v>800</v>
-      </c>
-      <c r="M125" s="17" t="s">
-        <v>2158</v>
-      </c>
+        <v>1139</v>
+      </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
       <c r="N125" t="s">
-        <v>2159</v>
+        <v>912</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>907</v>
-      </c>
-      <c r="B126" s="17"/>
+        <v>1062</v>
+      </c>
+      <c r="B126" t="s">
+        <v>2116</v>
+      </c>
       <c r="C126" s="17" t="s">
-        <v>1146</v>
+        <v>2117</v>
       </c>
       <c r="D126" s="17">
+        <v>3</v>
+      </c>
+      <c r="E126" s="17">
         <v>4</v>
       </c>
-      <c r="E126">
-        <v>2</v>
-      </c>
-      <c r="F126">
-        <v>2500</v>
+      <c r="F126" s="17">
+        <v>50</v>
       </c>
       <c r="G126" t="s">
-        <v>808</v>
-      </c>
-      <c r="H126" s="17"/>
+        <v>2118</v>
+      </c>
+      <c r="H126" s="17" t="s">
+        <v>1066</v>
+      </c>
       <c r="I126" s="17" t="s">
-        <v>921</v>
-      </c>
-      <c r="J126" s="17"/>
+        <v>2119</v>
+      </c>
+      <c r="J126" s="17" t="s">
+        <v>692</v>
+      </c>
       <c r="K126" s="17"/>
       <c r="L126" s="17"/>
       <c r="M126" s="17"/>
-      <c r="N126" t="s">
-        <v>1147</v>
-      </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>907</v>
-      </c>
-      <c r="B127" s="17"/>
-      <c r="C127" s="17" t="s">
-        <v>1148</v>
+        <v>1062</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1264</v>
       </c>
       <c r="D127" s="17">
         <v>4</v>
       </c>
-      <c r="E127">
-        <v>1</v>
-      </c>
-      <c r="F127">
-        <v>10000</v>
-      </c>
-      <c r="G127" t="s">
-        <v>790</v>
-      </c>
-      <c r="H127" s="17" t="s">
-        <v>794</v>
-      </c>
+      <c r="E127" s="17">
+        <v>4</v>
+      </c>
+      <c r="F127" s="17">
+        <v>50</v>
+      </c>
+      <c r="G127" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="H127" s="17"/>
       <c r="I127" s="17" t="s">
-        <v>739</v>
+        <v>1265</v>
       </c>
       <c r="J127" s="17" t="s">
-        <v>724</v>
+        <v>1266</v>
       </c>
       <c r="K127" s="17" t="s">
-        <v>992</v>
+        <v>1267</v>
       </c>
       <c r="L127" s="17"/>
       <c r="M127" s="17"/>
       <c r="N127" t="s">
-        <v>1149</v>
+        <v>978</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>918</v>
+        <v>1062</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>923</v>
+        <v>1071</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>924</v>
-      </c>
-      <c r="D128">
+        <v>1072</v>
+      </c>
+      <c r="D128" s="17">
+        <v>5</v>
+      </c>
+      <c r="E128" s="17">
         <v>4</v>
       </c>
-      <c r="E128" s="17">
-        <v>3</v>
-      </c>
       <c r="F128" s="17">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="G128" t="s">
-        <v>903</v>
+        <v>921</v>
       </c>
       <c r="H128" s="17"/>
       <c r="I128" s="17" t="s">
-        <v>691</v>
+        <v>2187</v>
       </c>
       <c r="J128" s="17" t="s">
-        <v>925</v>
+        <v>1073</v>
       </c>
       <c r="K128" s="17" t="s">
-        <v>688</v>
+        <v>1074</v>
       </c>
       <c r="L128" s="17"/>
       <c r="M128" s="17"/>
       <c r="N128" t="s">
-        <v>926</v>
+        <v>1075</v>
       </c>
       <c r="P128" t="s">
         <v>884</v>
@@ -32796,81 +32843,75 @@
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>918</v>
-      </c>
-      <c r="B129" s="17" t="s">
-        <v>923</v>
-      </c>
-      <c r="C129" s="17" t="s">
-        <v>927</v>
-      </c>
-      <c r="D129">
-        <v>4</v>
+        <v>1062</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D129" s="17">
+        <v>5</v>
       </c>
       <c r="E129" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F129" s="17">
-        <v>250</v>
-      </c>
-      <c r="G129" t="s">
-        <v>928</v>
-      </c>
-      <c r="H129" s="17"/>
+        <v>10000</v>
+      </c>
+      <c r="G129" s="17" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H129" s="17" t="s">
+        <v>1270</v>
+      </c>
       <c r="I129" s="17" t="s">
-        <v>691</v>
+        <v>970</v>
       </c>
       <c r="J129" s="17" t="s">
-        <v>925</v>
-      </c>
-      <c r="K129" s="17" t="s">
-        <v>688</v>
-      </c>
+        <v>1271</v>
+      </c>
+      <c r="K129" s="17"/>
       <c r="L129" s="17"/>
       <c r="M129" s="17"/>
       <c r="N129" t="s">
-        <v>929</v>
-      </c>
-      <c r="P129" t="s">
-        <v>884</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>918</v>
+        <v>272</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>923</v>
+        <v>1076</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>930</v>
+        <v>1077</v>
       </c>
       <c r="D130">
-        <v>4</v>
-      </c>
-      <c r="E130" s="17">
-        <v>3</v>
-      </c>
-      <c r="F130" s="17">
-        <v>250</v>
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>10000</v>
       </c>
       <c r="G130" t="s">
-        <v>841</v>
+        <v>701</v>
       </c>
       <c r="H130" s="17"/>
       <c r="I130" s="17" t="s">
-        <v>691</v>
+        <v>721</v>
       </c>
       <c r="J130" s="17" t="s">
-        <v>925</v>
+        <v>629</v>
       </c>
       <c r="K130" s="17" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="L130" s="17"/>
       <c r="M130" s="17"/>
       <c r="N130" t="s">
-        <v>931</v>
+        <v>1078</v>
       </c>
       <c r="P130" t="s">
         <v>884</v>
@@ -32878,40 +32919,40 @@
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>918</v>
+        <v>272</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>923</v>
+        <v>1079</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>932</v>
+        <v>1080</v>
       </c>
       <c r="D131">
-        <v>4</v>
-      </c>
-      <c r="E131" s="17">
-        <v>3</v>
-      </c>
-      <c r="F131" s="17">
-        <v>250</v>
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>10000</v>
       </c>
       <c r="G131" t="s">
-        <v>840</v>
+        <v>701</v>
       </c>
       <c r="H131" s="17"/>
       <c r="I131" s="17" t="s">
-        <v>691</v>
+        <v>1005</v>
       </c>
       <c r="J131" s="17" t="s">
-        <v>925</v>
+        <v>784</v>
       </c>
       <c r="K131" s="17" t="s">
-        <v>688</v>
+        <v>823</v>
       </c>
       <c r="L131" s="17"/>
       <c r="M131" s="17"/>
       <c r="N131" t="s">
-        <v>933</v>
+        <v>1078</v>
       </c>
       <c r="P131" t="s">
         <v>884</v>
@@ -32919,40 +32960,40 @@
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>918</v>
+        <v>272</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>923</v>
+        <v>1081</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>934</v>
+        <v>1082</v>
       </c>
       <c r="D132">
-        <v>4</v>
-      </c>
-      <c r="E132" s="17">
-        <v>3</v>
-      </c>
-      <c r="F132" s="17">
-        <v>250</v>
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>10000</v>
       </c>
       <c r="G132" t="s">
-        <v>845</v>
+        <v>701</v>
       </c>
       <c r="H132" s="17"/>
       <c r="I132" s="17" t="s">
-        <v>691</v>
+        <v>890</v>
       </c>
       <c r="J132" s="17" t="s">
-        <v>925</v>
+        <v>764</v>
       </c>
       <c r="K132" s="17" t="s">
-        <v>688</v>
+        <v>736</v>
       </c>
       <c r="L132" s="17"/>
       <c r="M132" s="17"/>
       <c r="N132" t="s">
-        <v>935</v>
+        <v>1078</v>
       </c>
       <c r="P132" t="s">
         <v>884</v>
@@ -32960,413 +33001,372 @@
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>918</v>
-      </c>
-      <c r="B133" s="17" t="s">
-        <v>923</v>
-      </c>
-      <c r="C133" s="17" t="s">
-        <v>936</v>
+        <v>272</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1272</v>
       </c>
       <c r="D133">
-        <v>4</v>
-      </c>
-      <c r="E133" s="17">
-        <v>3</v>
-      </c>
-      <c r="F133" s="17">
-        <v>250</v>
+        <v>2</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>10000</v>
       </c>
       <c r="G133" t="s">
-        <v>823</v>
+        <v>701</v>
       </c>
       <c r="H133" s="17"/>
       <c r="I133" s="17" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="J133" s="17" t="s">
-        <v>925</v>
+        <v>820</v>
       </c>
       <c r="K133" s="17" t="s">
-        <v>688</v>
+        <v>881</v>
       </c>
       <c r="L133" s="17"/>
       <c r="M133" s="17"/>
       <c r="N133" t="s">
-        <v>937</v>
-      </c>
-      <c r="P133" t="s">
-        <v>884</v>
+        <v>912</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>938</v>
-      </c>
-      <c r="B134" s="17" t="s">
-        <v>945</v>
-      </c>
-      <c r="C134" s="17" t="s">
-        <v>946</v>
+        <v>272</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1273</v>
       </c>
       <c r="D134" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E134" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F134" s="17">
-        <v>250</v>
-      </c>
-      <c r="G134" t="s">
-        <v>764</v>
+        <v>10000</v>
+      </c>
+      <c r="G134" s="17" t="s">
+        <v>701</v>
       </c>
       <c r="H134" s="17"/>
       <c r="I134" s="17" t="s">
-        <v>947</v>
+        <v>836</v>
       </c>
       <c r="J134" s="17" t="s">
-        <v>948</v>
-      </c>
-      <c r="K134" s="17" t="s">
-        <v>1239</v>
-      </c>
-      <c r="L134" s="17" t="s">
-        <v>1086</v>
-      </c>
+        <v>764</v>
+      </c>
+      <c r="K134" s="17"/>
+      <c r="L134" s="17"/>
       <c r="M134" s="17"/>
       <c r="N134" t="s">
-        <v>951</v>
-      </c>
-      <c r="P134" t="s">
-        <v>884</v>
+        <v>941</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>965</v>
-      </c>
-      <c r="B135" s="17" t="s">
-        <v>973</v>
-      </c>
-      <c r="C135" s="17" t="s">
-        <v>974</v>
-      </c>
-      <c r="D135" s="17">
-        <v>4</v>
-      </c>
-      <c r="E135" s="17">
+        <v>272</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D135">
         <v>3</v>
       </c>
-      <c r="F135" s="17">
+      <c r="E135">
+        <v>3</v>
+      </c>
+      <c r="F135">
         <v>250</v>
       </c>
       <c r="G135" t="s">
-        <v>764</v>
-      </c>
-      <c r="H135" s="17"/>
+        <v>701</v>
+      </c>
+      <c r="H135" s="17" t="s">
+        <v>1275</v>
+      </c>
       <c r="I135" s="17" t="s">
-        <v>643</v>
+        <v>794</v>
       </c>
       <c r="J135" s="17" t="s">
-        <v>691</v>
-      </c>
-      <c r="K135" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="L135" s="17" t="s">
-        <v>2194</v>
-      </c>
+        <v>629</v>
+      </c>
+      <c r="K135" s="17"/>
+      <c r="L135" s="17"/>
       <c r="M135" s="17"/>
       <c r="N135" t="s">
         <v>941</v>
       </c>
-      <c r="P135" t="s">
-        <v>884</v>
-      </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>975</v>
-      </c>
-      <c r="B136" s="17" t="s">
-        <v>979</v>
-      </c>
-      <c r="C136" s="17" t="s">
-        <v>980</v>
-      </c>
-      <c r="D136" s="17">
-        <v>4</v>
+        <v>272</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D136">
+        <v>3</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F136">
-        <v>10000</v>
+        <v>250</v>
       </c>
       <c r="G136" t="s">
-        <v>888</v>
-      </c>
-      <c r="H136" s="17"/>
+        <v>701</v>
+      </c>
+      <c r="H136" s="17" t="s">
+        <v>1277</v>
+      </c>
       <c r="I136" s="17" t="s">
-        <v>910</v>
+        <v>792</v>
       </c>
       <c r="J136" s="17" t="s">
-        <v>806</v>
-      </c>
-      <c r="K136" s="17" t="s">
-        <v>861</v>
-      </c>
-      <c r="L136" s="17" t="s">
-        <v>642</v>
-      </c>
+        <v>890</v>
+      </c>
+      <c r="K136" s="17"/>
+      <c r="L136" s="17"/>
       <c r="M136" s="17"/>
       <c r="N136" t="s">
-        <v>978</v>
-      </c>
-      <c r="P136" t="s">
-        <v>884</v>
+        <v>941</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>996</v>
+        <v>272</v>
       </c>
       <c r="C137" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D137" s="17">
-        <v>4</v>
+        <v>1278</v>
+      </c>
+      <c r="D137">
+        <v>3</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F137">
-        <v>10000</v>
+        <v>250</v>
       </c>
       <c r="G137" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="H137" s="17" t="s">
-        <v>900</v>
+        <v>1279</v>
       </c>
       <c r="I137" s="17" t="s">
-        <v>643</v>
+        <v>790</v>
       </c>
       <c r="J137" s="17" t="s">
-        <v>705</v>
-      </c>
-      <c r="K137" s="17" t="s">
         <v>661</v>
       </c>
-      <c r="L137" s="17" t="s">
-        <v>845</v>
-      </c>
+      <c r="K137" s="17"/>
+      <c r="L137" s="17"/>
       <c r="M137" s="17"/>
       <c r="N137" t="s">
-        <v>902</v>
+        <v>941</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1032</v>
+        <v>272</v>
       </c>
       <c r="C138" t="s">
-        <v>1208</v>
-      </c>
-      <c r="D138" s="17">
-        <v>4</v>
-      </c>
-      <c r="E138" s="17">
-        <v>1</v>
-      </c>
-      <c r="F138" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G138" s="17" t="s">
-        <v>721</v>
-      </c>
-      <c r="H138" s="17"/>
+        <v>1280</v>
+      </c>
+      <c r="D138">
+        <v>3</v>
+      </c>
+      <c r="E138">
+        <v>3</v>
+      </c>
+      <c r="F138">
+        <v>250</v>
+      </c>
+      <c r="G138" t="s">
+        <v>701</v>
+      </c>
+      <c r="H138" s="17" t="s">
+        <v>944</v>
+      </c>
       <c r="I138" s="17" t="s">
-        <v>1155</v>
+        <v>788</v>
       </c>
       <c r="J138" s="17" t="s">
-        <v>728</v>
-      </c>
-      <c r="K138" s="17" t="s">
-        <v>736</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="K138" s="17"/>
       <c r="L138" s="17"/>
       <c r="M138" s="17"/>
       <c r="N138" t="s">
-        <v>912</v>
+        <v>941</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A139" s="8" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B139" t="s">
-        <v>2189</v>
-      </c>
-      <c r="C139" s="13" t="s">
-        <v>2190</v>
-      </c>
-      <c r="D139" s="13">
-        <v>4</v>
-      </c>
-      <c r="E139" s="13">
-        <v>3</v>
-      </c>
-      <c r="F139" s="13">
-        <v>250</v>
-      </c>
-      <c r="G139" s="8" t="s">
-        <v>1057</v>
+      <c r="A139" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>10000</v>
+      </c>
+      <c r="G139" t="s">
+        <v>894</v>
       </c>
       <c r="H139" s="17"/>
       <c r="I139" s="17" t="s">
-        <v>2191</v>
+        <v>697</v>
       </c>
       <c r="J139" s="17" t="s">
-        <v>2192</v>
+        <v>853</v>
       </c>
       <c r="K139" s="17" t="s">
-        <v>800</v>
+        <v>1282</v>
       </c>
       <c r="L139" s="17" t="s">
-        <v>2193</v>
-      </c>
-      <c r="M139" s="17" t="s">
-        <v>2182</v>
+        <v>1283</v>
+      </c>
+      <c r="M139" s="17"/>
+      <c r="N139" t="s">
+        <v>1178</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B140" s="17" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C140" s="17" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D140" s="17">
-        <v>4</v>
-      </c>
-      <c r="E140" s="17">
-        <v>3</v>
-      </c>
-      <c r="F140" s="17">
-        <v>250</v>
+        <v>1083</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>10000</v>
       </c>
       <c r="G140" t="s">
-        <v>721</v>
-      </c>
-      <c r="H140" s="17" t="s">
-        <v>764</v>
-      </c>
+        <v>905</v>
+      </c>
+      <c r="H140" s="17"/>
       <c r="I140" s="17" t="s">
-        <v>706</v>
+        <v>752</v>
       </c>
       <c r="J140" s="17" t="s">
-        <v>890</v>
+        <v>1282</v>
       </c>
       <c r="K140" s="17" t="s">
-        <v>792</v>
+        <v>736</v>
       </c>
       <c r="L140" s="17" t="s">
-        <v>903</v>
+        <v>1285</v>
       </c>
       <c r="M140" s="17"/>
       <c r="N140" t="s">
-        <v>1050</v>
-      </c>
-      <c r="P140" t="s">
-        <v>884</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>1051</v>
+        <v>1083</v>
       </c>
       <c r="C141" t="s">
-        <v>1236</v>
-      </c>
-      <c r="D141" s="17">
-        <v>4</v>
-      </c>
-      <c r="E141" s="17">
+        <v>1286</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+      <c r="E141">
         <v>1</v>
       </c>
-      <c r="F141" s="17">
+      <c r="F141">
         <v>10000</v>
       </c>
-      <c r="G141" s="17" t="s">
-        <v>794</v>
+      <c r="G141" t="s">
+        <v>904</v>
       </c>
       <c r="H141" s="17"/>
       <c r="I141" s="17" t="s">
-        <v>831</v>
+        <v>697</v>
       </c>
       <c r="J141" s="17" t="s">
-        <v>728</v>
+        <v>1256</v>
       </c>
       <c r="K141" s="17" t="s">
-        <v>643</v>
+        <v>710</v>
       </c>
       <c r="L141" s="17" t="s">
-        <v>841</v>
+        <v>1287</v>
       </c>
       <c r="M141" s="17"/>
       <c r="N141" t="s">
-        <v>912</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>1051</v>
+        <v>1083</v>
       </c>
       <c r="C142" t="s">
-        <v>1237</v>
-      </c>
-      <c r="D142" s="17">
-        <v>4</v>
-      </c>
-      <c r="E142" s="17">
+        <v>1288</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+      <c r="E142">
         <v>1</v>
       </c>
-      <c r="F142" s="17">
+      <c r="F142">
         <v>10000</v>
       </c>
-      <c r="G142" s="17" t="s">
-        <v>790</v>
+      <c r="G142" t="s">
+        <v>888</v>
       </c>
       <c r="H142" s="17"/>
       <c r="I142" s="17" t="s">
-        <v>1238</v>
+        <v>826</v>
       </c>
       <c r="J142" s="17" t="s">
-        <v>1239</v>
+        <v>696</v>
       </c>
       <c r="K142" s="17" t="s">
-        <v>661</v>
-      </c>
-      <c r="L142" s="17"/>
+        <v>1232</v>
+      </c>
+      <c r="L142" s="17" t="s">
+        <v>1289</v>
+      </c>
       <c r="M142" s="17"/>
       <c r="N142" t="s">
-        <v>1195</v>
+        <v>951</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C143" t="s">
-        <v>1244</v>
+        <v>1083</v>
+      </c>
+      <c r="B143" s="17" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C143" s="17" t="s">
+        <v>1085</v>
       </c>
       <c r="D143" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E143" s="17">
         <v>1</v>
@@ -33374,36 +33374,40 @@
       <c r="F143" s="17">
         <v>10000</v>
       </c>
-      <c r="G143" s="17" t="s">
-        <v>721</v>
+      <c r="G143" t="s">
+        <v>905</v>
       </c>
       <c r="H143" s="17"/>
       <c r="I143" s="17" t="s">
-        <v>881</v>
+        <v>691</v>
       </c>
       <c r="J143" s="17" t="s">
-        <v>1046</v>
+        <v>1086</v>
       </c>
       <c r="K143" s="17" t="s">
-        <v>1245</v>
-      </c>
-      <c r="L143" s="17" t="s">
-        <v>840</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="L143" s="17"/>
       <c r="M143" s="17"/>
       <c r="N143" t="s">
-        <v>1246</v>
+        <v>951</v>
+      </c>
+      <c r="P143" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C144" t="s">
-        <v>1247</v>
+        <v>1083</v>
+      </c>
+      <c r="B144" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C144" s="17" t="s">
+        <v>1088</v>
       </c>
       <c r="D144" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E144" s="17">
         <v>1</v>
@@ -33411,60 +33415,69 @@
       <c r="F144" s="17">
         <v>10000</v>
       </c>
-      <c r="G144" s="17" t="s">
-        <v>788</v>
+      <c r="G144" t="s">
+        <v>894</v>
       </c>
       <c r="H144" s="17"/>
       <c r="I144" s="17" t="s">
-        <v>725</v>
+        <v>803</v>
       </c>
       <c r="J144" s="17" t="s">
-        <v>1248</v>
+        <v>1089</v>
       </c>
       <c r="K144" s="17" t="s">
-        <v>642</v>
-      </c>
-      <c r="L144" s="17" t="s">
-        <v>1249</v>
-      </c>
+        <v>853</v>
+      </c>
+      <c r="L144" s="17"/>
       <c r="M144" s="17"/>
       <c r="N144" t="s">
-        <v>1250</v>
+        <v>951</v>
+      </c>
+      <c r="P144" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C145" t="s">
-        <v>1264</v>
+        <v>1083</v>
+      </c>
+      <c r="B145" s="17" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C145" s="17" t="s">
+        <v>1091</v>
       </c>
       <c r="D145" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E145" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F145" s="17">
-        <v>50</v>
-      </c>
-      <c r="G145" s="17" t="s">
-        <v>755</v>
+        <v>10000</v>
+      </c>
+      <c r="G145" t="s">
+        <v>888</v>
       </c>
       <c r="H145" s="17"/>
       <c r="I145" s="17" t="s">
-        <v>1265</v>
+        <v>948</v>
       </c>
       <c r="J145" s="17" t="s">
-        <v>1266</v>
+        <v>844</v>
       </c>
       <c r="K145" s="17" t="s">
-        <v>1267</v>
-      </c>
-      <c r="L145" s="17"/>
+        <v>903</v>
+      </c>
+      <c r="L145" s="17" t="s">
+        <v>971</v>
+      </c>
       <c r="M145" s="17"/>
       <c r="N145" t="s">
-        <v>978</v>
+        <v>951</v>
+      </c>
+      <c r="P145" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
@@ -33472,34 +33485,34 @@
         <v>1083</v>
       </c>
       <c r="C146" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D146">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E146">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F146">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="G146" t="s">
-        <v>888</v>
+        <v>2156</v>
       </c>
       <c r="H146" s="17"/>
       <c r="I146" s="17" t="s">
-        <v>844</v>
+        <v>674</v>
       </c>
       <c r="J146" s="17" t="s">
-        <v>889</v>
+        <v>787</v>
       </c>
       <c r="K146" s="17" t="s">
-        <v>896</v>
+        <v>1282</v>
       </c>
       <c r="L146" s="17"/>
       <c r="M146" s="17"/>
       <c r="N146" t="s">
-        <v>1292</v>
+        <v>883</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
@@ -33507,7 +33520,7 @@
         <v>1083</v>
       </c>
       <c r="C147" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="D147">
         <v>4</v>
@@ -33519,14 +33532,14 @@
         <v>50</v>
       </c>
       <c r="G147" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="H147" s="17"/>
       <c r="I147" s="17" t="s">
-        <v>803</v>
+        <v>844</v>
       </c>
       <c r="J147" s="17" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="K147" s="17" t="s">
         <v>896</v>
@@ -33542,7 +33555,7 @@
         <v>1083</v>
       </c>
       <c r="C148" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D148">
         <v>4</v>
@@ -33554,14 +33567,14 @@
         <v>50</v>
       </c>
       <c r="G148" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="H148" s="17"/>
       <c r="I148" s="17" t="s">
-        <v>1086</v>
+        <v>803</v>
       </c>
       <c r="J148" s="17" t="s">
-        <v>950</v>
+        <v>895</v>
       </c>
       <c r="K148" s="17" t="s">
         <v>896</v>
@@ -33577,7 +33590,7 @@
         <v>1083</v>
       </c>
       <c r="C149" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D149">
         <v>4</v>
@@ -33589,14 +33602,14 @@
         <v>50</v>
       </c>
       <c r="G149" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H149" s="17"/>
       <c r="I149" s="17" t="s">
-        <v>984</v>
+        <v>1086</v>
       </c>
       <c r="J149" s="17" t="s">
-        <v>985</v>
+        <v>950</v>
       </c>
       <c r="K149" s="17" t="s">
         <v>896</v>
@@ -33608,168 +33621,152 @@
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B150" s="17" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C150" s="9" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D150" s="9">
+      <c r="A150" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D150">
         <v>4</v>
       </c>
-      <c r="E150" s="9">
-        <v>3</v>
-      </c>
-      <c r="F150" s="9">
-        <v>250</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="H150" s="9"/>
-      <c r="I150" s="9" t="s">
-        <v>949</v>
-      </c>
-      <c r="J150" s="9" t="s">
-        <v>808</v>
-      </c>
-      <c r="K150" s="9" t="s">
-        <v>717</v>
-      </c>
-      <c r="L150" s="9"/>
-      <c r="M150" s="9"/>
-      <c r="N150" s="2" t="s">
-        <v>1038</v>
-      </c>
-      <c r="O150" s="2"/>
-      <c r="P150" s="2" t="s">
-        <v>884</v>
+      <c r="E150">
+        <v>4</v>
+      </c>
+      <c r="F150">
+        <v>50</v>
+      </c>
+      <c r="G150" t="s">
+        <v>904</v>
+      </c>
+      <c r="H150" s="17"/>
+      <c r="I150" s="17" t="s">
+        <v>984</v>
+      </c>
+      <c r="J150" s="17" t="s">
+        <v>985</v>
+      </c>
+      <c r="K150" s="17" t="s">
+        <v>896</v>
+      </c>
+      <c r="L150" s="17"/>
+      <c r="M150" s="17"/>
+      <c r="N150" t="s">
+        <v>1292</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>877</v>
-      </c>
-      <c r="B151" s="17"/>
+        <v>1092</v>
+      </c>
       <c r="C151" s="17" t="s">
-        <v>1119</v>
+        <v>1296</v>
       </c>
       <c r="D151" s="17">
-        <v>5</v>
-      </c>
-      <c r="E151">
         <v>1</v>
       </c>
-      <c r="F151">
+      <c r="E151" s="17">
+        <v>1</v>
+      </c>
+      <c r="F151" s="17">
         <v>10000</v>
       </c>
       <c r="G151" t="s">
-        <v>2173</v>
-      </c>
-      <c r="H151" s="17" t="s">
         <v>2176</v>
       </c>
+      <c r="H151" s="17"/>
       <c r="I151" s="17" t="s">
-        <v>1120</v>
+        <v>710</v>
       </c>
       <c r="J151" s="17" t="s">
-        <v>2219</v>
+        <v>1194</v>
       </c>
       <c r="K151" s="17" t="s">
-        <v>1122</v>
-      </c>
-      <c r="L151" s="17"/>
+        <v>1282</v>
+      </c>
+      <c r="L151" s="17" t="s">
+        <v>2175</v>
+      </c>
       <c r="M151" s="17"/>
       <c r="N151" t="s">
-        <v>1123</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>907</v>
-      </c>
-      <c r="B152" s="17" t="s">
-        <v>913</v>
+        <v>1092</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>914</v>
+        <v>1298</v>
       </c>
       <c r="D152" s="17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E152" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F152" s="17">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="G152" t="s">
-        <v>724</v>
+        <v>2183</v>
       </c>
       <c r="H152" s="17"/>
       <c r="I152" s="17" t="s">
-        <v>915</v>
+        <v>674</v>
       </c>
       <c r="J152" s="17" t="s">
-        <v>916</v>
+        <v>787</v>
       </c>
       <c r="K152" s="17" t="s">
-        <v>800</v>
-      </c>
-      <c r="L152" s="17" t="s">
-        <v>917</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c r="L152" s="17"/>
       <c r="M152" s="17"/>
       <c r="N152" t="s">
-        <v>912</v>
-      </c>
-      <c r="P152" t="s">
-        <v>884</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>938</v>
+        <v>1092</v>
       </c>
       <c r="B153" s="17" t="s">
-        <v>952</v>
+        <v>1093</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>953</v>
+        <v>1094</v>
       </c>
       <c r="D153" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E153" s="17">
-        <v>4</v>
-      </c>
-      <c r="F153">
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="F153" s="17">
+        <v>10000</v>
       </c>
       <c r="G153" t="s">
-        <v>2142</v>
+        <v>887</v>
       </c>
       <c r="H153" s="17"/>
       <c r="I153" s="17" t="s">
-        <v>954</v>
+        <v>1022</v>
       </c>
       <c r="J153" s="17" t="s">
-        <v>629</v>
+        <v>764</v>
       </c>
       <c r="K153" s="17" t="s">
-        <v>955</v>
+        <v>636</v>
       </c>
       <c r="L153" s="17" t="s">
-        <v>956</v>
+        <v>710</v>
       </c>
       <c r="M153" s="17" t="s">
-        <v>765</v>
+        <v>1095</v>
       </c>
       <c r="N153" t="s">
-        <v>957</v>
+        <v>1096</v>
       </c>
       <c r="P153" t="s">
         <v>884</v>
@@ -33777,120 +33774,114 @@
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>958</v>
-      </c>
-      <c r="C154" t="s">
-        <v>1173</v>
+        <v>1092</v>
+      </c>
+      <c r="C154" s="17" t="s">
+        <v>1302</v>
       </c>
       <c r="D154" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E154" s="17">
-        <v>1</v>
-      </c>
-      <c r="F154">
-        <v>10000</v>
+        <v>3</v>
+      </c>
+      <c r="F154" s="17">
+        <v>250</v>
       </c>
       <c r="G154" t="s">
-        <v>764</v>
+        <v>2176</v>
       </c>
       <c r="H154" s="17"/>
       <c r="I154" s="17" t="s">
-        <v>739</v>
+        <v>1022</v>
       </c>
       <c r="J154" s="17" t="s">
-        <v>1018</v>
+        <v>808</v>
       </c>
       <c r="K154" s="17" t="s">
-        <v>1171</v>
-      </c>
-      <c r="L154" s="17"/>
+        <v>889</v>
+      </c>
+      <c r="L154" s="17" t="s">
+        <v>796</v>
+      </c>
       <c r="M154" s="17"/>
       <c r="N154" t="s">
-        <v>941</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>975</v>
-      </c>
-      <c r="B155" s="17" t="s">
-        <v>982</v>
+        <v>1092</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>983</v>
+        <v>1304</v>
       </c>
       <c r="D155" s="17">
-        <v>5</v>
-      </c>
-      <c r="E155">
-        <v>1</v>
-      </c>
-      <c r="F155">
-        <v>10000</v>
+        <v>2</v>
+      </c>
+      <c r="E155" s="17">
+        <v>3</v>
+      </c>
+      <c r="F155" s="17">
+        <v>250</v>
       </c>
       <c r="G155" t="s">
-        <v>904</v>
+        <v>2183</v>
       </c>
       <c r="H155" s="17"/>
       <c r="I155" s="17" t="s">
-        <v>859</v>
+        <v>1022</v>
       </c>
       <c r="J155" s="17" t="s">
-        <v>2591</v>
+        <v>2188</v>
       </c>
       <c r="K155" s="17" t="s">
-        <v>2592</v>
-      </c>
-      <c r="L155" s="17" t="s">
-        <v>841</v>
-      </c>
+        <v>950</v>
+      </c>
+      <c r="L155" s="17"/>
       <c r="M155" s="17"/>
       <c r="N155" t="s">
-        <v>986</v>
-      </c>
-      <c r="P155" t="s">
-        <v>884</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>996</v>
+        <v>1092</v>
       </c>
       <c r="B156" s="17" t="s">
-        <v>1002</v>
+        <v>1097</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>1003</v>
+        <v>1098</v>
       </c>
       <c r="D156" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E156" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F156" s="17">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="G156" t="s">
-        <v>900</v>
+        <v>1099</v>
       </c>
       <c r="H156" s="17"/>
       <c r="I156" s="17" t="s">
-        <v>1004</v>
+        <v>1100</v>
       </c>
       <c r="J156" s="17" t="s">
-        <v>721</v>
+        <v>1101</v>
       </c>
       <c r="K156" s="17" t="s">
-        <v>1005</v>
+        <v>1102</v>
       </c>
       <c r="L156" s="17" t="s">
-        <v>1006</v>
+        <v>1103</v>
       </c>
       <c r="M156" s="17"/>
       <c r="N156" t="s">
-        <v>1007</v>
+        <v>1096</v>
       </c>
       <c r="P156" t="s">
         <v>884</v>
@@ -33898,149 +33889,146 @@
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C157" t="s">
-        <v>1209</v>
+        <v>1092</v>
+      </c>
+      <c r="C157" s="17" t="s">
+        <v>1299</v>
       </c>
       <c r="D157" s="17">
-        <v>5</v>
-      </c>
-      <c r="E157">
+        <v>3</v>
+      </c>
+      <c r="E157" s="17">
         <v>1</v>
       </c>
-      <c r="F157">
+      <c r="F157" s="17">
         <v>10000</v>
       </c>
       <c r="G157" t="s">
-        <v>764</v>
+        <v>880</v>
       </c>
       <c r="H157" s="17"/>
       <c r="I157" s="17" t="s">
-        <v>684</v>
+        <v>1253</v>
       </c>
       <c r="J157" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="K157" s="17" t="s">
-        <v>921</v>
-      </c>
+        <v>1300</v>
+      </c>
+      <c r="K157" s="17"/>
       <c r="L157" s="17"/>
       <c r="M157" s="17"/>
       <c r="N157" t="s">
-        <v>941</v>
+        <v>883</v>
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C158" t="s">
-        <v>1210</v>
+        <v>1092</v>
+      </c>
+      <c r="C158" s="17" t="s">
+        <v>1301</v>
       </c>
       <c r="D158" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E158" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F158" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G158" s="17" t="s">
-        <v>794</v>
+        <v>250</v>
+      </c>
+      <c r="G158" t="s">
+        <v>2171</v>
       </c>
       <c r="H158" s="17"/>
       <c r="I158" s="17" t="s">
-        <v>831</v>
+        <v>1022</v>
       </c>
       <c r="J158" s="17" t="s">
-        <v>1200</v>
+        <v>901</v>
       </c>
       <c r="K158" s="17" t="s">
-        <v>744</v>
+        <v>984</v>
       </c>
       <c r="L158" s="17"/>
       <c r="M158" s="17"/>
       <c r="N158" t="s">
-        <v>1211</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C159" t="s">
-        <v>1212</v>
+        <v>1092</v>
+      </c>
+      <c r="C159" s="17" t="s">
+        <v>1303</v>
       </c>
       <c r="D159" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E159" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F159" s="17">
-        <v>50</v>
-      </c>
-      <c r="G159" s="17" t="s">
-        <v>1213</v>
-      </c>
-      <c r="H159" s="17" t="s">
-        <v>1214</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="G159" t="s">
+        <v>2173</v>
+      </c>
+      <c r="H159" s="17"/>
       <c r="I159" s="17" t="s">
-        <v>1215</v>
+        <v>1022</v>
       </c>
       <c r="J159" s="17" t="s">
-        <v>1216</v>
+        <v>674</v>
       </c>
       <c r="K159" s="17" t="s">
-        <v>917</v>
-      </c>
-      <c r="L159" s="17" t="s">
-        <v>800</v>
-      </c>
+        <v>803</v>
+      </c>
+      <c r="L159" s="17"/>
       <c r="M159" s="17"/>
       <c r="N159" t="s">
-        <v>1217</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>1062</v>
+        <v>1092</v>
       </c>
       <c r="B160" s="17" t="s">
-        <v>1071</v>
+        <v>2584</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>1072</v>
+        <v>2585</v>
       </c>
       <c r="D160" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E160" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F160" s="17">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="G160" t="s">
-        <v>921</v>
-      </c>
-      <c r="H160" s="17"/>
-      <c r="I160" s="17" t="s">
-        <v>2187</v>
-      </c>
-      <c r="J160" s="17" t="s">
-        <v>1073</v>
-      </c>
-      <c r="K160" s="17" t="s">
-        <v>1074</v>
-      </c>
-      <c r="L160" s="17"/>
-      <c r="M160" s="17"/>
+        <v>887</v>
+      </c>
+      <c r="H160" t="s">
+        <v>904</v>
+      </c>
+      <c r="I160" t="s">
+        <v>1166</v>
+      </c>
+      <c r="J160" t="s">
+        <v>2355</v>
+      </c>
+      <c r="K160" t="s">
+        <v>2586</v>
+      </c>
+      <c r="L160" t="s">
+        <v>2318</v>
+      </c>
       <c r="N160" t="s">
-        <v>1075</v>
+        <v>2587</v>
       </c>
       <c r="P160" t="s">
         <v>884</v>
@@ -34048,37 +34036,47 @@
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C161" t="s">
-        <v>1268</v>
+        <v>1092</v>
+      </c>
+      <c r="B161" s="17" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C161" s="17" t="s">
+        <v>1105</v>
       </c>
       <c r="D161" s="17">
         <v>5</v>
       </c>
       <c r="E161" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F161" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G161" s="17" t="s">
-        <v>1269</v>
-      </c>
-      <c r="H161" s="17" t="s">
-        <v>1270</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G161" t="s">
+        <v>880</v>
+      </c>
+      <c r="H161" s="17"/>
       <c r="I161" s="17" t="s">
-        <v>970</v>
+        <v>800</v>
       </c>
       <c r="J161" s="17" t="s">
-        <v>1271</v>
-      </c>
-      <c r="K161" s="17"/>
-      <c r="L161" s="17"/>
-      <c r="M161" s="17"/>
+        <v>724</v>
+      </c>
+      <c r="K161" s="17" t="s">
+        <v>794</v>
+      </c>
+      <c r="L161" s="17" t="s">
+        <v>2318</v>
+      </c>
+      <c r="M161" s="17" t="s">
+        <v>896</v>
+      </c>
       <c r="N161" t="s">
-        <v>1123</v>
+        <v>1107</v>
+      </c>
+      <c r="P161" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
@@ -34086,10 +34084,10 @@
         <v>1092</v>
       </c>
       <c r="B162" s="17" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>1105</v>
+        <v>1109</v>
       </c>
       <c r="D162" s="17">
         <v>5</v>
@@ -34101,26 +34099,26 @@
         <v>50</v>
       </c>
       <c r="G162" t="s">
-        <v>880</v>
+        <v>888</v>
       </c>
       <c r="H162" s="17"/>
       <c r="I162" s="17" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="J162" s="17" t="s">
-        <v>724</v>
+        <v>1014</v>
       </c>
       <c r="K162" s="17" t="s">
-        <v>794</v>
+        <v>2593</v>
       </c>
       <c r="L162" s="17" t="s">
-        <v>2318</v>
+        <v>696</v>
       </c>
       <c r="M162" s="17" t="s">
         <v>896</v>
       </c>
       <c r="N162" t="s">
-        <v>1107</v>
+        <v>1019</v>
       </c>
       <c r="P162" t="s">
         <v>884</v>
@@ -34128,91 +34126,93 @@
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>1092</v>
+        <v>1110</v>
       </c>
       <c r="B163" s="17" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="D163" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E163" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F163" s="17">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="G163" t="s">
-        <v>888</v>
+        <v>764</v>
       </c>
       <c r="H163" s="17"/>
       <c r="I163" s="17" t="s">
-        <v>792</v>
+        <v>691</v>
       </c>
       <c r="J163" s="17" t="s">
-        <v>1014</v>
+        <v>2194</v>
       </c>
       <c r="K163" s="17" t="s">
-        <v>2593</v>
+        <v>732</v>
       </c>
       <c r="L163" s="17" t="s">
-        <v>696</v>
-      </c>
-      <c r="M163" s="17" t="s">
-        <v>896</v>
-      </c>
+        <v>733</v>
+      </c>
+      <c r="M163" s="17"/>
       <c r="N163" t="s">
-        <v>1019</v>
+        <v>1038</v>
       </c>
       <c r="P163" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>897</v>
-      </c>
-      <c r="B164" s="17"/>
-      <c r="C164" s="17" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D164" s="17">
-        <v>10</v>
-      </c>
-      <c r="E164">
-        <v>1</v>
-      </c>
-      <c r="F164">
-        <v>10000</v>
-      </c>
-      <c r="G164" t="s">
-        <v>894</v>
-      </c>
-      <c r="H164" s="17"/>
-      <c r="I164" s="17" t="s">
-        <v>706</v>
-      </c>
-      <c r="J164" s="17" t="s">
-        <v>788</v>
-      </c>
-      <c r="K164" s="17" t="s">
-        <v>1125</v>
-      </c>
-      <c r="L164" s="17" t="s">
-        <v>642</v>
-      </c>
-      <c r="M164" s="17"/>
-      <c r="N164" t="s">
-        <v>902</v>
+      <c r="A164" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B164" s="17" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D164" s="9">
+        <v>4</v>
+      </c>
+      <c r="E164" s="9">
+        <v>3</v>
+      </c>
+      <c r="F164" s="9">
+        <v>250</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="H164" s="9"/>
+      <c r="I164" s="9" t="s">
+        <v>949</v>
+      </c>
+      <c r="J164" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="K164" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="L164" s="9"/>
+      <c r="M164" s="9"/>
+      <c r="N164" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="O164" s="2"/>
+      <c r="P164" s="2" t="s">
+        <v>884</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:P1" xr:uid="{C182BAC9-BEF5-449C-9FCB-142EFD583D9B}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P164">
-      <sortCondition ref="D1"/>
+      <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/INFO D.xlsx
+++ b/INFO D.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Dissonance-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE1090A-A348-4956-9EE2-618BF4AE6902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD086FE5-BEE2-414F-A1B8-28EFF829EB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15885" tabRatio="680" firstSheet="6" activeTab="12" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="38280" yWindow="525" windowWidth="29040" windowHeight="16440" tabRatio="680" firstSheet="6" activeTab="14" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -24403,8 +24403,8 @@
   </sheetPr>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27847,8 +27847,8 @@
   </sheetPr>
   <dimension ref="A1:P164"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="B139" workbookViewId="0">
+      <selection activeCell="I136" sqref="I136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/INFO D.xlsx
+++ b/INFO D.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Dissonance-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD086FE5-BEE2-414F-A1B8-28EFF829EB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296AD62F-C770-4D4E-8E38-88B45FC67041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="525" windowWidth="29040" windowHeight="16440" tabRatio="680" firstSheet="6" activeTab="14" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
@@ -27847,8 +27847,8 @@
   </sheetPr>
   <dimension ref="A1:P164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B139" workbookViewId="0">
-      <selection activeCell="I136" sqref="I136"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27944,16 +27944,16 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>877</v>
+        <v>897</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>878</v>
+        <v>2163</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>879</v>
+        <v>2167</v>
       </c>
       <c r="D3" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -27966,18 +27966,18 @@
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="17" t="s">
-        <v>881</v>
+        <v>800</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>829</v>
+        <v>744</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>882</v>
+        <v>845</v>
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
       <c r="N3" t="s">
-        <v>883</v>
+        <v>898</v>
       </c>
       <c r="P3" t="s">
         <v>884</v>
@@ -27985,16 +27985,14 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>877</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>885</v>
-      </c>
+        <v>897</v>
+      </c>
+      <c r="B4" s="17"/>
       <c r="C4" s="17" t="s">
-        <v>886</v>
+        <v>1124</v>
       </c>
       <c r="D4" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -28003,41 +28001,36 @@
         <v>10000</v>
       </c>
       <c r="G4" t="s">
-        <v>887</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>888</v>
-      </c>
+        <v>894</v>
+      </c>
+      <c r="H4" s="17"/>
       <c r="I4" s="17" t="s">
-        <v>844</v>
+        <v>706</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>890</v>
+        <v>1125</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>628</v>
+        <v>696</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>2175</v>
+        <v>674</v>
       </c>
       <c r="M4" s="17"/>
       <c r="N4" t="s">
-        <v>891</v>
-      </c>
-      <c r="P4" t="s">
-        <v>884</v>
+        <v>902</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>877</v>
+        <v>897</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17" t="s">
-        <v>1116</v>
+        <v>1126</v>
       </c>
       <c r="D5" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -28046,80 +28039,77 @@
         <v>10000</v>
       </c>
       <c r="G5" t="s">
-        <v>2171</v>
+        <v>2177</v>
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="17" t="s">
-        <v>906</v>
+        <v>706</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>710</v>
+        <v>750</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>1117</v>
+        <v>696</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>1118</v>
+        <v>796</v>
       </c>
       <c r="M5" s="17"/>
       <c r="N5" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>877</v>
+        <v>907</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>908</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>2220</v>
-      </c>
-      <c r="D6" s="17">
-        <v>3</v>
-      </c>
-      <c r="E6" s="17">
+        <v>909</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="F6" s="17">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>10000</v>
       </c>
       <c r="G6" t="s">
-        <v>880</v>
+        <v>724</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="17" t="s">
-        <v>2222</v>
+        <v>910</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>2221</v>
+        <v>911</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>2223</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>2224</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>2225</v>
-      </c>
+        <v>890</v>
+      </c>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
       <c r="N6" t="s">
-        <v>2226</v>
-      </c>
-      <c r="O6" t="s">
-        <v>2227</v>
+        <v>912</v>
+      </c>
+      <c r="P6" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>877</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>892</v>
-      </c>
+        <v>907</v>
+      </c>
+      <c r="B7" s="17"/>
       <c r="C7" s="17" t="s">
-        <v>893</v>
+        <v>1130</v>
       </c>
       <c r="D7" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -28128,41 +28118,36 @@
         <v>10000</v>
       </c>
       <c r="G7" t="s">
-        <v>2173</v>
+        <v>790</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="17" t="s">
-        <v>788</v>
+        <v>1046</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>803</v>
+        <v>721</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>853</v>
+        <v>1131</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>2174</v>
-      </c>
+        <v>1132</v>
+      </c>
+      <c r="M7" s="17"/>
       <c r="N7" t="s">
-        <v>883</v>
-      </c>
-      <c r="P7" t="s">
-        <v>884</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>877</v>
+        <v>918</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17" t="s">
-        <v>1119</v>
+        <v>1150</v>
       </c>
       <c r="D8" s="17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -28171,35 +28156,31 @@
         <v>10000</v>
       </c>
       <c r="G8" t="s">
-        <v>2173</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>2176</v>
-      </c>
+        <v>790</v>
+      </c>
+      <c r="H8" s="17"/>
       <c r="I8" s="17" t="s">
-        <v>1120</v>
+        <v>721</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>2219</v>
+        <v>752</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>1122</v>
+        <v>1046</v>
       </c>
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
       <c r="N8" t="s">
-        <v>1123</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>897</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>2163</v>
-      </c>
+        <v>918</v>
+      </c>
+      <c r="B9" s="17"/>
       <c r="C9" s="17" t="s">
-        <v>2167</v>
+        <v>1152</v>
       </c>
       <c r="D9" s="17">
         <v>1</v>
@@ -28211,115 +28192,116 @@
         <v>10000</v>
       </c>
       <c r="G9" t="s">
-        <v>880</v>
+        <v>794</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="17" t="s">
-        <v>800</v>
+        <v>629</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>744</v>
+        <v>711</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
       <c r="N9" t="s">
-        <v>898</v>
-      </c>
-      <c r="P9" t="s">
-        <v>884</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>897</v>
-      </c>
-      <c r="B10" s="17"/>
+        <v>938</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>939</v>
+      </c>
       <c r="C10" s="17" t="s">
-        <v>1124</v>
+        <v>940</v>
       </c>
       <c r="D10" s="17">
         <v>1</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="17">
         <v>1</v>
       </c>
       <c r="F10">
         <v>10000</v>
       </c>
       <c r="G10" t="s">
-        <v>894</v>
+        <v>764</v>
       </c>
       <c r="H10" s="17"/>
       <c r="I10" s="17" t="s">
-        <v>706</v>
+        <v>688</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>1125</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>696</v>
-      </c>
-      <c r="L10" s="17" t="s">
-        <v>674</v>
-      </c>
+        <v>1683</v>
+      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
       <c r="M10" s="17"/>
       <c r="N10" t="s">
-        <v>902</v>
+        <v>941</v>
+      </c>
+      <c r="P10" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>897</v>
-      </c>
-      <c r="B11" s="17"/>
+        <v>965</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>966</v>
+      </c>
       <c r="C11" s="17" t="s">
-        <v>1126</v>
+        <v>967</v>
       </c>
       <c r="D11" s="17">
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="17">
         <v>1</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="17">
         <v>10000</v>
       </c>
       <c r="G11" t="s">
-        <v>2177</v>
+        <v>764</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="17" t="s">
-        <v>706</v>
+        <v>911</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>750</v>
+        <v>636</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>696</v>
-      </c>
-      <c r="L11" s="17" t="s">
-        <v>796</v>
-      </c>
+        <v>765</v>
+      </c>
+      <c r="L11" s="17"/>
       <c r="M11" s="17"/>
       <c r="N11" t="s">
-        <v>902</v>
+        <v>941</v>
+      </c>
+      <c r="P11" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>897</v>
+        <v>975</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>2165</v>
+        <v>976</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>2168</v>
+        <v>977</v>
       </c>
       <c r="D12" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -28328,24 +28310,24 @@
         <v>10000</v>
       </c>
       <c r="G12" t="s">
-        <v>887</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>894</v>
-      </c>
+        <v>880</v>
+      </c>
+      <c r="H12" s="17"/>
       <c r="I12" s="17" t="s">
-        <v>706</v>
+        <v>829</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>900</v>
+        <v>721</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>901</v>
-      </c>
-      <c r="L12" s="17"/>
+        <v>732</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>823</v>
+      </c>
       <c r="M12" s="17"/>
       <c r="N12" t="s">
-        <v>902</v>
+        <v>978</v>
       </c>
       <c r="P12" t="s">
         <v>884</v>
@@ -28353,16 +28335,13 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>897</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>2164</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>2169</v>
-      </c>
-      <c r="D13" s="17">
-        <v>2</v>
+        <v>975</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -28371,37 +28350,36 @@
         <v>10000</v>
       </c>
       <c r="G13" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="17" t="s">
-        <v>806</v>
+        <v>1176</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>717</v>
+        <v>1135</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>903</v>
+        <v>744</v>
       </c>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
       <c r="N13" t="s">
-        <v>902</v>
-      </c>
-      <c r="P13" t="s">
-        <v>884</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>897</v>
-      </c>
-      <c r="B14" s="17"/>
+        <v>996</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>997</v>
+      </c>
       <c r="C14" s="17" t="s">
-        <v>1128</v>
+        <v>998</v>
       </c>
       <c r="D14" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -28410,76 +28388,78 @@
         <v>10000</v>
       </c>
       <c r="G14" t="s">
-        <v>2178</v>
+        <v>747</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17" t="s">
         <v>706</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>2180</v>
+        <v>705</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>1022</v>
-      </c>
-      <c r="L14" s="17" t="s">
-        <v>2179</v>
-      </c>
+        <v>729</v>
+      </c>
+      <c r="L14" s="17"/>
       <c r="M14" s="17"/>
       <c r="N14" t="s">
         <v>902</v>
       </c>
+      <c r="P14" t="s">
+        <v>884</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>897</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2160</v>
+        <v>1008</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>1009</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>2162</v>
+        <v>1010</v>
       </c>
       <c r="D15" s="17">
-        <v>2</v>
-      </c>
-      <c r="E15" s="17">
-        <v>2</v>
-      </c>
-      <c r="F15" s="17">
-        <v>2500</v>
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>250</v>
       </c>
       <c r="G15" t="s">
-        <v>880</v>
+        <v>714</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="17" t="s">
-        <v>696</v>
+        <v>2186</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>697</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>747</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>2161</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
       <c r="M15" s="17"/>
       <c r="N15" t="s">
-        <v>898</v>
+        <v>902</v>
+      </c>
+      <c r="P15" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>897</v>
-      </c>
-      <c r="B16" s="17"/>
+        <v>1008</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>1011</v>
+      </c>
       <c r="C16" s="17" t="s">
-        <v>1127</v>
+        <v>1012</v>
       </c>
       <c r="D16" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -28488,63 +28468,60 @@
         <v>10000</v>
       </c>
       <c r="G16" t="s">
-        <v>2171</v>
+        <v>714</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="17" t="s">
-        <v>911</v>
+        <v>642</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>831</v>
+        <v>890</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>906</v>
+        <v>1013</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>2120</v>
+        <v>1014</v>
       </c>
       <c r="M16" s="17"/>
       <c r="N16" t="s">
         <v>902</v>
       </c>
+      <c r="P16" t="s">
+        <v>884</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>897</v>
+        <v>1023</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>2166</v>
+        <v>1024</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>2170</v>
-      </c>
-      <c r="D17" s="17">
-        <v>4</v>
-      </c>
-      <c r="E17">
+        <v>1025</v>
+      </c>
+      <c r="D17">
         <v>1</v>
       </c>
-      <c r="F17">
+      <c r="E17" s="17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="17">
         <v>10000</v>
       </c>
       <c r="G17" t="s">
-        <v>2171</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>905</v>
-      </c>
+        <v>705</v>
+      </c>
+      <c r="H17" s="17"/>
       <c r="I17" s="17" t="s">
-        <v>831</v>
+        <v>890</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>750</v>
-      </c>
-      <c r="K17" s="17" t="s">
-        <v>906</v>
-      </c>
-      <c r="L17" s="17" t="s">
-        <v>896</v>
-      </c>
+        <v>1006</v>
+      </c>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
       <c r="M17" s="17"/>
       <c r="N17" t="s">
         <v>902</v>
@@ -28555,318 +28532,327 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>897</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2154</v>
+        <v>1032</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>1033</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>2155</v>
+        <v>1034</v>
       </c>
       <c r="D18" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E18" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18" s="17">
-        <v>250</v>
+        <v>10000</v>
       </c>
       <c r="G18" t="s">
-        <v>2156</v>
+        <v>805</v>
       </c>
       <c r="H18" s="17"/>
       <c r="I18" s="17" t="s">
-        <v>2157</v>
+        <v>881</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>949</v>
+        <v>705</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>1067</v>
+        <v>714</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>800</v>
-      </c>
-      <c r="M18" s="17" t="s">
-        <v>2158</v>
-      </c>
+        <v>2594</v>
+      </c>
+      <c r="M18" s="17"/>
       <c r="N18" t="s">
-        <v>2159</v>
+        <v>1035</v>
+      </c>
+      <c r="P18" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>897</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17" t="s">
-        <v>1129</v>
+        <v>1032</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1187</v>
       </c>
       <c r="D19" s="17">
-        <v>10</v>
-      </c>
-      <c r="E19">
         <v>1</v>
       </c>
-      <c r="F19">
-        <v>10000</v>
-      </c>
-      <c r="G19" t="s">
-        <v>894</v>
+      <c r="E19" s="17">
+        <v>3</v>
+      </c>
+      <c r="F19" s="17">
+        <v>250</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>764</v>
       </c>
       <c r="H19" s="17"/>
       <c r="I19" s="17" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>1125</v>
-      </c>
-      <c r="L19" s="17" t="s">
-        <v>642</v>
-      </c>
+        <v>836</v>
+      </c>
+      <c r="L19" s="17"/>
       <c r="M19" s="17"/>
       <c r="N19" t="s">
-        <v>902</v>
+        <v>1188</v>
+      </c>
+      <c r="O19" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>907</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>908</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>909</v>
-      </c>
-      <c r="D20">
+        <v>1032</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D20" s="17">
         <v>1</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>10000</v>
-      </c>
-      <c r="G20" t="s">
-        <v>724</v>
+      <c r="E20" s="17">
+        <v>3</v>
+      </c>
+      <c r="F20" s="17">
+        <v>250</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>1190</v>
       </c>
       <c r="H20" s="17"/>
       <c r="I20" s="17" t="s">
-        <v>910</v>
+        <v>739</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>911</v>
+        <v>1191</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>890</v>
-      </c>
-      <c r="L20" s="17"/>
+        <v>629</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>642</v>
+      </c>
       <c r="M20" s="17"/>
       <c r="N20" t="s">
-        <v>912</v>
-      </c>
-      <c r="P20" t="s">
-        <v>884</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>907</v>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17" t="s">
-        <v>1130</v>
+        <v>1218</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1219</v>
       </c>
       <c r="D21" s="17">
         <v>1</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="17">
         <v>1</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="17">
         <v>10000</v>
       </c>
-      <c r="G21" t="s">
-        <v>790</v>
+      <c r="G21" s="17" t="s">
+        <v>724</v>
       </c>
       <c r="H21" s="17"/>
       <c r="I21" s="17" t="s">
-        <v>1046</v>
+        <v>949</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>721</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>1131</v>
-      </c>
-      <c r="L21" s="17" t="s">
-        <v>1132</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
       <c r="M21" s="17"/>
       <c r="N21" t="s">
-        <v>1133</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>907</v>
-      </c>
-      <c r="B22" s="17"/>
+        <v>1039</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>1040</v>
+      </c>
       <c r="C22" s="17" t="s">
-        <v>1134</v>
+        <v>1041</v>
       </c>
       <c r="D22" s="17">
-        <v>2</v>
-      </c>
-      <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22">
+      <c r="E22" s="17">
+        <v>1</v>
+      </c>
+      <c r="F22" s="17">
         <v>10000</v>
       </c>
       <c r="G22" t="s">
-        <v>794</v>
-      </c>
-      <c r="H22" s="17"/>
+        <v>721</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>643</v>
+      </c>
       <c r="I22" s="17" t="s">
-        <v>1135</v>
+        <v>725</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>1136</v>
+        <v>1042</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>910</v>
+        <v>721</v>
       </c>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
       <c r="N22" t="s">
-        <v>891</v>
+        <v>1043</v>
+      </c>
+      <c r="P22" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>907</v>
-      </c>
-      <c r="B23" s="17"/>
+        <v>1054</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>1055</v>
+      </c>
       <c r="C23" s="17" t="s">
-        <v>1137</v>
-      </c>
-      <c r="D23" s="17">
-        <v>3</v>
-      </c>
-      <c r="E23">
+        <v>1056</v>
+      </c>
+      <c r="D23">
         <v>1</v>
       </c>
-      <c r="F23">
-        <v>10000</v>
+      <c r="E23" s="17">
+        <v>4</v>
+      </c>
+      <c r="F23" s="17">
+        <v>50</v>
       </c>
       <c r="G23" t="s">
-        <v>788</v>
+        <v>1057</v>
       </c>
       <c r="H23" s="17"/>
       <c r="I23" s="17" t="s">
-        <v>803</v>
+        <v>925</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>1138</v>
+        <v>2187</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>1139</v>
+        <v>642</v>
       </c>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
       <c r="N23" t="s">
-        <v>1140</v>
+        <v>1058</v>
+      </c>
+      <c r="P23" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>907</v>
-      </c>
-      <c r="B24" s="17"/>
+        <v>1062</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>1063</v>
+      </c>
       <c r="C24" s="17" t="s">
-        <v>1141</v>
+        <v>1064</v>
       </c>
       <c r="D24" s="17">
-        <v>3</v>
-      </c>
-      <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24">
+      <c r="E24" s="17">
+        <v>1</v>
+      </c>
+      <c r="F24" s="17">
         <v>10000</v>
       </c>
       <c r="G24" t="s">
-        <v>1142</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>1143</v>
-      </c>
+        <v>1065</v>
+      </c>
+      <c r="H24" s="17"/>
       <c r="I24" s="17" t="s">
-        <v>861</v>
+        <v>710</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>853</v>
+        <v>1066</v>
       </c>
       <c r="K24" s="17" t="s">
-        <v>2181</v>
+        <v>1067</v>
       </c>
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
       <c r="N24" t="s">
-        <v>1144</v>
-      </c>
-      <c r="O24" t="s">
-        <v>1145</v>
+        <v>1038</v>
+      </c>
+      <c r="P24" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>907</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17" t="s">
-        <v>1146</v>
+        <v>1062</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1251</v>
       </c>
       <c r="D25" s="17">
+        <v>1</v>
+      </c>
+      <c r="E25" s="17">
         <v>4</v>
       </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>2500</v>
-      </c>
-      <c r="G25" t="s">
-        <v>808</v>
+      <c r="F25" s="17">
+        <v>50</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>721</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="17" t="s">
-        <v>921</v>
-      </c>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
+        <v>747</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>661</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>705</v>
+      </c>
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
       <c r="N25" t="s">
-        <v>1147</v>
+        <v>902</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>907</v>
-      </c>
-      <c r="B26" s="17"/>
+        <v>272</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>1076</v>
+      </c>
       <c r="C26" s="17" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D26" s="17">
-        <v>4</v>
+        <v>1077</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -28875,64 +28861,63 @@
         <v>10000</v>
       </c>
       <c r="G26" t="s">
-        <v>790</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>794</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="H26" s="17"/>
       <c r="I26" s="17" t="s">
-        <v>739</v>
+        <v>721</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>724</v>
+        <v>629</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>992</v>
+        <v>674</v>
       </c>
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
       <c r="N26" t="s">
-        <v>1149</v>
+        <v>1078</v>
+      </c>
+      <c r="P26" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>907</v>
+        <v>272</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>913</v>
+        <v>1079</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>914</v>
-      </c>
-      <c r="D27" s="17">
-        <v>5</v>
-      </c>
-      <c r="E27" s="17">
-        <v>4</v>
-      </c>
-      <c r="F27" s="17">
+        <v>1080</v>
+      </c>
+      <c r="D27">
         <v>1</v>
       </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>10000</v>
+      </c>
       <c r="G27" t="s">
-        <v>724</v>
+        <v>701</v>
       </c>
       <c r="H27" s="17"/>
       <c r="I27" s="17" t="s">
-        <v>915</v>
+        <v>1005</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>916</v>
+        <v>784</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>800</v>
-      </c>
-      <c r="L27" s="17" t="s">
-        <v>917</v>
-      </c>
+        <v>823</v>
+      </c>
+      <c r="L27" s="17"/>
       <c r="M27" s="17"/>
       <c r="N27" t="s">
-        <v>912</v>
+        <v>1078</v>
       </c>
       <c r="P27" t="s">
         <v>884</v>
@@ -28940,13 +28925,15 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>918</v>
-      </c>
-      <c r="B28" s="17"/>
+        <v>272</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>1081</v>
+      </c>
       <c r="C28" s="17" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D28" s="17">
+        <v>1082</v>
+      </c>
+      <c r="D28">
         <v>1</v>
       </c>
       <c r="E28">
@@ -28956,103 +28943,108 @@
         <v>10000</v>
       </c>
       <c r="G28" t="s">
-        <v>790</v>
+        <v>701</v>
       </c>
       <c r="H28" s="17"/>
       <c r="I28" s="17" t="s">
-        <v>721</v>
+        <v>890</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="K28" s="17" t="s">
-        <v>1046</v>
+        <v>736</v>
       </c>
       <c r="L28" s="17"/>
       <c r="M28" s="17"/>
       <c r="N28" t="s">
-        <v>1151</v>
+        <v>1078</v>
+      </c>
+      <c r="P28" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>918</v>
-      </c>
-      <c r="B29" s="17"/>
+        <v>1092</v>
+      </c>
       <c r="C29" s="17" t="s">
-        <v>1152</v>
+        <v>1296</v>
       </c>
       <c r="D29" s="17">
         <v>1</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="17">
         <v>1</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="17">
         <v>10000</v>
       </c>
       <c r="G29" t="s">
-        <v>794</v>
+        <v>2176</v>
       </c>
       <c r="H29" s="17"/>
       <c r="I29" s="17" t="s">
-        <v>629</v>
+        <v>710</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>711</v>
+        <v>1194</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>858</v>
-      </c>
-      <c r="L29" s="17"/>
+        <v>1282</v>
+      </c>
+      <c r="L29" s="17" t="s">
+        <v>2175</v>
+      </c>
       <c r="M29" s="17"/>
       <c r="N29" t="s">
-        <v>1153</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>918</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1154</v>
+        <v>1092</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>1298</v>
       </c>
       <c r="D30" s="17">
-        <v>2</v>
-      </c>
-      <c r="E30">
         <v>1</v>
       </c>
-      <c r="F30">
+      <c r="E30" s="17">
+        <v>1</v>
+      </c>
+      <c r="F30" s="17">
         <v>10000</v>
       </c>
       <c r="G30" t="s">
-        <v>764</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>721</v>
-      </c>
+        <v>2183</v>
+      </c>
+      <c r="H30" s="17"/>
       <c r="I30" s="17" t="s">
-        <v>1155</v>
+        <v>674</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>725</v>
+        <v>787</v>
       </c>
       <c r="K30" s="17" t="s">
-        <v>861</v>
+        <v>643</v>
       </c>
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>
       <c r="N30" t="s">
-        <v>1153</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>918</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1156</v>
+        <v>877</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>878</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>879</v>
       </c>
       <c r="D31" s="17">
         <v>2</v>
@@ -29064,58 +29056,65 @@
         <v>10000</v>
       </c>
       <c r="G31" t="s">
-        <v>788</v>
+        <v>880</v>
       </c>
       <c r="H31" s="17"/>
       <c r="I31" s="17" t="s">
-        <v>711</v>
+        <v>881</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>1157</v>
+        <v>829</v>
       </c>
       <c r="K31" s="17" t="s">
-        <v>642</v>
+        <v>882</v>
       </c>
       <c r="L31" s="17"/>
       <c r="M31" s="17"/>
       <c r="N31" t="s">
-        <v>978</v>
+        <v>883</v>
+      </c>
+      <c r="P31" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>918</v>
+        <v>897</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>919</v>
+        <v>2165</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>920</v>
-      </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-      <c r="E32" s="17">
-        <v>3</v>
-      </c>
-      <c r="F32" s="17">
-        <v>250</v>
+        <v>2168</v>
+      </c>
+      <c r="D32" s="17">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>10000</v>
       </c>
       <c r="G32" t="s">
-        <v>656</v>
-      </c>
-      <c r="H32" s="17"/>
+        <v>887</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>894</v>
+      </c>
       <c r="I32" s="17" t="s">
-        <v>656</v>
+        <v>706</v>
       </c>
       <c r="J32" s="17" t="s">
-        <v>2182</v>
-      </c>
-      <c r="K32" s="17"/>
+        <v>900</v>
+      </c>
+      <c r="K32" s="17" t="s">
+        <v>901</v>
+      </c>
       <c r="L32" s="17"/>
       <c r="M32" s="17"/>
       <c r="N32" t="s">
-        <v>922</v>
+        <v>902</v>
       </c>
       <c r="P32" t="s">
         <v>884</v>
@@ -29123,40 +29122,40 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>918</v>
+        <v>897</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>923</v>
+        <v>2164</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>924</v>
-      </c>
-      <c r="D33">
-        <v>4</v>
-      </c>
-      <c r="E33" s="17">
-        <v>3</v>
-      </c>
-      <c r="F33" s="17">
-        <v>250</v>
+        <v>2169</v>
+      </c>
+      <c r="D33" s="17">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>10000</v>
       </c>
       <c r="G33" t="s">
-        <v>903</v>
+        <v>2172</v>
       </c>
       <c r="H33" s="17"/>
       <c r="I33" s="17" t="s">
-        <v>691</v>
+        <v>806</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>925</v>
+        <v>717</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>688</v>
+        <v>903</v>
       </c>
       <c r="L33" s="17"/>
       <c r="M33" s="17"/>
       <c r="N33" t="s">
-        <v>926</v>
+        <v>902</v>
       </c>
       <c r="P33" t="s">
         <v>884</v>
@@ -29164,207 +29163,188 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>918</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>923</v>
-      </c>
+        <v>897</v>
+      </c>
+      <c r="B34" s="17"/>
       <c r="C34" s="17" t="s">
-        <v>927</v>
-      </c>
-      <c r="D34">
-        <v>4</v>
-      </c>
-      <c r="E34" s="17">
-        <v>3</v>
-      </c>
-      <c r="F34" s="17">
-        <v>250</v>
+        <v>1128</v>
+      </c>
+      <c r="D34" s="17">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>10000</v>
       </c>
       <c r="G34" t="s">
-        <v>928</v>
+        <v>2178</v>
       </c>
       <c r="H34" s="17"/>
       <c r="I34" s="17" t="s">
-        <v>691</v>
+        <v>706</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>925</v>
+        <v>2180</v>
       </c>
       <c r="K34" s="17" t="s">
-        <v>688</v>
-      </c>
-      <c r="L34" s="17"/>
+        <v>1022</v>
+      </c>
+      <c r="L34" s="17" t="s">
+        <v>2179</v>
+      </c>
       <c r="M34" s="17"/>
       <c r="N34" t="s">
-        <v>929</v>
-      </c>
-      <c r="P34" t="s">
-        <v>884</v>
+        <v>902</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>918</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>923</v>
+        <v>897</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2160</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>930</v>
-      </c>
-      <c r="D35">
-        <v>4</v>
+        <v>2162</v>
+      </c>
+      <c r="D35" s="17">
+        <v>2</v>
       </c>
       <c r="E35" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35" s="17">
-        <v>250</v>
+        <v>2500</v>
       </c>
       <c r="G35" t="s">
-        <v>841</v>
+        <v>880</v>
       </c>
       <c r="H35" s="17"/>
       <c r="I35" s="17" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>925</v>
+        <v>697</v>
       </c>
       <c r="K35" s="17" t="s">
-        <v>688</v>
-      </c>
-      <c r="L35" s="17"/>
+        <v>747</v>
+      </c>
+      <c r="L35" s="17" t="s">
+        <v>2161</v>
+      </c>
       <c r="M35" s="17"/>
       <c r="N35" t="s">
-        <v>931</v>
-      </c>
-      <c r="P35" t="s">
-        <v>884</v>
+        <v>898</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>918</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>923</v>
-      </c>
+        <v>907</v>
+      </c>
+      <c r="B36" s="17"/>
       <c r="C36" s="17" t="s">
-        <v>932</v>
-      </c>
-      <c r="D36">
-        <v>4</v>
-      </c>
-      <c r="E36" s="17">
-        <v>3</v>
-      </c>
-      <c r="F36" s="17">
-        <v>250</v>
+        <v>1134</v>
+      </c>
+      <c r="D36" s="17">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>10000</v>
       </c>
       <c r="G36" t="s">
-        <v>840</v>
+        <v>794</v>
       </c>
       <c r="H36" s="17"/>
       <c r="I36" s="17" t="s">
-        <v>691</v>
+        <v>1135</v>
       </c>
       <c r="J36" s="17" t="s">
-        <v>925</v>
+        <v>1136</v>
       </c>
       <c r="K36" s="17" t="s">
-        <v>688</v>
+        <v>910</v>
       </c>
       <c r="L36" s="17"/>
       <c r="M36" s="17"/>
       <c r="N36" t="s">
-        <v>933</v>
-      </c>
-      <c r="P36" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>918</v>
       </c>
-      <c r="B37" s="17" t="s">
-        <v>923</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>934</v>
-      </c>
-      <c r="D37">
-        <v>4</v>
-      </c>
-      <c r="E37" s="17">
-        <v>3</v>
-      </c>
-      <c r="F37" s="17">
-        <v>250</v>
+      <c r="C37" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D37" s="17">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>10000</v>
       </c>
       <c r="G37" t="s">
-        <v>845</v>
-      </c>
-      <c r="H37" s="17"/>
+        <v>764</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>721</v>
+      </c>
       <c r="I37" s="17" t="s">
-        <v>691</v>
+        <v>1155</v>
       </c>
       <c r="J37" s="17" t="s">
-        <v>925</v>
+        <v>725</v>
       </c>
       <c r="K37" s="17" t="s">
-        <v>688</v>
+        <v>861</v>
       </c>
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>
       <c r="N37" t="s">
-        <v>935</v>
-      </c>
-      <c r="P37" t="s">
-        <v>884</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>918</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>923</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>936</v>
-      </c>
-      <c r="D38">
-        <v>4</v>
-      </c>
-      <c r="E38" s="17">
-        <v>3</v>
-      </c>
-      <c r="F38" s="17">
-        <v>250</v>
+      <c r="C38" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D38" s="17">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>10000</v>
       </c>
       <c r="G38" t="s">
-        <v>823</v>
+        <v>788</v>
       </c>
       <c r="H38" s="17"/>
       <c r="I38" s="17" t="s">
-        <v>691</v>
+        <v>711</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>925</v>
+        <v>1157</v>
       </c>
       <c r="K38" s="17" t="s">
-        <v>688</v>
+        <v>642</v>
       </c>
       <c r="L38" s="17"/>
       <c r="M38" s="17"/>
       <c r="N38" t="s">
-        <v>937</v>
-      </c>
-      <c r="P38" t="s">
-        <v>884</v>
+        <v>978</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -29520,13 +29500,13 @@
         <v>938</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="D43" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" s="17">
         <v>1</v>
@@ -29535,16 +29515,18 @@
         <v>10000</v>
       </c>
       <c r="G43" t="s">
-        <v>764</v>
+        <v>2142</v>
       </c>
       <c r="H43" s="17"/>
       <c r="I43" s="17" t="s">
-        <v>688</v>
+        <v>642</v>
       </c>
       <c r="J43" s="17" t="s">
-        <v>1683</v>
-      </c>
-      <c r="K43" s="17"/>
+        <v>788</v>
+      </c>
+      <c r="K43" s="17" t="s">
+        <v>944</v>
+      </c>
       <c r="L43" s="17"/>
       <c r="M43" s="17"/>
       <c r="N43" t="s">
@@ -29556,56 +29538,62 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>938</v>
+        <v>958</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>942</v>
+        <v>959</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>943</v>
-      </c>
-      <c r="D44" s="17">
+        <v>960</v>
+      </c>
+      <c r="D44">
         <v>2</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44">
         <v>1</v>
       </c>
       <c r="F44">
         <v>10000</v>
       </c>
       <c r="G44" t="s">
-        <v>2142</v>
+        <v>764</v>
       </c>
       <c r="H44" s="17"/>
       <c r="I44" s="17" t="s">
         <v>642</v>
       </c>
       <c r="J44" s="17" t="s">
-        <v>788</v>
+        <v>1683</v>
       </c>
       <c r="K44" s="17" t="s">
-        <v>944</v>
+        <v>853</v>
       </c>
       <c r="L44" s="17"/>
       <c r="M44" s="17"/>
       <c r="N44" t="s">
         <v>941</v>
       </c>
+      <c r="O44" t="s">
+        <v>884</v>
+      </c>
       <c r="P44" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>938</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D45" s="17">
-        <v>3</v>
-      </c>
-      <c r="E45" s="17">
+        <v>958</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>961</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>962</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
         <v>1</v>
       </c>
       <c r="F45">
@@ -29616,60 +29604,59 @@
       </c>
       <c r="H45" s="17"/>
       <c r="I45" s="17" t="s">
-        <v>1170</v>
+        <v>890</v>
       </c>
       <c r="J45" s="17" t="s">
-        <v>732</v>
+        <v>1683</v>
       </c>
       <c r="K45" s="17" t="s">
-        <v>744</v>
-      </c>
-      <c r="L45" s="17" t="s">
-        <v>1171</v>
-      </c>
+        <v>861</v>
+      </c>
+      <c r="L45" s="17"/>
       <c r="M45" s="17"/>
       <c r="N45" t="s">
         <v>941</v>
       </c>
+      <c r="P45" t="s">
+        <v>884</v>
+      </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>938</v>
+        <v>958</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>945</v>
+        <v>963</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>946</v>
-      </c>
-      <c r="D46" s="17">
-        <v>4</v>
-      </c>
-      <c r="E46" s="17">
-        <v>3</v>
-      </c>
-      <c r="F46" s="17">
-        <v>250</v>
+        <v>964</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>10000</v>
       </c>
       <c r="G46" t="s">
         <v>764</v>
       </c>
       <c r="H46" s="17"/>
       <c r="I46" s="17" t="s">
-        <v>947</v>
+        <v>629</v>
       </c>
       <c r="J46" s="17" t="s">
-        <v>948</v>
+        <v>1683</v>
       </c>
       <c r="K46" s="17" t="s">
-        <v>1239</v>
-      </c>
-      <c r="L46" s="17" t="s">
-        <v>1086</v>
-      </c>
+        <v>858</v>
+      </c>
+      <c r="L46" s="17"/>
       <c r="M46" s="17"/>
       <c r="N46" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
       <c r="P46" t="s">
         <v>884</v>
@@ -29677,104 +29664,86 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>938</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>952</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>953</v>
-      </c>
-      <c r="D47" s="17">
-        <v>5</v>
-      </c>
-      <c r="E47" s="17">
+        <v>975</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
         <v>4</v>
       </c>
       <c r="F47">
         <v>50</v>
       </c>
       <c r="G47" t="s">
-        <v>2142</v>
+        <v>2176</v>
       </c>
       <c r="H47" s="17"/>
       <c r="I47" s="17" t="s">
-        <v>954</v>
+        <v>691</v>
       </c>
       <c r="J47" s="17" t="s">
-        <v>629</v>
+        <v>2184</v>
       </c>
       <c r="K47" s="17" t="s">
-        <v>955</v>
-      </c>
-      <c r="L47" s="17" t="s">
-        <v>956</v>
-      </c>
-      <c r="M47" s="17" t="s">
-        <v>765</v>
-      </c>
+        <v>1014</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
       <c r="N47" t="s">
-        <v>957</v>
-      </c>
-      <c r="P47" t="s">
-        <v>884</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>958</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>959</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>960</v>
+        <v>975</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1182</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F48">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="G48" t="s">
-        <v>764</v>
-      </c>
-      <c r="H48" s="17"/>
+        <v>2173</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>2185</v>
+      </c>
       <c r="I48" s="17" t="s">
-        <v>642</v>
+        <v>788</v>
       </c>
       <c r="J48" s="17" t="s">
-        <v>1683</v>
+        <v>1177</v>
       </c>
       <c r="K48" s="17" t="s">
-        <v>853</v>
-      </c>
-      <c r="L48" s="17"/>
+        <v>2590</v>
+      </c>
+      <c r="L48" s="17" t="s">
+        <v>896</v>
+      </c>
       <c r="M48" s="17"/>
       <c r="N48" t="s">
-        <v>941</v>
-      </c>
-      <c r="O48" t="s">
-        <v>884</v>
-      </c>
-      <c r="P48" t="s">
-        <v>884</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>958</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>961</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>962</v>
-      </c>
-      <c r="D49">
+        <v>975</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D49" s="17">
         <v>2</v>
       </c>
       <c r="E49">
@@ -29784,174 +29753,190 @@
         <v>10000</v>
       </c>
       <c r="G49" t="s">
-        <v>764</v>
+        <v>887</v>
       </c>
       <c r="H49" s="17"/>
       <c r="I49" s="17" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="J49" s="17" t="s">
-        <v>1683</v>
+        <v>717</v>
       </c>
       <c r="K49" s="17" t="s">
-        <v>861</v>
+        <v>901</v>
       </c>
       <c r="L49" s="17"/>
       <c r="M49" s="17"/>
       <c r="N49" t="s">
-        <v>941</v>
-      </c>
-      <c r="P49" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>958</v>
+        <v>987</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>963</v>
+        <v>988</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>964</v>
-      </c>
-      <c r="D50">
+        <v>989</v>
+      </c>
+      <c r="D50" s="17">
         <v>2</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="G50" t="s">
-        <v>764</v>
+        <v>714</v>
       </c>
       <c r="H50" s="17"/>
       <c r="I50" s="17" t="s">
-        <v>629</v>
+        <v>656</v>
       </c>
       <c r="J50" s="17" t="s">
-        <v>1683</v>
+        <v>642</v>
       </c>
       <c r="K50" s="17" t="s">
-        <v>858</v>
-      </c>
-      <c r="L50" s="17"/>
+        <v>733</v>
+      </c>
+      <c r="L50" s="17" t="s">
+        <v>744</v>
+      </c>
       <c r="M50" s="17"/>
       <c r="N50" t="s">
-        <v>941</v>
+        <v>902</v>
       </c>
       <c r="P50" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>958</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D51">
-        <v>3</v>
-      </c>
-      <c r="E51">
+      <c r="A51" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>990</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>991</v>
+      </c>
+      <c r="D51" s="9">
+        <v>2</v>
+      </c>
+      <c r="E51" s="2">
         <v>1</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="2">
         <v>10000</v>
       </c>
-      <c r="G51" t="s">
-        <v>764</v>
-      </c>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17" t="s">
-        <v>836</v>
-      </c>
-      <c r="J51" s="17" t="s">
-        <v>643</v>
-      </c>
-      <c r="K51" s="17" t="s">
-        <v>710</v>
-      </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" t="s">
-        <v>941</v>
+      <c r="G51" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>992</v>
+      </c>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>958</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1173</v>
+        <v>996</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>999</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>1000</v>
       </c>
       <c r="D52" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E52" s="17">
         <v>1</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="17">
         <v>10000</v>
       </c>
       <c r="G52" t="s">
-        <v>764</v>
+        <v>714</v>
       </c>
       <c r="H52" s="17"/>
       <c r="I52" s="17" t="s">
-        <v>739</v>
+        <v>808</v>
       </c>
       <c r="J52" s="17" t="s">
-        <v>1018</v>
+        <v>691</v>
       </c>
       <c r="K52" s="17" t="s">
-        <v>1171</v>
-      </c>
-      <c r="L52" s="17"/>
+        <v>684</v>
+      </c>
+      <c r="L52" s="17" t="s">
+        <v>2194</v>
+      </c>
       <c r="M52" s="17"/>
       <c r="N52" t="s">
-        <v>941</v>
+        <v>902</v>
+      </c>
+      <c r="P52" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>965</v>
+        <v>1008</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>966</v>
+        <v>1015</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>967</v>
+        <v>1016</v>
       </c>
       <c r="D53" s="17">
+        <v>2</v>
+      </c>
+      <c r="E53">
         <v>1</v>
       </c>
-      <c r="E53" s="17">
-        <v>1</v>
-      </c>
-      <c r="F53" s="17">
+      <c r="F53">
         <v>10000</v>
       </c>
       <c r="G53" t="s">
-        <v>764</v>
+        <v>747</v>
       </c>
       <c r="H53" s="17"/>
       <c r="I53" s="17" t="s">
-        <v>911</v>
+        <v>691</v>
       </c>
       <c r="J53" s="17" t="s">
-        <v>636</v>
+        <v>1017</v>
       </c>
       <c r="K53" s="17" t="s">
-        <v>765</v>
-      </c>
-      <c r="L53" s="17"/>
+        <v>1018</v>
+      </c>
+      <c r="L53" s="17" t="s">
+        <v>823</v>
+      </c>
       <c r="M53" s="17"/>
       <c r="N53" t="s">
-        <v>941</v>
+        <v>1019</v>
       </c>
       <c r="P53" t="s">
         <v>884</v>
@@ -29959,42 +29944,42 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>965</v>
+        <v>1023</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>968</v>
+        <v>1026</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>969</v>
-      </c>
-      <c r="D54" s="17">
-        <v>3</v>
-      </c>
-      <c r="E54">
+        <v>1027</v>
+      </c>
+      <c r="D54">
         <v>2</v>
       </c>
-      <c r="F54">
+      <c r="E54" s="17">
+        <v>2</v>
+      </c>
+      <c r="F54" s="17">
         <v>2500</v>
       </c>
       <c r="G54" t="s">
-        <v>764</v>
+        <v>714</v>
       </c>
       <c r="H54" s="17"/>
       <c r="I54" s="17" t="s">
-        <v>643</v>
+        <v>744</v>
       </c>
       <c r="J54" s="17" t="s">
-        <v>970</v>
+        <v>674</v>
       </c>
       <c r="K54" s="17" t="s">
-        <v>2179</v>
+        <v>787</v>
       </c>
       <c r="L54" s="17" t="s">
-        <v>971</v>
+        <v>910</v>
       </c>
       <c r="M54" s="17"/>
       <c r="N54" t="s">
-        <v>972</v>
+        <v>902</v>
       </c>
       <c r="P54" t="s">
         <v>884</v>
@@ -30002,42 +29987,36 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>965</v>
+        <v>1032</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>973</v>
+        <v>1036</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>974</v>
+        <v>1037</v>
       </c>
       <c r="D55" s="17">
+        <v>2</v>
+      </c>
+      <c r="E55" s="17">
         <v>4</v>
       </c>
-      <c r="E55" s="17">
-        <v>3</v>
-      </c>
       <c r="F55" s="17">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>764</v>
+        <v>692</v>
       </c>
       <c r="H55" s="17"/>
       <c r="I55" s="17" t="s">
-        <v>643</v>
-      </c>
-      <c r="J55" s="17" t="s">
-        <v>691</v>
-      </c>
-      <c r="K55" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="L55" s="17" t="s">
-        <v>2194</v>
-      </c>
+        <v>2187</v>
+      </c>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
       <c r="M55" s="17"/>
       <c r="N55" t="s">
-        <v>941</v>
+        <v>1038</v>
       </c>
       <c r="P55" t="s">
         <v>884</v>
@@ -30045,16 +30024,13 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>975</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>976</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>977</v>
+        <v>1032</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1193</v>
       </c>
       <c r="D56" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -30063,498 +30039,469 @@
         <v>10000</v>
       </c>
       <c r="G56" t="s">
-        <v>880</v>
+        <v>790</v>
       </c>
       <c r="H56" s="17"/>
       <c r="I56" s="17" t="s">
-        <v>829</v>
+        <v>721</v>
       </c>
       <c r="J56" s="17" t="s">
-        <v>721</v>
+        <v>732</v>
       </c>
       <c r="K56" s="17" t="s">
-        <v>732</v>
+        <v>755</v>
       </c>
       <c r="L56" s="17" t="s">
-        <v>823</v>
+        <v>1194</v>
       </c>
       <c r="M56" s="17"/>
       <c r="N56" t="s">
-        <v>978</v>
-      </c>
-      <c r="P56" t="s">
-        <v>884</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>975</v>
+        <v>1032</v>
       </c>
       <c r="C57" t="s">
-        <v>1179</v>
-      </c>
-      <c r="D57">
+        <v>1196</v>
+      </c>
+      <c r="D57" s="17">
+        <v>2</v>
+      </c>
+      <c r="E57" s="17">
         <v>1</v>
       </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57">
+      <c r="F57" s="17">
         <v>10000</v>
       </c>
-      <c r="G57" t="s">
-        <v>2171</v>
+      <c r="G57" s="17" t="s">
+        <v>792</v>
       </c>
       <c r="H57" s="17"/>
       <c r="I57" s="17" t="s">
-        <v>1176</v>
+        <v>621</v>
       </c>
       <c r="J57" s="17" t="s">
-        <v>1135</v>
+        <v>636</v>
       </c>
       <c r="K57" s="17" t="s">
-        <v>744</v>
-      </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
+        <v>725</v>
+      </c>
+      <c r="L57" s="17" t="s">
+        <v>1017</v>
+      </c>
+      <c r="M57" s="17" t="s">
+        <v>1197</v>
+      </c>
       <c r="N57" t="s">
-        <v>1178</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>975</v>
+        <v>1032</v>
       </c>
       <c r="C58" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D58">
+        <v>1199</v>
+      </c>
+      <c r="D58" s="17">
         <v>2</v>
       </c>
-      <c r="E58">
-        <v>4</v>
-      </c>
-      <c r="F58">
-        <v>50</v>
-      </c>
-      <c r="G58" t="s">
-        <v>2176</v>
+      <c r="E58" s="17">
+        <v>3</v>
+      </c>
+      <c r="F58" s="17">
+        <v>250</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>1200</v>
       </c>
       <c r="H58" s="17"/>
       <c r="I58" s="17" t="s">
-        <v>691</v>
+        <v>816</v>
       </c>
       <c r="J58" s="17" t="s">
-        <v>2184</v>
+        <v>1201</v>
       </c>
       <c r="K58" s="17" t="s">
-        <v>1014</v>
+        <v>1202</v>
       </c>
       <c r="L58" s="17"/>
       <c r="M58" s="17"/>
       <c r="N58" t="s">
-        <v>1178</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>975</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1182</v>
-      </c>
-      <c r="D59">
+        <v>1032</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>2581</v>
+      </c>
+      <c r="D59" s="17">
         <v>2</v>
       </c>
-      <c r="E59">
-        <v>4</v>
-      </c>
-      <c r="F59">
-        <v>50</v>
+      <c r="E59" s="17">
+        <v>2</v>
+      </c>
+      <c r="F59" s="17">
+        <v>2500</v>
       </c>
       <c r="G59" t="s">
-        <v>2173</v>
-      </c>
-      <c r="H59" s="17" t="s">
-        <v>2185</v>
-      </c>
-      <c r="I59" s="17" t="s">
-        <v>788</v>
-      </c>
-      <c r="J59" s="17" t="s">
-        <v>1177</v>
-      </c>
-      <c r="K59" s="17" t="s">
-        <v>2590</v>
-      </c>
-      <c r="L59" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="M59" s="17"/>
+        <v>765</v>
+      </c>
+      <c r="I59" t="s">
+        <v>2582</v>
+      </c>
+      <c r="J59" t="s">
+        <v>2588</v>
+      </c>
+      <c r="K59" t="s">
+        <v>661</v>
+      </c>
+      <c r="L59" t="s">
+        <v>1067</v>
+      </c>
       <c r="N59" t="s">
-        <v>1178</v>
+        <v>2583</v>
+      </c>
+      <c r="P59" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>975</v>
+        <v>1218</v>
       </c>
       <c r="C60" t="s">
-        <v>1183</v>
+        <v>1220</v>
       </c>
       <c r="D60" s="17">
         <v>2</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="17">
         <v>1</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="17">
         <v>10000</v>
       </c>
-      <c r="G60" t="s">
-        <v>887</v>
+      <c r="G60" s="17" t="s">
+        <v>721</v>
       </c>
       <c r="H60" s="17"/>
       <c r="I60" s="17" t="s">
-        <v>882</v>
+        <v>1221</v>
       </c>
       <c r="J60" s="17" t="s">
-        <v>717</v>
+        <v>901</v>
       </c>
       <c r="K60" s="17" t="s">
-        <v>901</v>
+        <v>629</v>
       </c>
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>
       <c r="N60" t="s">
-        <v>883</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>975</v>
+        <v>1218</v>
       </c>
       <c r="C61" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D61">
-        <v>3</v>
-      </c>
-      <c r="E61">
-        <v>3</v>
-      </c>
-      <c r="F61">
-        <v>250</v>
-      </c>
-      <c r="G61" t="s">
-        <v>2183</v>
+        <v>1222</v>
+      </c>
+      <c r="D61" s="17">
+        <v>2</v>
+      </c>
+      <c r="E61" s="17">
+        <v>1</v>
+      </c>
+      <c r="F61" s="17">
+        <v>10000</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>721</v>
       </c>
       <c r="H61" s="17"/>
       <c r="I61" s="17" t="s">
-        <v>826</v>
+        <v>1223</v>
       </c>
       <c r="J61" s="17" t="s">
-        <v>1253</v>
+        <v>1125</v>
       </c>
       <c r="K61" s="17" t="s">
-        <v>1238</v>
-      </c>
-      <c r="L61" s="17" t="s">
-        <v>721</v>
-      </c>
-      <c r="M61" s="17" t="s">
-        <v>2579</v>
-      </c>
+        <v>901</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
       <c r="N61" t="s">
-        <v>1178</v>
+        <v>891</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>975</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1184</v>
+        <v>1039</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>1045</v>
       </c>
       <c r="D62" s="17">
-        <v>3</v>
-      </c>
-      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="E62" s="17">
         <v>1</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="17">
         <v>10000</v>
       </c>
       <c r="G62" t="s">
-        <v>904</v>
+        <v>721</v>
       </c>
       <c r="H62" s="17"/>
       <c r="I62" s="17" t="s">
-        <v>831</v>
+        <v>954</v>
       </c>
       <c r="J62" s="17" t="s">
-        <v>697</v>
+        <v>643</v>
       </c>
       <c r="K62" s="17" t="s">
-        <v>718</v>
+        <v>1046</v>
       </c>
       <c r="L62" s="17"/>
       <c r="M62" s="17"/>
       <c r="N62" t="s">
-        <v>1185</v>
+        <v>912</v>
+      </c>
+      <c r="P62" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>975</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>979</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>980</v>
+        <v>1039</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1226</v>
       </c>
       <c r="D63" s="17">
-        <v>4</v>
-      </c>
-      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="E63" s="17">
         <v>1</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="17">
         <v>10000</v>
       </c>
-      <c r="G63" t="s">
-        <v>888</v>
+      <c r="G63" s="17" t="s">
+        <v>721</v>
       </c>
       <c r="H63" s="17"/>
       <c r="I63" s="17" t="s">
-        <v>910</v>
+        <v>642</v>
       </c>
       <c r="J63" s="17" t="s">
-        <v>806</v>
+        <v>788</v>
       </c>
       <c r="K63" s="17" t="s">
-        <v>861</v>
-      </c>
-      <c r="L63" s="17" t="s">
-        <v>642</v>
-      </c>
+        <v>1227</v>
+      </c>
+      <c r="L63" s="17"/>
       <c r="M63" s="17"/>
       <c r="N63" t="s">
-        <v>978</v>
-      </c>
-      <c r="P63" t="s">
-        <v>884</v>
+        <v>951</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>975</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>982</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>983</v>
+        <v>1039</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1228</v>
       </c>
       <c r="D64" s="17">
-        <v>5</v>
-      </c>
-      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="E64" s="17">
         <v>1</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="17">
         <v>10000</v>
       </c>
-      <c r="G64" t="s">
-        <v>904</v>
+      <c r="G64" s="17" t="s">
+        <v>724</v>
       </c>
       <c r="H64" s="17"/>
       <c r="I64" s="17" t="s">
-        <v>859</v>
+        <v>1229</v>
       </c>
       <c r="J64" s="17" t="s">
-        <v>2591</v>
+        <v>661</v>
       </c>
       <c r="K64" s="17" t="s">
-        <v>2592</v>
-      </c>
-      <c r="L64" s="17" t="s">
-        <v>841</v>
-      </c>
+        <v>818</v>
+      </c>
+      <c r="L64" s="17"/>
       <c r="M64" s="17"/>
       <c r="N64" t="s">
-        <v>986</v>
-      </c>
-      <c r="P64" t="s">
-        <v>884</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>987</v>
-      </c>
-      <c r="B65" s="17" t="s">
-        <v>988</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>989</v>
+        <v>1039</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1230</v>
       </c>
       <c r="D65" s="17">
         <v>2</v>
       </c>
-      <c r="E65">
-        <v>2</v>
-      </c>
-      <c r="F65">
-        <v>2500</v>
-      </c>
-      <c r="G65" t="s">
-        <v>714</v>
+      <c r="E65" s="17">
+        <v>1</v>
+      </c>
+      <c r="F65" s="17">
+        <v>10000</v>
+      </c>
+      <c r="G65" s="17" t="s">
+        <v>721</v>
       </c>
       <c r="H65" s="17"/>
       <c r="I65" s="17" t="s">
-        <v>656</v>
+        <v>725</v>
       </c>
       <c r="J65" s="17" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="K65" s="17" t="s">
-        <v>733</v>
-      </c>
-      <c r="L65" s="17" t="s">
-        <v>744</v>
-      </c>
+        <v>1166</v>
+      </c>
+      <c r="L65" s="17"/>
       <c r="M65" s="17"/>
       <c r="N65" t="s">
-        <v>902</v>
-      </c>
-      <c r="P65" t="s">
-        <v>884</v>
+        <v>951</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>987</v>
-      </c>
-      <c r="B66" s="17" t="s">
-        <v>990</v>
-      </c>
-      <c r="C66" s="24" t="s">
-        <v>991</v>
+        <v>1039</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>1231</v>
       </c>
       <c r="D66" s="24">
         <v>2</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="24">
         <v>1</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66" s="24">
         <v>10000</v>
       </c>
-      <c r="G66" s="7" t="s">
-        <v>714</v>
+      <c r="G66" s="24" t="s">
+        <v>721</v>
       </c>
       <c r="H66" s="24"/>
       <c r="I66" s="24" t="s">
-        <v>805</v>
+        <v>1232</v>
       </c>
       <c r="J66" s="24" t="s">
-        <v>705</v>
+        <v>725</v>
       </c>
       <c r="K66" s="24" t="s">
-        <v>992</v>
+        <v>818</v>
       </c>
       <c r="L66" s="24"/>
       <c r="M66" s="24"/>
       <c r="N66" s="7" t="s">
-        <v>902</v>
+        <v>951</v>
       </c>
       <c r="O66" s="7"/>
-      <c r="P66" s="7" t="s">
-        <v>884</v>
-      </c>
+      <c r="P66" s="7"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>987</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>993</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>994</v>
+        <v>1051</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>1233</v>
       </c>
       <c r="D67" s="9">
-        <v>3</v>
-      </c>
-      <c r="E67" s="2">
+        <v>2</v>
+      </c>
+      <c r="E67" s="9">
         <v>1</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="9">
         <v>10000</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>747</v>
+      <c r="G67" s="9" t="s">
+        <v>792</v>
       </c>
       <c r="H67" s="9"/>
       <c r="I67" s="9" t="s">
-        <v>881</v>
+        <v>890</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>803</v>
+        <v>733</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>853</v>
-      </c>
-      <c r="L67" s="9" t="s">
-        <v>928</v>
-      </c>
+        <v>744</v>
+      </c>
+      <c r="L67" s="9"/>
       <c r="M67" s="9"/>
       <c r="N67" s="2" t="s">
-        <v>995</v>
+        <v>941</v>
       </c>
       <c r="O67" s="2"/>
-      <c r="P67" s="2" t="s">
-        <v>884</v>
-      </c>
+      <c r="P67" s="2"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>996</v>
+        <v>1054</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>997</v>
+        <v>1059</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>998</v>
-      </c>
-      <c r="D68" s="17">
+        <v>1060</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68" s="17">
         <v>1</v>
       </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-      <c r="F68">
+      <c r="F68" s="17">
         <v>10000</v>
       </c>
       <c r="G68" t="s">
-        <v>747</v>
+        <v>643</v>
       </c>
       <c r="H68" s="17"/>
       <c r="I68" s="17" t="s">
-        <v>706</v>
+        <v>881</v>
       </c>
       <c r="J68" s="17" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="K68" s="17" t="s">
-        <v>729</v>
-      </c>
-      <c r="L68" s="17"/>
+        <v>949</v>
+      </c>
+      <c r="L68" s="17" t="s">
+        <v>890</v>
+      </c>
       <c r="M68" s="17"/>
       <c r="N68" t="s">
-        <v>902</v>
+        <v>1061</v>
       </c>
       <c r="P68" t="s">
         <v>884</v>
@@ -30562,13 +30509,10 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>996</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>999</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>1000</v>
+        <v>1054</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1240</v>
       </c>
       <c r="D69" s="17">
         <v>2</v>
@@ -30579,557 +30523,501 @@
       <c r="F69" s="17">
         <v>10000</v>
       </c>
-      <c r="G69" t="s">
-        <v>714</v>
-      </c>
-      <c r="H69" s="17"/>
+      <c r="G69" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="H69" s="17" t="s">
+        <v>764</v>
+      </c>
       <c r="I69" s="17" t="s">
-        <v>808</v>
+        <v>747</v>
       </c>
       <c r="J69" s="17" t="s">
-        <v>691</v>
+        <v>1138</v>
       </c>
       <c r="K69" s="17" t="s">
-        <v>684</v>
-      </c>
-      <c r="L69" s="17" t="s">
-        <v>2194</v>
-      </c>
+        <v>736</v>
+      </c>
+      <c r="L69" s="17"/>
       <c r="M69" s="17"/>
       <c r="N69" t="s">
         <v>902</v>
       </c>
-      <c r="P69" t="s">
-        <v>884</v>
-      </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>996</v>
-      </c>
-      <c r="C70" t="s">
-        <v>1186</v>
+        <v>1062</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>1069</v>
       </c>
       <c r="D70" s="17">
+        <v>2</v>
+      </c>
+      <c r="E70" s="17">
         <v>4</v>
       </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70">
-        <v>10000</v>
+      <c r="F70" s="17">
+        <v>50</v>
       </c>
       <c r="G70" t="s">
-        <v>721</v>
+        <v>739</v>
       </c>
       <c r="H70" s="17" t="s">
-        <v>900</v>
+        <v>733</v>
       </c>
       <c r="I70" s="17" t="s">
-        <v>643</v>
+        <v>2194</v>
       </c>
       <c r="J70" s="17" t="s">
-        <v>705</v>
-      </c>
-      <c r="K70" s="17" t="s">
-        <v>661</v>
-      </c>
-      <c r="L70" s="17" t="s">
-        <v>845</v>
-      </c>
+        <v>808</v>
+      </c>
+      <c r="K70" s="17"/>
+      <c r="L70" s="17"/>
       <c r="M70" s="17"/>
-      <c r="N70" t="s">
-        <v>902</v>
+      <c r="P70" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>996</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>1003</v>
+        <v>1062</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1252</v>
       </c>
       <c r="D71" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E71" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F71" s="17">
-        <v>50</v>
-      </c>
-      <c r="G71" t="s">
-        <v>900</v>
+        <v>10000</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>808</v>
       </c>
       <c r="H71" s="17"/>
       <c r="I71" s="17" t="s">
-        <v>1004</v>
+        <v>1253</v>
       </c>
       <c r="J71" s="17" t="s">
-        <v>721</v>
+        <v>901</v>
       </c>
       <c r="K71" s="17" t="s">
-        <v>1005</v>
-      </c>
-      <c r="L71" s="17" t="s">
-        <v>1006</v>
-      </c>
+        <v>744</v>
+      </c>
+      <c r="L71" s="17"/>
       <c r="M71" s="17"/>
       <c r="N71" t="s">
-        <v>1007</v>
-      </c>
-      <c r="P71" t="s">
-        <v>884</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>1010</v>
+        <v>1062</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1255</v>
       </c>
       <c r="D72" s="17">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>3</v>
-      </c>
-      <c r="F72">
-        <v>250</v>
-      </c>
-      <c r="G72" t="s">
-        <v>714</v>
+        <v>2</v>
+      </c>
+      <c r="E72" s="17">
+        <v>4</v>
+      </c>
+      <c r="F72" s="17">
+        <v>50</v>
+      </c>
+      <c r="G72" s="17" t="s">
+        <v>794</v>
       </c>
       <c r="H72" s="17"/>
       <c r="I72" s="17" t="s">
-        <v>2186</v>
+        <v>710</v>
       </c>
       <c r="J72" s="17" t="s">
-        <v>688</v>
-      </c>
-      <c r="K72" s="17"/>
+        <v>948</v>
+      </c>
+      <c r="K72" s="17" t="s">
+        <v>1256</v>
+      </c>
       <c r="L72" s="17"/>
       <c r="M72" s="17"/>
       <c r="N72" t="s">
-        <v>902</v>
-      </c>
-      <c r="P72" t="s">
+        <v>951</v>
+      </c>
+      <c r="O72" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>1012</v>
+        <v>1062</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1257</v>
       </c>
       <c r="D73" s="17">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73">
-        <v>10000</v>
-      </c>
-      <c r="G73" t="s">
-        <v>714</v>
+        <v>2</v>
+      </c>
+      <c r="E73" s="17">
+        <v>4</v>
+      </c>
+      <c r="F73" s="17">
+        <v>50</v>
+      </c>
+      <c r="G73" s="17" t="s">
+        <v>792</v>
       </c>
       <c r="H73" s="17"/>
       <c r="I73" s="17" t="s">
-        <v>642</v>
+        <v>710</v>
       </c>
       <c r="J73" s="17" t="s">
-        <v>890</v>
+        <v>948</v>
       </c>
       <c r="K73" s="17" t="s">
-        <v>1013</v>
-      </c>
-      <c r="L73" s="17" t="s">
-        <v>1014</v>
-      </c>
+        <v>1232</v>
+      </c>
+      <c r="L73" s="17"/>
       <c r="M73" s="17"/>
       <c r="N73" t="s">
-        <v>902</v>
-      </c>
-      <c r="P73" t="s">
-        <v>884</v>
+        <v>951</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B74" s="17" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>1016</v>
+        <v>1062</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1258</v>
       </c>
       <c r="D74" s="17">
         <v>2</v>
       </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>10000</v>
-      </c>
-      <c r="G74" t="s">
-        <v>747</v>
+      <c r="E74" s="17">
+        <v>4</v>
+      </c>
+      <c r="F74" s="17">
+        <v>50</v>
+      </c>
+      <c r="G74" s="17" t="s">
+        <v>790</v>
       </c>
       <c r="H74" s="17"/>
       <c r="I74" s="17" t="s">
-        <v>691</v>
+        <v>710</v>
       </c>
       <c r="J74" s="17" t="s">
-        <v>1017</v>
+        <v>948</v>
       </c>
       <c r="K74" s="17" t="s">
-        <v>1018</v>
-      </c>
-      <c r="L74" s="17" t="s">
-        <v>823</v>
-      </c>
+        <v>1259</v>
+      </c>
+      <c r="L74" s="17"/>
       <c r="M74" s="17"/>
       <c r="N74" t="s">
-        <v>1019</v>
-      </c>
-      <c r="P74" t="s">
-        <v>884</v>
+        <v>951</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B75" s="17" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>1021</v>
+        <v>1062</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1260</v>
       </c>
       <c r="D75" s="17">
-        <v>3</v>
-      </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
-      <c r="F75">
-        <v>10000</v>
-      </c>
-      <c r="G75" t="s">
-        <v>900</v>
+        <v>2</v>
+      </c>
+      <c r="E75" s="17">
+        <v>4</v>
+      </c>
+      <c r="F75" s="17">
+        <v>50</v>
+      </c>
+      <c r="G75" s="17" t="s">
+        <v>788</v>
       </c>
       <c r="H75" s="17"/>
       <c r="I75" s="17" t="s">
-        <v>949</v>
+        <v>710</v>
       </c>
       <c r="J75" s="17" t="s">
-        <v>729</v>
+        <v>948</v>
       </c>
       <c r="K75" s="17" t="s">
-        <v>1022</v>
+        <v>1157</v>
       </c>
       <c r="L75" s="17"/>
       <c r="M75" s="17"/>
       <c r="N75" t="s">
-        <v>902</v>
-      </c>
-      <c r="P75" t="s">
-        <v>884</v>
+        <v>951</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
+        <v>1062</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D76" s="17">
+        <v>2</v>
       </c>
       <c r="E76" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G76" t="s">
-        <v>705</v>
+        <v>2500</v>
+      </c>
+      <c r="G76" s="17" t="s">
+        <v>764</v>
       </c>
       <c r="H76" s="17"/>
       <c r="I76" s="17" t="s">
-        <v>890</v>
+        <v>636</v>
       </c>
       <c r="J76" s="17" t="s">
-        <v>1006</v>
-      </c>
-      <c r="K76" s="17"/>
+        <v>765</v>
+      </c>
+      <c r="K76" s="17" t="s">
+        <v>948</v>
+      </c>
       <c r="L76" s="17"/>
       <c r="M76" s="17"/>
       <c r="N76" t="s">
-        <v>902</v>
-      </c>
-      <c r="P76" t="s">
-        <v>884</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>1027</v>
+        <v>272</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1272</v>
       </c>
       <c r="D77">
         <v>2</v>
       </c>
-      <c r="E77" s="17">
-        <v>2</v>
-      </c>
-      <c r="F77" s="17">
-        <v>2500</v>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>10000</v>
       </c>
       <c r="G77" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="H77" s="17"/>
       <c r="I77" s="17" t="s">
-        <v>744</v>
+        <v>688</v>
       </c>
       <c r="J77" s="17" t="s">
-        <v>674</v>
+        <v>820</v>
       </c>
       <c r="K77" s="17" t="s">
-        <v>787</v>
-      </c>
-      <c r="L77" s="17" t="s">
-        <v>910</v>
-      </c>
+        <v>881</v>
+      </c>
+      <c r="L77" s="17"/>
       <c r="M77" s="17"/>
       <c r="N77" t="s">
-        <v>902</v>
-      </c>
-      <c r="P77" t="s">
-        <v>884</v>
+        <v>912</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B78" s="17" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>1029</v>
+        <v>1083</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1281</v>
       </c>
       <c r="D78">
-        <v>3</v>
-      </c>
-      <c r="E78" s="17">
         <v>2</v>
       </c>
-      <c r="F78" s="17">
-        <v>2500</v>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>10000</v>
       </c>
       <c r="G78" t="s">
-        <v>725</v>
-      </c>
-      <c r="H78" s="17" t="s">
-        <v>1030</v>
-      </c>
+        <v>894</v>
+      </c>
+      <c r="H78" s="17"/>
       <c r="I78" s="17" t="s">
-        <v>668</v>
+        <v>697</v>
       </c>
       <c r="J78" s="17" t="s">
-        <v>984</v>
+        <v>853</v>
       </c>
       <c r="K78" s="17" t="s">
-        <v>1031</v>
+        <v>1282</v>
       </c>
       <c r="L78" s="17" t="s">
-        <v>910</v>
-      </c>
-      <c r="M78" s="17" t="s">
-        <v>841</v>
-      </c>
+        <v>1283</v>
+      </c>
+      <c r="M78" s="17"/>
       <c r="N78" t="s">
-        <v>995</v>
-      </c>
-      <c r="P78" t="s">
-        <v>884</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B79" s="17" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D79" s="17">
+        <v>1083</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79">
         <v>1</v>
       </c>
-      <c r="E79" s="17">
-        <v>1</v>
-      </c>
-      <c r="F79" s="17">
+      <c r="F79">
         <v>10000</v>
       </c>
       <c r="G79" t="s">
-        <v>805</v>
+        <v>905</v>
       </c>
       <c r="H79" s="17"/>
       <c r="I79" s="17" t="s">
-        <v>881</v>
+        <v>752</v>
       </c>
       <c r="J79" s="17" t="s">
-        <v>705</v>
+        <v>1282</v>
       </c>
       <c r="K79" s="17" t="s">
-        <v>714</v>
+        <v>736</v>
       </c>
       <c r="L79" s="17" t="s">
-        <v>2594</v>
+        <v>1285</v>
       </c>
       <c r="M79" s="17"/>
       <c r="N79" t="s">
-        <v>1035</v>
-      </c>
-      <c r="P79" t="s">
-        <v>884</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1032</v>
+        <v>1083</v>
       </c>
       <c r="C80" t="s">
-        <v>1187</v>
-      </c>
-      <c r="D80" s="17">
+        <v>1286</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80">
         <v>1</v>
       </c>
-      <c r="E80" s="17">
-        <v>3</v>
-      </c>
-      <c r="F80" s="17">
-        <v>250</v>
-      </c>
-      <c r="G80" s="17" t="s">
-        <v>764</v>
+      <c r="F80">
+        <v>10000</v>
+      </c>
+      <c r="G80" t="s">
+        <v>904</v>
       </c>
       <c r="H80" s="17"/>
       <c r="I80" s="17" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="J80" s="17" t="s">
-        <v>765</v>
+        <v>1256</v>
       </c>
       <c r="K80" s="17" t="s">
-        <v>836</v>
-      </c>
-      <c r="L80" s="17"/>
+        <v>710</v>
+      </c>
+      <c r="L80" s="17" t="s">
+        <v>1287</v>
+      </c>
       <c r="M80" s="17"/>
       <c r="N80" t="s">
-        <v>1188</v>
-      </c>
-      <c r="O80" t="s">
-        <v>884</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1032</v>
+        <v>1083</v>
       </c>
       <c r="C81" t="s">
-        <v>1189</v>
-      </c>
-      <c r="D81" s="17">
+        <v>1288</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81">
         <v>1</v>
       </c>
-      <c r="E81" s="17">
-        <v>3</v>
-      </c>
-      <c r="F81" s="17">
-        <v>250</v>
-      </c>
-      <c r="G81" s="17" t="s">
-        <v>1190</v>
+      <c r="F81">
+        <v>10000</v>
+      </c>
+      <c r="G81" t="s">
+        <v>888</v>
       </c>
       <c r="H81" s="17"/>
       <c r="I81" s="17" t="s">
-        <v>739</v>
+        <v>826</v>
       </c>
       <c r="J81" s="17" t="s">
-        <v>1191</v>
+        <v>696</v>
       </c>
       <c r="K81" s="17" t="s">
-        <v>629</v>
+        <v>1232</v>
       </c>
       <c r="L81" s="17" t="s">
-        <v>642</v>
+        <v>1289</v>
       </c>
       <c r="M81" s="17"/>
       <c r="N81" t="s">
-        <v>1192</v>
+        <v>951</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1032</v>
+        <v>1092</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>1036</v>
+        <v>1093</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>1037</v>
+        <v>1094</v>
       </c>
       <c r="D82" s="17">
         <v>2</v>
       </c>
       <c r="E82" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F82" s="17">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="G82" t="s">
-        <v>692</v>
+        <v>887</v>
       </c>
       <c r="H82" s="17"/>
       <c r="I82" s="17" t="s">
-        <v>2187</v>
-      </c>
-      <c r="J82" s="17"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
+        <v>1022</v>
+      </c>
+      <c r="J82" s="17" t="s">
+        <v>764</v>
+      </c>
+      <c r="K82" s="17" t="s">
+        <v>636</v>
+      </c>
+      <c r="L82" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="M82" s="17" t="s">
+        <v>1095</v>
+      </c>
       <c r="N82" t="s">
-        <v>1038</v>
+        <v>1096</v>
       </c>
       <c r="P82" t="s">
         <v>884</v>
@@ -31137,151 +31025,159 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C83" t="s">
-        <v>1193</v>
+        <v>1092</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>1302</v>
       </c>
       <c r="D83" s="17">
         <v>2</v>
       </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
-      <c r="F83">
-        <v>10000</v>
+      <c r="E83" s="17">
+        <v>3</v>
+      </c>
+      <c r="F83" s="17">
+        <v>250</v>
       </c>
       <c r="G83" t="s">
-        <v>790</v>
+        <v>2176</v>
       </c>
       <c r="H83" s="17"/>
       <c r="I83" s="17" t="s">
-        <v>721</v>
+        <v>1022</v>
       </c>
       <c r="J83" s="17" t="s">
-        <v>732</v>
+        <v>808</v>
       </c>
       <c r="K83" s="17" t="s">
-        <v>755</v>
+        <v>889</v>
       </c>
       <c r="L83" s="17" t="s">
-        <v>1194</v>
+        <v>796</v>
       </c>
       <c r="M83" s="17"/>
       <c r="N83" t="s">
-        <v>1195</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C84" t="s">
-        <v>1196</v>
+        <v>1092</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>1304</v>
       </c>
       <c r="D84" s="17">
         <v>2</v>
       </c>
       <c r="E84" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F84" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G84" s="17" t="s">
-        <v>792</v>
+        <v>250</v>
+      </c>
+      <c r="G84" t="s">
+        <v>2183</v>
       </c>
       <c r="H84" s="17"/>
       <c r="I84" s="17" t="s">
-        <v>621</v>
+        <v>1022</v>
       </c>
       <c r="J84" s="17" t="s">
-        <v>636</v>
+        <v>2188</v>
       </c>
       <c r="K84" s="17" t="s">
-        <v>725</v>
-      </c>
-      <c r="L84" s="17" t="s">
-        <v>1017</v>
-      </c>
-      <c r="M84" s="17" t="s">
-        <v>1197</v>
-      </c>
+        <v>950</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
       <c r="N84" t="s">
-        <v>1198</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C85" t="s">
-        <v>1199</v>
+        <v>1110</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>1112</v>
       </c>
       <c r="D85" s="17">
         <v>2</v>
       </c>
       <c r="E85" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F85" s="17">
-        <v>250</v>
-      </c>
-      <c r="G85" s="17" t="s">
-        <v>1200</v>
+        <v>10000</v>
+      </c>
+      <c r="G85" t="s">
+        <v>764</v>
       </c>
       <c r="H85" s="17"/>
       <c r="I85" s="17" t="s">
-        <v>816</v>
+        <v>691</v>
       </c>
       <c r="J85" s="17" t="s">
-        <v>1201</v>
+        <v>2194</v>
       </c>
       <c r="K85" s="17" t="s">
-        <v>1202</v>
-      </c>
-      <c r="L85" s="17"/>
+        <v>732</v>
+      </c>
+      <c r="L85" s="17" t="s">
+        <v>733</v>
+      </c>
       <c r="M85" s="17"/>
       <c r="N85" t="s">
-        <v>1203</v>
+        <v>1038</v>
+      </c>
+      <c r="P85" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B86" t="s">
-        <v>2580</v>
+        <v>877</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>885</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>2581</v>
+        <v>886</v>
       </c>
       <c r="D86" s="17">
-        <v>2</v>
-      </c>
-      <c r="E86" s="17">
-        <v>2</v>
-      </c>
-      <c r="F86" s="17">
-        <v>2500</v>
+        <v>3</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>10000</v>
       </c>
       <c r="G86" t="s">
-        <v>765</v>
-      </c>
-      <c r="I86" t="s">
-        <v>2582</v>
-      </c>
-      <c r="J86" t="s">
-        <v>2588</v>
-      </c>
-      <c r="K86" t="s">
-        <v>661</v>
-      </c>
-      <c r="L86" t="s">
-        <v>1067</v>
-      </c>
+        <v>887</v>
+      </c>
+      <c r="H86" s="17" t="s">
+        <v>888</v>
+      </c>
+      <c r="I86" s="17" t="s">
+        <v>844</v>
+      </c>
+      <c r="J86" s="17" t="s">
+        <v>890</v>
+      </c>
+      <c r="K86" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="L86" s="17" t="s">
+        <v>2175</v>
+      </c>
+      <c r="M86" s="17"/>
       <c r="N86" t="s">
-        <v>2583</v>
+        <v>891</v>
       </c>
       <c r="P86" t="s">
         <v>884</v>
@@ -31289,41 +31185,48 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C87" t="s">
-        <v>1204</v>
+        <v>877</v>
+      </c>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17" t="s">
+        <v>1116</v>
       </c>
       <c r="D87" s="17">
         <v>3</v>
       </c>
-      <c r="E87" s="17">
+      <c r="E87">
         <v>1</v>
       </c>
-      <c r="F87" s="17">
+      <c r="F87">
         <v>10000</v>
       </c>
-      <c r="G87" s="17" t="s">
-        <v>808</v>
+      <c r="G87" t="s">
+        <v>2171</v>
       </c>
       <c r="H87" s="17"/>
       <c r="I87" s="17" t="s">
-        <v>925</v>
-      </c>
-      <c r="J87" s="17"/>
-      <c r="K87" s="17"/>
-      <c r="L87" s="17"/>
+        <v>906</v>
+      </c>
+      <c r="J87" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="K87" s="17" t="s">
+        <v>1117</v>
+      </c>
+      <c r="L87" s="17" t="s">
+        <v>1118</v>
+      </c>
       <c r="M87" s="17"/>
       <c r="N87" t="s">
-        <v>1205</v>
+        <v>891</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C88" t="s">
-        <v>1206</v>
+        <v>877</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>2220</v>
       </c>
       <c r="D88" s="17">
         <v>3</v>
@@ -31334,71 +31237,80 @@
       <c r="F88" s="17">
         <v>10000</v>
       </c>
-      <c r="G88" s="17" t="s">
-        <v>788</v>
+      <c r="G88" t="s">
+        <v>880</v>
       </c>
       <c r="H88" s="17"/>
       <c r="I88" s="17" t="s">
-        <v>1125</v>
+        <v>2222</v>
       </c>
       <c r="J88" s="17" t="s">
-        <v>992</v>
+        <v>2221</v>
       </c>
       <c r="K88" s="17" t="s">
-        <v>890</v>
+        <v>2223</v>
       </c>
       <c r="L88" s="17" t="s">
-        <v>1207</v>
-      </c>
-      <c r="M88" s="17"/>
+        <v>2224</v>
+      </c>
+      <c r="M88" s="17" t="s">
+        <v>2225</v>
+      </c>
       <c r="N88" t="s">
-        <v>951</v>
+        <v>2226</v>
+      </c>
+      <c r="O88" t="s">
+        <v>2227</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C89" t="s">
-        <v>1208</v>
+        <v>897</v>
+      </c>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17" t="s">
+        <v>1127</v>
       </c>
       <c r="D89" s="17">
-        <v>4</v>
-      </c>
-      <c r="E89" s="17">
+        <v>3</v>
+      </c>
+      <c r="E89">
         <v>1</v>
       </c>
-      <c r="F89" s="17">
+      <c r="F89">
         <v>10000</v>
       </c>
-      <c r="G89" s="17" t="s">
-        <v>721</v>
+      <c r="G89" t="s">
+        <v>2171</v>
       </c>
       <c r="H89" s="17"/>
       <c r="I89" s="17" t="s">
-        <v>1155</v>
+        <v>911</v>
       </c>
       <c r="J89" s="17" t="s">
-        <v>728</v>
+        <v>831</v>
       </c>
       <c r="K89" s="17" t="s">
-        <v>736</v>
-      </c>
-      <c r="L89" s="17"/>
+        <v>906</v>
+      </c>
+      <c r="L89" s="17" t="s">
+        <v>2120</v>
+      </c>
       <c r="M89" s="17"/>
       <c r="N89" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C90" t="s">
-        <v>1209</v>
+        <v>907</v>
+      </c>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17" t="s">
+        <v>1137</v>
       </c>
       <c r="D90" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -31407,399 +31319,434 @@
         <v>10000</v>
       </c>
       <c r="G90" t="s">
-        <v>764</v>
+        <v>788</v>
       </c>
       <c r="H90" s="17"/>
       <c r="I90" s="17" t="s">
-        <v>684</v>
+        <v>803</v>
       </c>
       <c r="J90" s="17" t="s">
-        <v>739</v>
+        <v>1138</v>
       </c>
       <c r="K90" s="17" t="s">
-        <v>921</v>
+        <v>1139</v>
       </c>
       <c r="L90" s="17"/>
       <c r="M90" s="17"/>
       <c r="N90" t="s">
-        <v>941</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C91" t="s">
-        <v>1210</v>
+        <v>907</v>
+      </c>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17" t="s">
+        <v>1141</v>
       </c>
       <c r="D91" s="17">
-        <v>5</v>
-      </c>
-      <c r="E91" s="17">
+        <v>3</v>
+      </c>
+      <c r="E91">
         <v>1</v>
       </c>
-      <c r="F91" s="17">
+      <c r="F91">
         <v>10000</v>
       </c>
-      <c r="G91" s="17" t="s">
-        <v>794</v>
-      </c>
-      <c r="H91" s="17"/>
+      <c r="G91" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H91" s="17" t="s">
+        <v>1143</v>
+      </c>
       <c r="I91" s="17" t="s">
-        <v>831</v>
+        <v>861</v>
       </c>
       <c r="J91" s="17" t="s">
-        <v>1200</v>
+        <v>853</v>
       </c>
       <c r="K91" s="17" t="s">
-        <v>744</v>
+        <v>2181</v>
       </c>
       <c r="L91" s="17"/>
       <c r="M91" s="17"/>
       <c r="N91" t="s">
-        <v>1211</v>
+        <v>1144</v>
+      </c>
+      <c r="O91" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C92" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D92" s="17">
-        <v>5</v>
+        <v>918</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>919</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>920</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
       </c>
       <c r="E92" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F92" s="17">
-        <v>50</v>
-      </c>
-      <c r="G92" s="17" t="s">
-        <v>1213</v>
-      </c>
-      <c r="H92" s="17" t="s">
-        <v>1214</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="G92" t="s">
+        <v>656</v>
+      </c>
+      <c r="H92" s="17"/>
       <c r="I92" s="17" t="s">
-        <v>1215</v>
+        <v>656</v>
       </c>
       <c r="J92" s="17" t="s">
-        <v>1216</v>
-      </c>
-      <c r="K92" s="17" t="s">
-        <v>917</v>
-      </c>
-      <c r="L92" s="17" t="s">
-        <v>800</v>
-      </c>
+        <v>2182</v>
+      </c>
+      <c r="K92" s="17"/>
+      <c r="L92" s="17"/>
       <c r="M92" s="17"/>
       <c r="N92" t="s">
-        <v>1217</v>
+        <v>922</v>
+      </c>
+      <c r="P92" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1218</v>
+        <v>938</v>
       </c>
       <c r="C93" t="s">
-        <v>1219</v>
+        <v>1169</v>
       </c>
       <c r="D93" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E93" s="17">
         <v>1</v>
       </c>
-      <c r="F93" s="17">
+      <c r="F93">
         <v>10000</v>
       </c>
-      <c r="G93" s="17" t="s">
-        <v>724</v>
+      <c r="G93" t="s">
+        <v>764</v>
       </c>
       <c r="H93" s="17"/>
       <c r="I93" s="17" t="s">
-        <v>949</v>
+        <v>1170</v>
       </c>
       <c r="J93" s="17" t="s">
-        <v>661</v>
-      </c>
-      <c r="K93" s="17"/>
-      <c r="L93" s="17"/>
+        <v>732</v>
+      </c>
+      <c r="K93" s="17" t="s">
+        <v>744</v>
+      </c>
+      <c r="L93" s="17" t="s">
+        <v>1171</v>
+      </c>
       <c r="M93" s="17"/>
       <c r="N93" t="s">
-        <v>1078</v>
+        <v>941</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1218</v>
+        <v>958</v>
       </c>
       <c r="C94" t="s">
-        <v>1220</v>
-      </c>
-      <c r="D94" s="17">
-        <v>2</v>
-      </c>
-      <c r="E94" s="17">
+        <v>1172</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94">
         <v>1</v>
       </c>
-      <c r="F94" s="17">
+      <c r="F94">
         <v>10000</v>
       </c>
-      <c r="G94" s="17" t="s">
-        <v>721</v>
+      <c r="G94" t="s">
+        <v>764</v>
       </c>
       <c r="H94" s="17"/>
       <c r="I94" s="17" t="s">
-        <v>1221</v>
+        <v>836</v>
       </c>
       <c r="J94" s="17" t="s">
-        <v>901</v>
+        <v>643</v>
       </c>
       <c r="K94" s="17" t="s">
-        <v>629</v>
+        <v>710</v>
       </c>
       <c r="L94" s="17"/>
       <c r="M94" s="17"/>
       <c r="N94" t="s">
-        <v>1133</v>
+        <v>941</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C95" t="s">
-        <v>1222</v>
+        <v>965</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>968</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>969</v>
       </c>
       <c r="D95" s="17">
+        <v>3</v>
+      </c>
+      <c r="E95">
         <v>2</v>
       </c>
-      <c r="E95" s="17">
-        <v>1</v>
-      </c>
-      <c r="F95" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G95" s="17" t="s">
-        <v>721</v>
+      <c r="F95">
+        <v>2500</v>
+      </c>
+      <c r="G95" t="s">
+        <v>764</v>
       </c>
       <c r="H95" s="17"/>
       <c r="I95" s="17" t="s">
-        <v>1223</v>
+        <v>643</v>
       </c>
       <c r="J95" s="17" t="s">
-        <v>1125</v>
+        <v>970</v>
       </c>
       <c r="K95" s="17" t="s">
-        <v>901</v>
-      </c>
-      <c r="L95" s="17"/>
+        <v>2179</v>
+      </c>
+      <c r="L95" s="17" t="s">
+        <v>971</v>
+      </c>
       <c r="M95" s="17"/>
       <c r="N95" t="s">
-        <v>891</v>
+        <v>972</v>
+      </c>
+      <c r="P95" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1218</v>
+        <v>975</v>
       </c>
       <c r="C96" t="s">
-        <v>1224</v>
-      </c>
-      <c r="D96" s="17">
+        <v>1174</v>
+      </c>
+      <c r="D96">
         <v>3</v>
       </c>
-      <c r="E96" s="17">
-        <v>1</v>
-      </c>
-      <c r="F96" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G96" s="17" t="s">
-        <v>721</v>
+      <c r="E96">
+        <v>3</v>
+      </c>
+      <c r="F96">
+        <v>250</v>
+      </c>
+      <c r="G96" t="s">
+        <v>2183</v>
       </c>
       <c r="H96" s="17"/>
       <c r="I96" s="17" t="s">
-        <v>1225</v>
+        <v>826</v>
       </c>
       <c r="J96" s="17" t="s">
-        <v>844</v>
+        <v>1253</v>
       </c>
       <c r="K96" s="17" t="s">
-        <v>890</v>
-      </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
+        <v>1238</v>
+      </c>
+      <c r="L96" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="M96" s="17" t="s">
+        <v>2579</v>
+      </c>
       <c r="N96" t="s">
-        <v>1038</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B97" s="17" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>1041</v>
+        <v>975</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1184</v>
       </c>
       <c r="D97" s="17">
+        <v>3</v>
+      </c>
+      <c r="E97">
         <v>1</v>
       </c>
-      <c r="E97" s="17">
-        <v>1</v>
-      </c>
-      <c r="F97" s="17">
+      <c r="F97">
         <v>10000</v>
       </c>
       <c r="G97" t="s">
-        <v>721</v>
-      </c>
-      <c r="H97" s="17" t="s">
-        <v>643</v>
-      </c>
+        <v>904</v>
+      </c>
+      <c r="H97" s="17"/>
       <c r="I97" s="17" t="s">
-        <v>725</v>
+        <v>831</v>
       </c>
       <c r="J97" s="17" t="s">
-        <v>1042</v>
+        <v>697</v>
       </c>
       <c r="K97" s="17" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="L97" s="17"/>
       <c r="M97" s="17"/>
       <c r="N97" t="s">
-        <v>1043</v>
-      </c>
-      <c r="P97" t="s">
-        <v>884</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>1039</v>
+      <c r="A98" s="2" t="s">
+        <v>987</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C98" s="17" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D98" s="17">
-        <v>2</v>
-      </c>
-      <c r="E98" s="17">
+        <v>993</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>994</v>
+      </c>
+      <c r="D98" s="9">
+        <v>3</v>
+      </c>
+      <c r="E98" s="2">
         <v>1</v>
       </c>
-      <c r="F98" s="17">
+      <c r="F98" s="2">
         <v>10000</v>
       </c>
-      <c r="G98" t="s">
-        <v>721</v>
-      </c>
-      <c r="H98" s="17"/>
-      <c r="I98" s="17" t="s">
-        <v>954</v>
-      </c>
-      <c r="J98" s="17" t="s">
-        <v>643</v>
-      </c>
-      <c r="K98" s="17" t="s">
-        <v>1046</v>
-      </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" t="s">
-        <v>912</v>
-      </c>
-      <c r="P98" t="s">
+      <c r="G98" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9" t="s">
+        <v>881</v>
+      </c>
+      <c r="J98" s="9" t="s">
+        <v>803</v>
+      </c>
+      <c r="K98" s="9" t="s">
+        <v>853</v>
+      </c>
+      <c r="L98" s="9" t="s">
+        <v>928</v>
+      </c>
+      <c r="M98" s="9"/>
+      <c r="N98" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="O98" s="2"/>
+      <c r="P98" s="2" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C99" t="s">
-        <v>1226</v>
+        <v>1008</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>1021</v>
       </c>
       <c r="D99" s="17">
-        <v>2</v>
-      </c>
-      <c r="E99" s="17">
+        <v>3</v>
+      </c>
+      <c r="E99">
         <v>1</v>
       </c>
-      <c r="F99" s="17">
+      <c r="F99">
         <v>10000</v>
       </c>
-      <c r="G99" s="17" t="s">
-        <v>721</v>
+      <c r="G99" t="s">
+        <v>900</v>
       </c>
       <c r="H99" s="17"/>
       <c r="I99" s="17" t="s">
-        <v>642</v>
+        <v>949</v>
       </c>
       <c r="J99" s="17" t="s">
-        <v>788</v>
+        <v>729</v>
       </c>
       <c r="K99" s="17" t="s">
-        <v>1227</v>
+        <v>1022</v>
       </c>
       <c r="L99" s="17"/>
       <c r="M99" s="17"/>
       <c r="N99" t="s">
-        <v>951</v>
+        <v>902</v>
+      </c>
+      <c r="P99" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C100" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D100" s="17">
+        <v>1023</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="E100" s="17">
         <v>2</v>
       </c>
-      <c r="E100" s="17">
-        <v>1</v>
-      </c>
       <c r="F100" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G100" s="17" t="s">
-        <v>724</v>
-      </c>
-      <c r="H100" s="17"/>
+        <v>2500</v>
+      </c>
+      <c r="G100" t="s">
+        <v>725</v>
+      </c>
+      <c r="H100" s="17" t="s">
+        <v>1030</v>
+      </c>
       <c r="I100" s="17" t="s">
-        <v>1229</v>
+        <v>668</v>
       </c>
       <c r="J100" s="17" t="s">
-        <v>661</v>
+        <v>984</v>
       </c>
       <c r="K100" s="17" t="s">
-        <v>818</v>
-      </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
+        <v>1031</v>
+      </c>
+      <c r="L100" s="17" t="s">
+        <v>910</v>
+      </c>
+      <c r="M100" s="17" t="s">
+        <v>841</v>
+      </c>
       <c r="N100" t="s">
-        <v>1195</v>
+        <v>995</v>
+      </c>
+      <c r="P100" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="C101" t="s">
-        <v>1230</v>
+        <v>1204</v>
       </c>
       <c r="D101" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E101" s="17">
         <v>1</v>
@@ -31808,188 +31755,178 @@
         <v>10000</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>721</v>
+        <v>808</v>
       </c>
       <c r="H101" s="17"/>
       <c r="I101" s="17" t="s">
-        <v>725</v>
-      </c>
-      <c r="J101" s="17" t="s">
-        <v>629</v>
-      </c>
-      <c r="K101" s="17" t="s">
-        <v>1166</v>
-      </c>
+        <v>925</v>
+      </c>
+      <c r="J101" s="17"/>
+      <c r="K101" s="17"/>
       <c r="L101" s="17"/>
       <c r="M101" s="17"/>
       <c r="N101" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D102" s="17">
+        <v>3</v>
+      </c>
+      <c r="E102" s="17">
+        <v>1</v>
+      </c>
+      <c r="F102" s="17">
+        <v>10000</v>
+      </c>
+      <c r="G102" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="H102" s="17"/>
+      <c r="I102" s="17" t="s">
+        <v>1125</v>
+      </c>
+      <c r="J102" s="17" t="s">
+        <v>992</v>
+      </c>
+      <c r="K102" s="17" t="s">
+        <v>890</v>
+      </c>
+      <c r="L102" s="17" t="s">
+        <v>1207</v>
+      </c>
+      <c r="M102" s="17"/>
+      <c r="N102" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>1231</v>
-      </c>
-      <c r="D102" s="9">
-        <v>2</v>
-      </c>
-      <c r="E102" s="9">
-        <v>1</v>
-      </c>
-      <c r="F102" s="9">
-        <v>10000</v>
-      </c>
-      <c r="G102" s="9" t="s">
-        <v>721</v>
-      </c>
-      <c r="H102" s="9"/>
-      <c r="I102" s="9" t="s">
-        <v>1232</v>
-      </c>
-      <c r="J102" s="9" t="s">
-        <v>725</v>
-      </c>
-      <c r="K102" s="9" t="s">
-        <v>818</v>
-      </c>
-      <c r="L102" s="9"/>
-      <c r="M102" s="9"/>
-      <c r="N102" s="2" t="s">
-        <v>951</v>
-      </c>
-      <c r="O102" s="2"/>
-      <c r="P102" s="2"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B103" s="17" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C103" s="17" t="s">
-        <v>1048</v>
+        <v>1218</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1224</v>
       </c>
       <c r="D103" s="17">
         <v>3</v>
       </c>
       <c r="E103" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F103" s="17">
-        <v>250</v>
-      </c>
-      <c r="G103" t="s">
+        <v>10000</v>
+      </c>
+      <c r="G103" s="17" t="s">
         <v>721</v>
       </c>
-      <c r="H103" s="17" t="s">
-        <v>764</v>
-      </c>
+      <c r="H103" s="17"/>
       <c r="I103" s="17" t="s">
-        <v>1049</v>
+        <v>1225</v>
       </c>
       <c r="J103" s="17" t="s">
-        <v>721</v>
+        <v>844</v>
       </c>
       <c r="K103" s="17" t="s">
-        <v>688</v>
-      </c>
-      <c r="L103" s="17" t="s">
-        <v>765</v>
-      </c>
+        <v>890</v>
+      </c>
+      <c r="L103" s="17"/>
       <c r="M103" s="17"/>
       <c r="N103" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D104" s="17">
+        <v>3</v>
+      </c>
+      <c r="E104" s="17">
+        <v>3</v>
+      </c>
+      <c r="F104" s="17">
+        <v>250</v>
+      </c>
+      <c r="G104" t="s">
+        <v>721</v>
+      </c>
+      <c r="H104" s="17" t="s">
+        <v>764</v>
+      </c>
+      <c r="I104" s="17" t="s">
+        <v>1049</v>
+      </c>
+      <c r="J104" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="K104" s="17" t="s">
+        <v>688</v>
+      </c>
+      <c r="L104" s="17" t="s">
+        <v>765</v>
+      </c>
+      <c r="M104" s="17"/>
+      <c r="N104" t="s">
         <v>1050</v>
       </c>
-      <c r="P103" t="s">
+      <c r="P104" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" s="8" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B104" t="s">
-        <v>2189</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>2190</v>
-      </c>
-      <c r="D104" s="13">
-        <v>4</v>
-      </c>
-      <c r="E104" s="13">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D105" s="17">
         <v>3</v>
       </c>
-      <c r="F104" s="13">
-        <v>250</v>
-      </c>
-      <c r="G104" s="8" t="s">
-        <v>1057</v>
-      </c>
-      <c r="H104" s="17"/>
-      <c r="I104" s="17" t="s">
-        <v>2191</v>
-      </c>
-      <c r="J104" s="17" t="s">
-        <v>2192</v>
-      </c>
-      <c r="K104" s="17" t="s">
-        <v>800</v>
-      </c>
-      <c r="L104" s="17" t="s">
-        <v>2193</v>
-      </c>
-      <c r="M104" s="17" t="s">
-        <v>2182</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>1233</v>
-      </c>
-      <c r="D105" s="9">
-        <v>2</v>
-      </c>
-      <c r="E105" s="9">
+      <c r="E105" s="17">
         <v>1</v>
       </c>
-      <c r="F105" s="9">
+      <c r="F105" s="17">
         <v>10000</v>
       </c>
-      <c r="G105" s="9" t="s">
-        <v>792</v>
-      </c>
-      <c r="H105" s="9"/>
-      <c r="I105" s="9" t="s">
-        <v>890</v>
-      </c>
-      <c r="J105" s="9" t="s">
-        <v>733</v>
-      </c>
-      <c r="K105" s="9" t="s">
-        <v>744</v>
-      </c>
-      <c r="L105" s="9"/>
-      <c r="M105" s="9"/>
-      <c r="N105" s="2" t="s">
-        <v>941</v>
-      </c>
-      <c r="O105" s="2"/>
-      <c r="P105" s="2"/>
+      <c r="G105" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="H105" s="17"/>
+      <c r="I105" s="17" t="s">
+        <v>725</v>
+      </c>
+      <c r="J105" s="17" t="s">
+        <v>728</v>
+      </c>
+      <c r="K105" s="17" t="s">
+        <v>642</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" t="s">
+        <v>1235</v>
+      </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="C106" t="s">
-        <v>1234</v>
+        <v>1241</v>
       </c>
       <c r="D106" s="17">
         <v>3</v>
@@ -32001,115 +31938,105 @@
         <v>10000</v>
       </c>
       <c r="G106" s="17" t="s">
-        <v>788</v>
-      </c>
-      <c r="H106" s="17"/>
+        <v>721</v>
+      </c>
+      <c r="H106" s="17" t="s">
+        <v>764</v>
+      </c>
       <c r="I106" s="17" t="s">
-        <v>725</v>
+        <v>1242</v>
       </c>
       <c r="J106" s="17" t="s">
-        <v>728</v>
+        <v>1017</v>
       </c>
       <c r="K106" s="17" t="s">
-        <v>642</v>
+        <v>792</v>
       </c>
       <c r="L106" s="17"/>
       <c r="M106" s="17"/>
       <c r="N106" t="s">
-        <v>1235</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B107" s="17" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C107" s="17" t="s">
-        <v>1053</v>
+        <v>1062</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1262</v>
       </c>
       <c r="D107" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E107" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F107" s="17">
-        <v>250</v>
-      </c>
-      <c r="G107" t="s">
-        <v>721</v>
-      </c>
-      <c r="H107" s="17" t="s">
-        <v>764</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="G107" s="17" t="s">
+        <v>808</v>
+      </c>
+      <c r="H107" s="17"/>
       <c r="I107" s="17" t="s">
-        <v>706</v>
+        <v>728</v>
       </c>
       <c r="J107" s="17" t="s">
-        <v>890</v>
+        <v>1263</v>
       </c>
       <c r="K107" s="17" t="s">
-        <v>792</v>
-      </c>
-      <c r="L107" s="17" t="s">
-        <v>903</v>
-      </c>
+        <v>1139</v>
+      </c>
+      <c r="L107" s="17"/>
       <c r="M107" s="17"/>
       <c r="N107" t="s">
-        <v>1050</v>
-      </c>
-      <c r="P107" t="s">
-        <v>884</v>
+        <v>912</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C108" t="s">
-        <v>1236</v>
+        <v>1062</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>2117</v>
       </c>
       <c r="D108" s="17">
+        <v>3</v>
+      </c>
+      <c r="E108" s="17">
         <v>4</v>
       </c>
-      <c r="E108" s="17">
-        <v>1</v>
-      </c>
       <c r="F108" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G108" s="17" t="s">
-        <v>794</v>
-      </c>
-      <c r="H108" s="17"/>
+        <v>50</v>
+      </c>
+      <c r="G108" t="s">
+        <v>2118</v>
+      </c>
+      <c r="H108" s="17" t="s">
+        <v>1066</v>
+      </c>
       <c r="I108" s="17" t="s">
-        <v>831</v>
+        <v>2119</v>
       </c>
       <c r="J108" s="17" t="s">
-        <v>728</v>
-      </c>
-      <c r="K108" s="17" t="s">
-        <v>643</v>
-      </c>
-      <c r="L108" s="17" t="s">
-        <v>841</v>
-      </c>
+        <v>692</v>
+      </c>
+      <c r="K108" s="17"/>
+      <c r="L108" s="17"/>
       <c r="M108" s="17"/>
-      <c r="N108" t="s">
-        <v>912</v>
-      </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>1051</v>
+        <v>272</v>
       </c>
       <c r="C109" t="s">
-        <v>1237</v>
+        <v>1273</v>
       </c>
       <c r="D109" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E109" s="17">
         <v>1</v>
@@ -32118,191 +32045,174 @@
         <v>10000</v>
       </c>
       <c r="G109" s="17" t="s">
-        <v>790</v>
+        <v>701</v>
       </c>
       <c r="H109" s="17"/>
       <c r="I109" s="17" t="s">
-        <v>1238</v>
+        <v>836</v>
       </c>
       <c r="J109" s="17" t="s">
-        <v>1239</v>
-      </c>
-      <c r="K109" s="17" t="s">
-        <v>661</v>
-      </c>
+        <v>764</v>
+      </c>
+      <c r="K109" s="17"/>
       <c r="L109" s="17"/>
       <c r="M109" s="17"/>
       <c r="N109" t="s">
-        <v>1195</v>
+        <v>941</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B110" s="17" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C110" s="17" t="s">
-        <v>1056</v>
+        <v>272</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1274</v>
       </c>
       <c r="D110">
-        <v>1</v>
-      </c>
-      <c r="E110" s="17">
-        <v>4</v>
-      </c>
-      <c r="F110" s="17">
-        <v>50</v>
+        <v>3</v>
+      </c>
+      <c r="E110">
+        <v>3</v>
+      </c>
+      <c r="F110">
+        <v>250</v>
       </c>
       <c r="G110" t="s">
-        <v>1057</v>
-      </c>
-      <c r="H110" s="17"/>
+        <v>701</v>
+      </c>
+      <c r="H110" s="17" t="s">
+        <v>1275</v>
+      </c>
       <c r="I110" s="17" t="s">
-        <v>925</v>
+        <v>794</v>
       </c>
       <c r="J110" s="17" t="s">
-        <v>2187</v>
-      </c>
-      <c r="K110" s="17" t="s">
-        <v>642</v>
-      </c>
+        <v>629</v>
+      </c>
+      <c r="K110" s="17"/>
       <c r="L110" s="17"/>
       <c r="M110" s="17"/>
       <c r="N110" t="s">
-        <v>1058</v>
-      </c>
-      <c r="P110" t="s">
-        <v>884</v>
+        <v>941</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B111" s="17" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C111" s="17" t="s">
-        <v>1060</v>
+        <v>272</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1276</v>
       </c>
       <c r="D111">
-        <v>2</v>
-      </c>
-      <c r="E111" s="17">
-        <v>1</v>
-      </c>
-      <c r="F111" s="17">
-        <v>10000</v>
+        <v>3</v>
+      </c>
+      <c r="E111">
+        <v>3</v>
+      </c>
+      <c r="F111">
+        <v>250</v>
       </c>
       <c r="G111" t="s">
-        <v>643</v>
-      </c>
-      <c r="H111" s="17"/>
+        <v>701</v>
+      </c>
+      <c r="H111" s="17" t="s">
+        <v>1277</v>
+      </c>
       <c r="I111" s="17" t="s">
-        <v>881</v>
+        <v>792</v>
       </c>
       <c r="J111" s="17" t="s">
-        <v>724</v>
-      </c>
-      <c r="K111" s="17" t="s">
-        <v>949</v>
-      </c>
-      <c r="L111" s="17" t="s">
         <v>890</v>
       </c>
+      <c r="K111" s="17"/>
+      <c r="L111" s="17"/>
       <c r="M111" s="17"/>
       <c r="N111" t="s">
-        <v>1061</v>
-      </c>
-      <c r="P111" t="s">
-        <v>884</v>
+        <v>941</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>1054</v>
+        <v>272</v>
       </c>
       <c r="C112" t="s">
-        <v>1240</v>
-      </c>
-      <c r="D112" s="17">
-        <v>2</v>
-      </c>
-      <c r="E112" s="17">
-        <v>1</v>
-      </c>
-      <c r="F112" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G112" s="17" t="s">
-        <v>721</v>
+        <v>1278</v>
+      </c>
+      <c r="D112">
+        <v>3</v>
+      </c>
+      <c r="E112">
+        <v>3</v>
+      </c>
+      <c r="F112">
+        <v>250</v>
+      </c>
+      <c r="G112" t="s">
+        <v>701</v>
       </c>
       <c r="H112" s="17" t="s">
-        <v>764</v>
+        <v>1279</v>
       </c>
       <c r="I112" s="17" t="s">
-        <v>747</v>
+        <v>790</v>
       </c>
       <c r="J112" s="17" t="s">
-        <v>1138</v>
-      </c>
-      <c r="K112" s="17" t="s">
-        <v>736</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="K112" s="17"/>
       <c r="L112" s="17"/>
       <c r="M112" s="17"/>
       <c r="N112" t="s">
-        <v>902</v>
+        <v>941</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>1054</v>
+        <v>272</v>
       </c>
       <c r="C113" t="s">
-        <v>1241</v>
-      </c>
-      <c r="D113" s="17">
+        <v>1280</v>
+      </c>
+      <c r="D113">
         <v>3</v>
       </c>
-      <c r="E113" s="17">
-        <v>1</v>
-      </c>
-      <c r="F113" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G113" s="17" t="s">
-        <v>721</v>
+      <c r="E113">
+        <v>3</v>
+      </c>
+      <c r="F113">
+        <v>250</v>
+      </c>
+      <c r="G113" t="s">
+        <v>701</v>
       </c>
       <c r="H113" s="17" t="s">
-        <v>764</v>
+        <v>944</v>
       </c>
       <c r="I113" s="17" t="s">
-        <v>1242</v>
+        <v>788</v>
       </c>
       <c r="J113" s="17" t="s">
-        <v>1017</v>
-      </c>
-      <c r="K113" s="17" t="s">
-        <v>792</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="K113" s="17"/>
       <c r="L113" s="17"/>
       <c r="M113" s="17"/>
       <c r="N113" t="s">
-        <v>1243</v>
+        <v>941</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C114" t="s">
-        <v>1244</v>
+        <v>1083</v>
+      </c>
+      <c r="B114" s="17" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C114" s="17" t="s">
+        <v>1085</v>
       </c>
       <c r="D114" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E114" s="17">
         <v>1</v>
@@ -32310,36 +32220,40 @@
       <c r="F114" s="17">
         <v>10000</v>
       </c>
-      <c r="G114" s="17" t="s">
-        <v>721</v>
+      <c r="G114" t="s">
+        <v>905</v>
       </c>
       <c r="H114" s="17"/>
       <c r="I114" s="17" t="s">
-        <v>881</v>
+        <v>691</v>
       </c>
       <c r="J114" s="17" t="s">
-        <v>1046</v>
+        <v>1086</v>
       </c>
       <c r="K114" s="17" t="s">
-        <v>1245</v>
-      </c>
-      <c r="L114" s="17" t="s">
-        <v>840</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="L114" s="17"/>
       <c r="M114" s="17"/>
       <c r="N114" t="s">
-        <v>1246</v>
+        <v>951</v>
+      </c>
+      <c r="P114" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C115" t="s">
-        <v>1247</v>
+        <v>1083</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>1088</v>
       </c>
       <c r="D115" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E115" s="17">
         <v>1</v>
@@ -32347,39 +32261,40 @@
       <c r="F115" s="17">
         <v>10000</v>
       </c>
-      <c r="G115" s="17" t="s">
-        <v>788</v>
+      <c r="G115" t="s">
+        <v>894</v>
       </c>
       <c r="H115" s="17"/>
       <c r="I115" s="17" t="s">
-        <v>725</v>
+        <v>803</v>
       </c>
       <c r="J115" s="17" t="s">
-        <v>1248</v>
+        <v>1089</v>
       </c>
       <c r="K115" s="17" t="s">
-        <v>642</v>
-      </c>
-      <c r="L115" s="17" t="s">
-        <v>1249</v>
-      </c>
+        <v>853</v>
+      </c>
+      <c r="L115" s="17"/>
       <c r="M115" s="17"/>
       <c r="N115" t="s">
-        <v>1250</v>
+        <v>951</v>
+      </c>
+      <c r="P115" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1062</v>
+        <v>1083</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>1063</v>
+        <v>1090</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>1064</v>
+        <v>1091</v>
       </c>
       <c r="D116" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E116" s="17">
         <v>1</v>
@@ -32388,22 +32303,24 @@
         <v>10000</v>
       </c>
       <c r="G116" t="s">
-        <v>1065</v>
+        <v>888</v>
       </c>
       <c r="H116" s="17"/>
       <c r="I116" s="17" t="s">
-        <v>710</v>
+        <v>948</v>
       </c>
       <c r="J116" s="17" t="s">
-        <v>1066</v>
+        <v>844</v>
       </c>
       <c r="K116" s="17" t="s">
-        <v>1067</v>
-      </c>
-      <c r="L116" s="17"/>
+        <v>903</v>
+      </c>
+      <c r="L116" s="17" t="s">
+        <v>971</v>
+      </c>
       <c r="M116" s="17"/>
       <c r="N116" t="s">
-        <v>1038</v>
+        <v>951</v>
       </c>
       <c r="P116" t="s">
         <v>884</v>
@@ -32411,86 +32328,91 @@
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1062</v>
+        <v>1083</v>
       </c>
       <c r="C117" t="s">
-        <v>1251</v>
-      </c>
-      <c r="D117" s="17">
+        <v>1290</v>
+      </c>
+      <c r="D117">
+        <v>3</v>
+      </c>
+      <c r="E117">
         <v>1</v>
       </c>
-      <c r="E117" s="17">
-        <v>4</v>
-      </c>
-      <c r="F117" s="17">
-        <v>50</v>
-      </c>
-      <c r="G117" s="17" t="s">
-        <v>721</v>
+      <c r="F117">
+        <v>10000</v>
+      </c>
+      <c r="G117" t="s">
+        <v>2156</v>
       </c>
       <c r="H117" s="17"/>
       <c r="I117" s="17" t="s">
-        <v>747</v>
+        <v>674</v>
       </c>
       <c r="J117" s="17" t="s">
-        <v>661</v>
+        <v>787</v>
       </c>
       <c r="K117" s="17" t="s">
-        <v>705</v>
+        <v>1282</v>
       </c>
       <c r="L117" s="17"/>
       <c r="M117" s="17"/>
       <c r="N117" t="s">
-        <v>902</v>
+        <v>883</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1062</v>
+        <v>1092</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>1068</v>
+        <v>1097</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>1069</v>
+        <v>1098</v>
       </c>
       <c r="D118" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E118" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F118" s="17">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="G118" t="s">
-        <v>739</v>
-      </c>
-      <c r="H118" s="17" t="s">
-        <v>733</v>
-      </c>
+        <v>1099</v>
+      </c>
+      <c r="H118" s="17"/>
       <c r="I118" s="17" t="s">
-        <v>2194</v>
+        <v>1100</v>
       </c>
       <c r="J118" s="17" t="s">
-        <v>808</v>
-      </c>
-      <c r="K118" s="17"/>
-      <c r="L118" s="17"/>
+        <v>1101</v>
+      </c>
+      <c r="K118" s="17" t="s">
+        <v>1102</v>
+      </c>
+      <c r="L118" s="17" t="s">
+        <v>1103</v>
+      </c>
       <c r="M118" s="17"/>
+      <c r="N118" t="s">
+        <v>1096</v>
+      </c>
       <c r="P118" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C119" t="s">
-        <v>1252</v>
+        <v>1092</v>
+      </c>
+      <c r="C119" s="17" t="s">
+        <v>1299</v>
       </c>
       <c r="D119" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E119" s="17">
         <v>1</v>
@@ -32498,344 +32420,375 @@
       <c r="F119" s="17">
         <v>10000</v>
       </c>
-      <c r="G119" s="17" t="s">
-        <v>808</v>
+      <c r="G119" t="s">
+        <v>880</v>
       </c>
       <c r="H119" s="17"/>
       <c r="I119" s="17" t="s">
         <v>1253</v>
       </c>
       <c r="J119" s="17" t="s">
-        <v>901</v>
-      </c>
-      <c r="K119" s="17" t="s">
-        <v>744</v>
-      </c>
+        <v>1300</v>
+      </c>
+      <c r="K119" s="17"/>
       <c r="L119" s="17"/>
       <c r="M119" s="17"/>
       <c r="N119" t="s">
-        <v>1254</v>
+        <v>883</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C120" t="s">
-        <v>1255</v>
+        <v>1092</v>
+      </c>
+      <c r="C120" s="17" t="s">
+        <v>1301</v>
       </c>
       <c r="D120" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E120" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F120" s="17">
-        <v>50</v>
-      </c>
-      <c r="G120" s="17" t="s">
-        <v>794</v>
+        <v>250</v>
+      </c>
+      <c r="G120" t="s">
+        <v>2171</v>
       </c>
       <c r="H120" s="17"/>
       <c r="I120" s="17" t="s">
-        <v>710</v>
+        <v>1022</v>
       </c>
       <c r="J120" s="17" t="s">
-        <v>948</v>
+        <v>901</v>
       </c>
       <c r="K120" s="17" t="s">
-        <v>1256</v>
+        <v>984</v>
       </c>
       <c r="L120" s="17"/>
       <c r="M120" s="17"/>
       <c r="N120" t="s">
-        <v>951</v>
-      </c>
-      <c r="O120" t="s">
-        <v>884</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C121" t="s">
-        <v>1257</v>
+        <v>1092</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>1303</v>
       </c>
       <c r="D121" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E121" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F121" s="17">
-        <v>50</v>
-      </c>
-      <c r="G121" s="17" t="s">
-        <v>792</v>
+        <v>250</v>
+      </c>
+      <c r="G121" t="s">
+        <v>2173</v>
       </c>
       <c r="H121" s="17"/>
       <c r="I121" s="17" t="s">
-        <v>710</v>
+        <v>1022</v>
       </c>
       <c r="J121" s="17" t="s">
-        <v>948</v>
+        <v>674</v>
       </c>
       <c r="K121" s="17" t="s">
-        <v>1232</v>
+        <v>803</v>
       </c>
       <c r="L121" s="17"/>
       <c r="M121" s="17"/>
       <c r="N121" t="s">
-        <v>951</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C122" t="s">
-        <v>1258</v>
+        <v>1092</v>
+      </c>
+      <c r="B122" s="17" t="s">
+        <v>2584</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>2585</v>
       </c>
       <c r="D122" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E122" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F122" s="17">
-        <v>50</v>
-      </c>
-      <c r="G122" s="17" t="s">
-        <v>790</v>
-      </c>
-      <c r="H122" s="17"/>
-      <c r="I122" s="17" t="s">
-        <v>710</v>
-      </c>
-      <c r="J122" s="17" t="s">
-        <v>948</v>
-      </c>
-      <c r="K122" s="17" t="s">
-        <v>1259</v>
-      </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
+        <v>250</v>
+      </c>
+      <c r="G122" t="s">
+        <v>887</v>
+      </c>
+      <c r="H122" t="s">
+        <v>904</v>
+      </c>
+      <c r="I122" t="s">
+        <v>1166</v>
+      </c>
+      <c r="J122" t="s">
+        <v>2355</v>
+      </c>
+      <c r="K122" t="s">
+        <v>2586</v>
+      </c>
+      <c r="L122" t="s">
+        <v>2318</v>
+      </c>
       <c r="N122" t="s">
-        <v>951</v>
+        <v>2587</v>
+      </c>
+      <c r="P122" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C123" t="s">
-        <v>1260</v>
+        <v>877</v>
+      </c>
+      <c r="B123" s="17" t="s">
+        <v>892</v>
+      </c>
+      <c r="C123" s="17" t="s">
+        <v>893</v>
       </c>
       <c r="D123" s="17">
-        <v>2</v>
-      </c>
-      <c r="E123" s="17">
         <v>4</v>
       </c>
-      <c r="F123" s="17">
-        <v>50</v>
-      </c>
-      <c r="G123" s="17" t="s">
-        <v>788</v>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>10000</v>
+      </c>
+      <c r="G123" t="s">
+        <v>2173</v>
       </c>
       <c r="H123" s="17"/>
       <c r="I123" s="17" t="s">
-        <v>710</v>
+        <v>788</v>
       </c>
       <c r="J123" s="17" t="s">
-        <v>948</v>
+        <v>803</v>
       </c>
       <c r="K123" s="17" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
+        <v>853</v>
+      </c>
+      <c r="L123" s="17" t="s">
+        <v>896</v>
+      </c>
+      <c r="M123" s="17" t="s">
+        <v>2174</v>
+      </c>
       <c r="N123" t="s">
-        <v>951</v>
+        <v>883</v>
+      </c>
+      <c r="P123" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C124" t="s">
-        <v>1261</v>
+        <v>897</v>
+      </c>
+      <c r="B124" s="17" t="s">
+        <v>2166</v>
+      </c>
+      <c r="C124" s="17" t="s">
+        <v>2170</v>
       </c>
       <c r="D124" s="17">
-        <v>2</v>
-      </c>
-      <c r="E124" s="17">
-        <v>2</v>
-      </c>
-      <c r="F124" s="17">
-        <v>2500</v>
-      </c>
-      <c r="G124" s="17" t="s">
-        <v>764</v>
-      </c>
-      <c r="H124" s="17"/>
+        <v>4</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>10000</v>
+      </c>
+      <c r="G124" t="s">
+        <v>2171</v>
+      </c>
+      <c r="H124" s="17" t="s">
+        <v>905</v>
+      </c>
       <c r="I124" s="17" t="s">
-        <v>636</v>
+        <v>831</v>
       </c>
       <c r="J124" s="17" t="s">
-        <v>765</v>
+        <v>750</v>
       </c>
       <c r="K124" s="17" t="s">
-        <v>948</v>
-      </c>
-      <c r="L124" s="17"/>
+        <v>906</v>
+      </c>
+      <c r="L124" s="17" t="s">
+        <v>896</v>
+      </c>
       <c r="M124" s="17"/>
       <c r="N124" t="s">
-        <v>1038</v>
+        <v>902</v>
+      </c>
+      <c r="P124" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C125" t="s">
-        <v>1262</v>
+        <v>897</v>
+      </c>
+      <c r="B125" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C125" s="17" t="s">
+        <v>2155</v>
       </c>
       <c r="D125" s="17">
+        <v>4</v>
+      </c>
+      <c r="E125" s="17">
         <v>3</v>
       </c>
-      <c r="E125" s="17">
-        <v>1</v>
-      </c>
       <c r="F125" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G125" s="17" t="s">
-        <v>808</v>
+        <v>250</v>
+      </c>
+      <c r="G125" t="s">
+        <v>2156</v>
       </c>
       <c r="H125" s="17"/>
       <c r="I125" s="17" t="s">
-        <v>728</v>
+        <v>2157</v>
       </c>
       <c r="J125" s="17" t="s">
-        <v>1263</v>
+        <v>949</v>
       </c>
       <c r="K125" s="17" t="s">
-        <v>1139</v>
-      </c>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
+        <v>1067</v>
+      </c>
+      <c r="L125" s="17" t="s">
+        <v>800</v>
+      </c>
+      <c r="M125" s="17" t="s">
+        <v>2158</v>
+      </c>
       <c r="N125" t="s">
-        <v>912</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B126" t="s">
-        <v>2116</v>
-      </c>
+        <v>907</v>
+      </c>
+      <c r="B126" s="17"/>
       <c r="C126" s="17" t="s">
-        <v>2117</v>
+        <v>1146</v>
       </c>
       <c r="D126" s="17">
-        <v>3</v>
-      </c>
-      <c r="E126" s="17">
         <v>4</v>
       </c>
-      <c r="F126" s="17">
-        <v>50</v>
+      <c r="E126">
+        <v>2</v>
+      </c>
+      <c r="F126">
+        <v>2500</v>
       </c>
       <c r="G126" t="s">
-        <v>2118</v>
-      </c>
-      <c r="H126" s="17" t="s">
-        <v>1066</v>
-      </c>
+        <v>808</v>
+      </c>
+      <c r="H126" s="17"/>
       <c r="I126" s="17" t="s">
-        <v>2119</v>
-      </c>
-      <c r="J126" s="17" t="s">
-        <v>692</v>
-      </c>
+        <v>921</v>
+      </c>
+      <c r="J126" s="17"/>
       <c r="K126" s="17"/>
       <c r="L126" s="17"/>
       <c r="M126" s="17"/>
+      <c r="N126" t="s">
+        <v>1147</v>
+      </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C127" t="s">
-        <v>1264</v>
+        <v>907</v>
+      </c>
+      <c r="B127" s="17"/>
+      <c r="C127" s="17" t="s">
+        <v>1148</v>
       </c>
       <c r="D127" s="17">
         <v>4</v>
       </c>
-      <c r="E127" s="17">
-        <v>4</v>
-      </c>
-      <c r="F127" s="17">
-        <v>50</v>
-      </c>
-      <c r="G127" s="17" t="s">
-        <v>755</v>
-      </c>
-      <c r="H127" s="17"/>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>10000</v>
+      </c>
+      <c r="G127" t="s">
+        <v>790</v>
+      </c>
+      <c r="H127" s="17" t="s">
+        <v>794</v>
+      </c>
       <c r="I127" s="17" t="s">
-        <v>1265</v>
+        <v>739</v>
       </c>
       <c r="J127" s="17" t="s">
-        <v>1266</v>
+        <v>724</v>
       </c>
       <c r="K127" s="17" t="s">
-        <v>1267</v>
+        <v>992</v>
       </c>
       <c r="L127" s="17"/>
       <c r="M127" s="17"/>
       <c r="N127" t="s">
-        <v>978</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1062</v>
+        <v>918</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>1071</v>
+        <v>923</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D128" s="17">
-        <v>5</v>
+        <v>924</v>
+      </c>
+      <c r="D128">
+        <v>4</v>
       </c>
       <c r="E128" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F128" s="17">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="G128" t="s">
-        <v>921</v>
+        <v>903</v>
       </c>
       <c r="H128" s="17"/>
       <c r="I128" s="17" t="s">
-        <v>2187</v>
+        <v>691</v>
       </c>
       <c r="J128" s="17" t="s">
-        <v>1073</v>
+        <v>925</v>
       </c>
       <c r="K128" s="17" t="s">
-        <v>1074</v>
+        <v>688</v>
       </c>
       <c r="L128" s="17"/>
       <c r="M128" s="17"/>
       <c r="N128" t="s">
-        <v>1075</v>
+        <v>926</v>
       </c>
       <c r="P128" t="s">
         <v>884</v>
@@ -32843,75 +32796,81 @@
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C129" t="s">
-        <v>1268</v>
-      </c>
-      <c r="D129" s="17">
-        <v>5</v>
+        <v>918</v>
+      </c>
+      <c r="B129" s="17" t="s">
+        <v>923</v>
+      </c>
+      <c r="C129" s="17" t="s">
+        <v>927</v>
+      </c>
+      <c r="D129">
+        <v>4</v>
       </c>
       <c r="E129" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F129" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G129" s="17" t="s">
-        <v>1269</v>
-      </c>
-      <c r="H129" s="17" t="s">
-        <v>1270</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="G129" t="s">
+        <v>928</v>
+      </c>
+      <c r="H129" s="17"/>
       <c r="I129" s="17" t="s">
-        <v>970</v>
+        <v>691</v>
       </c>
       <c r="J129" s="17" t="s">
-        <v>1271</v>
-      </c>
-      <c r="K129" s="17"/>
+        <v>925</v>
+      </c>
+      <c r="K129" s="17" t="s">
+        <v>688</v>
+      </c>
       <c r="L129" s="17"/>
       <c r="M129" s="17"/>
       <c r="N129" t="s">
-        <v>1123</v>
+        <v>929</v>
+      </c>
+      <c r="P129" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>272</v>
+        <v>918</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>1076</v>
+        <v>923</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>1077</v>
+        <v>930</v>
       </c>
       <c r="D130">
-        <v>1</v>
-      </c>
-      <c r="E130">
-        <v>1</v>
-      </c>
-      <c r="F130">
-        <v>10000</v>
+        <v>4</v>
+      </c>
+      <c r="E130" s="17">
+        <v>3</v>
+      </c>
+      <c r="F130" s="17">
+        <v>250</v>
       </c>
       <c r="G130" t="s">
-        <v>701</v>
+        <v>841</v>
       </c>
       <c r="H130" s="17"/>
       <c r="I130" s="17" t="s">
-        <v>721</v>
+        <v>691</v>
       </c>
       <c r="J130" s="17" t="s">
-        <v>629</v>
+        <v>925</v>
       </c>
       <c r="K130" s="17" t="s">
-        <v>674</v>
+        <v>688</v>
       </c>
       <c r="L130" s="17"/>
       <c r="M130" s="17"/>
       <c r="N130" t="s">
-        <v>1078</v>
+        <v>931</v>
       </c>
       <c r="P130" t="s">
         <v>884</v>
@@ -32919,40 +32878,40 @@
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>272</v>
+        <v>918</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>1079</v>
+        <v>923</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>1080</v>
+        <v>932</v>
       </c>
       <c r="D131">
-        <v>1</v>
-      </c>
-      <c r="E131">
-        <v>1</v>
-      </c>
-      <c r="F131">
-        <v>10000</v>
+        <v>4</v>
+      </c>
+      <c r="E131" s="17">
+        <v>3</v>
+      </c>
+      <c r="F131" s="17">
+        <v>250</v>
       </c>
       <c r="G131" t="s">
-        <v>701</v>
+        <v>840</v>
       </c>
       <c r="H131" s="17"/>
       <c r="I131" s="17" t="s">
-        <v>1005</v>
+        <v>691</v>
       </c>
       <c r="J131" s="17" t="s">
-        <v>784</v>
+        <v>925</v>
       </c>
       <c r="K131" s="17" t="s">
-        <v>823</v>
+        <v>688</v>
       </c>
       <c r="L131" s="17"/>
       <c r="M131" s="17"/>
       <c r="N131" t="s">
-        <v>1078</v>
+        <v>933</v>
       </c>
       <c r="P131" t="s">
         <v>884</v>
@@ -32960,40 +32919,40 @@
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>272</v>
+        <v>918</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>1081</v>
+        <v>923</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>1082</v>
+        <v>934</v>
       </c>
       <c r="D132">
-        <v>1</v>
-      </c>
-      <c r="E132">
-        <v>1</v>
-      </c>
-      <c r="F132">
-        <v>10000</v>
+        <v>4</v>
+      </c>
+      <c r="E132" s="17">
+        <v>3</v>
+      </c>
+      <c r="F132" s="17">
+        <v>250</v>
       </c>
       <c r="G132" t="s">
-        <v>701</v>
+        <v>845</v>
       </c>
       <c r="H132" s="17"/>
       <c r="I132" s="17" t="s">
-        <v>890</v>
+        <v>691</v>
       </c>
       <c r="J132" s="17" t="s">
-        <v>764</v>
+        <v>925</v>
       </c>
       <c r="K132" s="17" t="s">
-        <v>736</v>
+        <v>688</v>
       </c>
       <c r="L132" s="17"/>
       <c r="M132" s="17"/>
       <c r="N132" t="s">
-        <v>1078</v>
+        <v>935</v>
       </c>
       <c r="P132" t="s">
         <v>884</v>
@@ -33001,372 +32960,413 @@
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>272</v>
-      </c>
-      <c r="C133" t="s">
-        <v>1272</v>
+        <v>918</v>
+      </c>
+      <c r="B133" s="17" t="s">
+        <v>923</v>
+      </c>
+      <c r="C133" s="17" t="s">
+        <v>936</v>
       </c>
       <c r="D133">
-        <v>2</v>
-      </c>
-      <c r="E133">
-        <v>1</v>
-      </c>
-      <c r="F133">
-        <v>10000</v>
+        <v>4</v>
+      </c>
+      <c r="E133" s="17">
+        <v>3</v>
+      </c>
+      <c r="F133" s="17">
+        <v>250</v>
       </c>
       <c r="G133" t="s">
-        <v>701</v>
+        <v>823</v>
       </c>
       <c r="H133" s="17"/>
       <c r="I133" s="17" t="s">
+        <v>691</v>
+      </c>
+      <c r="J133" s="17" t="s">
+        <v>925</v>
+      </c>
+      <c r="K133" s="17" t="s">
         <v>688</v>
-      </c>
-      <c r="J133" s="17" t="s">
-        <v>820</v>
-      </c>
-      <c r="K133" s="17" t="s">
-        <v>881</v>
       </c>
       <c r="L133" s="17"/>
       <c r="M133" s="17"/>
       <c r="N133" t="s">
-        <v>912</v>
+        <v>937</v>
+      </c>
+      <c r="P133" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>272</v>
-      </c>
-      <c r="C134" t="s">
-        <v>1273</v>
+        <v>938</v>
+      </c>
+      <c r="B134" s="17" t="s">
+        <v>945</v>
+      </c>
+      <c r="C134" s="17" t="s">
+        <v>946</v>
       </c>
       <c r="D134" s="17">
+        <v>4</v>
+      </c>
+      <c r="E134" s="17">
         <v>3</v>
       </c>
-      <c r="E134" s="17">
-        <v>1</v>
-      </c>
       <c r="F134" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G134" s="17" t="s">
-        <v>701</v>
+        <v>250</v>
+      </c>
+      <c r="G134" t="s">
+        <v>764</v>
       </c>
       <c r="H134" s="17"/>
       <c r="I134" s="17" t="s">
-        <v>836</v>
+        <v>947</v>
       </c>
       <c r="J134" s="17" t="s">
-        <v>764</v>
-      </c>
-      <c r="K134" s="17"/>
-      <c r="L134" s="17"/>
+        <v>948</v>
+      </c>
+      <c r="K134" s="17" t="s">
+        <v>1239</v>
+      </c>
+      <c r="L134" s="17" t="s">
+        <v>1086</v>
+      </c>
       <c r="M134" s="17"/>
       <c r="N134" t="s">
-        <v>941</v>
+        <v>951</v>
+      </c>
+      <c r="P134" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>272</v>
-      </c>
-      <c r="C135" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D135">
+        <v>965</v>
+      </c>
+      <c r="B135" s="17" t="s">
+        <v>973</v>
+      </c>
+      <c r="C135" s="17" t="s">
+        <v>974</v>
+      </c>
+      <c r="D135" s="17">
+        <v>4</v>
+      </c>
+      <c r="E135" s="17">
         <v>3</v>
       </c>
-      <c r="E135">
-        <v>3</v>
-      </c>
-      <c r="F135">
+      <c r="F135" s="17">
         <v>250</v>
       </c>
       <c r="G135" t="s">
-        <v>701</v>
-      </c>
-      <c r="H135" s="17" t="s">
-        <v>1275</v>
-      </c>
+        <v>764</v>
+      </c>
+      <c r="H135" s="17"/>
       <c r="I135" s="17" t="s">
-        <v>794</v>
+        <v>643</v>
       </c>
       <c r="J135" s="17" t="s">
-        <v>629</v>
-      </c>
-      <c r="K135" s="17"/>
-      <c r="L135" s="17"/>
+        <v>691</v>
+      </c>
+      <c r="K135" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="L135" s="17" t="s">
+        <v>2194</v>
+      </c>
       <c r="M135" s="17"/>
       <c r="N135" t="s">
         <v>941</v>
       </c>
+      <c r="P135" t="s">
+        <v>884</v>
+      </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>272</v>
-      </c>
-      <c r="C136" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D136">
-        <v>3</v>
+        <v>975</v>
+      </c>
+      <c r="B136" s="17" t="s">
+        <v>979</v>
+      </c>
+      <c r="C136" s="17" t="s">
+        <v>980</v>
+      </c>
+      <c r="D136" s="17">
+        <v>4</v>
       </c>
       <c r="E136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F136">
-        <v>250</v>
+        <v>10000</v>
       </c>
       <c r="G136" t="s">
-        <v>701</v>
-      </c>
-      <c r="H136" s="17" t="s">
-        <v>1277</v>
-      </c>
+        <v>888</v>
+      </c>
+      <c r="H136" s="17"/>
       <c r="I136" s="17" t="s">
-        <v>792</v>
+        <v>910</v>
       </c>
       <c r="J136" s="17" t="s">
-        <v>890</v>
-      </c>
-      <c r="K136" s="17"/>
-      <c r="L136" s="17"/>
+        <v>806</v>
+      </c>
+      <c r="K136" s="17" t="s">
+        <v>861</v>
+      </c>
+      <c r="L136" s="17" t="s">
+        <v>642</v>
+      </c>
       <c r="M136" s="17"/>
       <c r="N136" t="s">
-        <v>941</v>
+        <v>978</v>
+      </c>
+      <c r="P136" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>272</v>
+        <v>996</v>
       </c>
       <c r="C137" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D137">
-        <v>3</v>
+        <v>1186</v>
+      </c>
+      <c r="D137" s="17">
+        <v>4</v>
       </c>
       <c r="E137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F137">
-        <v>250</v>
+        <v>10000</v>
       </c>
       <c r="G137" t="s">
-        <v>701</v>
+        <v>721</v>
       </c>
       <c r="H137" s="17" t="s">
-        <v>1279</v>
+        <v>900</v>
       </c>
       <c r="I137" s="17" t="s">
-        <v>790</v>
+        <v>643</v>
       </c>
       <c r="J137" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="K137" s="17" t="s">
         <v>661</v>
       </c>
-      <c r="K137" s="17"/>
-      <c r="L137" s="17"/>
+      <c r="L137" s="17" t="s">
+        <v>845</v>
+      </c>
       <c r="M137" s="17"/>
       <c r="N137" t="s">
-        <v>941</v>
+        <v>902</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>272</v>
+        <v>1032</v>
       </c>
       <c r="C138" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D138">
-        <v>3</v>
-      </c>
-      <c r="E138">
-        <v>3</v>
-      </c>
-      <c r="F138">
-        <v>250</v>
-      </c>
-      <c r="G138" t="s">
-        <v>701</v>
-      </c>
-      <c r="H138" s="17" t="s">
-        <v>944</v>
-      </c>
+        <v>1208</v>
+      </c>
+      <c r="D138" s="17">
+        <v>4</v>
+      </c>
+      <c r="E138" s="17">
+        <v>1</v>
+      </c>
+      <c r="F138" s="17">
+        <v>10000</v>
+      </c>
+      <c r="G138" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="H138" s="17"/>
       <c r="I138" s="17" t="s">
-        <v>788</v>
+        <v>1155</v>
       </c>
       <c r="J138" s="17" t="s">
-        <v>642</v>
-      </c>
-      <c r="K138" s="17"/>
+        <v>728</v>
+      </c>
+      <c r="K138" s="17" t="s">
+        <v>736</v>
+      </c>
       <c r="L138" s="17"/>
       <c r="M138" s="17"/>
       <c r="N138" t="s">
-        <v>941</v>
+        <v>912</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C139" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D139">
-        <v>2</v>
-      </c>
-      <c r="E139">
-        <v>1</v>
-      </c>
-      <c r="F139">
-        <v>10000</v>
-      </c>
-      <c r="G139" t="s">
-        <v>894</v>
+      <c r="A139" s="8" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B139" t="s">
+        <v>2189</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>2190</v>
+      </c>
+      <c r="D139" s="13">
+        <v>4</v>
+      </c>
+      <c r="E139" s="13">
+        <v>3</v>
+      </c>
+      <c r="F139" s="13">
+        <v>250</v>
+      </c>
+      <c r="G139" s="8" t="s">
+        <v>1057</v>
       </c>
       <c r="H139" s="17"/>
       <c r="I139" s="17" t="s">
-        <v>697</v>
+        <v>2191</v>
       </c>
       <c r="J139" s="17" t="s">
-        <v>853</v>
+        <v>2192</v>
       </c>
       <c r="K139" s="17" t="s">
-        <v>1282</v>
+        <v>800</v>
       </c>
       <c r="L139" s="17" t="s">
-        <v>1283</v>
-      </c>
-      <c r="M139" s="17"/>
-      <c r="N139" t="s">
-        <v>1178</v>
+        <v>2193</v>
+      </c>
+      <c r="M139" s="17" t="s">
+        <v>2182</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C140" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D140">
-        <v>2</v>
-      </c>
-      <c r="E140">
-        <v>1</v>
-      </c>
-      <c r="F140">
-        <v>10000</v>
+        <v>1051</v>
+      </c>
+      <c r="B140" s="17" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C140" s="17" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D140" s="17">
+        <v>4</v>
+      </c>
+      <c r="E140" s="17">
+        <v>3</v>
+      </c>
+      <c r="F140" s="17">
+        <v>250</v>
       </c>
       <c r="G140" t="s">
-        <v>905</v>
-      </c>
-      <c r="H140" s="17"/>
+        <v>721</v>
+      </c>
+      <c r="H140" s="17" t="s">
+        <v>764</v>
+      </c>
       <c r="I140" s="17" t="s">
-        <v>752</v>
+        <v>706</v>
       </c>
       <c r="J140" s="17" t="s">
-        <v>1282</v>
+        <v>890</v>
       </c>
       <c r="K140" s="17" t="s">
-        <v>736</v>
+        <v>792</v>
       </c>
       <c r="L140" s="17" t="s">
-        <v>1285</v>
+        <v>903</v>
       </c>
       <c r="M140" s="17"/>
       <c r="N140" t="s">
-        <v>1235</v>
+        <v>1050</v>
+      </c>
+      <c r="P140" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>1083</v>
+        <v>1051</v>
       </c>
       <c r="C141" t="s">
-        <v>1286</v>
-      </c>
-      <c r="D141">
-        <v>2</v>
-      </c>
-      <c r="E141">
+        <v>1236</v>
+      </c>
+      <c r="D141" s="17">
+        <v>4</v>
+      </c>
+      <c r="E141" s="17">
         <v>1</v>
       </c>
-      <c r="F141">
+      <c r="F141" s="17">
         <v>10000</v>
       </c>
-      <c r="G141" t="s">
-        <v>904</v>
+      <c r="G141" s="17" t="s">
+        <v>794</v>
       </c>
       <c r="H141" s="17"/>
       <c r="I141" s="17" t="s">
-        <v>697</v>
+        <v>831</v>
       </c>
       <c r="J141" s="17" t="s">
-        <v>1256</v>
+        <v>728</v>
       </c>
       <c r="K141" s="17" t="s">
-        <v>710</v>
+        <v>643</v>
       </c>
       <c r="L141" s="17" t="s">
-        <v>1287</v>
+        <v>841</v>
       </c>
       <c r="M141" s="17"/>
       <c r="N141" t="s">
-        <v>1243</v>
+        <v>912</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>1083</v>
+        <v>1051</v>
       </c>
       <c r="C142" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D142">
-        <v>2</v>
-      </c>
-      <c r="E142">
+        <v>1237</v>
+      </c>
+      <c r="D142" s="17">
+        <v>4</v>
+      </c>
+      <c r="E142" s="17">
         <v>1</v>
       </c>
-      <c r="F142">
+      <c r="F142" s="17">
         <v>10000</v>
       </c>
-      <c r="G142" t="s">
-        <v>888</v>
+      <c r="G142" s="17" t="s">
+        <v>790</v>
       </c>
       <c r="H142" s="17"/>
       <c r="I142" s="17" t="s">
-        <v>826</v>
+        <v>1238</v>
       </c>
       <c r="J142" s="17" t="s">
-        <v>696</v>
+        <v>1239</v>
       </c>
       <c r="K142" s="17" t="s">
-        <v>1232</v>
-      </c>
-      <c r="L142" s="17" t="s">
-        <v>1289</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="L142" s="17"/>
       <c r="M142" s="17"/>
       <c r="N142" t="s">
-        <v>951</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B143" s="17" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C143" s="17" t="s">
-        <v>1085</v>
+        <v>1054</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1244</v>
       </c>
       <c r="D143" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E143" s="17">
         <v>1</v>
@@ -33374,40 +33374,36 @@
       <c r="F143" s="17">
         <v>10000</v>
       </c>
-      <c r="G143" t="s">
-        <v>905</v>
+      <c r="G143" s="17" t="s">
+        <v>721</v>
       </c>
       <c r="H143" s="17"/>
       <c r="I143" s="17" t="s">
-        <v>691</v>
+        <v>881</v>
       </c>
       <c r="J143" s="17" t="s">
-        <v>1086</v>
+        <v>1046</v>
       </c>
       <c r="K143" s="17" t="s">
-        <v>752</v>
-      </c>
-      <c r="L143" s="17"/>
+        <v>1245</v>
+      </c>
+      <c r="L143" s="17" t="s">
+        <v>840</v>
+      </c>
       <c r="M143" s="17"/>
       <c r="N143" t="s">
-        <v>951</v>
-      </c>
-      <c r="P143" t="s">
-        <v>884</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B144" s="17" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C144" s="17" t="s">
-        <v>1088</v>
+        <v>1054</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1247</v>
       </c>
       <c r="D144" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E144" s="17">
         <v>1</v>
@@ -33415,69 +33411,60 @@
       <c r="F144" s="17">
         <v>10000</v>
       </c>
-      <c r="G144" t="s">
-        <v>894</v>
+      <c r="G144" s="17" t="s">
+        <v>788</v>
       </c>
       <c r="H144" s="17"/>
       <c r="I144" s="17" t="s">
-        <v>803</v>
+        <v>725</v>
       </c>
       <c r="J144" s="17" t="s">
-        <v>1089</v>
+        <v>1248</v>
       </c>
       <c r="K144" s="17" t="s">
-        <v>853</v>
-      </c>
-      <c r="L144" s="17"/>
+        <v>642</v>
+      </c>
+      <c r="L144" s="17" t="s">
+        <v>1249</v>
+      </c>
       <c r="M144" s="17"/>
       <c r="N144" t="s">
-        <v>951</v>
-      </c>
-      <c r="P144" t="s">
-        <v>884</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B145" s="17" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C145" s="17" t="s">
-        <v>1091</v>
+        <v>1062</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1264</v>
       </c>
       <c r="D145" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E145" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F145" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G145" t="s">
-        <v>888</v>
+        <v>50</v>
+      </c>
+      <c r="G145" s="17" t="s">
+        <v>755</v>
       </c>
       <c r="H145" s="17"/>
       <c r="I145" s="17" t="s">
-        <v>948</v>
+        <v>1265</v>
       </c>
       <c r="J145" s="17" t="s">
-        <v>844</v>
+        <v>1266</v>
       </c>
       <c r="K145" s="17" t="s">
-        <v>903</v>
-      </c>
-      <c r="L145" s="17" t="s">
-        <v>971</v>
-      </c>
+        <v>1267</v>
+      </c>
+      <c r="L145" s="17"/>
       <c r="M145" s="17"/>
       <c r="N145" t="s">
-        <v>951</v>
-      </c>
-      <c r="P145" t="s">
-        <v>884</v>
+        <v>978</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
@@ -33485,34 +33472,34 @@
         <v>1083</v>
       </c>
       <c r="C146" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="D146">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F146">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="G146" t="s">
-        <v>2156</v>
+        <v>888</v>
       </c>
       <c r="H146" s="17"/>
       <c r="I146" s="17" t="s">
-        <v>674</v>
+        <v>844</v>
       </c>
       <c r="J146" s="17" t="s">
-        <v>787</v>
+        <v>889</v>
       </c>
       <c r="K146" s="17" t="s">
-        <v>1282</v>
+        <v>896</v>
       </c>
       <c r="L146" s="17"/>
       <c r="M146" s="17"/>
       <c r="N146" t="s">
-        <v>883</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
@@ -33520,7 +33507,7 @@
         <v>1083</v>
       </c>
       <c r="C147" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="D147">
         <v>4</v>
@@ -33532,14 +33519,14 @@
         <v>50</v>
       </c>
       <c r="G147" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="H147" s="17"/>
       <c r="I147" s="17" t="s">
-        <v>844</v>
+        <v>803</v>
       </c>
       <c r="J147" s="17" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="K147" s="17" t="s">
         <v>896</v>
@@ -33555,7 +33542,7 @@
         <v>1083</v>
       </c>
       <c r="C148" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="D148">
         <v>4</v>
@@ -33567,14 +33554,14 @@
         <v>50</v>
       </c>
       <c r="G148" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
       <c r="H148" s="17"/>
       <c r="I148" s="17" t="s">
-        <v>803</v>
+        <v>1086</v>
       </c>
       <c r="J148" s="17" t="s">
-        <v>895</v>
+        <v>950</v>
       </c>
       <c r="K148" s="17" t="s">
         <v>896</v>
@@ -33590,7 +33577,7 @@
         <v>1083</v>
       </c>
       <c r="C149" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="D149">
         <v>4</v>
@@ -33602,14 +33589,14 @@
         <v>50</v>
       </c>
       <c r="G149" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H149" s="17"/>
       <c r="I149" s="17" t="s">
-        <v>1086</v>
+        <v>984</v>
       </c>
       <c r="J149" s="17" t="s">
-        <v>950</v>
+        <v>985</v>
       </c>
       <c r="K149" s="17" t="s">
         <v>896</v>
@@ -33621,152 +33608,168 @@
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C150" t="s">
-        <v>1295</v>
-      </c>
-      <c r="D150">
+      <c r="A150" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B150" s="17" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D150" s="9">
         <v>4</v>
       </c>
-      <c r="E150">
-        <v>4</v>
-      </c>
-      <c r="F150">
-        <v>50</v>
-      </c>
-      <c r="G150" t="s">
-        <v>904</v>
-      </c>
-      <c r="H150" s="17"/>
-      <c r="I150" s="17" t="s">
-        <v>984</v>
-      </c>
-      <c r="J150" s="17" t="s">
-        <v>985</v>
-      </c>
-      <c r="K150" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="L150" s="17"/>
-      <c r="M150" s="17"/>
-      <c r="N150" t="s">
-        <v>1292</v>
+      <c r="E150" s="9">
+        <v>3</v>
+      </c>
+      <c r="F150" s="9">
+        <v>250</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="H150" s="9"/>
+      <c r="I150" s="9" t="s">
+        <v>949</v>
+      </c>
+      <c r="J150" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="K150" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="L150" s="9"/>
+      <c r="M150" s="9"/>
+      <c r="N150" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="O150" s="2"/>
+      <c r="P150" s="2" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>1092</v>
-      </c>
+        <v>877</v>
+      </c>
+      <c r="B151" s="17"/>
       <c r="C151" s="17" t="s">
-        <v>1296</v>
+        <v>1119</v>
       </c>
       <c r="D151" s="17">
+        <v>5</v>
+      </c>
+      <c r="E151">
         <v>1</v>
       </c>
-      <c r="E151" s="17">
-        <v>1</v>
-      </c>
-      <c r="F151" s="17">
+      <c r="F151">
         <v>10000</v>
       </c>
       <c r="G151" t="s">
+        <v>2173</v>
+      </c>
+      <c r="H151" s="17" t="s">
         <v>2176</v>
       </c>
-      <c r="H151" s="17"/>
       <c r="I151" s="17" t="s">
-        <v>710</v>
+        <v>1120</v>
       </c>
       <c r="J151" s="17" t="s">
-        <v>1194</v>
+        <v>2219</v>
       </c>
       <c r="K151" s="17" t="s">
-        <v>1282</v>
-      </c>
-      <c r="L151" s="17" t="s">
-        <v>2175</v>
-      </c>
+        <v>1122</v>
+      </c>
+      <c r="L151" s="17"/>
       <c r="M151" s="17"/>
       <c r="N151" t="s">
-        <v>1297</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>1092</v>
+        <v>907</v>
+      </c>
+      <c r="B152" s="17" t="s">
+        <v>913</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>1298</v>
+        <v>914</v>
       </c>
       <c r="D152" s="17">
+        <v>5</v>
+      </c>
+      <c r="E152" s="17">
+        <v>4</v>
+      </c>
+      <c r="F152" s="17">
         <v>1</v>
       </c>
-      <c r="E152" s="17">
-        <v>1</v>
-      </c>
-      <c r="F152" s="17">
-        <v>10000</v>
-      </c>
       <c r="G152" t="s">
-        <v>2183</v>
+        <v>724</v>
       </c>
       <c r="H152" s="17"/>
       <c r="I152" s="17" t="s">
-        <v>674</v>
+        <v>915</v>
       </c>
       <c r="J152" s="17" t="s">
-        <v>787</v>
+        <v>916</v>
       </c>
       <c r="K152" s="17" t="s">
-        <v>643</v>
-      </c>
-      <c r="L152" s="17"/>
+        <v>800</v>
+      </c>
+      <c r="L152" s="17" t="s">
+        <v>917</v>
+      </c>
       <c r="M152" s="17"/>
       <c r="N152" t="s">
-        <v>1195</v>
+        <v>912</v>
+      </c>
+      <c r="P152" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>1092</v>
+        <v>938</v>
       </c>
       <c r="B153" s="17" t="s">
-        <v>1093</v>
+        <v>952</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>1094</v>
+        <v>953</v>
       </c>
       <c r="D153" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E153" s="17">
-        <v>1</v>
-      </c>
-      <c r="F153" s="17">
-        <v>10000</v>
+        <v>4</v>
+      </c>
+      <c r="F153">
+        <v>50</v>
       </c>
       <c r="G153" t="s">
-        <v>887</v>
+        <v>2142</v>
       </c>
       <c r="H153" s="17"/>
       <c r="I153" s="17" t="s">
-        <v>1022</v>
+        <v>954</v>
       </c>
       <c r="J153" s="17" t="s">
-        <v>764</v>
+        <v>629</v>
       </c>
       <c r="K153" s="17" t="s">
-        <v>636</v>
+        <v>955</v>
       </c>
       <c r="L153" s="17" t="s">
-        <v>710</v>
+        <v>956</v>
       </c>
       <c r="M153" s="17" t="s">
-        <v>1095</v>
+        <v>765</v>
       </c>
       <c r="N153" t="s">
-        <v>1096</v>
+        <v>957</v>
       </c>
       <c r="P153" t="s">
         <v>884</v>
@@ -33774,114 +33777,120 @@
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C154" s="17" t="s">
-        <v>1302</v>
+        <v>958</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1173</v>
       </c>
       <c r="D154" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E154" s="17">
-        <v>3</v>
-      </c>
-      <c r="F154" s="17">
-        <v>250</v>
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>10000</v>
       </c>
       <c r="G154" t="s">
-        <v>2176</v>
+        <v>764</v>
       </c>
       <c r="H154" s="17"/>
       <c r="I154" s="17" t="s">
-        <v>1022</v>
+        <v>739</v>
       </c>
       <c r="J154" s="17" t="s">
-        <v>808</v>
+        <v>1018</v>
       </c>
       <c r="K154" s="17" t="s">
-        <v>889</v>
-      </c>
-      <c r="L154" s="17" t="s">
-        <v>796</v>
-      </c>
+        <v>1171</v>
+      </c>
+      <c r="L154" s="17"/>
       <c r="M154" s="17"/>
       <c r="N154" t="s">
-        <v>1096</v>
+        <v>941</v>
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>1092</v>
+        <v>975</v>
+      </c>
+      <c r="B155" s="17" t="s">
+        <v>982</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>1304</v>
+        <v>983</v>
       </c>
       <c r="D155" s="17">
-        <v>2</v>
-      </c>
-      <c r="E155" s="17">
-        <v>3</v>
-      </c>
-      <c r="F155" s="17">
-        <v>250</v>
+        <v>5</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>10000</v>
       </c>
       <c r="G155" t="s">
-        <v>2183</v>
+        <v>904</v>
       </c>
       <c r="H155" s="17"/>
       <c r="I155" s="17" t="s">
-        <v>1022</v>
+        <v>859</v>
       </c>
       <c r="J155" s="17" t="s">
-        <v>2188</v>
+        <v>2591</v>
       </c>
       <c r="K155" s="17" t="s">
-        <v>950</v>
-      </c>
-      <c r="L155" s="17"/>
+        <v>2592</v>
+      </c>
+      <c r="L155" s="17" t="s">
+        <v>841</v>
+      </c>
       <c r="M155" s="17"/>
       <c r="N155" t="s">
-        <v>1096</v>
+        <v>986</v>
+      </c>
+      <c r="P155" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>1092</v>
+        <v>996</v>
       </c>
       <c r="B156" s="17" t="s">
-        <v>1097</v>
+        <v>1002</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>1098</v>
+        <v>1003</v>
       </c>
       <c r="D156" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E156" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F156" s="17">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="G156" t="s">
-        <v>1099</v>
+        <v>900</v>
       </c>
       <c r="H156" s="17"/>
       <c r="I156" s="17" t="s">
-        <v>1100</v>
+        <v>1004</v>
       </c>
       <c r="J156" s="17" t="s">
-        <v>1101</v>
+        <v>721</v>
       </c>
       <c r="K156" s="17" t="s">
-        <v>1102</v>
+        <v>1005</v>
       </c>
       <c r="L156" s="17" t="s">
-        <v>1103</v>
+        <v>1006</v>
       </c>
       <c r="M156" s="17"/>
       <c r="N156" t="s">
-        <v>1096</v>
+        <v>1007</v>
       </c>
       <c r="P156" t="s">
         <v>884</v>
@@ -33889,146 +33898,149 @@
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C157" s="17" t="s">
-        <v>1299</v>
+        <v>1032</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1209</v>
       </c>
       <c r="D157" s="17">
-        <v>3</v>
-      </c>
-      <c r="E157" s="17">
+        <v>5</v>
+      </c>
+      <c r="E157">
         <v>1</v>
       </c>
-      <c r="F157" s="17">
+      <c r="F157">
         <v>10000</v>
       </c>
       <c r="G157" t="s">
-        <v>880</v>
+        <v>764</v>
       </c>
       <c r="H157" s="17"/>
       <c r="I157" s="17" t="s">
-        <v>1253</v>
+        <v>684</v>
       </c>
       <c r="J157" s="17" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K157" s="17"/>
+        <v>739</v>
+      </c>
+      <c r="K157" s="17" t="s">
+        <v>921</v>
+      </c>
       <c r="L157" s="17"/>
       <c r="M157" s="17"/>
       <c r="N157" t="s">
-        <v>883</v>
+        <v>941</v>
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C158" s="17" t="s">
-        <v>1301</v>
+        <v>1032</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1210</v>
       </c>
       <c r="D158" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E158" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F158" s="17">
-        <v>250</v>
-      </c>
-      <c r="G158" t="s">
-        <v>2171</v>
+        <v>10000</v>
+      </c>
+      <c r="G158" s="17" t="s">
+        <v>794</v>
       </c>
       <c r="H158" s="17"/>
       <c r="I158" s="17" t="s">
-        <v>1022</v>
+        <v>831</v>
       </c>
       <c r="J158" s="17" t="s">
-        <v>901</v>
+        <v>1200</v>
       </c>
       <c r="K158" s="17" t="s">
-        <v>984</v>
+        <v>744</v>
       </c>
       <c r="L158" s="17"/>
       <c r="M158" s="17"/>
       <c r="N158" t="s">
-        <v>1096</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C159" s="17" t="s">
-        <v>1303</v>
+        <v>1032</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1212</v>
       </c>
       <c r="D159" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E159" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F159" s="17">
-        <v>250</v>
-      </c>
-      <c r="G159" t="s">
-        <v>2173</v>
-      </c>
-      <c r="H159" s="17"/>
+        <v>50</v>
+      </c>
+      <c r="G159" s="17" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H159" s="17" t="s">
+        <v>1214</v>
+      </c>
       <c r="I159" s="17" t="s">
-        <v>1022</v>
+        <v>1215</v>
       </c>
       <c r="J159" s="17" t="s">
-        <v>674</v>
+        <v>1216</v>
       </c>
       <c r="K159" s="17" t="s">
-        <v>803</v>
-      </c>
-      <c r="L159" s="17"/>
+        <v>917</v>
+      </c>
+      <c r="L159" s="17" t="s">
+        <v>800</v>
+      </c>
       <c r="M159" s="17"/>
       <c r="N159" t="s">
-        <v>1096</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>1092</v>
+        <v>1062</v>
       </c>
       <c r="B160" s="17" t="s">
-        <v>2584</v>
+        <v>1071</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>2585</v>
+        <v>1072</v>
       </c>
       <c r="D160" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E160" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F160" s="17">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="G160" t="s">
-        <v>887</v>
-      </c>
-      <c r="H160" t="s">
-        <v>904</v>
-      </c>
-      <c r="I160" t="s">
-        <v>1166</v>
-      </c>
-      <c r="J160" t="s">
-        <v>2355</v>
-      </c>
-      <c r="K160" t="s">
-        <v>2586</v>
-      </c>
-      <c r="L160" t="s">
-        <v>2318</v>
-      </c>
+        <v>921</v>
+      </c>
+      <c r="H160" s="17"/>
+      <c r="I160" s="17" t="s">
+        <v>2187</v>
+      </c>
+      <c r="J160" s="17" t="s">
+        <v>1073</v>
+      </c>
+      <c r="K160" s="17" t="s">
+        <v>1074</v>
+      </c>
+      <c r="L160" s="17"/>
+      <c r="M160" s="17"/>
       <c r="N160" t="s">
-        <v>2587</v>
+        <v>1075</v>
       </c>
       <c r="P160" t="s">
         <v>884</v>
@@ -34036,47 +34048,37 @@
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B161" s="17" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C161" s="17" t="s">
-        <v>1105</v>
+        <v>1062</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1268</v>
       </c>
       <c r="D161" s="17">
         <v>5</v>
       </c>
       <c r="E161" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F161" s="17">
-        <v>50</v>
-      </c>
-      <c r="G161" t="s">
-        <v>880</v>
-      </c>
-      <c r="H161" s="17"/>
+        <v>10000</v>
+      </c>
+      <c r="G161" s="17" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H161" s="17" t="s">
+        <v>1270</v>
+      </c>
       <c r="I161" s="17" t="s">
-        <v>800</v>
+        <v>970</v>
       </c>
       <c r="J161" s="17" t="s">
-        <v>724</v>
-      </c>
-      <c r="K161" s="17" t="s">
-        <v>794</v>
-      </c>
-      <c r="L161" s="17" t="s">
-        <v>2318</v>
-      </c>
-      <c r="M161" s="17" t="s">
-        <v>896</v>
-      </c>
+        <v>1271</v>
+      </c>
+      <c r="K161" s="17"/>
+      <c r="L161" s="17"/>
+      <c r="M161" s="17"/>
       <c r="N161" t="s">
-        <v>1107</v>
-      </c>
-      <c r="P161" t="s">
-        <v>884</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
@@ -34084,10 +34086,10 @@
         <v>1092</v>
       </c>
       <c r="B162" s="17" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="D162" s="17">
         <v>5</v>
@@ -34099,26 +34101,26 @@
         <v>50</v>
       </c>
       <c r="G162" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="H162" s="17"/>
       <c r="I162" s="17" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="J162" s="17" t="s">
-        <v>1014</v>
+        <v>724</v>
       </c>
       <c r="K162" s="17" t="s">
-        <v>2593</v>
+        <v>794</v>
       </c>
       <c r="L162" s="17" t="s">
-        <v>696</v>
+        <v>2318</v>
       </c>
       <c r="M162" s="17" t="s">
         <v>896</v>
       </c>
       <c r="N162" t="s">
-        <v>1019</v>
+        <v>1107</v>
       </c>
       <c r="P162" t="s">
         <v>884</v>
@@ -34126,93 +34128,91 @@
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>1110</v>
+        <v>1092</v>
       </c>
       <c r="B163" s="17" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="D163" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E163" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F163" s="17">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="G163" t="s">
-        <v>764</v>
+        <v>888</v>
       </c>
       <c r="H163" s="17"/>
       <c r="I163" s="17" t="s">
-        <v>691</v>
+        <v>792</v>
       </c>
       <c r="J163" s="17" t="s">
-        <v>2194</v>
+        <v>1014</v>
       </c>
       <c r="K163" s="17" t="s">
-        <v>732</v>
+        <v>2593</v>
       </c>
       <c r="L163" s="17" t="s">
-        <v>733</v>
-      </c>
-      <c r="M163" s="17"/>
+        <v>696</v>
+      </c>
+      <c r="M163" s="17" t="s">
+        <v>896</v>
+      </c>
       <c r="N163" t="s">
-        <v>1038</v>
+        <v>1019</v>
       </c>
       <c r="P163" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B164" s="17" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C164" s="9" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D164" s="9">
-        <v>4</v>
-      </c>
-      <c r="E164" s="9">
-        <v>3</v>
-      </c>
-      <c r="F164" s="9">
-        <v>250</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="H164" s="9"/>
-      <c r="I164" s="9" t="s">
-        <v>949</v>
-      </c>
-      <c r="J164" s="9" t="s">
-        <v>808</v>
-      </c>
-      <c r="K164" s="9" t="s">
-        <v>717</v>
-      </c>
-      <c r="L164" s="9"/>
-      <c r="M164" s="9"/>
-      <c r="N164" s="2" t="s">
-        <v>1038</v>
-      </c>
-      <c r="O164" s="2"/>
-      <c r="P164" s="2" t="s">
-        <v>884</v>
+      <c r="A164" t="s">
+        <v>897</v>
+      </c>
+      <c r="B164" s="17"/>
+      <c r="C164" s="17" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D164" s="17">
+        <v>10</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>10000</v>
+      </c>
+      <c r="G164" t="s">
+        <v>894</v>
+      </c>
+      <c r="H164" s="17"/>
+      <c r="I164" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="J164" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="K164" s="17" t="s">
+        <v>1125</v>
+      </c>
+      <c r="L164" s="17" t="s">
+        <v>642</v>
+      </c>
+      <c r="M164" s="17"/>
+      <c r="N164" t="s">
+        <v>902</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:P1" xr:uid="{C182BAC9-BEF5-449C-9FCB-142EFD583D9B}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P164">
-      <sortCondition ref="A1"/>
+      <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/INFO D.xlsx
+++ b/INFO D.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Dissonance-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296AD62F-C770-4D4E-8E38-88B45FC67041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4831FDB4-5956-437B-9539-6B4689EB4661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="525" windowWidth="29040" windowHeight="16440" tabRatio="680" firstSheet="6" activeTab="14" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="680" firstSheet="7" activeTab="22" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,7 @@
     <sheet name="Skill Tree Perks" sheetId="25" r:id="rId20"/>
     <sheet name="Talent Perks" sheetId="22" r:id="rId21"/>
     <sheet name="MineColonies Research" sheetId="23" r:id="rId22"/>
+    <sheet name="Physical Tree" sheetId="30" r:id="rId23"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Affixes (cont.)'!$A$1:$J$1</definedName>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4746" uniqueCount="2595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4785" uniqueCount="2634">
   <si>
     <t>Quest</t>
   </si>
@@ -7846,6 +7847,463 @@
   </si>
   <si>
     <t>increased_proj_speed_flat</t>
+  </si>
+  <si>
+    <t>Passives</t>
+  </si>
+  <si>
+    <t>Raging Dragon Linker</t>
+  </si>
+  <si>
+    <t>Empowering Finisher</t>
+  </si>
+  <si>
+    <t>Elemental Vengeance Finisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit Drain Linker </t>
+  </si>
+  <si>
+    <t>(nature dmg, heal self hp, mana, energy)</t>
+  </si>
+  <si>
+    <t>(fire/lightn projectile)</t>
+  </si>
+  <si>
+    <t>(all elements, big aoe)</t>
+  </si>
+  <si>
+    <t>(aoe, grant many stacks of empower to allies)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Elemental Strike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (all elements)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sweeping Strike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (aoe)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Goading Strike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (aoe, taunt)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Debilitating Strike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (lowrs dmg, spd)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Piercing Strike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (lowers def)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empower</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (inc. dmg)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Enlighten</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (inc. regen, cdr, cast rate)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Triple Attack Linker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (3x hit)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Earthen Smash Finisher</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (aoe nature dmg, buff ally def)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Flowing River Linker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (2x frost hit, heal allies)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Power Form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (att give empower to nearby allies)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wisdom Form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (att give wisdom to nearby allies)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Power Form Rush</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (expend power form buff to grant many stacks of empower, long cooldown)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wisdom Form Rush</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (expend wisdom form buff to grant many stacks of enlighten, long cooldown)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Omnislash Finisher</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (really high dmg rapid attacks)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Anti-gravity Finisher</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (aoe, make enemies levitate)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rallying Sweep Linker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (aoe dmg, buff allies with speed and dmg)</t>
+    </r>
+  </si>
+  <si>
+    <t>"strikes" grant the attacker</t>
+  </si>
+  <si>
+    <t>a combo starter stack</t>
+  </si>
+  <si>
+    <t>linker spells REQUIRE a combo</t>
+  </si>
+  <si>
+    <t>starter stack to be cast, and grant</t>
+  </si>
+  <si>
+    <t>the attacker a combo extender stack</t>
+  </si>
+  <si>
+    <t>finishers REQUIRE a combo</t>
+  </si>
+  <si>
+    <t>extender stack to be cast</t>
+  </si>
+  <si>
+    <t>they also expend the combo starter</t>
+  </si>
+  <si>
+    <t>stack</t>
+  </si>
+  <si>
+    <t>they also expend the combo</t>
+  </si>
+  <si>
+    <t>extender stack</t>
+  </si>
+  <si>
+    <t>buffs</t>
+  </si>
+  <si>
+    <t>PHYSICAL TREE</t>
   </si>
 </sst>
 </file>
@@ -8133,7 +8591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -8202,6 +8660,12 @@
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -27847,7 +28311,7 @@
   </sheetPr>
   <dimension ref="A1:P164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -42752,6 +43216,272 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B49BBD-0DB4-4D92-9AC0-32DC0162AF4D}">
+  <dimension ref="B2:J31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="10" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="73">
+        <v>50</v>
+      </c>
+      <c r="D4" s="68"/>
+      <c r="F4" s="69"/>
+      <c r="H4" s="71" t="s">
+        <v>2618</v>
+      </c>
+      <c r="J4" s="72"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="73"/>
+      <c r="D5" s="68"/>
+      <c r="F5" s="69"/>
+      <c r="H5" s="71"/>
+      <c r="J5" s="72"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="73">
+        <v>40</v>
+      </c>
+      <c r="D6" s="68"/>
+      <c r="F6" s="69"/>
+      <c r="H6" s="66" t="s">
+        <v>2598</v>
+      </c>
+      <c r="J6" s="72" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="73"/>
+      <c r="D7" s="68"/>
+      <c r="F7" s="69"/>
+      <c r="H7" s="71" t="s">
+        <v>2602</v>
+      </c>
+      <c r="J7" s="72"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="73">
+        <v>30</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>2604</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>2599</v>
+      </c>
+      <c r="H8" s="71" t="s">
+        <v>2619</v>
+      </c>
+      <c r="J8" s="72"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="73"/>
+      <c r="D9" s="68"/>
+      <c r="F9" s="69" t="s">
+        <v>2600</v>
+      </c>
+      <c r="H9" s="71"/>
+      <c r="J9" s="72"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="73">
+        <v>25</v>
+      </c>
+      <c r="D10" s="68"/>
+      <c r="F10" s="69" t="s">
+        <v>2620</v>
+      </c>
+      <c r="H10" s="71"/>
+      <c r="J10" s="72" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="73"/>
+      <c r="D11" s="68"/>
+      <c r="F11" s="69"/>
+      <c r="H11" s="71"/>
+      <c r="J11" s="72"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="73">
+        <v>20</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>2605</v>
+      </c>
+      <c r="F12" s="69"/>
+      <c r="H12" s="71"/>
+      <c r="J12" s="72"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="73"/>
+      <c r="D13" s="68"/>
+      <c r="F13" s="69"/>
+      <c r="H13" s="71"/>
+      <c r="J13" s="72"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="73">
+        <v>15</v>
+      </c>
+      <c r="D14" s="68" t="s">
+        <v>2606</v>
+      </c>
+      <c r="F14" s="70" t="s">
+        <v>2596</v>
+      </c>
+      <c r="H14" s="66" t="s">
+        <v>2597</v>
+      </c>
+      <c r="J14" s="72" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="73"/>
+      <c r="D15" s="68"/>
+      <c r="F15" s="69" t="s">
+        <v>2601</v>
+      </c>
+      <c r="H15" s="71" t="s">
+        <v>2603</v>
+      </c>
+      <c r="J15" s="72"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="73">
+        <v>10</v>
+      </c>
+      <c r="D16" s="68" t="s">
+        <v>2607</v>
+      </c>
+      <c r="F16" s="69" t="s">
+        <v>2613</v>
+      </c>
+      <c r="H16" s="71"/>
+      <c r="J16" s="72"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="73"/>
+      <c r="D17" s="68"/>
+      <c r="F17" s="69"/>
+      <c r="H17" s="71"/>
+      <c r="J17" s="72"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="73">
+        <v>5</v>
+      </c>
+      <c r="D18" s="68"/>
+      <c r="F18" s="69"/>
+      <c r="H18" s="71"/>
+      <c r="J18" s="72" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="73"/>
+      <c r="D19" s="68"/>
+      <c r="F19" s="69"/>
+      <c r="H19" s="71"/>
+      <c r="J19" s="72"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="73">
+        <v>1</v>
+      </c>
+      <c r="D20" s="68" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F20" s="69" t="s">
+        <v>2611</v>
+      </c>
+      <c r="H20" s="71" t="s">
+        <v>2612</v>
+      </c>
+      <c r="J20" s="72"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="73"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="73" t="s">
+        <v>2595</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2609</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D27" s="68" t="s">
+        <v>2621</v>
+      </c>
+      <c r="F27" s="69" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H27" s="71" t="s">
+        <v>2626</v>
+      </c>
+      <c r="J27" s="72" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>2622</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2624</v>
+      </c>
+      <c r="H28" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>2625</v>
+      </c>
+      <c r="H29" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>2628</v>
+      </c>
+      <c r="H30" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B10869D-BB98-446E-A391-D8AB9A1D34DF}">
   <sheetPr>
